--- a/data/tca_corpus/random_250_tca_corpus.xlsx
+++ b/data/tca_corpus/random_250_tca_corpus.xlsx
@@ -387,6674 +387,6724 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3092406201</t>
+          <t>https://openalex.org/W1977569045</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1098/rstl.1851.0012</t>
+          <t>https://doi.org/10.1098/rspl.1843.0010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Thomson (1851)</t>
+          <t>Rainey (1851)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>X. A mathematical theory of magnetism</t>
+          <t>Some further observations and experiments illustrative of the cause of the ascent and continued motion of the sap, in continuation of a paper presented to the Royal Society in November 1842</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Introduction. 1. The existence of magnetism is recognized by certain phenomena of force which are attributed to it as their cause. Other physical effects are found to be produced by the same agency; as in the operation of magnetism with reference to polarized light, recently discovered by Mr. F a r a d a y ; but we must still regard magnetic force as the characteristic of magnetism, and, however interesting such other phenomena may be in themselves, however essential a knowledge of them may be for enabling us to arrive at any satisfactory ideas regarding the physical nature of magnetism, and its connection with the general properties of matter, we must still consider the investigation of the laws, according to which the development and the action of magnetic force are regulated, to be the primary object of a Mathematical Theory in this branch of Natural Philosophy.</t>
+          <t>The author here gives an account of some experiments which he has lately made, tending, in his opinion, to corroborate the opinions he advanced in his former paper; namely, that the ascending sap is situated in the intercellular and intervascular spaces of the plant, and that its passage into the cells is effected by the action of endosmose, which the intervening membranes, whether living, or deprived of vitality, exert upon that fluid. He found that portions of many plants, such as Anthriscus vulgaris , and the Lapsana communis , absorb a much larger quantity of fluid when they are immersed in pure water; than when similarly immersed in a solution of gum-arabic; and that, in the latter case, the remaining portion of the solution is of the same specific gravity as before any part has been absorbed by the plant. By a similar process, the author conceives, the fluid which is derived from the earth, and has passed into the intercellular spaces of the cotyledons, are imbibed by its cells by endosmose; while at the same time a fluid containing sugar is passing, by exosmose, out of these cells into the intercellular and intervascular tissue, and thence into the corresponding tissue of the peduncle and young stem; it there meets with, and is diluted by the water ascending in the same tissue from the roots, and the mixture is afterwards distributed over every part of the plant.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2473382852</t>
+          <t>https://openalex.org/W2094416746</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s0370164600036506</t>
+          <t>https://doi.org/10.1098/rspl.1843.0131</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Maclaren (1851)</t>
+          <t>NA (1851)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1. On Grooved and Striated Rocks in the Middle Region of Scotland.</t>
+          <t>Researches on the function of the intercostal muscles and on the respiratory movements, with some remarks on muscular power, in man</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>In this paper an account was given of grooved, striated, and abraded rocks in various parts of Scotland, from Glen Spean on the north, to the Pentland and Lammermoor Hills on the south. After indicating the direction in which the groovings pointed, it was shewn,—that the appearance of these grooved and striated rocks is irreconcilable with the hypothesis which ascribes the phenomena to a supposed great Atlantic wave or transient flood, of which one part swept across the low lands of Scotland, while another part was turned back by the mountains,—that in the district between the Clyde and the Spean, where the largest and best marked groovings were observed, there is satisfactory evidence to prove, that they were produced by bodies of vast depth occupying the valleys, moving from the mountain group as a common centre, toward the coast and the Lowlands in all directions, and exerting an immense force of pressure vertically and laterally,—that this quaquaversal motion, as well as the form, position, and size of the groovings, are conclusive against the idea that they were caused by currents of water loaded with stones and gravel, since no collected mass of water exists, or could exist, of the requisite magnitude and elevation, to send out streams in all directions capable of acting powerfully at the height of a thousand feet or more above the bottoms of the valleys,—that the effects mentioned, therefore, can only be accounted for by the agency of glaciers, as exemplified in the Swiss Alps.</t>
+          <t>The object of this paper is to demonstrate by models and dissections the action of the intercostal muscles. After premising an account of the views of several eminent physiologists, and in particular those promulgated by Haller, the author shows that they resolve themselves into the general opinion that the scalene or other muscles of the neck fix the first rib, in order to enable the two sets of intercostal muscles to act either separately or conjointly, as inspiratory or expiratory muscles. He then proceeds to state the proofs that the intercostal muscles possess an action which is independent of any other muscle, and also independent of each other, so that any of the twelve ribs may be elevated or depressed by them either separately or conjointly. He demonstrates the nature of this action by means of models, producing oblique tensions between levers representing the ribs, and allowing of rotation on their centres of motion; and he shows that such tension in the direction of the external intercostal muscles, elevates both the levers until the tension ceases, or the position of the bars by proximity obstruct each other. If the tension be exerted in a contrary direction, as in the internal intercostal muscles, the bars are both depressed. This movement was demonstrated by a model. It was farther shown that two tensions decussating can, according to the position of the fulcra, be made to act as associates or antagonists to each other. Such motions are to be considered with reference to the fulcra, bars with one fulcrum common to each having no such action; and the author accordingly draws the following conclusions:— 1st. All the external intercostal muscles are true inspiratory muscles, elevators of the ribs, and with this act they dilate the intercostal spaces, thus increasing the cavity of the chest.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2081275610</t>
+          <t>https://openalex.org/W3092260790</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1098/rspl.1843.0115</t>
+          <t>https://doi.org/10.1098/rspl.1843.0015</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA (1851)</t>
+          <t>Sabine (1851)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Researches into the effects of certain physical and chemical agents on the nervous system</t>
+          <t>Contributions to terrestrial magnetism. No. VI</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The professed object of the author, in the present paper, is “ to detail the results of an investigation of the phenomena and the laws of production and action of certain secondary or induced conditions of the nervous system, which are effected by a voltaic, and proba­bly by any other electric current, but persistent after the influence of that current is withdrawn.” This condition he designates by the new term electrogenic , as describing at once the origin and the independence of that condition. On the present occasion he confines himself to the subject of the electrogenic condition of the muscular nerves, postponing to future inquiries that of the incident nerves and of the spinal marrow; and also the modes of action of other physical and chemical agents, such as mechanical injury, heat and cold, strychnine, and the hydrocyanic acid. The bones and muscles of the brachial lumbar and pelvic regions of a frog, being isolated from all the other parts of the body, except­ing only by means of their respective brachial and lumbar nerves, which were perfectly denuded on all sides, and raised from the glass on which the limbs were laid, a voltaic current from a pair of the “couronne de tasses” was passed downwards through the nerves, in a direction from their origin in the spinal marrow towards their ter­minations in the muscles. Energetic muscular movements were at first excited; and the current was thus continued during the space of five, ten, or fifteen minutes, and at the end of this period was withdrawn. No sooner was the current discontinued than the mus­cles were affected with spasmodic contractions, and with a tetanoid rigidity, constituting the secondary, or what the author denominates the electrogenic condition ; an effect, which as instantly subsides on the restoration of the voltaic current.</t>
+          <t>This portion of the series consists of observations made on board Her Majesty’s ships Erebus and Terror, from June 1841 to August 1842, in the Antarctic Expedition under the command of Captain Sir James Clark Ross, R. N., F. R. S. It comprises the result of the operations conducted during the second year of the expedition, when it proceeded early in July 1841, from Hobarton to Sydney, and thence to the Bay of Islands in New Zealand, remaining there till November, and reaching, in February 1842, in latitude 78°, the icy barrier which had stopped their progress in the preceding year. Quitting the antarctic circle in March, and keeping nearly in the 60th parallel, they crossed the whole breadth of the Southern Pacific Ocean to the Falkland Islands, where they arrived in April 1842. On a general review of the magnetic declination in the southern Hemisphere, the phenomena are found to present the same obvious and decided features of a duplicate system as those of the northern. Particular attention is given to those lines traversed by the ship’s course where the needle attains its maximum declination, whether easterly or westerly, as affording valuable data for the estimation of secular variations. The results obtained by the present expedition confirm the conclusion deducible from those of previous navigators; namely, that the spaces in the Southern Pacific, distinguished by certain magnetic characters, undergo a movement of translation, of which the general direction is from east to west; a direction which is the opposite to that in which a similar change takes place in the corresponding regions of the northern hemisphere; namely, in the Siberian quarter, where the secular movement is from west to east.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2010078545</t>
+          <t>https://openalex.org/W1984551964</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1192/bjp.18.84.482</t>
+          <t>https://doi.org/10.1144/transed.2.2.209</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Howden (1873)</t>
+          <t>Lyon (1873)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The Religious Sentiment in Epileptics</t>
+          <t>The geology of Edinburgh and its suburbs. Part II. Aqueous rocks</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>In the following observations I propose to describe a feature in the mental condition of Epileptics, which, to the best of my knowledge, has not attracted that attention to which its frequency entitles it. I refer to the exaltation of the religious sentiment. Irritability, suspicion, impulsive violence, egotism, strong homicidal propensities are among the most commonly observed characteristics in the insane epileptic; but in strange contradiction with these we very frequently find combined a strong devotional feeling, manifesting itself, it may be, in simple piety or in decided religious delusions. I do not pretend that the forms of religious insanity to be afterwards noticed are peculiar to epilepsy, but they are very frequently found in connection with it, and, I believe, I have only to describe a few illustrative cases to bring to your recollection numerous others which have occurred in your own experience. The causes which combine to develope a devotional frame of mind in Epileptics are probably numerous. In congenital cases or those arising from diseases of childhood education no doubt exercises a powerful influence. The epileptic child is necessarily less able to join in the amusements and occupations of healthy children, and a large share of his time and attention may be devoted at home to religious instruction. The mysterious nature of the disease, the consciousness of infirmity and helplessness developes a craving for sympathy in the epileptic which we rarely see in other lunatics. In the wards and airing-courts of our asylums, epileptics may be distinguished from their fellow-patients by the fact that they are generally found associating in little groups of twos or threes. They sympathize with each other, lean on each other for help in the time of trouble, and however much they exhibit violence and viciousness to others, they rarely attack each other. Along with this desire for sympathy, the epileptic is mercifully endowed with strong hope. He is always getting over his trouble, he thinks the turns are less severe, and will tell you perhaps the day before a fatal seizure that he thinks he will have no more fits. We all know how much hope has helped the physician in his efforts to combat this disease with a whole battery of drugs, each of which in its turn seems for a time to promise success, only too surely to fail in the end. This craving for sympathy finds a deep response in the highest development of hope—religion; and the sufferings of this life are assuaged by the assurance of sympathy and aid from heaven, and of a blessed future where suffering and sorrow are no more.</t>
+          <t>The geological records of the Scottish sedimentary formations, with the exception of the oldest and most highly metamorphosed, are exceedingly fragmentary and imperfect. Wave after wave of crust-motion, with long intervals during which the erosive agencies had been actively at work, have disturbed or destroyed our aqueous rocks. The anticlinal facings have been planed down, just as a joiner would plane down a rough and uneven surface, and the whole formations have been thrown into a series of parallel and alternating beds, having a north-east and south-west strike, and broken through by igneous rocks of various ages and character. In the middle of these formations, as in a trough or hollow, repose the carboniferous beds (the most perfect of the series), or such of them as have escaped denudation, and stretch out in a diagonal direction across the great valley of central Scotland. These beds, being prolonged towards the south-west, meet the Irish formations belonging to the same epoch, which likewise stretch obliquely across that country, and consist principally of an enormous mass of limestone resting on hard gritty slates, and overlaid with the upper Coal Measures. There is no formation which so much illustrates the changes, the alternations, the vicissitudes which the surface of the earth has undergone, as the Carboniferous series. This may arise from the circumstance, that it is the great storehouse of those minerals which have contributed to our comfort, refinement, and civilisation, and that we are therefore better acquainted with it than any other. It</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4244165507</t>
+          <t>https://openalex.org/W2019340203</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1098/rspl.1872.0011</t>
+          <t>https://doi.org/10.5962/bhl.title.27750</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA (1873)</t>
+          <t>Davies &amp; Matthews (1873)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>III. Colouring-matters derived from aromatic azodiamines</t>
+          <t>The preparation &amp;amp; mounting of microscopic objects</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Whilst we were engaged with the study of the blue colouring-matter produced by the action of aromatic monamines on azodiphenyldiamine our attention became directed to a beautiful red tar-pigment, which has been known for some time by the commercial name of Safranine, being extensively used as a substitute for safflower in dyeing silk and cotton. Safranine has not as yet been minutely examined; but, as far as can be judged from the scanty information we possess regarding its production, it is scarcely doubtful that this important dye must be looked upon as being the derivative of an azodiamine. The analysis of safranine thus promised to throw considerable light upon the nature of the compounds under examination. The starting-point of our studies was the dye such as it occurs in commerce. The greater portion of it was supplied to us by Messrs. Tillmanns, of Crefeld. Another specimen was received from Dr. J. Wolf, and for a third one we are indebted to our friend M. Charles Girard, of Paris. Both the first-mentioned specimens were assigned to us as produced on the large scale ; the last was prepared by M. Girard himself.</t>
+          <t>rj&amp;EPARATION AND MOUNTING which he should be familiar, so as to be able to speak with some degree of certainty of the nature of the tissues demonstrated by them.It is now, therefore, intended to give the reader a list of these aids, arranging them according to the effects which it is desired to produce.Strieker observes, " that it is to be borne iu mind that it is impossible to say of any fluid that it constitutes an indifferent, i.e., neutral, medium for fresh tissues of all kinds.In all instances we must be prepared for changes taking place."He gives, however, a list of fluids to which structures are generally most indifferent, i.e., in which least alteration may be detected under examina- tion while fresh, viz.:-1st.Fluid of the aqueous humour.2nd.The serum, of the blood.3rd.Amniotic fluid, very fresh, in which a little iodinehj,s been dissolved, making it of a faint yellow tint.4th.Very dilute solutions of neutral salts, such as phosphate and acetate of soda and potash, &amp;c.It is scarcely within the power of any one observer to have largely used or tested the whole of the processes here- inafter to be mentioned.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2313903555</t>
+          <t>https://openalex.org/W2133158792</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s0080456800025801</t>
+          <t>https://doi.org/10.1098/rstl.1873.0004</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Blackie (1873)</t>
+          <t>NA (1873)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>I.—&lt;i&gt;On the Philological Genius and Character of the Neo-Hellenic Dialect of the Greek Language&lt;/i&gt;</t>
+          <t>III. Volcanic energy: an attempt to develop its true origin and cosmical relations</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Proposition I.—All spoken language is a growth, subject, like the creature who uses it, to a constant course of mutation; it is a living organism, developed according to certain laws, partly inherent, partly superinduced; and, though it is liable to decay, disintegration, and death, this disintegration, except in special cases of extermination, becomes the soil of a new growth, and this death the cradle of a new life. The historical action of this process of mutation is to produce either new varieties or dialects of one language, or new species of one family of languages.</t>
+          <t>1. Plutonic action has long been loosely applied by geologists as a term for forces of some sort, of whose nature little was known, acting deep beneath the surface of our globe, and either not directly manifesting themselves at all at the surface, or, if so, chiefly in the form of earthquakes, thermal springs, &amp;amp; c.; while volcanic action, showing itself at the surface in the phenomena of extinct, dormant, or active volcanoes, has been very generally regarded as something different in nature as well as in degree of activity. Some relations have always, more or less vaguely, been admitted between these; but each has in turn been placed in the relation of cause and effect to the other. A third class of actions, those of “forces of elevation,” though assumed to have some relations with the preceding, have very commonly been regarded by geologists as differing in nature from both, in degree as well as in kind. It is true that all these phenomena have been linked together by such wide and vague phrases as that of Humboldt, who speaks of them as “the reaction of the interior of a planet upon its exterior;” but I am not aware of any attempt having previously been made to colligate them all as effects originating in one common cause, and that referable to the admitted cosmical facts and mechanism of our globe. Sir William Thomson, regarding all these phenomena from the lofty point of thermodynamics (from which the writer also is about to view them in this paper), has distinctly colligated them as referable to dissipation of energy existing in our planet in the form of terrestrial heat, and has given to all its play of phenomena the title of “Plutonic action,” which he defines as “any transformation of energy going on within the earth” (Trans. Geolog. Soc. of Glasgow, vol. iii. pt. ii.).</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2037601954</t>
+          <t>https://openalex.org/W4229962982</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/007402a0</t>
+          <t>https://doi.org/10.1038/009020a0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Brewer (1873)</t>
+          <t>NA (1873)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Anticipations of Natural Philosophy Maupertuis</t>
+          <t>Societies and Academies</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HAVING lately had occasion to examine the works of Maupertuis I, like Prof. Jevons, was struck by meeting with anticipatory glimpses of the modern theory of Natural Selection. The passage, given almost word for word by Lord Bolingbroke in the quotation made by Prof. Jevons, occurs somewhat incidentally in two parts of Maupertuis' writings; in the memoir alluded to (“Les Loix du Mouvement et du Repos, déduites d'un principe métaphysique”); and in the “Essay de Cosmologie,” into which the memoir was expanded five years later (1751). In both these works Maupertuis is chiefly concerned with establishing his well-known metaphysico-mechanical principle of “The Least Action” (“La moindre Quantité d'Action”); and with deducing therefrom proof of the existence of God. But the doctrine of “The Survival of the Fittest” is more clearly discernible, and more than incidentally referred to, in his small physiological treatise, “Venus physique” (Œuvres, tome ii. ed. 1756). The whole of this work is not wanting in interest, but as bearing specially on the subject in question, I would mention the third, fifth, and last chapters of the second part Chapter III. is entitled “Production de nouvelles especes.” In it the most pronounced passage is perhaps the following: “Mais la sage Nature, par le dégoût qu'elle a inspiré pour ces défauts, n'a pas voulu qu'ils se perpetuassent; chaque père, chaque mère fait de son mieux pour les éteindre; les beautés sout plus sûrement héréditaires; la taille, et la jambe, que nous admirons, sont l'ouvrage de plusieurs générations, où l'on s'est appliquè à les former.” Chapter V., called an “Essay d'explication desphénomènes précénts,” is an attempt to explain the physiological processes at work in the preservation of the best types, and in the production of new forms. On the efficacy of these processes the author says: “L'expérience pourroit, peut-être, éclaircir ce point; si l'on essayoit pendant longtemps de mutiler quelques animaux de génération en génération, peut-être verroiton les parties rétranchées, diminuer peu à peu; peut-être verroit-on les à la fin s'anéantir.” The last chapter contains a summary of the whole work, and a number of “Doules et Questions,” propounded by the author. In one of these he asks, “Cet instinct des animaux, qui leur fait rechercher ce qui leur convient, et fuir ce qui leur nuit, n'appartient-il point aux plus petites parties dont l'animal est formé?” In another question Maupertuis puts forward a bold hypothesis as to the influence which the decomposed material of the dead animal organism might exercise upon plants, and through them upon the structure and character of the living organism.</t>
+          <t>MANCHESTERLiterary arid Philosophical Society, October 7.-E. W. Binney, vice-president, in the chair. -“Atmospheric Refraction and the last rays of the Setting Sun,“by Mr. D- Winstanley. It is recorded in the Proceedings of this Society that a letter dated from Southport and written by Dr. Joule was read at the meeting held on the 5th October, 1869. In that letter it is remarked that "Mr. Baxendell noticed the fact that at the moment of the departure of the sun below the horizon the last glimpse is coloured bluish green.“Dr. Joule also observes that on two or th; .: occasions he had himself noticed the phenomenon in question, o.nd that "just at the upper edge where bands of the sun's disc are separated one after the other by refraction, each band becomes coloured blue just before it vanishes.“During the pasi eighteen months the writer, from his residence in Black-poo), hss had frequent opportunities of observing the setting sun, and has noticed the phenomenon of the final coloured ray certainly more than fifty times. To the naked eye its appearance has generally been that of a green spark of large size and great intensity, very similar to one of the effects seen when the sun shines upon a well-cut diamond. The colour, however, is by no means constant, being often, as in the case of Mr. Baxendell's observation, bluish green, and at times, as mentioned by Dr. Joule, quite blue. The period of its duration, too, is likewise variable. Sometimes it lasts but half a second, ordinarily perhaps a second and a quarter, and occasionally as much as two seconds and a half. When examined with the assistance of a telescope, it becomes evident that the green ray results at a certain stage of the solar obscuration, for it begins at the points or cusps of the visible segment of the sun, and when the “setting“is nearly complete, extends from both cusps to the central space between, where it produces the momentary and intense spark of coloured light visible to the unaided eye. From the fact of the green cusps being rounded I apprehend that irradiation contributes to the apparent magnitude of what is seen. The range of colour too as seen in the telescope is more varied, and the duration of the whole phenomenon more extended, than when the observation is made only with the naked eye. Respecting the increased range of colours seen when the phenomenon is observed with telescopic aid, I may mention that on the 28th of June the sea was calm and the sky quite cloudless at the setting of the sun. Of the final coloured rays fifteen diameters showed the first to be a full and splendid yellow, which was speedily followed by the usual green, and then for a second and a half by a full and perfect blue. Respecting the increased duration of the colour, I have found that when the atmosphere is sufficiently favourable to allow a power of sixty diameters being employed with a three-inch object-glass, the green effect is seen at that part of the sun's limb in contact with lire horizon even when one half the sun is still unset, and of course from then till final disappearance. The different colours seen, together with the order of their appearance, are suggestive of the prismatic action of the atmosphere as the cause of their production, and the interception of the horizon or the cloud as the cause of their separation. Assuming the correctness of this view, it becomes evident that an artificial horizon would prove equally efficacious in separating the coloured bands, and also that if employed during an inspection of the sun's lower limb, the least refrangible end of the spectrum would be disclosed. By projecting a large image of the sun into a darkened room I was enabled to get the whole of the spectrum produced by the prismatic action of the atmosphere in a.very satisfactory manner. In this case a semicircular dlaphram was used, so placed that its straight edge divided the field of view into equal parts, from one of which it obscured the light. The diaphram was placed in the focus of the eyepiece, and by rotating it every portion of the sun's limb could be in turn examined, and that too in the centre of the field, so as to be equally subjected to the minimum of the peculiarities of the instrument. When the sun's lower limb was allowed to descend into the field of view the first rays were intensely red. After a momentary duration they gave place in succession to orange, yellow, and greeiij which were then lost in the ordinary refulgence of the sun. The upper limb gave green, blue, and finally purple, which latter colour I have thus far never seen upon the natural horizon. I apprehend that the results here given sufficiently prove that atmospheric refraction is the cause of the coloured rays seen at the moment of the sun's departure below the horizon.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2461382140</t>
+          <t>https://openalex.org/W4254416822</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s0370164600046733</t>
+          <t>https://doi.org/10.1016/0016-0032(73)90138-5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marsden (1882)</t>
+          <t>NA (1873)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3. On the Crystallization of Silica from Fused Metals</t>
+          <t>Magnetic storms and solar outbursts</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The crystallization of silica from fused metals, although at first sight appearing to be of little importance, nevertheless presents some features of peculiar interest. It also constitutes a field almost entirely new to the investigator, though the subject is one which, from a technical point of view, may prove to be of very considerable importance. I have therefore undertaken the examination of some of the facts relating to this subject—at first more particularly inquiring into the nature of the change which occurs when silica itself is kept at a high temperature for a number of hours and subsequently submitted to a process of very slow cooling.</t>
+          <t>Speleothem trace element chemistry is an important component of multi-proxy records of environmental change but a thorough understanding of hydrochemical processes is essential for its interpretation. We present a dripwater chemistry dataset (PCO2, alkalinity, Ca, SIcc, Mg and Sr) from an eight-year monitoring study from Golgotha Cave, building on a previous study of hydrology and dripwater oxygen isotopes (Treble et al., 2013). Golgotha Cave is developed in Quaternary aeolianite and located in a forested catchment in the Mediterranean-type climate of southwest Western Australia. All dripwaters from each of the five monitored sites become supersaturated with respect to calcite during most of the year when cave ventilation lowers PCO2 in cave air. In this winter ventilation mode, prior calcite precipitation (PCP) signals of increased Mg/Ca and Sr/Ca in dripwater are attributed to stalactite deposition. A fast-dripping site displays less-evolved carbonate chemistry, implying minimal stalactite growth, phenomena which are attributed to minimal degassing because of the short drip interval (30 s).We employ hydrochemical mass-balance modelling techniques to quantitatively investigate the impact of PCP and CO2 degassing on our dripwater. Initially, we reverse-modelled dripwater solutions to demonstrate that PCP is dominating the dripwater chemistry at our low-flow site and predict that PCP becomes enhanced in underlying stalagmites. Secondly, we forward-modelled the ranges of solution Mg/Ca variation that potentially can be caused by degassing and calcite precipitation to serve as a guide to interpreting the resulting stalagmite chemistry. We predict that stalagmite trace element data from our high-flow sites will reflect trends in original dripwater solutes, preserving information on biogeochemical fluxes within our system. By contrast, stalagmites from our low-flow sites will be dominated by PCP effects driven by cave ventilation. Our poorly karstified system allows us to highlight and quantify these in-cave (PCP) processes, which are otherwise masked at sites where karstification is more developed and hydrogeology is more complex. Our modelling also shows enhanced CO2 source production in the unsaturated zone that is attributed to deeply-rooted vegetation and increasing bioproductivity which we link to forest recovery after fires impacted our site during 2006 CE.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4255551185</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1038/026015b0</t>
+          <t>https://openalex.org/W183916192</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA (1882)</t>
+          <t>Nowell (1890)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Some Primitive Ideas on Meteorology</t>
+          <t>Do the changes of the moon affect therainfall</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>IN an article published in NATURE (vol. xxv. p. 82) on the opinions of the Chinese Emperor Khang-hi on certain natural phenomena, it will be remembered that the yang and yin, or the male and female principles of Chinese philosophy, played a conspicuous part. Japan, it is well known, adopted at a very early period in its history the law, polity, science, philosophy, and writing of the Chinese, and with them the yang and yin; and it may not be uninteresting to our readers to see how the doctrine of these dual forces, mutually repellent as well as attractive, has been employed to explain the facts of meteorology. A recent issue of the Japan Gazette newspaper of Yokohama contains the translation of a work written in 1821 by a certain Arai Yoshinari, called the “Ten-chi-jii; or, Ideas about Heaven and Earth.” The heavens, the writer says, are very high, the earth is very thick; we cannot ascend to the one or go down into the other; consequently man was unable for many generations to comprehend the phenomena of either; but now the opinions of all philosophers on this subject are based on the action and reaction of the male and female, the active and passive principles of nature upon each other. The rain is a changed form of the male, and the vapour under the earth of the female principle. When the male principle sinks into the earth it pursues the female. The earth is the mother of all things and the heaven is the air or wind where the sun, the moon, and the stars hang shining. There are two kinds of air—the heaven-air and the earth-air. The motion of the heavens is contrary to that of running water. The heavens move from east to west, while water runs from west to east. In some districts, indeed, water in the earth runs towards the north, but meets the earth-air which obstructs its flow, causes much agitation, and finally its complete evaporation from the surface of the earth. The vapour thus formed ascends and becomes clouds, which are again turned into rain by the action of the wind. The water has periods of increase and decrease according to the male and female seasons; thus in summer, which is the male season, water increases, while in winter, or the female season, it diminishes. Again, the earth-air is changed into rain when it moves from east to west; and therefore, previous to rain, we see a white vapour in the morning ascending in the east. “This is a clear proof of the earth's growing hot.” For the same reason mountains become somewhat darker just before rain.</t>
+          <t>The idea that the changes of the moon do affect the_x000D_
+rainfall has widely prevailed from the earliest ages._x000D_
+Sailors especial]y are great believers in the influence of the_x000D_
+moon on the weather._x000D_
+Dr. R. J. Mann, vice-president of the Meteorological_x000D_
+Society, in an article on High Clouds and Moonshine, in_x000D_
+Science for All, part 52, says: Amongst the long_x000D_
+prevalent notions that have been held concerning the changes_x000D_
+of the weather, there are, perhaps, none that have been more_x000D_
+generally entertained and cherished than those which connect_x000D_
+them with what are termed the changes, or, in other words,_x000D_
+recurring phases of illumination of the moon._x000D_
+The moon, as a matter of fact, does produce a physical influence upon the earth, but it is an influence of an altogether_x000D_
+different kind to the one which is implied by this popular_x000D_
+piece of weather delusion._x000D_
+Seeing that the statements of scientific men and the_x000D_
+popular notions on the subject of the moon's influence on the_x000D_
+weather seemed to be at variance, I resolved to investigate the_x000D_
+matter for myself; and accordingly in 1880 I began to keep a_x000D_
+meteorological journal in a rough way, and have continued it_x000D_
+up to the present time. Having now_x000D_
+ten years' observations to work upon, I thought I might safely_x000D_
+proceed to ascertain what conclusions might be drawn from_x000D_
+them, and with that view prepared table B appended to this_x000D_
+paper._x000D_
+My observations, as thus tabulated, give the following_x000D_
+results for the ten years from 1880 to 1889._x000D_
+So far as these periods, taken separately, go, we cannot_x000D_
+discover any law of relation between the changes, or quarters,_x000D_
+of the moon, and the rain-fall.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4240786937</t>
+          <t>https://openalex.org/W2009273558</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5962/bhl.title.28461</t>
+          <t>https://doi.org/10.1098/rstb.1890.0005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sample (1882)</t>
+          <t>Frankland &amp; Frankland (1890)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The horse and dog : not as they are, but as they should be. Old and erroneous theories relative to the management of the horse brought face to face with the facts of the nineteenth century</t>
+          <t>V. The nitrifying process and its specific ferment.—Part I</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PEELIMINAEY EEMAEKS.Man is governed by education, while the Horse is governed by fixed laws and instincts.The general impression among men is, that the horse is a very intelligent animal.Under this misappre- hension they undertake to manage him from an intelligent stand- point.For instance, if the horse stumbles or slips down the whip is applied as an instrument of correction ; if he should run away and smash up a valuable vehicle, he is taken by the bit, and in some instances the whip is used in an inhuman manner, as much as to say, " If you run away again I will kill you."If he balks in the street or road, the owner or driver, as the case may be, gets out of the buggy or waggon and rubs him on the head and neck, saying in horse language, " That is right, my little fellow, every time you stop I will rub and caress you."After waiting some time and getting his horse under way again, he jumps to his seat, and begins whipping the poor beast in the most cruel and inhuman way, saying to the horse, by his actions, " Every time you stop when I want you to, I will caress you ; and when you go as I want you to, I will whip you."Most likely somebody is on the sidewalk laughing at him, and he, man-like, whips his horse to show that he is boss.The result is, the horse soon learns to stop to be treated kindly, and refuses to go, because he is whipped for going.The same ignorance is displayed in the blacksmith shop.The horse or colt is led into the shop to be shod, and when the smith takes up his foot to prepare it for the shoe, a well-directed kick sends him half-way across the shop.The owner or groom, stand- ing at the horse's head, rubs and pats his neck, saying to his understanding : " That's right, my little boy ; if he takes hold of your foot again, kick him clean out of the shop." The smith, in his anger, attempts to punish the horse as he deserves, but the owner refuses and says : PRELIMINARY REMARKS." This is my horse.He can kick you as much as he pleases, but you cannot punish him ; he is mine.I will take him to another shop and let him kick some other smith.He must be treated kindly, for this is my way of treating horses."The proper way to do in a case of this kind would be to take the horse and put him through a regular course of instructions before taking [him to the blacksmith shop, handling his foot and leg in every conceivable manner.If he kicks, punish him ; and if he stands quiet and submits, treat him with kindness, patting and caressing him ; thus showing to the horse what you want him to do.We will speak more fully upon this subject under its proper heading.Another very erroneous idea exists not only in this country, but throughout the civilized world, and that is, when the horse is approached by the owner or groom he must use the word " Whoa !" when the horse is already standing perfectly still.If he goes to put the harness on -" Whoa !" if he goes to take the harness off -" Whoa !" if he goes to hitch him up -" Whoa !" and if he goes to unhitch him -" Whoa I"In fact when he mounts, dismounts, looks at his mouth to see how old he is, goes to him when he is hitched and standing 8 PRELIMINARY REMARKS.perfectly still, or approaches him for any purpose whatever, the word "whoa" is invariably used.It is used so often that it becomes a habit so strong that a man seldom approaches the horse without using it.If a little boy should happen to go up to a horse without speaking to him, his father would take him to task, and tell him never to go to a horse without speaking to him.The little fellow will naturally say : Well, father, what shall I say 9"The father instructs him to say " whoa."The boy grows up thinking he has had a good teacher, who understands the horse, hence he practises what he has been taught, and in this way the word "Whoa" becomes almost a household word.I say this teaching is all wrong.Some one will ask the question : " What will you say ?He will kick if you approach him with- out speaking."Anything to give the horse warning of your presence will do, such as, &lt;( I'm coming, Billy, or Kitty," or any other word you may choose to use.But never, under any circumstances, say " whoa" to your horse except he is in motion and you want him to stop.If the writer understands this word, it means "stop," and nothing more. THE HOUSE'S EYE.Next we will call the attention of the reader to the Horse's eye.It is generally understood by horsemen that if the horse is approached, while in the stall, on the near side, he will stand quiet ; whereas, if you go on the off side he will squeeze you up against the stall or kick you ; demonstrating that he understands you on one side better than he does on the other, especially if he is of a high-strung, nervous temperament. PRELIMINARY REMARKS.V A horse that is trained to carry a rider in a circus ring, in coming out of the dressing-room he will invariably turn to the right with the ring-master on his near side.He will notice every movement of the ring-master's whip an</t>
+          <t>The spontaneous oxidation of nitrogen in nature is a process which has long attracted attention in consequence of the great practical importance of the products to which it gives rise. Indeed, so great is the demand for potassium nitrate, nitre, or saltpetre, the principal derivative of the oxidised nitrogen, that the process of nitrification is often artificially stimulated by placing nitrogen, in the form of refuse animal matter, under the most favourable conditions for undergoing this change. The process of nitrification has thus been carried on for ages as a regular industry in India, and even in some European countries, thus especially in France during the Great Blockade. For a number of years past, however, the principal source of nitric acid and its derivatives has been the enormous deposits of nitrate of soda occurring in South America, which deposits themselves may, however, possibly be the product of a vast nitrification-process in a former period of the Earth’s history. But although nitrification had thus been practically studied for centuries, it was only in 1878 that the process was shown by Schlcesing and Muntz (‘Cornpt. Bend.,’ vol. 84, p. 301; 85, p. 1018) to be a fermentation change, and entirely dependent upon the presence of certain minute forms of life or micro-organisms. But although this connection was thus first experimentally demonstrated in 1878, it had with characteristic foresight been already surmised by Pasteur in 1862.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2047005860</t>
+          <t>https://openalex.org/W2025355737</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s0016756800173005</t>
+          <t>https://doi.org/10.1038/041368a0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Gardner (1882)</t>
+          <t>Cowper (1890)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IV.—The Fallacy of the Theory of the “Permanence of Continents”</t>
+          <t>Acquired Characters and Congenital Variation</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>It is rather remarkable that the Theory of the Permanence of Continents and Oceans has passed so comparatively unchallenged by geologists. I long since attempted to show that Mr. Wallace's supposition that the Chalk was a shallow and littoral sea deposit was untenable. In comparing analyses of chalk, as he does, with Atlantic ooze, no allowance whatever is made for the loss of iron from the body of the chalk by crystallization, nor for the segregation of silica into flints. The Chalk may have undergone so great a change in addition, since its upheaval vast ages ago, through the removal of some of its constituents by percolating water, that comparative analyses can only be of value when these losses are taken into consideration.</t>
+          <t>PROBABLY many readers of the recent discussion on the transmission of acquired characters will regret that a more definite conclusion has not been arrived at. This is probably due to the fact that the premises now in our possession do not admit of a definite answer yet being given. Those who assume that there is no evidence in favour of the transmission of acquired characters are mostly, I presume, supporters of “the continuity of the germ-plasm” theory of Weismann. Almost everyone admits that individuals may and do acquire certain characters due to change in environment, use, disuse, &amp;c.; but while many maintain that these characters are transmitted to offspring, others deny that such is the case, or think that the evidence is insufficient. In supporting “the continuity of the germ-plasm” theory it is impossible to suppose that the germ-plasm is continued from one generation to another like a portion of entailed property. For each individual gives off thousands of ova or spermatozoa as the case may be, only a very few of which go to produce new individuals; therefore there is a dissipation of “germ-plasm,”—that is to say, in the germinal cells of mammals of to-day there cannot be any of the identical “germ-plasm” which existed in their remote invertebrate ancestors ages ago. For all this dissipation there must be some constructive process, otherwise the germ-plasm would come to an end.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2498610464</t>
+          <t>https://openalex.org/W2074225701</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5962/bhl.title.20912</t>
+          <t>https://doi.org/10.1144/pygs.11.3.482</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lubbock (1882)</t>
+          <t>Tiddeman (1890)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fifty years of science : being the address delivered at York to the British Association, August 1881</t>
+          <t>Physical History of the Carboniferous Rocks in Upper Aire-dale</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mineralogy, by Whewell, and so on.My best course will therefore be to take our different Sections one by one, and endeavour to bring before you a few of the principal results which have been obtained in each department.The Biological Section is that with which I have been most intimately associated, and with which it is, perhaps, natural that I should begin.Fifty years ago it was the general opinion that animals and plants came into existence just as we now see them.We took pleasure in their beauty ; their adaptation to their habits and mode of life in many cases could not be overlooked or misunderstood.Nevertheless, the book of Nature was like some richly illuminated missal, written in an unknown tongue.The graceful forms of the letters, the beauty of the colouring, excited our wonder and admiration ; but of the true meaning little was known to us ; indeed we scarcely realised that there was any meaning to decipher.Now glimpses of the truth are gradually revealing themselves ; we perceive that there is a reason and in many cases we know what that reason is for every difference in form, in size, and in colour ; for every bone and every feather, almost for every hair.Moreover, each problem which is solved opens out vistas, as it were, of others perhaps even more interesting.With this impor- tant change the name of our illustrious countryman, Darwin, is intimately associated, and the year 1859 will always be memorable in science as having produced his work on ' The Origin of Species.'In the previous year he and Wallace had published short papers, in which ' 4. That those, which are, on the whole, best adapted to the circumstances in which they are placed, are most likely to leave descendants/ Darwin commenced his work by discussing the causes and extent of variability in animals, and the origin of domestic varieties ; he showed the impossibility of distinguishing between varieties and species, and pointed out the wide differences which man has pro- duced in some cases as, for instance, in our domestic pigeons, all unquestionably descended from a common stock.He dwelt on the struggle for existence (since become a household world), which, inevitably resulting in the survival of the fittest, tends gradually to adapt any race of animals to the conditions in which it occurs.While thus, however, showing the great importance of natural selection, he attributed to it no exclusive in- fluence, but fully admitted that other causes the use of a series of arteries in the embryos of the higher Vertebrata exactly similar to those which supply the gills in fishes, even the spots on the young blackbird, the stripes on the lion's cub ; these, and innumerable other facts of the same character, appear to be incompatible with the idea that each species was specially and independently created ; and to prove, on the contrary, that the embryonic stages of species show us more or less clearly the structure of their ancestors.Darwin's views, however, are still much misunder- stood.I believe there are thousands who consider that according to his theory a sheep might turn into a cow, or a zebra into a horse.No one would more confidently withstand any such hypothesis, his view being, of course, not that the one could be changed into the other, but that both are descended from a common ancestor.No one, at any rate, will question the immense im- pulse which Darwin has given to the study of natural history, the number of new views he has opened up, and the additional interest which he has aroused in, and contributed to, Biology.When we were young we knew that the leopard had spots, the tiger was striped, and the lion tawny ; but why this was so it did not occur to us to ask ; and if we had asked no one could have answered.Now we see at a glance that the stripes of the tiger have reference to its life among jungle-grasses ; the lion is sandy, like the desert ; while the markings of the leopard resemble spots of sunshine glancing through the leaves.</t>
+          <t>During the last few years the rocks in this area have been mapped in considerable detail by the Geological Survey, and the results which are coming out seem likely to throw much light upon the physiography of Carboniferous seas and perhaps upon the genesis of some limestones of other ages.
+It was always a puzzle to those geologists who knew the ground how it came to pass that the well-known and very persistent series of the several limestones of the Yoredale Beds ran with such regularity over the great area of the Yorkshire dales and yet were not recognizable over the area of Bowland and the southern part of Craven.
+Until the area of which we now speak was carefully surveyed, it was assumed that there was a rapid transition of type in the Carboniferous Rocks between Clitheroe and the big fells north of Settle and Malham, but as to the cause of such a rapid change no explanation was forthcoming. Even Professor Phillips, who knew the country perhaps best of any among the old pioneers of Geology, often expressed himself to me as quite unable to account for it. If there is one thing more clearly brought out than another by the mapping in detail of this ground, it is this, that there is absolutely no transition from one type to the other. The two types run unchanged in their respective areas and with complete discordance with each other, quite up to a common boundary where the differences are ...</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1969823128</t>
+          <t>https://openalex.org/W2085409819</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/025602a0</t>
+          <t>https://doi.org/10.1038/042031b0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hunt (1882)</t>
+          <t>Gregory (1890)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>On the Conservation of Solar Energy</t>
+          <t>Comets of Short Period</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>UNDER this title Dr. C. W. Siemens, on March 2, presented to the Royal Society a paper, which is published in NATURE, vol. xxv. p. 440. Therein, after noticing the hypotheses proposed by Meyer, Helmholtz, and Sir William Thomson, to explain the maintenance of solar heat, he endeavours to show how the energy apparently lost by radiation from the sun into space, may be gathered up and restored to the centre of our system. This he conceives to be effected through the intervention of attenuated matter diffused throughout space, which is the recipient of the radiated energy, and is continuously absorbed and again reflected by the centrifugal action of the sun itself. The matter diffused through space he supposes to include oxygen and nitrogen, hydrogen, aqueous vapour, and carbon compounds, besides solid materials which are probably exhalations from the sun, and constitute the so-called cosmic dust.1</t>
+          <t>IT is now generally accepted that the periodic comets of our system did not originate in it, but are bodies captured from outer space by one of the planets, the parabolic orbits in which they approached the system being transformed into elliptical ones. On account of the perturbing action of Jupiter, however, the orbits of short-period comets are liable to considerable modifications, and it is practically impossible to identify two apparitions of the same cornet without laborious computations of the perturbations which it must have been subjected to be tween the two epochs. But even such computations may lead to a negative result, for frequently comets quite distinct have elements very much alike, probably because they are parts of an old comet travelling along the same orbit at greater or less intervals.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2035435851</t>
+          <t>https://openalex.org/W2113355301</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/025357a0</t>
+          <t>https://doi.org/10.1017/s0016756800185280</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Newberry (1882)</t>
+          <t>Spencer (1890)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hypothetical High Tides</t>
+          <t>III.—The High Continental Elevation preceding the Pleistocene Period (in America)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>IN his interesting lecture entitled “A Glimpse through the Corridors of Time,” recently published in NATURE, Prof. Ball, accepting Mr. George H. Darwin's view—that the moon was once part of the earth's mass, and after separation long revolved much nearer to us than now—estimates that when 40,000 miles distant she produced tides 216 times greater than the present, and advances the theory that these high tides have been the most powerful agents in producing changes on the earth's surface. He further presents this theory to geologists as a solution of some of their most difficult problems.</t>
+          <t>If, in the growth of the American continent, the moulding of the land features had not largely depended upon its projection above the sea, favouring or retarding the action of rains and rivers, in sculpturing its surface, there would be little interest as to what was its relative height, before the commencement of the Pleistocene period. But we find valleys vastly greater than meteoric agents could have produced under existing circumstances. Thus, there are not only deep cañons , but also vast depressions, descending to levels far below the sea, which are now filled with the earlier drift accumulations, or form channels submerged beneath ocean waves, or constitute basins occupied by lakes.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2060746385</t>
+          <t>https://openalex.org/W2477843485</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/026293a0</t>
+          <t>https://doi.org/10.5962/bhl.title.17532</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Smith (1882)</t>
+          <t>Cilley &amp; Lee (1890)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Palæolithic Implements—New Localities in the Thames Valley, near London</t>
+          <t>Bowdoin boys in Labrador. : an account of the Bowdoin College scientific expedition to Labrador led by Prof. Leslie A. Lee of the Biological Department / By Jonathan Prince Cilley, jr.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>IN NATURE, for July 15, 1880, p. 253, Mr. P. H. Pepys drew attention to a section then being made through beds of river gravel and brick earth near the West Drayton Station of the Great Western Railway. I had an opportunity of going to West Drayton on July 27, 1880, so I walked through the cutting towards Langley. My quest was for relics of primæval man, and I was rewarded by finding not only several flint flakes, but the batt end of a massive implement broken in Palæolithic times. This was just north of Langley Station, in Buckinghamshire, and the first Palæolithic relics, as far as I know, detected in that county. The workmen in the cutting for the new canal were such a rough lot that I found it impossible to fraternise with them, so my subsequent visits were all made on Sundays. During these walks I lighted on ten implements and a large number of flakes at Langley and Iver, all in the valley of the Coin, and a river until now (as far as I know) not described as implementiferous. In gravel brought from the pit close to Taplow Station I found a single implement, a large trimmed flake, and numerous simple flakes; this position is also in the county of Buckingham. At West Drayton, in Middlesex, in the valley of the Coln, I lighted on five implements and numerous flakes. East of West Drayton, in a pit near Botwell, in the valley of the Yedding Brook, hitherto undescribed as implement-bearing, I found a single implement; this was in the pit near Bull's Bridge. In the same valley at Hillington, and other places I have found several other implements. In all the excavations from Slough to Acton I have found both implements and flakes. In the new railway cutting from Gunnersbury to Hounslow I have found four implements, one close to Hounslow, a massive butt, and many flakes. This cutting has been a very interesting one, from the abundance of the fossil shells of fresh-water molluscs found in the sands, especially near the bridge under the Hanwell Road. One shell very abundant, and, as far as my observation goes, absent from the sands of North-east London, is Achatina acicula, Müll., kindly named for me by Dr. J. Gwyn Jeffreys. I believe this is the first record of fresh-water shells from the Palæolithic sands of the Ealing district. Since my paper on the Valley of the Brent was read before the Anthropological Institute, in June, 1879, I have found many more implements in the positions there mentioned. At North-east London, and especially in the Valley of the Lea, I have been able to greatly extend the range of Palæolithic man. In addition to the localities mentioned in my paper read before the Anthropological Institute, in June, 1878, and published in February, 1879, I am now able to mention London Fields, Homerton, in the south, a position south of Dalston Junction, and nearer the Thames than the places first given by me, Hackney, near the railway station, Abney Park Cemetery, South Hornsey, Highbury, Stamford Hill, Upper Edmonton, Lower Edmonton, Bush Hill Park, Forty Hill, Enfield, and Cheshunt; the pit at the last place, which formerly produced flakes only, has since furnished three implements—one an example of the first class. On the east side of the Lea I have found implements in the gravels of Stratford, Leyton, Leytonstone, Wanstead, Walthamstow, and Higham Hill—a magnificent example from the last place. Further east, and in the Valley of the Roding (first pointed out by me as a river bearing implements in its gravels)—at Barking—I have found two implements, and elsewhere in the neighbourhood, as at Ilford and Upton, numerous flakes. Still further east, at Gray's Thurrock, West Tilbury, and Southend, I have evidence of the presence of primæval man; at the latter place, a rude make-shift implement, and a scrapingtool with twin bulbs of percussion. These were found by my two sons. I have not mentioned all the positions I know in this letter, or re-mentioned those given in my two papers, but rather the positions I can afford to dispense with. It shows, however, especially when considered with the discoveries at Reading and Oxford, what a vast cohort of men once lived all along the Thames and its northern tributaries in Palæolithic times.</t>
+          <t xml:space="preserve">Here the staunch Julia lies at anchor waiting for a change in the wind and a break in the fog.To-day will be memorable in the annals of the "Micmac" Indians, for Prof. Lee has spent his enforced leisure in putting in anthropometric work among them, inducing braves, squaws and papooses of both sexes to mount the trunk that served as a measuring block and go through the ordeal of having their height, standing and sit- ting, stretch of arms, various diameters of head and peculiari- ties of the physiognomy taken down.While he with two as- sistants was thus employed, two of our photographic corps were busily engaged in preserving as many of their odd faces and costumes as possible, making pictures of their picturesque camp on the side of a hill sloping toward an arm of the Gut, with its round tent covered with birch and fir bark, dogs and children, and stacks oi logs or wood from which they make the strips for their chief products, baskets cows, baggage and all the other accompaniments of a comparatively permanent camp.They go into the woods and make log huts for winter, but such miserable quarters as these prove to be on closer inspection, with stoves, dirt and chip floor, bedding and food in close proximity to the six or eight inhabitants of each hut, suffice them during warm weather.We found that they elect a chief, who holds the office for life.The present incumbent lives near by St. Peter's Island, and is about forty years old. BOWDOIN BOYS IN LABRADORThey hold a grand festival in a few weeks somewhere on the shore of Brasd'Or Lake, at which nearly every Indian on the Island is expected, some two thousand in all, we are informed, and after experiencing our good-fellowship at their camp and on board they invited us one and all to come down, only cau- tioning us to bring along a present of whiskey for the chief.The Gut, in this part at least, is beautiful sailing ground, with bold, wooded shores, varied by slight coves and valleys with little hamlets at the shore and fishermen's boats lying off the beach.The lower part we passed in a fog, so we are ig- norant of its appearance as though the Julia had not carried us within a hundred miles of it, instead of having knowingly brought us past rock and shoal to this quiet cove, under the red rays of the light on Hawkesbury Point, and opposite Port Mulgrave, with which Hawkesbury is connected by a little two- sailed, double-ended ferry-boat built on a somewhat famous model.It seems that a boat builder of this place, who, by the way, launched a pretty little yacht to-day, sent a fishing boat, whose model and rig was the product of many years' experi- ence as a fisherman, to the London Fisheries' Exhibit of a few years past, and received first medal from among seven thou- sand five hundred competitors.The Prince of Wales was so pleased with the boat, which was exhibited under full sail with a wax fisherman at the helm, that he purchased it and has since used it.Later, when the United States fish commission schooner Grampus was here with the present assistant com- missioner, Capt.Collins, in command, the plans were pur- chased by our government on the condition that no copies were to be made without Mr. Embree's consent.A little later yet, a commissioner from Holland and Sweden came over, bought the plans and built a perfect copy of the original, the seaworthy qualities of which has caused its type to entirely displace the old style of small fishing boats in those countries- The boat's abilities in heavy waters have been tested many times, and have never failed to equal her reputation.But, meanwhile, the Julia lies quietly at anchor, as if it were THE REAL START 3 mutely reproaching your correspondent with singing another's praises when she has brought us safely and easily thus far, in spite of gales, fog, and headwind, calm, and treacherous tide, and even now is eagerly waiting for the opportunity to carry us straight and swiftly to Battle Harbor in the straits of BelleIsle, where letters and papers from home await us, and then up through the ice fields to Cape Chudleigh.Our real start was made from Southwest Harbor, Mt.Desert, the Monday after leaving Rockland.Saturday night, after a short sail in the dark and a few tacks up the Thoroughfare to North Haven village, we anchored and rested from the confu- sion and worry of getting started and trying to forget nothing that would be needed in our two and one-half months' trip.Sunday morning was nearly spent before things were well enough stowed to allow us to get under weigh in safety, and then our bow was turned eastward and, as we thought, pointed for Cape Sable.Going by. the hospital on Widow's Island and the new light on Goose Rock nearly opposite it, out into Isle au Haut bay, we found a fresh northeaster, which warned us not to go across the Bay of Fundy if we had no desire for an awful shaking up.In view of all the facts, such as green men, half-stowed supplies and threatening weather, we decided that we must not </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4240978624</t>
+          <t>https://openalex.org/W2482196031</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5962/bhl.title.101509</t>
+          <t>https://doi.org/10.5962/bhl.title.19863</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>John (1882)</t>
+          <t>Lubbock (1890)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Chapters in popular natural history</t>
+          <t>Scientific lectures, by the Rt. Hon. Sir John Lubbock.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>The Caterpillar of the Small Elephant Hawk-moth {Chcerocamja porcellus).After Weissmann.Ants.serve attention from their utility to man, some from their power of inflicting injury.Among insects there are few, if any, whose habits are more interesting than those of Ants.They Hve in large communities : they build houses ; they make roads ; some of them, as we shall presently see, keep other insects, just as we keep cows ; and some of them even have slaves.In this country we have rather more than thirty kinds ; but ants become more numerous in species, as well as in individuals, in warmer countries, and more than a thousand species are known.Even this large number is certainly far short of those actually in existence.2. No two species of ants are identical in habits ; and, on various accounts, their mode of life is far from easy to unravel.Most of their time is passed underground ; all the tending of the young, for instance, is carried on in the dark.I have for some years kept many nests of various species under observation, and these have given me special facilities for observing the internal economy of ant Hfe.Another main difference between my observations and those of previous naturalists has consisted in the careful record of the actions of individual ants.The most convenient mode of marking them was, I found, a small dab of paint on the back.3. The life of an ant falls into four well-marked periods-those of the egg, of the larva or grub to cause a retreat.8. flowever this may be, in their modes of fight- ing different species of ants have their several pecu- liarities.Some are much less military than others.Jlfyrmedna Latreillii, for instance, never attack, and scarcely even defend themselves.Their skin is very hard, and they roll themselves into a ball, not defending themselves even if their nest is invaded ; to prevent which they make the entrances small, and often station at each a worker, who uses her head to stop the way.The scent of this species is also, perhaps, a protection.Tetramorium ccespitum has the habit of feigning death.This species, however, does not roll itself up, but merely applies its legs and antennae closely to the body.* These are A. aglaia, V. antiopa, N. lucina, C. alstts, P. cratagi, and P. machaon.t Cupido alsus.% The Hepialida:, Zeuzeridce, and Sesidce have been omitted, because these larva</t>
+          <t>AND INSECTS. [uxcr. which is a small projecting lobe (Fig. 3,m).The upper portion of the corolla is an arched hood (Fig. 3, co), under which lie four anthers (a4 a), in pairs, while between them, and projecting somewhat downwards, | is the pointed pistil (sé).At the lower part, the tube contains honey, and above the honey is a row of hairs almost closing the tube.Now, why has the flower this peculiar form?What regulates the length of the tube ?What is the use of this arch?What lessons do these lobes teach us?What advantage is the honey to the flower?Of what use is the fringe of hairs?Why does the stigma project beyond the anthers?Why is the corolla white, while the rest of the plant is green ?Similar questions may of course be asked with reference to other flowers.Let us now see whether we can throw any light upon them.At the close of the last century, Conrad Sprengel published a valuable work on flowers, in which he pointed out that the forms and colours, the scent, honey, and general structure of flowers, have reference to the visits of insects, which are of importance in transferring the pollen from the stamens to the pistil.This admirable work, however, did not attract the attention it deserved, and remained almost unknown until Mr. Darwin devoted himself to the subject.Our illustrious countryman was the first clearly to perceive that the essential service which insects perform to flowers, consists not only in transferring the pollen from the stamens to the pistil, but in transferring it from the stamens of one flower to the pistil of another.Sprengel had indeed observed.in more than one instance that this was the case, but he did not altogether appreciate the importance of the fact.1] CROSS-FERTILIZATION. 3Mr. Darwin, however, has not only made it clear from theoretical considerations, but has also proved it, in a variety of cases, by actual experiment.More recently Fritz Miller has even shown that in some cases pollen, if placed on the stigma of the same flower, has no more effect than so much inorganic dust ; while, and this is perhaps even more extraordinary, in others the pollen placed on the stigma of the same flower acted on it like a poison.This he observed in several species ; the flowers faded and fell off, the pollen masses themselves, and the stigma in contact with them shrivelled up, turned brown, and decayed; while flowers on the same bunch, which were left unfertilized, retained their freshness.The importance of this "cross-fertilization," as it may, be called, in contradistinction to "self-fertilization," was first conclusively proved by Mr. Darwin in his remarkable memoir on Primula (Linnean Journal, 1862), and he has since illustrated the same rule by researches on Orchids, Linum, Lythrum, and a variety of other plants.The new impulse thus given to the study of flowers has been followed up in this country by Hooker, Ogle, Bennett, and other naturalists, and on the Continent by Axell, Delpino, Hildebrand, Kerner, F. Miiller, and especially by Dr. H. Miiller, who has published two excellent works on the subject, bringing together the observations of others, and adding to them an immense number of his own.In by far the majority of cases, the relation between flowers and insects is one of mutual advantage.In some plants, however, as for instance in our Common Drozera, we find a very different state of things, and B. 2 1] INDUSTRY OF BEES AND WASPS.11 therefore tried the following.If you bring a bee to some honey, she feeds quietly, goes back to the hive, stores away her honey, and returns with or without companions for another supply.Each visit occupies about six minutes, so that there are about ten in anhour, and about a hundred in aday.I may add that in this respect the habits of wasps are very similar, and that they appear to be quite as industrious as bees.Perhaps I may give the record of a morning's work of one of my wasps.'She came to the honey at a few minutes after 4 in the morning, and to show how regularly she worked I will give her record from 6.30 till 12.She came at 6.29, and returned at 6.32 Came again at 6.41 5 6.441 The industry and rapidity with which bees work is very remarkable.They will visit from twenty to twenty-five flowers in a minute, which makes over 1,000 in an hour, or say 10,000 in a day.Mr. Darwin watched carefully certain flowers, and satisfied himself that each one was visited by bees at least thirty times in a day.The result is, that even where flowers are very numerousas, for instance, on heathy plains and in clover fields-every one is visited during the day.Mr. Darwin carefully examined a large number of flowers in such cases, and found that every single one had been so visited.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2488646818</t>
+          <t>https://openalex.org/W2502830085</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5962/bhl.title.995</t>
+          <t>https://doi.org/10.5962/bhl.title.17668</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Linton (1890)</t>
+          <t>Mivart (1890)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Notes on Entozoa of marine fishes of New England : with descriptions of several new species. Part II</t>
+          <t>Dogs, jackals, wolves, and foxes: a monograph of the Canidae. With woodcuts, and 45 coloured plates drawn from nature by J.G. Keulemans and hand-coloured</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">iiave been &lt; -st useful to me in the work of identification, are rbose which give ;u;ry details of structure and are accompanied with ill .,&lt;; ;i- tions.Whether the name given y the describer holds or not is a ter of secondary importance.I have restored Van Beneden's genus AcantJiobothrium, which hrd been combined with the genus Cattiobothrium by Diesing.This neces- sitates au emendation of the definition of the latter genus. 1 have ited from the genus Echeneibothrmm those species with echenci-.which are destitute of a myzorhyuchus, and placed t.b in the new gen as Rliiiiebo.Throe genera, in \vhich thebji* are united into a globe or disc were discovered, whose systematic !tions are open to some debate.These have been named Lecanicephalum, Tyl' '&gt;rin, and Discocephalum^respectively.The fa:nily name 6V bothriidiv is suggested for-these forms, although I have thought bes 1 put them provisionally with the Tetrabothriidcc.The species which I have described under the name Paratcenia medusia has caused mo much perplexity, to determine its relationship.The specimens which are described in this paper were collected the most part, during the months of July and August 1S86-'S7, at "Wood's Holl, Massachusetts.During tin summer of 1S87 I made most careful and painstaking search for small forms, and was eminently s cessful in my examination of the sting ray (Trygon centrura) and dusky thark (Carcharias obscurus).During these researches a variety of encysted forms were obtained.These were most abundant in the Telcostei.Several species of Trematods, Nematods, and Acanthocephaia have been found.Descriptions of these will appear in due time.L have learned by experience that brief descriptions of these soft-bodied and variable forms are of but little use in identification, and have therefore endeavored to give such descriptions 'as will enable fntnre investigators to identify the species accurately.It has been found that measi' ments, even of parts that are liable to great alteration on accouir: contraction, are invaluable as a means of identification.Measure of hard parts, such as hooks, spines, and, to a certain extent, o of course of the highest importance.Too much weight, "u-..vever,not be attached to absolute values where the differences are Different methods of obtaining measurements, inaccuracies in com* .ifa-tion, and individual errors must be allowed for.On the other hand, much weight must usually be given to relative dimensions, since in that , several of the above-named sources of error are eliminated.A-; !tr as it was^p ossible to do so the specimens were studied v, they wore alive.Sketches of living forms were made by my wife I was engaged in collecting, assorting, measuring, and recording LI ns on the specimens.I was thus c-uibied to collect much in- i in the short time at my disposal than would have been possil without this assistance.It may not he ann'ss to give hore.for flic ben &gt;6t '-ctors, the [3] NOTES ON ENTOZOA OF MARINE FISHES.721which I adopted to keep track of my material and the notes and sketches made at the time of collecting.Since it was not desirable usually to attempt to identify the specimens in the short time during which they could be studied alive, especially, as was often the case, when my table was covered with a dozen or more dishes each containing a lot of speci- mens to be assorted, I found it convenient to keep what I mr^y call a numerical check-list.In this check-list each capture is denoted by a number, while the different species or groups into which the lot was assorted are indicated by the letters of the alphabet.The check-list contains the date of capture, number of fish examined, and usually the number of specimens obtained 1 .A few numbers quoted from the check* list itself will illustrate the method sufficiently.190, August G (1887), Trematods, same as No. 17'J&amp;, gills ami stomach of Echeneis re- mora ; stomach empty.191a, August fi, Long red Nematods (viviparous), same as 184o, ou viscera and under peritoneum of Lobotes surinamensis.I'Jlb, Cysts and embryo Rlujncliobothria from viscera, under peritoneum of same.191c, Trematods, intestine of same, fifteen specimens, small.191rf, Two small Nematods, intestine of same.19'2rt, August 8, Rhynchobothria from stomach of Tryyon centrum ; one ray examined.19XJ&amp;, Phyllobothrium, one specimen, from lower part of spiral intestine of same, same as No. 178&amp;.W2c, Acanthobothriiirn, numerous, spiral intestine of same.Labels with numbers and corresponding data from check-list were placed in the bottles or vials in which the specimens were preserved.When greatly pressed for time temporary labels with numbers only were placed with the specimens.These were replaced as soon as possible by labels containing all necessary data.In cases where the living speci- mens were studied notes were kept on small pieces of paper of uniform size.A small tablet of unruled paper 5f by 3| inches was found con- venient for this purpose.Where several pages of notes </t>
+          <t>family" of Beasts, the family Canidae, This family is one of several t h e r s w e t h e r make up the "Order" of * B e n sCarnivora, which, with some fifteen other orders, constitute w of "Animals which suckle their young," the Class Mammalia.~~ "The other families which comprise the order Carnivors are: the family of Bears (Ureide), the family of Weasels and Otters (Mastelide), the family of the Raceoon and its allies ( Proeyontde), the family of the Civets (Viverride), and the family of the Cats (Felide), in which last family the character of a " Beast of Prey" appears to find its highest and most developed expression *.From all these other families, the existing Canidae, as alresdy said, ttempts have been made to divide the different species of the family amongst upwards of a doren genera, but we have found it imposible * It was on this account thet, io « previews pab¥icathon, we selected the Cet as oar type.Tho work referred to was designed to supply a want of which we hed fers long time felt the need,-the want of =» work, in ome veleme, designed te impart « sufficient knowledge of the anatomy, physwolagy, classtinstoon, development, amd gre graphical and geological relations of some animal of the highest class, te Gt ite reeders for the fruitful study of any group of amimals In this work (* The Oat :' Joke Murrey, London ; and C, Scribner aod Some, New York) there will be foond (p 440) 6 state ment of the principles of noologieal clamification, and of the wales of the terme employed therein.At p. 302, soologioal nomenclature is explained ; while of ite eves mencement (pp.5-12) the different ways in which » living ergenion may be repented are set out, and the various sciences enumersted which are included withie, or are subsidiary to, the science of Living things, or Hholagy, for the study of which the work Was intended to serve as an introduction, The dermal strectu res, skeleton, muelen, alimentary, circulating, and respiratory organs, the nervous system, the proces of development, and relations of the chosen type with the living amd imongambe workds, post and present, are descri bed in successive chapters.Otrvieus ly in s work euch as car * Monograph of the Canidae,' space cannot be devoted to making known matters of the kind to readers as yet unsequainted with them.It will there fore be convenient, as the occasion arises, to refer such readers to the pages of cur preceding work, wherein will be found the explanatio ns they may require., INTRODUCTION.vi the same species could be : compared together, the amount of variability to which one species may be liable could not be properly appreciated.We have arrived at the conclusion that only five genera can be distinguished.Of these Icticyon, Lycaon, and Otocyon each contain but one species, while Cyon may be taken as consisting of two.All the rest of the Canide we place in the typical genus Canis.Such animals as the Common Fox and the Fennec would seem at first sight to be without any doubt generically distinct from the Jackal and the Wolf.Nevertheless, when all the series of intermediate forms are examined, the difficulty of drawing any valid generic distinction will, we think, be found insuperable.'The shape which the pupil of the eye may assume is a character which is practically of little use, since, with regard to various species, we have no evidence on the subject.Moreover the character itself, if it could always be ascertained, appears to be a rather trivial one, since amongst the Cats, which undoubtedly form one genus, it may be either linear or oblong, or round, according to the species *.As the result of our studies, we offer the following list (p.vi) of what we deem probable species ; although, as in some cases, we have been able to examine only a few specimens of one kind, it may well happen that some forms we have treated as species may ultimately prove to be but well-marked varieties.Indeed, so great is the variability of many of these animals that in some instances whether a form is to be reckoned as a species or a variety can only be matter of individual opinion.Our own tendency is rather to unite doubtful forms than to separate them as distinct kinds.Nevertheless we willingly adopt, provisionally, even a mere difference of hue, if there appears to be any good reason for thinking it may be a constant difference.We shall also rank as distinct, any two forms which exhibit definite and peculiar markings of diverse kinds, even though there may be individuals in which the markings are so indistinct that they can only doubtfully be referred to either.Such may not be truly "transitional forms," but only individuals with the characters of their kind very imperfectly developed.We do not ourselves doubt that * See the Proceedings of the Zoological Society for 1882, pp.141 and 517. a ee Se --ee a ee vi INTRODUCTION, true species exist, but from the existence of species it by no meansfollows that we must always be able to define them, We place, then,</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2477913381</t>
+          <t>https://openalex.org/W4255421926</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5962/bhl.title.109939</t>
+          <t>https://doi.org/10.1038/041229a0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Koebele (1890)</t>
+          <t>NA (1890)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Report of a trip to Australia made under the direction of the Entomologist to investigate the natural enemies of the fluted scale /</t>
+          <t>A Field Laid Down to Permanent Grass</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>How successful it has proved late reports already published in Insect Life, and elsewhere, have abundantly testified.They have more than justified the anticipations expressed in my last annual report:We fully expect to learn of the increase and rapid spread of this new introduction as well as some of the other predaceous species which have been introduced, and to find that in a comparatively few years the orange groves of southern California will he kept measurably freed of the pernicious Fluted Scale without so great an effort on the part of the growers or so great expense in destroying it.That nature will, with the new conditions induced by these importations, come to the relief of the fruit- grower, and that this interesting experiment will result in the ultimate saving of untold millions to the people of the Pacific Coast is our sincere belief which we hope to see verified.Not that we expect the Icerya to be ever entirely exterminated ; but it will be kept under subjection so as to be comparatively harmless, as it is in its native country.One of the insects imported, viz, the Cardinal Yedalia ( Vedalia cardi- nalis Mulsant), has multiplied and increased to such an extent as to rid many of the orange groves from Icerya and to promise immunity in the near future for the entire State of California.In fact, the rapid multi- plication and the effective work of this little beetle are almost incom- prehensible until we come to consider its power of increase in a climate like that of southern California, where there is scarcely any cessation in its activities.A careful account of the transformations of the Yedalia has been pre- pared by Mr. Coquillett and was published in Insect Life for Sep- tember, 1889, pages 70 to 74.I reproduce the figures in connection with Where possible I have endeavored by foot-notes to add to the specific accuracy of the insects referred to.C.</t>
+          <t>A VALUABLE paper, by Sir J. B. Lawes, on the history of a field laid down to permanent grass, has teen reprinted, by Messrs. Spottiswoode, from the Journal of the Royal Agricultural Society of England. The field in question forms part of the Rothamsted estate, and was laid down to permanent grass nearly thirty years ago, by Dr. Gilbert, to whom it was let in 1856. It has been mown for hay every year from the commencement; and in the present pamphlet Sir J. B. Lawes gives full particulars as to the economical results, the constituents supplied in the manures and removed in the crops, the changes within the soil in the formation of the meadow, and the botany of the meadow. The following are his summary and general conclusions:—</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2085928122</t>
+          <t>https://openalex.org/W4302219624</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/042626a0</t>
+          <t>https://doi.org/10.1038/042172d0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pickering (1890)</t>
+          <t>NA (1890)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The Present Position of the Hydrate Theory of Solution1</t>
+          <t>Electro-Magnetic Radiation1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>IT is but four years since this Section devoted a day to the discussion of the nature of solution;2 since then, however, the general aspect of the question and the position of the advocates of the two rival theories have undergone such a complete change, that in renewing the discussion we shall run but little risk of going over the same ground which we then trod. At Birmingham, Dr. Tilden opened the discussion by passing in review all the well-known and long-known facts which might by any possibility throw some light on the nature of solution, and those who followed him in the discussion each gave the interpretation of these facts which harmonized best with his own views, and, as the facts themselves were susceptible of several different interpretations, the not surprising result followed that each disputant departed holding precisely the same opinions which he had brought with him. Since then, however, each party has obtained, or thinks that he has obtained, positive evidence in favour of his own views; evidence which, if upheld, must be accepted as conclusive, or which must be overthrown before his opponents can claim the victory. The supporters of the hydrate theory claim that the curved figures representing the properties of solutions of various strengths show sudden changes of curvature at certain points, which are the same whatever be the property examined, which correspond to the composition of definite hydrates, and which, therefore, can only be explained by the presence of these hydrates in the solutions; while the supporters of the physical theory, now identified with the supporters of the osmotic pressure theory, claim to have shown that, with weak solutions at any rate, the dissolved substance obeys all the laws which are applicable to gases, and that, therefore, its molecules must be uninfluenced by, and uncombined with, those of the solvent.</t>
+          <t>IN order to discover whether actions are propagated in time or instantaneously, we may employ the principle of interference to measure the wave-length of a periodic disturbance, and determine whether it is finite or no. This is the principle employed by Hertz to prove experimentally Maxwell's theory as to the rate of propagation of electro-magnetic waves. In order to confine the experiments within reasonable limits we require short waves, of a few metres' length at most. As the highest audible note gives waves of five or six miles long, and our eyes are sensitive only to unmanageably short waves, it is necessary to generate and observe waves whose frequency is intermediate between them, of some hundred million vibrations per second or so. For this purpose we may use a pair of conducting surfaces connected by a shorter or longer wire, in which is interposed a spark-gap of some few millimetres' length. When the conductors are charged by a coil or electrical machine to a sufficiently high difference of potential for a spark to be formed between them, they discharge in a series of oscillations, whose period for systems of similar shape is inversely proportional to the linear dimensions of the system so long as the surrounding medium is unaltered. When the surrounding non-conducting medium changes, the period depends on the electric and magnetic specific inductive capacities of this medium. Two such systems were shown: a large one, whose frequency was about 60 millions per second; and a small one, whose frequency was about 500 millions per second. The large one consisted of two flat plates, about 30 cm. square and 60 cm. apart, and arranged in the same way as is described by Prof. Hertz in Wiedemann's Annalen, April 1888. The smaller vibrating system consisted of two short brass cylinders terminating in gilt brass balls of the same size, and arranged in the same way as the smaller system described by Prof. Hertz in Wiedemann's Annalen, March 1889. This latter system was placed in the focal line of a cylindrical parabolic mirror of thin zinc plate, such as that described by Prof. Hertz in this paper.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2012692983</t>
+          <t>https://openalex.org/W2053274619</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0016-0032(90)90153-a</t>
+          <t>https://doi.org/10.1038/072151b0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wahl (1890)</t>
+          <t>Irving (1905)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>On the electro-deposition of platinum</t>
+          <t>The Romance of the Nitrogen Atom</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>The electrochemistry of the Pt(NH3)4 − x(H2O)2+x complexes (x = 0−2) in an aqueous phosphate buffer was investigated. 195Pt NMR was used to confirm that, in this medium, all are stable in solution even at 370 K. Moreover, their voltammetry shows that none is reduced at room temperature, although all give reduction peaks at above 353 K; a slow chemical change to the Pt(II) species (possibly displacement of NH3 ligands by H2O) in solution is essential to produce the electroactive species. The magnitudes of the current densities are always much less than those expected for mass transport control and suggest that the rate of this chemical change increases along the series Pt(NH3)2+4 &lt; Pt(NH3)3(H2O)2+ &lt; cis-Pt(NH3)2(H2O)2+2. In contrast, the complexes PtCl4 − x(H2O)(2 − x)−x in 1 M HClO4 all show comparatively simple electrochemistry even at room temperature. Indeed, the complexes (x = 2−4) show single reduction waves with mass transport-controlled plateaux and very similar half-wave potentials. Furthermore, 195Pt NMR shows that displacement of chloride by water does occur, but only on the time-scale of many hours. The mechanism of these electrodeposition reactions, including the possible role of Pt(H2O)2+4, is discussed. Although the dissolution of K2PtCl4 in water is a facile way to produce a readily reducible Pt(II) species, the presence of free chloride ion in solution leads to corrosion of substrates and this prevents the use of such solutions as practical electroplating baths.</t>
+          <t>THE letter of Dr. F. J. Allen (NATURE, May 4) on the critical temperature of living substances has interested me immensely. The ideas contained in it have often presented themselves to me in a crude way, and I hope Mr. Allen will find opportunity for elaborating them. I have often thought, when pondering over what one may venture to call the versatility of nitrogen, that a useful book might be written on the chemistry of the nitrogen compounds, including the mineral and organic compounds of that element in one view. If it did no other service it would help to save the mind of the chemical student from being enslaved by the phrase, “the chemistry of the carbon compounds.” If the phrase “Ohne Phosphor kein Gedanke” is true, may we not with equal truth say “Ohne Stickstoff kein Leben”? The marvellous powers stored in the carbon atom are sufficiently en evidence in chemical science; yet may we not recognise the nitrogen atom as the magic “demon” (borrowing a figurative term from Clerk Maxwell) that holds the wand, that (under given conditions such as are noted by Dr. Allen) turns the atoms of oxygen and hydrogen hither and thither in the multiplex atomic relations of growth and metabolism in the living organism, and especially in that little understood complex we call chlorophyll? We know that the inert N2 molecule of the atmosphere is made up of atoms which, in the nascent state, are possessed of great chemical energy, and we may fairly, I think, explain the inertness of ordinary atmospheric nitrogen by the stability of its molecule (N2) as arising out of a difference in the ionic constitution of the two atoms which form the molecule. Is it not here that we may seek for the explanation of the otherwise puzzling fact that in the extremely stable compound NH3 the nitrogen atom is trivalent, while in the oxides, halides, &amp;c., it is pentavalent? The action of the nitrogen atom, in the way suggested by Dr. Allen, is illustrated by the well known necessity in the fertilisation of soils for the conversion of NH3 into nitrates of alkaline bases, in order that the nitrogen in a more unstable state of combination may do its special work in the internal economy of the plant. I recollect discussing this matter some years ago with Dr. Voelcker, when I had the pleasure of meeting him at an agricultural gathering in this neighbourhood. The modern idea of ionisation of atoms seems also to throw light upon the fact that N2 and H2 combine to form NH3 under the influence of the silent electric discharge, while at the temperature of the spark-discharge NH3 is again split up into N2 and H2. The running down also of HNO3 through the whole series of oxides into ammonia in the Grove cell is full of interest from this point of view, and the subject, with its manifold ramifications, is a fascinating theme for a thesis.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2502830085</t>
+          <t>https://openalex.org/W2074368293</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5962/bhl.title.17668</t>
+          <t>https://doi.org/10.1086/211336</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mivart (1890)</t>
+          <t>Ward (1905)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dogs, jackals, wolves, and foxes: a monograph of the Canidae. With woodcuts, and 45 coloured plates drawn from nature by J.G. Keulemans and hand-coloured</t>
+          <t>Evolution of Social Structures</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>family" of Beasts, the family Canidae, This family is one of several t h e r s w e t h e r make up the "Order" of * B e n sCarnivora, which, with some fifteen other orders, constitute w of "Animals which suckle their young," the Class Mammalia.~~ "The other families which comprise the order Carnivors are: the family of Bears (Ureide), the family of Weasels and Otters (Mastelide), the family of the Raceoon and its allies ( Proeyontde), the family of the Civets (Viverride), and the family of the Cats (Felide), in which last family the character of a " Beast of Prey" appears to find its highest and most developed expression *.From all these other families, the existing Canidae, as alresdy said, ttempts have been made to divide the different species of the family amongst upwards of a doren genera, but we have found it imposible * It was on this account thet, io « previews pab¥icathon, we selected the Cet as oar type.Tho work referred to was designed to supply a want of which we hed fers long time felt the need,-the want of =» work, in ome veleme, designed te impart « sufficient knowledge of the anatomy, physwolagy, classtinstoon, development, amd gre graphical and geological relations of some animal of the highest class, te Gt ite reeders for the fruitful study of any group of amimals In this work (* The Oat :' Joke Murrey, London ; and C, Scribner aod Some, New York) there will be foond (p 440) 6 state ment of the principles of noologieal clamification, and of the wales of the terme employed therein.At p. 302, soologioal nomenclature is explained ; while of ite eves mencement (pp.5-12) the different ways in which » living ergenion may be repented are set out, and the various sciences enumersted which are included withie, or are subsidiary to, the science of Living things, or Hholagy, for the study of which the work Was intended to serve as an introduction, The dermal strectu res, skeleton, muelen, alimentary, circulating, and respiratory organs, the nervous system, the proces of development, and relations of the chosen type with the living amd imongambe workds, post and present, are descri bed in successive chapters.Otrvieus ly in s work euch as car * Monograph of the Canidae,' space cannot be devoted to making known matters of the kind to readers as yet unsequainted with them.It will there fore be convenient, as the occasion arises, to refer such readers to the pages of cur preceding work, wherein will be found the explanatio ns they may require., INTRODUCTION.vi the same species could be : compared together, the amount of variability to which one species may be liable could not be properly appreciated.We have arrived at the conclusion that only five genera can be distinguished.Of these Icticyon, Lycaon, and Otocyon each contain but one species, while Cyon may be taken as consisting of two.All the rest of the Canide we place in the typical genus Canis.Such animals as the Common Fox and the Fennec would seem at first sight to be without any doubt generically distinct from the Jackal and the Wolf.Nevertheless, when all the series of intermediate forms are examined, the difficulty of drawing any valid generic distinction will, we think, be found insuperable.'The shape which the pupil of the eye may assume is a character which is practically of little use, since, with regard to various species, we have no evidence on the subject.Moreover the character itself, if it could always be ascertained, appears to be a rather trivial one, since amongst the Cats, which undoubtedly form one genus, it may be either linear or oblong, or round, according to the species *.As the result of our studies, we offer the following list (p.vi) of what we deem probable species ; although, as in some cases, we have been able to examine only a few specimens of one kind, it may well happen that some forms we have treated as species may ultimately prove to be but well-marked varieties.Indeed, so great is the variability of many of these animals that in some instances whether a form is to be reckoned as a species or a variety can only be matter of individual opinion.Our own tendency is rather to unite doubtful forms than to separate them as distinct kinds.Nevertheless we willingly adopt, provisionally, even a mere difference of hue, if there appears to be any good reason for thinking it may be a constant difference.We shall also rank as distinct, any two forms which exhibit definite and peculiar markings of diverse kinds, even though there may be individuals in which the markings are so indistinct that they can only doubtfully be referred to either.Such may not be truly "transitional forms," but only individuals with the characters of their kind very imperfectly developed.We do not ourselves doubt that * See the Proceedings of the Zoological Society for 1882, pp.141 and 517. a ee Se --ee a ee vi INTRODUCTION, true species exist, but from the existence of species it by no meansfollows that we must always be able to define them, We place, then,</t>
+          <t>Previous articleNext article FreeEvolution of Social StructuresLester F. WardLester F. Ward Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by American Journal of Sociology Volume 10, Number 5Mar., 1905 Article DOIhttps://doi.org/10.1086/211336 Views: 241Total views on this site Citations: 6Citations are reported from Crossref PDF download Crossref reports the following articles citing this article:Jerzy Hausner, Michał Możdżeń, Marek Oramus Fragility of Social and Economic Systems and the Role of “Modality”, Journal of Economic Issues 55, no.44 (Dec 2021): 1118–1138.https://doi.org/10.1080/00213624.2021.1994790Anupama Sanjeev, Arkalgud Ramaprasad, C R Jyoti Prakash Naidu Innovations of materials for sustainable social development: An ontology, Materials Today: Proceedings 38 (Jan 2021): 1272–1276.https://doi.org/10.1016/j.matpr.2020.12.105Christopher J. Przemieniecki Social Construction of Crime, (Nov 2017): 1–4.https://doi.org/10.1002/9781118524275.ejdj0109Hubert Knoblauch, René Wilke The Common Denominator: The Reception and Impact of Berger and Luckmann’s The Social Construction of Reality, Human Studies 39, no.11 (Mar 2016): 51–69.https://doi.org/10.1007/s10746-016-9387-3Ali Tarhan Is It Really a Sisyphus Torture? Political Economy of Everyday Life, (Nov 2014): 459–471.https://doi.org/10.1007/978-3-319-09710-7_40Vicky M. MacLean, Joyce E. Williams Shifting Paradigms, American Behavioral Scientist 51, no.55 (Jan 2008): 599–624.https://doi.org/10.1177/0002764207308807</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4233072394</t>
+          <t>https://openalex.org/W2087115489</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/042269a0</t>
+          <t>https://doi.org/10.1098/rspa.1905.0023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA (1890)</t>
+          <t>Harker (1905)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Our Book Shelf</t>
+          <t>On a new type of electric furnace, with a redetermination of the melting-point of platinum</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>THE alternative title of this little volume, which is of convenient size for the pocket, is “a hand-book to the larvæ of the British Macro-Lepidoptera and their food plants; both in nature and in confinement, with authorities,” and is sufficiently explanatory of its scope and objects. The arrangement of the first portion of the book is entomological, of the second and concluding portion botanical. In the former the larvæ are arranged and named according to “The Entomologist Synonymic List of British Lepidoptera,” and the food plants are enumerated as subsidiary to these. In the second half the food plants are specified in the order of the “London Catalogue of British Plants” (eighth edition). The book is therefore susceptible of a twofold use; it will induce the entomologist to become a field botanist, and conversely it will greatly aid the student who has some knowledge of the native flora in his efforts to become practically acquainted with the lepidopterous larvæ. So much energy is misdirected, particularly by young people, in making collections of butterflies and moths for the mere sake of collecting, that the intelligent use of this little book is calculated to effect a salutary change. It will, at least, direct greater attention to the life-histories of the Lepidoptera, and if it should be instrumental in inducing the collector to preserve and mount the larva alongside the male and female specimens of the mature butterfly or moth, so much the better. It is too common a practice to ignore the “grub” as unlovely and despicable; though from an economic point of view it possesses a higher interest than the winged insect, and is certainly not inferior to it in importance from a scientific standpoint. Nearly all the Lepidoptera which are familiar in this country as crop-pests are actively injurious only in the larval stage.</t>
+          <t>An investigation is now in progress in the thermometric department of the National Physical Laboratory, having for its object the design of an electrical method of measuring temperatures from 1200° C. upwards in some such way as temperatures below this value may now be determined by an appropriate thermocouple or resistance thermometer. It is, of course, common knowledge that metals such as platinum and alloys of the platinum group are unable for prolonged periods to withstand, without alteration of their structure and properties, the effects of temperatures above about 1200° C., particularly if in presence of even small quantities of certain gases, such as are very difficult to ensure shall be completely absent, especially at the higher ranges. This is the case with nearly all methods of heating, whether electrical or otherwise. The brilliant researches of Moissan on the stability of all kinds of substances at very high temperatures, and the recent work of Nernst culminating in the invention of his well-known lamp, in which the light giving filament is formed of a complex mixture of oxides of rare earths, directed the attention of the author to this class of bodies. From a study of their behaviour he has been able to work out a method of attaining by very simple means very high temperatures, which may be controlled with great ease. A preliminary account of this new type of electric furnace, with some results of investigations undertaken with it, forms the subject matter of the present paper.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4248400402</t>
+          <t>https://openalex.org/W2505419083</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1144/transed.6.2.96</t>
+          <t>https://doi.org/10.5962/bhl.title.13588</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Goodchild (1890)</t>
+          <t>Beebe (1905)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dolomitic limestones</t>
+          <t>Two bird-lovers in Mexico, by C. William Beebe. Illustrated with photographs from life taken by the author.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Dolomitic limestones may have been formed in any one of many different ways. Some of these were noticed in detail. Amongst those of primary origin were (1) the various modes of precipitation connected with the deposition of strata of lacustrine origin formed in closed bodies of inland water where supply is balanced by evaporation. The materials are derived (amongst other sources) from the decomposition of the ferro-magnesian silicates. (2) Precipitation consequent upon ( a ) the dessication of lagoons, or other temporary inlets of sea water; or ( b ) upon the mingling of various solutions. (3) Deposition direct from percolating solutions derived from the decomposition of basic igneous rocks situated at higher levels. Much of this is deposited as pearl spar in veins or other fissures, but occasionally masses of more importance are formed in this way. (4) Calcareo-magnesian matters exuded in consequence of the alteration of rock-forming silicates undergoing plutonic metamorphism, are, again, another source of certain dolomites of limited horizontal extent. (5) Some dolomitic limestones may, possibly, have originated directly through the secretion of small quantities of carbonate of magnesia, along with carbonate of lime, by various organic agencies. Dolomites of secondary origin have nearly all arisen through the addition of magnesian salts—usually the carbonate—to limestones already existing as such. In some cases, as in that of The Magnesian Limestone, the rock may have been of lagoon origin, and therefore partly a magnesian precipitate, to begin with, and have subsequently received a further addition of magnesian matter through the copious downward</t>
+          <t>LOVERS IN MEXICO 346iMan-o'-War.Its tiny bladder-sail was buoyant and fullstretched, reflecting all the hues of the rainbow, and the curling tentacles trailed after.At sight of ita thousand memories of palm-studded shores rushed over us, and, looking up, we realized that the mules had slipped past more quickly than we thought, for only a short distance away was the white beach of muid-Florida.It was there-we can discern almost the very spot -that last winter we watched so many hundreds of fleets of these selfsame Men-o'-War come to grief, wrecks innumerable, but exquisite even in their death.We now edged inshore still closer.The glass showed every familiar feature; the feathery cabbagepalms, tall and graceful; the dense, stiff palmettoes ; now and then a little cloud of Sanderlings blowing seaward and back again; and, finally, a long dark undulating line, now throbbing with action, now moying smoothly, and we knew that the Brown Pelicans were on the way to their fishing-grounds.A flock of Bluebills passed swiftly, and high over the land hung the Vultures, forever waiting and watching.Once, with the glass, we made out a mass of circling, soaring birds.This is the aerial guard of Pelicans watching over their islet in Indian River, where last year we saw hundreds of nests, eggs, and young birds, all crowded closely together on a low island of some three acres' extent.Through an inlet we caught a sme?WAVES OF THE SEA ¥en After wandering about the city for a while and seeing the proverbial patios, senoritas, mantillas, and plazas, which for most travellers are the sum total of interest, we took a trolley out into the suburbs, beyond the whitewashed walls and blue blinds, to get a flying PELICANS glimpse of Cuban nature.No feathered creatures, save the ubiquitous Turkey Vultures, appeared until fortune guided us to the Botanico Jardin de Universidad, where among the roses and jasmines, the widespreading rubber-trees, and stately Royal Palms, we found birds in abundance.Our minds recorded the TWO BIRD-LOVERS IN MEXICO 3fanun English Sparrows subconsciously, as from habit we forgot to give this imtruder a place on our list until we left the Garden.A small flock of Anis (Crotophaga ani) -those slender cow-birds of the tropics -kept to the tree-tops.In appearance they were like emaciated Grackles with high-arched bills.The Yellow Palm and Myrtle Warblers were abundant, while Cat-ROYAL PALMS, HAVANA.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W616339847</t>
+          <t>https://openalex.org/W4232085604</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5962/bhl.title.31522</t>
+          <t>https://doi.org/10.1038/071519a0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Child (1915)</t>
+          <t>NA (1905)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Individuality in organisms</t>
+          <t>The U.S. Coast and Geodetic Survey</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>INDIVIDUALITY IN ORGANISMSperiodic changes of the age cycle in the organic indi- vidual as one aspect of the life cycle.The present book deals primarily with the problem of the nature of the unity and order in the organism, the constancy of char- acter and course of development, the maintenance of individuality in a changing environment, and the processes of physiological isolation, disintegration, and integration or individuation in reproduction.The two books, concerned as they are with these intimately associated aspects of the life cycle, are in many respects complementary and together constitute a presentation of the more important results and conclusions from the writer's investigations and a consideration of certain biological problems from the point of view attained.</t>
+          <t>THE report of the Coast and Geodetic Survey for 1904 is a record of manifold labours and results which have for their theatre of action an area practically coterminous with that of the United States and all its island possessions. The main body of the report contains a detailed account of the wide range of duties devolving upon this bureau, and in the appendices we have a presentation of discussions and results which must prove of great economic value and interest to surveyors, engineers, navigators, and physicists.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2126160689</t>
+          <t>https://openalex.org/W4235468347</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1084/jem.21.5.455</t>
+          <t>https://doi.org/10.1016/s0016-0032(05)90094-x</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Baitsell (1915)</t>
+          <t>NA (1905)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>THE ORIGIN AND STRUCTURE OF A FIBROUS TISSUE WHICH APPEARS IN LIVING CULTURES OF ADULT FROG TISSUES</t>
+          <t>Chemical evolution</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>In living cultures of various kinds of adult frog tissues, which have been made according to the hanging drop method, there occurs, in many cases, a transformation of the plasma clot by which it becomes entirely changed from a typical fibrin net both in appearance and structure. The changes in the fibrin net generally begin when the culture is from two to three days old. During these changes it appears that the elements of the fibrin net fuse or consolidate, and as a result a great number of fine wavy fibrils are formed which unite to form wavy bundles of fibers, and these freely intertwine and anastomose as they ramify through the area of the plasma clot. The transformation of the fibrin net occurs first in the region of the clot which lies next to the imbedded tissue, gradually extends to the distal regions of the clot, and in time-as a rule in about two weeks-the entire plasma clot becomes changed from the fibrin net into a structure which to all appearances is identical with regular connective tissue. Photographs of both living and preserved cultures have been made to show the course of the transformation of the plasma clot and the development of the fibers. Experiments have been made which show that the fibers which are formed are not outgrowths of the imbedded tissue. Also they are not formed by an intracellular action, but arise directly by a transformation of the fibrin elements of the plasma clot. Experiments have been made which indicate that the transformation of the fibrin net will not occur unless it has come under the influence of living tissues or of living isolated cells. However, mechanical means, such as exerting tension on the clot with needles, may hasten the formation of the fibers. Also, in some cultures, movements of living isolated cells appear to aid in the formation of the fibers. The living tissues alone, however, are able to cause the fibers to form without the aid of any apparent mechanical factor. This is shown by cultures of various tissues in which no cell movement occurs and in which the plasma clot is undisturbed and yet a prolific formation of fibers may take place. Experiments have been made in order to determine the true nature of the transformed plasma clot and to see if the new fibrous tissue were still fibrin in character. The results that have so far been obtained from these tests have not been entirely conclusive and leave the question unsettled. The transformation of the fibrin net results in a shrinkage of the clot. It also becomes very tough and resistant to injury and, therefore, entirely different from the fragile and easily destroyed fibrin net when in its original condition. It is believed that such a reaction must play an important part in wound healing. A study of the relation between connective tissue fibers formed in wound healing and in embryonic development to the fibers formed in the plasma clot is being made, and the results will appear in a later paper.</t>
+          <t>A novel family of 2Fe–2S proteins, the NEET family, was discovered during the last decade in numerous organisms, including archea, bacteria, algae, plant and human; suggesting an evolutionary-conserved function, potentially mediated by their CDGSH Iron–Sulfur Domain. In human, three NEET members encoded by the CISD1–3 genes were identified. The structures of CISD1 (mitoNEET, mNT), CISD2 (NAF-1), and the plant At-NEET uncovered a homodimer with a unique “NEET fold”, as well as two distinct domains: a beta-cap and a 2Fe–2S cluster-binding domain. The 2Fe–2S clusters of NEET proteins were found to be coordinated by a novel 3Cys:1His structure that is relatively labile compared to other 2Fe–2S proteins and is the reason of the NEETs' clusters could be transferred to apo-acceptor protein(s) or mitochondria. Positioned at the protein surface, the NEET's 2Fe–2S's coordinating His is exposed to protonation upon changes in its environment, potentially suggesting a sensing function for this residue. Studies in different model systems demonstrated a role for NAF-1 and mNT in the regulation of cellular iron, calcium and ROS homeostasis, and uncovered a key role for NEET proteins in critical processes, such as cancer cell proliferation and tumor growth, lipid and glucose homeostasis in obesity and diabetes, control of autophagy, longevity in mice, and senescence in plants. Abnormal regulation of NEET proteins was consequently found to result in multiple health conditions, and aberrant splicing of NAF-1 was found to be a causative of the neurological genetic disorder Wolfram Syndrome 2. Here we review the discovery of NEET proteins, their structural, biochemical and biophysical characterization, and their most recent structure–function analyses. We additionally highlight future avenues of research focused on NEET proteins and propose an essential role for NEETs in health and disease. This article is part of a Special Issue entitled: Fe/S proteins: Analysis, structure, function, biogenesis and diseases.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2196020881</t>
+          <t>https://openalex.org/W4240551166</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/1536430</t>
+          <t>https://doi.org/10.5962/bhl.title.33689</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lillie (1915)</t>
+          <t>Geikie (1905)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ON THE CONDITIONS OF ACTIVATION OF UNFERTILIZED STARFISH EGGS UNDER THE INFLUENCE OF HIGH TEMPERATURES AND FATTY ACID SOLUTIONS</t>
+          <t>Landscape in history and other essays</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>§ 1. The effects following exposure of maturing unfertilized starfish eggs to high temperatures (29-36°) vary in a constant manner with the times of exposure as follows. Below a certain minimal duration of exposure to any given temperature (e. g., 32°), no visible change is produced in the egg; slightly longer exposures induce the formation of typical fertilization-membranes, but the eggs fail to cleave and soon break down without development; in order to induce favorable development an exposure of three to four times the minimum for membrane-formation is required (e.g., 7-8 minutes at 32°); more prolonged exposures are again followed by failure to develop.2. Between 29° and 38° the times of exposure required to produce these effects decrease very rapidly with rise of temperature; on the average a rise of 1° approximately halves the exposure required for a given physiological effect (such as membrane-formation, or complete activation, or heat-inactivation). The activation-process thus exhibits a characteristically high temperature-coefficient (Q10 = 200-400).3. The effects of exposure to weak butyric acid solution (n/260) vary with time of exposure in a similar manner,—brief exposure causing membrane-formation followed by breakdown, longer exposures causing cleavage and development to larval stages, and still longer exposures causing cytolysis without development.4. The inference is that the same process is initiated in the egg by exposure to warm sea-water as by fatty acid solution. This process must proceed to a certain stage in order that activation may be complete; if arrested too soon (brief exposure) only partial activation (membrane-formation followed by breakdown) results.5. Eggs in which membranes are formed by minimal exposure to warm sea-water or n/260 butyric acid, followed by return to sea-water, may be made to develop favorably by a second treatment with either warm sea-water or fatty acid solution, as well as by after-treatment with cyanide-containing or hypertonic sea-water. A favorable after-treatment may thus be of the same kind as the membrane-forming treatment.6. The temperature-coefficient of activation by high temperatures is of the same order as that of the melting of gels or the decrease in the viscosity of gelatine solutions. The above high temperatures thus probably act by producing degelation-effects in the surface layer of the egg; increase of permeability, with consequent depolarization, is the result of this change.7. A new hypothesis of the mode of action of hypertonic sea-water is put forward.</t>
+          <t>AMONG the obscure problems in the history of man- kind a foremost place must be given to the question of the origin and distribution of the various races of men.Undoubtedly two main factors in the differentiation of these races have been climate and geography.These same physical conditions still per- petuate, if they did not actually originate, the racial distinctions.Even where we may hesitate to adopt a theory as to the initial start of any one of the great branches of mankind, we can hardly fail to recognise that the several nations or tribes comprised within one of these branches are marked off from each other by more or less definite peculiarities, of which some at least may probably be referred to the influence of environment.The landscapes of a country, the form, height, and trend of its mountain-ranges, the position and extent of its plains and valleys, the size and direc- tion of its rivers, the varying nature of its soils and climate, the presence or absence of useful minerals, 1 The substance of this Essa^f ormed an address to the Oxford University Scientific Club, in 1887.A INFLUENCE OF ENVIRONMENT 3 may obviously be discussed independently either from the scientific or from the historical side.Any investiga- tion which deals with the changes that have taken place in the outward aspect of a country since man first set foot upon its surface, and with the sources of informa- tion regarding them, must obviously appeal strongly to the lover of science, inasmuch as it brings before him the evidence for various kinds of geological process, the actual operation and rate of progress of which he may thereby be enabled to watch and determine.It may thus be made to throw light upon one of the vexed problems of science the value of time in geological inquiry.But it is of the relations of such an investi- gation to human history that I would first more par- ticularly speak.Such inquiries seem to me eminently calculated to engage the sympathies and even the active co-operation of literary students.There can be no doubt that the advancement of our knowledge of the mutations of the land since the beginning of history must depend largely upon help from the study of historical documents.No long series of years has passed since the truth was recognised that man is in large measure the creature of his environment ; that his material progress and mental development have been guided and modified by the natural conditions in which he has been placed.The full extent and application of this truth, however, are perhaps not even yet comprehended.If the sur- rounding and limiting conditions have been such potent factors in human development, we may well believe that any serious change or modification in them can- not but have reacted upon man.If nature alters her BANNOCKBURN BATTLE-FIELD 9 persons who have visited the site of the Battle of Bannockburn have felt some difficulty in understanding why the English army did not easily outflank the left wing of the Scots.At present, a wide fertile plain stretches for miles north and south on the east side of the low plateau on which Bruce's forces were drawn up. 1A small body of the English cavalry did, indeed, make its way across this plain until overtaken and cut to pieces by Randolph.But why was this force so easily dispersed, and why was no more formidable and per- sistent effort made to turn that left flank?It is very clear that, had the topography been then what it is now, the Battle of Bannockburn must have had a far other ending.The true explanation of the difficulty seems to me to be supplied by some almost casual references in Barbour's account of the operations.He makes Bruce, in addressing his followers, allude to the advantage they would gain should the enemy attempt to pass by the morass beneath them.The poet further narrates how the Carse, that is, the low flat land on the left, was dotted with pools of water : how the English, in order to effect a passage, broke down houses, and tried to bridge over these pools with doors, windows, and thatch from the cottage roofs ; and how, with the assistance of their compatriots in Stirling Castle, they were so far successful that Clifford's troop of horse, and, possibly, some more of the English army, got safely over to the hard ground beyond.We thus learn that Bruce's famous device of the * pots ' was only By comparing the descriptive epithet in the name with the present aspect of the locality, some indication, or even, perhaps, some measure of the nature and amount CELTIC PLACE-NAMES n of the changes in the topography, may still be recovered.Now in researches of this kind the liability to blunder is so great, and many able writers have blundered so egregiously, that the inquiry ought not to be entered upon without due preparation, and should not be continued without constant exercise of the most scrupulous caution.The great danger of being betrayed into error by the plausibilities of phonetic etymology should never for a mo</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W68341190</t>
+          <t>https://openalex.org/W1966384238</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3133/pp90b</t>
+          <t>https://doi.org/10.1038/092096b0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Hunter (1915)</t>
+          <t>Wager (1913)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Erosion and sedimentation in Chesapeake Bay around the mouth of Choptank River</t>
+          <t>Red-water Phenomenon due to Eugiena</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>With the unfolding of geologic knowledge during the last century the processes of denudation, transportation of sediments, and sedimentation have become better understood, and to some extent their relative effects in bringing about the present configuration of the earth's surface have been determined. The nature of these processes has been studied in many parts of the globe, but owing to the large size of the units affected and the slowness of the processes there has been little opportunity to collect quantitative data. Indeed, the data available are very largely conjectural, their degree of accuracy being only that of good guessing. However, with the advent of accurate topographic and hydrographic surveys, the first steps toward actual measurements of some of the many interesting surficial changes that are in progress have been taken, and it only remains for time and additional observations to afford opportunities for comparison. Resurveys, particularly by the United States Coast and Geodetic Survey, of parts of the eastern coast of the United States at different intervals have shown in many places marked changes of both shore line and sea bottom, as on Cape Cod, on Nantucket Island, and in Delaware Bay. Comparisons of this kind have so far been incidental to work in engineering and coast surveying, so that there has been little opportunity for the selection of localities particularly adapted to studies of erosion and sedimentation.</t>
+          <t>THE red-water phenomenon due to a Euglena described by Prof. Dendy in NATURE of August 7 has been observed by me in Pretoria. In this case, however, the Euglena swims freely about in the water, and also forms a red gelatinous scum on the surface of the damp mud on the side of the pond. In swimming they seldom show euglenoid movement. A flagellum longer than the body can be easily seen under the microscope at the anterior end of the body, but it always trails along the body with lashing movements. If they become stranded on the mud at the edge of the pond, they soon become spherical and encysted in a mucilaginous covering much wider than the body and showing a layered formation. I have not observed any bubbles of gas given off, although I have kept large quantities of them under observation for long periods. They appear to prefer the encysted form, as they always swim to the edge of the vessel towards the light and form a deep red line along the edge, which gradually becomes dry. If more water is added and the vessel turned round, they will leave their cysts and again swim towards the light side. They are of a fairly large size, and have a cylindrical body tapering to a sharp point at the posterior end, where the last portion is free from pigment Chlorophyll is present, and is easily seen amongst the red in those that have just come out of the encysted stage, but later on it entirely disappears.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4248421549</t>
+          <t>https://openalex.org/W2019037657</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/622256</t>
+          <t>https://doi.org/10.1098/rspb.1913.0051</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Harder &amp; Chamberlin (1915)</t>
+          <t>NA (1913)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>The Geology of Central Minas Geraes, Brazil</t>
+          <t>Studies on the processes operative in solutions (XXX) and on enzyme action (XX).—The nature of enzymes and of their action as hydrolytic agents</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Previous articleNext article FreeThe Geology of Central Minas Geraes, BrazilE. C. Harder and R. T. ChamberlinE. C. Harder Search for more articles by this author and R. T. Chamberlin Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by The Journal of Geology Volume 23, Number 5Jul. - Aug., 1915 Article DOIhttps://doi.org/10.1086/622256 Views: 287Total views on this site Citations: 21Citations are reported from Crossref PDF download Crossref reports the following articles citing this article:Tiago Henrique DeFerreira, Francisco Javier Rios The Miguel Burnier district: An encapsulation of Brazil's mining history, The Extractive Industries and Society 8, no.44 (Dec 2021): 101006.https://doi.org/10.1016/j.exis.2021.101006Tiago Henrique DeFerreira, Alexandre Raphael Cabral, Francisco Javier Rios Earthquake-induced clastic dyke and fluid inflow at the Miguel Burnier manganese-ore deposit, Quadrilátero Ferrífero of Minas Gerais, Brazil, SN Applied Sciences 3, no.33 (Feb 2021).https://doi.org/10.1007/s42452-021-04297-xAlexandre Raphael Cabral, Armin Zeh, Miguel Tupinambá, Júlia Pimenta First evidence for Neoproterozoic magmatism in the Quadrilátero Ferrífero of Minas Gerais, Brazil, and geotectonic implications, Journal of South American Earth Sciences (Aug 2020): 102844.https://doi.org/10.1016/j.jsames.2020.102844Boris Gailleton, Simon M. Mudd, Fiona J. Clubb, Daniel Peifer, Martin D. Hurst A segmentation approach for the reproducible extraction and quantification of knickpoints from river long profiles, Earth Surface Dynamics 7, no.11 (Feb 2019): 211–230.https://doi.org/10.5194/esurf-7-211-2019Armin Zeh, Alexandre Raphael Cabral, Nikola Koglin, Mareike Decker Rutile alteration and authigenic growth in metasandstones of the Moeda Formation, Minas Gerais, Brazil – A result of Transamazonian fluid–rock interaction, Chemical Geology 483 (Apr 2018): 397–409.https://doi.org/10.1016/j.chemgeo.2018.03.007Alexandre Raphael Cabral, Armin Zeh Detrital zircon without detritus: a result of 496-Ma-old fluid–rock interaction during the gold-lode formation of Passagem, Minas Gerais, Brazil, Lithos 212-215 (Jan 2015): 415–427.https://doi.org/10.1016/j.lithos.2014.10.011Hevelyn S. Monteiro, Paulo M. Vasconcelos, Kenneth A. Farley, Carlos A. Spier, Claudio L. Mello (U–Th)/He geochronology of goethite and the origin and evolution of cangas, Geochimica et Cosmochimica Acta 131 (Apr 2014): 267–289.https://doi.org/10.1016/j.gca.2014.01.036E.R. Ramanaidou, M.A. Wells Sedimentary Hosted Iron Ores, (Jan 2014): 313–355.https://doi.org/10.1016/B978-0-08-095975-7.01115-3Alexandre Raphael Cabral, Nikola Koglin, Harald Strauss, Helene Brätz, Rogerio Kwitko-Ribeiro Regional sulfate–hematite–sulfide zoning in the auriferous Mariana anticline, Quadrilátero Ferrífero of Minas Gerais, Brazil, Mineralium Deposita 48, no.77 (Aug 2013): 805–816.https://doi.org/10.1007/s00126-013-0481-4David L. Shuster, Kenneth A. Farley, Paulo M. Vasconcelos, Greg Balco, Hevelyn S. Monteiro, Kathryn Waltenberg, John O. Stone Cosmogenic 3He in hematite and goethite from Brazilian “canga” duricrust demonstrates the extreme stability of these surfaces, Earth and Planetary Science Letters 329-330 (May 2012): 41–50.https://doi.org/10.1016/j.epsl.2012.02.017Alexandre Raphael Cabral, Cheo Emmanuel Suh, Rogerio Kwitko-Ribeiro, Orlando Garcia Rocha Filho Brittle microstructures in gold nuggets: A descriptive study using backscattered electron imaging, Ore Geology Reviews 33, no.3-43-4 (Jun 2008): 212–220.https://doi.org/10.1016/j.oregeorev.2006.03.006Alexandre Raphael Cabral, Bernd Lehmann Seleniferous minerals of palladium and platinum from ouro preto-bearing mineralisation in Brazil, Ore Geology Reviews 32, no.3-43-4 (Nov 2007): 681–688.https://doi.org/10.1016/j.oregeorev.2005.02.006H.F. Galbiatti, M.A. Fonseca, M.C. Pereira, J.C. Polônia Structural control of Au–Pd mineralization (Jacutinga): An example from the Cauê Mine, Quadrilátero Ferrífero, Brazil, Ore Geology Reviews 32, no.3-43-4 (Nov 2007): 614–628.https://doi.org/10.1016/j.oregeorev.2005.03.020A. R. Cabral, A. V. Corrêa Neto Mercury-bearing manganiferous veinlets in compact haematite ore: the preliminary data from Fábrica deposit, Quadrilátero Ferrífero, Minas Gerais, Brazil, Applied Earth Science 115, no.11 (Jul 2013): 1–7.https://doi.org/10.1179/174327506X111264A. R. Cabral, O. G. Rocha Filho, R. D. Jones Hydrothermal origin of soft hematite ore in the Quadrilátero Ferrífero of Minas Gerais, Brazil: petrographic evidence from the Gongo Soco iron ore deposit, Applied Earth Science 112, no.33 (Jul 2013): 279–286.https://doi.org/10.1179/037174503225011315Siegfried Siegesmund, Axel Vollbrecht, Carola Hulka The anisotropy of itacolumite flexibility, Geological Society, London, Special Publications 205, no.11 (Jun 2022): 137–147.https://doi.org/10.1144/GSL.SP.2002.2</t>
+          <t>Our object in the present communication is to utilise the experience gained in the course of two convergent series of inquiries carried on during the past 12 years in tire hope of arriving at a satisfactory solution of the problems of hydrolysis whether effected either by ordinary agents—acids or alkalies—or by enzymes. The nature of the hydrolytic process has been discussed broadly in Part XXIV of the one series and the phenomena attending the dissolution of salts in water and the behaviour of saturated solutions towards precipitants has since been considered in Part XXV of the same series: much that has been said in these two communications will be of consequence in the present discussion. The views put forward with regard to the composition of water (S. VI) and with reference to the part played by the class of substances which we have termed collectively hormones , in altering the state of water and of substances dissolved in it, will also be found to have a bearing on the problems presented by enzymes. The present communication, it should be stated, is in the main an amplification of the views expressed in Part II of the Studies on Enzyme Action.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2603609995</t>
+          <t>https://openalex.org/W2095083712</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1242/jcs.s2-61.241.51</t>
+          <t>https://doi.org/10.1017/s0025315400006767</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gemmill (1915)</t>
+          <t>Walton (1913)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Double Hydrocœle in the Development and Metamorphosis of the Larva of Asterias rubens, L.</t>
+          <t>The Shore Fauna of Cardigan Bay</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ABSTRACT As is well known, the hydrocœle or water vascular system of Echinoderms arises from a portion of the left cœlom. The early larvae being bilaterally symmetrical, a great deal of discussion has taken place as to whether any definite portion of the right cœlomic cavity corresponds with the hydrocœle, and if so, whether this portion gives rise to any adult structure which can be identified. There has also been much speculation regarding the bilateral ancestor. On both of these problems a study of double hydrocœle—that is, the condition in which a right as well as a left hydrocœle appears—is calculated to throw light. While this is true for any kind of Echinoderm, it applies particularly in the case of A. rubens, since there is evidence that the ontogenetic history of our species belongs to the least modified type of larval development we yet know of within the phylum (4, p. 279). Again, various points in normal development are difficult to determine with certainty, on account of the great and rapid change of symmetry which occurs at metamorphosis. Welcome additional light on a. number of these points (p. 72) has accrued from a study of double hydrocœle.</t>
+          <t>Cardigan Bay occupies a considerable portion of the west coast of Wales. It is bounded on the north by the southern shores of Carnarvonshire; its central portion comprises the entire coast-lines of Merioneth and Cardigan, and its southern limit is the north coast of Pembrokeshire. The total length of coast-line between Braich-y-pwll in Carnarvon, and Strumble Head in Pembrokeshire, is about 140 miles, and in addition there are considerable estuarine areas. The entire Bay is shallow; for the most part four to ten fathoms inshore, and ten to sixteen about the centre. It is considered probable that the Bay was temporarily transformed into low-lyingland by accumulations of boulder clay during the Ice Age. Wave action has subsequently completed the erosive removal of that land area, with the exception of a few patches on the present coast-line and certain causeways or sarns. Portions of the sea-floor probably still retain some remains of this drift, and owing to the shallowenss, tidal currents and wave disturbance speedily cause the waters of the Bay to become opaque. The prevailing winds are, as usual, south-westerly, and heavy surf is frequent about the central shore-line. This surf action is accentuated by the large amount of shingle derived from the boulder elay. The action of the prevailing winds and set of dirfts in the Bay results in the constant movement northwards along the shroes of a very considerable quantity of this residual drift material. Where checked by shore contour or river current this drift accumulates to form storm-beaches, which have eventually deflected certain rivers and streams to the northward, as in the case of the Ystwyth at Aberystwyth, the Clarach stream a little further to the north, and the Leri at Borth.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2315599711</t>
+          <t>https://openalex.org/W2751594247</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s0017816000008300</t>
+          <t>https://doi.org/10.1016/s0372-5545(17)65375-6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Jones (1915)</t>
+          <t>Elley (1913)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The Protestant Missionary Propaganda in India</t>
+          <t>The Castration of Ostriches</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A few years ago (1906) the Protestant missionary enterprise in India celebrated its bicentenary. A few months ago the centennial celebration of the founding of American missions in India was an occasion of much joy. It must be a matter of deep interest, not only to the missionary body, but to the members of our Christian community in America to study both the progress and the vast and, in some cases, revolutionary changes of this great enterprise on the mission field. Even during the missionary experience of the writer innovations have been numerous and fundamental. To those who think that the missionary enterprise is wanting in the spirit of the age, the transformations which have already taken place and are constantly going on will lead to astonishment. These changes have been coincident with and a part of the progress of the Christian world in thought and life, and embrace not only the forms and methods of work but also the fundamental principles which underlie and permeate the whole work. In the present paper it is proposed to study a few of these innovations which have marked the onward march of this great movement.</t>
+          <t>The measurement methods of most value to determine corn quality depend first and foremost on the use to be made of the corn. While corn may be used for wet milling, dry milling, dry-grind ethanol processing, snack food or alkaline processing, feeding, or seed production, each of these uses has specific measurement methods that help select optimal quality of corn for each use. The U.S. corn-grading standards provide universal information on breakage, test weight, heat, and total damage important for all uses.Wet millers prefer corn with high starch extractability, whereas dry-grind ethanol processors want high fermentables. Other characteristics of low stress cracks, low pericarp cracks, low breakage, well-filled mature kernels, medium density, and large kernels are desired for both wet millers and dry-grind ethanol processors.Dry millers, snack food processors, and alkaline processors prefer high-density,hard-endosperm corn for making large flaking grits and proper alkaline cooking. All three would prefer low stress cracks, low breakage susceptibility, and low pericarp damage. Because the corn is going into food use, negligible fungal damage is essential. Feed uses are becoming more differentiated by livestock and poultry species. Low mycotoxin levels are very important. Nutritive enhancements with desired amino acid and fatty acids are becoming more prevalent and will be even more so as future biotechnologic changes occur.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2496688311</t>
+          <t>https://openalex.org/W4206743256</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5962/bhl.title.43850</t>
+          <t>https://doi.org/10.1038/091523a0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Underhill (1915)</t>
+          <t>NA (1913)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>The physiology of the amino acids, by Frank P. Underhill ...</t>
+          <t>Societies and Academies</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Viewed from the chemical standpoint protein is seen as a huge molecule, complex in structure, labile in character and therefore prone to chemical change.So large and intricate is the make-up of the molecule that chemists for generations have been baffled in their attempts to gain any adequate conception of its nature.At the present stage of our knowledge it is impossible to form any satisfactory definition of a protein based either on its chemical or physiological properties.In general, proteins contain about 15 to 19 per cent of nitrogen, 52 per cent of carbon, 7 per cent of hydrogen, 23 per cent of oxygen and 0.5-2.0 per cent of sulphur.Some also contain phosphorus or iron.They act like amphoteric electrolytes, that is, they are capable of forming salts with both acids and bases.Proteins belong to that class of substances known as colloids and as such do not possess the power to pass through animal or vegetable membranes.In a manner similar to colloids they may be separated from their solutions by suitable treatment with salts, such as sodium chloride, ammonium sul- phate, etc.By a process known as "coagulation," which may be induced by the action of heat or the long continued influence of alcohol the proteins lose their colloidal characteristics which cannot be restored.Many proteins are capable of crystallization and indeed may occur in nature in crystalline form.It has been found possible also to cause some to crys- tallize although their presence in nature as crystals is unknown.Some doubt has been cast upon the THE PROTEINS 7 B. Conjugated Proteins I Nucleoproteins are compounds of one or more protein molecules united with nucleic acid.The nucleoproteins, as their name implies, are the proteins of cell nuclei and give to the latter their character.The nucleoproteins are therefore found in largest quantity wherever cellular material is abundant, as in glandular tissues and organs.By artificial hydroly- sis or during treatment in the alimentary tract a nucleoprotein is decomposed into protein and nucleic acid.Nucleic acid, of which there are several types, may be made to yield a series of well-defined compounds, the purine bases (xanthine, hypoxanthine, adenine and guanine), the pyrimidine bases (uracile, cytosine and thymine), a carbohydrate group (pentose or hexose) and phosphoric acid.Glucoproteins are compounds of the protein mole- cule with a substance or substances containing a car- bohydrate group other than a nucleic acid.Particu- larly rich in glucoproteins are the mucus-yielding portions of tissues.They serve also as a cement substance in holding together the fibers in tendons and ligaments.An amino-sugar, glucosamine, has been isolated from some of the glucoproteins and it is generally regarded as constituting the carbohydrate radicle of these conjugated proteins.Phosphoproteins are compounds of the protein molecule with some, as yet undefined, phosphoruscontaining, group other than a nucleic acid or lecithin.</t>
+          <t>PARIS. Academy of Sciences, July 7.—M. F. Guyon in the chair.—Paul Appell: Developments in series proceeding according to the inverse of given polynomials.— J. Boussinesq: The equations of dynamic equilibrium of the superficial layer separating a liquid from another fluid.—A. Lacroix: The rhyolitic and dacitic rocks of Madagascar, and in particuter those of the Sakalave region. Complete analyses of twenty-one rocks are given, and the distribution of the rocks in the area discussed.—A. Müntz and E. Lainé: Studies on the irrigation of soils. The minimum irrigation gives the best cultural results; it depends on the slope of the land, the nature of the vegetation, and the dimensions of the distributing channels.—G. C harpy was elected a correspondant for the section of chemistry in the place of the late Louis Henry.—Ch. Platrier: Meromorph solutions of certain linear integral equations of the third species.—M. Barre: Helicoids of the second species.—Th. Got: The symmetries of the reproductive groups of indefinite ternary quadratic forms.—A. Romieux: Contribution to the study of the terrestrial deformation.—C. G. Bedreag: Electrification by the X-rays. The charge depends on the pressure, the nature of the metal of the electrode, difference of contact potential between the electrode and the surrounding walls, and ionisation of the gas. In the present communication a special study is made of the function of the metal.—André Chéron: A new arrangement for the examination of stereoscopic photographs.—Henri Labrouste: The visibility of traces of foreign substances deposited on a surface of pure water. The method described permits of the thin layers being detected by optical means without the use of any special apparatus.—Mlle. Cécile Spielrein: The equilibrium of lithium sulphate with the alkaline sulphates in presence of their mixed solution at 100° C.—Ruby Wallach: The thermal analysis of clays. The double galvanometer of Le Chatelier-Saladin with a thermocouple was applied to the examination of various kaolins and clays, the heat absorption due to the volatilisation of water being shown by well-marked depressions on the curve. A slight heat evolution between 900° C. and 1000° C. was also observed in some cases, an effect probably due to a transformation of alumina.—André Job and Paul Goissedet: The cerium acetylacetonates. Ceric acetyl-acetonate has been prepared and analysed.—M. Dumesnil: Diketones obtained by the action of the xylylene dibromides on the sodium derivative of iso-propylphenylketone and their decomposition by means of sodium amide.—Roger Douris: The addition of hydrogen to some secondary α-ethylenic alcohols in presence of nickel.—Marcel Bandouin and Louis Reutter: The analysis of the contents of some Gallo-Roman vases and of a flask of perfume, found in a vault at la Vendée. These vases date probably from the third century. Styrax, turpentine, resin, asphalt, or Judean bitumen, and incense were found. These prove indirectly the existence of commercial relations between France and Asia Minor, Somaliland and Tudea.—J. Durand: A layer of aragonite crystals in the marls attributed to the Upper Trias in eastern Corbières.—C. Gaudefroy: The dehydration figures of different tvpes obtained in the same crystals.—A. Guilliermond: The rôle of the chondriome in the elaboration of the reserve products in fungi.—A. Marie and Léon MacAuliffe: The anthropometric study of 200 Madagascans.—E. Gley and Alf. Quinquaud xhe influence of the suprarenal secretion on the vasomotive actions dependent on the splanchnic nerve.—A. Barbieri: The difference in chemical composition between the great sympathetic system and the axial nervous tissue of the cranial and spinal nerves.—E. Bonrquelot and M. Bridel: The synthesis of β-geranyl-glucoside with the aid of emulsin; its presence in plants. The glucoside can be synthetised from geraniol saturated with water and glucose in presence of emulsin; a larger yield is obtained in aqueous acetone solution. The presence of this glucoside was proved in Pelargonium odoratissimum.—P. Noël Bernard and J. Bauche: The influence of the mode of penetration (cutaneous or buccal) of Stephanurus dentatus on the localisations of this Nematod in the organism of the pig and on its evolution.—E. Pinoy: The necessity of a bacterial association for the development of a Myxobacterium, Chondromyces crocatus.—F. Picard and G. R. Blanc: Coccobacillary infections in insects.—F. Kerforne: The Devonian iron minerals of Brittany.—Antonin Lanquine: The presence of layers containing Witchellia, of the lower Bajocian, at some new points of the Var.—Alfred Angot: A new barometric formula. The barometric formula communicated to the last meeting is equivalent to Babinet's formula. The latter in its original form is more easy to memorise.—Ladislas Gorczynski: The reduction in the solar radiation for 1912 from pyrheliometric measurements made in Poland.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2013424708</t>
+          <t>https://openalex.org/W4211017927</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1001/jama.1915.02570370010003</t>
+          <t>https://doi.org/10.1038/091023a0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Dercum (1915)</t>
+          <t>NA (1913)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>THE TOOLS OF OUR TRADE</t>
+          <t>Societies and Academies</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Under the above caption I propose to review the means at our command for combating insanity after it has occurred. The discussion of prevention is foreign to my present purpose, as is also the general problem of the care of chronic cases. I will therefore leave untouched such questions as those of general hygiene, employment, retraining, after care, family life and like matters, and will turn my attention directly to the purely medical aspects of treatment. In order that we should realize and view in their proper proportions the indications, possibilities and limitations of the therapeutic means at our command, we must first, though necessarily briefly, consider the nature of the problems confronting us. In other words, previous to an intelligent attempt at treatment, we must have some knowledge, or at least some idea, of the pathology of the diseased states with which we are dealing. &lt;h3&gt;PATHOLOGY IN MENTAL STATES&lt;/h3&gt;</t>
+          <t>LONDON. Royal Society, February 27.—Sir Archibald Geikie, K.C.B., president, in the chair.—F. Soddy: The i periodic law from the point of view of recent results in radio-activity.—C. F. Jenkin and D. R. Pye: The thermal properties of carbonic acid at low temperatures. The paper describes a series of experiments made in the engineering laboratory at Oxford, undertaken with the object of checking by direct measurements the accuracy of the accepted CO2 entropy-temperature diagram, due to Mollier, and of extending the diagram to lower temperatures, i.e. from —30° C. to —50° C.—E. Roberts: Re-reductions of Dover tidal observations, 1883–4, &amp;c.—Prof. F. Keeble, Dr. E. F. Armstrong, and W. N. Jones: The formation of anthocyan pigments in plants. Part iv., The chromogens. The results of the experiments described in this paper lend support to the hypothesis that the anthocyan pigments of plants are produced by the oxidation of colourless chromogens. Under certain conditions a coloured flower may be caused to reverse its pigment-forming process and to reduce the pigment which it contains to a colourless state. By again changing the conditions the pigment-forming mechanism may be made to resume activity and to give rise to pigments identical in colour with those of the normal intact flower. Whether the flower forms pigment or remains colourless depends on the degree of hydration of its tissues. If water be withdrawn from the tissues oxydase activity falls off, the activity of “reducing-bodies” becomes increased—actually or relatively—pigment formation is inhibited, and the pigment in existence already is reduced to chromogen. The flower becomes colourless. If water be supplied to the decolorised tissues, oxydase resumes its activity and chromogens are oxidised to pigments.—W. N. Jones: The formation of the anthocyan pigments of plants. Part v., The chromogens of white flowers. This paper, which deals with the biochemistry of the pigment-forming mechanism contained in white flowers, is a continuation of the work summarised in part. iv. of the present series of communications. As shown in the latter paper, the pigments of flowers may be reduced to the state of colourless chromogens and may be re-formed by artificial means from those chromogens. In the present paper it is shown that chromogens may be obtained from some white flowers and may be caused by similar treatment to give rise to pigments.—Mabel P. FitzGerald: The changes in the I breathing and the blood at various high altitudes. The observations described in the paper were made during the summer of 1911 on persons residing in towns, mining camps, &amp;c., at various altitudes from 5000 to 14,000 ft. in the Colorado portion of the Rocky Mountains. The main conclusions reached are as follows:—(i) The volume of air breathed per unit mass of CO2 produced by the body is always increased in persons acclimatised at high altitudes. The mean increase of breathing is such as to produce a fall of about 4·2 mm. (or roughly 10 per cent, of the normal for sea-level) in the partial pressure of CO2, in the air normally present in the lung alveoli for every 100 mm. of fall in the barometric pressure. Both men and women show this fall, after allowance is made for the normal difference in the alveolar CO2, pressure of men and women. (2) The percentage of haemoglobin in the blood of acclimatised persons is likewise increased, the mean increase being about 10 per cent, of the normal at sea-level in men for every 100 mm. of diminution in the barometric pressure. Both men and women show this fall. (3) It may take some weeks for these changes to establish themselves fully in persons passing to a high altitude or to disappear in persons passing to sea-level.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385371672</t>
+          <t>https://openalex.org/W4233530500</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21916/mlr.2023.16</t>
+          <t>https://doi.org/10.1038/092494a0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Luo (1915)</t>
+          <t>NA (1913)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Labor market impacts of destructive California wildfires</t>
+          <t>Societies and Academies</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>The severity and destruction of wildfires in California have increased in magnitude every decade since the late 1900s. Some researchers have studied the impacts of wildfires on people’s health and earnings and on the environment, but few have studied their impacts on the labor market. In this article, I estimate the impacts of destructive wildfires on short-term employment changes by using a generalized difference-in-difference modeling approach with an event-study specification (impacts of an event over time). Although the impacts are small at the overall (cross-industry) level, the analysis of this article shows that specific industries generally had much larger impacts during the analysis period of 2003 through 2021. For example, construction, the most visibly affected industry, had a statistically significant employment growth rates of from 5 percent to 10 percent for at least 18 months postfire. Professional and business services also had significant employment growth rates of up to 5 percent for at least 18 months postfire.</t>
+          <t>LONDON. Royal Society, December 11.—Sir William Crookes, O.M., president, in the chair.—A. Mallock: Intermittent vision. When a wheel turns so rapidly that the separate spokes cannot be seen or easily followed by the eye, and if at the same time the observer receives a small mechanical shock of almost any kind, the spokes appear almost stationary for a fraction of a second. The appearances depend on the speed of rotation, on the brightness of the illumination, and, to a lesser degree, on the nature of the shock. Suitable shocks are given by the contact of the feet with the ground, as in walking, by tapping the head or body, and in many other ways. Experiments are described bearing on the relation between the appearances and the speed of rotation, and an explanation is suggested depending on an assumed variation of sensibility produced by a slight shock. This variation, which it appears is rapidly extinguished, has a periodic time of about 1/18 second, but this differs slightly for different individuals.—Prof. R. J. Strutt: Attempts to observe the production of neon or helium by electric discharge. The present experiments were begun in the hope of confirming the work of Collie and Patterson (Trans. Chem. Soc, 1913, vol. ciii., p. 419, and Proc. Chem. Soc, 1913, vol. xxix., p. 217). The results have been negative, whether from a failure to appreciate the proper conditions for the production of neon by electric discharge through hydrogen or from some other. cause;—Walter Wahl: The relations between the crystal-symmetry of the simpler organic compounds and their molecular constitution. Part iii. —Prof. G. G. Henderson and I. M. Heilbron: The selective absorption of ketones. The authors have found that the selective absorption of a large number of simple ketones is of the same type, since the absorption bands of all are practically identical. They suggest that the absorption of these compounds may be due to electronic disturbances accompanying oscillations which arise from the alternate formation and breaking down of unstable ring systems within the molecule.—F. E. Smith: Absolute measurements of a resistance, by a method based on that of Lorenz. The instrument employed differs from all other forms of apparatus based on the method of Lorenz, inasmuch as two discs are employed instead of one. The disturbing effect of the earth's magnetic field is thus practically eliminated. The result of the experiments is that a resistance of one international ohm is equal to 1.00052 0.00004 ohms (109cm./sec).—A. N. Shaw: A determination of the electromotive force of the Weston normal cell in semi-absolute volts. With a preface by Prof. H. L. Callendar. This paper represents the completion of work commenced by Prof. H. L. Callendar and Mr. R. O. King in the years 1894 to 1898. The final result for the E.M.F. of the Weston cell in semi-absolute volts comes out 1-01827 at 200 C, which agrees closely with the mean of the best recent determinations, namely 1.01824.—F. E. Howett: Elastic hysteresis in steel. A thin-walled steel tube was coupled to a coaxial tube of greater section and length. The compound tube was twisted, and the twist in each component measured by spirit levels. The twist of the large tube, in which the stress and therefore also the hysteresis was small, measured the torque applied to the small tube. The elastic hysteresis in hard-drawn tubes was about one-eighth of that in the same tube after annealing.—F. W. Aston: A simple form of micro-balance for determining the densities of small quantities of gases. (1) A simple micro-balance is described, by which the densities of gases may be determined relative to some standard gas, using a null method; (2) about half a cubic centimetre only of the gas is required; (3) the determination can be performed in a few minutes, with an accuracy of 01 per cent; (4) possibilities of its use in other fields of research are indicated.—T. R. Merton: A second spectrum of neon. The spectrum of neon has been investigated under different conditions of electrical excitation. It has been found that with a condensed discharge a second spectrum is developed, as in the case of argon, krypton, and xenon. The strongest lines of the ordinary spectrum are also feebly visible when a condensed discharge is used.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2325033247</t>
+          <t>https://openalex.org/W4234392121</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s0017816000008968</t>
+          <t>https://doi.org/10.1038/092436c0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Batchelor (1915)</t>
+          <t>NA (1913)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Three Notable Dreams</t>
+          <t>Meteorology and Geophysics at the British Association</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>I have been a dreamer from my earliest childhood. My dreams have been of all kinds, from the most fantastic and grotesque to those that were orderly and coherent; but I have never had any others like those which I am about to describe. My ordinary dreams often take the form of short stories or adventures of various kinds; among them is one recurrent dream in which I find myself in some house in the Middle West, very hospitably entertained by hosts to whom I am an unwelcome guest. I try to go home, but eastward-bound trains are difficult to reach and the baggage-express is never available. Such experiences seem to have no important meaning. Commonly they fade with the coming of daylight and make no definite or deep impression on the mind. Set apart from all such commonplace dreams are three visions of the night which came in quick succession, and left me, on awaking in the morning, deeply impressed with a sense of the supernatural. I have no belief that they were revelations having any source outside of my own mind and experience; but they gave me a clue to the understanding of those things that happened of old when in a dream some important revelation was made to a patriarch or prophet; and, whatever their source, they wrought a change in my thought and feeling concerning the reality and nature of the future life that still abides and after five years makes the thought of an incorporeal existence seem perfectly natural and very attractive. They have also made me understand some events in ancient history, and have given a new meaning to the belief that dreams were the favorite channels through which the divine wisdom flowed into human life.</t>
+          <t>MOST important contribution was made by Mr. J. I. Craig, who was unfortunately unable to be present at the meeting. The abnormal warmth of 1911 in Europe prompted Sir Edward Fry to ask in NATURE if the phenomenon was world-wide. Mr. Craig was able to reply for Egypt in the negative, inasmuch as the summer there had been cooler than usual, but he was struck by the definiteness of the opposition, and began to investigate the relation between temperatures in Egypt and south west England, based on values for the past thirty-four years. He found that the departures from the normal in the two countries were in opposite directions in all seasons, as indicated by the correlation coefficient, but the results were much more definite for the first and last quarters of the year, when the values of r were —0.72 and —0.43 respectively. Mr. Craig then proceeded to calculate the values of r between Egypt and other European stations, and by using the values found he drew lines of equal correlation. A little thought shows what a powerful method he has inaugurated for dealing with the problem of centres of action and for localising the centres in a definite manner. It will be for each country in the future to work out the monthly or seasonal iso-correlational lines with itself as base, and to use the charts obtained in determining what information will be useful to it in making its own seasonal forecasts.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4237294125</t>
+          <t>https://openalex.org/W4243365443</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/095424a0</t>
+          <t>https://doi.org/10.1086/an.1913.47.issue-559</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>H. (1915)</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>(1) Evolution and Disease (2) The Vicious Circles of Neurasthenia and their Treatment</t>
+          <t>NA (1913)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>(1) IN this work Dr. Nash first traces the X history of certain epidemic diseases, in particular the Black Death, during the Middle Ages in Great Britain. An interesting chapter deals with the medieval psychopathic epidemics, such as the dancing mania. Much of this has necessarily appeared elsewhere, but it is none the less convenient to have the scattered literature of the subject thus briefly epitomised. The reader will probably turn with most interest to the chapters dealing with evolution and disease-in particular with the evolution and mutations of disease germs. As regards diphtheria, for example, the author states that diphtheroid organisms in throat swabs are uncommon except in cases of definite sore throat or in “contacts” with diphtheria or sore throat, that genuine cases of diphtheria with typical diphtheria bacilli often show later only diphtheroid bacilli in the throat swabs, and that some streptococci, some torulae, the Klebs-Loffler bacillus, Hofmann's bacillus, and certain other diphtheroid bacilli, -have a common ancestral origin, and concludes that the fact that bacteria and protozoa can be profoundly affected by environment is abundantly established, and evolution in relation to the germ cannot be gainsaid, r A topical interest is introduced in the final chapter on war as a factor in the evolution of epidemics. (1) Evolution and Disease. By Dr. J. T. C. Nash. Pp. viii + 73. (Bristol: John Wright and Sons, Ltd.; London: Simpkin, Marshall, Hamilton, Kent and Co., Ltd., 1915.) Price 3s. 6d. net. (2) The Vicious Circles of Neurasthenia and their Treatment. By Dr. J. B. Hurry. Pp. xv + 90. (London: J. and A. Churchill, 1915.) Price 3s. 6d. net.</t>
+          <t>In conclusion, the point of view developed in the foregoing may be briefly characterized and compared with that presented in certain other discussions. It agrees, 1 take it, with Lovejoy, Spaulding, and others, in admitting the possible validity of a "vitalism" that makes no distinction between the science of the living and that of the non-living, holding merely that mechanistic formulation is not adequate to nature in general; such "vitalism" being synonymous with "energetics" or "temporalism," or some similar doctrine. Confusion of such a doctrine with a vitalism that holds to a deep-lying distinction between the science of the living and that of the non-living is a common source of misunderstanding. As to doctrines which attempt to make such a deep lying distinction, dividing science into two contrasted kinds, vitalistic and non-vitalistic, it farther admits (with, I judge, Lovejoy, Bergson, Woodruff, Ritter, Spaulding, Glaser and others) that configurations perhaps exist in the living, whose laws of action are not predictable from a formulation of what happens in configurations occurring in the non-living. But this is held to be merely an example of a general principle, equally well exemplified when diverse inorganic configurations are compared: from formulating the action of one configuration, that of another can not be predicted with certainty, until its action has also been experienced; this continual recourse to observation and experiment being one of the essential features of science in general. Hence it holds that such facts present no ground for dividing science into two divisions, vitalistic and non-vitalistic; but also that study of the organic configurations of matter gives results that are as fundamental as the study of inorganic configurations; results which no exclusive study of the latter could ever supply. Parts of biology are therefore "antonomous" in the same sense, and in no other sense, that the science of the compounds of carbon is autonomous in comparison with that of the compounds of copper. It thus holds, in agreement with Driesch, that any "static" doctrine, in which admittedly the perceptual conditions determine what happens in the living system, does not make a difference in principle between the laws of the living and those of the non-living; but that to make such a difference, it must be held that the same conditions may act diversely in the two fields; thus giving rise to experimental indeterminism (and perhaps to the assumption of a non-perceptual factor for determining the diversities not otherwise accounted for, as in the vitalism of Driesch). But it holds (I take it with Lovejoy, Glaser, Woodruff, Spaulding, Sumner and perhaps most investigators) that we do not have grounds for supposing that such a condition exists; and that even Driesch's presentation results in the non-existence of any actual cases of experimental indeterminism.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4251513696</t>
+          <t>https://openalex.org/W4245826728</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1159/000293950</t>
+          <t>https://doi.org/10.1016/s0016-0032(13)90081-8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sobotta (1915)</t>
+          <t>NA (1913)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bericht über die deutsche ophthalmologische Literatur. Anatomie des Auges</t>
+          <t>Formation of methane</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Review Articles| March 02 2010 Bericht über die deutsche ophthalmologische Literatur. Anatomie des Auges: I. Semester 1914 Subject Area: Ophthalmology S. Sobotta S. Sobotta Würzburg Search for other works by this author on: This Site PubMed Google Scholar Zeitschrift für Augenheilkunde (1915) 33 (3-4): 210–222. https://doi.org/10.1159/000293950 Article history Published Online: March 02 2010 Content Tools Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Peer Review Share Icon Share Facebook Twitter LinkedIn Email Tools Icon Tools Get Permissions Cite Icon Cite Search Site Citation S. Sobotta; Bericht über die deutsche ophthalmologische Literatur. Anatomie des Auges: I. Semester 1914. Zeitschrift für Augenheilkunde 31 December 1915; 33 (3-4): 210–222. https://doi.org/10.1159/000293950 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentAll JournalsZeitschrift für Augenheilkunde Search Advanced Search Article PDF first page preview Close Modal This content is only available via PDF. 1915Copyright / Drug Dosage / DisclaimerCopyright: All rights reserved. No part of this publication may be translated into other languages, reproduced or utilized in any form or by any means, electronic or mechanical, including photocopying, recording, microcopying, or by any information storage and retrieval system, without permission in writing from the publisher.Drug Dosage: The authors and the publisher have exerted every effort to ensure that drug selection and dosage set forth in this text are in accord with current recommendations and practice at the time of publication. However, in view of ongoing research, changes in government regulations, and the constant flow of information relating to drug therapy and drug reactions, the reader is urged to check the package insert for each drug for any changes in indications and dosage and for added warnings and precautions. This is particularly important when the recommended agent is a new and/or infrequently employed drug.Disclaimer: The statements, opinions and data contained in this publication are solely those of the individual authors and contributors and not of the publishers and the editor(s). The appearance of advertisements or/and product references in the publication is not a warranty, endorsement, or approval of the products or services advertised or of their effectiveness, quality or safety. The publisher and the editor(s) disclaim responsibility for any injury to persons or property resulting from any ideas, methods, instructions or products referred to in the content or advertisements. You do not currently have access to this content.</t>
+          <t>The use of gas fermentation for production of chemicals and fuels with lower environmental impact is a technology that is gaining increasing attention. Over 38 Gt of CO2 is annually being emitted from industrial processes, thereby contributing significantly to the concentration of greenhouse gases in the atmosphere. Together with the gasification of biomass and different waste streams, these gases have the potential for being utilized for production of chemicals through fermentation processes. Acetogens are among the most studied organisms capable of utilizing waste gases. Although engineering of heterologous production of higher value compounds has been successful for a number of acetogens, the processes are challenging due to the redox balance and the lack of efficient engineering tools. In this review, we address the availability of different gaseous feedstock and gasification processes, and we focus on the advantages of alternative fermentation scenarios, including thermophilic production strains, multi-stage fermentations, mixed cultures, as well as mixotrophy. Such processes have the potential to significantly broaden the product portfolio, increase the product concentrations and yields, while enabling the exploitation of alternative and mixed feedstocks. The reviewed processes also have the potential to address challenges associated with product inhibition and may contribute to reducing the costs of downstream processing. Given the widespread availability of gases, such processes will likely significantly impact the transition towards a more sustainable society.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2989816625</t>
+          <t>https://openalex.org/W4246552329</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5962/bhl.title.106528</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AUTHOR_ID (1915)</t>
+          <t>NA (1913)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A soldier's experience of the Gallipoli campaign, April to September 1915</t>
+          <t>Catalogue of seeds, plants, bulbs : poultry supplies 1913 /</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Album of photographs compiled by George Gordon Denniston illustrating a soldier's experience of of the Gallipoli campaign, April to September 1915. Photographer(s) unidentified.
-Album covers the period when Denniston left New Zealand in April 1915 for Egypt, and his time in a military camp there on the outskirts of Alexandria, from where, it seems, he left for Gallipoli. At the begining there are two photographs of the Samoan Expeditionary Force returning to New Zealand. The rest show soldiers preparing to leave and scenes on board ship which include stabled horses being fed en route, and dead ones being dropped overboard. Shipboard life and activities are well documented. There are many photos of fellow soldiers and some of the Asian crewmen. Ships and islands seen while passing through the Red Sea are depicted. Also some views of streets and people in Suez. Finally Alexandria and camp life.
-Over half the album is taken up with life and events at the military camp at Sidi Bishr which seems to have been situated near one of the suburban outskirts of Alexandria. This experience has been recorded in some detail, and includes social visits from women, views of French cavalry exercises, care and maintenance of the horses, native funerals and camp life in general. The last photograph inthe album shows a gun in action at Gallipoli. 
-Quantity: 1 album(s) Album(s).</t>
+          <t>If purchaser does not accept the goods on these terms they are to be returned at once.There are many reasons why seeds do not always turn out as desired, such as sowing too deep or too shallow, in too wet weather, cold weather or too dry soil, or too wet soil, insects which not only destroy the seeds but often the young plants about the time they appear at the surface of the ground.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4250501633</t>
+          <t>https://openalex.org/W4294107276</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5962/bhl.title.111249</t>
+          <t>https://doi.org/10.6028/nbst.1669</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA (1915)</t>
+          <t>McCollum &amp; Logan (1913)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wholesale price-list : 1915 /</t>
+          <t>Electrolytic corrosion of iron in soils.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>shrubbery like this quickly and grounds to a place of beauty, with slight expenditure.Outdoor Decorations for the Home OON will come the cheerful months, when the family spends much of its time in the out-of-door portion of your home.And it is now that you should begin to think of preparing your grounds for the happy summer days.The purpose of this little book is to show you what can be done in beautify- ing the home grounds by means of a little money invested in ornamental trees and shrubbery.The wise home-lover plans to invest from five to fifteen dollars each year in permanent home decorations of this kind.Where good judgment is used in the selection of the plants and their location, it does not take long to make the most unattractive location a veritable bower of loveliness.Shrubs and trees are even more satisfactory than annual or perennial flowers, for they cost little, if any more, at the start, and they frequently live as long as the person who plants them.It is not necessary to employ an expert to plant Douglas' Shrubs and Trees.They come to you in perfect condition, strong and full of life and vigor.Simply plant them according to our simple directions, and satisfaction is assured.For more than sixty-seven years we have been recognized as one of the leading growers of ornamentals in the Middle West.For nearly seven decades, Douglas' goods have been sold direct to the planter under a positive money-back guarantee.And today there is hardly a town in the country that is not beautified by trees; and shrubs which came from our nurseries here in Waukegan.Our success has been due to two main factors: The best plants that can be grown anywhere, -and prices that are lower than you are asked to pay for the same quality from any other source.As compared with prices asked by others, we can often save you from one-half to two- thirds of the total cost of your planting.Consult our prices and compare them with those of other reliable growers.And then remember you can examine our stock at the depot.If your order does not come up to your expectations, send it back at our expense.We pay transportation charges on all orders of $3 or more to all towns between Chicago and Milwaukee; and we pay the freight back if you do not accept the shipment.Look over the following pages, and make up your spring order now.Don't wait until the shrubs are in leaf, because we cannot dig shrubs and trees after they leaf out.Send your order in now, and we will ship the goods when you want them.Full directions come with every shipment.A few dollars invested in this way will make any home a happier one, and will increase its value many times the cost of the planting.The Elm is the most popular of American trees.Its vase-like form makes it especially desirable for parkways, but it is an admirable all-round tree. Hardy Flowering ShrubsShrubbery plays an important part in planting of grounds.Hardy perennials and annuals have their place, but with all their beauty there is something lacking, unless the landscape is blended with hardy flowering shrubs.With the many varieties of flowering shrubs and variation of color it is a simple matter to have a succession of charming flowers even on the small lot.Shrubbery is planted at the foundations of our homes so that graceful lines connect walls and ground, driveways are bordered, property is marked out with shrubbery borders, inclosures for the flower-garden, and the screening of unsightly objects are but a few of the many uses of hardy flowering shrubs.Moreover their ease of cultivation, and the fact that they increase in beauty and charm from season to season, are some of the reasons why they are being planted in increasing numbers each year.Baccharis halimifolia.Groundsel Tree.(2) Dark green leaves, with very attractive, fluffy white seed-pods in fall.3 to 4 ft., 30 cts each, $2.50 for 10.Berberis Thunbergii.Japanese Dwarf Barberry, (i) A handsome shrub in all positions.Of dwarf habit; small green foliage, which changes to a beau- tiful coppery red in fall.Bright crimson berries hang on all winter.Makes an ideal hedge.j Green Barberry.(2) A handsome shrub with golden yellow flowers; foliage turns brilliant crim- son in fall; bright crimson berries.Purple Barberry.(2) Dark purple foliage; golden yellow flowers, followed by reddish berries.(1), denotes shrubs attaining a height of 1 to 4 fee All varieties, except where noted, 2 to 3 ft., 20 cts.10. Prices for hundr Crataegus coccinea.A striking native Thorn, with white blossoms, followed by scarlet fruit.Blooms profusely in spring and is very brilliant, both in flower and fruit.3 to 4 ft., 30 cts.Deutzia Lemoineii.(i) A grand dwarf, free- flowering variety.Flowers pure white, on slender branches.to 2 ft., 20 cts., each, $1.80 for 10.Deutzia, Pride of Rochester.(2) The best tall Deutzia.Large, double flowers in great profusion.Red-branched Dogwood.(3) Tall, rapid-grow- ing shrub, with red bark in winter.Valuable for screening.Should be planted in fron</t>
+          <t>Technologic Papers of the Bureau of Standards and in consequence there have come into use a variety of terms such as "galvanic action," "stray current electrolysis/' "self-cor- rosion," etc., to distinguish between the cases of corrosion origi- nating from different causes.Thus, corrosion of buried iron may be due to galvanic action caused by physical or chemical differ- ences between adjacent points on the surface of the metal, to the presence of foreign substances in the soil, such as coke cinders, iron oxides, etc., which set up local galvanic action, or it may be due to the discharge of electric currents that have entered the structure at some remote point.In the present paper the terms "electrolysis" and "electrolytic corrosion" are used to designate corrosion caused by the discharge of electric current which has entered the metal from some outside source, while all other forms of corrosion in which the electric currents originate within the corroding system itself from whatever cause are referred to asIt should be pointed out at the outset, however, that these two general classes of corrosion are by no means independent of each other, since the presence of either kind of corrosion generally affects in marked degree the nature and extent of the other under a given set of conditions.This mutual influence is such as to be of considerable practical importance, and in particular it often greatly increases the difficulty of obtaining trustworthy experimental data in regard to electrolytic corrosion proper.Technologic Papers of the Bureau of Standards anode is the sole reaction involved at the anode, then, according to Faraday's law, 96 540 coulombs are required to corrode 1 gram equivalent of the metal and the corrosion efficiency is said to be 100 per cent.In most cases, however, the actual corrosion noted is either greater or less than this amount, and the percentage which the actual corrosion in any case is of the theoretical amount may be called the " efficiency of electrolytic corrosion," or more briefly, ' ' corrosion efficiency, ' ' under those conditions.The experimental data .presented in the first part of this paper show how the efficiency of corrosion is affected by the varying physical conditions encountered in practice.The corrosion efficiencies are in all cases calculated on the assumption that the iron is divalent.The experiments presented show that in most cases at least this was true, since, as a rule, the corrosion efficiencies observed have been near or above 100 per cent.This is therefore the logical basis on which to figure the efficiency of corrosion.In those cases where the corrosion efficiency was very low it may be due in part to the iron taking the ferric state, and such tendency, when it exists, may therefore be regarded as one of a number of possible causes of low efficiency of corrosion.The various factors enumerated above which affect the efficiency of corrosion of iron in soils are discussed in detail in a later part of this paper.1. ARRANGEMENT OF APPARATUS The methods of conducting the experiments recorded below were, in general, the same, and may therefore be described once for all.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2065961080</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2307/2018095</t>
+          <t>https://openalex.org/W130760687</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Burke (1941)</t>
+          <t>Spear (1919)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>The Philosophy of Literary Form. Studies in Symbolic Action.</t>
+          <t>Some Problems of Gas Warfare</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>From the Foreword: These pieces are selections from work done in the Thirties, a decade so changeable that I at first thought of assembling them under the title, While Everything Flows. Their primary interest is in speculation on the nature of linguistic, or symbolic, or literary action - and in a search for more precise ways of locating or defining such action. Words are aspects of a much wider communicative context, most of which is not verbal at all. Yet words also have a nature peculiarly their own. And when discussing them as modes of action, we must consider both this nature as words in themselves and the nature they get from the non-verbal scenes that support their acts. I shall be happy if the reader can say of this book that, while always considering words as acts upon a scene, it avoids the excess of environmentalist schools which are usually so eager to trace the relationships between act and scene that they neglect to trace the structure of the act itself.</t>
+          <t>T HE initial use of gas by the Germans at Ypres in 1915 and the subsequent adoption of gas warfare by the allied armies introduced a large number of problems of vital importance to the nations involved in the World War. While these problems taxed to a very great degree the ingenuity of the scientist, the engineer, the military strategist and the manufacturer, they by no means lacked that fascination which characterizes all research, an intellectual journey into the unknown. Although this fascination was augmented by the fact that the problems were nearly all new and the field almost limitless, nevertheless the flight of the imagination was circumscribed by the stern condition of immediate practical utility and the necessity for rapid solution. Another feature especially prominent in the early stages of gas warfare was the unstable nature of the problems. The act on the screen was continually changing. The solutions of yesterday might not meet the requirements of to-day, and the practise of to-day might become archaic by to-morrow. The kaleidoscopic nature of these changes can be best illustrated by a brief account of the tactics of the offensive and the development of the defense, the chief feature of which is the gas mask. The first object of the use of gas by the military strategist was, of course, to destroy the enemy. With this purpose in view the Germans made their first gas attack by means of poisonous clouds. Chlorine was compressed into cylinders that were placed in their own front-line trenches. The cylinders were fitted with a suitable hose and nozzle so that at the appointed time the valves could be opened and the gas allowed to escape. Chlorine is particularly adapted for this method of attack. It is fairly easily compressible into the form of a liquid, but six atmospheres being necessary at ordinary temperature. It is very poisonous, one to two parts per ten thousand of air sufficing to result in death if breathed for five minutes. It has the additional property of being heavy, about two and one-half times the weight of an equal volume of air. Consequently it does not tend to rise rapidly into the upper air, but, on the con-</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2066508028</t>
+          <t>https://openalex.org/W1598710601</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/255724</t>
+          <t>https://doi.org/10.5962/bhl.title.54416</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Smithies (1941)</t>
+          <t>Forsyth (1919)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Optimum Location in Spatial Competition</t>
+          <t>The highlands of central India : notes on their forests and wild tribes, natural history and sports</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessOptimum Location in Spatial CompetitionA. SmithiesA. Smithies Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by Journal of Political Economy Volume 49, Number 3Jun., 1941 Article DOIhttps://doi.org/10.1086/255724 Views: 32Total views on this site Citations: 251Citations are reported from Crossref PDF download Crossref reports the following articles citing this article:Christina Brand, Gernot Sieg An integral interval timetable for long-distance passenger rail services: Time to reconsider targeting on-track competition, Economics of Transportation 32 (Dec 2022): 100285.https://doi.org/10.1016/j.ecotra.2022.100285Peng Yang, Yanjun Shang, Yanyan Li, Kun Li An engineering geological suitability comprehensive evaluation index (EGSCEI) for large-scale infrastructure site selection, Quarterly Journal of Engineering Geology and Hydrogeology 55, no.44 (Jun 2022).https://doi.org/10.1144/qjegh2021-011Juan Grau-Climent, Luis Garcia-Perez, Juan C. Losada, Ramon Alonso-Sanz Simulation of the Hotelling–Smithies game: Hotelling was not so wrong, Communications in Nonlinear Science and Numerical Simulation 112 (Sep 2022): 106513.https://doi.org/10.1016/j.cnsns.2022.106513Steven Callander and Juan Carlos Carbajal Cause and Effect in Political Polarization: A Dynamic Analysis, Journal of Political Economy 130, no.44 (Mar 2022): 825–880.https://doi.org/10.1086/718200Yanbing Wang, Robert Huber, Robert Finger The role of contractors in the uptake of precision farming—A spatial economic analysis, Q Open 2, no.11 (Feb 2022).https://doi.org/10.1093/qopen/qoac003Alexandre Chirat Démocratie de la demande versus démocratie de l’offre : reconstruction et interprétation des analogies démocratie-marché, OEconomia , no.12-112-1 (Mar 2022): 55–91.https://doi.org/10.4000/oeconomia.12394Xiaofeng Chen, Qiankun Song, Ailong Wu Two-Player Location-Price Game in a Spoke Market with Linear Transportation Cost, Discrete Dynamics in Nature and Society 2021 (Dec 2021): 1–5.https://doi.org/10.1155/2021/9971103Xiaofeng Chen, Qiankun Song, Luqing Rong, Zhenjiang Zhao, Sanbo Ding Location-Price Game in a Dual-Circle Market with Different Demand Levels, Mathematical Problems in Engineering 2021 (Mar 2021): 1–15.https://doi.org/10.1155/2021/8870747Jin Fang, Fariborz Y. Partovi A HITS-based model for facility location decision, Expert Systems with Applications 159 (Nov 2020): 113616.https://doi.org/10.1016/j.eswa.2020.113616Nara Salles Do paradoxo à competição: o lugar da dimensão programática nas disputas eleitorais, Revista Brasileira de Ciência Política 77, no.3232 (Aug 2020): 93–134.https://doi.org/10.1590/0103-335220203203Mostapha Diss, Eric Kamwa Simulations in Models of Preference Aggregation, OEconomia , no.10-210-2 (Jun 2020): 279–308.https://doi.org/10.4000/oeconomia.8251Rajeshwari Majumdar On the Effect of a Binary Treatment in the Presence of a Control Covariate, Calcutta Statistical Association Bulletin 72, no.11 (Oct 2020): 35–42.https://doi.org/10.1177/0008068320942936Joan Costa-Font, Gilberto Turati, Alberto Batinti The Political Economy of Health and Healthcare, 389 (May 2020).https://doi.org/10.1017/9781108653015József Kelemen Szimultán Hotelling-modell Cobb–Douglas-hasznosságfüggvénnyel, Közgazdasági Szemle 67, no.11 (Jan 2020): 14–30.https://doi.org/10.18414/KSZ.2020.1.14Fu-Chuan Lai Spatial Cournot Competition, (Sep 2020): 33–56.https://doi.org/10.1007/978-3-030-40098-9_2Pierre von Mouche The Continuous Hotelling Pure Location Game with Elastic Demand Revisited, (Jun 2020): 246–262.https://doi.org/10.1007/978-3-030-49988-4_17Eugênio J. S. Bitti, Muriel Fadairo, Cintya Lanchimba, Vivian Lara Dos santos silva Should I Stay or Should I Go? Geographic Entrepreneurial Choices in Brazilian Franchising, Journal of Small Business Management 57, no.sup2sup2 (Jan 2020): 244–267.https://doi.org/10.1111/jsbm.12469Andrés Cendales, Hugo Guerrero, Jaime Wilches, Angela Pinto Introduction. The Paradox of a Formally Open and Materially Exclusive Democracy, (Mar 2019): 1–9.https://doi.org/10.1007/978-3-030-13009-1_1H. A. Eiselt, Vladimir Marianov, Tammy Drezner Competitive Location Models, (Mar 2020): 391–429.https://doi.org/10.1007/978-3-030-32177-2_14N. Emrah Aydinonat, Emin Köksal , The European Journal of the History of Economic Thought 26, no.55 ( 2019): 879.https://doi.org/10.1080/09672567.2019.1626460Yunjia Ma, Wei Xu, Lianjie Qin, Xiujuan Zhao Site Selection Models in Natural Disaster Shelters: A Review, Sustainability 11, no.22 (Jan 2019): 399.https://doi.org/10.3390/su11020399Tönu Puu Hotelling Duopoly, (Apr 2018): 155–182.https://doi.org/10.1007/978-3-319-74415-5_7H. Damavandi, N. Abdolvand, F. Karimipour The Computational Techniques for Optimal Store Placement: A Review, (Jul 2018): 447–460.https://doi.org/10.1007/978-3-319-95165-2_31Dennis R. Capoz</t>
+          <t>PEOPLE commonly talk of the " hills "' and the "' plains "' of India, meaning by the former the great Himalayan range, and by the latter all the rest of the country.The mightiest mountains of the earth are called nothing more than "hills"; and popular geography has no name for the numerous excrescences of mother earth which intersect the so-called region of "plains."A range called the Nilgherries, in the south of the peninsula, approaching 9000 feet in altitude, is known to a few beyond the limits of India as a resort of invalids, and a nursery for cinchonas ; but of lesser ranges than this, which would still be called mountains in any other country, the mass of " ordinary readers"' has no cognisance.Much of this has really been owing to the unexplored and undescribed condition of such regions; but something also to the overwhelming prominence of the great northern range, which rivets the attention of teachers of geography and their pupils, and also, from the exigencies of the art of chartography, renders it almost impossible to delineate on ordinary maps of India the features of inferior ranges.Yet in the very centre of India there exists a considerable region to which the term Highlands, which I have adopted for a title, is strictly applicable; and in which are numerous peaks and ranges, for which the term , "'mountain"' would, in any other country, be used.Several of the great rivers of India have their first sources B THE HIGHLANDS OF CENTRAL INDIA in this elevated region, and pour their waters into the sea on either side of the peninsula-to the north the Son commingling with the Ganges, to the east the Mahanadi, flowing independently to the Bay of Bengal, to the south some of the principal feeders of the Godavari, and to the west the Narbadé and the Tapti, taking parallel courses to the Arabian Gulf.If the reader will seek the headwaters of these rivers on the map, he will find the region I am about to describe.To be more precise, it lies on the 22nd parallel of north latitude, and between the 76th and 82nd of east longitude.It forms the central and culminating section of a ridge of elevated country which stretches across the peninsula, from near Calcutta to near Bombay, and separates Northern India, or Hindostan proper, from 'the Deccan, or country of the south.The traveller by the Great Indian Peninsular Railway from Bombay to Calcutta, after some 275 miles of his journey, will come to a point where the line branches into two.The northern branch leads him on up the Narbada valley, and so, by Alahabad and the Gangetic valley, to the City of Palaces.If he takes the southern branch instead, he will be landed at Nagpur, a city in the very heart of India, and its present terminal station.Between these two branches lies a triangle of country in which is situated the western half of the highlands I speak of.From its western extremity, in the fork of these lines, the mountainous region extends eastwards for a distance of about 450 miles, with an average width of about 80 miles.The general level of what may be called the plains of Central India has here, by gradual, and to the traveller scarcely perceptible steps, reached an altitude of about 1000 feet above the level of the sea; and he will rise but little higher than this at any point on the lines of railway.So soon, however, as he leaves the railway, and proceeds a few miles towards the interior of the triangle, he will begin to come on ranges of hills, at first generally low, but in places attaining at once a height of about 1000 feet from the plain; and beyond them peaks and plateaux will present themselves evidently of much superior elevation.Valleys will everywhere be found penetrating the THE HIGHLANDS OF CENTRAL INDIA Narbada river, which soon leaves its parent hills, and flows through a wide valley of its own along the northern face of the range.In the centre the range culminates in the bold group of the Méhddeos, crowned by the Puchmurree peaks, throwing the drainage almost equally to the north and south, the former into the Narbada, and the latter into the Godavari.The western section (the SAtpuras proper) is cleft in two by a deep valley, and drains inwards, forming the river TApti, which, like the Narbada, flows for but a short part of its course within the hills, before it leaves them altogether, and runs along their southern face to the sea.Such, however, is the tortuous formation of these mountains, that their streams frequently surprise one by turning short round in their courses, and making off towards the wrong river, as if they had suddenly changed their minds.'The drainage of the great central Mahadeo block is a striking example of this.Two streams rise near its southern face, the Dénw4 and the Sdénbadra.Both flow nearly south, away from the Narbada, for a short way, when the former turns to the east, and the latter to the west.Presently, however, they find two vast cracks in the range, and turn sharp to the north, * The writer served fo</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2085897177</t>
+          <t>https://openalex.org/W1987627111</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1577/1548-8659(1940)70[236:teoabd]2.0.co;2</t>
+          <t>https://doi.org/10.1029/te024i004p00145</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sprules (1941)</t>
+          <t>Hazard (1919)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>The Effect of a Beaver Dam on the Insect Fauna of a Trout Stream</t>
+          <t>Procedure at the magnetic observatories of the United States Coast and Geodetic Survey</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A qualitative and quantitative investigation of the distribution of aquatic insects in Mud Creek, Algonquin Park, Ontario, has been carried out during the summer months of the last 3 years. Samples of the population present were obtained by trapping the insects which emerged from 1 square yard of water surface. In the first season the field station described in this report was characterized by a rubble bottom and rapid flow of water. These conditions remained unaltered during the first part of the second season and the insect emergence for this period corresponded closely with that of the previous year. In early July, however, beavers constructed a dam across the stream flooding the riffle section which was under observation. The number of insects emerging immediately decreased as species dependent on a lotic environment were destroyed or forced to migrate. A few species were able to tolerate the new ecological conditions while a numerically small group of species typically found in quiet water entered the area. In the third season the lentic nature of the habitat was continued and the change in the fauna was more complete since the total population approximated that of a slow-flowing, silted stretch of the stream.</t>
+          <t>In Nature for March 20, 1919, Dr. Charles Chree, under the title of “New Procedure at American Magnetic Observatories,” reviewed the publications of the results of observations made at the United States Coast and Geodetic Survey magnetic observatories at Sitka and Honolulu for 1915 and 1916 and called attention to some changes in procedure and to the need of more information regarding certain details of the methods employed. As the questions raised must be settled before there can be that uniformity in the methods of reduction and publication which is essential to the most advantageous, use of magnetic observatory results, it is well to give in some detail the considerations which led the Coast and Geodetic Survey to adopt at its five observatories the practices now in use. Up to the end of 1914 each hourly value of declination ( D ), horizontal intensity ( H ), and vertical intensity ( Z ) in the monthly tabulations represented the momentary value of the quantity for the specified hour, local mean time . This was in accordance with the general practice at the time the observatories were established, a practice adopted before continuous photographic registration came into use, when eye readings were made once an hour, and when attention was paid mainly to the local features of the variations of the Earth's magnetism. This method has the disadvantages that only a very small portion of the observational data is utilized, undue weight is given to the portion which happens to occur at the arbitrarily selected time, and the results at one station cannot be compared in detail with those at another, particularly at the time of a disturbance, because the use of local mean time renders the tabulated values non‐simultaneous.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2316044620</t>
+          <t>https://openalex.org/W1991893891</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/physzool.14.2.30161740</t>
+          <t>https://doi.org/10.1038/104381a0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Kidder (1941)</t>
+          <t>Morris (1919)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Growth Studies on Ciliates. V. the Acceleration and Inhibition of Ciliate Growth in Biologically Conditioned Medium</t>
+          <t>The British Association at Bournemouth: Section K. Botany</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessGrowth Studies on Ciliates. V. the Acceleration and Inhibition of Ciliate Growth in Biologically Conditioned MediumGeorge W. KidderGeorge W. Kidder Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by Volume 14, Number 2Apr., 1941 Article DOIhttps://doi.org/10.1086/physzool.14.2.30161740 Views: 4Total views on this site Citations: 30Citations are reported from Crossref Journal History This article was published in Physiological Zoology (1928-1998), which is continued by Physiological and Biochemical Zoology (1999-present). PDF download Crossref reports the following articles citing this article:Søren T. Christensen, Vagn Leick, Leif Rasmussen, Denys N. Wheatley Signaling in Unicellular Eukaryotes, (Jan 1997): 181–253.https://doi.org/10.1016/S0074-7696(08)62233-0TODD P. LIVDAHL, JANICE S. EDGERLY Egg hatching inhibition: field evidence for population regulation in a treehole mosquito, Ecological Entomology 12, no.44 (Nov 1987): 395–399.https://doi.org/10.1111/j.1365-2311.1987.tb01020.xYoshinori Muto, Shuzo Kudo, Seiji Nagao, Yoshinori Nozawa Growth-dependent changes of guanylate and adenylate cyclase activities in cilia and cell bodies of Tetrahymena pyriformis, Experimental Cell Research 159, no.11 (Jul 1985): 267–271.https://doi.org/10.1016/S0014-4827(85)80057-4A. R. D. STEBBING, G. W. HEATH Is growth controlled by a hierarchical system?, Zoological Journal of the Linnean Society 80, no.2-32-3 (Jun 2008): 345–367.https://doi.org/10.1111/j.1096-3642.1984.tb01983.xI. Walker The volterra competition equations with resource - Independent growth coefficients and discussion on their biological and biophysical implications, Acta Biotheoretica 33, no.44 (Jan 1984): 253–270.https://doi.org/10.1007/BF00048431T. Saitoh, H. Asai On a collision frequency restricting the growth and population density ofTetrahymena pyriformis, Experientia 38, no.22 (Feb 1982): 248–249.https://doi.org/10.1007/BF01945093T. Saitoh, H. Asai Growth-controlling factors produced during the logarithmic and stationary phases ofTetrahymena pyriformis, Experientia 36, no.1212 (Dec 1980): 1375–1376.https://doi.org/10.1007/BF01960105VIRGINIA C. DEWEY, G. W. KIDDER Proline Metabolism in Tetrahymena1, The Journal of Protozoology 19, no.11 (Apr 2007): 50–53.https://doi.org/10.1111/j.1550-7408.1972.tb03411.xHoward Winet, Theodore L. Jahn A two-step growth curve from undisturbed cultures ofTetrahymena pyriformis, Journal of Cellular Physiology 78, no.22 (Oct 1971): 277–280.https://doi.org/10.1002/jcp.1040780216 Antibiotics, Certainly... but Probiotics?, The American Biology Teacher 32, no.66 (Sep 1970): 362–364.https://doi.org/10.2307/4443107GEORGE WILLIAM SALT The Feeding of Amoeba proteus on Paramecium aurelia *, The Journal of Protozoology 15, no.22 (Apr 2007): 275–280.https://doi.org/10.1111/j.1550-7408.1968.tb02122.xS. G. SMITH, A. C. GIESE Axenic Media for Blepharisma intermedium, The Journal of Protozoology 14, no.44 (Apr 2007): 649–654.https://doi.org/10.1111/j.1550-7408.1967.tb02056.xROSALIE H. STILLWELL Colpidium-Produced RNA as a Growth Stimulant for Tetrahymena*, The Journal of Protozoology 14, no.11 (Apr 2007): 19–22.https://doi.org/10.1111/j.1550-7408.1967.tb01440.xD. M. Lilly, R. H. Stillwell Probiotics: Growth-Promoting Factors Produced by Microorganisms, Science 147, no.36593659 (Feb 1965): 747–748.https://doi.org/10.1126/science.147.3659.747 Lorna B. West The Nature of Growth Inhibitory Material from Crowded Rana Pipiens Tadpoles, Physiological Zoology 33, no.33 (Sep 2015): 232–239.https://doi.org/10.1086/physzool.33.3.30152662W. R. Lockhart USE OF MICROORGANISMS FOR STUDIES OF GROWTH AND MORPHOGENESIS, Bacteriological Reviews 23, no.11 (Mar 1959): 8–17.https://doi.org/10.1128/br.23.1.8-17.1959Ross F. Nigrelli DUTCHMAN'S BACCY JUICE OR GROWTH-PROMOTING AND GROWTH-INHIBITING SUBSTANCES OF MARINE ORIGIN*, Transactions of the New York Academy of Sciences 20, no.3 Series II3 Series II (Apr 2012): 248–262.https://doi.org/10.1111/j.2164-0947.1958.tb00586.xD.M. Prescott Change in the physiological state of a cell population as a function of culture growth and age (Tetrahymena geleii), Experimental Cell Research 12, no.11 (Feb 1957): 126–134.https://doi.org/10.1016/0014-4827(57)90300-2Louis B. Rockland, Max S. Dunn GROWTH STUDIES ON TETRAHYMENA GELEII H, Journal of Biological Chemistry 179, no.22 (Jun 1949): 511–521.https://doi.org/10.1016/S0021-9258(19)51246-7G.E. HUTCHINSON, E.S. DEEVEY Ecological Studies on Populations, (Jan 1949): 325–359.https://doi.org/10.1016/B978-1-4832-0000-2.50014-7 S. O. Mast , and D. M. Pace The Nature of the Growth-Substance Produced by Chilomonas paramecium, Physiological Zoology 19, no.33 (Sep 2015): 223–235.https://doi.org/10.1086/physzool.19.3.30151910 D. M. Pace The Relation between Concentration of Growth-Promoting Subst</t>
+          <t>IT has been made abundantly clear that in botany, as in other applied sciences, we must rely in future less on chance individual effort and initiative. We must co-operate our efforts and organise them at every stage, bearing in mind that we shall always require the services of the worker in pure science to solve those larger problems of national importance which confront us. We must be armed by science, or we shall be placed at a disadvantage in the great struggle now before us. We are told that it is absolutely necessary for the prosperity and safety of the country that the development of the resources of the Empire and the production of our industries must be on a scale greatly in excess of anything we have hitherto achieved. As an Imperial people it is our duty to develop our resources to the fullest extent. Fortunately, a great change is taking place in the attitude of the Government and the State towards science, and it is noticeable also in the relations of science to industry and commerce. Since we last met we have lost a number of devoted workers in botany. Apart from those who have passed away in what may be called the course of nature, a sad aspect of the losses sustained in the war is the death of so many brave young men for whom it was anticipated that a bright and successful career was open in the domain of science. Their names are inscribed on the Roll of Honour, and we gratefully bear them in memory.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1985243629</t>
+          <t>https://openalex.org/W2053215420</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s0016756800072150</t>
+          <t>https://doi.org/10.1084/jem.29.2.139</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fleming &amp; Edmonds (1941)</t>
+          <t>Robertson &amp; Bock (1919)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Hecla Hoek Rocks of New Friesland (Spitsbergen)</t>
+          <t>BLOOD VOLUME IN WOUNDED SOLDIERS</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>(I) In each of the areas examined the transition zone between the Hecla Hoek rocks of Eastern New Friesland and the more highly metamorphosed belt has been observed and the evidence points to a gradual increase in metamorphism westwards with the same general series of rocks involved. The rocks have been isoclinally folded and repetition occurs more especially on the east flank of the intensely metamorphosed zone. Usually only the Lower Murchison Bay Formation appears in the more highly folded belt, but it may well be that in the Stubendorff Mountains other rocks are also included. In the northern area, west of Treurenberg Bay, Blomstrand's recognition of a central core of granitic gneiss giving way on both sides to less highly metamorphosed types still stands as the most important contribution to the interpretation of the structure. Recent examination has revealed that the sequence of events has been a folding of the Lower Murchison Bay Formation followed shortly by igneous intrusion and metamorphism of the whole. In the Gullfaxe area isoclinally folded rocks of the Lower Murchison Bay Formation are associated with a quartz-felspargneiss. We have not been able to decide what this rock was originally. It may be either a metamorphosed igneous rock or an altered arkose. It appears to be concordant with the adjacent altered sedimentaries, but may be igneous material in some way related to the large granitic intrusion which lies farther west in this latitude. In the Lomme Bay area Odell observed the transition zone. (2) In the less altered zone to the east of the Duner Glacier we have been able to recognize the members of the Murchison Bay Formation as defined by Kulling, and the correlation is set out in Table I. The least satisfactory identification is of the Salodd and Raudstup Series. According to Kulling these Series have different characteristics in the Lomme Bay area from those which they show in North-East Land, and it may be that throughout New Friesland they attain neidier the thickness nor the distinctive character which is theirs in the type area. The presence of the other members of the Murchison Bay Formation and of the remarkable Sveanor Formation is well established.</t>
+          <t>Blood volume tests made by the vital red method (Keith, Rowntree, and Geraghty) on patients after hemorrhage showed a marked reduction in the total blood bulk. Not uncommonly the blood volume was less than 60 per cent of the normal. The reduction after a certain point had been reached seemed to parallel the decrease in blood pressure. This relation of diminished blood volume to low pressure suggested a rough method of estimating blood volume from the change in blood pressure. By means of the blood volume and the hemoglobin per cent the actual amount of blood loss was determined. Cases of severe anemia showed a loss of as much as five-sixths of their total hemoglobin. Progressive changes in blood volume following hemorrhage were estimated in three ways: (1) repeated vital red tests; (2) calculation from changes in hemoglobin per cent produced by the injection of gum acacia; (3) calculation from changes in hemoglobin per cent following the dilution of the blood by the patient's own body fluids. The effects of the different methods of transfusion and of injection of gum acacia on blood volume were observed. No differences were apparent. It was found that transfusion and gum injections only partially restored the blood volume. Forced fluids by mouth were found to bring about its complete restoration in a comparatively short time. It was observed that the organism did not restore its blood volume beyond a certain point when a further increase in it would, by dilution, have brought the hemoglobin per cent to a very low figure. In such cases a further increase of the blood volume occurred only when the hemoglobin rose. In cases with a low hemoglobin per cent as the result of a restoration of the blood bulk an abnormally high blood pressure appeared, which continued until the hemoglobin per cent again increased. Accompanying the low blood pressure seen shortly after hemorrhage was a well marked difference in hemoglobin per cent between capillary and venous blood, with a relative concentration on the capillary side. As compensation occurred and blood pressure rose this difference lessened until the two readings were identical, indicating an even redistribution of the red blood cells. Reticulated red cell counts made in these cases showed that a marked bone marrow stimulation occurs after hemorrhage. However, except in the very anemic cases the degree of increased blood production seemed to depend largely on the restoration of the blood volume. The patients who were put on forced fluids, with consequent rapid restoration of blood volume, showed a much higher per cent of reticulated cells than those in whom no attempt was made to increase the amount of fluid in circulation.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2058561671</t>
+          <t>https://openalex.org/W2072979430</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/280939</t>
+          <t>https://doi.org/10.1086/622677</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Beadle &amp; Tatum (1941)</t>
+          <t>Bryan (1919)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Genetic Control of Developmental Reactions</t>
+          <t>Classification of Springs</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessSymposium: Experimental Control of Development and DifferentiationGenetic Control of Developmental ReactionsG. W. Beadle and E. L. TatumG. W. Beadle Search for more articles by this author and E. L. Tatum Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by The American Naturalist Volume 75, Number 757Mar. - Apr., 1941 Published for The American Society of Naturalists Article DOIhttps://doi.org/10.1086/280939 Views: 5Total views on this site Citations: 37Citations are reported from Crossref PDF download Crossref reports the following articles citing this article:Sydney Kreutzmann, Elizabeth Pompa, Nhan D. Nguyen, Liya Tilahun, Matthew T. Rutter, Mao-Lun Weng, Charles B. Fenster, Carrie F. Olson-Manning Analysis of the leaf metabolome in Arabidopsis thaliana mutation accumulation lines reveals association of metabolic disruption and fitness consequence, Evolutionary Ecology 480 (Sep 2022).https://doi.org/10.1007/s10682-022-10210-8Enka Blanchard, Giuseppe Longo From axiomatic systems to the Dogmatic gene and beyond, Biosystems 204 (Jun 2021): 104396.https://doi.org/10.1016/j.biosystems.2021.104396Robert Meunier Project knowledge and its resituation in the design of research projects: Seymour Benzer's behavioral genetics, 1965-1974, Studies in History and Philosophy of Science Part A 77 (Oct 2019): 39–53.https://doi.org/10.1016/j.shpsa.2018.04.001Giuseppe Longo Interfaces of Incompleteness, (Jun 2019): 3–55.https://doi.org/10.1007/978-3-030-15277-2_1 Bibliography, (Jan 2019): 497–718.https://doi.org/10.1016/B978-0-12-814371-1.16001-1James E Cox, Carl S Thummel, Jason M Tennessen Metabolomic Studies in Drosophila, Genetics 206, no.33 (Jul 2017): 1169–1185.https://doi.org/10.1534/genetics.117.200014Nicole Perret, Giuseppe Longo Reductionist perspectives and the notion of information, Progress in Biophysics and Molecular Biology 122, no.11 (Oct 2016): 11–15.https://doi.org/10.1016/j.pbiomolbio.2016.07.003Bernard S Strauss Biochemical Genetics and Molecular Biology: The Contributions of George Beadle and Edward Tatum, Genetics 203, no.11 (May 2016): 13–20.https://doi.org/10.1534/genetics.116.188995Kaori Iida Genetics and “Breeding as a Science”: Kihara Hitoshi and the Development of Genetics in Japan in the First Half of the Twentieth Century, (Feb 2015): 439–458.https://doi.org/10.1007/978-3-319-12185-7_21Raphael Falk Commentary: A century of Mendelism: on Johannsen's genotype conception, International Journal of Epidemiology 43, no.44 (Apr 2014): 1002–1007.https://doi.org/10.1093/ije/dyu065Jason M. Tennessen, William E. Barry, James Cox, Carl S. Thummel Methods for studying metabolism in Drosophila, Methods 68, no.11 (Jun 2014): 105–115.https://doi.org/10.1016/j.ymeth.2014.02.034Raphael Falk On the nature of the gene (Reviewing P.R. Sloan, B. Fogel (Eds.), Creating a physical biology: The three-man paper and early molecular biology), Studies in History and Philosophy of Science Part C: Studies in History and Philosophy of Biological and Biomedical Sciences 44, no.44 (Dec 2013): 623–625.https://doi.org/10.1016/j.shpsc.2013.09.003Raphael Falk Mutagenesis as a Genetic Research Strategy, Genetics 185, no.44 (Aug 2010): 1135–1139.https://doi.org/10.1534/genetics.110.120469 References, (Jan 2010): 383–522.https://doi.org/10.1016/B978-0-12-374233-9.00028-3Giuseppe Longo, Pierre-Emmanuel Tendero The Differential Method and the Causal Incompleteness of Programming Theory in Molecular Biology, Foundations of Science 12, no.44 (Dec 2007): 337–366.https://doi.org/10.1007/s10699-007-9111-xRaphael Falk GENETIC ANALYSIS, (Jan 2007): 249–308.https://doi.org/10.1016/B978-044451543-8/50015-0Maxine Singer, Paul Berg George Beadle: from genes to proteins, Nature Reviews Genetics 5, no.1212 (Dec 2004): 949–954.https://doi.org/10.1038/nrg1494 METHODOLOGICAL ISSUES, (Nov 2004): 7–10.https://doi.org/10.1017/CBO9780511610271.003 Unification and Coherence as Methodological Objectives in the Biological Sciences, (Nov 2004): 29–50.https://doi.org/10.1017/CBO9780511610271.005 References, (Jan 1995): 707–850.https://doi.org/10.1016/B978-012165250-0/50023-4Richard M. Burian Unification and coherence as methodological objectives in the biological sciences, Biology &amp; Philosophy 8, no.33 (Jul 1993): 301–318.https://doi.org/10.1007/BF00860431E. Savvateeva Kynurenines in the Regulation of Behavior in Insects, (Jan 1991): 319–328.https://doi.org/10.1007/978-1-4684-5952-4_29Richard D. Rende, Robert Plomin Quantitative genetics and developmental psychopathology: Contributions to understanding normal development, Development and Psychopathology 2, no.44 (Oct 2008): 393–407.https://doi.org/10.1017/S0954579400005794Raphael Falk What is a gene?, Studies in History and Philosophy of Science Part A 17, no.22 (Jun 1986): 133–173.https://doi.org/10.1016/0039-3681(86)90</t>
+          <t xml:space="preserve">Previous articleNext article FreeClassification of SpringsKirk BryanKirk Bryan Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by The Journal of Geology Volume 27, Number 7Oct. - Nov., 1919 Article DOIhttps://doi.org/10.1086/622677 Views: 2578Total views on this site Citations: 53Citations are reported from Crossref PDF download Crossref reports the following articles citing this article:Sarah A. Bourke, Margaret Shanafield, Paul Hedley, Sarah Chapman, Shawan Dogramaci A hydrological framework for persistent pools along non-perennial rivers, Hydrology and Earth System Sciences 27, no.33 (Feb 2023): 809–836.https://doi.org/10.5194/hess-27-809-2023KinglomAugust Abdon, SAURET. Elie Serge Gaëtan, Koïta Mamadou, CompaoreMarie Michelle Hillary, Kissou Jacques, Yameogo Louis, Serme Idriss Multi-approach characterization of groundwater for irrigated agriculture in southwest Burkina Faso, Groundwater for Sustainable Development vol. 47 (Nov 2022): 100867.https://doi.org/10.1016/j.gsd.2022.100867Priyo Hartanto, Boy Yoseph C.S.S. Syah Alam, Rachmat Fajar Lubis, Ismawan Ismawan, T.Yan W.M. Iskandarsyah, Yoga Andriana Sendjaja, Hendarmawan Hendarmawan The application of hydrogeochemical and stable isotope data to decipher the origin and evolution of hot springs in the Rawadanau Basin, Indonesia, Geothermics 105 (Nov 2022): 102506.https://doi.org/10.1016/j.geothermics.2022.102506Robin Keegan-Treloar, Dylan J. Irvine, S. Cristina Solórzano-Rivas, Adrian D. Werner, Eddie W. Banks, Matthew J. Currell Fault-controlled springs: A review, Earth-Science Reviews 230 (Jul 2022): 104058.https://doi.org/10.1016/j.earscirev.2022.104058Ádám Tóth, Solt Kovács, József Kovács, Judit Mádl-Szőnyi Springs regarded as hydraulic features and interpreted in the context of basin-scale groundwater flow, Journal of Hydrology 610 (Jul 2022): 127907.https://doi.org/10.1016/j.jhydrol.2022.127907Mirella Nazareth de Moura, Miguel Fernandes Felippe Hydrogeomorphology of Brazilian Springs: Between Diversity and Lack of Knowledge, (Aug 2022): 99–118.https://doi.org/10.1007/978-3-031-05178-4_6Monjil Rajkonwar, Bhabajeet Dihingia, Uttam Goswami, Devojit Bezbaruah Springs of Pasighat, a valuable resource for the community: A hydrogeological study carried out using geoelectrical resistivity technique, Journal of Earth System Science 130, no.11 (Feb 2021).https://doi.org/10.1007/s12040-020-01534-6Sarah A. Bourke, Bradley Degens, Josephine Searle, Thiaggo de Castro Tayer, Jasmin Rothery Geological permeability controls streamflow generation in a remote, ungauged, semi-arid drainage system, Journal of Hydrology: Regional Studies 38 (Dec 2021): 100956.https://doi.org/10.1016/j.ejrh.2021.100956Xun Zhou, Mingming Ta, Juan Guo, Yuqi Zhang, Yanqiu Xu, Na Li, Ruwen Cao Formation of an up-flow hot spring of SO4-Ca type in the sandstone aquiclude near an anticline, Geothermics 96 (Nov 2021): 102231.https://doi.org/10.1016/j.geothermics.2021.102231Jafar Hassanpour, Ashkan Lotfipoor, Massoud Morsali Introduction of an empirical classification system for evaluating tunneling impact on the discharge of springs (TIS) in the surrounding areas, Bulletin of Engineering Geology and the Environment 80, no.77 (May 2021): 5725–5742.https://doi.org/10.1007/s10064-021-02268-5Rabin Raj Niraula, Subodh Sharma, Bharat K. Pokharel, Uttam Paudel Spatial prediction of spring locations in data poor region of Central Himalayas, Hydrology Research 52, no.22 (Dec 2020): 492–505.https://doi.org/10.2166/nh.2020.223Alfred S. McEwen, Ethan I. Schaefer, Colin M. Dundas, Sarah S. Sutton, Leslie K. Tamppari, Matthew Chojnacki Mars: Abundant Recurring Slope Lineae (RSL) Following the Planet‐Encircling Dust Event (PEDE) of 2018, Journal of Geophysical Research: Planets 126, no.44 (Apr 2021).https://doi.org/10.1029/2020JE006575Himanshu Kulkarni, Jayesh Desai, Mohammad Imran Siddique Rejuvenation of Springs in the Himalayan Region, (Mar 2021): 97–107.https://doi.org/10.1002/9781119564522.ch6Margaret Shanafield, Sarah A Bourke, Margaret A Zimmer, Katie H Costigan An overview of the hydrology of non‐perennial rivers and streams, WIREs Water 8, no.22 (Feb 2021).https://doi.org/10.1002/wat2.1504Patricia Erfurt The Geology of Hot Springs, (Apr 2021): 17–50.https://doi.org/10.1007/978-3-030-60463-9_2Patricia Erfurt Glossary of Terms Related to the Geoheritage of Hot Springs, (Apr 2021): 315–346.https://doi.org/10.1007/978-3-030-60463-9_10Jacek Scibek Multidisciplinary database of permeability of fault zones and surrounding protolith rocks at world-wide sites, Scientific Data 7, no.11 (Mar 2020).https://doi.org/10.1038/s41597-020-0435-5Lawrence E. Stevens, Edward R. Schenk, Abraham E. Springer Springs ecosystem classification, Ecological Applications 32 (Oct 2020).https://doi.org/10.1002/eap.2218Karishma Khadka, Moti Lal Rijal Hydrogeochemical assessment </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2003539194</t>
+          <t>https://openalex.org/W2325295124</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/2394360</t>
+          <t>https://doi.org/10.2307/3624047</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hagen (1941)</t>
+          <t>Sternberg (1919)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A Revision of the North American Species of the Genus Anisacanthus</t>
+          <t>Explorations of the Permian of Texas and the Chalk of Kansas, 1918</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Anisacanthus is a small genus of the Acanthaceae, which, because of the relatively few collections and the obscure specific characters, has been poorly understood. The present study was undertaken to correlate the morphological characters of the taxonomic entities of the genus as a whole, and to determine the relative value of the different characters in specific and varietal delimitation. Anisacanthus is one of several genera segregated from Justicia, having been described by Nees2 in the year 1842. He based it on Justicia qquadrifida Vahl,3 which in turn was founded on J. coccinea Cavanilles,4 a plant grown in the gardens of Madrid from stock brought from Mexico probably in the latter part of the eighteenth century. Vahl had changed the species name from coccinea to quadrifida because of the earlier J. coccinea Aublet. Under the name Justicia quadrifida Vahl, it was not infrequently cultivated in European gardens; and fortunately several authentic specimens from horticulture have been preserved in herbaria. Nees, however, soon changed the name of the type species to Anisacanthus virguclaris (Salisbury) Nees,5 and as such it was known until Standley revived the specific name quadrifidus.ff</t>
+          <t>The splendid skeleton of Dimetrodon gigas I collected in 1917 and sold to the United States National Museum has been mounted at last, and is one of the world's famous specimens. I do not know of a more perfect single individual. It came from the famous Craddock quarry discovered by the late Doctor Williston's assistant, Mr. Miller. Through the kindness of Mr. Craddock, the owner of the quarry, I not only collected there in 1917, but last year. Owing to the fact that the quarry is now covered with about twenty feet of earth and clay of the toughest character the work was very difficult and I was obliged to employ a man with a heavy team of horses, with plow and scraper. I succeeded in securing many more or less perfect skeletons of several species. Unfortunately, none were as perfect and capable of making into a fine open mount as the National Museum specimen. This quarry is An the face of a hill. As I have gone deeper and deeper into the hill the manner in which the animals were stranded here becomes more and more apparent. On the very bottom of the quarry are innumerable bones of very small animals, Seymoriana and other batracians, etc. They are usually scattered and are free from matrix, consequently they are among the rarest of Permian vertebrates that have not been injured by the encrusting silica that covers all the other bones at higher levels, and which is so difficult to remove. The National Museum specimen came from near this level. Above are about four or five feet in the heavy, fine-jointed red clay. Though water has filtered and coated all the bones with silica, I found several more or less perfect skeletons. Often the entire column, except the tail, with enormous spines were present; sometimes the arches and limbs, as in the best specimen we found, discovered by my son, George F. The longest spine of this individual was four feet. Most of the column and tail were present. The skull was disarticulated. The arches seemed present. Many of the spines, however, were twisted and interwoven, all the bones covered with a thin coating of silica. As I understood Doctor Gilmour, it took two preparators a year to prepare and mount the National Museum specimen. You will realize something of the labor it will take to prepare this one. This, with my whole collection from the Craddock quarry, I sold to the American Museum. From Seymour, Tex., my boys, George and Levi, drove my car to the Rock creek Horse quarry, near Tulia, Tex., but the formidable mass of sand that lay above it induced them to turn their Ford truck northward, and I joined them in the Kansas chalk in Logan county, on Butte creek. I was so fortunate as to find a fine tylosaur skeleton the second day in the field. There were twenty-one feet of the skeleton present in fine chalk. The complete skull was crushed laterally. Nearly the complete front arches and limbs were present, as was also the pelvic bones and both femora. All the vertebrae to well into the caudal region beyond the lateral spines were continuous, with the ribs in the dorsal region. Between the ribs was a large part of a huge plesiosaur with many half-digested bones, including the large humeri part</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W217109551</t>
+          <t>https://openalex.org/W2590733385</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/003591574103500204</t>
+          <t>https://doi.org/10.2307/1536393</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bastow (1941)</t>
+          <t>Child &amp; Hyman (1919)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Some Orthopædic Procedures Employed in the Treatment of Arthritis</t>
+          <t>THE AXIAL GRADIENTS IN HYDROZOA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>(1) A series of six cases of ankylosing spondylitis was shown to illustrate the benefit gained, even in very long-standing cases, by the following regime: ( a) Complete rest in a plaster shell. ( b) Gradual correction of kyphosis by adding thin layers of padding under the dorsolumbar junction, and subtracting similar layers of padding from under the head, to increase extension in the spine. ( c) Deep-breathing exercises practised constantly while the patient is lying in a plaster shell. ( d) Daily physiotherapy. ( e) The fitting of a Goldthwaite spinal brace to maintain the position of maximum correction that has been obtained. The improvement was manifested in all cases by alleviation of symptoms, improvement in posture, and increased chest expansion. (2) A series of six cases of arthritis of the knee was shown, including rheumatoid arthritis, infective arthritis and osteo-arthritis, illustrating treatment by rest plasters, followed by: ( a) Arthrotomy and lavage—where swelling and effusion persist, and ( b) Bone drilling—where bone changes are marked and there is constant pain at rest. Improvement was manifested by relief of symptoms, subsidence of signs of inflammation, and restoration of a considerable degree of movement. (3) A case of arthritis of the tarsal and metatarsal joints, illustrating relief of symptoms afforded by the application of a plaster boot.</t>
+          <t>1. A study of the susceptibility of three species of hydra, H. viridissima (viridis), H. vulgaris (grisea) and H. oligactis (fusca) to various agents shows that a gradient in susceptibility exists along the apico-basal axis of the body and in each tentacle.2. This susceptibility gradient is primarily a basipetal gradient, i. e., the susceptibility decreases from the apical region basipetally and after the tentacles arise, in each tentacle from the tip to the base. This primary gradient appears in the earlier bud stages, in quiescent attached individuals of H. viridissima and H. vulgaris at all stages and in young quiescent individuals of H. oligactis.3. This primary gradient is modified in various ways by regional differences in functional activity and particularly by the special activities of the stalk, a more or less specialized organ which develops at a relatively late stage from the basal body region.4. Regional differences in the contractile activity of the muscular apparatus produce the most conspicuous modifications of the susceptibility gradient. Such modifications can be produced by detachment of the animals, which leads to special activity of the stalk, by the general excitatory or special irritant action of certain agents, such as the dyes used, and by certain combinations of excitation and paralysis with anesthetics.5. Alterations of the primary susceptibility relations are produced, not only by regional differences in muscular activity, but by regional differences in digestive activity.6. The very direct and marked effect upon susceptibility of regional and local differences in muscular and other functional activity results from the simple and diffuse organization of hydra. The muscle, for example, is a part of the body cell and the whole cell shares in the excitation connected with muscular contraction, and the facts indicate that most or all local excitations spread or irradiate to a greater or less degree to adjoining regions.7. In stages after the development of motor activity susceptibility decreases in general with advancing physiological age, but the bud in stages preceding the development of motor activity is less susceptible than later motile stages.8. The differences in the susceptibility relations of the three species under various conditions suggest that of the three H. oligactis possesses, as its structural and functional characteristics indicate, the highest degree of regional specialization.9. The facts confirm previous work in that they indicate the existence of a relation of some sort between susceptibility and metabolic rate. Within the ranges of concentration of the agents used, susceptibility evidently varies in general directly with metabolic rate, or with the rate of energy-liberating metabolism. If such a relation exists, the axial gradient is a gradient in physiological condition, of which rate of fundamental metabolic reactions is one feature.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2035243075</t>
+          <t>https://openalex.org/W4243399167</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1001/jama.1941.02820310007004</t>
+          <t>https://doi.org/10.1038/103055a0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Price &amp; Merritt (1941)</t>
+          <t>NA (1919)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>THE TREATMENT OF PARKINSONISM</t>
+          <t>Forest Research in Europe</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ivan Raeff, of Chipka, Bulgaria, a biologist, in 1926 made a decoction of the root of the Bulgarian belladonna plant with wine and instituted an elaborate procedure for the treatment of parkinsonism. Most astonishing results were claimed. Since Raeff's study there have been many reports in the literature on the use of Bulgarian belladonna. 1 Elaborate side measures which were part of the therapeutic program of some investigators included change in environment, special nursing care, physical therapy, systematic exercises and occupational therapy. In addition, the psychologic effect of the sympathy and attention given the patients must have been considerable. It has been stated that in the treatment of patients with parkinsonism Bulgarian belladonna has a value superior to that of the belladonna grown in other countries. This claim has not been supported by the results of investigators using the English, Italian or German root. It was the purpose of our</t>
+          <t>A USEFUL account of forest research in Europe by Mr. S. Howard has appeared in the Indian Forester for September last. “Forest research, in many instances, necessitates observations over long periods of time, longer than an individual man's working vears, and over widely separated areas. Some institution is necessary, therefore, to direct methods for the sake of uniformity, and to continue ideas, despite the necessary changes in the research personnel.” Germany was the first country to organise research, this movement dating from 1868, when it was proposed at a meeting of prominent foresters at Regensburg that the larger States, Austria, Prussia, and Bavaria, should have independent research institutes. It was finally decided in 1870 that forest research should be properly organised, and that the research institutes in all the States were to be combined with the educational branch—that is to say, the president of the forest college was also to be president of the research institute. In 1912 all German States of importance had their forestry institutes (in each case combined with the college of forestry) united under the German Forest Research Association, which meets, as a rule, twice a year. The Prussian Research Institute, united with the Forestry College at Eberswalde, has six branches, dealing with sylviculture, physical chemistry, meteorology, plant physiology, zoology, and mycology.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W163091374</t>
+          <t>https://openalex.org/W4251408137</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0021-9258(18)72798-1</t>
+          <t>https://doi.org/10.5962/bhl.title.29881</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Morris &amp; Morris (1941)</t>
+          <t>Harris (1919)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>THE MODIFICATION OF CUPRIC CHLORIDE CRYSTALLIZATION PATTERNS BY TRACES OF PROTEINS</t>
+          <t>Birds of the Kansas City region [by] Harry Harris.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>In a recerlt paper on the isolation of glycogen from maize (I), it was stated, "The cupric chloride crystallization pattern of glycogen is very similar to, but not identical with, that. of sweet corn extracts.However, hhe crystallization pattern of the glycogen preparations from sweet corn is indistinguishable from that of glycogen from animal sources."The implication was that something which modifies the crystallization patbern occurs, together with glycogen, in the sweet corn.The nature of t,his "something" was made clear during attempts to purify the polysaccharide responsible for the crystal pattern obtained with extracts from oats (cf.( 2)).In the course of the purification of the oat seed polysaccharide, no significant change occurred in the crystal pattern when the preparation was precipitated from water by alcohol, acetone, or basic lead acetate.The pattern of a crude oat extract, and of preparations so precipitated, is shown in Fig. 1.When the preparation was precipitated from water by the addition of acet#ic acid, however, the pattern was that of Fig. 2, which has few recognizable points of similarity with the "oat pa,ttern."It seemed possible that a little protein had been carried through the early steps of t.he purification, but, was rcmovcd by the acetic acid treatment.Accordingly a tract of egg albumin was added to some of the acidtreated preparation; the resulting pattern, Fig. 3, was indistinguishable from a "normal" oat patt'ern.Since the addition of protein to the oat polysaccharide had such a pronounced effect', an attempt was made to see how the glycogen pattern would behave under similar circumstances.None of the usual methods for the purification of glycogen made any funda-515</t>
+          <t>covered in summer and fall with a profusion of bright flowers, nigger-heads, asters, goldenrod and blazing star.If these so- called barrens are extensive, they are covered with thickets of plum, wild crab and buckthorn, the favorite home of Bell's Vireo.Where the soil becomes deeper and the prairie begins, man has for the most part taken possession, and turned the stiff prairie grass under, and is now raising wheat, clover, alfalfa and grass.The Prairie Horned Lark, the Mourning Dove, and the Dickcissel are the birds of the wheat fields.On the farm- steads themselves and in the windbreaks of soft maple that sur- round them, breed the birds which the farmer boy knows best, the Wren, the Kingbird, the Purple Martin, the Bluebird, and the rest of the well known list.In the osage orange hedges that divide the upland fields, Shrikes nest and many migrant birds find shelter.The river, as it sweeps past on its way to the Gulf, has of- fered for untold centuries a highway for the many species that breed in northern latitudes.The House Wrens and Orchard Orioles of Nebraska rest in early May in the willows along its bars, the Purple Finches and Siskins on their way south in the fall, feed on the "buttons" of the sycamores.But to the real river-man, who has watched for many years the floods make and remake the ever-shifting shores, the flight of birds suggests the great waves of ducks and geese that rest on the sandbars, or in the swift Current itself, or the "Snipe," the Sandpipers or Plover that feed on the exposed flats or wheel with shrill pip- ings over the muddy water.With these birds are associated all the other waterfowl less important to the sportsman, but often coming within his ken, the majestic Pelican, the Grebe, the Coot and the Herons.The city itself has destroyed many former breeding places of the birds, but in the residence section the planting of trees and shrubs has attracted those species that adapt themselves to the neighborhood of man.The Brown Thrashers and Catbirds nest in the shrubbery, Orioles and Robins in the elms, Blue- birds, Wrens and Martins in the boxes now so generally put up.The Chimney Swift is still seen over the mass of stone and con- crete that covers the downtown section of the city.During migration many of the smaller birds pass through the tree tops in the residence sections of the city, or hide by day in ' ' Maximilian, Prince of Wied, had ascended the Missouri River in 1833, and on his return the next spring, just 17 days after Nuttall and Townsend had left Independence, he dis-</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1561324750</t>
+          <t>https://openalex.org/W597239755</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/1189674</t>
+          <t>https://doi.org/10.5962/bhl.title.57228</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Gould (1941)</t>
+          <t>Stebbing (1919)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Legislative Intervention in the Conflict between Orthodox and Direct-Selling Distribution Channels</t>
+          <t>Commercial forestry in Britain. Its decline and revival</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Darwin's truism that in nature nothing is constant except change is applicable to most phases of human activity and social relationships. It is particularly true of the field of merchandising or distribution. Despite this, there is an aspect of human nature which tends to retard change-a native conservatism. Old customs, methods, become crystallized in tradition. Once established, each agent in the field of distribution, regardless of type, persists in claiming to be the regular or channel. All newcomers are regarded as mere interlopers. So it is that today distribution through the wholesaler, jobber, and established retail merchant has become institutionalized into the orthodox scheme of merchandising; and channels for the distribution of goods and services which defy this pattern are viewed as unorthodox, a threat to the established mode of doing business. Just as self-preservation is a law of individuals, so is it a principle of vested institutions. Today's conventional pattern of distribution has not let the challenge of its supremacy go unheeded. It has sounded the cry of battle in the market place; but, increasingly uncertain of victory there, it has sought to entrench itself behind the wall of legislation. Peddler, chain store, transient merchant, vending machine, mail order house, department store, market cooperative-all have become involved in the legislative decision to play favorites in the economic struggle thus precipitated. A part of the story of this legislative intervention is told here.</t>
+          <t>And the war has demonstrated that it is an economic factor of undeniable importance to Great Britain.Broadly speaking, the utility of the forest to the Nation may be grouped under two main headsdirect utility and indirect utility.The direct utility of the forest is dependent upon the produce which it yields, the capital it represents, and the amount of labour it employs.For our purposes the chief produce of the forest is timber and pit wood, followed by wood pulp, packing-case wood, wood used for turnery purposes, bobbins, and so on.But the forest may also yield a variety of minor or secondary produce, such as pitch, tar, oil of turpentine at home, and caoutchouc, gutta-percha, rosin, gums, dyes, lac, etc., in other parts of the Empire, of which between {14,000,000 and £15,000,000 sterling were imported into this country in 1913.HYGIENIC VALUE OF FORESTS 9 causing avalanches, which cover up with masses of rock and debris valuable agricultural land down below.Woods are also-useful in arresting areas of shifting sand, also destructive to agricultural lands; and in stopping coast erosion.Good work of this nature has already been undertaken by planting up areas in the Moray Firth in Scotland, on the West Coast of England, and elsewhere in this country.In France we have the fine example of the maritime pine forests on the Landes in Gascony.Large sums of money were spent in the formation of these woods, but they have since proved a gold mine to the French-Government, although originally planted for purelyprotective purposes.And we ourselves have benefited in the past, and are doing so at present, for much pit wood comes from there.Woods also afford shelter, as we have seen, to the crops and stock of the farm, and their utility in this '40 REVIVAL OF FORESTRY 'woodland surroundings, and it would have made a</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2138419084</t>
+          <t>https://openalex.org/W127237391</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jmor.1050680106</t>
+          <t>https://doi.org/10.1016/s0021-9258(18)96560-9</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Risley (1941)</t>
+          <t>Hollocher &amp; Buckley (1966)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Some observations on hermaphroditism in turtles</t>
+          <t>Electron Spin Resonance Studies of Native and Denatured Methemoglobin</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Journal of MorphologyVolume 68, Issue 1 p. 101-121 Article Some observations on hermaphroditism in turtles† Paul L. Risley, Paul L. Risley Department of Zoology, State University of Iowa, Iowa CitySearch for more papers by this author Paul L. Risley, Paul L. Risley Department of Zoology, State University of Iowa, Iowa CitySearch for more papers by this author First published: January 1941 https://doi.org/10.1002/jmor.1050680106Citations: 6 † Aided by grants from the National Research Council, Committee for Research in Problems of Sex. AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Literature Cited Bishop, S. C., and F. J. W. Schmidt 1931 The painted turtles of the genus Chrysemys. Field Mus. of Nat. Hist. Publ. 293, Zool. Ser., vol. 18, pp. 123– 137. Coe, W. R., and B. W. Kunkel 1905 The female urogenital organs of the limbless lizard Anniella. Anat. Anz., Bd. 26, S. 219– 222. Dantschakoff, W. 1938 Über chemische Werkzeuge bei der Realisation normal bestimmter embryonaler geschlechtlicher Histogenese bei Reptilien. Arch. f. Entw.-mech. der Organ., Bd. 138, S. 465– 521. Evans, L. T. 1939 Rudiments of epididymis and vas efferens in female turtles. Anat. Rec., vol. 75 (Suppl.), p. 56. Fantham, H. B. 1905 On hermaphroditism and vestigial structures in the reproductive organs of Testuda graeca. Ann. and Mag. of Nat. Hist., N.S. 7, vol. 16, pp. 120– 126. Forbes, T. R. 1938 Studies on the reproductive system of the alligator. II. The effects of prolonged injections of oestrone in the immature alligator. J. Exp. Zool., vol. 78, pp. 335– 367. Forbes, T. R. 1940 Studies on the reproductive system of the alligator. VI. Further observations on the heterosexual structures in the female alligator. Anat. Rec., vol. 77, pp. 343– 365. Gadow, H. 1887 Remarks on the cloaca and on the copulatory organs of the Amniota. Phil. Trans. Roy. Soc. London, B, vol. 178, pp. 5. Hildebrand, S. F. 1929 Review of experiments on artificial culture of diamondback terrapin. Bull. U. S. Bur. Fisheries, vol. 45, pp. 25– 70. Hill, J. P. 1893 Note on the presence of vestigial Müllerian ducts in a fullgrown male lizard (Amphibolurus muricatus). Proc. Linn. Soc., (N.S.W.), vol. 8 (2nd series). Howes, G. B. 1886 On the vestigial structures of the reproductive apparatus in the male of the green lizard. J. Anat. and Phys., vol. 21, pp. 185. Jacquet, M. 1895 Note sur un cas d'hermaphroditisme incomplet observé chez le Lacerta agilis. Bibliog. Anat., T. 3, pp. 267. Lantz, L. A. 1923 Hermaphroditisme partiel chez Lacerta saxicola. Bull. Soc. Zool. France, T. 48, pp. 289. von Leydig, F. 1872 Die in Deutschland lebenden Arten der Saurier. Tübingen. (Quoted from Forbes, '38.) Matthey, R. 1927 Intersexualité chez un Tortue (Emys europaea). C. R. Soc. de Biol., T. 97, pp. 369. Nelson, H. L. A study of the development of the Mullerian ducts, mesonephros, and metanephros in Sternotherus odoratus and Chrysemys marginata bellii. (Unpublished thesis in Library of the State University of Iowa.) Nicholson, F. A., and P. L. Risley A study of the urogenital systems of Emys blandingii, with observations on the occurrence of Mullerian ducts in males. ( To appear in Proc. Iowa Acad. Sci., vol. 47, 1941; in press.) Oguma, K. 1937 Studies on Sauropsid chromosomes. III. The chromosomes of the soft-shelled turtle, Amyda japonica (Temminck and Schleg. ), as additional proof of heterogamety in the Reptilia. J. Genetics, vol. 34, pp. 247– 264. Regamey, J. 1931 Un cas d'intersexualité chez le lézard vert (Lacerta viridis, Daudin). Bull. Soc. vaud. Sci. Nat., T. 57, pp. 311. Risley, P. L. 1930 Bisexuality and sex differentiation in embryos of the musk turtle, Sternotherus odoratus (Latreille). Anat. Rec., vol. 47 (Suppl.), p. 323. Risley, P. L. 1933 Contributions on the development of the reproductive system in Sternotherus odoratus (Latreille). II. Gonadogenesis and sex differentiation. Zeit. f. Zellforsch. u. mikr. Anat., Bd. 18, S. 493. Risley, P. L. 1934a The activity of the coelomic (germinal) epithelium of the male musk turtle, Sternotherus odoratus (Latreille). J. Morph., vol. 56, pp. 59. Risley, P. L. 1934b An ovarian cystadenoma and its influence upon sex differentiation in an immature diamond-back terrapin. Anat. Rec., vol. 60 (Suppl.), p. 68. Risley, P. L. 1937 A preliminary study of sex development in turtle embryos following administration of testosterone. Anat. Rec., vol. 70 (Suppl.), p. 103. Risley, P. L. 1938a Seasonal changes in the testis of the musk turtle, Sternotherus odoratus L. J. Morph., vol. 63, pp. 301. Risley, P. L. 1938b Development of embryonic gonad </t>
+          <t>Abstract The electron spin resonance spectra of methemoglobin and denatured methemoglobin are studied as a function of pH. Satisfactory agreement is found between the literature and these studiesregarding denaturative events occurring between pH 3 and 4, between pH 4 and 5, and between pH 10 and 11; the pK for the equilibrium between methemoglobin and methemoglobin hydroxide; and the transition temperature for the denaturation of methemoglobin as a function of pH. Only one class of denatured species is observable by electron spin resonance at 77° K over the pH range 3 to 11. Another class believed to exist gives no electron spin resonance spectra. The former class is favored over the latter when denaturation occurs at high pH, but the distribution results from seemingly irreversible effects, and is not due to a titration characteristic of denatured methemoglobin. We conclude that the electron spin resonance method is applicable in the study of methemoglobins over the pH range of 3 to about 12.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2347185295</t>
+          <t>https://openalex.org/W136612939</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1785/bssa0310030233</t>
+          <t>https://doi.org/10.1016/b978-1-4831-6716-9.50007-2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Leypoldt (1941)</t>
+          <t>Kenneth &amp; McGill (1966)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sea-level changes as trigger forces*</t>
+          <t>Two-Point Boundary-Value-Problem Techniques</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Research Article| July 01, 1941 Sea-level changes as trigger forces* Harry Leypoldt Harry Leypoldt Search for other works by this author on: GSW Google Scholar Author and Article Information Harry Leypoldt Publisher: Seismological Society of America First Online: 03 Mar 2017 Online Issn: 1943-3573 Print Issn: 0037-1106 Copyright © 1941, by the Seismological Society of America Bulletin of the Seismological Society of America (1941) 31 (3): 233–238. https://doi.org/10.1785/BSSA0310030233 Article history First Online: 03 Mar 2017 Cite View This Citation Add to Citation Manager Share Icon Share Facebook Twitter LinkedIn MailTo Tools Icon Tools Get Permissions Search Site Citation Harry Leypoldt; Sea-level changes as trigger forces. Bulletin of the Seismological Society of America 1941;; 31 (3): 233–238. doi: https://doi.org/10.1785/BSSA0310030233 Download citation file: Ris (Zotero) Refmanager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentBy SocietyBulletin of the Seismological Society of America Search Advanced Search This content is PDF only. Please click on the PDF icon to access. First Page Preview Close Modal You do not have access to this content, please speak to your institutional administrator if you feel you should have access.</t>
+          <t>The theory of ordinary differential equations, subject to initial conditions, is one of the most extensively developed branches of mathematical analysis. Theorems on the existence and uniqueness of solutions are widely available in literature. In turn, the constructive nature of many of the proofs of these theorems has led to successful algorithms for the solution of initial-value problems on electronic computers. For the two-point boundary-value problem, the state of the art, from both analytical and computational points of view, lags behind. The problems of mathematical science that ultimately lead to boundary-value problems are too numerous t o list. In flight mechanics, for example, problems in orbit determination and in intercept and rendezvous studies require the solution of two-point boundary- value. This chapter discusses the boundary-value problem resulting from the application of the Pontryagin maximum principle and inequality constraints on the state space. It also discusses problem formulations and presents a comparison of the Newton–Raphson operator approach with direct methods.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1997127540</t>
+          <t>https://openalex.org/W1498678776</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0096-6347(41)90440-4</t>
+          <t>https://doi.org/10.4049/jimmunol.96.1.119</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Braun (1941)</t>
+          <t>Scott et al. (1966)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>The basis for a modern concept of orthodontics</t>
+          <t>Further Studies on the Mechanism of Antibody-Complement Induced Hemolysis: Specificity of Complement</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0 RTHODONTICX, like all sciences, had first to be conceived, to pass through many stages in its evolut,ion and finally develop into a recognized scientific profession. The historical account of this development has been splendidly presented in two interesting volumes by Dr. B. W. Weinberger. These books record the efforts of the early workers in this field, the subsequent improvements of later generations, leadin g up to the modern scientific concept of orthodontics. The present era of orthodontics has received its impetus in the last quarter of a century and has not yet reached the full measure of its development. Credit for this rapid progress in the past few decades must be given to the ever increasing standards of education and the scientific research which it encourages. However, one cannot overlook the noble efforts of our pioneers and particularly the men who had the imagination to conceive new theories, the ability and fortitude to try them out, and t,he keen minds to observe and record the results of their experiments. We must pay tribute to the father of American orthodontics, Dr. Edward H. Angle, and express our sincere gratitude for the basic truths which he propounded? for the mechanical principles which he set forth, for his systemization of analysis for treatment, and last but by no means least, for inspiring research and study. Today, an orthodontist must be more than a skilled artisan who can apply engineering principles in his practice. He must have a knowledge of a great many of the associated sciences, such as genetics, heredity, embryology, histology, pathology, anatomy, physiology, endocrinology, nutrition, allergies, metallurgy. roentgenology, and even psychology. These and others are the essential requirements for the orthodontic foundation upon which ou scientific profession must progress. So broad is its scope that one must ask, “How far does it extend and where is its source ! ” We might start by accepting the theologic concept of Genesis, namely, “In the beginning God created the heaven and the earth . . . . And God created man . . . . ” From this point the scientist is more familiar with the way ; according to the findings and studies of the archaeologists and paleontologists, there is a definite plan of human form and structure that has been in existence for many centuries. As expressed by Weismann, “The body protoplasm, or soma, and the reproductive protoplasm differ fundamentally. The germinal material is a legacy that has existed since the beginnin g of life, from which representative portions are passed on intact from one generation to the next. Around this germ-plasm there develops in each successive generation a short-lived body, or soma which serves as a vehicle for insuring its transmission and perpetuation.” Evolutionary changes brought about by the necessity for adaptation to new and changing environments have influenced human characteristics, the basis</t>
+          <t>Summary These studies indicate that the size of the defect or functional “hole” produced in the red cell membrane by the action of antibody and C′ is not influenced by the animal source of the C′. These findings, in addition to those previously described, lend further support to the view that the primary determinant of the nature of the induced membrane injury is in the antigen-antibody interaction, perhaps related to the structural and spatial relationships of the antigenic sites.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1969935784</t>
+          <t>https://openalex.org/W1565023713</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1306/3d933332-16b1-11d7-8645000102c1865d</t>
+          <t>https://doi.org/10.1016/s0021-9258(18)96924-3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Storm (1941)</t>
+          <t>Trader &amp; Frieden (1966)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Resume on Sedimentation in Gulf Coast Region of Texas and Louisiana: ABSTRACT</t>
+          <t>Dimerization and Other Chemical Changes in Amphibian Hemoglobins during Metamorphosis</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>The structure, composition, and manner of accumulation of present-day deposits along the coast are described along with those of Recent and Pleistocene time still largely intact. Meaning of the topography on the surface of these deposits, and their relation to Glacial history are discussed. Following this and using it as a background, the more significant features of formations back to the beginning of the Eocene are reviewed. Topics receiving special attention are: delta structure of several kinds and the concept End_Page 936------------------------------ of a Deltaic Coastal Plain; subsidence under load and the Gulf Coast geosyncline changes of Gulf Coast sediments in the direction of the dip and along the strike; and structural changes contemporaneous with deposition of sediments. The manner in which the facts and theories discussed may be used by geologists in the search for oil. End_of_Article - Last_Page 937------------</t>
+          <t>Abstract Electrophoretic separations and amino acid analyses of the multiple hemoglobins of Rana grylio tadpoles and frogs are reported which show that major changes in the primary structures of these hemoglobins are taking place during metamorphosis. Amino acid compositions of adult Rana pipiens and Rana catesbeiana hemoglobins are also presented. Studies in the ultracentrifuge showed that the hemoglobins of two bullfrog species dimerize in vitro to the extent of 70 to 80%. The ability to form dimers is a function of the stage of metamorphosis. Mercaptoethanol was the only reagent tested that reconverted all of the dimer molecules to monomers. The molecular weight of the dimer was found to be 130,000. The mechanism of dimer formation involves the disappearance of reactive sulfhydryl groups in frog hemoglobins after hemolysis. The rate at which these —SH groups were lost was related to the rate at which the dimer was formed in the ultracentrifuge. The rate of —SH disappearance in the dimerizing systems was significantly faster than in the nondimerizing hemoglobins, and corresponded to a loss of two —SH groups per 65,000 g of hemoglobin. Two assay methods were used for measuring sulfhydryl content, p-chloromercuribenzoate titrations, and mercury orange determinations. A model for dimer formation was also proposed. The oxygen binding properties of hemoglobin monomer and dimer were determined with the use of fractions isolated by starch block electrophoresis.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2315129391</t>
+          <t>https://openalex.org/W1565736045</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5594/j09995</t>
+          <t>https://doi.org/10.2307/794893</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bradshaw (1941)</t>
+          <t>Dworkin (1966)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Production-Quality Sound with Single-System Portable Equipment&lt;!--&lt;xref ref-type="other" rid="fn1-10.5594_J09995"&gt;&amp;#x002A;&lt;/xref&gt;--&gt;</t>
+          <t>Lord Devlin and the Enforcement of Morals</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>The March of Time requires equipment of great portability and simplicity of operation, yet retaining good quality. By using Class B push-pull, variable-area recording, a complete noise-reduction sound system weighing fifty pounds was obtained. This single system was used in production of the feature picture The Ramparts We Watch. Problems arise from (1) recording on panchromatic negative, (2) lack of control over negative processing, (3) instability of recording unit caused by rough use of camera on which it is mounted, and (4) distortion due to lateral track shift. Means for overcoming these handicaps sufficiently have been found. Single system can be used without great sacrifice in quality, where time and space are factors.</t>
+          <t>No doubt most Americans and Englishmen think that homosexuality, prostitution, and the publication of pornography are immoral. What part should this fact play in the decision whether to make them criminal? This is a tangled question, full of issues with roots in philosophical and sociological controversy. It is a question lawyers must face, however, and two recent and controversial events-publication of the Wolfenden Report in England,' followed by a public debate on prostitution and homosexuality, and a trio of obscenity decisions in the United States Supreme Court2-press it upon us. Several positions are available, each with its own set of difficulties. Shall we say that public condemnation is sufficient, in and of itself, to justify making an act a crime? This seems inconsistent with our traditions of individual liberty, and our knowledge that the morals of even the largest mob cannot come warranted for truth. If public condemnation is not sufficient, what more is needed? Must there be some demonstration of present harm to particular persons directly affected by the practice in question? Or is it sufficient to show some effect on social customs and institutions which alters the social environment, and thus affects all members of society indirectly? If the latter, must it also be demonstrated that these social changes threaten long-term harm of some standard sort, like an increase in crime or a decrease in productivity? Or would it be enough to show that the vast bulk of the present community would deplore the change? If so, does the requirement of harm add much to the bare requirement of public condemnation? In 1958 Lord Devlin delivered the second Maccabaean Lecture to the British Academy. He called his lecture The Enforcement of Morals, and devoted it to these issues of principle.3 His conclusions</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4233666720</t>
+          <t>https://openalex.org/W1576575116</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/148082c0</t>
+          <t>https://doi.org/10.1016/s0021-9258(18)96735-9</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NA (1941)</t>
+          <t>Barlow &amp; Margoliash (1966)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>The Wyperfeld (Mallee) National Park</t>
+          <t>Electrophoretic Behavior of Mammalian-type Cytochromes c</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>THE Mallee National Park in Victoria, known as “Wyperfeld”, an account of which appeared in NATURE of August 12, 1939, p. 272, has received a substantial addition of 51,840 acres, owing to the far–sighted action of the acting premier of Victoria, Mr, Lind. This makes a total area of 138,700 acres. The land added, known locally as the “Desert”, is useless for purposes of production, but contains the mound builder, known as the ‘lowan’, and is a feeding–ground for birds. The Park is situated in the most arid part of the State with a capricious rainfall of 9 in. and great evaporation. In spite of this dryness it is well stocked with birds of the cockatoo and parrot family, also lowans and emus. It also contains a number of black–faced kangaroo. There is at present only one well in the area, and exactly where these animals get the necessary water is not known. The trough at the well is used by some of the birds and by bees, but so far the kangaroos have not been seen to use it. A somewhat similar problem of water supply can be seen in the Egyptian Desert bordering on the Mediterranean which, whereas it is lifeless in the day–time, is stocked with jerboas and various reptiles at night.</t>
+          <t>Abstract Anomalous boundaries resulting from the binding of a buffer constituent give the appearance of electrophoretic inhomogeneity to pure crystalline native monomeric cytochromes c from 10 species (man, horse, hog, guanaco, Pekin duck, pigeon, turkey, tuna, a moth (Samia cynthia), and the screw worm fly). The electrophoretic patterns depend on the particular cytochrome c used and its concentration, as well as the nature of the anion and its concentration. At pH 6.9 the order of increasing cathodic mobility of the protein is phosphate l chloride ≤ iodide l sulfate l cacodylate. Cations have no effect. The isoionic points of all the cytochromes c tested are at pH 10.04 ± 0.04 and are identical with the isoelectric points in the nonbinding tris(hydroxymethyl)aminomethane-cacodylate buffer. At pH values removed from the isoelectric region the electrophoretic mobilities of various cytochromes c differ, as expected from the different net charges calculated from the amino acid compositions of the proteins. The changes in the chromatographic mobility of cytochrome c on cation exchange resins at different ionic strengths are probably caused by the same buffer reaction phenomena which affect the electrophoretic behavior of the protein. The remarkable evolutionary constancy of isoionic points and net charges at neutral pH is related to the importance of those physicochemical parameters in all cytochrome c physiological reactions and may represent a case of compensating evolutionary variations.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2022708077</t>
+          <t>https://openalex.org/W1913778824</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1210/jcem-1-4-363</t>
+          <t>https://doi.org/10.1152/jappl.1966.21.4.1231</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Curtis &amp; Witt (1941)</t>
+          <t>McElhaney (1966)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ACTIVITIES OF THE FOOD AND DRUG ADMINISTRATION IN THE FIELD OF SEX HORMONES</t>
+          <t>Dynamic response of bone and muscle tissue.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>HE WIDESPREAD DISTRIBUTION of glandular products represented as containing sex hormones presented a problem recognized early by the Food and Drug Administration. When the opportunity presented itself in 1935, a unit was established for the purpose of making investigations of these products by use of the recognised methods available for some of them and for the purpose of the investigation of new methods for the assay of others. During the first year a general survey was made to determine what products were being sold, the general nature of these products, the literature distributed with them, the establishment of an assay colony and the preliminary investigations of many of these products. Beginning with the fiscal year 1936–37 a project schedule was set up, patterned on the general plan for all of the operations of the Food and Drug Administration. The country is divided into three districts, Eastern, Central and Western, which in turn are again divided into stations, of which there are 16 for the whole United States. Food and Drug inspectors lcoated at these stations are responsible for field investigations and for the collection of sampies in a prescribed area. At the beginning of the year the number and kind of samples per month that can be efficiently handled in the laboratories are decided upon and this information is presented to the districts and stations. There is then during the year a regular number of domestic samples per month coming in for assay. The samples are purchased on the open market by the inspectors from regular commercial shipments. In addition to the domestic products, samples of all imports are submitted to Washington and special supplemental collections of domestic samples are made upon request. A general discussion of the individual classes of products examined and the methods for their assay are presented below.</t>
+          <t>ArticleDynamic response of bone and muscle tissue.J H McElhaneyJ H McElhaneyPublished Online:01 Jul 1966https://doi.org/10.1152/jappl.1966.21.4.1231MoreSectionsPDF (2 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByStudy on chest injury and bulletproof vest protection under the combined action of blast wave and fragments6 January 2023 | Computer Methods in Biomechanics and Biomedical Engineering, Vol. 489Biomechanics of Bone TraumaLower Limb Response to Anti-personnel Landmine Blast Explosions: Injury Assessment and Mitigation Strategies18 November 2022 | Human Factors and Mechanical Engineering for Defense and Safety, Vol. 6, No. 1Cortical bone continuum damage mechanics constitutive model with stress triaxiality criterion to predict fracture initiation and pattern17 October 2022 | Frontiers in Bioengineering and Biotechnology, Vol. 10Modeling method of rider-two-wheeler-road coupled system in two-wheeler traffic accident reconstrucitons13 June 2021 | International Journal of Crashworthiness, Vol. 27, No. 5Strong Interfaces Enable Efficient Load Transfer for Strong, Tough, and Impact-Resistant Hydrogel Composites12 July 2022 | ACS Applied Materials &amp; Interfaces, Vol. 14, No. 29On multiscale tension-compression asymmetry in skeletal muscleActa Biomaterialia, Vol. 144The effect of age and initial compression on the force relaxation response of the femur in elderly women4 May 2022 | Royal Society Open Science, Vol. 9, No. 5A Structural Dynamics Approach to Modeling Human Performance4 November 2021Failure Analysis of Human Lower Extremity During Lateral Blast: A Computational Study7 November 2021Effect of organic matrix alteration on strain rate dependent mechanical behaviour of cortical boneJournal of the Mechanical Behavior of Biomedical Materials, Vol. 1253D pull-out finite element simulation of the pedicle screw-trabecular bone interface at strain rates3 September 2021 | Proceedings of the Institution of Mechanical Engineers, Part H: Journal of Engineering in Medicine, Vol. 236, No. 1Real-time replication of three-dimensional and time-varying physiological loading cycles for bone and implant testing: A novel protocol demonstrated for the proximal human femur while walkingJournal of the Mechanical Behavior of Biomedical Materials, Vol. 124Dynamic mechanical behaviour of suture interfaces as inspiration for architectured hierarchical interlocking compositesJournal of the Mechanics and Physics of Solids, Vol. 157A comparison of rib cortical bone compressive and tensile material properties: Trends with age, sex, and loading rateJournal of the Mechanical Behavior of Biomedical Materials, Vol. 122Importance of the cervical capsular joint cartilage geometry on head and facet joint kinematics assessed in a Finite element neck modelJournal of Biomechanics, Vol. 123An Experimentally Validated Finite Element Model of the Lower Limb to Investigate the Efficacy of Blast Mitigation Systems28 May 2021 | Frontiers in Bioengineering and Biotechnology, Vol. 9A numerical investigation of interfacial and channelling crack growth rates under low-cycle fatigue in bi-layer materials relevant to cultural heritageJournal of Cultural Heritage, Vol. 49Nest substrate and tool shape significantly affect the mechanics and energy requirements of avian eggshell puncture5 March 2021 | The Journal of Experimental BiologyThe effect of the hip impact configuration on the energy absorption provided by the femoral soft tissue during sideways fallsJournal of Biomechanics, Vol. 117Structural and mechanical properties of fish scales for the bio-inspired design of flexible body armors: A reviewActa Biomaterialia, Vol. 121Material properties of bighorn sheep (Ovis canadensis) horncore bone with implications for energy absorption during impactsJournal of the Mechanical Behavior of Biomedical Materials, Vol. 114Human Thoracolumbar Spine Tolerance to Injury and Mechanisms From Caudo-Cephalad Loading: A Parametric Modeling Study1 February 2021 | Journal of Engineering and Science in Medical Diagnostics and Therapy, Vol. 4, No. 1Integrating material properties from magnetic resonance elastography into subject-specific computational models for the human brainBrain Multiphysics, Vol. 2Multilevel Validation of a Male Neck Finite Element Model With Active Musculature29 September 2020 | Journal of Biomechanical Engineering, Vol. 143, No. 1Bite force estimates in juvenile Tyrannosaurus rex based on simulated puncture marks2 June 2021 | PeerJ, Vol. 9Mechanical Properties10 December 2020A two-layer elasto-visco-plastic rheological model for the material parameter identification of bone tissue6 May 2020 | Biomechanics and Modeling in Mechanobiology, Vol. 19, No. 6A Review on Recent Advances in the Constitutive Modeling of Bone Tissue17 October 2020 | Current Osteoporosis Reports, Vol. 18, No. 6A review o</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1973977399</t>
+          <t>https://openalex.org/W1967568925</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/399308</t>
+          <t>https://doi.org/10.1086/109985</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Zeuthen (1953)</t>
+          <t>Evans et al. (1966)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Oxygen Uptake as Related to Body Size in Organisms</t>
+          <t>Radar observations of Venus at 3.8 CM wavelength</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessOxygen Uptake as Related to Body Size in OrganismsErik ZeuthenErik Zeuthen Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by The Quarterly Review of Biology Volume 28, Number 1Mar., 1953 Published in association with Stony Brook University Article DOIhttps://doi.org/10.1086/399308 Views: 120Total views on this site Citations: 375Citations are reported from Crossref PDF download Crossref reports the following articles citing this article:Dong In Kim Metabolic Rates of Japanese Anchovy (Engraulis japonicus) during Early Development Using a Novel Modified Respirometry Method, Animals 13, no.66 (Mar 2023): 1035.https://doi.org/10.3390/ani13061035Michael Lynch, Bogi Trickovic, Christopher P. Kempes Evolutionary scaling of maximum growth rate with organism size, Scientific Reports 12, no.11 (Dec 2022).https://doi.org/10.1038/s41598-022-23626-7S Cronin-O’Reilly, NS Wells, R McCallum, CS Hallett, JR Tweedley, FJ Valesini, BD Eyre Chronically stressed benthic macroinvertebrate communities exhibit limited effects on ecosystem function in a microtidal estuary, Marine Ecology Progress Series 701 (Nov 2022): 1–16.https://doi.org/10.3354/meps14175Dong In Kim Ontogeny of the Respiratory Area in Relation to Body Mass with Reference to Resting Metabolism in the Japanese Flounder, Paralichthys olivaceus (Temminck &amp; Schlegel, 1846), Fishes 7, no.11 (Feb 2022): 39.https://doi.org/10.3390/fishes7010039Naomi Villiot, Alex J Poulton, Elizabeth T Butcher, Lucie R Daniels, Aimee Coggins Allometry of carbon and nitrogen content and growth rate in a diverse range of coccolithophores, Journal of Plankton Research 43, no.44 (May 2021): 511–526.https://doi.org/10.1093/plankt/fbab038Ryosuke Matsushima Evidence of morphological adaptation to life underwater: sternal keel affects swimming speed in giant water scavenger beetles (Coleoptera: Hydrophilidae: Hydrophilini), Canadian Journal of Zoology 99, no.55 (May 2021): 363–367.https://doi.org/10.1139/cjz-2020-0247Farid Saleh, Muriel Vidal, Lukáš Laibl, Pierre Sansjofre, Pierre Gueriau, Francesc Pérez-Peris, Lorenzo Lustri, Victoire Lucas, Bertrand Lefebvre, Bernard Pittet, Khadija El Hariri, Allison C. Daley Large trilobites in a stress-free Early Ordovician environment, Geological Magazine 158, no.22 (May 2020): 261–270.https://doi.org/10.1017/S0016756820000448Molly C. Womack, Rayna C. Bell Two‐hundred million years of anuran body‐size evolution in relation to geography, ecology and life history, Journal of Evolutionary Biology 33, no.1010 (Aug 2020): 1417–1432.https://doi.org/10.1111/jeb.13679Bryony A. Caswell, Navodha G. Dissanayake, Christopher L.J. Frid Influence of climate-induced biogeographic range shifts on mudflat ecological functioning in the subtropics, Estuarine, Coastal and Shelf Science 237 (May 2020): 106692.https://doi.org/10.1016/j.ecss.2020.106692Hanna Schade, Nikolas Arneth, Martin Powilleit, Stefan Forster Sand gapers’ breath: Respiration of Mya arenaria (L. 1758) and its contribution to total oxygen utilization in sediments, Marine Environmental Research (Nov 2018).https://doi.org/10.1016/j.marenvres.2018.11.010Douglas Glazier Rediscovering and Reviving Old Observations and Explanations of Metabolic Scaling in Living Systems, Systems 6, no.11 (Jan 2018): 4.https://doi.org/10.3390/systems6010004William J. Walters, Villy Christensen Ecotracer: analyzing concentration of contaminants and radioisotopes in an aquatic spatial-dynamic food web model, Journal of Environmental Radioactivity 181 (Jan 2018): 118–127.https://doi.org/10.1016/j.jenvrad.2017.11.008Heidi L. Fuchs, Jaclyn A. Specht, Diane K. Adams, Adam J. Christman Turbulence induces metabolically costly behaviors and inhibits food capture in oyster larvae, causing net energy loss, Journal of Experimental Biology 220, no.1919 (Oct 2017): 3419–3431.https://doi.org/10.1242/jeb.161125John G. Maisey, Allison W. Bronson, Robert R. Williams, Mark McKinzie A Pennsylvanian ‘supershark’ from Texas, Journal of Vertebrate Paleontology 37, no.33 (Jun 2017): e1325369.https://doi.org/10.1080/02724634.2017.1325369Tamzin A. Blewett, Perrine L. M. Delompré, Yuhe He, Erik J. Folkerts, Shannon L. Flynn, Daniel S. Alessi, Greg G. Goss Sublethal and Reproductive Effects of Acute and Chronic Exposure to Flowback and Produced Water from Hydraulic Fracturing on the Water Flea Daphnia magna, Environmental Science &amp; Technology 51, no.55 (Feb 2017): 3032–3039.https://doi.org/10.1021/acs.est.6b05179Javier Robalino, Blake Wilkins, Heather D. Bracken-Grissom, Tin-Yam Chan, Maureen A. O’Leary, William Oki Wong The Origin of Large-Bodied Shrimp that Dominate Modern Global Aquaculture, PLOS ONE 11, no.77 (Jul 2016): e0158840.https://doi.org/10.1371/journal.pone.0158840Chris L.J. Frid, Bryony A. Caswell Does ecological redundancy maintain functioning of marin</t>
+          <t>During the early part of 1966 the Lincoln Laboratory Haystack Radar (X = 3.8 cm) was employed to observe the planet Venus. The radar cross section observed at this wavelength was only about one-tenth as much as has been reported at wavelengths of 12 cm or longer. Separate observations of the planet Mercury yielded cross sections similar to those previously obtained at longer wavelengths and lent confidence that the radar equipment was functioning properly. Thus our measurements support the low value for the cross section reported by Karp et a'. (1964). The echo spectrum is found to be comparatively narrow, suggesting the solid surface as the reflecting agent. No echo power can be observed outside the frequency limits expected on the basis of the known rotation rate and the center Doppler shift measured using a separate x =23 cm radar. If any energy is reflected by the atmosphere it appears to be only a small portion of the total. Con- firmation that the surface is the scattering agent has been provided by near simultaneous ranging experi- ments at two frequencies, which showed that the echo delay times agreed to 5 sec, i.e., well within the experimental accuracy. The depolarized component of the echoes was observed and found to be of the order of 14 dB weaker than the expected component. An analysis of the scattering law for the planet has been made, and when compared with the law observed at longer wavelengths indicates that about 4-6 dB two-wa vertical absorption occurs in the atmosphere of Venus. Variations in the observed cross section with time (by as much as a factor of 2) support the view that atmospheric attenuation is responsible at least in part for the low cross section observed. A comparison of the positions of anomalously reflecting regions observed in these observations with the positions reported by Carpenter (1966) during the 1964 inferior conjunction permits the Venus rotation period to be established as 244+ a few days.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2037071609</t>
+          <t>https://openalex.org/W1968171353</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1071/ar9530193</t>
+          <t>https://doi.org/10.7326/0003-4819-64-3-715</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Greacen &amp; Perkman (1953)</t>
+          <t>Glynn (1966)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Soil-structure changes in a long-term citrus experiment.</t>
+          <t>Platelets and Thrombosis</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Data are given on the changes induced in the physical properties of the soil in a factorial experiment in which cultural, irrigation, and nitrogen treatments are being tested on citrus. Apart from an increase in the non-capillary porosity of the surface layer to the depth of cultivation, there is no difference to be noted in porosity between the cultivated plots with the addition of organic matter and the uncultivated bare-surface plots where no organic matter is added. Under permanent sod the total non-capillary porosity is reduced but larger pores are present, 44 per cent. being in the form of insect burrows 2 mm. and more in diameter. The initial infiltration rates of the cultivated plots reflect the high porosity of the surface layer, but there is no difference in the final infiltration rates for these and the bare-surface plots. The infiltration rate of the sod plots is four times as high as in the other treatments, and is attributable to the effective hydraulic area of the faunal burrows. Cultivation has reduced aggregate stability as compared with uncultivated bare-surface and sod treatments, and the sod plots are considerably better in this respect than the bare-surface plots. This is not reflected in the soil organic carbon contents. Aggregate stability increases with increasing ammonium sulphate applications regardless of the cultural treatments. This is associated with increasing soil acidity, which, incidentally, may influence structure through its effect on microflora and exchangeable cations.</t>
+          <t>Editorials1 March 1966Platelets and ThrombosisM. F. GLYNN, M.D., F.R.C.P.(C), E. A. MURPHY, M.D., J. F. MUSTARD, M.D. F.R.C.P.(C)M. F. GLYNN, M.D., F.R.C.P.(C)Search for more papers by this author, E. A. MURPHY, M.D.Search for more papers by this author, J. F. MUSTARD, M.D. F.R.C.P.(C)Search for more papers by this authorAuthor, Article, and Disclosure Informationhttps://doi.org/10.7326/0003-4819-64-3-715 SectionsAboutPDF ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinkedInRedditEmail ExcerptThe characteristics of thrombi, in particular arterial thrombi, were delineated during the latter part of the nine-teenth century. It was shown that the initial step involved the formation of platelet aggregates (1-3). Further growth led to a structure consisting of masses of platelets interspersed with layers of fibrin and red blood cells (3). Within hours the platelet mass usually diminishes, and fibrin becomes the prominent component (3, 4). In man, thrombus material is usually not available until much of this transformation has occurred. Thus, there has been a tendency to lose sight of the basic importance of the platelet. Rightly...References1. BIZZOZERO G: Ueber einen neuen Formbestandtheil des Blutes und dessen Rolle bei der Thrombose under der Blutgerinnung. Virchow. Arch. Path. Anat. 90: 261, 1882. CrossrefGoogle Scholar2. EBERTHSCHIMMELBUSCH JCC: Die Thrombose nach Versuchen u. Leichenbefunden. Ferdinand Enke, Stuttgart, 1888. Google Scholar3. WELCH WH: The structure of white thrombi. Tr. Path. Soc. Philadelphia 13: 25, 1887. Google Scholar4. JØRGENSEN L: Experimental platelet and coagulation thrombi. Acta Path. Microbiol. Scand. 62: 189, 1964. CrossrefMedlineGoogle Scholar5. ZUCKERBORRELLI MBJ: Platelet dumping produced by connective tissue suspensions and by collagen. Proc. Soc. Exp. Biol. Med. 109: 779, 1962. CrossrefGoogle Scholar6. HOVIG T: Aggregation of rabbit blood platelets produced in vitro by saline "extract" of tendons. Thromb. Diath. Haemorrh. 9: 248, 1963. Google Scholar7. HOVIG T: Release of a platelet-aggregating substance (adenosine diphosphate) from rabbit blood platelets induced by saline "extract" of tendons. Ibid., p. 264. Google Scholar8. SPAETCINTRONSPIVACK THJM: Some properties of the platelet-connective tissue mixed agglutination reaction. Proc. Soc. Biol. Med. 111: 292, 1962. CrossrefMedlineGoogle Scholar9. HUGHES J: Accolement des plaquettes aux structures conjonctives perivasculaires. Thromb. Diath. Haemorrh. 8: 241, 1962. MedlineGoogle Scholar10. MUSTARDMOVATGLYNN JFHZMF: Unpublished observations. Google Scholar11. GAARDERJONSENLALANDHELLEMOWREN AJSAPA: Adenosine diphosphate in red cells as a factor in the adhesiveness of human blood platelets. Nature (London) 192: 531, 1961. CrossrefMedlineGoogle Scholar12. BORN GV: Aggregation of blood platelets by adenosine diphosphate and its reversal. Nature (London) 194: 927, 1962. CrossrefMedlineGoogle Scholar13. MUSTARDHEGARDTROWSELLMACMILLAN JFBHCRL: Effect of adenosine nucleotides on platelet aggregation and clotting time. J. Lab. Clin. Med. 64: 548, 1964. MedlineGoogle Scholar14. HASLAM RJ: Role of adenosine diphosphate in the aggregation of human blood platelets by thrombin and by fatty acids. Nature (London) 202: 765, 1964. CrossrefMedlineGoogle Scholar15. FRENCHMACFARLANESANDERS JERGAG: The structure of haemostatic plugs and experimental thrombi in small arteries. Brit. J. Exp. Path. 45: 467, 1964. MedlineGoogle Scholar16. GLYNNMOVATMURPHYMUSTARD MFHZEAJF: Study of platelet adhesiveness and aggregation, with latex particles. J. Lab. Clin. Med. 65: 179, 1965. MedlineGoogle Scholar17. MOVATMUSTARDTAICHMANURIUHARA HZJFNST: Platelet, aggregation and release of ADP, serotonin and histamine associated with phagocytosis of antigen antibody complexes. Proc. Soc. Exp. Biol. Med. 120: 232, 1965. CrossrefMedlineGoogle Scholar18. GLYNNMUSTARDMOVATSMYTHE MFJFHZHA: Platelet aggregation, phagocytosis and vessel permeability, in Proceedings of 2nd Annual Canadian Conference on Rheumatism and Arthritis. In press. Google Scholar19. DAVID-FERREIRA JF: Sur la structure et le pouvoir phagocytaire des plaquettes sanguines. Z. Zeilforsch. 55: 89, 1961. CrossrefMedlineGoogle Scholar20. MOVATURIUHARAMACMORINEBURKE HZTDRJS: A permeability factor released from leukocytes after phagocytosis of immune complexes and its possible role in the Arthus reaction. Life Sci. 3: 1025, 1964. CrossrefGoogle Scholar21. MUSTARDMOVATMACMORINESENYI JFHZDRA: Release of permeability factors from the blood platelets. Proc. Soc. Exp. Biol. Med. 119: 988, 1965. CrossrefMedlineGoogle Scholar22. JERUSHALMYKOHNDEVRIES ZAA: Interaction of myxoviruses with human blood platelets in vitro. Proc. Soc. Exp. Biol. Med. 106: 462, 1961. CrossrefMedlineGoogle Scholar23. WIENERSPIRO JD: Ultrastructural studies in experimental thrombosis, in Anticoagulant Therapy in Ischemic Heart Disease, edited by NICHOL, E. S. Grune &amp; Stratton, Inc., New York, 1964. Goog</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2052141684</t>
+          <t>https://openalex.org/W1969923946</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.1698855</t>
+          <t>https://doi.org/10.1161/01.cir.34.2.272</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Jaffé &amp; Doak (1953)</t>
+          <t>Kennedy et al. (1966)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>On the Stability of Metallo-Organic Compounds</t>
+          <t>Quantitative Angiocardiography: I. The Normal Left Ventricle in Man</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>It is pointed out that serious difficulties are encountered in preparing organic compounds of the transition elements. The hypothesis is proposed that these difficulties are caused by insufficient stability of the carbon-metal bonds involved. Some rough calculations based on Mulliken's ``magic formula'' are used to test this hypothesis. The results obtained indicate that carbon-metal bonds formed by the transition elements are extremely weak. The calculations further suggest that carbon-metal bonds involving the alkali and alkaline earth metals are largely ionic.</t>
+          <t>HomeCirculationVol. 34, No. 2Quantitative Angiocardiography Free AccessResearch ArticlePDF/EPUBAboutView PDFSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyRedditDiggEmail Jump toFree AccessResearch ArticlePDF/EPUBQuantitative Angiocardiography I. The Normal Left Ventricle in Man J. WARD KENNEDY, M.D., WILLIAM A. BAXLEY, M.D., MELVIN M. FIGLEY, M.D., HAROLD T. DODGE, M.D. and JOHN R. BLACKMON, M.D. J. WARD KENNEDYJ. WARD KENNEDY From the Departments of Medicine and Radiology, University of Washington School of Medicine, and U. S. Veterans Administration Hospital, Seattle, Washington. Search for more papers by this author , WILLIAM A. BAXLEYWILLIAM A. BAXLEY From the Departments of Medicine and Radiology, University of Washington School of Medicine, and U. S. Veterans Administration Hospital, Seattle, Washington. Search for more papers by this author , MELVIN M. FIGLEYMELVIN M. FIGLEY From the Departments of Medicine and Radiology, University of Washington School of Medicine, and U. S. Veterans Administration Hospital, Seattle, Washington. Search for more papers by this author , HAROLD T. DODGEHAROLD T. DODGE From the Departments of Medicine and Radiology, University of Washington School of Medicine, and U. S. Veterans Administration Hospital, Seattle, Washington. Search for more papers by this author and JOHN R. BLACKMONJOHN R. BLACKMON From the Departments of Medicine and Radiology, University of Washington School of Medicine, and U. S. Veterans Administration Hospital, Seattle, Washington. Search for more papers by this author Originally published1 Aug 1966https://doi.org/10.1161/01.CIR.34.2.272Circulation. 1966;34:272–278AbstractQuantitative angiocardiography has been utilized to study the left ventricle of seven women and 15 men who had no evidence of heart disease. The left ventricular enddiastolic volume, end-systolic volume, and stroke volume were calculated in 15 individuals and left ventricular mass was determined in all 22 subjects. The mean end-diastolic volume was 70 cc/m.2 The left ventricular wall thickness during diastole averaged 8.9 mm for women and 11.9 mm for men and the mean left ventricular mass was 76 g/m2 for women and 99 g/m2 for men. The ventricular volumes did not correlate well with age, sex, body surface area, or weight, but correlated in a negative manner with heart rate. There was a significant difference between left ventricular wall thickness and mass in normal men and women. Values for normal left ventricular volumes obtained by other investigators using angiocardiographic and indicator-dilution methods are compared with the results of this study. The values obtained for left ventricular mass by the angiocardiographic method used in this study are similar to those obtained by other investigators in postmortem hearts. Previous Back to top Next FiguresReferencesRelatedDetailsCited By Nguyen K, Hu P and Finn J (2021) Cardiac Magnetic Resonance Quantification of Structure-Function Relationships in Heart Failure, Heart Failure Clinics, 10.1016/j.hfc.2020.08.001, 17:1, (9-24), Online publication date: 1-Jan-2021. Sharma D, Mehta S and Pathania R (2021) Early myocardial remodeling after aortic valve replacement, International Journal of the Cardiovascular Academy, 10.4103/ijca.ijca_28_21, 7:4, (119), . Choquet H, Thai K, Jiang C, Ranatunga D, Hoffmann T, Go A, Lindsay A, Ehm M, Waterworth D, Risch N and Schaefer C (2020) Meta-Analysis of 26 638 Individuals Identifies Two Genetic Loci Associated With Left Ventricular Ejection Fraction, Circulation: Genomic and Precision Medicine, 13:4, Online publication date: 1-Aug-2020. Marwick T (2018) Ejection Fraction Pros and Cons, Journal of the American College of Cardiology, 10.1016/j.jacc.2018.08.2162, 72:19, (2360-2379), Online publication date: 1-Nov-2018. Bristow M, Kao D, Breathett K, Altman N, Gorcsan J, Gill E, Lowes B, Gilbert E, Quaife R and Mann D (2017) Structural and Functional Phenotyping of the Failing Heart, JACC: Heart Failure, 10.1016/j.jchf.2017.09.009, 5:11, (772-781), Online publication date: 1-Nov-2017. Katz A and Rolett E (2015) Heart failure: when form fails to follow function, European Heart Journal, 10.1093/eurheartj/ehv548, 37:5, (449-454), Online publication date: 1-Feb-2016. Guadalajara-Boo J (2014) ¿Es útil en la actualidad el uso de digital en la insuficiencia cardiaca?, Archivos de Cardiología de México, 10.1016/j.acmx.2014.09.001, 84:4, (310-313), Online publication date: 1-Oct-2014. Schroeder J, Peterschroeder A, Vaske B, Butz T, Barth P, Oldenburg O, Bitter T, Burchert W, Horstkotte D and Langer C (2009) Cardiac volumetry in patients with heart failure and reduced ejection fraction: a comparative study correlating multi-slice computed tomography and magnetic resonance tomography. Reasons for intermodal disagreement, Clinical Research in Cardiology, 10.1007/s00392-009-0074-5, 98:11, (739-747), Online publication date: 1-Nov-2009. Cirillo</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1552253914</t>
+          <t>https://openalex.org/W1970226312</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.1698979</t>
+          <t>https://doi.org/10.1016/0926-6585(66)90006-9</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Shuler (1953)</t>
+          <t>Parsons &amp; Prichard (1966)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Adiabatic Correlation Rules for Reactions Involving Polyatomic Intermediate Complexes and their Application to the Formation of OH(2Σ+) in the H2–O2 Flame</t>
+          <t>Properties of some model systems for transcellular active transport</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Adiabatic orbital and spin correlation rules applicable to a detailed study of elementary chemical reactions involving nonlinear polyatomic intermediate complexes have been formulated and are presented together with some pertinent correlation tables. These correlation rules and tables permit the determination of the adiabatically allowed term manifold of reaction products from the states of the separated reactants without reference to their detailed electronic configurations. The formulation presented here utilizes group theoretical arguments relating to the symmetry properties of the reactants, the intermediate reaction complex, and the products and is based principally upon the results obtained previously by Mulliken for the resolution of species into those of point groups of lower symmetry. The effects of the change of the (geometrical) configuration of the intermediate reaction complex during reaction and of the electronic-vibrational coupling on these correlations have been considered in detail. It is concluded that strict orbital electronic correlation rules are operative only for reactions where neither the reactants nor the products are polyatomic. For reactions involving polyatomic reactants and/or products, the vibrational-electronic coupling weakens the simple orbital electronic correlations so that detailed vibronic correlations will be necessary. The spin correlation rules, however, are not affected by these interactions and are identical with those given by Wigner and Witmer for atomic and diatomic systems. These correlation rules are then applied to a study of the reactions H+O2→[HO2]→OH*+OO+H2→[OH2]→OH*+H which may be of importance in the production of electronically excited OH[OH(2Σ+)] in the hydrogen-oxygen flame. The mechanism of these reactions is investigated with special reference to the predissociating OH(2Σ−) state discussed recently by Gaydon and Wolfhard. It is suggested that the interaction of and the consequent radiationless transition between HO2 intermediate reaction complexes is primarily responsible for the formation of OH(2Σ+) in its observed vibrational nonequilibrium distribution with the specific enhancement of the levels v′=2 and 3. The adiabatic correlations for the special case of association (and dissociation) reactions involving linear polyatomic intermediate complexes and products are considered briefly in the Appendix. It is concluded that vibronic correlations are required for the determination of the product term manifold for these reactions.</t>
+          <t>The properties of some model systems for transcellular active transport (translocation) are described. The functioning of the models depends upon, firstly the occurrence of solute (substrate) pumping across the opposing bordering membranes of a unit cell, the membranes also being leaky to the substrate and secondly, an intrinsic asymmetry of the opposing membranes. The systems are characterized by the maintenance in the steady state of substrate concentration differences between the contents of the unit cell and its environment. Making assumptions as to the properties of the individual faces of the cell equations have been written describing the rate of translocation in terms of the parameters of substrate transport at the faces of the cell and the extracellular concentrations. Using assumed values for these parameters and concentrations, translocation rates have been calculated for various conditions. From study of the models the conditions under which translocation will occur are demonstrated and the kinetic properties of the model systems compared with experimental data. It is also shown that changes in the rates of leaking and of pumping of a substrate across the opposing faces of the unit cell can, under appropriate conditions, change the direction as well as the rate of substrate translocation. The induction of a net counterflow of one substrate through the cell (countertranslocation) can be a consequence of the presence of a second substrate which is also capable of being pumped across the bordering membranes of the cell in the same direction as the first.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2108192630</t>
+          <t>https://openalex.org/W1974209057</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1073/pnas.39.11.1105</t>
+          <t>https://doi.org/10.1080/00206816609474422</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Leopold &amp; Guernsey (1953)</t>
+          <t>Gaynanov (1966)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>A Theory of Auxin Action Involving Coenzyme A</t>
+          <t>Nature of magnetic anomalies in transition zones of Pacific</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Understanding household behavior and its macro consequences for society is pivotal for climate change adaptation. Yet, traditional policy decision-support models for nature–society systems oversimplify human behavior. Using original modeling ...Despite the growing calls to integrate realistic human behavior in sustainability science models, the representative rational agent prevails. This is especially problematic for climate change adaptation that relies on actions at various scales: from ...</t>
+          <t>Magnetic surveys of the zones show certain special types of anomalies explainable by structures both of the crust and of the upper mantle; the upper mantle is not magnetically homogeneous; the character of the Mohoroviĉić Discontinuity is not the same in continental and in oceanic areas. The lower margins of the magnetic excitation sources lie above the Discontinuity in continental areas as a rule, but on the whole sink below that boundary in oceanic areas. It is possible that the physical state of the substance under the Discontinuity, in continental areas, is such as to preclude its magnetization by the Earth's constant magnetic field. --IGR Staff.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2984122619</t>
+          <t>https://openalex.org/W1978243438</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0065-3233(08)60091-1</t>
+          <t>https://doi.org/10.1103/physrev.151.289</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bricas &amp; Fromageot (1953)</t>
+          <t>Dweck &amp; Seidel (1966)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Naturally Occurring Peptides</t>
+          <t>Spin-Spin and Crystal-Field Interactions in the Rare-Earth Ethyl Sulfates. I. The Spectrum of Gadolinium</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Publisher Summary This chapter discusses naturally occurring peptides, which allows several generalizations concerning their importance as distinct chemical entities. Certain physiologically active naturally occurring peptides seem to be linked to the much larger protein molecules with respect to their structure and physiological activity. The distinction is based largely on the fact that naturally occurring peptides are composed of amino acids with uncommon configurations and structures, and of linkages other than the classical peptide bond. The uncommon structures exist only rarely in proteins and this would be exactly why one can use them to differentiate the naturally occurring peptides from protein fragments. One group, containing heteromeric peptides, is characterized on the basis of a common structure and an identical amino acid composition, differing from one another by the nature of the heteromeric group. Such is the case of the penicillins. Another group also has a given identical structure, but each member of the group has a different amino acid composition. All the members of such families possess the same number of amino acids, however, are of a different nature. All the members of another group possess the same heteromeric groupings and uncommon amino acids, but they differ by the number and nature of other amino acids. The characteristic biological actions of the naturally occurring peptides are because of their uncommon structures and compositions. The biological activity is related to the structure. The existence of naturally occurring peptides show that nature utilizes amino acids to build proteins and peptides.</t>
+          <t>The interactions between magnetic rare-earth ions in a set of isomorphic salts have been investigated under the experimental condition $g\ensuremath{\beta}H&amp;gt;\mathrm{kT}$ such that the spins are highly aligned by the external magnetic field. Paramagnetic resonance under these conditions is found to show behavior qualitatively similar to ferromagnetic resonance. The high degree of spin alignment results in a nearly uniform internal field for samples having a regular shape, so that it is possible to observe narrow line spectra in concentrated paramagnetic salts. The spin-spin interactions may be directly determined from the line shifts at low temperatures, and from the observation of resolved structure that results from the resonance absorption of ions having a near neighbor ion whose spin is antiparallel to the magnetic field. In dysprosium ethyl sulfate containing gadolinium as an impurity, the interaction of a Gd ion with its first-, second-, and third-nearest-neighbor Dy ions, as well as the total interaction with all Dy neighbors, has been measured. The interaction may be explained in terms of a dipolar coupling between the spins. The influence of the spin-spin interactions on the angular variation of the Gd spectrum is also examined. The spin-lattice relaxation time of a Gd ion is found to depend on its nuclear spin.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2054561239</t>
+          <t>https://openalex.org/W1978672457</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/399699</t>
+          <t>https://doi.org/10.1002/pssb.19660160221</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Edds (1953)</t>
+          <t>Ratnam (1966)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Collateral Nerve Regeneration</t>
+          <t>On the Electrical and Magnetic Properties of Coloured and Uncoloured Calcium Fluoride Crystals</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessCollateral Nerve RegenerationMac V. Edds, Jr.Mac V. Edds, Jr. Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMoreDetailsFiguresReferencesCited by The Quarterly Review of Biology Volume 28, Number 3Sep., 1953 Published in association with Stony Brook University Article DOIhttps://doi.org/10.1086/399699 Views: 7Total views on this site Citations: 239Citations are reported from Crossref PDF download Crossref reports the following articles citing this article:Tessa Gordon, Lynn Eldridge, Saljae Aurora Enlargement of the Nerve Fibers of Silenced Lumbosacral Motoneurons in Cats, Biomedicines 10, no.1010 (Oct 2022): 2622.https://doi.org/10.3390/biomedicines10102622Peter E. Turkeltaub A Taxonomy of Brain–Behavior Relationships After Stroke, Journal of Speech, Language, and Hearing Research 62, no.1111 (Nov 2019): 3907–3922.https://doi.org/10.1044/2019_JSLHR-L-RSNP-19-0032Petros Konofaos, Samer Bassilios Habre, Robert D. Wallace End-to-Side Nerve Repair, Annals of Plastic Surgery 81, no.66 (Dec 2018): 736–740.https://doi.org/10.1097/SAP.0000000000001663Huiyi H. Chang, Leif A. Havton A ventral root avulsion injury model for neurogenic underactive bladder studies, Experimental Neurology 285 (Nov 2016): 190–196.https://doi.org/10.1016/j.expneurol.2016.05.026Toby A. Ferguson, George M. Smith Conditions Affecting Accuracy of Peripheral Nerve Reinnervation and Functional Recovery, (Jan 2015): 117–128.https://doi.org/10.1016/B978-0-12-801732-6.00007-0Huiyi H. Chang, Leif A. Havton Serotonergic 5-HT1A receptor agonist (8-OH-DPAT) ameliorates impaired micturition reflexes in a chronic ventral root avulsion model of incomplete cauda equina/conus medullaris injury, Experimental Neurology 239 (Jan 2013): 210–217.https://doi.org/10.1016/j.expneurol.2012.10.015Mark H. Tuszynski, Oswald Steward Concepts and Methods for the Study of Axonal Regeneration in the CNS, Neuron 74, no.55 (Jun 2012): 777–791.https://doi.org/10.1016/j.neuron.2012.05.006Elena Kudryashova, Jun Wu, Leif A. Havton, Melissa J. Spencer Deficiency of the E3 ubiquitin ligase TRIM32 in mice leads to a myopathy with a neurogenic component, Human Molecular Genetics 18, no.77 (Jan 2009): 1353–1367.https://doi.org/10.1093/hmg/ddp036Eleana Bontioti, Lars B. Dahlin Chapter 12 Mechanisms Underlying The End‐to‐Side Nerve Regeneration, (Jan 2009): 251–268.https://doi.org/10.1016/S0074-7742(09)87012-8Pierluigi Tos, Stefano Artiaco, Igor Papalia, Ignazio Marcoccio, Stefano Geuna, Bruno Battiston Chapter 14 End‐to‐Side Nerve Regeneration, (Jan 2009): 281–294.https://doi.org/10.1016/S0074-7742(09)87014-1Atsuhiro TSUBAKI, Shoji TANAKA, Katsuhiko TACHINO Effect of 2 weeks or 6 weeks Unloading on Partially Denervated Muscle, Rigakuryoho Kagaku 23, no.66 (Jan 2008): 777–784.https://doi.org/10.1589/rika.23.777Marios G. Lykissas, Ekaterini Sakellariou, Marios D. Vekris, Vasilios A. Kontogeorgakos, Anna K. Batistatou, Gregory I. Mitsionis, Alexandros E. Beris Axonal regeneration stimulated by erythropoietin: An experimental study in rats, Journal of Neuroscience Methods 164, no.11 (Aug 2007): 107–115.https://doi.org/10.1016/j.jneumeth.2007.04.008Alexandros Beris, Marios Lykissas, Anastasios Korompilias, Grigorios Mitsionis End-to-Side Nerve Repair in Peripheral Nerve Injury, Journal of Neurotrauma 24, no.55 (May 2007): 909–916.https://doi.org/10.1089/neu.2006.0165Leif A. Havton, John R. Hotson, Jan-Olof Kellerth Correlation of median forearm conduction velocity with carpal tunnel syndrome severity, Clinical Neurophysiology 118, no.44 (Apr 2007): 781–785.https://doi.org/10.1016/j.clinph.2006.12.011Stefano Geuna, Igor Papalia, Pierluigi Tos End-to-side (terminolateral) nerve regeneration: A challenge for neuroscientists coming from an intriguing nerve repair concept, Brain Research Reviews 52, no.22 (Sep 2006): 381–388.https://doi.org/10.1016/j.brainresrev.2006.05.002R Xia, W Z Rymer Reflex reciprocal facilitation of antagonist muscles in spinal cord injury, Spinal Cord 43, no.11 (Aug 2004): 14–21.https://doi.org/10.1038/sj.sc.3101656Daniela Carulli, Annalisa Buffo, Piergiorgio Strata Reparative mechanisms in the cerebellar cortex, Progress in Neurobiology 72, no.66 (Apr 2004): 373–398.https://doi.org/10.1016/j.pneurobio.2004.03.007 Regeneration and Experimental Nerve Repair, (Jan 2004): 114–cp2.https://doi.org/10.1016/B978-0-443-06711-2.50009-3Noriyuki Sugiyama, Atsushi Yoshimura, Chie Fujitsuka, Hisashi Iwata, Akira Awaya, Satoru Mori, Hideo Yoshizato, Noriaki Fujitsuka Acceleration by MS‐818 of early muscle regeneration and enhanced muscle recovery after surgical transection, Muscle &amp; Nerve 25, no.22 (Jan 2002): 218–229.https://doi.org/10.1002/mus.10028Ibrah??m Askar, B??zden Tav??l Sabuncuoglu Superficial or deep implantation of motor nerve after denervation: An experimental study?superficial or deep implantation of mot</t>
+          <t>Abstract The electrical and magnetic properties of uncoloured calcium fluoride crystals and of specimens of these crystals coloured by X‐rays and electrolysis, are reported. The dc conductivity and dielectric loss measurements of uncoloured and X‐ray coloured CaF 2 crystals show that in a freshly prepared crystal 1. the number of free negative ion vacancies is very small and 2. the anti‐Frenkel defects which are initially present are in the associated form. These points explain why, for irradiation at room temperature, the α‐band (the F‐band of this system) is not observed in optical absorption. The nature of the traps is also discussed in the context of the observed changes in the dc conductivity accompanying the thermal bleaching of the colour centres in an X‐irradiated crystal. The temperature variation of the magnetic susceptibility indicates that X‐irradiation produces both paramagnetic and diamagnetic colour centres. From the results of measurements on electrolytically coloured crystals, the oscillator strength of the F‐band is estimated as about 10 −2 ; this also explains why the formation of the α‐band is not detected for room temperature X‐irradiation.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2128814592</t>
+          <t>https://openalex.org/W1978903027</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/physrev.1953.33.3.387</t>
+          <t>https://doi.org/10.1029/jz071i003p00693</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Pappenheimer (1953)</t>
+          <t>Carpenter (1966)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Passage of Molecules Through Capillary Walls</t>
+          <t>Whistler studies of the plasmapause in the magnetosphere: 1. Temporal variations in the position of the knee and some evidence on plasma motions near the knee</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ArticlesPassage of Molecules Through Capillary WallsJohn R. PappenheimerJohn R. PappenheimerPublished Online:01 Jul 1953https://doi.org/10.1152/physrev.1953.33.3.387MoreSectionsPDF (6 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInEmail Previous Back to Top Next FiguresReferencesRelatedInformationCited ByIntravital imaging-based analysis tools for vessel identification and assessment of concurrent dynamic vascular events16 July 2018 | Nature Communications, Vol. 9, No. 1Contributions of the glycocalyx, endothelium, and extravascular compartment to the blood–brain barrier14 September 2018 | Proceedings of the National Academy of Sciences, Vol. 252Indocyanine green nanoparticles undergo selective lymphatic uptake, distribution and retention and enable detailed mapping of lymph vessels, nodes and abnormalities12 February 2018 | Journal of Drug Targeting, Vol. 26, No. 5-6Application of Pharmacokinetics Modelling to Predict Human Exposure of a Cationic Liposomal Subunit Antigen Vaccine System7 December 2017 | Pharmaceutics, Vol. 9, No. 4Oligomeric protein complexes of apolipoproteins stabilize the internal fluid environment of organism in redfins of the Tribolodon genus [Pisces; Cypriniformes, Cyprinidae]Comparative Biochemistry and Physiology Part D: Genomics and Proteomics, Vol. 22Osmotic and diffusio-osmotic flow generation at high solute concentration. I. Mechanical approachesThe Journal of Chemical Physics, Vol. 146, No. 19Stimulus-responsive hydrogels: Theory, modern advances, and applicationsMaterials Science and Engineering: R: Reports, Vol. 93Engineering nanoporous biomaterialsInsulin regulates its own delivery to skeletal muscle by feed-forward actions on the vasculatureEugene J. Barrett, Hong Wang, Charles T. Upchurch, and Zhenqi Liu1 August 2011 | American Journal of Physiology-Endocrinology and Metabolism, Vol. 301, No. 2Membranes in Controlled Release14 December 2010Role of Membranes in Controlling Ion and Water Movements in the Lens30 May 2008Permeability of Pulmonary Vascular Endothelium30 May 2008The Permeability of Lung Capillary and Alveolar Walls as Determinants of Liquid Movements in the Lung30 May 2008The history of the capillary wall: doctors, discoveries, and debatesCharlotte Hwa, and William C. Aird1 November 2007 | American Journal of Physiology-Heart and Circulatory Physiology, Vol. 293, No. 5Phenotypic Heterogeneity of the EndotheliumCirculation Research, Vol. 100, No. 2Blood-Nerve Interface and Endoneurial HomeostasisTransendothelial Movement of Liposomes In Vitro Mediated by Cancer Cells, Neutrophils or Histamine8 May 2004 | Journal of Liposome Research, Vol. 14, No. 1-2An integrative model of coupled water and solute exchange in the heartMichael R. Kellen, and James B. Bassingthwaighte1 September 2003 | American Journal of Physiology-Heart and Circulatory Physiology, Vol. 285, No. 3Assessment of transcapillary glucose exchange in human skeletal muscle and adipose tissueWerner Regittnig, Martin Ellmerer, Günter Fauler, Gerald Sendlhofer, Zlatko Trajanoski, Hans-Jörg Leis, Lukas Schaupp, Paul Wach, and Thomas R. Pieber1 August 2003 | American Journal of Physiology-Endocrinology and Metabolism, Vol. 285, No. 2Effects of Perfusion Rate on Permeability of Frog and Rat Mesenteric Microvessels to Sodium Fluorescein22 July 2004 | The Journal of Physiology, Vol. 543, No. 3Macromolecule transfer through mesothelium and connective tissueFrancesca Bodega, Luciano Zocchi, and Emilio Agostoni1 December 2000 | Journal of Applied Physiology, Vol. 89, No. 6Carbon Dioxide Transport and Carbonic Anhydrase in Blood and MuscleCornelia Geers, and Gerolf Gros4 January 2000 | Physiological Reviews, Vol. 80, No. 2Equivalent radius of paracellular “pores” of the mesotheliumEmilio Agostoni, Francesca Bodega, and Luciano Zocchi1 August 1999 | Journal of Applied Physiology, Vol. 87, No. 2Effects of Osmotic Stress on Dextran Diffusion in Rat Neocortex Studied With Integrative Optical ImagingLian Tao1 May 1999 | Journal of Neurophysiology, Vol. 81, No. 5Cardiovascular physiology in the twentieth century: great strides and missed opportunitiesHarris J. Granger1 December 1998 | American Journal of Physiology-Heart and Circulatory Physiology, Vol. 275, No. 6Evidence of a Tubular System for Transendothelial Transport in Arterial Capillaries of the Rete Mirabile26 June 2016 | Journal of Histochemistry &amp; Cytochemistry, Vol. 45, No. 10Hemodynamic and Histopathologic Effects of Hydroxyethyl Starch and Superoxide Dismutase Following Splanchnic Arterial Occlusion in a Murine Model18 August 2016 | Vascular Surgery, Vol. 31, No. 5Transport properties of vertebrate blood-nerve barrier: Comparison with blood-brain barrierProgress in Neurobiology, Vol. 43, No. 3Macromolecule transport in and effective pore size of ethanol pretreated human epidermal membraneInternational Journal of Pharmaceutics, Vol. 105, No. 2Regulation of endothelial permeability by β-ad</t>
+          <t>The position of the knee in the density of magnetospheric ionization was measured on a high time-resolution basis using whistlers recorded during July and part of August 1963. (The knee is an abrupt decrease in magnetospheric ionization density, frequently observed at field lines with an equatorial radius of about 4 RE.) The data were obtained at Eights (64°S dipole latitude) and Byrd (70°S dipole latitude) in the Antarctic. The whistler results and results from other experiments confirm that the knee is a regular feature of the magnetosphere. For conditions of steady, moderate geomagnetic agitation (Kp = 2–4), the diurnal variation in geocentric equatorial range to the knee is remarkably repeatable. It is characterized by (1) a slow inward movement of the knee on the nightside, covering about 1.5 RE in 10 hours; (2) a slight outward movement on the dayside covering about 0.5 RE and (3) a rapid outward shift in the late afternoon covering about 1 RE in 1 hour. During periods of changing magnetic activity, the knee position changes with at most a few hours' delay, moving inward with increasing magnetic activity. The results from Eights and Byrd may be generalized to describe a three-dimensional model of thermal ionization in the magnetosphere involving a dense (∼100 el/cm3) inner region and a tenuous (∼1 el/cm3) outer region separated by a sharp field-aligned boundary, the plasmapause. During the postmidnight hours, the inward motion of the knee involves a corresponding inward motion of the ionization just inside the plasmapause. The rapid outward shift of the knee near 1800 LT does not involve an outward plasma motion, but instead involves the presence of a region of ‘new’ high-density (∼100 el/cm3) plasma in the equatorial range of about 4–5 RE. Preliminary evidence shows that, at least in the period 0000–1700 LT, the ionization inside the plasmapause rotates at approximately the angular velocity of the earth.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2335628622</t>
+          <t>https://openalex.org/W1981415532</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4200/jjhg1948.5.1</t>
+          <t>https://doi.org/10.1056/nejm196610132751506</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Fujioka (1953)</t>
+          <t>Woodward (1966)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Prehistoric Geography of Chubu District from the Point of View of Landscape Changes</t>
+          <t>Environmental Hazards</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>The Chubu district which situated in the midst of Japan, is the most important district in prehistoric Japan. For this district is the contact region of Jomon's folk and Yayoi's folk. I researched from the point of view of landscape changes what contrast had seen between Jomon's folk who lived by hunting and food gatherings, and Yayoi's folk who lately invaded this district by means of agriculture. In this paper I tried to make the distribution's map of each age's relics and reconstracted the prehistoric landscapes and recognized the regional character of this district in Prehistoric Age by projecting these each age's relics. In the First Chapter I tried mainly the reconstraction of each age's landscape, and recognized the important significans of the river routes. Then in the Second Chapter I described the distribution in each area in Chubu-district and the contrast between the Settlement of Jomon's and Yayoi's folks. Third Chapter was classified this district into next 15 sub-regions.I The Corridor Zone of the Japan Sea.1. The Gateway of Hokuriku. 2. Toyama Plains as transitional region 3. Niigata Plains which is exceeded by lagoon and lake landscape. 4. The Sado Island, which produce materials of Stone Implements.II The Chubu's mountain Zone which is the Center of Jomon Culture-Prehistoric hunting regions-4. Hida Basin which is excavated many old Jomon's pottery. 5. Suwa Basin which resembles Hida Basin. 6. The transitional Mino Plateau. 7. The River belt of Tenryu and Kiso which played the passage of prehistoric culture 8. Shinano River which is the Culture passage. 9. The Mountain belts of North East. 10. The fairylands of volcanic regions. 11. Kofu Basin.III Tokai Zone which was penetrated by Proto-Japanese Yamato Culture12. Nobi Plain, the eastern center of Yayoi Culture. 13. Mikawa Plateau. 14. The Narrow Coastal plains of Suruga Bay.</t>
+          <t>THE problem of water pollution is a part of many problems and a problem with many parts. It is involved in the larger question of waste management and control of environmental pollution. It is an important feature of the general problem of urban design. It is closely related to the larger problem of water resource utilization and conservation. It is, in part, a problem of public health. It has important economic aspects. It is affected by changing industrial technology and will require technologic innovation for its solution. Social and political demands and constraints have a great effect on the nature . . .</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2399750288</t>
+          <t>https://openalex.org/W1982138653</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1242/jeb.30.4.506</t>
+          <t>https://doi.org/10.4098/at.arch.66-12</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Swann &amp; Mitchison (1953)</t>
+          <t>Ryszkowski et al. (1966)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cleavage of Sea-Urchin Eggs in Colchicine</t>
+          <t>Comparison of estimates of numbers obtained by the methods of release of marked individuals and complete removal of rodents</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ABSTRACT Sea-urchin eggs have been treated with strong colchicine during mitosis, and examined with a variety of techniques. Polarized light observations show that cleavage can take place when the asters and spindle have completely disappeared, provided the cell has reached mid-anaphase, by which time the chromosome groups are well separated. Observations on stained sections have confirmed those with polarized light and have also shown that the minimum separation of the chromosome groups for successful cleavage is about 5 μ. Viscosity measurements have shown that colchicine destroys the gelated structure of the asters, and reduces the viscosity of the cleaving egg to about the same low value as the unfertilized egg. Cycles of chromosome condensation persist in eggs treated with weak colchicine, even though cleavage has been prevented by an early application of the colchicine. These cycles are associated with changes in the rigidity and light-scattering properties of the cortex. The relevance of these observations to some theories of cell division is discussed.</t>
+          <t>Comparison of Estimates oiNumbers Obtained by the Methods of Release of Marked Individuals and Complete Removal of Rodents [With 7 Tables &amp; 2 Figs.]The number of marked rodents present on a given day was estimated, taking into consideration not only their capture on that day, but also making use of information on their captures in preceding and following days (Calendar of catches method).These estimated numbers were compared with those estimated by means of the regression method when carrying out complete removal of the rodents in the same area.The mean difference in estimated numbers for resident individuals was 20.2%, and for all individuals caught in the study area 25.6°/o.It was demonstrated that there were differences in trappability among individuals from the same population and that entry of other individuals from the surrounding area takes place into the capture area.I. INTRODUCTION, STUDY AREAS The aim of the study was to compare estimates of the numbers of rodents obtained by two different methods.With the first method numbers were estimated on the basis of release of marked individuals, with the second, on the basis of complete removal of rodents.Investigations were made in the following areas: 1. in a forest and a meadow near the Field Station of the Institute of Ecology at Dziekanów Leśny.The wooded areas were composed of the following associations: Pino-Quercetum, Vaccinio myrtylli-Pinetum subass.molinietosum, Tilio-Carpinetum, Carici elongatae-Alnetum.The meadow formed a complex of the following associations: Glycerietum maximae, Caricetum elatae, Carici-Agrostetum, Stellario-Deschampsietum. 2. in the Mazurian Lake District near the Field Station of the Institute of Ecology at Mikołajki, in wooded areas consisting of Vaccinio myrtylli-Pinetum associations and several variants of the Pineto-Quercetum association. 3. on the "Crab-apple" island situated in Lake Beldany (Mazurian Lake District), where the following forest associations were distinguished: Solid-Franguletum, Circaeo-Alnetum, Tilio-Car pine turn 2 ).</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2519826752</t>
+          <t>https://openalex.org/W1983365724</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1242/jeb.30.1.136</t>
+          <t>https://doi.org/10.1029/jz071i005p01481</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Wiersma et al. (1953)</t>
+          <t>Holzer et al. (1966)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Physiological and Pharmacological Observations on Muscle Receptor Organs of the Crayfish, &lt;i&gt;Cambarus Clarkii&lt;/i&gt; Girard</t>
+          <t>Preliminary results from the Ogo 1 Search Coil Magnetometer: Boundary positions and magnetic noise spectra</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ABSTRACT The muscle organs recently described by Alexandrowicz in the tails of Homarus vulgaris and Palinurus vulgaris, have also been found to be present in the crayfish (Cambarus clarkii) and the rock lobster (Panulirus interruptus), and a study of them in the latter animals has been undertaken. The position of these units within the abdomen of the crayfish differs from their position in the lobsters. In almost all other respects, however, there is substantial correspondence in their morphological features. The organs are easily isolated and it is found that stretching them is accompanied by a discharge in one of the axons supplying each unit. There are two receptors in each half-segment of the abdomen and their responses show considerable differences. One has a very low threshold and can be sustained in continuous discharge for several hours. The threshold of the other is high and this receptor usually adapts completely to the most extreme stretch in less than 1 min. A phenomenon which is designated ‘over-stretch’ has been observed. All-but-maximal stretch causes a reversible cessation of the previous high-frequency discharge. The discharge can be restored by slight release of tension, but even if the tension producing ‘over-stretch’ is maintained for a sufficient length of time, discharge will resume spontaneously. The possibility that this spontaneous return is due to a slow rupture of the receptor tissues is not excluded. The muscular regions of the organs are not necessary for their sensory function. It has been possible to show that stimulation of the nerve trunk can induce contraction in these muscular regions and that such contraction results in discharge in the sensory axons. The unit with the low stretch-threshold responds to low concentrations of ACh and this effect is potentiated by eserine. In concentrations above 10−6 before eserinization and above 10−8 after eserinization, ACh consistently initiates rhythmic responses in relaxed units and augments the discharge from those under tension. ACh affects the sensory mechanism directly; the muscular regions of the organs are not necessary for its action. Atropine inhibits the ACh excitation, but only increases the response of the receptors to stretch. Eserine, except in high concentrations, has no consistent effect on the normal stretch discharge. The possibility that ACh has a role in the normal receptor mechanism is discussed, but the question is left open.</t>
+          <t>The Ogo 1 triaxial search coil magnetometer was designed to study natural magnetic fluctuations from 0.01 to 1000 cps in the vicinity of the earth. This frequency range was chosen in order to explore the magnetic spectrum between the ranges previously explored in space by dc magnetometers and extremely low frequency electromagnetic equipment. The highly eccentric Ogo 1 orbit makes possible an investigation of time-varying magnetic fields in the magnetosphere, the magnetosheath (transition region), and the interplanetary medium. The preliminary analysis of the data reported here concerns: (1) the character and location of the magnetopause and hydromagnetic bow shock over portions of the subsolar hemisphere, and (2) the characteristics of broad band magnetic noise detected in the magnetosheath behind the bow shock.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2049984031</t>
+          <t>https://openalex.org/W1983418689</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1176/ajp.109.8.617</t>
+          <t>https://doi.org/10.1126/science.152.3719.216</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Miller et al. (1953)</t>
+          <t>Bradley &amp; Wright (1966)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A COMPARISON BETWEEN UNIDIRECTIONAL CURRENT NONCONVULSIVE ELECTRICAL STIMULATION GIVEN WITH REITER'S MACHINE, STANDARD ALTERNATING CURRENT ELECTROSHOCK (CERLETTI METHOD), AND PENTOTHAL IN CHRONIC SCHIZOPHRENIA</t>
+          <t>Visceral Reflex Activity: Development in Postnatal Rabbit</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>In this study it has been demonstrated that under environmental conditions wherein opportunity for activity was available there is an improvement in the social performance of chronic schizophrenic patients treated with ECT, nonconvulsive stimulation under Pentothal, and Pentothal alone. The improvement does not vary significantly with the various types of treatment. ECT was the most difficult treatment to give owing to the apprehension shown by the patients. Although there was a change in all the social qualities discussed this was significant only as regards the increase in activity of the patients both actively and passively and in the interest the staff felt they showed in their environment. Three patients who were incontinent of feces became continent. The only significant change in the patients' psychosis was that all 30 were demonstrably hallucinating at the end of the experiment. It is felt that this may well be an indirect effect of the treatment in that the patients were participating more in a real world and presumably the more acute evidence of illness is a defense mechanism.</t>
+          <t>In postnatal rabbits there is progressive development of central regulation of the micturition reflex. During the first 1 to 2 days of postnatal life a coordinated sustained reflex may be obtained from the bladder which has been isolated from the central nervous system. Changes in reflex integration occur over the following 7 to 12 days, which result in a coordinated reflex dependent upon supraspinal influiences.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2418211987</t>
+          <t>https://openalex.org/W1985280097</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/ajplegacy.1953.174.3.371</t>
+          <t>https://doi.org/10.1001/archpedi.1966.02090140068003</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Hajdu (1953)</t>
+          <t>Johnston (1966)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mechanism of Staircase and Contracture in Ventricular Muscle</t>
+          <t>Longitudinal Growth in Thalassemia Major</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">ArticleMechanism of Staircase and Contracture in Ventricular MuscleStephen HajduStephen HajduFrom the Institute for Muscle Research, Marine Biological Laboratory, Woods Hole, MassachusettsPublished Online:01 Sep 1953https://doi.org/10.1152/ajplegacy.1953.174.3.371MoreSectionsPDF (2 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByForce-frequency relation in frog-ventricle is dependent on the direction of sodium/calcium exchange in diastoleActa Physiologica Scandinavica, Vol. 185, No. 3Regulation of Cardiac Contraction and RelaxationCirculation, Vol. 102, No. suppl_4Dynamics and Consequences of Potassium Shifts in Skeletal Muscle and Heart During ExerciseOle M. Sejersted, and Gisela Sjøgaard10 January 2000 | Physiological Reviews, Vol. 80, No. 4Hypertonic SalineVeterinary Clinics of North America: Food Animal Practice, Vol. 15, No. 3RESTING AND ACTION POTENTIALS OF CARDIAC MUSCLEAnnals of Noninvasive Electrocardiology, Vol. 3, No. 1Some Experimental Studies of Na–Ca Exchange in Heart MusclePhysiologie der KoronardurchblutungStress, Catecholamines and Ischaemic Heart DiseaseRegulation of myocardial contractility 1958–1983: An OdysseyJournal of the American College of Cardiology, Vol. 1, No. 1Studies on high affinity binding of mineralo-and glucocorticoids in rabbit aorta cytosolJournal of Steroid Biochemistry, Vol. 16, No. 2Evidence for the Presence in Arterial Walls of Intracellular-Molecular Mechanism for Action of Mineralocorticoids3 July 2009 | Clinical and Experimental Hypertension. Part A: Theory and Practice, Vol. 4, No. 9-10Studies on the mechanism of mineralocorticoid-induced hypertension: evidence for the presence of an In-Situ mechanism in the arterial wall for a direct action of mineralocorticoidsClinical Biochemistry, Vol. 14, No. 5Antiarrhythmic action of adrenergic beta-receptor blocking agentsPharmacology &amp; Therapeutics, Vol. 11, No. 1Osmotic and cell volume regulation in atrium and ventricle of the Elasmobranch skate, Raja erinaceaComparative Biochemistry and Physiology Part A: Physiology, Vol. 65, No. 4Influence of Contrast Media Osmolality on Isolated Rabbit Heart Performance30 August 2016 | Acta Radiologica. Diagnosis, Vol. 20, No. 5Rate-dependent changes in extracellular potassium in the rabbit atrium.Circulation Research, Vol. 41, No. 1MYOCARDIAL DIGOXIN UPTAKE: DISSOCIATION BETWEEN DIGITALIS-INDUCED INOTROPISM AND MYOCARDIAL LOSS OF POTASSIUM19 July 2012 | British Journal of Pharmacology, Vol. 58, No. 2The effect of heart rate on indices of myocardial contractility in the dogClinical and Experimental Pharmacology and Physiology, Vol. 2, No. 6Distribution and efflux of sodium from frog heart ventricles perfused with normal and sodium free ringer's solutionPfl�gers Archiv European Journal of Physiology, Vol. 339, No. 2Effects of Digitalis on Myocardial Ionic ExchangeCirculation, Vol. 46, No. 1Dynamics of potassium flux in cardiac arrhythmiasThe American Journal of Cardiology, Vol. 29, No. 2The Evolutionary Paradox and Biological StabilityBIOLOGICAL STABILITY AND THE EVOLUTIONARY PARADOXBiochemical and Clinical Aspects of Sarcoplasmic Reticulum FunctionThe Intrinsic Control of Myocardial Contraction — Ionic FactorsNew England Journal of Medicine, Vol. 285, No. 19The postextrasystolic T wave changeThe American Journal of Cardiology, Vol. 28, No. 5Absence of Bowditch phenomenon in the ventricular muscle of hamsters with hereditary cardiomyopathyAmerican Heart Journal, Vol. 81, No. 6Cardiovascular function in potassium-depleted dogsAmerican Heart Journal, Vol. 81, No. 5Myocardial Potassium and Ventricular Arrhythmias Following Reperfusion of lschaemic Myocardium*25 March 2008 | Australian and New Zealand Journal of Medicine, Vol. 1, No. 2The Effect of Ischemia and Alterations of Heart Rate on Myocardial Potassium Balance in ManCirculation, Vol. 42, No. 2Red Blood Cell Potassium as an Index of Total Body Potassium2 July 2016 | Angiology, Vol. 21, No. 3Elektrophysiologie der HerzmuskelfaserHämodynamische Untersuchungen bei der elektrischen Doppelstimulation des HerzensArchiv für Kreislaufforschung, Vol. 58, No. 3-4Zum Wirkungsmechanismus der Herzglykoside / The Mechanism of Action of Cardiac GlycosidesZum Wirkungsmechanismus der HerzglykosideNaunyn-Schmiedebergs Archiv f�r Pharmakologie und Experimentelle Pathologie, Vol. 263, No. 1Existence and role of a slow inward current during the frog atrial action potentialPfl�gers Archiv European Journal of Physiology, Vol. 308, No. 2CONTRACTILITY OF THE NORMAL CANINE VENTRICLEAnnals of the New York Academy of Sciences, Vol. 147, No. 8 Comparative AInfluence of Developed Tension on Myocardial Potassium Balance in the Dog HeartCirculation Research, Vol. 22, No. 6The use of86Rubidium for the determination of changes in membrane permeability in guinea pig atrial tissuePflügers Archiv, Vol. 303, No. </t>
+          <t>IN A PREVIOUS study&lt;sup&gt;1&lt;/sup&gt;of the growth patterns of children with thalassemia major (Cooley's anemia)&lt;sup&gt;2&lt;/sup&gt;it was noted that affected individuals suffered alterations of their developmental courses in terms of size attained at any one age, as well as the rate of maturation. Significant size retardations were observed in stature, sitting height, weight, biacromial (shoulder) and bicristal (iliac crest) breadths. In addition, maturation rates, as estimated from skeletal age assessments,&lt;sup&gt;3&lt;/sup&gt;were also retarded. However, even when this slowed rate of maturation was removed as a factor, size deficiencies were noted in all but bicristal breadth, although these deficiencies were less. Thus it appears that there are retardations of both amount of growth and maturation rate in thalassemia. The size retardations are partially the result of growth failures, partially of slower maturation rates (fast-growing children are almost invariably larger than slow-growers). In spite of the clear-cut nature of</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1550573566</t>
+          <t>https://openalex.org/W1985690367</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0007-1536(53)80028-8</t>
+          <t>https://doi.org/10.1139/f66-126</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Gibson (1953)</t>
+          <t>Castell et al. (1966)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Crown rot, a seedling disease of groundnuts caused by Aspergillus niger</t>
+          <t>Oxidative Rancidity in Frozen Stored Cod Fillets</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Field experiments carried out in East Africa have shown that seed dressings with Thiram (tetramethylthiuram disulphide) preparations may reduce the incidence of crown rot in groundnut (Arachis hypogea L.) seedlings by at least 50 %. Seed treatment with organo-mercurials, on the other hand, has generally produced a substantial increase in the incidence of crown rot. Experiments designed to elucidate this effect of organo-mercurial seed dressings have indicated that it cannot be ascribed to any phytotoxic action. The effect can probably be attributed to the selectively toxic action of organo-mercurials upon the fungus flora of the soil in the vicinity of the treated seed. This selective toxicity has been shown to operate to the advantage of Aspergillus niger, certain strains of which have proved to be much more tolerant of organo-mercurials than other fungi of Urambo soil. Tolerant species of Penicillium have occasionally been encountered. Mercury tolerant strains of Aspergillus niger have been isolated from Urambo soil; they are distinguished from mercury sensitive strains both by a greater and more rapid development of acidity in the culture medium, and by a greater virulence in the production of crown rot when inoculated to groundnut seedlings.</t>
+          <t>During frozen storage at −18 and −25 C the lipids in cod muscle did not undergo oxidation, as indicated by thiobarbituric acid values and odours. In fact they underwent a marked decrease in the ease with which they were oxidized by added Cu ++ , Fe ++ , or hemoglobin. This change preceded the protein denaturation that occurs in stored frozen muscle and appeared to be directly related to the formation of free fatty acids in the muscle. A similar change in the sensitivity to metal-induced oxidations could be produced in fresh, unfrozen muscle by the addition of mixed fatty acids prepared from several marine lipids.The addition of four pure saturated fatty acids had little or no effect on the development of rancidity in muscle, either in the presence or absence of added metal catalysts. Fish muscle appears to exert a protective action against the oxidation of added linolenic or linoleic acids. Unlike the mixed marine fatty acids, pure linoleic and linolenic acids did not suppress the development of metal-induced rancidities in fish muscle lipids.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2322479849</t>
+          <t>https://openalex.org/W1991723012</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/soutjanth.9.4.3628669</t>
+          <t>https://doi.org/10.1364/ao.5.000647</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Willey (1953)</t>
+          <t>Cabezas et al. (1966)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>A Pattern of Diffusion-Acculturation</t>
+          <t>Dynamic Measurements of Phase Shifts in Laser Amplifiers</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessA Pattern of Diffusion-AcculturationGordon R. WilleyGordon R. Willey Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by Volume 9, Number 4Winter, 1953 Article DOIhttps://doi.org/10.1086/soutjanth.9.4.3628669 Views: 20Total views on this site Citations: 12Citations are reported from Crossref Journal History This article was published in the Southwestern Journal of Anthropology (1945-1972), which is continued by the Journal of Anthropological Research (1973-present). PDF download Crossref reports the following articles citing this article:Aaron R. Comstock, Robert A. Cook, John H. Blitz, Mary L. Simon Climate Change and Migration Among Early Agriculturalists: From Global to Mississippian Perspectives, (Jun 2022): 1–34.https://doi.org/10.1007/978-3-030-89082-7_1Thomas J. Pluckhahn, Neill J. Wallis, Victor D. Thompson The History and Future of Migrationist Explanations in the Archaeology of the Eastern Woodlands with a Synthetic Model of Woodland Period Migrations on the Gulf Coast, Journal of Archaeological Research 7 (Jan 2020).https://doi.org/10.1007/s10814-019-09140-xBrandon T. Ritchison Investigating 14th century immigration and settlement response on the Georgia Coast, USA, Journal of Archaeological Science: Reports 21 (Oct 2018): 606–618.https://doi.org/10.1016/j.jasrep.2018.08.047John E. Kelly, James A. Brown Cahokia: The Processes and Principles of the Creation of an Early Mississippian City, (Apr 2014): 292–336.https://doi.org/10.1017/CBO9781107110274.010Rahul Oka, Chapurukha M. Kusimba The Archaeology of Trading Systems, Part 1: Towards a New Trade Synthesis, Journal of Archaeological Research 16, no.44 (Apr 2008): 339–395.https://doi.org/10.1007/s10814-008-9023-5Jon L. Gibson "Formed from the Earth at That Place": The Material Side of Community at Poverty Point, American Antiquity 72, no.33 (Jan 2017): 509–523.https://doi.org/10.2307/40035858Floyd W. Rudmin Critical History of the Acculturation Psychology of Assimilation, Separation, Integration, and Marginalization, Review of General Psychology 7, no.11 (Mar 2003): 3–37.https://doi.org/10.1037/1089-2680.7.1.3Timothy R. Pauketat Resettled Farmers and the Making of a Mississippian Polity, American Antiquity 68, no.11 (Jan 2017): 39–66.https://doi.org/10.2307/3557032Edward M. Schortman, Patricia A. Urban The Place of Interaction Studies in Archaeological Thought, (Jan 1992): 3–15.https://doi.org/10.1007/978-1-4757-6416-1_1EDWARD M. SCHORTMAN, PATRICIA A. URBAN Modeling Interregional Interaction in Prehistory, (Jan 1987): 37–95.https://doi.org/10.1016/B978-0-12-003111-5.50005-1R. P. Schaedel Incipient Urbanization and Secularization in Tiahuanacoid Peru, American Antiquity 31, no.3Part13Part1 (Jan 2017): 338–344.https://doi.org/10.2307/2694736Gordon R. Willey, Charles C. Di Peso, William A. Ritchie, Irving Rouse, John H. Rowe, Donald W. Lathrap An Archaeological Classification of Culture Contact Situations, Memoirs of the Society for American Archaeology 11 (Jun 2018): 2–30.https://doi.org/10.1017/S0081130000001441</t>
+          <t>Optical length variations in laser amplifier rods have been studied using two interferometers and the coherent 6328 Å output from a helium-neon laser for the probe beam. The phase shifts measured during the excitation or pump period amount to many π radians even for short (0.6 cm) and moderately pumped rods of ruby and neodymium glass. The results indicate the predominantly thermal nature of these pump-induced phase shifts.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W819394573</t>
+          <t>https://openalex.org/W1994057526</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/soutjanth.9.3.3628702</t>
+          <t>https://doi.org/10.1016/0022-5088(66)90064-6</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fenenga (1953)</t>
+          <t>Vucht (1966)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>The Weights of Chipped Stone Points: A Clue to Their Functions</t>
+          <t>Influence of radius ratio on the structure of intermetallic compounds of the AB3 type</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessThe Weights of Chipped Stone Points: A Clue to Their FunctionsFranklin FenengaFranklin Fenenga Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMoreDetailsFiguresReferencesCited by Volume 9, Number 3Autumn, 1953 Article DOIhttps://doi.org/10.1086/soutjanth.9.3.3628702 Views: 7Total views on this site Citations: 45Citations are reported from Crossref Journal History This article was published in the Southwestern Journal of Anthropology (1945-1972), which is continued by the Journal of Anthropological Research (1973-present). PDF download Crossref reports the following articles citing this article:Erik J. Marsh, Carina Llano, Valeria Cortegoso, Silvina Castro, Lucia Yebra The bow and arrow in South America, Journal of Anthropological Archaeology 69 (Mar 2023): 101471.https://doi.org/10.1016/j.jaa.2022.101471Matías E. Medina, Gisela Sario, Sebastián Pastor Bone spearheads from the Late Prehispanic Period of Sierras of Cordoba (Argentina), International Journal of Osteoarchaeology 8 (May 2022).https://doi.org/10.1002/oa.3099Craig S. Smith The bow and arrow, population, environment, and seeds: Intensification in southwest Wyoming, Journal of Anthropological Archaeology 62 (Jun 2021): 101300.https://doi.org/10.1016/j.jaa.2021.101300Matías E. Medina, Imanol Balena Tiny Arrow Points, Bone-Tipped Projectiles, and Foraging During the Late Prehispanic Period (Sierras of Córdoba, Argentina), (Jan 2021): 33–58.https://doi.org/10.1007/978-3-030-61187-3_2María Isabel González, Paula D. Escosteguy, Mónica C. Salemme, M. Magdalena Frère, Celeste Weitzel, Rodrigo Vecchi Assessing Strategies for Coypu Hunting and Use in the Salado River Depression (Buenos Aires Province, Argentina), (Jan 2021): 59–81.https://doi.org/10.1007/978-3-030-61187-3_3Silvina Castro, Lucía Yebra, Valeria Cortegoso, Erik Marsh, Agustín Castillo, Agustina Rughini, María Victoria Fernández, Raven Garvey The Introduction of the Bow and Arrow Across South America’s Southern Threshold Between Food-Producing Societies and Hunter-Gatherers, (Jan 2021): 137–158.https://doi.org/10.1007/978-3-030-61187-3_6Yonatan Sahle, Alison S. Brooks, Michael D. Petraglia Assessment of complex projectiles in the early Late Pleistocene at Aduma, Ethiopia, PLOS ONE 14, no.55 (May 2019): e0216716.https://doi.org/10.1371/journal.pone.0216716Janet Rafferty Reverse Engineering Stone Atlatl Dart Points, Lithic Technology 43, no.33 (Apr 2018): 151–165.https://doi.org/10.1080/01977261.2018.1462977Guillermo Heider, Diego Rivero , Latin American Antiquity 29, no.33 ( 2018): 572.https://doi.org/10.1017/laq.2018.20Enrique Alejandro Moreno Hunting Technology and Prepared Landscapes in the South-Central Andes, Lithic Technology 41, no.44 (Aug 2016): 268–292.https://doi.org/10.1080/01977261.2016.1207363Wallace Karl Hutchings When Is a Point a Projectile? Morphology, Impact Fractures, Scientific Rigor, and the Limits of Inference, (May 2016): 3–12.https://doi.org/10.1007/978-94-017-7602-8_1Marcelo Cardillo, Jimena Alberti The evolution of projectile points and technical systems: A case from Northern Patagonian coast (Argentina), Journal of Archaeological Science: Reports 2 (Jun 2015): 612–623.https://doi.org/10.1016/j.jasrep.2014.11.005Adam N. Rorabaugh, Tiffany J. Fulkerson TIMING OF THE INTRODUCTION OF ARROW TECHNOLOGIES IN THE SALISH SEA, NORTHWEST NORTH AMERICA, Lithic Technology 40, no.11 (Jan 2015): 21–39.https://doi.org/10.1179/2051618514Y.0000000009Jon M. Erlandson, Jack L. Watts, Nicholas P. Jew Darts, Arrows, and Archaeologists: Distinguishing Dart and Arrow Points in the Archaeological Record, American Antiquity 79, no.11 (Jan 2017): 162–169.https://doi.org/10.7183/0002-7316.79.1.162W. Karl Hutchings Measuring use-related fracture velocity in lithic armatures to identify spears, javelins, darts, and arrows, Journal of Archaeological Science 38, no.77 (Jul 2011): 1737–1746.https://doi.org/10.1016/j.jas.2011.03.005 References, (Apr 2011): 318–323.https://doi.org/10.1002/9781444390155.refsJim A. Railey Reduced Mobility or the Bow and Arrow? Another Look at “Expedient” Technologies and Sedentism, American Antiquity 75, no.22 (Jan 2017): 259–286.https://doi.org/10.7183/0002-7316.75.2.259Nathan Stevens, Brian Codding Inferring the Function of Projectile Points from the Central Coast of Alta California, California Archaeology 1, no.11 (Jul 2013): 7–27.https://doi.org/10.1179/cal.2009.1.1.7R. Lee Lyman, Todd L. VanPool, Michael J. O’Brien The diversity of North American projectile-point types, before and after the bow and arrow, Journal of Anthropological Archaeology 28, no.11 (Mar 2009): 1–13.https://doi.org/10.1016/j.jaa.2008.12.002James C. Chatters A Macroevolutionary Perspective on the Archaeological Record of North America, (Aug 2009): 213–234.https://doi.org/10.1007/978-1-4419-0682-3_8TODD L. VANPOOL THE SURVIVAL OF ARCHA</t>
+          <t>Attempts have been made to investigate the factors governing the relative stability of the various structure types found by mixing different kinds of atoms, A or B, in a large number of AB3 intermetallic compounds related to Cu3Au. A geometric factor, leading to the radius-ratio dependent hexagonality of stacking character, as recognized by Van Vucht and Buschow in rare-earth trialuminides, seems to be predominant in many cases and may be used in predicting ternary phases. This factor has also served as the basis on which trial structures are proposed for three new phases encountered as transition structures between the Cu3Au and the Ni3Sn types, namely, (Ba0.95,Sr0.05)Pb3 with a rhombohedral unit cell (a = 12.180 Å, α = 34°43'); (Ti0.97,Nb0.03)Ni3 with a hexagonal unit cell (a = 5.10 Å, c = 20.80 Å, c/a = 4.08), and Ti(Ni0.11,Pt0.89)3 with a hexagonal unit cell (a = 5.482 Å, c = 15.65 Å, c/a = 2.85). The geometric factor may even be seen as influencing a transition of the layer type to be stacked. A second factor, the electronegativity difference of the atoms A and B, is recognized as the principal reason why the radius-ratio rule cannot be given in a quantitative manner. In many cases a third factor, the valence-electron concentration prevails.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1978942473</t>
+          <t>https://openalex.org/W1998205763</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1098/rspb.1953.0013</t>
+          <t>https://doi.org/10.1002/jps.2600551117</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MacArthur (1953)</t>
+          <t>Krüger-Thiemer &amp; Eriksen (1966)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>The Pauling-Corey models and fibrous proteins</t>
+          <t>Mathematical Model of Sustained-Release Preparations and Its Analysis</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>The new American ideas form a large part of the basis of the present symposium. To present detailed structures that have to stand up to the vast factual array in every aspect of protein-structure analysis from physical chemistry to biology, medicine to textiles, without continual adjustment of essentials, demands courage, controlled imagination and the broadest focus. If in part I seem unduly critical, there is no attempt to denigrate: where the roads fork, discussion is most further-some. As my own approach to these problems has been through long-chain com­pounds, I intend to consider only one structure, the ‘3·7- or α -helix’, in relation to fibrous proteins, especially α -keratin. The strength of the Pauling-Corey models lies in their broad and solid physicochemical postulates. Their synthesis (Pauling, Corey &amp;amp; Branson 1951) is based on: (1) bond lengths and angles precisely determined from chemical analogues, (2) polypeptide chains, (3) equivalence of residues, (4) resonance near-planarity of the peptide amide group, and (5) complete axial intra -chain H-bridging. (1) and (2) are common to most theories. (3), following Huggins (1943), necessarily neglects the varied R side-chain groups, may be invalid, and excludes (save in the degenerate case of a plane ribbon) other than helical models. (4) is a compelling feature greatly narrowing possibilities. Based on energy considerations, (5) yields a chain configuration self-controlled, thus differing from those of Astbury (1942) and the Japanese analysts (Mizushima 1948, 1950), which are partly dependent on sidechain nature. Infra-red measurements (Ambrose &amp;amp; Elliott 1951) for polypeptides in dilute solution favour the former. Infra-red (Mizushima et al . 1949) and activa­tion energy (Speakman 1947) estimates on the α → β structural transition energy for keratin scarcely vindicate full H-bridging of either intra or inter -chain location.</t>
+          <t>A pharmacokinetic model, involving first-order processes for drug release, absorption, and elimination, may be used for the description of the behavior of sustained-release preparations consisting of slowly and immediately available fractions. The shift of the rate-determining step, as the relative rates of absorption and release are changed, can be shown both mathematically and by analog computer simulation. These theoretical results are used for interpretation of experimental data with a new sulfa drug of low solubility, 2-sulfanilamido-5-methyl-pyrimidine, compressed tablets of which behave as a sustained-release preparation.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2078430932</t>
+          <t>https://openalex.org/W2003763482</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1378/chest.24.2.191</t>
+          <t>https://doi.org/10.1063/1.1708543</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Adler (1953)</t>
+          <t>Nowik et al. (1966)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Phthisiogenetic Considerations Based on Tomographic Analysis of 320 Consecutive Cases of Localized Pulmonary Tuberculosis in Adults * *Presented at the First Annual Meeting of the Israel Chapter of the American College of Chest Physicians in Raanana, Israel, on September 12, 1951.</t>
+          <t>Structure and Magnetic Properties of Dy2Mn4O9</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>A method for tomographically estimating electromagnetic (EM) wave attenuation based on analysis of centroid frequency downshift (CFDS) of impulse radar signals is described and applied to cross-hole radar data. The method is based on a constant-Q model, which assumes a linear frequency dependence of attenuation for EM wave propagation above the transition frequency. The method uses the CFDS to construct the projection function. In comparison with other methods for estimating attenuation, the CFDS method is relatively insensitive to the effects of geometric spreading, instrument response, and antenna coupling and radiation pattern, but requires the data to be broadband so that the frequency shift and variance can be easily measured. The method is well-suited for difference tomography experiments using electrically conductive tracers. The CFDS method was tested using cross-hole radar data collected at the U.S. Geological Survey Fractured Rock Research Site at Mirror Lake, New Hampshire (NH) during a saline-tracer injection experiment. The attenuation-difference tomogram created with the CFDS method outlines the spatial distribution of saline tracer within the tomography plane.</t>
+          <t>Single crystals of Dy2Mn4O9, a new rare-earth transition metal oxide, were grown by a three-component flux method. X-ray studies indicate that the space group of this crystal is Pbam and the dimensions of the orthorombic unit cell are; a=7.24, b=8.44, c=5.62 Å. Magnetization measurements at 1.3° to 300°K in a magnetic field of 14.2 kOe show that an antiferromagnetic transition takes place in Dy2Mn4O9 at about 8°K. Large magnetic anisotropy is observed, the easy direction of magnetization lying along the a axis. At 4.2°K in a field of 100 kOe the magnetization along the c axis is less than 50% of that along the a-axis. In Mössbauer studies of the 26-keV γ-transition in 161Dy typical paramagnetic relaxation spectra were observed, from which the ``g'' tensor of the ground stark level of the Dy3+ ions was deduced; gz=18.5gx≈0, gy≈0. The spin-relaxation time of the Dy ions at 5°K was estimated to be 2×10−9 sec.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1977790480</t>
+          <t>https://openalex.org/W2013548709</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1098/rspb.1953.0030</t>
+          <t>https://doi.org/10.1139/z66-095</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Eddy (1953)</t>
+          <t>Rothfels &amp; Freeman (1966)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Death rate of populations of &lt;i&gt;Bact. lactis aerogenes&lt;/i&gt; III. Interpretation of survival curves</t>
+          <t>THE SALIVARY GLAND CHROMOSOMES OF THREE NORTH AMERICAN SPECIES OF TWINNIA (DIPTERA: SIMULIIDAE)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Most theories of the survival curve postulate either a progressive action of the lethal agent on cells with large inherent differences of resistance, or random events such as encounters between the agent and a sensitive region of the cells. A survey of the experimental evidence, however, suggests that death of the bacterial cell involves not only a progressive destruction of essential cell activities, but may also be conditioned at some stage by a random combina­tion of various independent events. The form of the survival curve depends essentially on the speed of the former process in relation to the probability of the latter. Factors modifying this form are: (1) intrinsic differences between individual cells, which, however, appear not to be the major cause of variation of survival times, and (2) the occurrence, in favourable circumstances, of adaptive adjustments. It is the element of chance in survival that accounts for the frequent observation of extremely skew distributions of survival times (and in the limit nearly logarithmic decline curves). It probably arises from the fact that the concentrations of various molecular species show complex fluctuations, at the appropriate phase of which certain cell activities fall below a critical level for viability.</t>
+          <t>The salivary gland chromosomes of the three known North American species of Twinnia Stone and Jamnback are described, and compared with those of Prosimulium Roubaud. Twinnia tibblesi S. and J. has the standard arm association and the standard sequence in IS, II, IIIL. It differs from standard in inversions IL-1, IIIS-2,3, and a repatterning of the centromere region of chromosome III. Twinnia nova (Dyar and Shannon) and T. biclavata Shewell share these T. tibblesi traits and, in addition, have, in common, inversion IIIL-1 and a whole arm interchange giving the combinations IIL, IIIL and IIS, IIIS. Twinnia biclavata differs from T. nova by inversion IS-1 and a nucleolar shift. Both are good species. Evidence is presented that Twinnia is phylogenetically intermediate between Gymnopais Stone and the subgenus Helodon Enderlein of Prosimulium.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3130799346</t>
+          <t>https://openalex.org/W2013708014</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0006-3002(53)90189-9</t>
+          <t>https://doi.org/10.1104/pp.41.1.45</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Roche et al. (1953)</t>
+          <t>Morgan &amp; Gausman (1966)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sur la deshalogénation enzymatique des iodotyrosine par le corps thyroïde et sur son rôle physiologique. II.</t>
+          <t>Effects of Ethylene on Auxin Transport</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>La deshalogénase a été extraite du corps thyroïde et quelques-unes de ses propriétés ont été étudiéesgrâce à l'emploi de substrats marqués par 82Br ou par 131I. Elle libère ceux-ci à l'état d'halogénures et est inhibée par l'acide monoiodoacétique. Il est possible que l'on doive la considérer comme une déhydrogénase à groupement -SH. 2. La spécificité de l'enzyme n'est pas régie par la nature de l'halogène, mais par celle du cycle auquel celui-ci est fixé. Les iodo- et bromotyrosines sont décomposées par lui, alors qu'il est sans action sur les dérivé iodés et bromés de la thyronine, entre autressur les deux produits hormonaux du corps thyroïde: la 3:5:3′-triiodothyronine et la thyroxine, et la thyroxine, et sur les combinaisons peptidiques des mêmes acides aminés iodés prśents dans la thyroglobuline. Il est donc très peu probable que le dérivé triiodé présent dans celle-ci soit un produit de deshalogénation de la thyroxine; sa formation par condensation de la 3-monoiodotyrosine à la 3:5-diidotyrosine doit être envisagée 3. L'Hormone thyréotrope antéhypophysaire (TSH) stimule l'activité désiodante du corps thyroïde chez le cobaye et chez le rat; l'effet antithydo``idien du 6-N-propylthiouracile n'affecte pas ce processus. 1. Dehalogenase has been extracted from the thyroid gland and some of its properties have been studied with the help of substrates labelled with 82Br or 131I. It liberates these in the state of halogenides and is inhibited by monoiodoacetic acid. It is possible that it must be considered as a dehydrogenase with a -SH grouping. 2. The specificity of the enzyme is not decided by the nature of the halogen but by that of the ring to which the latter is connected. Iodo- and bromo-tyrosines are decomposed by it, while it has no action on the iodine and bromine derivatives of thyronine, such as, the two hormone products of the thyroid gland: 3:5:3′-triiodothyronine and thyroxine, and on the peptidic combinations of the same iodoamino acids present in thyroglobuline. It is not very probable then that the triiodo derivative present in the latter is a dehalogenation product of thyroxine: its formation by condensation of 3-monoiodotyrosine and 3:5-diiodotyrosine must be considered. 3. The thyrotropic hormone of the antehypophysis (TSH) stimulates the deiodo activity of the thyroid gland of the guinea pig and rat; the antithyroid effect of 6-N-propylthiouracil does not affect this process. 1. Deshalogenase wurde aus der Schilddrüse extrahiert und einige ihrer Eigenschaften unter Verwendung von mit 82Br oder 131J markiertem Substrat untersucht. Die Deshalogenase setzt sie als Halogene frei und wird durch Monojodessigsäure gehemmt. Es ist möglich, dass man sie als eine Dehydrogenase mit -SH Gruppierung betrachten muss. 2. Die Enzymspezifität wird nicht durch die Art des Halogens bestimmt, sondern durch die Art des Cyclus mit dem dieses verbunden ist. Jod- und Bromtyrosin werden von ihr zersetzt, während sie ohne Wirkung auf die Jod- und Bromthyroninderivate ist, u.a. auf die beiden hormonalen Produkte der Schilddrüse dem 3:5:3′-Trijodthyronin und dem Thyroxin und auf die im Thyroglobulin anwesenden Peptidverbindungen der gleichen Jodaminosäuren. Es ist daher sehr wenig wahrscheinlich, dass das im Thyroglobulin anwesende Trijodderivat ein Deshalogenierungsprodukt des Thyroxins ist. Seine Bildung durch Kondensation von 3-Monojodtyrosin und 3:5-Dijodtyrosin muss ins Auge gefasst werden. 3. Die thyrotropen Hormone des Hypophysenvorderlappens stimulieren die desjodierende Aktivität der Schilddrüse beim Meerschweinchen und bei der Ratte; der antithyroide Effekt des 6-N-Propylthiouracils beeinflusst den Prozess nicht.</t>
+          <t>The effect of ethylene on the uptake, distribution and polar transport of C(14) from indole-3-acetic acid-2-C(14) and naphthalene acetic acid-1-C(14) in tissue sections was studied. Test species were cotton (Gossypium hirsutum, L.) and cowpea (Vigna sinensis, Endl.). Generally, incubation of tissue or intact plants with ethylene reduced the degree of polar auxin transport. Ethylene inhibited the movement of both auxins in stem tissue and IAA in petiole tissue of cotton. The effect of ethylene on auxin movement in cow-peas was more complex. Ethylene apparently inhibited transport in younger petiole and stem tissue, but stimulated the process to a small but significant degree in basal petiole segments.Ethylene, in some experiments, reduced C(14) (auxin) uptake. This reduction was consistently smaller than the inhibition of transport. Effects upon transport were observed when uptake was not different. Differences in uptake declined as the period of incubation with auxin was lengthened, but transport was inhibited for up to 23 hours.It is proposed that ethylene may, through its effect on transport, cause localized shortages and surpluses of auxin which in turn contribute to symptoms now associated with the response of sensitive species to ethylene.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2422837454</t>
+          <t>https://openalex.org/W2015286104</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/3893766</t>
+          <t>https://doi.org/10.1103/revmodphys.38.567</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Smith (1953)</t>
+          <t>Андроникашвили &amp; Mamaladze (1966)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>History of Grazing Industry and Range Conservation Developments in the Rio Grande Basin</t>
+          <t>Quantization of Macroscopic Motions and Hydrodynamics of Rotating Helium II</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>I T IS PARTICULARLY appropriate that this panel discussion on “Ranges as Source Areas for Water for Downstream Use” be carried on in Albuquerque -here in the heart of the Upper Rio Grande watershed. For this area is the site of the earliest established irrigation and range agriculture in the United States; and that combination of activities remains as the most important characteristic of this watershed today. Furthermore, there is here displayed the classic example of what years of misuse and abuse of the surface resources in an upper watershed can result in for the generations that follow. I mean in terms of baffling physical problems to be solved and, more particularly, of threats t!o the continued economic stability of the people concerned. In recent years the Upper Rio Grande watershed and its problems have received considerable attention from many individuals and agencies concerned with research, with planning, with action programs or combinations of all three. Quite naturally perhaps, major attention has concentrated in the main stem of the river and in certain tributaries, where ,the bulk of the population has attached itself to the irrigated land. It is there that the problems affecting water or created by water, which is the area’s most important natural resource, become most pressing and most generally recognized. In fact nowhere in the West are the ills that plague irrigated land and the delivery of irrigation water more strongly in evidence than in that reach of the Rio Grande that lies in New Mexico. On the other hand, as most of us realize, similar situations, scarcely less aggravated, are to be found in many another watershed, large and small, in the semi-arid Western country. Even the superficial observer of the situation here recognizes these various ills: the sedimentation of the storage reservoir that reduces its capacity and shortens its useful life; the aggradation of the main river channel and its tributaries, which not only results in actual floods but makes the flood threat yearly more severe, renders drainage systems inoperative, causes water-logging of irrigable land and increases greatly the maintenance cost of the irrigation system; and through it all, the enormous water losses that are induced in one way or another and which the agricultural economy can by no means afford. When all these ills are analyzed I believe most students of the problem will agree that the root of our trouble here lies in the dislodgment of soil from its original site in the upper watershed and its progressive movement downstream from tributary channel to main channel and so to an ultimate resting place behind the Elephant Butte Dam. The results of this sedimentation process, that is, the outward manifestations or symptoms of the disease, are what have captured the popular imagination and attention to the</t>
+          <t>This paper is a review of experimental data and theoretical studies devoted to the rotating helium ii problem. The problem arose when helium ii appeared to be rotating as a whole in a uniformly rotated container, while dragging of its superfluid component into rotation of a cylindrical vessel seemed impossible due to the absence of viscosity and Landau's requirement curl ${\mathrm{v}}_{s}=0$. Later it was found that imitation of a solid body rotation by helium ii is realized by means of Onsager-Feynman's vortex lines which possess quantized circulation. In a uniformly rotating vessel they are distributed approximately uniformly along its cross section, aligned parallel to the axis of rotation, and cause a complicated velocity distribution at which curl ${\mathrm{v}}_{s}=(\frac{2\ensuremath{\pi}\ensuremath{\hbar}}{m}){\ensuremath{\Sigma}}_{v}\ensuremath{\delta}(\mathrm{r}\ensuremath{-}{\mathrm{r}}_{v})$, that is, Landau's requirement is valid everywhere excluding singular lines where the curl is equal to infinity (${\mathrm{r}}_{v}$ is a two-dimensional radius vector of a vortex line in an arbitrary plane perpendicular to the axis of rotation).In the review the experiments are described in which both an averaged picture of the joint rotation of the superfluid and the normal components is displayed and the studies in which the existence of vortex peculiarities is manifested in a clear manner. The measurements of the meniscus of rotating helium ii and its angular momentum belong to the first group of these experiments ("integral" ones). Propagation of second sound, oscillations of solid bodies immersed into helium ii, passage of negative ions, and different relaxation processes (acceleration and deceleration of the vessel, changes of temperature, etc.) from the second group ("local" experiments). The experiments in which the superfluid performs potential rotation, which can be persistent in the vessel at rest are also described. Vortex lines are absent there and the circulation of velocity can reach the value equal to a lot of elementary circulations.Special attention is devoted to the problem of the nature of the phase transition helium i-helium ii (and back) in the state of rotation.The properties of rotating helium ii illustrate brightly the main peculiarity of a quantum liquid, i.e., its complete inability to perform nonpotential motions. They show that Landau's requirement curl ${\mathrm{v}}_{s}=0$ remains valid even when the thermodynamical condition of the free-energy ($E\ensuremath{-}L{\ensuremath{\omega}}_{0}$) minimization gives preferrence to the velocity distribution of the type $v={\ensuremath{\omega}}_{0}r$.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1485800458</t>
+          <t>https://openalex.org/W2019382176</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7326/0003-4819-38-1-130</t>
+          <t>https://doi.org/10.1063/1.1704946</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Dodgson &amp; Hoffman (1953)</t>
+          <t>Willis (1966)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SENSORY NEUROPATHY ASSOCIATED WITH CARCINOMA OF THE ESOPHAGUS: REPORT OF A CASE</t>
+          <t>Model of Interacting Radiation and Matter. III. Multimode Gas Lasers</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Case Reports1 January 1953SENSORY NEUROPATHY ASSOCIATED WITH CARCINOMA OF THE ESOPHAGUS: REPORT OF A CASEM. C. H. DODGSON, M.D., H. L. HOFFMAN, M.D., F.R.C.P.M. C. H. DODGSON, M.D.Search for more papers by this author, H. L. HOFFMAN, M.D., F.R.C.P.Search for more papers by this authorAuthor, Article, and Disclosure Informationhttps://doi.org/10.7326/0003-4819-38-1-130 SectionsAboutPDF ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinkedInRedditEmail ExcerptAlthough it is well recognized that degenerations in the peripheral and central nervous systems may accompany carcinoma in the absence of malignant metastases,1-6no further histologically proved cases of sensory neuropathy have been reported since those of Denny Brown, both of which occurred with carcinoma of a bronchus. In these he described a primary degeneration of the cells of the dorsal root ganglia, with degeneration of the dorsal columns of the spinal cord, dorsal nerve roots and of a large proportion of fibers of those peripheral nerves which were examined. In addition, there was an apparent primary degeneration of the...Bibliography1. Greenfield JG: Subacute spino-cerebellar degeneration arising in elderly patients, Brain 57: 161, 1934. CrossrefGoogle Scholar2. Zulch KJ: Anatomical nature of atrophy of the cerebellar cortex, Deutsche Ztschr. f. Nervenh. 159: 501, 1948. CrossrefGoogle Scholar3. Denny-Brown D: Primary sensory neuropathy with muscular changes associated with carcinoma, J. Neurol., Neurosurg. and Psychiat. 11: 73, 1948. CrossrefGoogle Scholar4. Wyburn-Mason R: Bronchial carcinoma presenting as polyneuritis, Lancet 1: 203, 1948. CrossrefMedlineGoogle Scholar5. LennoxPrichard BS: The association of bronchial carcinoma and peripheral neuritis, Quart. J. Med. 19: 97, 1950. MedlineGoogle Scholar6. BrainDanielGreenfield WRPMJG: Subacute cortical cerebellar degeneration and its relation to carcinoma, J. Neurol., Neurosurg. and Psychiat. 14: 59, 1951. CrossrefGoogle Scholar7. GuichardVignon AG: Carcinomatous metastatic polyradiculoneuritis, J. de méd. de Lyon 30: 197, 1949. MedlineGoogle Scholar8. EinarsonRingsted LA: The effect of chronic vitamin E deficiency in the nervous system and the skeletal musculature of adult rats; a neurotropic factor in wheat germ oil, 1938, Leven &amp; Munksgaard, Copenhagen. Google Scholar9. MorgulisWilderEppstein SVMSH: Further studies on dietary factors associated with nutritional muscular dystrophy, J. Nutrition 16: 219, 1938. CrossrefGoogle Scholar10. Pappenheimer AM: Pathology of nutritional muscular dystrophy in young rats, Am. J. Path. 15: 179, 1939. MedlineGoogle Scholar11. WintrobeMillerLisco MMJLH: Relation of diet to occurrence of ataxia and degeneration in the nervous system of pigs, Bull. Johns Hopkins Hosp. 67: 377, 1940. Google Scholar12. KluverWeil HA: Carcinomas of tongue in monkeys and pathological changes in the central nervous system, J. Neuropath. and Exper. Neurol. 7: 144, 1948. CrossrefGoogle Scholar This content is PDF only. To continue reading please click on the PDF icon. Author, Article, and Disclosure InformationAffiliations: *Received for publication May 16, 1952.From the Burdon Mental Research Department, Stoke Park Colony, Bristol, and the Royal United Hospital, Bath, England. PreviousarticleNextarticle Advertisement FiguresReferencesRelatedDetails Metrics Cited byDorsal Root Ganglion DisordersAnti-Hu-associated Paraneoplastic Encephalomyelitis with Esophageal Small Cell CarcinomaParaneoplasia and Autoimmunologic Injury of the Nervous System: The Anti-Hu SyndromeInflammatory Sensory PolyganglionopathiesSubacute sensory neuropathy: A remote effect of carcinomaAxonal degeneration in the sural nerves of cancer patientsPARANEOPLASTIC SYNDROMES OF NERVE, MUSCLE, AND NEUROMUSCULAR JUNCTIONPolyneuropathie und Carpaltunnelsyndrom beim MyelomCarcinoma of the esophagus involving the vagus nerves associated with gastric retention simulating pyloric obstructionBronchogenic Carcinoma and the Peripheral NeuromyopathiesZur metacarcinomatösen Neuromyopathie beim kleinzelligen BronchuscarcinomPOLYNEURITIS AND RENAL CARCINOMANeuromuscular disorders associated with malignant neoplastic diseasePeripheral Neuropathy (Non-invasive) Associated with LymphomaBRADFORD M. BLANCHARD, M.D.CARCINOMATOUS NEUROPATHY*MONROE THOMAS DIAMOND, M.D., F.A.C.P.THE NEUROPATHY OF MULTIPLE MYELOMAMangelzuständeCarcinoma of the Lung Presenting as AtaxiaPRIMARY SENSORY NEUROPATHY IN A CASE OF BRONCHOGENIC CARCINOMAMALIGNANT SENSORY NEUROPATHYNeurological Complications of Bronchial CarcinomaDiscussion: Unusual Manifestations of Bronchial Carcinoma 1 January 1953Volume 38, Issue 1Page: 130-135KeywordsCellsCentral nervous systemEsophagusGangliaNervesSensory neuropathySpinal cord ePublished: 1 December 2008 Issue Published: 1 January 1953 PDF downloadLoading ...</t>
+          <t>We extend the investigation of the long-time behavior of a model consisting of N two-level atoms interacting with a single electromagnetic cavity mode to include interaction with many cavity modes. We show that, as a consequence of the coupling between radiation modes produced by spatial density variations of the population inversion, there is no strictly stationary state possible for multimode behavior. However we obtain a stationary state by neglecting the rapidly oscillating terms. The steady-state population inversion is then a solution of an eigenvalue problem. The eigenvalue determinate is a function of the number of modes and the coupling between modes in addition to the usual dependence on frequencies and relaxation times. We explicitly solve for the unique eigenvalue in special cases. The corresponding eigenvector gives the steady-state mode intensity ratios. The absolute values of the steady-state intensities are determined by the energy conservation equation generalized to include pumping and dissipation. We also calculate the steady-state frequency shifts for each mode. The mode frequency shifts are practically independent of each other and have the same functional form as the single-mode frequency shifts.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2531688830</t>
+          <t>https://openalex.org/W2029023250</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/00006199-196601520-00010</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Blickenstorfer (1953)</t>
+          <t>Olesen &amp; Davis (1966)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[Discussion of the disease features of acromegaly in relation to a psychosomatically integrated concept of man as a whole].</t>
+          <t>BACCALAUREATE STUDENTS?? IMAGES OF NURSING A Follow-Up Report</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Our clinical findings on 51 acromegalics and on 1950 of theit relatives — summa- rized in Acta endocrinol. (Kebenhavn) 13, 123—137 (1953) — were the following: 1. In acromegaly (in contrast tho the acromegaloid constitution) increased familial occurrence is lacking, and there is no evidence for an hereditary character of the disease, which is so often asserted. 2. Acromegaly always causes some degree of personality alteration, but true psychoses only in cases with severe complications (intracranial pressure, cachexia). 3. The personality alterations are marked by changes in basic feeling tone and drive, by transitory disturbances of mood (»pituitary mood« of Frankl v. Hochwart) and by the occurrence of sudden strong impulses of all kinds. — The personality alterations due to acromegaly are similar to those occurring in many other endocrine diseases (»Edokrines Psychosyndrom« of M. Bleuler) and in diseases of the brain-stem. On the other hand, they are different in nature from schizophrenic or manic-depressive disturbances. In the present paper we discuss the above mentioned psychopathological findings in acromegaly (the aetiology of which ist still obscure) from the view-point of a psychosomatic, holstitic conception of man influenced by existential analysis (L. Binswanger, M. Boss). We find in the majority of our 51 cases various premorbid pecularities of body build, personality structure and environment: the athletic body type prevails, the patients appear as total personalities rather undifferentiated, and in their preorbid development influences predispos- ing to neurosis such as disturbances of their childhood environment and severe personal disappointments are of strikingly frequent occurence. There are to be found furthermore numerous psychosomatic special traits that manifest themselves in the actual course of the disease such as endocrine disturbances, concerning chiefly the sexual and maternal hormones, gynecomastia respectively pathological lactation, functional alterations of the genitals, a striking addiction to sweets, adi- posity, correlations between headache and hunger, etc. Among the psychopathological findings we lay stress on the striking disorders of sexual and maternal behavior or of hunger and thirst, the appearance of which seems obviously shaped by the whole (individual) acromegalic personality. In spite of these findings we do not permit ourselves to be tempted to the one-sided postulate of a »psycho-genesis« of acromegalic disease. The psychology or psychopathology of the patients can often be explained just as well through their endocrinologically disturbed somatic status. A comparison of the individually highly varied bodily and mental course of events in the altered existence of the acromegalics (tuned to struggle, resignation and adaptation) permits us rather to recognize an impressive total alteration and to suspect that both are the expression of an unitary basic existen- tial disturbance lying somewhere »beyond« psychophysical opposites. — In regard to the question as to its essence, i.e. as to why a person becomes acromegalic, and as to the possibilites of causal therapeutic measures we can offer no more than suggestions.</t>
+          <t>Summary In this follow-up report of a longitudinal study of changes in occupational imagery among baccalaureate students at the University of California School of Nursing in San Francisco, it was found that from time of entry into the school until graduation three years later: 1. Students came increasingly to characterize nursing and what they valued in it in terms of advanced professional images of the field. 2. Complementary to this trend, a larger proportion of them came to reject bureaucratic images of the field, although, surprisingly, a fair number continued to hold onto certain layman images. 3. Despite these trends, however, students do not achieve greater consensus among themselves concerning what they believed did and did not characterize nursing. They did reach higher consensus, though, on what in nursing they viewed as important or not important for the self. 4. Except for their increasing endorsement of advanced professional images for both nursing and self, in the main they did not effect a closer correspondence within themselves (i.e., grow more consonant) between what they saw in nursing and what they valued therein. These findings confirm in nearly every respect the changes and trends in occupational imagery which we reported on in this journal following the students' completion of their first year of baccalaureate nursing education. By their very nature, the findings suggest the need for major revisions in the traditional conceptual model of professional socialization propounded in contemporary sociological theory.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2888671347</t>
+          <t>https://openalex.org/W2030277985</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1175/1520-0477-34.6.245</t>
+          <t>https://doi.org/10.1086/259178</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Williams (1953)</t>
+          <t>Cass &amp; Yaari (1966)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>The Use of Insolation in Forecasting Temperatures</t>
+          <t>A Re-examination of the Pure Consumption Loans Model</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Daytime temperature forecasts are made for two stations in Southwestern United States. The forecasts are based upon computed values of incident solar energy and the latest albedo values as reported by various authors. An approximation is made of the amount of energy that is used to heat the soil, and the pseudo-adiabatic chart ia used indirectly to determine the surface temperature change that will result from a given amount of available energy.</t>
+          <t>Previous articleNext article No AccessA Re-examination of the Pure Consumption Loans ModelDavid Cass and Menahem E. YaariDavid Cass Search for more articles by this author and Menahem E. Yaari Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMoreDetailsFiguresReferencesCited by Journal of Political Economy Volume 74, Number 4Aug., 1966 Article DOIhttps://doi.org/10.1086/259178 Views: 11Total views on this site Citations: 102Citations are reported from Crossref Copyright 1966 The University of ChicagoPDF download Crossref reports the following articles citing this article:Carlo Benetti, Antoine Rebeyrol Chapitre 8. Le rôle de la méthode normative dans la théorie néoclassique positive, (Apr 2022): 227–245.https://doi.org/10.3917/edmat.badie.2022.02.0227Peter Galbács Lucas’s way to his monetary theory of large-scale fluctuations, Journal of Economic Methodology 29, no.11 (Nov 2021): 4–16.https://doi.org/10.1080/1350178X.2021.1993306Jean-Paul Barinci, Hye-Jin Cho, Jean-Pierre Drugeon On equilibrium elasticities of substitution in simple overlapping generations economies with heterogeneous goods, Mathematical Social Sciences 112 (Jul 2021): 120–137.https://doi.org/10.1016/j.mathsocsci.2021.03.012Kcodgoh Edgeweblime Multidimensional trade and Ramsey effects: Sustainable growth versus volatility, Journal of Cleaner Production (May 2019).https://doi.org/10.1016/j.jclepro.2019.03.318John Geanakoplos Overlapping Generations Model of General Equilibrium, (Feb 2018): 9944–9971.https://doi.org/10.1057/978-1-349-95189-5_1754Ufuk Akcigit Economic Growth: The Past, the Present, and the Future, Journal of Political Economy 125, no.66 (Dec 2017): 1736–1747.https://doi.org/10.1086/694617Fernando Alvarez Monetary Economics, Journal of Political Economy 125, no.66 (Dec 2017): 1825–1830.https://doi.org/10.1086/694619Stephane Bonhomme and Azeem M. Shaikh Keeping the ECON in Econometrics: (Micro-)Econometrics in the Journal of Political Economy, Journal of Political Economy 125, no.66 (Dec 2017): 1846–1853.https://doi.org/10.1086/694620George M. Constantinides Asset Pricing: Models and Empirical Evidence, Journal of Political Economy 125, no.66 (Dec 2017): 1782–1790.https://doi.org/10.1086/694621Douglas W. Diamond, Anil K. Kashyap, and Raghuram G. Rajan Banking and the Evolving Objectives of Bank Regulation, Journal of Political Economy 125, no.66 (Dec 2017): 1812–1825.https://doi.org/10.1086/694622Eugene F. Fama Finance at the University of Chicago, Journal of Political Economy 125, no.66 (Dec 2017): 1790–1799.https://doi.org/10.1086/694623David W. Galenson Economic History, Journal of Political Economy 125, no.66 (Dec 2017): 1747–1752.https://doi.org/10.1086/694624Lars Peter Hansen Time-Series Econometrics in Macroeconomics and Finance, Journal of Political Economy 125, no.66 (Dec 2017): 1774–1782.https://doi.org/10.1086/694625James J. Heckman Chicago Labor Economics, Journal of Political Economy 125, no.66 (Dec 2017): 1840–1845.https://doi.org/10.1086/694626Ali Hortaçsu Auctions in the Journal of Political Economy, 1894–2017, Journal of Political Economy 125, no.66 (Dec 2017): 1915–1920.https://doi.org/10.1086/694627Emir Kamenica Information Economics, Journal of Political Economy 125, no.66 (Dec 2017): 1885–1890.https://doi.org/10.1086/694628Greg Kaplan Inequality, Heterogeneity, and Consumption in the Journal of Political Economy, Journal of Political Economy 125, no.66 (Dec 2017): 1767–1774.https://doi.org/10.1086/694629Steven D. Levitt The Economics of Crime, Journal of Political Economy 125, no.66 (Dec 2017): 1920–1925.https://doi.org/10.1086/694630John List Experimental Economics in the Journal of Political Economy, Journal of Political Economy 125, no.66 (Dec 2017): 1925–1930.https://doi.org/10.1086/694631Robert E. Lucas Jr. Memories of Friedman and Patinkin, Journal of Political Economy 125, no.66 (Dec 2017): 1831–1834.https://doi.org/10.1086/694632Magne Mogstad The Human Capital Approach to Intergenerational Mobility, Journal of Political Economy 125, no.66 (Dec 2017): 1862–1868.https://doi.org/10.1086/694633Roger Myerson Political Economics in the Journal of Political Economy: Six Landmark Papers, Journal of Political Economy 125, no.66 (Dec 2017): 1752–1756.https://doi.org/10.1086/694634Canice Prendergast Agency Issues, Journal of Political Economy 125, no.66 (Dec 2017): 1878–1884.https://doi.org/10.1086/694635Philip J. Reny Assignment Problems, Journal of Political Economy 125, no.66 (Dec 2017): 1903–1914.https://doi.org/10.1086/694636Robert Shimer Labor Markets, Journal of Political Economy 125, no.66 (Dec 2017): 1834–1840.https://doi.org/10.1086/694637Hugo F. Sonnenschein Chicago and the Origins of Modern General Equilibrium, Journal of Political Economy 125, no.66 (Dec 2017): 1728–1736.https://doi.org/10.1086/694638Nancy L. Stokey Aggregative Fiscal Policy, Journal of Political Economy 12</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1997181917</t>
+          <t>https://openalex.org/W2030768463</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0006-3002(53)90055-9</t>
+          <t>https://doi.org/10.1016/s0926-6585(96)90019-9</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Dianza (1953)</t>
+          <t>Ramachandran et al. (1966)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>On the osmotic behaviour of mitochondria</t>
+          <t>Molecular structure of polyglycine II</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1. The action of media of different osmotic activity on the morphology, enzymic activities and nucleic acids content of isolated mitochondria was investigated. 2. Distilled water and hypotonic solutions produce swelling of mitochondria with consequent increase in size. Hypertonic solutions produce only a slight decrease of size. Resuspension of previously distilled water-treated mitochondria in hypertonic solutions does not produce the return to the rodlike shape that is peculiar for mitochondria isolated from hypertonic solutions. 3. Succinoxidase activity of isolated mitochondria increases by dilution of the medium and-reaches maximal values in distilled water. Hypertonic solutions inhibit strongly. Intensity of inhibition seems to be dependent upon the osmotic activity of suspension media. 4. Incubation with distilled water produces disappearance of the acceleration of succinoxidase activity determined by distilled water. Disappearance of the acceleration is enhanced by a gaseous environment of oxygen and decreased by a nitrogen environment. 5. Incubation for 2 hours in hypertonic solutions inactivation of succinoxidase at 38°C. Inactivation does not occur at 2°C. 6. Suspension of mitochondria in distilled water does not produce redistribution of succinoxidase activity, which remains bound to the mitochondrial sediment. 7. D-amino acid oxidase and lactic acid oxidase of mitochondria are inhibited by suspension in distilled water. 8. Nucleic acids are released from mitochondria as a consequence of incubation for I h at 38° C. Maximal values of release were obtained with hypertonic (IM) solutions, but hypotonic solutions and distilled water gave also higher values than isotonic media. 9. The results are discussed, particularly with regard to the question of the existence of a semipermeable membrane in mitochondria. 1. L'action de milieux d'activités osmotiques différentes sur la morphologie, les activités enzymatiques et la teneur en acides nucléiques de mitochondries isolées, a été étudiée. 2. L'eau distillée et les solutions hypotoniques produisent un gonflement des mitochondries, dont la taille augmente. Des solutions hypertoniques ne produisent qu'une légère dimunition de la taille. La mise en suspension, dans des solutions hypertoniques, de mitochondries préalablement traitées par l'eau distillée, n'est pas suivie d'un retour à la forme en batonnets, particulière aux mitochondries isolées de solutions hypertoniques. 3. L'activité de la succinoxydase des mitochondries isolées augmente avec la dilution du milieu et est maximum dans l'eau distillée. Les solutions hypertoniques la dimunuent fortement. L'intensité de cette inhibition dépend de l'activité osmotique du milieau de suspension. 4. L'incubation dans l'eau distillée entraîne la disparition de l'accélération de l'activité succinoxydasique, produite par l'eau distillée. Ce phénoméne set plus marqué en atmosphère d'oxygène qu'en atmosphère d'azote. 5. L'incubation pendant 2 heures à 38°C, en solution hypertonique, inactive la succinoxydase. Cette inactivation n'a pas lieu à 2°C. 6. La mise en suspension des mitochondries dans l'aau distillée n'entraîne pas de redistribution de l'activité succinoxydasique, qui reste liée aux mitochondries. 7. La D-aminoacide oxydase et la lactique acide oxydase des mitochondries, sont inhibées par l mise en suspension dans l'eau distillée. 8. Des acides nucléiques sont libérés des mitochondries après incubation pendant 1 heure à 38° C. La libération est maximum dans les solutions hypertoniques (1 M) mais ele est plus forte dans des solutions hypotinques et l'eau distillée que dans un milie isotonique. 9. Les résultats sont discutés, particuliérement du point de vue de l'existence d'une membrane semi-perméable des mitochondries. 1. Es wurde die Wirkung von Medien mit verschiedener osmotischer Aktivität auf die Morphologie, die enzymatische Aktivität und den Nucleinsäuregehalt isolierter Mitochondrien untersucht. 2. Destilliertes Wasser und hypotonische Lösungen erzeugen ein Schwellen der Mitochondrien, das mit einen Zunahme der Grösse verbunden ist. Hypertonische Lösungen erzeugen nur eine geringe Abnahme der Grösse. Suspendiert man die zuerst mit destilliertem Wasser benhandelten Mitochondrien wieder in hypertonischen Lösungen, so bildet sich nicht die stäbchenähnliche Form zurück, die den aus hypertonischen Lösungen erhalten Mitochodrien eigen ist. 3. Die Succinoxydaseaktivität isolierter Mitochondrien nimmt mit der Verdünnung des Mediums zu und erreicht in destillertem Wasser Maximalwerte. Hypertonische Lösungen wirken stark hemmend. Die Intensität der Hemmung scheint von der osmotischen Aktivität des Suspensionsmediums abhängig zu sein. 4. Bei Inkubation mit destilliertem Wasser verschwindet die durch destilliertes Wasser bewirkte Erhöhung der Succinoxydaseaktivität. Das Verschwinden dieser Erhöhung wird in einer Sauerstoff-gasphase noch befördert und in einer Stickstoffphase verlangsamt. 5. Zweistündige Inkubatio</t>
+          <t>The structure of the two-antennary oligoglycines molecules presumes a complex interplay of their bola-amphiphilic nature and the possibility for the onset of Polyglycine II structural motifs in aqueous solutions. These tendencies lead to the appearance of various supramolecular self-assemblies (tectomers). The complex fluid formulations which contain them exhibit high potential for the application of easy fine-tuning procedures. In the present study the possibility for smart regulation of the properties of aqueous solutions of C8H16(-CH2-NH-Gly5)2 (T2-C8-Gly5) is investigated through the variations of pH and changes of the initial incubation time of the systems. A combined investigation protocol, including Dynamic Light Scattering, Profile Analysis Tensiometry, and microscopic Thin-Liquid-Film techniques is developed. The key results are: (i) the size distribution is bimodal in acidic conditions (pH ≤ 6.0) and becomes visibly mono-modal for pH ≥ 7.1; (ii) upon increase of the solution pH the dimensions of the tectomers is shifted towards larger structural entities. These tendencies are enhanced with the raise of the initial incubation time of the aqueous systems. The study permits to draw essential conclusions about the possible coupling mechanism of bulk and interfacial phenomena, and gives key grounds for further fine-tuning of the tectomer-formation phenomena. The obtained results add important new knowledge about the nature of these new materials in view of possible applications in the development of e.g. drug nanocarriers, for extraction of various impurities from water media, etc.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2088501075</t>
+          <t>https://openalex.org/W2035647434</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1159/000204310</t>
+          <t>https://doi.org/10.1111/j.1469-8137.1966.tb06357.x</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Movitt &amp; Lubeck (1953)</t>
+          <t>Webster (1966)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Relative Nature of the Deficiency of the Intrinsic Factor of Castle in Pernicious Anemia</t>
+          <t>THE MEASUREMENT OF SOIL WATER TENSION IN THE FIELD</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Research Articles| February 20 2009 Relative Nature of the Deficiency of the Intrinsic Factor of Castle in Pernicious Anemia Subject Area: Hematology , Oncology E.R. Movitt; E.R. Movitt From the Medical Service, Veterans Administration Hospital, Oakland, California Search for other works by this author on: This Site PubMed Google Scholar G.H. Lubeck G.H. Lubeck From the Medical Service, Veterans Administration Hospital, Oakland, California Search for other works by this author on: This Site PubMed Google Scholar Acta Haematol (1953) 9 (6): 370–379. https://doi.org/10.1159/000204310 Article history Published Online: February 20 2009 Content Tools Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Peer Review Share Icon Share Facebook Twitter LinkedIn Email Tools Icon Tools Get Permissions Cite Icon Cite Search Site Citation E.R. Movitt, G.H. Lubeck; Relative Nature of the Deficiency of the Intrinsic Factor of Castle in Pernicious Anemia. Acta Haematol 1 June 1953; 9 (6): 370–379. https://doi.org/10.1159/000204310 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentAll JournalsActa Haematologica Search Advanced Search Article PDF first page preview Close Modal This content is only available via PDF. 1953Copyright / Drug Dosage / DisclaimerCopyright: All rights reserved. No part of this publication may be translated into other languages, reproduced or utilized in any form or by any means, electronic or mechanical, including photocopying, recording, microcopying, or by any information storage and retrieval system, without permission in writing from the publisher.Drug Dosage: The authors and the publisher have exerted every effort to ensure that drug selection and dosage set forth in this text are in accord with current recommendations and practice at the time of publication. However, in view of ongoing research, changes in government regulations, and the constant flow of information relating to drug therapy and drug reactions, the reader is urged to check the package insert for each drug for any changes in indications and dosage and for added warnings and precautions. This is particularly important when the recommended agent is a new and/or infrequently employed drug.Disclaimer: The statements, opinions and data contained in this publication are solely those of the individual authors and contributors and not of the publishers and the editor(s). The appearance of advertisements or/and product references in the publication is not a warranty, endorsement, or approval of the products or services advertised or of their effectiveness, quality or safety. The publisher and the editor(s) disclaim responsibility for any injury to persons or property resulting from any ideas, methods, instructions or products referred to in the content or advertisements. You do not currently have access to this content.</t>
+          <t>S ummary The water in soil under growing plants is not in equilibrium and knowledge of the soil water tension must be based on direct measurements from several tensiometers. A cheap, reliable and easily maintained tensiometer for field use is described. The instruments are constructed mainly from nylon, with mercury manometers, and have been assembled in sets of six with a single support and mercury reservoir for the manometers. The nature and extent of the variation of the water tension from point to point in the soil have been measured at a number of sites in the Oxford district. On arithmetic scales frequency distributions are very skew but may be normalized by logarithmic transformation (to pF). The degree of variation is in general moderate: coefficients of variation range from 4 % to 25 % depending on kind of soil and time of year. Since the cost of the tensiometers described is low there is no reason why comparative studies on soil water tension should not be carried out with adequate replication.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2019014131</t>
+          <t>https://openalex.org/W2038029196</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2136/sssaj1953.03615995001700030001x</t>
+          <t>https://doi.org/10.1080/00206816609474257</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Mazurak et al. (1953)</t>
+          <t>Ruzhentsev (1966)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Effect of 39 Years of Cropping Practices on Wind Erodibility and Related Properties of an Irrigated Chestnut Soil</t>
+          <t>Principal ammonoid assemblages of Carboniferous period</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Abstract In April 1951, a portable wind tunnel was set up at the Scotts Bluff Substation on plots that were planted to sugar beets and potatoes. The soil losses from wind under controlled conditions were measured on manured and non‐manured plots from (i) a 3‐year rotation of barley, potatoes and sugar beets and (ii) a 6‐year rotation of barley with alfalfa, alfalfa 3‐years, potatoes and sugar beets. On these and other plots, size‐fractions of air‐dried clods from the surface 2‐inches of soil were separated by means of rotary sieves. Each size‐fraction was analyzed for the apparent density of clods, total nitrogen content, and moisture content at 15‐atmosphere tension. The cropping and manurial practices showed a marked effect on the soil losses from wind. Alfalfa in the rotation was superior to manure application in reducing soil losses. Application of 12 tons of barnyard manure on potato plots in a 3‐year rotation reduced the soil loss from 74,500 pounds per acre to 2,720. The soil loss on non‐manured plots in the 6‐year rotation was 970 pounds per acre. The beet plots, in a cropping system and manurial application similar to potato plots showed a smaller regimen of soil losses. Mechanical stability of clods was determined by their resistance to break‐down as a result of resieving. It was greatest in plots cropped to continuous barley, followed in order by beets, corn, and potatoes. Mechanical stability was greater in manured plots than in non‐manured. The application of manure or growing of alfalfa in the rotation effected a marked reduction in the apparent density of clods and increased the total nitrogen content and the moisture content at 15‐atmosphere tension. Alfalfa was superior to manure in effecting these changes in soil properties.</t>
+          <t>Ammonoids constituted one of the most important marine faunal groups in the Carboniferous period; their assemblages can be used to identify and substantiate the main biostratigraphic boundaries of and within the Carboniferous system. The Devonian-Carboniferods boundary is marked by the extinction of ammonoids of the order Clymeniida and,other Devonian,types and the appearance of the suborder Prolecanitina. During the Early Carboniferbus epoch five major faunal assemblages were present, in ascending order: the Gattendorf (6 genera), Tournaisian (9 genera), Saourian (14 genera), Viséan (28 genera), and Namurian (47 genera). The boundary between the Early and Late Carboniferous is marked by general decrease in taxonomic variety and emergence of genera with more complex sutures (10 to 20 lobes). The major faunal assemblages during the Late Carboniferous epoch include the Bashkirian (28 genera), Moscovian (24 genera), Zhigulian (36 genera), and Orenburgian (27 genera). The upper boundary of die Carboniferous is not nearly so sharply expressed in terms of ammonoid changes as the lower one. AVailable eVidenCe 'favors' -placing it at the top of the Orenburgian stage, as the principal families of Permian ammonoids are all present in the overlying beds of the Asselian stage. Two new genera are diagnosed briefly; Winchelloceras n. gen. (type species, Goniatites allei Winchell, 1862) and Arcanoceras n. gen. (type species, Girtyoceras burmai Miller and Downs, 1950) and one new family, Orulganitidae (genus Orulganites). -- M. Gordon, Jr.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1968599698</t>
+          <t>https://openalex.org/W2040132566</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1098/rspb.1953.0021</t>
+          <t>https://doi.org/10.1016/s0033-7560(66)80072-8</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Perutz (1953)</t>
+          <t>Sparrow (1966)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>An optical method for finding the molecular orientation in different forms of crystalline haemoglobin; changes in dichroism accompanying oxygenation and reduction</t>
+          <t>Research uses of the gamma field and related radiation facilities at Brookhaven national laboratory</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>When the amplitudes of the h0l reflexions of horse methaemoglobin at different lattice stages are plotted, an encouraging measure of agreement is found between amplitudes which come to lie in the same region in reciprocal space, confirming the impression that the haemoglobin molecule is a rigid entity whose structure is not affected by swelling and shrinkage of the crystal. The bewildering complexity of the diagram is lessened if the amplitudes are corrected for the effects of the different salt concentrations present at the different shrinkage stages, and if the layer lines are plotted singly. On applying the transform principle to each layer line, there are rarely more than one or two possible ways of drawing the waves, and the remaining points of uncertainty can probably be cleared up by improved accuracy of measurement. However, even if the combination of signs along each of the seven layer lines were known, this would still leave us with 27 alternative combinations of signs. It would obviously be helpful to have other forms of haemoglobin, with the molecules suitably oriented in the unit cell, which would enable us to bridge the gaps between the layer lines. This method of approach has become practicable since we discovered that the haemoglobins of three different animal species appear to be closely similar, at least in the gross features of their molecular structure. Patterson projections along the polypeptide chain direction of horse methaemoglobin, reduced human haemoglobin, and oxyhaemoglobin of ox show similar distributions of intramolecular vector peaks, and the distribution of peaks around the origin in tetragonal human oxyhaemoglobin can be reproduced by super­position of two identical Pattersons of horse methaemoglobin, one turned by 90° relative to the other.</t>
+          <t>The gamma sources used at Brookhaven for genetical, botanical and ecological studies are listed and described briefly. They include a 60 c Co60 hot cell source, a 9 c Co60 greenhouse source, a 3160 c Co60 field source, a 9500 c Cs137 forest source and a 400 c Cs137 pit source. (Sources completed since this material was presented are described in an addendum.) The pit source is set up to simulate fallout decay, i.e. exposure rates can be decreased as desired by means of programmed changes in shielding. Described or listed are some of the more important recent experiments, observations and conclusions covering many areas of investigation in which use has been made of the various radiation facilities listed above. These include: (a) studies in radiation cytology and genetics elucidating certain aspects of the dose-rate effects problem; (b) studies on somatic mutations in many species (a list of useful mutations is also given); (c) studies of morphological and histological changes induced by irradiation; (d) studies on differences in radiosensitivity among numerous plant species with reference to the significance of nuclear volume and chromosome size as affecting radiosensitivity and a derived method of predicting radiosensitivity (predicted responses are given for 33 species of higher plants); (e) studies on the diploid vs. polyploid radiosensitivity problem as related to the so-called “protective effect of polyploidy”; (f) studies on the relationship between radiosensitivity and the estimated DNA content per chromosome; and (g) studies on the responses of plant species in an old field community and ecology forest subjected to chronic irradiation. Where results or experiments are not fully described, adequate lists of references are given which cover those aspects mentioned. Les sources de rayons-γ utilisées à Brookhaven en vue d'études génétiques, botaniques et écologiques sont énumérées et brièvement décrites. Elles comprennent une cellule chaude de 60 c de Co60, une source en serre de 9 c de Co60, une source en champ de 3160 c de Co60, une source en forêt de 9500 c de Cs137 et une source en puit de 400 c Cs137. (On présente en addendum des sources qui ont été achevées depuis que ce matériel a été décrit.) La source en puit a été etablie afin de simuler l'effet délétère des retombées c'est à dire que les débits de doses peuvent être diminués à volonté grâce à une protection “programmée”. On décrit ou on énumère quelques expériences récentes parmi les plus importantes. On cite les observations et les conclusions se rapportant à différents domaines de recherche dans lesquels les différentes sources de radiations ont été utilisées. Elles comprennent: (a) Des études de cytologie et de génétique des radiations qui tendent à expliquer certains aspects du problème des effets du débit de dose; (b) Des études des mutations somatiques dans beaucoup d'espèces. (On donne une liste des mutations utiles); (c) Des études des changements morphologiques et histologiques induits par les radiations; (d) Des études des différences de radio-sensibilité de plusieurs espèces de plantes en relation avec le volume nucléaire et la taille des chromosomes ainsi qu'une méthode corrélative permettant de prédire la radio-sensibilité. (On donne les prédictions pour 33 espèces de plantes supérieures); (e) Des études de la radio-sensibilité des espèces diploïdes par rapport aux polyploïdes en relation avec l'effet protecteur de la polyploïdie; (f) Des études de la relation entre radiosensibilité et contenu en DNA; et (g) Des études de la réponse d'une population de l'ancien champ et de la forêt écologique soumis à une irradiation chronique. Lorsque les résultats et les expériences ne sont pas entièrement décrits, on donne des listes suffisantes pour englober les aspects non traités des problèmes. Die Gammastrahlen-Quellen, die zu genetischen, botanischen und ökologischen Untersuchungen am Brookhaven National Laboratory verwendet werden, werden aufgeführt und kurz beschrieben. Unter ihnen sind eine 60 c Co60 Heisszellen-Quelle, eine 9 c Co60 StrahlenQuelle für Gewächshäuser, eine 3160 c Co60 Quelle für Feld-Versuche, eine 9500 c Cs137 Quelle für Wald-Versuche und eine in einer Grube befindliche 400 c Cs137 Quelle. (Strahlenquellen, die nach Abschluss des Manuskriptes hinzukamen, werden in einem Nachtrag beschrieben.) Die Gruben-Quelle wird eingesetzt, um den Zerfall von radioaktivem Niederschlag zu simulieren, d.h. die Strahlungsintensität kann durch planmässig geänderte Abschirmung beliebig herabgesetzt werden. Es werden einige der wichtigeren Experimente, Beobachtungen und Ergebnisse aus jüngster Zeit beschrieben, die sich auf viele Forschungsgebiete erstrecken, in denen die verschiedenen, oben angeführten Strahlenquellen zur Anwendung kommen. Dazu gehören: (a) Stralenzytologische und genetische Untersuchungen, die gewisse Aspekte des Dosis-Effekt-Problems klären; (b) Untersuchungen über somatische Mutationen bei vielen Arten (eine Liste nü</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2086299860</t>
+          <t>https://openalex.org/W2042547422</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1159/000301410</t>
+          <t>https://doi.org/10.1039/tf9666200994</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Vrabec (1953)</t>
+          <t>Corkill et al. (1966)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Les verrucosités de la limitante interne de la rétine</t>
+          <t>Thermodynamics of comicellization of ionic detergents</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Research Articles| March 19 2010 Les verrucosités de la limitante interne de la rétine Subject Area: Ophthalmology F. Vrabec F. Vrabec Ire Clinique ophtalmologique de Prague [Dir.: Doc. Dr Dienstbier] Search for other works by this author on: This Site PubMed Google Scholar Ophthalmologica (1953) 125 (3): 164–168. https://doi.org/10.1159/000301410 Article history Published Online: March 19 2010 Content Tools Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Peer Review Share Icon Share Facebook Twitter LinkedIn Email Tools Icon Tools Get Permissions Cite Icon Cite Search Site Citation F. Vrabec; Les verrucosités de la limitante interne de la rétine. Ophthalmologica 1 March 1953; 125 (3): 164–168. https://doi.org/10.1159/000301410 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentAll JournalsOphthalmologica Search Advanced Search This content is only available via PDF. 1953Copyright / Drug Dosage / DisclaimerCopyright: All rights reserved. No part of this publication may be translated into other languages, reproduced or utilized in any form or by any means, electronic or mechanical, including photocopying, recording, microcopying, or by any information storage and retrieval system, without permission in writing from the publisher.Drug Dosage: The authors and the publisher have exerted every effort to ensure that drug selection and dosage set forth in this text are in accord with current recommendations and practice at the time of publication. However, in view of ongoing research, changes in government regulations, and the constant flow of information relating to drug therapy and drug reactions, the reader is urged to check the package insert for each drug for any changes in indications and dosage and for added warnings and precautions. This is particularly important when the recommended agent is a new and/or infrequently employed drug.Disclaimer: The statements, opinions and data contained in this publication are solely those of the individual authors and contributors and not of the publishers and the editor(s). The appearance of advertisements or/and product references in the publication is not a warranty, endorsement, or approval of the products or services advertised or of their effectiveness, quality or safety. The publisher and the editor(s) disclaim responsibility for any injury to persons or property resulting from any ideas, methods, instructions or products referred to in the content or advertisements. Article PDF first page preview Close Modal You do not currently have access to this content.</t>
+          <t>The micellization of homologous compounds of the types alkyl trimethylammonium alkyl sulphate and alkyl trimethylammonium alkyl sulphonate has been studied. Below the critical micelle concentration these compounds behave like conventional strong 1:1 electrolytes, but the micelles formed above this concentration are substantially uncharged, a circumstance that allows the thermodynamics of the micellization process to be examined. It has been shown that the increments per methylene group for the standard free energy and heat of micellization are similar to those found for non-ionic detergents, and that the large increase in standard entropy that accompanies the micellization process is associated with the change in environment of the hydrophilic head groups.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2293522747</t>
+          <t>https://openalex.org/W2043740072</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/j.1399-3054.1966.tb07046.x</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Richards et al. (1953)</t>
+          <t>Björkman (1966)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Effect of nephrectomy on the duration of sleep following administration of thiopental and hexobarbital.</t>
+          <t>The Effect of Oxygen Concentration on Photosynthesis in Higher Plants</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1. Bilateral nephrectomy does not (or only slightly) change the duration of sleep following an immediate intravenous hexoharbital or thiopental injection in rats or rabbits. When three or more hours are allowed to pass after nephrectomy the duration of the thiopental effect becomes markedly prolonged in both species, while hexobarbital shows only a moderate prolongation in rats but not in rabbits.
-2. The degree of the increased thiopental effect has been shown in rats to be in linear relation to the time after nephrectomy and the increase of the plasma NPN level. Ligation of the ureters leads to similar, but less marked effects upon thiopental sleep.
-3. The duration of action of a threshold dose of thiopental is not or only slightly affected by nephrectomy.
-4. If the NPN plasma level is raised acutely in freshly nephrectomized animals by the injection of an artificial NPN solution, an immediate increase of sensitivity to thiopental appears in these, but not animals. Sodium chloride or dextrose in amounts equi-osmotic to the NPN solution produce a similar but less pronounced effect.
-5. Analytical studies indicate that the fall of the barbiturate plasma level during the normal sleep period is the same in control and nephrectomized animals. However, from then on the drop is significantly slower in the operated animals. It appears that the post-nephrectomy state is associated with a somewhat greater sensitivity to the drug and a slower metabolic degradation of it.</t>
+          <t>Abstract The influence of oxygen concentration in the range 0–21% on photosynthesis in intact leaves of a number of higher plants has been investigated. Photosynthetic Co 2 fixation of higher plants is markedly inhibited by oxygen in concentrations down to less than 2%. The inhibition increases with oxygen concentration and is about 30% in an atmosphere of 21% O 2 and 0.03% Co. 2 . Undoubtedly, therefore, oxygen in normal air exerts a strong inhibitory effect on photosynthetic Co 2 fixation of land plants under natural conditions. The inhibitory effect of oxygen is rapidly produced and fully reversible. The degree of inhibition is independent of light intensity. The quantum yield for Co 2 fixation, i.e . the slope of the linear part of the curve for Co 2 uptake versus absorbed quanta, is inhibited to the same degree as the light saturated rate at all oxygen concentrations studied. Diverse species of higher plants, varying greatly in photosynthetic response to light intensity and Co 2 concentration, and with light saturated roles of Co 2 fixation differing by a factor of more than 10 times, show a remarkable similarity in their response to oxygen concentration. By contrast, when studied under the same conditions as the higher plants, the green algae Chlorella and Ulva did not show‐any measurable inhibition of photosynthetic Co 2 fixation. Similarity, the increase in fluorescence intensity with increasing oxygen concentrations found in higher plants also was not seen in Chlorella . The present results, together with previous data on the photosynthetic response of algae to oxygen concentration, indicate that the photosynthetic apparatus of higher plants differs considerably from that of algae in its sensitivity to oxygen. The inhibitory effect of oxygen on photosynthetic Co 2 fixation in higher plants is somewhat higher at wavelengths which excite preferentially photosystem I. Also, the Emerson enhancement of Co 2 fixation measured when a far red beam of low intensity is imposed on a background of red light is greater under low oxygen concontrution than under air. Measurements of reversible light‐induced absorbance changes reveal that the change at 591 nm, probably caused by pla.stocyanin, is affected by oxygen concentration only if photosystem II is excited. the reducing effect on plastocyanin, caused by excitation of this system, decreases with increasing oxygen concentration. From these results it is suggested that a possible site of the inhibition by oxygen is in the electron carrier chain between the two photosystems. Oxygen might act as an electron acceptor at this site, causing reducing power to react back with molecular oxygen. However, this hypothesis does not account for equal inhibitions of the quantum yield and the light saturated rate of photosynthetic CO 2 uptake. Through the photosynthetic process plants take up carbon dioxide and evolve oxygen. The present high concentration of molecular oxygen in the atmosphere is generally considered to have arisen from the activity of photo‐synthetic organisms. The effect of oxygen concentration would seem, therefore, to he a problem of great interest, not only in the field of the biophysics and biochemistry of photosynthesis, but in ecology and other branches of biology as well. It was discovered by Warburg (1920) that high concentrations of oxygen inhibit the rate of photosynthetic oxygen evolution in the unicellular alga Chlorella . Since then, it has been confirmed by various authors that oxygen cconcentrations in the range 21–100 per cent have a marked inhibitory effect on photosynthesis, particularly at saturating light intensities. There is some evidence that under conditions when carbon dioxide concentration limits photosynthesis, the inhibition may become obvious even in 21 per cent oxygen. The inhibition has not been considered to operate at low light intensities. A review on the subject has been given by Turner and Brittain (1962). Various hypotheses have been put forward to explain the inhibitory effect of oxygen, commonly referred to as the Warhurg effect. Some authors favor the idea of enzyme inhibition; Turner et al . (1958) that one or more enzymes of the carbon reduction cycle are inactivated by oxygen: lirianlals (1962) that enzymes of the oxygen‐evolving complex are inhihited. Other hypotheses concern back‐reactions in which molecular oxygen is taken up, thus reversing the photosynthetic process. These reactions include photo‐oxidation, photorespiration, and the Mehler reaction (Tamiya et al ., 1957). At present, there is no generally accepted hypothesis explaining the effect. The often conflicting results on which these hypotheses were based have been obtained mostly on algae. The first observation of an inhibitory effect on photosynthesis in a higher plant was made hy McAlister and Myers (1940) in wheat leaves. They found that the photosyntlietic CO 2 uptake was markedly lower in air than in an atmosphere of about 0.5 per cent oxygen. At</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2001478071</t>
+          <t>https://openalex.org/W2048955099</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1749-6632.1953.tb30222.x</t>
+          <t>https://doi.org/10.1002/aja.1001180110</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Welch (1953)</t>
+          <t>Buchanan (1966)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>HUMAN CONDITIONING AND ANXIETY</t>
+          <t>Reproduction in the ferret (Mustela furo) I. Uterine histology and histochemistry during pregnancy and pseudopregnancy</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Annals of the New York Academy of SciencesVolume 56, Issue 2 p. 266-272 HUMAN CONDITIONING AND ANXIETY Livingston Welch, Livingston Welch Hunter College and Cornell Medical College, New York, N. Y.Search for more papers by this author Livingston Welch, Livingston Welch Hunter College and Cornell Medical College, New York, N. Y.Search for more papers by this author First published: February 1953 https://doi.org/10.1111/j.1749-6632.1953.tb30222.xCitations: 10 Study from the New York Hospital and the Department of Psychiatry, Cornell University Medical College, New York; Hunter College, The Institute for Research in Clinical and Child Psychology, and Cornell University, Ithaca, New York. AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat References 1 Corn-Becker, F., L. Welch, &amp; V. Fisichelli 1949. Conditioning factors underlying hypnosis. J. Abnorm. Psychol. 44: 212–222. 2 Darrow, C. W. &amp; A. P. Solomon 1934. Galvanic skin reflex and bloodpressure reactions in psychotic states. Arch. Neurol. Psychiat. 32: 273–299. 3 Freeman, G. L. &amp; R. M. Simpson 1938. The effect of experimentally induced muscular tension upon the palmar skin resistance. J. Gen. Psychol. 18: 319–326. 4 Freile, M. &amp; W. H. Gantt 1944. Effect of cholinergic and adrenergic substances on higher nervous activity. Trans. Am. Neurol. Assoc. 70: 180. 5 Gopaliswani, M. V. 1926. The psycho-galvanic reflex phenomenon in monkeys. Psychol. Stud. 1: 49–56. Univ. Mysore ( India ). 6 Gwinn, G. T. 1951. Resistance to extinction of learned fear-drives. J. Exptl. Psychol. 42: 6–12. 7 Jones, H. E. 1950. The study of patterns of emotional expression. Feelings and Emotions. Ch. 13. M. L. Reymeri, Ed. McGraw-Hill, NY . 8 Landis, C. 1932. An attempt to measure emotional traits in juvenile delinquency. Studies in the Dynamics of Behavior. P. 285. K. S. Lashley, Ed. Chicago Univ. Press. 9 Luria, A. R. 1932. The Nature of Human Conflicts. Liveright, NY . 10 Malmo, R. B. 1950. Experimental studies of mental patients under stress. Feelings and Emotions. Ch. 14. M. L. Reymert, Ed. McGraw-Hill, NY . 11 Malmo, R. B. &amp; C. Shagass 1949. Physiologic studies of reaction to stress in anxiety and early schizophrenia. Psychosomat. Med. 11: 9–24. 12 Malmo, R. B. &amp; C. Shagass 1949. Physiologic study of symptom mechanisms in psychiatric patients under stress. Psychosomat. Med. 11: 25–29. 13 Malmo, R. B., C. Shagass, D. J. Belanger, &amp; A. A. Smith 1951. Motor control in psychiatric patients under experimental stress. J. Abnorm. Soc. Psychol. 46: 539–547. 14 Prideaux, E. 1922. Expression of emotion in cases of mental disorder as shown by the psychogalvanic reflex. Brit. J. Med. Psychol. 2: 23–46. 15 Robinson, J. &amp; W. H. Gantt 1947. The orienting reflex (questioning reaction): cardiac, respiratory, salivary, and motor components. Bull. Johns Hopkins Hosp. 80: 231–253. 16 Rockwell, F. V., L. Welch, J. Kubis, &amp; V. Fisichelli 1947. Changes in palmar skin resistance during the Rorschach test. I. Color shock and psychoneurotic reactions. Monatsschr. Psychiat. Neurol. 113: 129–152. 17 Ryan, A. H. &amp; E. L. Ranseen 1944. Palmar skin resistance (PSR) during a standard period of controlled muscular activity as a measure of physical fitness and fatigue. Am. J. Physiol. 142: 68–70. 18 Seyle, H. 1950. The Physiology and Pathology of Exposure to Stress. P. 653. Acta. Montreal. 19 Solomon, A. P. &amp; T. L. Fentress 1934. Galvanic skin reflex and blood pressure reactions in the psychoneuroses. J. Nervous Mental Disease. 80: 163–182. 20 Spence, K. W. &amp; J. Taylok 1951. Anxiety and strength of the UCS as determiners of the amount of eyelid conditioning. J. Exptl. Psychol. 42: 183–188. 21 Staudt, V. M. &amp; J. F. Kubis 1948. The psychogalvanic response (PGR) and its relation to changes in tension and relaxation. J. Psychol. 25: 443–453. 22 Taylor, J. A. 1951. The relationship of anxiety to the conditioned eyelid response. J. Exptl. Psychol. 41: 81–92. 23 Welch, L. &amp; J. Kubis 1947. Conditioned PGR (psychogalvanic response) in states of pathological anxiety. J. Nervous Mental Disease. 105: 372–381. 24 Welch, L. &amp; J. Kubis 1947. The effect of anxiety on the conditioning rate and stability of PGR. J. Psychol. 23: 83–91. 25 Wenger, M. A., &amp; O. C. Irwin 1936. Fluctuations in skin resistance of infants and adults and their relation to muscular processes. Univ. Iowa Stud. 12: 145–178. Citing Literature Volume56, Issue2Comparative Conditioned NeurosesFebruary 1953Pages 266-272 ReferencesRelatedInformation</t>
+          <t>Abstract Similar histological and histochemical changes occur in the uteri of pregnant and pseudopregnant ferrets. The pre‐implantation period is characterized by general growth of the tissue and moderate secretory activity. At the time of implantation, the luminal epithelium undergoes hypertrophy and hyperplasia and shows much secretory activity. This area of altered activity sweeps progressively toward the gland fundi and the epithelium behind it becomes greatly enlarged and forms symplasmic masses. Symplasma formation occurs in all regions of the uterus, in contrast to other carnivores where it occurs only next to trophoblast and in response to uterine trauma. The principal uterine secretions are mucoproteins and glycoproteins. There is some evidence that pseudopregnant uteri, but not pregnant uteri, secrete acid mucopolysaccharides. Glycogen is present in moderate amounts at estrus, declines during the pre‐implantation period, and is absent during gestation. A light to moderate diffuse sudanophilia is seen during pregnancy and pseudopregnancy, becoming more pronounced toward the end of the gestation period. Occasional cholesterol crystals are seen in macrophages in the stroma of pregnant, but not pseudopregnant, uteri. Macrophages containing hemosiderin were seen in all uteri examined, being most abundant in estrous and early pre‐implantation uteri. Uterine mast cells were abundant at estrus, declined during the pre‐implantation period and decreased markedly at the time of implantation. The results are compared with data from other carnivore species.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2082627668</t>
+          <t>https://openalex.org/W2050461143</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1159/000301488</t>
+          <t>https://doi.org/10.1016/0021-9517(66)90107-2</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Friede (1953)</t>
+          <t>Winter (1966)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Zur Operation und Prophylaxe des echten Pterygiums</t>
+          <t>Adsorption upon pure and lithium-doped nickel oxide</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Research Articles| March 19 2010 Zur Operation und Prophylaxe des echten Pterygiums Subject Area: Ophthalmology Reinhard Friede Reinhard Friede Aus der Augenabteilung des a. ö. Krankenhauses der Stadt St. Pölten, Österreich Search for other works by this author on: This Site PubMed Google Scholar Ophthalmologica (1953) 126 (3): 161–167. https://doi.org/10.1159/000301488 Article history Published Online: March 19 2010 Content Tools Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Peer Review Share Icon Share Facebook Twitter LinkedIn Email Tools Icon Tools Get Permissions Cite Icon Cite Search Site Citation Reinhard Friede; Zur Operation und Prophylaxe des echten Pterygiums. Ophthalmologica 1 March 1953; 126 (3): 161–167. https://doi.org/10.1159/000301488 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentAll JournalsOphthalmologica Search Advanced Search Article PDF first page preview Close Modal 1953Copyright / Drug Dosage / DisclaimerCopyright: All rights reserved. No part of this publication may be translated into other languages, reproduced or utilized in any form or by any means, electronic or mechanical, including photocopying, recording, microcopying, or by any information storage and retrieval system, without permission in writing from the publisher.Drug Dosage: The authors and the publisher have exerted every effort to ensure that drug selection and dosage set forth in this text are in accord with current recommendations and practice at the time of publication. However, in view of ongoing research, changes in government regulations, and the constant flow of information relating to drug therapy and drug reactions, the reader is urged to check the package insert for each drug for any changes in indications and dosage and for added warnings and precautions. This is particularly important when the recommended agent is a new and/or infrequently employed drug.Disclaimer: The statements, opinions and data contained in this publication are solely those of the individual authors and contributors and not of the publishers and the editor(s). The appearance of advertisements or/and product references in the publication is not a warranty, endorsement, or approval of the products or services advertised or of their effectiveness, quality or safety. The publisher and the editor(s) disclaim responsibility for any injury to persons or property resulting from any ideas, methods, instructions or products referred to in the content or advertisements. You do not currently have access to this content.</t>
+          <t>The rate of adsorption of O2 upon NiO + 0, 0.01, and 1.0 mole % Li2O has been studied at constant pressure, about 10−1 mm, between −78 ° and about 400 °C. Elovich kinetics are obeyed throughout, both log (rate) vs. θ and log (t + t0) vs. θ being linear; t0 is always zero. The adsorptions obey the general equation Rate = A0Px exp (−mθ) exp (−ERT) Below the Néel point (TN), x = 0 and E is small (0–612 ± 112 kcal mole−1); above this temperature x ~ 1and E ~ 14 to 18 ± 3 kcal mole−1 while m does not change much at the transition temperature. At the higher temperatures the chemisorption is accompanied by a very much slower incorporation into the lattice, which continues for many days. Isotopic experiments revealed that substantial desorption occurs while the adsorption is proceeding. Addition of Li first decreased and then at 1.0 mole % Li2O increased the initial rate of adsorption below TN; above this temperature the main effect of Li is to increase the saturation coverage at constant pressure. In all cases the saturation coverage is minimal around 30–60 °C, increasing at both lower and higher temperatures. O2 is weakly chemisorbed in an uncharged molecular form, O2(a), below room temperature; above this increasing amounts of O2− are formed and above TN the adsorbed species is mainly O−. It is suggested that adsorption occurs mainly along the exposed boundaries of the magnetic domains; below TN the magnetostriction prevents the formation of 2 Ni3+ as nearest neighbors and so adsorption occurs as O2−, suitable sites being activated by the diffusion of P+ away from them, this being the rate-limiting process. Above TN the restriction on neighboring Ni3+ is removed and O2 molecules possessing enough kinetic energy (14–18 kcal mole−1) are chemisorbed as 2 O−.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4251283973</t>
+          <t>https://openalex.org/W2054032314</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/pcg.1953.0005</t>
+          <t>https://doi.org/10.1103/physrev.145.325</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Rockie (1953)</t>
+          <t>Krupke (1966)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>The Palouse</t>
+          <t>Optical Absorption and Fluorescence Intensities in Several Rare-Earth-Doped&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:mrow&gt;&lt;mml:msub&gt;&lt;mml:mrow&gt;&lt;mml:mi mathvariant="normal"&gt;Y&lt;/mml:mi&gt;&lt;/mml:mrow&gt;&lt;mml:mrow&gt;&lt;mml:mn&gt;2&lt;/mml:mn&gt;&lt;/mml:mrow&gt;&lt;/mml:msub&gt;&lt;/mml:mrow&gt;&lt;/mml:math&gt;&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:mrow&gt;&lt;mml:msub&gt;&lt;mml:mrow&gt;&lt;mml:mi mathvariant="normal"&gt;O&lt;/mml:mi&gt;&lt;/mml:mrow&gt;&lt;mml:mrow&gt;&lt;mml:mn&gt;3&lt;/mml:mn&gt;&lt;/mml:mrow&gt;&lt;/mml…</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>THE PALOUSE* W. A. Rockie Soil Conservation Service The Palouse is one of the unique land areas of ihe world. It has no counterpart anywhere, and so far as I have been able to learn, no other area of land even closely resembles it. Its peculiar combination of physiographic , topographic, edaphic, and climatic conditions have produced a land that is truly different. Every early explorer who crosaed the Palouse Region wrote in the most glowing terms about the wonders of the grasslands through which he was passing. I consider the description left by Governor Isaac W. Stevens' party, in their diary for June 19, 1855 as one of the most effective and the most accurate. They summarized it well in the following words: "I will again say, we have been astonished today at the luxuriance of the grass and the richness of the soil. The whole view presents to the eye a vast bed of flowers in all their varied beauty. The country is a rolling tableland, and the soil is like that of the prairies of Illinois." Then, several days later, after they were in the dense forests of what is now northern Idaho, they still harked back to the Palouse area they had already left when their diary shows the following entry: "The narrative of these last four days' travel shows how extraordinarily well watered the country is west of the spurs of the Bitter Root Mountains. I will state again, having crossed this great plain of the Columbia from the Chemakane Mission north of the Spokane to the mouth of the Peluse, that the difference in the character of the country on these two lines is extraordinary. A large portion of the country is arable, and is generally well grassed. There is no deficiency of wood for camps, yet occasionally the basaltic formations crop out of the ground, at which points the country is sterile and uncultivable. But under the spurs of the Bitter Root Mountains the whole country is arable, the soil as rich as the best prairies of Minnesota, wood for fires and timber for building. " Even after they had left the prairies far behind, they must still reminisce about the grasslands they had seen. One is forced to conclude, from these and many other diary entries by each of the several main exploring parties which crossed the Palouse that, under its virgin cover, the Palouse really thrilled everyone who saw it. Similarly, the area makes me marvel today, even though that virgin cover and those natural conditions, have been in large measure destroyed. Twenty years ago, I thought of the Palouse as including all of the more humid wheatlands in the Columbia Basin of Washington, Oregon, and Idaho. The justification for my previously calling that much more extensive area as Palouse appears obscure to me today. I may have simply taken the say-so of others at that time. Or it might have been that I egotistically desired that the name include as many square miles as posaible. The most logical reason, however, that I can now see for that larger broader boundary is that the Palouse soil, theoretically at least, is common, and I may have considered it prevalent, throughout the entire larger area. However, it appears to me today, that the Palouse soil no more typifies this larger area than any one of several other soil series. I now feel that the name ?Presidential address of the Association of Pacific Coast Geographers, Santa Barbara, California, June 18, 1953. • Spokane valley Foro •Freeman * Ford • CoNKLiN Park , Plummer¦ Te ??? • Desmet·G?*?.?ß???·3LWAN • POTLATC WlNONA * VlOLA • TROV • La Crosse • Pampa • Hooper • Penowawa •Kendrick *JuL(AE TTA • WaWA WAi Kahlotus • Riparia Clarkston *· Lewiston H}» o· O D*¦ o o &lt; o LAND FORMS OF THE PALOUSE NO ? o O ? o OQ P ? 6 Yearbook ol tie Assoc .a. .onVol. 15 Palouse should be limited to a minor fraction of that area. Boundaries The boundary delineated by Meinig (1950), in my opinion, provides better boundaries than any other yet described. 2 The bounds of the Palouse Prairie by Clements and Shelford (1939) and those of the Palusian Biotic Province by Dice (1943) are not too different, but they are not the same. My suggested boundary was arrived at, in my mind, at least ten years ago, and it so happens that it coincides exactly with that proposed by Meinig. We arrived at the same conclusion wholly independently of each other. This area lies mainly within a 90-mile equilateral triangle pointed by Spokane, Washington on the north, Kendrick, Idaho on the southeast, and Kahlotus, Washington, on the southwest. More specifically, its perimeter is not far from each of the following towns and stations (named clockwise): Spangle, Valley Ford, and Freeman, Washington; Ford, Conklin Park, Plummer, Sorento, Sanders, and DeSmet, Idaho; Tekoa, and Farmington, Washington; Potlatch, Viola, Troy, Kendrick, Juliaette, Spalding, and Lewiston, Idaho; Clarkston, Wawawai, Almota, Penawawa, Riparia, Ayer Junction, Hooper, Pampa, La Crosse, Winona, and Ewan, Washington. Nature has made natural boundaries which separate t</t>
+          <t>The absolute intensities of transitions occurring in the optical spectra of single crystals of ${\mathrm{Y}}_{2}$${\mathrm{O}}_{3}$ doped with small amounts of Pr, Nd, Eu, Er, and Tm; single crystals of La${\mathrm{F}}_{3}$ doped with small amounts of Pr and Nd; and single crystals of ${\mathrm{Er}}_{2}$${\mathrm{O}}_{3}$, ${\mathrm{Tm}}_{2}$${\mathrm{O}}_{3}$, and ${\mathrm{Yb}}_{2}$${\mathrm{O}}_{3}$ have been measured at room temperature. All observed transitions occur within the ground configurations of the trivalent rare-earth ions, and their intensities are accounted for using three phenomenological parameters for each system, whose values are determined by a a least-squares fitting calculation. A calculation of the relevant crystal-field terms is made, and theoretical values for the intensity parameters are calculated using free-ion radial wave functions and certain closure approximations. It is concluded that excited $4{f}^{n\ensuremath{-}1}$ $g$ configurations contribute to observed intensities more than is indicated by free-ion calculations, and that the excited $4{f}^{n\ensuremath{-}1}5d$ configuration contributes to the observed intensities an order of magnitude less than indicated by free-ion calculations. A hypersensitive transition in the neodymium systems is observed and its sensitivity is traced to a simple change in point symmetry of the host.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2084487225</t>
+          <t>https://openalex.org/W2055194283</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1159/000301362</t>
+          <t>https://doi.org/10.1177/004051756603600905</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Fust et al. (1953)</t>
+          <t>Cooper &amp; Tobolsky (1966)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Therapeutische Beeinflussung der experimentellen Augentuberkulose des Kaninchens durch Rimifon (Isoniazid)</t>
+          <t>Viscoelastic Behavior of Segmented Elastomers</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Research Articles| March 19 2010 Therapeutische Beeinflussung der experimentellen Augentuberkulose des Kaninchens durch Rimifon (Isoniazid) Subject Area: Ophthalmology B. Fust; B. Fust Aus den Medizinischen Laboratorien der F. Hoffmann-La Roche &amp; Co. A.G. und der Ophthalmologischen Abteilung des St.-Clara-Spitals, Basel Search for other works by this author on: This Site PubMed Google Scholar R. Brückner; R. Brückner Aus den Medizinischen Laboratorien der F. Hoffmann-La Roche &amp; Co. A.G. und der Ophthalmologischen Abteilung des St.-Clara-Spitals, Basel Search for other works by this author on: This Site PubMed Google Scholar A. Studer A. Studer Aus den Medizinischen Laboratorien der F. Hoffmann-La Roche &amp; Co. A.G. und der Ophthalmologischen Abteilung des St.-Clara-Spitals, Basel Search for other works by this author on: This Site PubMed Google Scholar Ophthalmologica (1953) 125 (1): 1–16. https://doi.org/10.1159/000301362 Article history Published Online: March 19 2010 Content Tools Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Peer Review Share Icon Share Facebook Twitter LinkedIn Email Tools Icon Tools Get Permissions Cite Icon Cite Search Site Citation B. Fust, R. Brückner, A. Studer; Therapeutische Beeinflussung der experimentellen Augentuberkulose des Kaninchens durch Rimifon (Isoniazid). Ophthalmologica 1 January 1953; 125 (1): 1–16. https://doi.org/10.1159/000301362 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentAll JournalsOphthalmologica Search Advanced Search Article PDF first page preview Close Modal This content is only available via PDF. 1953Copyright / Drug Dosage / DisclaimerCopyright: All rights reserved. No part of this publication may be translated into other languages, reproduced or utilized in any form or by any means, electronic or mechanical, including photocopying, recording, microcopying, or by any information storage and retrieval system, without permission in writing from the publisher.Drug Dosage: The authors and the publisher have exerted every effort to ensure that drug selection and dosage set forth in this text are in accord with current recommendations and practice at the time of publication. However, in view of ongoing research, changes in government regulations, and the constant flow of information relating to drug therapy and drug reactions, the reader is urged to check the package insert for each drug for any changes in indications and dosage and for added warnings and precautions. This is particularly important when the recommended agent is a new and/or infrequently employed drug.Disclaimer: The statements, opinions and data contained in this publication are solely those of the individual authors and contributors and not of the publishers and the editor(s). The appearance of advertisements or/and product references in the publication is not a warranty, endorsement, or approval of the products or services advertised or of their effectiveness, quality or safety. The publisher and the editor(s) disclaim responsibility for any injury to persons or property resulting from any ideas, methods, instructions or products referred to in the content or advertisements. You do not currently have access to this content.</t>
+          <t>Abstract Viscoelastic behavior of linear segmented elastomers was examined. The unusual properties found in spandex systems are also observable in hydrocarbon block co-polymers, indicating that hydrogen bonding interactions are perhaps not essential. Low temperature properties of segmented systems are governed by the structural nature of the associated flexible segments, which determines the value of the major glass transition temperature (Tg). It appears that an association of the hard segments provides a broad temperature range of enhanced rubbery modulus. This occurs between the major Tg and a secondary high temperature transition.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2188938336</t>
+          <t>https://openalex.org/W2056793277</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0006-8993(66)90094-1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Uozumi (1953)</t>
+          <t>Lomax (1966)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MOLMUSCAN FAUNA OF rcHE SO"CALLED "MeMewYAMA rXRANSX KrEONAL FeRMATXON"</t>
+          <t>The hypothermic effect of pentobarbital in the rat: Sites and mechanisms of action</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>As to the lower straeigraphical limit of the Oligoeene Poronai fauna the writers quite agree to what was suggested by MiNA'ro in one o￡ his recent papers(i&gt;. Namely, the said fauna appeared, for the first time, in the lowest part of the Urahoro group which is undeylain by the ￡ormation containing the remains o￡ Wooazvaraia, as seen in the Kushiro coal-field in the eastern part o￡ Ho}d&lt;aid6. On the other hand, mueh has been disputed by geologists as to the period of disappearanee of the Poronai fauna in ehe. Tertiary sequenee of Hokkaid6. The opinion seems to have prevailed, however, that the pyroelastic formation be}ow the Mioeene Kawabata foymation separates the foxmer from the Poronai formaion which is characterized by the so-called Asagai-Poronai ￡auna : in other words, there is an iltdependent formation between the Poronai and the Kawabata formations. To this inteymediate ￡ermation, the Mag4ribuehi formation of Teshio Province, the Haranosawa formation of the Haboro coal-field and the Momijiyama formation of the Ishil&lt;ari eoal-field are considered to belong. This intexmediate formation has been considered to be correlative with the so-cal}ed Transitional formation&lt;L')'&lt;3) in the [l]extiaxy succession of Japan, in regard both to the lithological nature and the stratigraphieal POSitiOll. These formatlons that deve}op along the western slope o￡ the backbone range of Ko!&lt;kaid6 underlies the coal-bearing series o￡ beds with plant fossils whlch gradually merge into a marine foymation, being eontempeyaneous with the bed yielded Des7nostylus mirabilis NA(iAo. On the other kaftd these formations res￡ on the Cretaeeous formation or</t>
+          <t>Systemic administration of pentobarbital to the rat leads to a fall in body temperature. The hypothermia is due to a combination of decreased metabolic heat production and increased heat loss through the skin as a result of peripheral vasodilation. There was no direct correlation between the rate of fall in temperature and the decrease in oxygen consumption. The rate of fall in temperature was determined primarily by the temperature gradient between the animal and the environment. The known effects of pentobarbital in decreasing oxidative processes in the tissues and in blocking transmission in autonomic ganglia could account for these changes. Microinjection of pentobarbital into the hypothalamus and the medullary vasomotor centers was without effect on the core temperature. It is concluded that the fall in temperature during barbiturate anesthesia is not due to a direct effect on the thermoregulatory centers in the hypothalamus.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1972471878</t>
+          <t>https://openalex.org/W2061816819</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0016-0032(53)90896-5</t>
+          <t>https://doi.org/10.1103/physrev.145.311</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Groves (1953)</t>
+          <t>Larson &amp; Jeffries (1966)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Research—its goal in industry</t>
+          <t>Spin-Lattice Relaxation in Some Rare-Earth Salts. II. Angular Dependence, Hyperfine Effects, and Cross Relaxation</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Functional and pragmatic approaches to grammar, and to language more broadly, are well known. All of these approaches, however, accept a core aspect of sentences, or utterances, as consisting of encodings of propositions. They proceed on their functional and pragmatic explorations with this much, at least, taken for granted. I wish to argue, to the contrary, that the functional characteristics of utterances penetrate even to the level of the structure - the grammar - of supposed propositional encodings. More specifically, I argue that the structure that is taken as a structure of propositional encodings is not that at all, but is instead a structure of functionally organized action. Constraints on such structures, in turn - constraints on grammars - emerge as intrinsic constraints on that functional organization. My point will of necessity be made programmatically, since to fill it out completely would be to complete a functional version of universal grammar.The mere logical possibility of intrinsic constraints on the grammatical possibilities of language refutes attempts to construe grammatical constraints as logically arbitrary. Typically, because grammatical constraints are construed as being (logically) arbitrary, some additional explanation of the constraints is required should those constraints be shown or argued to be universal. That additional explanation is usually some equally logically arbitrary innateness postulate. I will show that the possibility of intrinsic grammatical constraints invalidates standard arguments for such innateness - specifically, that such a possibility invalidates the poverty of the stimulus argument.Grammatical constraints are not the only characteristics of language that are intrinsic to its nature. I also show how phenomena of implicature, the hermeneutic circle, and forms of creative language can be understood as being naturally emergent in the functional nature of language. Most broadly, then, intrinsic constraints constitute a rich realm for exploration in attempting to understand language.</t>
+          <t>In this second part of a study of the spin-lattice relaxation rate ${{T}_{1}}^{\ensuremath{-}1}$ in the temperature range $1.2\ensuremath{\leqq}T\ensuremath{\leqq}5\ifmmode^\circ\else\textdegree\fi{}$K of some trivalent rare-earth ions in the salts ${\mathrm{La}}_{2}$${\mathrm{Mg}}_{3}$${(\mathrm{N}{\mathrm{O}}_{3})}_{12}$\ifmmode\cdot\else\textperiodcentered\fi{}24${\mathrm{H}}_{2}$O[LaMN], La${({\mathrm{C}}_{2}{\mathrm{H}}_{5}\mathrm{S}{\mathrm{O}}_{4})}_{3}$\ifmmode\cdot\else\textperiodcentered\fi{}9${\mathrm{H}}_{2}$O[LaES], and ${\mathrm{Y}({\mathrm{C}}_{2}{\mathrm{H}}_{5}\mathrm{S}{\mathrm{O}}_{4})}_{3}$\ifmmode\cdot\else\textperiodcentered\fi{}9${\mathrm{H}}_{2}$O[YES], we examine the dependence of ${{T}_{1}}^{\ensuremath{-}1}$ on the angle $\ensuremath{\theta}$ between the crystal symmetry axis and the magnetic field H. Data are obtained from the transient recovery of the microwave paramagnetic resonance at $\ensuremath{\nu}\ensuremath{\approx}9$ Gc/sec for Nd: YES, Nd: LaES, Nd: LaMN, Sm: LaMN, Sm: LaES, Sm: YES, Er: LaES, and Er: YES, all for isotopes of spin $I=0$. There is a decided anisotropy of the direct process, as large as 15:1, which seems to be moderately well explained by the same simple theoretical procedure used in part I for the temperature dependence. The Raman process was found to be independent of $\ensuremath{\theta}$ and $H$, as expected theoretically; likewise for the Orbach process, except for Nd: LaMN, where a small anisotropy is observed and explained. The data for the phonon-bottlenecked cases Ce: LaMN and Pr: LaMN indicate that the spins interact only with the phonons within the paramagnetic-resonance linewidth. The direct process for the various hyperfine lines of ${\mathrm{Er}}^{167}$ in Er: YES and ${\mathrm{Nd}}^{143}$ in Nd: LaMN is measured and found to exhibit a dependence on ${M}_{I}$ and $H$ in accordance with the theory of Baker and Ford, showing the importance of "forbidden" relaxation transitions $\ensuremath{\Delta}{M}_{S}=1$, $\ensuremath{\Delta}{M}_{I}=\ifmmode\pm\else\textpm\fi{}1$. In a study of relaxation in (Er, Ce): LaES we find that the Er relaxation rate is quite well explained in its dependence on both temperature and Ce concentration by resonance cross relaxation with Ce ions in the excited state at $\ensuremath{\Delta}=5.7\ifmmode^\circ\else\textdegree\fi{}$K.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4239323420</t>
+          <t>https://openalex.org/W2069456396</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1242/dev.1.1.1</t>
+          <t>https://doi.org/10.1192/bjp.112.491.1043</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Dalcq (1953)</t>
+          <t>Brown &amp; Epps (1966)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Foreword</t>
+          <t>Childhood Bereavement and Subsequent Crime</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Several journals, formally dedicated to zoology, morphology, anatomy, cytology, or biology, more rarely to embryology, are already open to the publication of studies on development. Nevertheless, the need for a new periodical which would be primarily devoted to morphogenesis has been felt in recent years by many embryologists. Professor Woerdeman, in particular, tackled this problem immediately after the last war, but the conditions of the moment did not allow him to realize his fine scheme. In the meantime, our Japanese colleagues took a similar initiative and founded, in 1950, their journal Embryologia. In Europe there is certainly space for an enterprise run on an international scale. Accordingly, all students of morphogenesis will be grateful to the British embryologists for having taken over the project of their Dutch colleague. Professor Woerdeman willingly put the results of his preliminary inquiries at the disposal of the British group, which he soon joined. His collaboration is the more important in that he is the Chairman of the Institut International d’Embryologie, a foundation playing a prominent and constantly increasing role in our scientific movement.By progressive co-option, the group of sponsors soon grew to the present Editorial Board. Thanks to the assistance of the British Council, most of its members held an inaugural meeting early in the present year. Arrangements were made for the publication of the new Journal of Embryology and Experimental Morphology by the Company of Biologists Ltd.; and the Wellcome Trust has greatly facilitated the task of starting the journal by offering the Company a generous guarantee against financial loss during the first two years of publication.This new instrument for forwarding scientific information and co-operation will probably answer to the wishes of many embryologists. When they take a bird’s-eye view of the work accomplished in their field during the first half of this century they can perceive a curve of activities which reveals, in spite of two sad interruptions, a constant expansion. If, as every scientist heartily wishes, the coming years are favourable to peaceful and disinterested laboratory life, the progress of our studies could well outrun all former estimations. Indeed, the great anonymous opus, which the science of development strives to be, is experiencing a tremendous phase of growth and differentiation.The period where the gross aspects of development had simply to be described is coming to an end, although much remains to be done in some groups. But new tasks constantly appear as much on the purely embryological level as when recourse is had to the methods of neighbouring sciences. One characteristic of the present period is a certain temporary prevalence of observation at the expense of experimentation. Many of us feel strongly the necessity for a better understanding of the germinal protoplasm, for a more precise knowledge of its physical and chemical organization which must be in some way responsible for morphogenesis. But each step in the appropriate use of cytochemical reactions, or of the improved physical means of observation now at our disposal—optical, photometrical, photo-electrical, electronic, radio-electrical, and other devices!—entails a series of cautious inquiries, involving regular publication of papers.For those who still feel more tempted by experimentation, the same technical requirements unavoidably weigh upon the rhythm of progress and increase the probability of frequent publication. In both observation and experiment the recourse to biochemistry has become a perpetual preoccupation. In spite of the immense work already performed, it must be admitted, provisionally, that some crucial aspects of early morphogenesis, those bound up with field relations and induction processes, still escape our range of attack. However, the use of the most sensitive methods of immunology and of radioactive tracers immediately awakens new hopes, and this too promises a serious output of special contributions.It is also obvious that embryologists will now be confronted with an extraordinary extension of their field in depth, in space, and in time.In depth, owing to their constant wish to reach to the macromolecular level, a tendency which does not need to be stressed.In space, according to circumstances which require some comment. On the one side, it appears that we are on the verge of establishing the common denominator of morphogenesis in regeneration and asexual reproduction and in embryonic development. The recent confirmation of real induction processes in regeneration seems to be a decisive step in this direction.On the other hand, a tremendous programme of investigation is called for concerning mammalian development. These eggs put before us the problems of morphogenesis in their very barest and most powerful aspects, but also under the most difficult conditions for the gathering of material and for the methods of manipulation</t>
+          <t>It has long been recognized that deprivation in childhood could be related to subsequent crime. Bunyan, in The Life and Death of Mr. Badman , takes for granted that orphanhood renders a girl liable to early seduction. Dickens, writing of Newgate Prison in his Sketches by Boz , says: “Barely past her childhood, it required but a glance to discover that she was one of those children, born and bred in neglect and vice, who had never known what childhood is; who have never been taught to love and court a parent's smile, or to dread a parent's frown. The thousand nameless endearments of childhood, its gaiety and its innocence, are alike unknown to them. They have entered at once into the stern realities and miseries of life, and to their better nature it is almost impossible to appeal in after times ….” In 1944, Bowlby outlined the concept of the affectless and affectionless psychopath produced by deprivation and repeated change of parent figure. The Gluecks, in 1950, found an increase of incidence of broken family in young male delinquents. Analysis of their figures (Fig. 1) suggests that loss of mothers in the childhood of these male delinquents was significant. In 1961 we made an examination of 200 women prisoners and concluded that loss of fathers in childhood was a significant factor in female delinquents.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1977402818</t>
+          <t>https://openalex.org/W2071039875</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/287237</t>
+          <t>https://doi.org/10.1002/pen.760060206</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Fales (1953)</t>
+          <t>Neuman (1966)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Causes and Effects</t>
+          <t>Development of an impact test for evaluation of weatherability of rigid plastics</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>It is the objective of this paper to point out that discussions about cause and effect, and particularly those which bear upon their temporal relationship, are often blurred by failure to make use of the time-honored distinction between transeunt and immanent (also called “extrinsic” and “intrinsic”) causes. Transeunt causes are in evidence whenever we discern two systems, S 1 and S 2 , spatially separated (at least in the beginning of the process), but locked in interaction. In this perspective, cotemporaneous changes can be asserted both of S 1 and S 2 . S 1 has an effect on S 2 , and vice versa. Both effects take place simultaneously but are, as a rule, of different nature. Whether we read the causal relationship from S 1 , as the cause, to the changes of S 2 , as the effect, or the other way, from S 2 to S 1 , depends on nothing more objective than the momentary direction of our interest. Immanent causes get into focus whenever we compare the internal conditions C 1 and C 2 which characterize a system S 0 at two different moments t 1 and t 2 . If t 1 is earlier than t 2 , there is a sense in which we can say that C 1 is a cause, and C 2 its effect.</t>
+          <t>Abstract Color development in outdoor applications has been widely used as an indication of breakdown in plastic materials although this does not always indicate a change in physical properties. Appearance factors are easily and precisely evaluated by measuring color and surface changes. Measurement of physical property changes is more comples and more meaningful. An optimum test method should measure a property with time, environment and sample form. Ideally, the data should determine service life. The test specimen should be adaptable to a variety of samples. Of the many physical tests of weatherability, impact strength appears most interesting. An inexpensive Variable Impact Tester was Modified and Developed for Measuring the effect of aging on rigid PVC. Data are presented showing the relation between impact values and temperature, sample thickness, process conditions and various environmental exposures.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2606949693</t>
+          <t>https://openalex.org/W2071696500</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1248/yakushi1947.73.5_419</t>
+          <t>https://doi.org/10.1073/pnas.56.2.672</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Watanabe &amp; Goto (1953)</t>
+          <t>Borenfreund et al. (1966)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Minute Constituents of Crude Drugs. I</t>
+          <t>Malignant conversion of cells in vitro by carcinogens and viruses.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>The content of folic acid, as calculated from the growth rate of Streptococcus faecalis in a complete synthetic medium not containing folic acid, in unit gram of various parts of dried spinach was found to be largest in the root, followed by the mesophyll, and least in the petiole. However, folic acid was found to be contained largely in the fresh mesophyll. The acid content was also found to be larger in terrestrial portion, the content being 43.6 γ/100g. in the terrestrial, and 6.8 γ/100g. in the underground portion. Folic acid was found not to change by drying, either in the sun or at 40°. It follows, therefore, that this kind of drying would leave folic acid virtually intact and that the acid would be contained in the prepared crude drugs in the amount approximately the same as that in fresh plants. The content of folic acid was also found to be the same in Japanese spinach, irrespective of the place or season of collection, as long as the growth of the plant was about the same. The content of folic acid was found to be comparatively large in the flowers of dandelion which may offer a material for research on the tonic flower drugs. The content of folic acid in a few tonic drugs was found to be smaller than in spinach but they invariably contain folic acid or a substance which gives the same action as the acid on microörganisms.</t>
+          <t>The global agri-food system is simultaneously a major contributor to, and severely affected by, climate change. Agroecological farming systems can contribute to creating resilient agri-food systems. Based on a multiyear qualitative case study, ...Supporting transitions to sustainable, resilient agri-food systems is important to ensure stable food supply in the face of growing climate extremes. Agroecology, or diversified farming systems based on ecological principles, can contribute to such ...</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2054624205</t>
+          <t>https://openalex.org/W2073477798</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1306/5ceade3f-16bb-11d7-8645000102c1865d</t>
+          <t>https://doi.org/10.1029/jz071i016p03817</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Strachan (1953)</t>
+          <t>Yamashita et al. (1966)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Case History, Pincher Creek Structure and Field: ABSTRACT</t>
+          <t>Cosmic-ray-produced neutrons at ground level: Neutron production rate and flux distribution</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>The Pincher Creek structure lies in the southern part of the Foothills Belt of Alberta. Seismograph operations started in the area of the structure in 1943 as a part of the survey being carried on in the region and has been carried on periodically into 1953. The shooting was partly by the refraction method. The discovery well is the Pincher Creek No. 1, LSD 15, Sec. 24, T. 3, R. 29 W. 4. Subsequently successful wells, the Marr No. 1 and the Bonertz No. 1, were drilled 7½ and 4½ miles, respectively, and in that order northwest of the discovery. The Schrempp No. 1 was drilled low on the structure in an attempt to find oil but only had a short section of the pay zone above the gas-water line. The Huddleston No. 1 is the most recent completion. It has modified somewhat previous ideas of the nature of the structure and has made a local change in the extent of the reservoir. The pay zone is in Mississippian dolomites and limestones with a stratigraphic sequence similar to that at Turner Valley. The gas is in intergranular porosity zones and in general permeability occurs as the result of fracturing in the reservoir. Most of the entire productive section has been cored with consequent good control of reservoir factors. End_of_Article - Last_Page 2616------------</t>
+          <t>The absolute rates of cosmic-ray neutron production and neutron flux distribution on the ground were determined at sea level and mountain altitude at a geomagnetic latitude λ = 44°N in 1964. The thermal neutron flux was measured with a well-calibrated BF3 counter; a Maxwellian energy distribution with a shifted neutron temperature was assumed. By using two differently moderated BF3 counters, the fast-neutron flux was determined in the energy range 0.4 ev to 10 Mev. The neutron fluxes were also estimated from the measured production rate, and they are in good agreement with the measured fluxes; possible occurrence of air-ground boundary effects on the neutron flux distribution was considered. Anisotropy of the thermal neutron flux on the ground was experimentally demonstrated, and the angular distribution was well filled by the first two terms of a spherical-harmonics expansion. The air-ground boundary effects are discussed on the basis of experimental results.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://openalex.org/W220597170</t>
+          <t>https://openalex.org/W2077352969</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/bf01902415</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Gaylis (1953)</t>
+          <t>Schwarzenbach (1966)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Experimental production of tendon sheaths: An experimental study, using venous grafts in Cercopithecus aethiops (Blue vervet monkey)</t>
+          <t>Die Entwicklung der Valenzlehre und Alfred Werner</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Author(s): Gaylis, Hyman | Abstract: An attempt to reproduce tendon sheaths using autologous venous grafts has been undertaken in Cercopithecus aethiops (Blue Vervet Monkey). Ten venous grafts were tested. Five were placed around sutured tendons in paratenon, and the remainder around tendons in sheath formation. In no instance did synovial-like sheaths form. In the latter series, the experiment was controlled, and the results obtained expressed in terms of function. The functional results of the venous ensheathed tendons were worse than those of the controlled tendons.The controlled experiment was confined to the digital sheath, an area notoriously liable to adhesion formation, and the one which offered the most critical test of operative technique.A method for the evaluation of function, following the repair of divided tendons in the experimental animal has been presented. Voluntary movement of joints in the experimental animal was obviously impossible, but the method employed in this experiment, namely, the electrical stimulation of muscles, and the photographic recording of the range of joint movement, presented no disadvantages.The experimental animal used in this study was ideal, in that anatomical studies of the hand of this species, revealed features both structurally and functionally comparable to those in man.The anatomical and physiological aspects of tendon action, the mechanics of tendon gliding, and the healing processes in divided tendons have been studied.The fate of human autologous venous grafts has been investigated.A review of previous methods employed to prevent peritendinous adhesions has been presented.</t>
+          <t>Surveying the various concepts of valency which have been put forward sinceDalton for the classification of chemical phenomena, it is found that the principles have been either dualistic (Berzelius, Blomstrand, Arrhenius, Kossel) or unitarian (Gerhard, Couper, Kekulé). The phenomena of inorganic chemistry can be classified only by using dualistic concepts, whereas unitarian systems proved to be superior for the phenomena of organic chemistry. In the conceptions of G. N.Lewis and N.Sidgwick, a combination of dualistic and unitarian concepts in one theory was achieved by distinguishing two types of bonds (mobile-immobile, polar-non-polar, ioniccovalent). With the octet rule, ions as well as molecules (uncharged and charged) may be derived and it is readily understood that bonds may vary from extreme polarity to non-polar links. The coordination theory ofWerner neither fits into the dualistic nor the unitarian class of valency principles.Werner derives the compounds by using principal and auxiliary valencies (‘Haupt- und Nebenvalenzen’) and distinguishes addition and insertion compounds (‘Anlagerungs- und Einlagerungsverbindungen’). However, he avoids making any statement concerning the nature of the bonds, which makes his system very adaptable but difficult to grasp. Today it is readily understood thatWerner's principal valency characterizes the stoichiometry and his coordination number characterizes the structure of the compound in question without making any statement about the nature of the bonds involved. Because of thatWerner's concepts have survived and are indispensable even today, in spite of the rise of atomic physics which has changed our views on the nature of the chemical bonds so drastically.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4213009229</t>
+          <t>https://openalex.org/W2077896830</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/cen-v031n048.p4980</t>
+          <t>https://doi.org/10.1016/0926-6585(66)90254-8</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>NA (1953)</t>
+          <t>Bonting &amp; Caravaggio (1966)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>GOVERNMENT</t>
+          <t>Studies on Na+K+-activated adenosine triphosphatase XVI. Its absence from the cation transport system of Ulva lactuca</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>RETURN TO ISSUEPREVNewsNEXTGOVERNMENTGAF-GDC Sale Still Bogged DownLegal action complicates sale of $148.5 million General Aniline-General Dyestuffs corporationsCite this: Chem. Eng. News 1953, 31, 48, 4980–4984Publication Date (Print):November 30, 1953Publication History Published online12 November 2010Published inissue 30 November 1953https://doi.org/10.1021/cen-v031n048.p4980Copyright © 1953 AMERICAN CHEMICAL SOCIETYArticle Views2Altmetric-Citations-LEARN ABOUT THESE METRICSArticle Views are the COUNTER-compliant sum of full text article downloads since November 2008 (both PDF and HTML) across all institutions and individuals. These metrics are regularly updated to reflect usage leading up to the last few days.Citations are the number of other articles citing this article, calculated by Crossref and updated daily. Find more information about Crossref citation counts.The Altmetric Attention Score is a quantitative measure of the attention that a research article has received online. Clicking on the donut icon will load a page at altmetric.com with additional details about the score and the social media presence for the given article. Find more information on the Altmetric Attention Score and how the score is calculated. Share Add toView InAdd Full Text with ReferenceAdd Description ExportRISCitationCitation and abstractCitation and referencesMore Options Share onFacebookTwitterWechatLinked InReddit PDF (468 KB) SUBJECTS:Paper Get e-Alerts</t>
+          <t>1. The ouabain-sensitive Na+K+-activated adenosine triphosphatase, which is closely related to, or identical with the active Na+K+ transport system, occurs with a great variety of animal species and tissues. 2. The cation transport system of the marine green alga Ulva lactuca, the common “sea lettuce”, has a K+ influx 3.5 times as large as the Na+ efflux in darkness and upon illumination the K+ influx increases sharply without change in Na+ efflux. 3. Enzyme assay showed that Ulva lactuca lacks an ouabain-sensitive Na+K+-activated adenosine triphosphatase system. 4. The absence of an ouabain-sensitive cation transport system was concluded from the lack of effect of incubation in 10−4 M ouabain upon the Na+ and K+ levels of the tissue and upon the 86Rb+ uptake rate. 5. Although the exact limits to the occurrence of Na+K+-activated adenosine triphosphatase and ouabain-sensitive cation transport are not yet known, the correlation between these two is so far unbroken.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4239417167</t>
+          <t>https://openalex.org/W2078008496</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/cen-v031n013.p1300</t>
+          <t>https://doi.org/10.2514/3.3466</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>NA (1953)</t>
+          <t>Hawthorn &amp; Nixon (1966)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Statewide Standards Unsound as Devices to Stop Water Pollution</t>
+          <t>Shock tube ignition delay studies of endothermic fuels.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>RETURN TO ISSUEPREVNewsNEXTStatewide Standards Unsound as Devices to Stop Water Pollution▸ Suggestions for comprehensive national water policy emphasize need for Congressional action:▸ Combination electrolytic and ion exchange process for demineralizing water gives good quality, low-cost waterCite this: Chem. Eng. News 1953, 31, 13, 1300–1302Publication Date (Print):March 30, 1953Publication History Published online5 November 2010Published inissue 30 March 1953https://doi.org/10.1021/cen-v031n013.p1300Copyright © 1953 AMERICAN CHEMICAL SOCIETYArticle Views4Altmetric-Citations-LEARN ABOUT THESE METRICSArticle Views are the COUNTER-compliant sum of full text article downloads since November 2008 (both PDF and HTML) across all institutions and individuals. These metrics are regularly updated to reflect usage leading up to the last few days.Citations are the number of other articles citing this article, calculated by Crossref and updated daily. Find more information about Crossref citation counts.The Altmetric Attention Score is a quantitative measure of the attention that a research article has received online. Clicking on the donut icon will load a page at altmetric.com with additional details about the score and the social media presence for the given article. Find more information on the Altmetric Attention Score and how the score is calculated. Share Add toView InAdd Full Text with ReferenceAdd Description ExportRISCitationCitation and abstractCitation and referencesMore Options Share onFacebookTwitterWechatLinked InReddit PDF (271 KB) SUBJECTS:Materials,Quality management,Sewage,Water pollution,Water treatment Get e-Alerts</t>
+          <t>Hydrocarbon fuels can be used for providing cooling for advanced aircraft engines through the medium of latent, sensible, and endothermic heat sinks. The latter are obtained by carrying out dehydrogenation reactions on the hydrocarbon fuel, thus producing molecular species different from those in the original fuel. In order to determine what effect this change of molecular species would have on combustion properties under supersonic conditions, systems based on propane and methylcyclohexane as starting fuels have been examined in a single-diaphragm shock tube. Emission of visible light was used as the criterion of ignition. No general correlation of ignition delay for these fuels has been developed. However, sufficient data are presented to indicate semiquantitatively the effects of temperature, pressure, and fuel composition on ignition delays and the absolute value of ignition delays for these fuels in air. Delay times for these hydrocarbons were intermediate between those for CH4 and for H2 in the range of temperature studied. Because of the greater influence of temperature on the ignition of hydrocarbons, it appears that their delay times may become comparable with those for hydrogen above 1800°F. T HE research described in this paper is a part of work done under a contract on vaporizing and endothermic fuels for advanced engine applications supported by Wright-Patterson Air Force Base, Ohio [Contract AF 33(657)-11096 ]. This contract requires the development of specification s for fuels which would be useful for providing cooling for advanced aircraft engines through the medium of latent, sensible, and endothermic heat sink. This involves the determination of chemical and physical properties of candidate fuels, assessment of their thermal stability at temperatures up to reaction temperature, examination of catalyzed and thermal endothermic reactions of possible fuels by laboratory methods, determination of realizable heat sink capacities and heat-transfer parameters of selected fuels in a fuel system simulation test rig, construction of a mathematical model of the fuel system for correlation and extrapolation, and examination of the combustion properties of the reaction products produced by the endothermic reactions. The combustion properties are being studied under various conditions; those reported here involve utilization of a kinetic shock tube. The latter study was included in view of the possibility of involving supersonic combustion in high-speed ram-jet engines. Our preliminary studies of available literature in the field of supersonic combustion indicated that ignition delay time would be an important property of hydrocarbon fuels. We decided to measure this property by means of a shock tube, selecting the conditions so as to provide information that would be of use in characterizing the combustion properties of the selected fuels. A large number of hydrocarbon systems exist that would be suitable for absorbing heat through latent and sensible paths. A smaller number of systems exist which would provide substantial amounts of heat sinks through endothermic reactions. Although thermal reactions can absorb up to about 400 Btu/ Ib of endothermic heat, greater amounts of endothermic heat can only be made available through catalytic dehydrogenation reactions. Since the realm of thermal reactions has been ex</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3128023519</t>
+          <t>https://openalex.org/W2079476642</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2172/4390828</t>
+          <t>https://doi.org/10.1016/0006-2952(66)90254-1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Gray (1953)</t>
+          <t>Koechlin et al. (1966)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>A VERSATILE VACUUM MELTING FURNACE</t>
+          <t>The metabolism of 5-fluorocytosine-214C and of cytosine-14C in the rat and the disposition of 5-fluorocytosine-214C in man</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>425, and 503 were tested in the SMRF with the updated baseline SB4 projection. Based on dry-fed Melt Rate Furnace (MRF) tests and the above mentioned SMRF tests, two previous frit recommendations were made by the Savannah River National Laboratory (SRNL) for processing of SB4 in the Defense Waste Processing Facility (DWPF). The first was Frit 503 based on the June 2006 composition projections.3 The recommendation was changed to Frit 418 as a result of the October 2006 composition projections (after the Tank 40 decant was implemented as part of the preparation plan). However, the start of SB4 processing was delayed due to the control room consolidation outage and the repair of the valve box in the Tank 51 to Tank 40 transfer line. These delays resulted in changes to the projected SB4 composition. Due to the slight change in composition and based on preliminary dry-fed MRF testing, SRNL believed that Frit 510 would increase throughput in processing SB4 in DWPF. Frit 418, which was used in processing Sludge Batch 3 (SB3), was a viable candidate and available in DWPF. Therefore, it was used during the initial SB4 processing. Due to the potential for higher melt rates with Frit 510, SMRF tests with the latest SB4 composition (1298 canisters) and Frits 510 and 418 were performed at a targeted waste loading (WL) of 35%. The '1298 canisters' describes the number of equivalent canisters that would be produced from the beginning of the current contract period before SB3 is blended with SB4. The melt rate for the SMRF SB4/Frit 510 test was 14.6 grams/minute. Due to cold cap mounding problems with the SMRF SB4/Frit 418 feed at 50 weight % solids that prevented a melt rate determination, this feed was diluted to 45 weight % solids. The melt rate for this diluted feed was 8.9 grams/minute. A correction factor of 1.2 for estimating the melt rate at 50 weight % solids from 45 weight % solids test results (based on previous SMRF testing5) was then used to estimate a melt rate of 10.7 grams/minute for SB4/Frit 418 at 50 weight % solids. Therefore, the use of Frit 510 versus Frit 418 with SB4 resulted in a higher melt rate (14.6 versus an estimated 10.7 grams/minute). For reference, a previous SMRF test with SB3/Frit 418 feed at 35% waste loading and 50 weight % solids resulted in a melt rate of 14.1 grams/minute. Therefore, depending on the actual feed rheology, the use of Frit 510 with SB4 could result in similar melt rates as experienced with SB3/Frit 418 feed in the DWPF.</t>
+          <t>5-Fluorocytosine (5-FC), an antimetabolite of cytosine with specific fungistatic properties, was labeled in the 2-position with carbon-14. On parenteral administration in rats, 5-FC-214C was not metabolized and was recovered quantitatively and rapidly, mostly in the urine. On oral administration, partial deamination to 5-fluorouracil (5-FU) occurred by action of the intestinal flora, resulting in the excretion of the known metabolites of 5-FU, α-fluoro-β-ureido-propionic acid, urea, and CO2. In man, after oral doses, no metabolic degradation of 5-FC-214C occurred. Apparent fungistatic concentrations of 10–40 μg/ml persisted in the blood for 6–10 hr after a single 2-g dose. The half-life of 5-FC in man was 4–8 hr. The metabolic fate of cytosine-214C in the rat paralleled that of its antimetabolite in that significant degradation followed only its administration by the oral route.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2331108144</t>
+          <t>https://openalex.org/W2080178384</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4157/grj.26.522</t>
+          <t>https://doi.org/10.1143/jpsj.21.1697</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Yamamoto (1953)</t>
+          <t>Sano &amp; Tomiki (1966)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ON THE RELATION OF THE TEA-MARKET IN SHIZUOKA CITY TO ITS MARKET REGION</t>
+          <t>Ionic Conductivity in KCl and Its Dependence on Electrodes</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Shizuoka City acts the role of tea-market that controls the tea-industrial area of Shizuoka Pref., which produces 65% (about 60, 000, 000 pounds) of the output of Japanese tea. The writer discussed the relation of this market to its market region by the investigation through the process of their deve-lopement. The main subjects are summarized as follows: 1. The transaction of tea in Shizuoka commenced in the early days of 17 century. Through the Tokugawa era, it was carried on between the tea-farmers in the Abe and Warashina basin and the tea gild in Sumpu (the old name of Shizuoka city in Tokugawa era), that had the privilege of collecting all the tea produced by farmers. For this reason, Sumpu was the privileged tea-market to its hinterland of that time. This feudal com-mercial relation was broken down by the commencement of tea export at 1858 and the Meiji Restoration. 2. By the influence of export, the tea gardens was increased rapidly in area in different parts of Shizuoka Pref., and about 1880, tea-markets came into existence in the towns along the railway and in the ports. The tea, which was collected at these tea-markets, was supplied to the tea-export-market in Yokohama. By the combination with their surrounding regions, each tea-market had formed an independent tea-industrial region, and they had been united by the export-market in Yokohama. That was the tea-industrial organization in Shizuoka. Pref, at that time (Fig. 2). Shizuoka tea-market had been one of those local markets under such organization, but it had had the largest market region, and had collected about 8, 000, 000 pounds, equivalent to 40% of the output of tea in Shizuoka Pref, about 1900. 3. About 1905, the export-market moved from Yokohaiiia to Shizuoka. For this reason, the latter became the unifying center in the tea-industrial organization, and all the tea-markets in Shizuoka Pref. became the entrepot-markets for the export-market in Shizuoka. 4. After the World War I, tea-making was mechanised, and transporta-tion. made a remarkable progress. By the influences of these changes of conditions, the transaction in the entrep5t-markets AN-as decreased, and the tendency that the tea-maker sell their tea directly to Shizuoka without possing through the entrepot-markets, arose. On the other hand, during the same time, the importance of export-market to the entrepot-markets was diminished, because of the decrease of export. Thus, the latter have enlarged their home-market or home-debouche, and their independent market functions have been raised. These tendencies have become more remarkable after the World War II. 5. Thus, at the present time, the tea market in Shizuoka directly com-bines with his market-region, which covers all the tea industrial regions in Shizuoka Pref., and indirectly with it through the entrepôt-markets above mentioned. It is the existence of the export-market of tea in Shizuoka City that maintains the tea-industry organization, though it is modified by changes in the environment of tea-industry as exemplified by Ila and IIb in Fig. 2.</t>
+          <t>It has been pointed out that the d.c. as well as a.c. conductivity measurements with alkali-halide crystals are liable to be affected by the nature of the electrode employed. In the present study, a number of electrode materials were examined in this regard, especially for use with KCl. Carbon electrodes prepared by vacuum deposition were found to be satisfactory in that (i) contamination from electrodes through thermal diffusion was undetectable at least microscopically, (ii) the measured conductivity showed reproducible changes when the specimen temperaure was varied, and (iii) the d.c. and a.c. conductivity values agreed with each other. Using the carbon electrodes, the dielectric constant of KCl in the kilocycle region was determined in the temperaure range 236°–522°C.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2060847294</t>
+          <t>https://openalex.org/W2081870902</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1159/000301442</t>
+          <t>https://doi.org/10.1111/j.1365-3091.1966.tb01568.x</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Gruber (1953)</t>
+          <t>Saxena (1966)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Vier Fälle von Hyperostosis frontalis interna mit Augenbeschwerden</t>
+          <t>EVOLUTION OF ZIRCONS IN SEDIMENTARY AND METAMORPHIC ROCKS</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Research Articles| March 19 2010 Vier Fälle von Hyperostosis frontalis interna mit Augenbeschwerden Subject Area: Ophthalmology Max Gruber Max Gruber Zürich Search for other works by this author on: This Site PubMed Google Scholar Ophthalmologica (1953) 125 (4-5): 367–373. https://doi.org/10.1159/000301442 Article history Published Online: March 19 2010 Content Tools Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Peer Review Share Icon Share Facebook Twitter LinkedIn Email Tools Icon Tools Get Permissions Cite Icon Cite Search Site Citation Max Gruber; Vier Fälle von Hyperostosis frontalis interna mit Augenbeschwerden. Ophthalmologica 31 December 1953; 125 (4-5): 367–373. https://doi.org/10.1159/000301442 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentAll JournalsOphthalmologica Search Advanced Search This content is only available via PDF. 1953Copyright / Drug Dosage / DisclaimerCopyright: All rights reserved. No part of this publication may be translated into other languages, reproduced or utilized in any form or by any means, electronic or mechanical, including photocopying, recording, microcopying, or by any information storage and retrieval system, without permission in writing from the publisher.Drug Dosage: The authors and the publisher have exerted every effort to ensure that drug selection and dosage set forth in this text are in accord with current recommendations and practice at the time of publication. However, in view of ongoing research, changes in government regulations, and the constant flow of information relating to drug therapy and drug reactions, the reader is urged to check the package insert for each drug for any changes in indications and dosage and for added warnings and precautions. This is particularly important when the recommended agent is a new and/or infrequently employed drug.Disclaimer: The statements, opinions and data contained in this publication are solely those of the individual authors and contributors and not of the publishers and the editor(s). The appearance of advertisements or/and product references in the publication is not a warranty, endorsement, or approval of the products or services advertised or of their effectiveness, quality or safety. The publisher and the editor(s) disclaim responsibility for any injury to persons or property resulting from any ideas, methods, instructions or products referred to in the content or advertisements. Article PDF first page preview Close Modal You do not currently have access to this content.</t>
+          <t>SUMMARY Zircons have been studied in the sedimentary rocks of the Sparagmite Group (Eocambrian) and their metamorphic associates from the Trondheim area and the adjacent regions in Norway and Sweden. The majority of zircon population (type B ) has been formed in the sediments by authigenesis. Another authigenic associate is rutile. The authigenic zircons have irregular, round and ellipsoidal habits. In metamorphic rocks the same grains show a greater tendency of euhedrism, forming drum‐like crystals with acute (331) pyramids and short prisms. Authigenic zircons are usually clear and transparent but some grains may show cloudy appearance. A few other grains (type A ) with different habit and many inclusions appear to be of detritai nature. Dissolution of a metamictized zircon population in the source rock is possible in many ways. An important possibility is the dissolution of zircons in alkaline solution. Carbonated lime‐rich waters or other acidic solutions could be equally effective. Zirconates, so formed, are transported to the basin of deposition as colloidal particles or as ionic complexes. The authigenic process is visualized as a deposition of the zirconates by adsorption or by precipitation as zirconium hydroxide, possibly due to change in the Eh and pH in the environment. The hydrated oxide subsequently reacts with silica to form metastable hydrozircon. In course of time hydrozircon dehydrates and becomes a normal zircon. Numerous growths have been noted and are classified genetically into ( l ) late authigenic growths, and ( 2 ) growths syngenetic with metamorphism. The shape of the host grain usually controls the final shape of the overgrown grain. There is some effect of metamorphism on the morphology of the authigenic zircons. In view of the characters of the newly generated zircons, the use of shape, size, zoning and such other parameters of zircons in petrogenetic problems, has to be retested to ensure its reliability. Rather than being a mineral of igneous derivation only, zircon is from three parentages: igneous, authigenic and metamorphic. It is argued that the persistence of the authigenic zircons should be greatest because of very low concentration of radioactive elements.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2024202038</t>
+          <t>https://openalex.org/W2083131984</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1744-7976.1953.tb01248.x</t>
+          <t>https://doi.org/10.2307/1942374</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Anderson &amp; Lane (1953)</t>
+          <t>Kowal (1966)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>TRENDS IN FARM LABOUR: FARM LABOUR IN ONTARIO</t>
+          <t>Shifting Cultivation, Fire, and Pine Forest in the Cordillera Central, Luzon, Philippines</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>SUMMARY A shortage of farm labour in Ontario which developed during World War II and which has continued since, has tended to offset the trend toward larger farm business units. In other words it seems probable that the average size of farm unit in Ontario would have been larger had farmers been able to obtain the quantity and quality of help they deemed necessary for the best operation of their farms. This conclusion assumes, of course, that any increase in size of farm which has resulted from increased mechanization (which has also been encouraged by a scarcity of farm labour) has been more than offset by the inability of farmers to obtain adequate labour. This assumption is partly justified by the fact that 50 percent of the farmers who reduced their crop acreage to lessen their dependence on labour also purchased machinery. Similarly, 20 percent of the farmers who reduced their livestock numbers because of a labour shortage also installed electricity or water pressure systems. Since the average level of mechanization does not appear to be excessive, further mechanization where practical should not only reduce farm labour requirements but should aid farmers in obtaining and retaining satisfactory hired help. Attention to living and working conditions, particularly food, lodging and hours of work are very important in promoting good operator‐labourer relationships. Reasonable wages are also important but wages that are higher than typical for the quality of help employed are not likely to aid the farmer in retaining satisfactory hired help. Since a shortage of seasonal labour is the most aggravating farm labour problem at the present time, farmers should give serious consideration to changing their farm organization so that more year‐round and less casual labour is required. Since the seasonal nature of farm production is such that some variation in labour requirements throughout the year is bound to exist, further study of methods whereby potential seasonal farm workers and farmers may be brought together is suggested. The importance of operating the farm in an efficient businesslike manner so that farmers' sons, as well as other farm labourers, are attracted to farm employment cannot be over‐emphasized.</t>
+          <t>Ecological MonographsVolume 36, Issue 4 p. 389-419 Article Shifting Cultivation, Fire, and Pine Forest in the Cordillera Central, Luzon, Philippines Norman Edward Kowal, Norman Edward KowalSearch for more papers by this author Norman Edward Kowal, Norman Edward KowalSearch for more papers by this author First published: Autumn 1966 https://doi.org/10.2307/1942374Citations: 33AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinked InRedditWechat Citing Literature Volume36, Issue4Autumn 1966Pages 389-419 RelatedInformation</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1978992749</t>
+          <t>https://openalex.org/W2084686932</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1159/000228019</t>
+          <t>https://doi.org/10.1016/0021-9169(66)90006-7</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Friedmann (1953)</t>
+          <t>Bent &amp; Hutchinson (1966)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>In Vitro and In Vivo Effects of Phenergan on Infections</t>
+          <t>Electric space charge measurements and the electrode effect within the height of a 21 m mast</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Research Articles| July 02 2009 In Vitro and In Vivo Effects of Phenergan on Infections Subject Area: Immunology and Allergy I. Friedmann I. Friedmann From the Department of Pathology of the Institute of Laryngology and Otology, British Postgraduate Medical Federation, University of London Search for other works by this author on: This Site PubMed Google Scholar International Archives of Allergy and Applied Immunology (1953) 4 (3): 175–181. https://doi.org/10.1159/000228019 Article history Published Online: July 02 2009 Content Tools Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Peer Review Share Icon Share Facebook Twitter LinkedIn Email Tools Icon Tools Get Permissions Cite Icon Cite Search Site Citation I. Friedmann; In Vitro and In Vivo Effects of Phenergan on Infections. International Archives of Allergy and Applied Immunology 1 March 1953; 4 (3): 175–181. https://doi.org/10.1159/000228019 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentAll JournalsInternational Archives of Allergy and Applied Immunology Search Advanced Search Article PDF first page preview Close Modal This content is only available via PDF. 1953Copyright / Drug Dosage / DisclaimerCopyright: All rights reserved. No part of this publication may be translated into other languages, reproduced or utilized in any form or by any means, electronic or mechanical, including photocopying, recording, microcopying, or by any information storage and retrieval system, without permission in writing from the publisher.Drug Dosage: The authors and the publisher have exerted every effort to ensure that drug selection and dosage set forth in this text are in accord with current recommendations and practice at the time of publication. However, in view of ongoing research, changes in government regulations, and the constant flow of information relating to drug therapy and drug reactions, the reader is urged to check the package insert for each drug for any changes in indications and dosage and for added warnings and precautions. This is particularly important when the recommended agent is a new and/or infrequently employed drug.Disclaimer: The statements, opinions and data contained in this publication are solely those of the individual authors and contributors and not of the publishers and the editor(s). The appearance of advertisements or/and product references in the publication is not a warranty, endorsement, or approval of the products or services advertised or of their effectiveness, quality or safety. The publisher and the editor(s) disclaim responsibility for any injury to persons or property resulting from any ideas, methods, instructions or products referred to in the content or advertisements. You do not currently have access to this content.</t>
+          <t>Using filtration-type collectors with a sensitivity limit of 5 e cm−3 where e is the electronic charge the space charge density in fine or fair weather was recorded at 1 m, 2 m and 19 m, along with potential gradient at the ground, and wind speed and wet and dry bulb temperatures at various levels. Apparatus simultaneously converted the data into digital form on tape ready for feeding into a computer. Space charge concentrations were usually within the range ±400 e cm−3, and there was rarely any detectable difference between the values at 1 m and 2 m. At 19 m the space charge density was usually considerably greater than that at 1 m, and of the same sign as the potential gradient, and sometimes there were sudden changes of sign in the record of space charge at wind speeds below 1 m sec−1. These phenomena can be explained in terms of the electrode effect if this is regarded as the general modification of atmospheric electric elements due to the presence of any earthed body, or the Earth's surface itself, acting as an electrode. The results show that whereas direct measurements of space charge density near the bottom of a mast are satisfactory, near the top they may be unreliable in conditions of light wind or high potential gradient. Downwind of overhead electric power cables there is usually an excess of negative space charge during mist, sometimes persisting after the mist has cleared. Repetitive patterns in the courses of wind speed, temperature and humidity suggested that convection cells were moving past in the wind; the space charge records also showed these patterns.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2288270794</t>
+          <t>https://openalex.org/W2087424231</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0022-2011(66)90143-1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Aramendı́a &amp; Aj (1967)</t>
+          <t>Taylor &amp; Smith (1966)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Inhibition of sympathomimetic effects on the cardiovascular system by 4-(2-isopropylamino-1-hydroxyethyl)methanesulfonanilide hydrochloride (MJ 1999).</t>
+          <t>Polypoid and papillary lesions in the foot of the gaper clam, Tresus nuttalli</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Several cardiovascular actions of 4-(2-isopropylamino-1-hydroxyethyl)methanesulfonanilide hydrochloride (MJ 1999) were studied. Isolated atria from guinea pigs were treated with 200 µg/ml of tyramine or obtained from reserpine-treated animals. In either situation, tissue exposure to 1 µg/ml of norepinephrine in the presence of MJ 1999 (10-5 M) failed to restore the response of the atrial pacemaker to tyramine or 1, 1-dimethyl-4-phenylpiperazinium iodide. Contrarily, restitution occurred when the tissues were exposed to norepinephrine alone. In addition, 0.5 µmol/kg i.a. of MJ 1999 significantly reduced the effects of sympathetic electrical stimulation and of tyramine in the perfused dog hind limb. The experiments indicate that MJ 1999 blocks the release of norepinephrine from the sympathetic nerve endings. Low doses (1-4 µmol/kg i.v.) of MJ 1999 showed little effect on the chronotropic responses to isoproterenol in chloralose-anesthetized, vagotomized dogs, whereas a sustained vasodilator blockade was observed. Under these experimental conditions, the pressor response to epinephrine was augmented but that to norepinephrine did not change significantly. Furthermore, inotropic and chronotropic effects induced by stellate ganglion stimulation were diminished (but not abolished) with 15 µmol/kg i.v. of MJ 1999. It is suggested that the dissociation between the cardiac and the vascular antagonism produced by this drug to the effects of isoproterenol indicates different intimacy of association with the respective receptors.</t>
+          <t>A number of tumor-like cysts in the ctenidia of the freshwater bivalve Corbicula fluminea are described. The cysts result from the encapsulation of incubated larvae within the female inner demibranchs which are modified to form a marsupium. Corbicula fluminea is a protandric consecutive hermaphrodite, and larval incubation commences with sex reversal and the release of the first eggs. For some reason a few of the larvae are not released, and their retention and subsequent death results in the mobilization of the innate cellular defensive mechanism of the parent. This process involves, initially, an invasion of epithelioid cells and amoebocytes (granulocytes), resulting in hyperplasia. This is followed by structural changes to the epithelium bordering the interlamellar spaces (within which the larvae are incubated) to form ultimately the cyst wall. The epithelium is surrounded externally by layers of fibrocytes which eventually form a thick capsule. The autolyzed larval tissues are themselves invaded by fibrocytes, epithelioid cells, and amoebocytes and, in one specimen, had formed a three-layered capsule within the surrounding capsule. The amoebocytes probably reabsorb the larval cellular debris. This unusual example of a molluscan cellular defensive mechanism may assist in the diagnosis and separation of hyperplastic injury responses from neoplasmic conditions in invertebrates.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1986220353</t>
+          <t>https://openalex.org/W2092856215</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0022-1902(67)80308-7</t>
+          <t>https://doi.org/10.2307/3797885</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Baral et al. (1967)</t>
+          <t>Chambers et al. (1966)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Fluoro-complexes of beryllium</t>
+          <t>Effects of Dietary Calcium Levels on Egg Production and Bone Structure of Pheasants</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>The highest accessible formal oxidation states along the periodic table have been reviewed. The main focus is on fluorides because this ligand allows the facile assignment of the formal oxidation state. Both experimentally known compounds and quantum-chemical predictions have been considered. Questionable species in their highest oxidation states which have been reported in the past are also discussed. The trends along the main-group, transition-metal, lanthanides, and actinides series are reported and reasons for these observations have been provided. Beyond this, the oxidizing strength of some compounds has been compared, identifying the strongest oxidizing agents known.</t>
+          <t>Captive pheasant (Phasianus colchicus) hens fed various levels of calcium produced more eggs when the amount of calcium in the diet was increased. Birds on high calcium diets would have been able to produce two adequate sized clutches of eggs; birds which had received very little dietary calcium (0.5 percent) could not have produced two clutches. The amounts of calcium, phosphorus, and ash found in femurs varied little between birds fed different levels of calcium. Osteoporosis was detected in female pheasants fed low levels of calcium. Femurs of these birds had enlarged haversian canal systems, as shown by total space occupied by canals, mean canal size, and the amount of cortex present. Bones of birds fed 0.5 percent and 3.2 percent calcium were significantly different in these respects; inconclusive data were obtained from birds fed intermediate levels of calcium. Cocks on low calcium diets showed some evidence of osteoporosis; those receiving adequate calcium showed none. Recent studies have shown that pheasants can select calcium grits when unusual needs arise; thus pheasants might get enough calcium during the breeding season even in low-calcium habitat. To determine whether calcium supplies are adequate it is suggested that breeding females from areas of low populations be examined for evidence of osteoporosis. The purpose of this study was to determine the effects of various dietary levels of calcium on (1) egg production and (2) the physiology of the pheasant hen, with emphasis on postlaying osteoporosis. Knowledge of changes in the skeleton and endocrine system that result from calcium deprivation is essential to evaluation of calcium as a factor influencing pheasant range extension. Leopold (1931:125-126) first suggested that the level of calcium in the soil may significantly influence the distribution of pheasants in North America. The results of later studies supported this hypothesis (McCann 1939 and 1961, Dale 1954, Dale and DeWitt 1958, Greeley 1962). However, the precise relationship between calcium levels and pheasant abundance remains unknown. The subject was recently reviewed by Korschgen (1964:176-177), Harper (1964: 264-265), and Harper and Labisky (1964: 722-723). Even in calcium-rich pheasant range, natural foods alone may not provide enough calcium to meet needs during the reproductive period. Dale (1954:318) found that the amount of calcium obtained from natural plant and animal foods supplied less than 20 percent of the amount required for optimum reproduction. However, pheasants may meet special calcium needs during the reproductive season by increasing mineral consumption (Dalke 1938:54, Trautman 1952:27). The hen's ability to select calcium-bearing grits, as demonstrated by Sadler (1961:341), enables her to increase consumption of calcium before and during the egg-laying period. Korschgen (1964:168) showed that during egg production, pheasant hens throughout the Midwest heavily supplement their diet with calcium-bearing grit or snails. Because of such findings, Korschgen (1964:177-178) and Harper and Labisky (1964:730) expressed considerable doubt about the importance of calcium as a factor limiting pheasant distribution. Eggshell formation requires substantial amounts of calcium, which constitutes 39.2 SThis project was supported by funds from Federal Aid to Wildlife Restoration Project, Surveys and Investigations Projects, Missouri 13-R.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4302436861</t>
+          <t>https://openalex.org/W2093456396</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1530/acta.0.0540275</t>
+          <t>https://doi.org/10.1111/j.1438-8677.1966.tb00228.x</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>König &amp; Meyer (1967)</t>
+          <t>Vermeulen (1966)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>TAGESPERIODISCHE SCHWANKUNGEN DER URINAUSSCHEIDUNG UND DES ADIURETINGEHALTES IM HYPOPHYSENHINTERLAPPEN MÄNNLICHER WISTAR-RATTEN</t>
+          <t>THE SYSTEM OF THE ORCHIDALES</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ABSTRACT Adult male Wistar rats were kept at a constant temperature and in an alternating light-dark environment consisting of 12 hours of light with 150 lux (7 a. m. – 7 p. m.) and 12 hours of darkness with 0.1 lux (7 p. m. – 7 a. m.). The urine output was measured at 4-hourly intervals over several 24-hour periods. Diurnal changes with a high excretion at midday and a low excretion at midnight were found. The content of antidiuretic hormone of the posterior pituitary lobe was estimated at 10 a. m., 2 p. m., 6 p. m., and at 10 p. m., 2 a. m., 6 a. m. in the months of March, April and May. The highest amount occurred during darkness with maximal values at 6 a. m., the lowest during light with minimal values at 2 p. m.</t>
+          <t xml:space="preserve">Acta Botanica NeerlandicaVolume 15, Issue 1 p. 224-253 THE SYSTEM OF THE ORCHIDALES P. VERMEULEN, P. VERMEULEN Hugo de Vries Laboratorium, AmsterdamSearch for more papers by this author P. VERMEULEN, P. VERMEULEN Hugo de Vries Laboratorium, AmsterdamSearch for more papers by this author First published: April 1966 https://doi.org/10.1111/j.1438-8677.1966.tb00228.xCitations: 36AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat Abstract After an enumeration of the most characteristic features of the Orchidales, the affinities between this order and other monocotyledonous groups are discussed. The Orchidales must be placed in the system immediately after the Commelinales, chiefly on account of their androecial morphology. For reasons explained in the present paper the Orchidales are subdivided into three families, viz. the Apostasiaceae, Cypripediaceae and Orchidaceae. The principal differences between these families are shown in the form of tables. In the Orchidaceae two subfamilies are recognised and amply circumscribed, viz., the Orchidoideae and the Epidendroideae, the latter again being subdivided into the two contribes Neottianthae and Epidendranthae. The androecial morphology is discussed in detail in connection with atavistically developed stamens, with the presence of staminodes (or supernumerary stamens) and with the floral morphology of certain taxa. The auricles are not regarded as staminodes because they persist in flowers with supernumerary (atavistically re-appeared) stamens and also because they lack vascular bundles. The gynostemial wings in some Australian genera (Diuris, Prasophyllum, and other ones) are considered to be of androecial derivation The less conspicuously winged but vascularised margins of the gynostemium of many Epidendroideae likewise represent androecial elements incorporated in the column. The suggestion, made by E. Nelson, that the lip is the phylogenetic derivative (the homologue) of the ‘missing’ stamens A2, a3 and A3 (which implies that the median petal has disappeared), is rejected, primarily because Nelson's arguments are based on the morphology of the labellum in the highly specialised genus Ophrys. The floral morphology of Neuwiedia and of some species of Herminium, on the contrary, is indicative of the petaloid nature of the lip which, accordingly, represents the median petal. The vascular anatomy of the orchid flower does not provide arguments in favour of the suggestion made by Lindley (later taken up by Darwin) that the ‘missing’ stamens A2 and A3 are incorporated in the gynostemium. The orchidalean ovary appears to be compounded of six parts, viz. three broad hyposepalous zones alternating with as many hypopetalous elements bearing the (double) laminal placentae on their inner face. This is considered to be a convergence towards the condition prevailing in Rhoeadales (Brassicales) (genus Eschscholzia etc.). In the Orchidoideae the stigma is locally differentiated into viscid discs which are situated distally of the lateral stigmatic lobes, and the median stigmatic lobe is functional in several genera, but in the Epidendroideae the median stigmatic lobe is apically transformed into a mucilaginous substance or a viscid disc, or it is completely replaced by a viscidium. In Stereosandra the viscidial element is a derivative of the anther. REFERENCES Adanson, M. 1763. Families des Plantes 2. Paris. Google Scholar Blume, C. L. 1825. Bijdragen tot de Flora van Nederlandsch Indië, 8e stuk. Batavia. Google Scholar Bolus, H. 1896. Icones Orchidearum Austro Africanum (Orchids of South Africa) 1. London. Google Scholar Brown, Robert. 1830 in Wallich: Plantae Asiaticae Rariores 1. Google Scholar Brown, Robert. 1833. On the Organs and Mode of Fecundation in Orchideae and Asclepiadeae in Transactions of Linnean Society of London 16. Google Scholar Capeder, E. 1898. Beitrage zur Entwicklungsgeschichte einiger Orchideen in Flora, 1898. Google Scholar Coleman, Edith. 1927. Pollination of Cryptostylis leptochila F. v. M. in Vict. Naturalist. Google Scholar Darwin, Ch. 1890. The various Contrivances by which Orchids are fertilised by Insects, 2nd ed. London. 10.5962/bhl.title.37883 Google Scholar Dressler, Robert L. and Dodson, Calaway. 1960. Classification and Phylogeny in the Orchidaceae in Ann. Missouri Botan. Garden 47. Google Scholar Eichler, A. W. 1875. Blüthendiagramme. Leipzig. Google Scholar Erickson, Rica. 1951. Orchids of the West. Perth, Google Scholar W. A. Garey, Leslie A. 1960. On the Origin of the Orchidaceae </t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2076559989</t>
+          <t>https://openalex.org/W2093925242</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0009-9260(67)80007-2</t>
+          <t>https://doi.org/10.1039/df9664100328</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Rätzkowski et al. (1967)</t>
+          <t>Rabó et al. (1966)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Bone metastases, osteoporosis and radiation necrosis in breast cancer</t>
+          <t>Studies of cations in zeolites: adsorption of carbon monoxide; formation of Ni ions and Na 3+ 4 centres</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Skeletal metastases are often the first sign of malignant spread in patients with breast cancer. Correct interpretation of bony changes may be difficult, since metastases, degenerative disorders and radiation damage may all occur in such cases and produce similar radiological changes. To illustrate these difficulties a series of 22 patients, previously treated for breast cancer and who subsequently developed bony lesions, is described. It is important to try and recognise the true nature of the bony changes, since treatment and prognosis will depend upon this. Adrenalectomy may be contemplated for patients who have no more than metabolic osteoporosis, and further irradiation will aggravate bony lesions due to radio-necrosis. To avoid such errors attention must be given to the general condition of the patient, to the presence of co-existing metabolic disorders, to signs of progressive disease and to radiological changes in the skeleton as a whole. Thus, x-rays of other bones may reveal the presence of lesions typical of metastases or diffuse osteoporosis. Skeletal changes limited to the irradiation fields over a period of time, perhaps associated with irradiation damage to the lungs or skin, will suggest radionecrosis. In a number of cases the correct diagnosis will have to remain in doubt for some time. Skeletal metastases are often the first sign of malignant spread in patients with breast cancer. Correct interpretation of bony changes may be difficult, since metastases, degenerative disorders and radiation damage may all occur in such cases and produce similar radiological changes. To illustrate these difficulties a series of 22 patients, previously treated for breast cancer and who subsequently developed bony lesions, is described. It is important to try and recognise the true nature of the bony changes, since treatment and prognosis will depend upon this. Adrenalectomy may be contemplated for patients who have no more than metabolic osteoporosis, and further irradiation will aggravate bony lesions due to radio-necrosis. To avoid such errors attention must be given to the general condition of the patient, to the presence of co-existing metabolic disorders, to signs of progressive disease and to radiological changes in the skeleton as a whole. Thus, x-rays of other bones may reveal the presence of lesions typical of metastases or diffuse osteoporosis. Skeletal changes limited to the irradiation fields over a period of time, perhaps associated with irradiation damage to the lungs or skin, will suggest radionecrosis. In a number of cases the correct diagnosis will have to remain in doubt for some time.</t>
+          <t>Zeolite cations lying on the intracrystalline pore surface of the Linde X and Y molecular sieves are linked to only three oxide ions and consequently are not well shielded electrically. They therefore create very large electrostatic fields, extending into the main zeolitic cavities, causing carboniogenic catalytic activity. This activity follows in magnitude the changes in the field, and is independent of the presence of OH groups; no change in activity is observed even after 99 % of OH protons present after ordinary activation in vacuum at 500°C are removed. Bivalent cations exposed on the surface of the main intracrystalline cavities adsorb carbon monoxide with infra-red frequencies specific to cation; the adsorption follows Langmuir isotherms, suggesting that a single carbon monoxide molecule can be independently attached to every surface cation. Certain transition-metal zeolites adsorb carbon monoxide much more tenaciously than alkaline earth cations, indicating a highly significant difference in their ability to form co-ordination bonds.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2014463405</t>
+          <t>https://openalex.org/W2094640953</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/bjo.51.1.68</t>
+          <t>https://doi.org/10.1139/v66-255</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sood et al. (1967)</t>
+          <t>Falk &amp; Ford (1966)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Malignant lymphoma of the orbit with generalized metastases.</t>
+          <t>INFRARED SPECTRUM AND STRUCTURE OF LIQUID WATER</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Educational institutions increasingly recognize the importance of diversity, equity, and inclusion (DEI) efforts to combat and dismantle structures that sustain inequities. However, successful DEI work hinges on individuals being authentic allies and incorporating allyship into their professional development. Allyship involves members of dominant groups recognizing their privilege and engaging in actions to create inclusivity and equitable spaces for all. Individuals from dominant groups with desires to actively support others from marginalized groups are often unsure how to fight oppression and prejudice. Our goal as faculty with diverse perspectives and heterogeneous intersectional identities is to provide readers with the tools to develop as an authentic ally through educating themselves about the identities and experiences of others, challenging their own discomfort and prejudices, dedicating the time and patience to learning how to be an ally, and taking action to promote change toward personal, institutional, and societal justice and equality. Ultimately, each person must advocate for change because we all hold the responsibility. When everyone is an authentic ally, we all thrive and rise together.</t>
+          <t>The infrared spectrum of HDO at low concentrations in H 2 O and in D 2 O was studied between 0° and 130° by a double-beam technique. Each of the three fundamentals of HDO shows nearly Gaussian contours, complete absence of shoulders, and a single maximum at a frequency intermediate between those of HDO in ice and in vapor. Increase of temperature causes a gradual shift of each band in the direction of the frequency in vapor. These observations fully support the "continuum" models of the structure of liquid water and present strong evidence against the "mixture" models. It is concluded that hydrogen bonds in liquid water have a broad, smooth, single-peaked distribution of strengths which gradually shifts with temperature. The hydrogen bonds at one end of this distribution have strengths comparable to those in ice, whereas those at the other end are very weak. These extremes do not correspond to distinct molecular species. Every description of liquid water in terms of "broken" and "unbroken" bonds, or "monomers" and "clusters", is therefore arbitrary.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2097608921</t>
+          <t>https://openalex.org/W2094962524</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/oxfordjournals.pcp.a079240</t>
+          <t>https://doi.org/10.1103/physrevlett.17.785</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Aoki &amp; Hase (1967)</t>
+          <t>Si̇nanoğlu et al. (1966)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RIBONUCLEIC ACIDS APPEARING DURING THE PROCESS OF CHLOROPLAST REGENERATION IN THE “GLUCOSE-BLEACHED” CELLS OF CHLORELLA PROTOTHECOIDES1</t>
+          <t>Search for Quarks in the Far Ultraviolet Solar Spectrum</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Investigations were made on the modes of synthesis of different species of RNA which appear during the greening (chloroplast regeneration) of the “glucose-bleached” cells of Chlorella protothecoides containing profoundly degenerated plastids. RNAs were extracted from the algal cells which had been labelled with 32P for 1 hr before harvesting at different stages of the greening in the light and in darkness, and subjected to column chromatography with methylated albumin-coated kieselguhr. It was found that, during the greening process, the elution profiles of RNAs, in terms of the optical density at 260 mμ and 32P-radioactivity, changed profoundly. Based on these and other results, it was concluded that during an early phase of the chloroplast regeneration in the glucosebleached algal cells, there occurs an active formation of both ribosomal RNAs (rRNAs) and the RNAs corresponding to soluble RNA (sRNA), the formation coming, however, later to a standstill when the synthesis of chlorophyll has proceeded to a certain level. The quantity ratio of sRNA to rRNA was found to be constant (30:70) at different stages of the greening (both in the light and in darkness), with a few exceptions. The synthesis of the chloroplast ribosomal RNA is markedly accelerated by light, and its maximum rate is observed sometime later than that of the non-chloroplast (“cytoplasmic”) ribosomal RNA. It was suggested that there are at least two different sites of synthesis of ribosomal RNAs, one in the plastid and the other outside of it (most probably in the nucleus).</t>
+          <t>The sharp emission lines in the range 200 to 1700 \AA{} originate from regions of the sun where quarks may be found mainly as bound to the nuclei of carbon, nitrogen, and oxygen. Electronic transitions of such species are predicted and a search is carried out in the far uv solar spectrum.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2042982800</t>
+          <t>https://openalex.org/W2099326291</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0002-8703(67)90228-1</t>
+          <t>https://doi.org/10.1144/sjg02010001</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Floyd &amp; Dillon (1967)</t>
+          <t>George (1966)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Observations on sustained pulsus alternans during hypothermia</t>
+          <t>Geomorphic evolution in Hebridean Scotland</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Twenty-two dogs were studied by simultaneous measurement of left ventricular pressure, left atrial pressure, aortic pressure, and phasic aortic flow, through the use of a square-wave electromagnetic flowmeter. The induction of hypothermia by extracorporeal cooling of blood or external ice packing resulted in reduced cardiac output and aortic pressure, bradycardia, and marked prolongation of duration of systole and isometric relaxation. In 9 dogs, selective rewarming of the sinus node during the period of hypothermia resulted in tachycardia, a fall in cardiac output and stroke volume, and the appearance of sustained pulsus alternans. During periods of ventricular alternation, prolongation of systole and myocardial relaxation resulted in the abbreviation of ventricular filling time and varying degrees of incomplete ventricular relaxation. Reversal of abnormal contraction and relaxation by rewarming of the left ventricle was accompanied by a return of stroke volume to precooled levels and disappearance of the alternation. Two dogs cooled by external ice packing developed pulsus alternans during the cooling period. In one of these animals a spontaneous slowing of the heart rate during the period of progressive reduction in heart temperature resulted in increased ventricular filling time and disappearance of the pulsus alternans. Elevation of left atrial pressure in 2 dogs with sustained pulsus alternans resulted in the disappearance of ventricular alternanation without any appreciable change in heart rate. Increased ventricular outflow resistance produced by venous-to-arterial pumping during the cooling period was accompanied by pulsus alternans in 2 animals. Reduction of outflow resistance by cessation of extracorporeal pumping was accompanied by a fall in aortic pressure, a reduction in duration of ventricular contraction, and disappearance of pulsus alternans, even though the heart rate and left atrial pressure were unchanged. Prolonged myocardial contraction and relaxation resulting in abbreviated and abnormal character of ventricular filling are considered to be prerequisites to the occurrence of pulsus alternans at physiologic heart rates in the hypothermic dog heart. However, the presence and degree of ventricular alternation is modified by other dynamic factors, such as heart rate, atrial filling pressure, and ventricular outflow resistance.</t>
+          <t>Synopsis The view is challenged that the Highland plateau in Scotland originated during later Palaeozoic times and evolved as a complex ‘peneplain’. The view is also challenged that the Highland plateau originated as an emergent Cretaceous sea-floor. Although Cretaceous rocks were repeatedly deformed by Palaeogene earth-movement and igneous action, there is no sign of a ‘Hebridean rift’ to which the complexities of Hebridean geology may be relegated. Arran, of Hebridean igneous facies in an alien structural context, confirms other evidence in demonstrating that the evolution of regional relief is not to be separated into one mode in a conjectural rift, another in a mainland massif. The primary Hebridean landform appears to be the product of the pulsed emergence of little-warped wave-cut benches. The benches continue uninterruptedly from the Hebridean province into the Highlands, and prove an original geomorphic unity of the whole country. Since the benches bevel the Palaeogene igneous masses and are later than the mid-Tertiary folds and faults, the regional landscape is essentially Neogene in origin. So also appears to be the landscape of other parts of Britain.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4252370930</t>
+          <t>https://openalex.org/W2110224500</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1128/aem.15.3.575-581.1967</t>
+          <t>https://doi.org/10.1306/5d25b6ab-16c1-11d7-8645000102c1865d</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Hays et al. (1967)</t>
+          <t>Ewing (1966)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Microbial Destruction by Low Concentrations of Hypochlorite and Iodophor Germicides in Alkaline and Acidified Water1</t>
+          <t>Seismic-Profiler Survey of Blake Plateau</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Hypochlorite and iodophor germicides were evaluated for their ability to destroy a variety of organisms at levels approximating those used for final sanitizing rinse for dairy and food equipment and beverage bottles (3 to 50 ppm). Test organisms included Escherichia coli, Streptococcus lactis, Lactobacillus plantarum, Pediococcus cerevisiae, and Saccharomyces cerevisiae. The hypochlorites and iodophors demonstrated approximate rates of destruction at equivalent concentrations for the bacterial species tested, except where the hypochlorite contained excess alkalinity. The hypochlorite responded more readily to a downward shift to a pH of 5.0 than did the iodophor. Excess alkalinity of the hypochlorite significantly affected its bactericidal activity. The iodophor exhibited a consistently greater rate of destruction of yeast cells than the hypochlorite. Successive treatment with low levels of iodophor (6 ppm) followed by a hypochlorite (12 to 25 ppm) resulted in a high level of destruction of all test organisms. Possibilities for employing these measures in a sanitizing rinse of bottles for maximal destruction of organisms were discussed. Among the test organisms, S. lactis showed a comparatively high resistance and was a useful organism for comparing the halogen preparations.</t>
+          <t>Continuous seismic-reflection profiles on the Blake Plateau are correlated with sediment cores, seismic-refraction data, and logs of wells on Florida to study the structural relations of the Florida peninsula and continental shelf with the plateau. Results indicate that the entire Blake-Bahama-Florida area was the site of shallow-water carbonate deposition behind a barrier reef until late in the Mesozoic. Death of the reef along the Blake Plateau margin and continued subsidence of the entire area created the present submerged plateau. Florida and the Bahama banks continued to build throughout the Tertiary and have maintained an elevation near sea-level. Four strong reflectors are observed in the plateau sediments, the deepest apparently representing an interface within the Upper Cretaceous and correlating with the top of a 4.5 km./sec. refracting layer. The overlying beds probably are composed of bank-derived calcarenite and calcilutite; the reflectors correspond to major changes in sediment types or rates of deposition. The Tertiary sediments on the plateau essentially form a wedge, about 1,200 m. thick on the west side and 200-300 m. thick near the escarpment on the east. The extension of the Cape Fear arch southward onto the plateau apparently diverts and restricts the flow of the Gulf Stream. This has resulted in extensive erosion of much of the surface of the plateau. In places the erosion has uncovered beds of Eocene and Paleocene age. The material eroded from the plateau by the stream, as well as that which stayed in suspension, has b een swept off the plateau and has formed the Blake-Bahama outer ridge.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2043962626</t>
+          <t>https://openalex.org/W2123246866</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0015-6264(67)82885-2</t>
+          <t>https://doi.org/10.1017/s0003975600001326</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Quaife et al. (1967)</t>
+          <t>Richter (1966)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Survey of quantitative relationships between ingestion and storage of aldrin and dieldrin in animals and man</t>
+          <t>Intellectual and Class Alienation: Oxford idealist diagnoses and prescriptions</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Data from four studies, in which four mammalian and one avian species were fed aldrin or dieldrin over a range of dosage levels and for periods of from 12 wk to 9 months, indicate a linear relationship between log dietary aldrin or dieldrin and log dieldrin in body fat. The majority of the regression lines are parallel. The relationship, if validated by further experimentation, provides a rational basis for comparing the extent of storage by various animal species over a wide range of intake levels. Such linear relationship between log intake and log storage could account for the higher storage ratios (ppm in fat/ppm in diet) in man, based on recently published analytical values, than in domestic animals. Present data, however, are too fragmentary to provide a sound basis for determining accurately either intake or storage of aldrin and dieldrin by man. For this purpose we need direct experimental results on human intake versus human storage. With the exception of levels of dieldrin in fat of limited numbers of persons, no accurate estimate of the probable content of dieldrin and/or metabolites in the tissues of US residents can be given at present. Although dieldrin is most certainly present in other human tissues (by analogy with experimental animals), no results of direct assay (except a few blood and milk levels) are known. Further and adequate experimentation is needed before authentic values can be given for the probable content of dieldrin in the fat of man after lifetime exposure. Present knowledge concerning the metabolic transformation and physiological fate of aldrin and dieldrin in the animal body is outlined. Because an analogy with the behaviour of DDT is often drawn in postulating intake-storage relations for aldrin and dieldrin, figures on storage of DDT by US residents have been examined. Best available evidence indicates that the level of storage of DDT-derived material in the fat of man in the US has not been constant since 1950. While it may have been essentially constant from 1958 to 1964, yet to establish firmly such constancy would have required selection of samples which either are representative or are comparable populations from the US. Thus, even by analogy, there is no conclusive evidence that a steady state exists between intake and deposition of dieldrin by residents of the US. Presently-available experimental data fail to prove the concept that there is equilibrium between intake and output of aldrin and dieldrin by the animal body (or by man). We are unaware of any data which show by actual long-term feeding studies on full-grown animals that saturation levels of dieldrin in fat are reached and maintained. To prove the concept that a state of equilibrium eventually will be achieved will require data from well-planned experiments. Concomitant ingestion of DDT affects the extent of storage of dietary dieldrin. Conceivably, the toxicity of dieldrin in the presence of DDT or other compounds is changed, and the hazard due to mixed residues may differ from the sum of their separate hazards.</t>
+          <t>Few terms have had more complex fortunes than “alienation” and “intellectuals”; few at this time are more modish and less clear. It would be instructive to devote an entire paper to tracing their histories and plotting all their variations in present usage; it would be no less enlightening to determine just why these two concepts are so often coupled. Perhaps the single most important reason is to be found in the numerous attempts to classify and explain the great modern revolutions, particularly those of France and Russia. These have been frequently characterized as qualitatively different from all those that preceded them. Inspired by, or producing in their course, total ideologies, these revolutions have produced a new style of politics. Its origins and patterns of development have received increasingly close scrutiny. Among the most consistently favored hypotheses has been that linking revolution to intellectuals. This theory need not be phrased as did Burke and Taine, who seem to have believed that the world would be spared great political convulsions, if only there were no radical intellectuals, subverting by their impractical speculations, the bases of society and politics. Tocqueville, whose views are occasionally confounded with those of Burke and Taine, did assert that thorough-going revolutions cannot occur without the existence of a general theory about the nature of the good society, a theory that cannot be realized except by changing completely, and possibly violently, the status of persons and property under the existing order (1).</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1989274718</t>
+          <t>https://openalex.org/W2134276352</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-642-46079-1_5</t>
+          <t>https://doi.org/10.1111/j.1365-246x.1966.tb03101.x</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Quenby (1967)</t>
+          <t>Coode (1966)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>The Time Variations of the Cosmic Ray Intensity</t>
+          <t>An Analysis of Major Tectonic Features</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Time variations in the intensity of cosmic radiation arriving at the Earth’s surface have been extensively studied over the last thirty years. Some of these variations are of atmospheric origin, but others are due to changing conditions in interplanetary space. It is reasonable to regard the solar system as being bombarded by an almost isotropic flux of energetic nuclei with energies ranging from 108 electron volts to 1019 electron volts. Particles in the range 108 eV to 1011 eV are modulated by the electromagnetic fields existing in interplanetary space so that a reduced intensity arrives at the Earth.</t>
+          <t>The major tectonic features, such as mountain systems, trenches and oceanic ridges, may be regarded as linear. Their generating forces may be approximated by lines of δ-functions and expressed analytically by a spherical harmonic series to the twelfth degree. Separate analyses of the different features indicate that there was a fourth degree symmetry in the past (from aseismic, or passive, ridges) and a fifth degree symmetry in the present—from an analysis of seismically active ridges and a combination of all the major tectonic features. Two points emerge. First, if the subcrustal shears are proportional to the velocities of the convection cells then one can obtain the distribution of global tectonic forces and the flow patterns from the same source. Secondly, the convection cell pattern has recently changed its dominant mode from fourth to fifth degree.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2615098825</t>
+          <t>https://openalex.org/W2136306515</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0079-6123(08)61423-5</t>
+          <t>https://doi.org/10.1083/jcb.30.2.381</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Vos et al. (1967)</t>
+          <t>Heuser &amp; Doggenweiler (1966)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Developmental Patterns in the Central Nervous System of Birds</t>
+          <t>THE FINE STRUCTURAL ORGANIZATION OF NERVE FIBERS, SHEATHS, AND GLIAL CELLS IN THE PRAWN, &lt;i&gt;PALAEMONETES VULGARIS &lt;/i&gt;</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Publisher Summary This chapter investigates the changes found in nitrogen and water content as well as in protein composition and enzyme activities during the latter part of embryonic life of the chick brain. A number of post-hatched stages are also included in the analyses. Change in water content poses a specific problem in expressing biochemical parameters per unit of wet weight. It is generally observed that the water concentration decreases from approximately 90% to about 80% in whole brain of different species from the onset of the rapid growth phase to the adult stage. In the chick hemisphere total nitrogen increases from 1280 μg per 100 mg wet weight at 12 days of incubation to 1980 μg at 10 days post-hatching, which is about the adult level. The decrease from 12 to 14 days of incubation is not significant. It is evident that a rapid increase in total N occurs from 1180 μg at 14 days of incubation to 1880 μg at 3 days post-hatching. In contrast to the pattern of changes in the soluble nitrogen content of—for example, the rabbit—in the chick an increase is found from 810 μg at 12 days of incubation to a peak at 3 days after hatching.</t>
+          <t>In view of reports that the nerve fibers of the sea prawn conduct impulses more rapidly than other invertebrate nerves and look like myelinated vertebrate nerves in the light microscope, prawn nerve fibers were studied with the electron microscope. Their sheaths are found to have a consistent and unique structure that is unlike vertebrate myelin in four respects: (1) The sheath is composed of 10 to 50 thin (200- to 1000-A) layers or laminae; each lamina is a cellular process that contains cytoplasm and wraps concentrically around the axon. The laminae do not connect to form a spiral; in fact, no cytoplasmic continuity has been demonstrated among them. (2) Nuclei of sheath cells occur only in the innermost lamina of the sheath; thus, they lie between the sheath and the axon rather than outside the sheath as in vertebrate myelinated fibers. (3) In regions in which the structural integrity of the sheath is most prominent, radially oriented stacks of desmosomes are formed between adjacent laminae. (4) An ∼200-A extracellular gap occurs around the axon and between the innermost sheath laminae, but it is separated from surrounding extracellular spaces by gap closure between the outer sheath laminae, as the membranes of adjacent laminae adhere to form external compound membranes (ECM's). Sheaths are interrupted periodically to form nodes, analogous to vertebrate nodes of Ranvier, where a new type of glial cell called the "nodal cell" loosely enmeshes the axon and intermittently forms tight junctions (ECM's) with it. This nodal cell, in turn, forms tight junctions with other glial cells which ramify widely within the cord, suggesting the possibility of functional axon-glia interaction.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2027947558</t>
+          <t>https://openalex.org/W2145965124</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/110435</t>
+          <t>https://doi.org/10.1063/1.1708387</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Emmons &amp; Preski (1967)</t>
+          <t>Kitchens &amp; Craig (1966)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Five-Color Photometric Measurements of Near-Earth Satellites.</t>
+          <t>Properties of the Hyperfine Structure of Dilute and very Dilute Fe in Nonmagnetic Metallic Hosts</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A comparison of the recent five-color photometric measurements of the Echo I and Pageos I satellites indicates that the near-earth space environment only very slowly degrades the specular reflectance of aluminized Mylar surfaces. The Echo I satellite surface reflectance throughout the UB VRI spectral region has changed by less than 2% in its 7-yr orbital history. The B - V color index values obtained for the Echo I and Pageos I are 0.648 and 0.659, respectively; i.e., each within 0.02 mag of the accepted solar values. The U- V values were 0.828 and 0.810, which are in excess by more than 10% of the solar value. This is due to non-grey body conditions in the U-band region; the normalized U- V color index is quite close to values obtained by others. Photometric measurements were also performed on the Echo II satellite, and results indicate that this satellite presently has a specular component of reflectance far in excess of conventionally made laboratory measurements. This suggests a possible space environmental effect on the exterior amorphous phosphate coating. Broad-band UB VRI plane polarization measurements have also been performed on the three satellites and show that all three satellites tend to follow a theoretical curve for evaporated aluminum. The NASA Mobile Satellite Photometric Observatory, which has a 24-in., 4 axis-mount telescope, was used for the observations. The broadband UB VRI spectral regions are similar to those of the Lunar and Planetary Laboratory of the University of Arizona; standard stars used for calibration and comparison purposes were taken from catalogues published by this institution. The observations were performed during the summer of 1966 at Palomar Mountain, California, and on the desert floor near Yuma, Arizona, during early 1967. Results obtained from this series of observations have shown that useful information on the effect of the space environment on various types of materials and/or coatings can be reliably and accurately determined with the use of passive groundbased techniques. This research was conducted with the financial support of the NASA-Langley Research Center.</t>
+          <t>The Mössbauer effect has proven fruitful for investigating the magnetic properties of dilute concentrations of Fe in metals. Measurements of the magnetic hyperfine field Hhf at Fe impurities in nonmagnetic metal hosts yield information relating to the formation of localized moments and to the onset of impurity-impurity interactions. These studies fall into two classes: (A) Systems in which the impurity concentration is sufficiently low (or the measurement temperature sufficiently high) that impurity-impurity interactions play a negligible role and the Hhf depends only upon the nature of the impurity and of the host. (B) Systems in which interactions play a significant role and magnetic transitions can occur. In the first category, measurements on a number of cubic transition metals and alloys will be compared with other experimental data and with theories of the formation of localized magnetic moments. In the second category, dilute alloys of Fe with Au, and Pd will be compared with the results of other experiments and with theoretical concepts of direct and indirect exchange interactions.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2080389270</t>
+          <t>https://openalex.org/W2147332175</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.3033968</t>
+          <t>https://doi.org/10.1002/ar.1091540104</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Weisskopf (1967)</t>
+          <t>Ackerman (1966)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>The Los Alamos years</t>
+          <t>The origin of the lymphocytes in the appendix and tonsil iliaca of the embryonic and neonatal rabbit</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>THE YEAR 1939 changed many things. It witnessed the beginning of the most destructive war in history. It has also changed science. Many physicists who never were interested in applications of science devoted their skills to the necessities of war and became applied physicists. They faced new problems, new experiences, different from the accustomed academic environment. But the deepest change in the character of our science came from the discovery of fission. Many of us hoped at that time—and Oppenheimer was one of them—that the number of neutrons released would have been small enough to prevent a chain reaction. But soon enough it was clear that, on the forefront of the most esoteric and basic part of our science, a phenomenon was discovered, full of tremendous destructive and constructive potentialities. It was not yet ready for exploitation; many staggering problems had to be solved, but the way was clearly indicated. Many physicists were drawn into this work, by fate and destiny rather than enthusiasm. A threat hung over us, the frightening possibility of finding this new and incredibly powerful weapon in the hands of the powers of evil, but there is no doubt that we were also attracted by the unique challenge of dealing with nuclear phenomena on a large scale, with taming an essentially cosmic process.</t>
+          <t>Abstract The appendices and tonsils iliaca of 198 embryonic and neonatal rabbits between 26 days of gestation and 18 days after birth have been examined. Special cytological and histochemical techniques and light and phase microscopy have been employed in order to determine the origin of the lymphocytes in these lympho‐epithelial organs. Sequential developmental and cytological changes in the appendices and tonsils iliaca of the embryonic and neonatal rabbit indicate that the first lymphocytes are of small and medium size and appear by the twenty‐ninth day of development, viz., two to three days prior to birth. Lymphoblasts are not evident until a short time after birth when the lymphocytic nature of these organs has been established. The first lymphocytes in the appendix and tonsil iliaca appear to develop in situ by the direct transformation of reticular or mesenchymal cells. Lymphocytes tend to migrate toward the mesenchymal condensation of the so‐called domed elevations of the appendix and tonsil iliaca or remain in the connective tissue beneath these domed structures. In addition, lymphocytes enter the appendix and tonsil iliaca via the blood stream at or immediately after birth. These lymphocytes intermix with other lymphocytes in these organs and undergo proliferation within the lamina propria and developing lymphocytic nodules. Morphological evidence strongly suggests a dual origin or source of the lymphocytes in the developing appendix and tonsil iliaca of the rabbit; a population of lymphocytes derived originally from reticular cells and a population of lymphocytes derived extra‐appendiceally possibly of thymic (epithelial) origin. Neither the origin of lymphocytes or lymphocytic precursors from appendiceal epithelial cells nor the derivation of lymphocytic nodules from appendiceal crypts could be substantiated in this investigation. The mode of origin of lymphocytes and subsequent manner of lymphocytic development in the appendix and tonsil iliaca of the embryonic and neonatal rabbit differ markedly from that observed in the embryonic thymus and bursa of Fabricius.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2332458663</t>
+          <t>https://openalex.org/W2147692793</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3181/00379727-126-32519</t>
+          <t>https://doi.org/10.1306/5d25b715-16c1-11d7-8645000102c1865d</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Wead &amp; Little (1967)</t>
+          <t>Asquith (1966)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Effect of Hypocapnia and Respiratory Alkalosis on Cardiac Contractility.</t>
+          <t>Geology of Late Cretaceous Mesaverde and Paleocene Fort Union Oil Production, Birch Creek Unit, Sublette County, Wyoming</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Isolated myocardial strips of rabbit atrium were exposed to an oxygenated, modified Ringer-Locke's solution having various levels of Pco2, pH, and bicarbonate. Peak contraction force and maximum rate of tension development were used to evaluate myocardial contractility. Exposure to a low Pco2 and control pH environment did not cause a significant change in contractility. Myocardial performance was significantly increased by exposure to a bathing solution containing a low Pco2 and high pH. The results are interpreted to indicate that the change in pH is the significant factor in the positive inotropic response to low Pco2.</t>
+          <t>Birch Creek Unit is on the La Barge arch in the western Green River basin, and is part of the Big Piney-La Barge producing complex. Oil and gas in this area come from rocks ranging in age from Jurassic through Paleocene. This paper is concerned with the trap geometry and the source of hydrocarbons in the shallower productive units of the Upper Cretaceous Mesaverde Formation and Paleocene section. The Mesaverde and upper Hilliard Formations together form a regressive sequence which consists, from northwest to southeast, of lagoonal coal-bearing siltstone and thick sandstone beds, a littoral sandstone complex, and a sequence of marine siltstone and shale. Uplift along the La Barge arch during the Late Cretaceous or very early Paleocene resulted in the erosion of part of this sequence and of an unknown thickness of younger Cretaceous rocks. Truncated, upturned littoral sandstone beds at the Late Cretaceous-Paleocene unconformity, lateral permeability changes, and the gentle structure of the La Barge arch together form the traps within the Mesaverde Formation. The Paleocene sequence is composed of terrigenous clastic sedimentary rocks derived from two separate and distinctive source areas. The basal unit is a relatively thin one. It is a conglomerate and varicolored shale and siltstone sequence that was derived from a sedimentary terrane, probably in the rising thrust belt on the west. The unit, tentatively assigned to the Chappo, is characterized by pebbles and cobbles of limestone and quartzite. The major (upper) part of the Paleocene rocks at Birch Creek was derived from a granitic source on the east, probably in the vicinity of the Wind River Mountains, and is characterized by abundant mica and feldspar. The upper unit forms a regressive lacustrine sequence of: (1) lacustrine shale; (2) marginal-lacustrine sandstone; (3) paludal shale, siltstone, and thin sandstone; and (4) variegated mudstone and thick sandstone probably deposited in a fluvial environment. This sequence is assigned to the Fort Union Formation. Most of the oil and the major part of the gas produced from the Paleocene at Birch Creek and surrounding fields are from reservoirs within the marginal-lacustrine sandstone facies. Traps formed as a result of updip and lateral pinchouts of individual sandstone bodies into lacustrine shale along the east flank and crest of the La Barge arch. In some nearby fields, such as La Barge, these traps have been modified by subsequent structural movements. The close association of the oil production and the greater part of the gas production with the Paleocene Fort Union lacustrine shale body strongly suggests that this shale is the source of the hydrocarbons produced from the associated reservoirs. The close association of production in Mesaverde reservoirs with the unconformity above it and with the overlying shale body, the absence of a distinct chemical difference between oils from Cretaceous and Paleocene reservoirs, and the lack of significant production from areas where the shale is absent or poorly developed suggest that the source of hydrocarbons produced from Mesaverde reservoirs also may be the Paleocene lacustrine shale rather than the underlying Cretaceous marine shale and siltstone.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2144289240</t>
+          <t>https://openalex.org/W2148554889</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1029/jz072i024p06384</t>
+          <t>https://doi.org/10.1130/0016-7606(1966)77[619:mdotso]2.0.co;2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Parry &amp; Westcott (1967)</t>
+          <t>King et al. (1966)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Curie point determination in natural ilmenites</t>
+          <t>Magnetic Data on the Structure of the Central Arctic Region</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A common method for determining the Curie point (the temperature at which the transition from ferromagnetism to paramagnetism occurs) is to plot the thermomagnetic curve. This plot is usually a graph of σT/σ0 against temperature, where σ is the induced moment and the subscripts T and 0 refer to the measurements at temperature T and the ambient temperature. With a ferromagnetic substance such as nickel or magnetite, the shape of the thermomagnetic curve is such that the Curie point is readily located within about 5°C. However, ilmenites have a thermomagnetic curve of hyperbolic nature, concave upward, and so the location of the Curie point is difficult to obtain accurately.</t>
+          <t>Research Article| June 01, 1966 Magnetic Data on the Structure of the Central Arctic Region ELIZABETH R KING; ELIZABETH R KING U. S. Geological Survey, Washington, D. C. Search for other works by this author on: GSW Google Scholar ISIDORE ZIETZ; ISIDORE ZIETZ U. S. Geological Survey, Washington, D. C. Search for other works by this author on: GSW Google Scholar LEROY R ALLDREDGE LEROY R ALLDREDGE U. S. Coast and Geodetic Survey, Washington, D. C. Search for other works by this author on: GSW Google Scholar Author and Article Information ELIZABETH R KING U. S. Geological Survey, Washington, D. C. ISIDORE ZIETZ U. S. Geological Survey, Washington, D. C. LEROY R ALLDREDGE U. S. Coast and Geodetic Survey, Washington, D. C. Publisher: Geological Society of America Received: 21 Jan 1965 First Online: 02 Mar 2017 Online ISSN: 1943-2674 Print ISSN: 0016-7606 Copyright © 1966, The Geological Society of America, Inc. Copyright is not claimed on any material prepared by U.S. government employees within the scope of their employment. GSA Bulletin (1966) 77 (6): 619–646. https://doi.org/10.1130/0016-7606(1966)77[619:MDOTSO]2.0.CO;2 Article history Received: 21 Jan 1965 First Online: 02 Mar 2017 Cite View This Citation Add to Citation Manager Share Icon Share Facebook Twitter LinkedIn Email Permissions Search Site Citation ELIZABETH R KING, ISIDORE ZIETZ, LEROY R ALLDREDGE; Magnetic Data on the Structure of the Central Arctic Region. GSA Bulletin 1966;; 77 (6): 619–646. doi: https://doi.org/10.1130/0016-7606(1966)77[619:MDOTSO]2.0.CO;2 Download citation file: Ris (Zotero) Refmanager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentBy SocietyGSA Bulletin Search Advanced Search Abstract A study of 23,000 miles of total intensity aeromagnetic profiles in the central Arctic has been made by the U. S. Geological Survey and the U. S. Coast and Geodetic Survey. The profiles were flown at 20,000 feet above sea level and cover approximately 1,350,000 square miles of the Arctic Ocean between the North Pole and the North American continent.When the profiles are smoothed to remove crustal anomalies, the resulting contoured values differ from the U. S. Hydrographic Office Chart 1703 N for 1955 corrected to 1951 by as much as 2000 gammas in the northern part of the Arctic Archipelago. A nondipole regional focus east of Greenland has decreased in amplitude but has changed very little in position since 1907.5.There is a profound difference in the magnetic characteristics of the rocks on either side of the underwater Lomonosov Ridge across the Arctic Ocean. In the Eurasian Basin the high-altitude profiles are relatively smooth or show only minor anomalies, but on the North American side of the ridge there is a large area of closely spaced, high-amplitude anomalies which has been designated the Central Magnetic Zone. Although the anomaly trends parallel the Alpha Rise, this zone is far more extensive, including nearly half of the Canadian Basin on one side and probably all the Central Arctic Basin on the other side of the rise. The Lomonosov Ridge is marked by a persistent anomaly of moderate size that indicates the presence of magnetic material in the ridge. Probable block-fault structures along the flanks of the Alpha Rise are associated with blocklike magnetic anomalies of comparable widths. A characteristic magnetic pattern occurs over an area of jagged bottom topography in the Eurasian Basin. A similar magnetic pattern over part of the Lena Trough may indicate another area of jagged topography. The belt of epicenters associated with the Mid-Atlantic Ridge continues through this rugged part of the Eurasian Basin, but the absence of the typical high magnetic anomaly makes it doubtful that the mid-oceanic ridge extends through this part of the Arctic.Magnetic data indicate that the thick sections of sedimentary rocks in the Paleozoic geosynclinal belts of northern Ellesmere Island and northern Greenland continue out under the adjacent continental shelves north of Greenland, west of the Arctic Archipelago, north of the part of Alaska east of Barrow, and under part of the Chukchi Shelf, and that they make up the bulk of the Nansen Swell off Spitsbergen. Thick sedimentary fill is indicated in the magnetically flat areas of the Eurasian Basin next to the Lomonosov Ridge and in the southern part of the Canadian Basin.The magnetic profiles on the Eurasian side of the Lomonosov Ridge closely resemble typical magnetic profiles over both Atlantic and Pacific oceans, where as the profiles of the Central Magnetic Zone on the North American side of the Lomonosov Ridge are completely unlike the oceanic data and show a striking similarity to typical profiles over the Precambrian rocks of the Canadian Shield and its buried equivalent under the Central Stable Region of the United States. Therefore, it is concluded that the Arc</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2613349805</t>
+          <t>https://openalex.org/W2150924939</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00202967.1967.11870029</t>
+          <t>https://doi.org/10.1016/s0003-3472(66)80090-8</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Menzies et al. (1967)</t>
+          <t>Hughes (1966)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Electropolishing in Organic Electrolyte Solutions</t>
+          <t>Some observations of correcting behaviour in woodlice (Porcellio scaber)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SummaryDetails of experimental studies of the electropolishing of a number of metals in 10% sulphamic acid- formamide solutions are given. Iron, cadmium, zinc and tin polished and etched well in this system. Copper and uranium also polished but remained unetched at low current densities. Molybdenum and tungsten were also studied. Satisfactory etching and polishing of these metals was not achieved. Dissolution efficiencies were determined for Fe, Cu, Sn, Cd, Zn and U. The anodic behaviour of tin was studied in more detail in order to correlate the electrochemical conditions with the nature of the metal surface produced. The purity of the formamide used had some effect upon the anodic polarization characteristics of tin inasmuch as the limiting current density region was not clearly defined and the change in potential was only ∼0·5V whereas in purified solutions this was much more clearly defined and existed over a potential range of ∼4V. There was no evidence that impurities in the formamide affected the nature of the tin surface produced in relation to the appropriate polarization curve.</t>
+          <t>In a study of turn alternation in the terrestrial isopod Porcellio scaber (woodlouse), smaller individuals (&lt;11 mm long) took significantly longer to traverse a 60-mm open-ended post-forced-turn runway following a 90° forced turn, than larger subjects (&gt;11 mm long). However, there were no significant differences between the two groups in their probability of alternating, or in the magnitude of alternating turns as reflected in the size of the free-turn angles they turned on emerging from the runway. Nor was there a significant relationship for either group between the time taken to traverse the runway and either the probability of alternating or the size of a free-turn angle. In a second experiment, significant alternation occurred after woodlice emerged from runways that were 30 and 60 mm long, but not when they were 100 or 145 mm long. Their free-turn angles also became smaller as the runway length increased. Overall, the results of the three experiments supported the long-held view that, for reasons not yet understood, distance and time cannot necessarily be equated in the determination of invertebrate turn alternation.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2058857896</t>
+          <t>https://openalex.org/W2151699159</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1306/5d25c141-16c1-11d7-8645000102c1865d</t>
+          <t>https://doi.org/10.1152/physrev.1966.46.1.1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Szekely (1967)</t>
+          <t>Noble (1966)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Geology Near Huallacocha Lakes, Central High Andes, Peru</t>
+          <t>Applications of Hodgkin-Huxley equations to excitable tissues.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Recent field work near the Huallacocha lakes has defined structural features in a narrow fold-and-fault or thrust belt near the Continental Divide. The rocks deformed include Paleozoic metamorphics, Permian to Cretaceous sedimentary and volcanic formations, and Tertiary terrigenous clastics. There is a large thrust sheet of Upper Cretaceous limestone which was probably formed in latest Cretaceous time and which was thrust from the southwest. Deformation occurred in early or medial Tertiary time and the structures, which strike northwest, include tight folds, reverse faults which change at depth to thrusts directed toward the northeast, and a zone of imbricate thrusts previously recognized by Harrison (1960). Tectonism is considered to be related to the formation of Yauli ome, directly northeast, during Tertiary time.</t>
+          <t>Applications of Hodgkin-Huxley equations to excitable tissues.D NobleD NoblePublished Online:01 Jan 1966https://doi.org/10.1152/physrev.1966.46.1.1MoreSectionsPDF (7 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Back to Top Next Download PDF FiguresReferencesRelatedInformationCited ByThe free energy of biomembrane and nerve excitation and the role of anestheticsBiochimica et Biophysica Acta (BBA) - Biomembranes, Vol. 1860, No. 10Information sensitivity functions to assess parameter information gain and identifiability of dynamical systems16 May 2018 | Journal of The Royal Society Interface, Vol. 15, No. 142The influence of increased membrane conductance on response properties of spinal motoneuronsBrain Research, Vol. 1648What gets a cell excited? Kinky curvesAlan R. Kay1 December 2014 | Advances in Physiology Education, Vol. 38, No. 4Axon PhysiologyDominique Debanne, Emilie Campanac, Andrzej Bialowas, Edmond Carlier, and Gisèle Alcaraz1 April 2011 | Physiological Reviews, Vol. 91, No. 2Role for the Subthreshold Currents ILeak and IH in the Homeostatic Control of Excitability in Neocortical Somatostatin-Positive Inhibitory NeuronsJay R. Gibson, Aundrea F. Bartley, and Kimberly M. Huber1 July 2006 | Journal of Neurophysiology, Vol. 96, No. 1Dynamic Spatiotemporal Synaptic Integration in Cortical Neurons: Neuronal Gain, RevisitedRony Azouz1 October 2005 | Journal of Neurophysiology, Vol. 94, No. 4Effect of Subthreshold Up and Down States on the Whisker-Evoked Response in Somatosensory CortexRobert N. S. Sachdev, Ford F. Ebner, and Charles J. Wilson1 December 2004 | Journal of Neurophysiology, Vol. 92, No. 6Low-powered and accelerative synchronization in the coupled system of nonlinear hardware oscillators1 January 2004 | Electronics and Communications in Japan (Part III: Fundamental Electronic Science), Vol. 87, No. 12A quantitative analysis of cell volume and resting potential determination and regulation in excitable cells25 August 2004 | The Journal of Physiology, Vol. 559, No. 2Excitability of the Clay model for squid giant axonBiosystems, Vol. 71, No. 1-2Adaptive Coincidence Detection and Dynamic Gain Control in Visual Cortical Neurons In VivoNeuron, Vol. 37, No. 3Engineered calmodulins reveal the unexpected eminence of Ca2+ channel inactivation in controlling heart excitation16 December 2002 | Proceedings of the National Academy of Sciences, Vol. 99, No. 26Imaging of neural conduction block by neuromagnetic recordingClinical Neurophysiology, Vol. 113, No. 12Regulation of Action-Potential Firing in Spiny Neurons of the Rat Neostriatum In VivoJ. R. Wickens, and C. J. Wilson1 May 1998 | Journal of Neurophysiology, Vol. 79, No. 5In vivo estimation of cardiac transmembrane current.Circulation Research, Vol. 72, No. 2Reduction of a Hodgkin-Huxley-type model for a mammalian neuron at body temperatureBiological Cybernetics, Vol. 67, No. 5Partition of the Hodgkin-Huxley type model parameter space into the regions of qualitatively different solutionsBiological Cybernetics, Vol. 66, No. 5Special cellular and synaptic mechanisms in motor pattern generationComparative Biochemistry and Physiology Part C: Comparative Pharmacology, Vol. 91, No. 1Interaction between a normoxic and a hypoxic region of guinea pig and ferret papillary muscles.Circulation Research, Vol. 56, No. 6A mathematical model of the effects of acetylcholine pulses on sinoatrial pacemaker activity.Circulation Research, Vol. 55, No. 1The cardiac excitation-contraction cyclePharmacology &amp; Therapeutics, Vol. 16, No. 1A multiaction synapse evoking both EPSPs and enhancement of endogenous burstingBrain Research, Vol. 223, No. 1Computer analyses of the excitable membraneComputers and Biomedical Research, Vol. 13, No. 1Time- and voltage-dependent interactions of antiarrhythmic drugs with cardiac sodium channelsBiochimica et Biophysica Acta (BBA) - Reviews on Biomembranes, Vol. 472, No. 3-4The geometry of the Hodgkin-Huxley modelComputer Programs in Biomedicine, Vol. 6, No. 2“Action potentials” in NEUROSPORA CRASSA, a mycelial fungusBiochimica et Biophysica Acta (BBA) - Biomembranes, Vol. 426, No. 4The effect of procaine amide on components of excitability in long mammalian cardiac Purkinje fibers.Circulation Research, Vol. 38, No. 2Nerve impulse propagation along nonuniform fibresProgress in Biophysics and Molecular Biology, Vol. 30Electrophysiology of mammalian smooth muscleProgress in Biophysics and Molecular Biology, Vol. 30Models of ionic currents for excitable membranesProgress in Biophysics and Molecular Biology, Vol. 29Mechanism of cardiac fibrillationPharmacology &amp; Therapeutics. Part B: General and Systematic Pharmacology, Vol. 2, No. 4Some Mathematical Problems from Neurobiology11 April 2018 | The American Mathematical Monthly, Vol. 82, No. 9Electrical changes in the membrane in junctional transmissionBiochimica et Biophysica Acta (BBA) - Reviews on Biomembranes, Vol. 300</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2120547814</t>
+          <t>https://openalex.org/W2155782191</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/002188636700300305</t>
+          <t>https://doi.org/10.1016/0002-9149(66)90246-3</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Bartlett (1967)</t>
+          <t>Sackner et al. (1966)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Changing Behavior as a Means to Increased Efficiency</t>
+          <t>The heart in scleroderma</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>A firm in a highly competitive industry, operating below tolerable levels and sensing "problems," hired a new GM who sought help from a change agent. An in-house laboratory was created where Ss, under guise of skill training in communications, "simulated" giving and receiving descriptive nonevaluative feedback in role play of cases, on the grounds that it is easier to change behavior than attitudes. Environment was gradually transformed from Theory X toward Y as Ss became more open and risk taking and grew in interpersonal competence. Ss remedied company's faltering production, poor quality, and high cost "significantly" within three months following program. Application of behavioral science theories to allow people to help organizational performance does pay off.</t>
+          <t>Abstract “Scleroderma heart disease” is a pathologic rather than a clinical diagnosis. This condition, in its advanced stage, is characterized by widespread proliferation of connective tissue and degeneration of myocardial fibers, but by itself rarely produces significant clinical manifestations. Indeed, when criteria for diagnosis require changes throughout multiple histologic sections, the incidence of “scleroderma heart disease” is low even at necropsy. Only 3 of our 25 necropsy cases of scleroderma met these criteria. Pulmonary and systemic vascular abnormalities played a more important role in disturbing cardiac function. Thus, right ventricular hypertrophy was caused by pulmonary hypertension found alone or in association with pulmonary fibrosis. Left ventricular hypertrophy was caused by malignant systemic hypertension produced by “scleroderma kidney.” The preceding extracardiac factors occurred in all 3 of our cases of “scleroderma heart disease” and caused the major clinical symptomatology. The most frequent site of cardiac involvement in cases of scleroderma is the pericardium. Pathologically, the commonest lesion is a chronic adhesive pericarditis (36%, of our cases) which does not restrict cardiac filling. Acute pericarditis during the clinial course of the disease is far less frequent than the pathologic lesions would indicate. Large pericardial effusions associated with a relatively normal pericardium histologically may be seen clinically. Minor deformities of the mitral and tricuspid valves occur uncommonly in scleroderma; valvular lesions of hemodynamic significance are due to coexistent rheumatic lesions. Dyspnea, particularly upon exertion, occurred during the course of the disease in 80 per cent of our cases. It can be generally ascribed to pulmonary hypertension, pulmonary fibrosis, or left heart failure associated with “scleroderma kidney.” It therefore is rarely necessary to invoke “scleroderma heart disease” as a cause for dyspnea. Right ventricular hypertrophy associated with pulmonary hypertension can be suspected clinically by the loud intensity of the pulmonic component of the second heart sound at Erb's point or by its transmission to the apex and by the presence of a presystolic gallop. There is also a good correlation between the hemodynamic severity of the pulmonary hypertension and the incidence of the electrocardiographic pattern of right ventricular hypertrophy and the roentgenographic analysis of the prominence of the pulmonary artery sector. From a physiologic and pathologic standpoint, the pulmonary hypertension and pulmonary fibrosis appear to be two independent phenomena. It is postuated that pulmonary hypertension in scleroderma is another expression of the heightened vasomotor tone in the disease, namely, Raynaud's phenomenon and “scleroderma kidney.” Although electrocardiograms and ballistocardiograms are often abnormal in scleroderma, the findings are generally of a nonspecific nature. In only 1 of our 3 cases of “scleroderma heart disease” did the electrocardiogram show an unusual pattern—that of apical infarction. In the 2 remaining cases the pattern of right ventricular hypertrophy dominated in 1 as a result of coexisting pulmonary hypertension, and left ventricular hypertrophy as a result of coexisting systemic hypertension in the other. In conclusion , “scleroderma heart disease” is an uncommon clinicopathologic entity. Nevertheless, abnormalities of cardiac function in scleroderma often are of major clinical significance because myocardial function is affected secondarily by (1) pulmonary hypertension, (2) systemic hypertension associated with “scleroerma kidney,” (3) pericarditis and pericardial effusion and (4) hypoxia associated with restrictive pulmonary disease.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2410147110</t>
+          <t>https://openalex.org/W2168616791</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/jappl.1967.22.4.854</t>
+          <t>https://doi.org/10.1016/0031-9163(66)91180-2</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Band &amp; Semple (1967)</t>
+          <t>Rogers (1966)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Continuous measurement of blood pH with an indwelling arterial glass electrode.</t>
+          <t>The nature of the 50 c/s phase transition in type II superconductors</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ArticleContinuous measurement of blood pH with an indwelling arterial glass electrode.D M Band, and S J SempleD M Band, and S J SemplePublished Online:01 Apr 1967https://doi.org/10.1152/jappl.1967.22.4.854MoreSectionsPDF (1 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByMonitoring with In Vivo Electrochemical Sensors: Navigating the Complexities of Blood and Tissue Reactivity2 June 2020 | Sensors, Vol. 20, No. 11A quick and easy method of measuring the hypercapnic ventilatory response in patients with COPDRespiratory Medicine, Vol. 103, No. 2Alveolar Pco2 oscillations and ventilation at sea level and at high altitudeD. J. Collier, A. H. Nickol, J. S. Milledge, H. J. A. van Ruiten, C. J. Collier, E. R. Swenson, Avijit Datta, and C. B. Wolff1 February 2008 | Journal of Applied Physiology, Vol. 104, No. 2In-Line Blood Gas MonitoringThe Respiratory SystemContinuous intra-arterial blood gas monitoringIntensive Care Medicine, Vol. 22, No. 8Aortic pH oscillations in conscious humans and anaesthetised cats and rabbitsRespiration Physiology, Vol. 102, No. 1International Meetings on Arterial Chemoreceptors: Historical PerspectivesThe physiological control of respirationMolecular Aspects of Medicine, Vol. 13, No. 6Carotid chemoreceptor response to increases in CO2 outputRespiration Physiology, Vol. 81, No. 1In vivo chemical sensors for intensive-care monitoringMedical and Biological Engineering and Computing, Vol. 28, No. 3The effect of potassium and venous CO2 loading on chemoreceptor firing in anaesthetized catsRespiration Physiology, Vol. 76, No. 2Online patient-monitoring system for the simultaneous analysis of blood K+, Ca2+, Na+ and pH using a quadruple-function ChemFET integrated-circuit sensorMedical &amp; Biological Engineering &amp; Computing, Vol. 23, No. 4Plastic H+-Sensitive Membranes for In Vivo pH MeasurementsIn Vivo Performance of an Intravascular pH Monitoring CatheterIn vivo experiments with a pH-ISFET electrodeMedical and Biological Engineering and Computing, Vol. 22, No. 1A miniature flow-through cell with a four-function chemfet integrated circuit for simultaneous measurements of potassium, hydrogen, calcium and sodium ionsAnalytica Chimica Acta, Vol. 159Respiratory Oscillations in Health and DiseaseArterial pH monitoring with monocrystalline antimony sensors17 March 2010 | Scandinavian Journal of Clinical and Laboratory Investigation, Vol. 42, No. 4Ventilatory response to inhaled and infused CO2: Relationship to the oscillating signalRespiration Physiology, Vol. 44, No. 3Reflex effects on human breathing of breath-by-breath changes of the time profile of alveolar $$P_{CO_2 } $$ during steady hypoxiaPfl�gers Archiv European Journal of Physiology, Vol. 389, No. 3Continuous intra-arterial pH-monitoring using monocrystalline antimony as sensor: A study in non-heparinized dogs8 July 2009 | Scandinavian Journal of Clinical and Laboratory Investigation, Vol. 41, No. 4An iridium-iridium oxide electrode for in vivo monitoring of blood pH changes9 July 2009 | Journal of Medical Engineering &amp; Technology, Vol. 5, No. 2Carotid Arterial Blood Gas Oscillations and the Phase of the Respiratory Cycle During Exercise in Man: Testing a ModelRole of PCO2 oscillations and chemoreceptors in ventilatory response to inhaled and infused CO2Respiration Physiology, Vol. 29, No. 2On-line, computer-controlled potentiometric analysis system1 May 2002 | Analytical Chemistry, Vol. 48, No. 2Glass microelectrode probes for routine pH measurements1 May 2002 | Analytical Chemistry, Vol. 48, No. 2Disorders of RespirationContinuous Measurement of Po2, Pco2 and pH During Total Body Perfusion in Dogs12 July 2009 | Scandinavian Journal of Thoracic and Cardiovascular Surgery, Vol. 6, No. 2Continuous blood pH monitoring using an indwelling catheterThe American Journal of Surgery, Vol. 116, No. 2Enhancement of the ventilatory response to carbon dioxide by tube breathingRespiration Physiology, Vol. 4, No. 1Continuous Measurement of Po 2 , Pco 2 and pH in Blood8 July 2009 | Scandinavian Journal of Clinical and Laboratory Investigation, Vol. 22, No. 1 More from this issue &gt; Volume 22Issue 4April 1967Pages 854-7 https://doi.org/10.1152/jappl.1967.22.4.854PubMed6023208History Published online 1 April 1967 Published in print 1 April 1967 Metrics</t>
+          <t>Abstract Experimental results are given which demonstrate that the 50 c/s superconducting-to-normal transition in type II superconductors is not in general caused by heating due to a.c. losses, but is due rather to the peak current attaining a critical value.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1977804205</t>
+          <t>https://openalex.org/W2219026283</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/cwh.1967.0002</t>
+          <t>https://doi.org/10.1152/jappl.1966.21.4.1435</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Wagandt (1967)</t>
+          <t>Singh &amp; Karpovich (1966)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>The Civil War Journal of Dr. Samuel A. Harrison</t>
+          <t>Isotonic and isometric forces of forearm flexors and extensors.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>THE CIVIL WAR JOURNAL OF DR. SAMUEL A. HARRISON Edited by Charles L. Wagandt Blood splattered the streets of Baltimore that fateful Friday, April 19, 1861. To the dead went the dubious distinction of being the first killed in action in the Civil War. But the riot against the 6th Massachusetts did more than slay a few contestants. Its emotional impact tore Baltimore from its Union bearings and temporarily dropped the city into the eager hands of the secessionists. Those who clung to the Union in the midst of chaos gazed helplessly . One loyalist commented on April 21 as the city feverishly prepared to meet the rumored advance of Yankee troops: "I was angry, disgusted, amused, mortified, sorry by turns. I scolded, I railed, I laughed, and I cried." Tearfully, he watched patriotism "disowned, and the country dishonored."1 This man was Samuel Alexander Harrison, a writer uniquely endowed with keen insight into the feelings and motivations of himself and others. The incident displayed his ability to hold steadfast in a time of turbulence, but it equally demonstrated the emotional impact of such events upon him. Fortunately, he could write honestly and openly about bis reactions. Bom in 1822 of a very substantial Eastern Shore (Maryland) family , Harrison achieved a good education. He practiced medicine while still a young man but soon ventured into other fields during residencies in St. Louis and Baltimore. Early in the Civil War Harrison returned to his native Talbot County to pursue his agricultural and literary interests.2 Here in the middle of the Eastern Shore he found 1 The Journal of Dr. Samuel A. Harrison, written in the years 1861-1865, is in the Maryland Historical Society. The dates listed in this article are as recorded in the diary. The actual writing usually took place on the day succeeding that date. Whenever Dr. Harrison has usea the ampersand, the word "and *" has replaced it. In a few places a period or comma has been added for the sake of clarity, but generally Harrison's punctuation has been followed. Baltimore American, June 1, 1861. Harrison posted in his Journal a clipping from that issue. The article contained a letter dated April 28, 1861. Though no name was printed, Harrison signed the letter in ink in his Journal. 2 For biographical sketches of Dr. Harrison see the Baltimore Sun, May 30, 1890; Easton Star, June 3, 1890; Prentiss Ingraham, Land of Legendary 131 132CIVIL WAR HISTORY a land of strong southern attachments but, among many, deep loyalty to the Union. The war cut off much of his social life because differing loyalties estranged personal relationships. To fill the void Harrison found comfort in writing a journal. It served, however, as more than a comforter for loneliness. The act of putting pen to paper helped to clarify his thinking. Because he wrote with no intention of publishing, Harrison freely expressed his passing, sometimes contradictory, thoughts on many of the critical issues of that day—issues that in some cases are still unresolved. From his pen emerged many images—the power of the slave aristocracy , the arousal of class feeling, and a fear bom of prejudice. Nor could he overlook the world of politics. Sensitive to the slightest personal imputation, he entertained "a most hearty disgust for party men, party contests, and party conduct."3 He excoriated corruption and deplored election irregularities, but his more practical nature upheld questionable electoral verdicts that were favorable to his views. Harrison declined the opportunity to run for the state senate in 1864 but later accepted the presidency of the county school board. On an earlier occasion he also surrendered his preferences for simply observing politics from the sidelines. That was in the summer of 1861 when he assumed the role of a delegate to a Baltimore city convention of Unionists.4 It was then and in the fall of 1861 that Harrison savored the joys of seeing Maryland right itself and declare emphatically for the Union. This issue settled, the state reluctantly became embroiled in the question of slavery, a question that had long rankled Marylanders. Now the so-called peculiar institution plunged into a final, embittered contest. Praised and damned...</t>
+          <t>ArticleIsotonic and isometric forces of forearm flexors and extensors.M Singh, and P V KarpovichM Singh, and P V KarpovichPublished Online:01 Jul 1966https://doi.org/10.1152/jappl.1966.21.4.1435MoreSectionsPDF (785 KB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByMuscle fatigue during maximal eccentric‐only, concentric‐only, and eccentric‐concentric bicep curl exercise with automated drop setting16 February 2023 | Scandinavian Journal of Medicine &amp; Science in Sports, Vol. 23Comment on: “Stepwise Load Reduction Training: A New Training Concept for Skeletal Muscle and Energy Systems”5 March 2022 | Sports Medicine, Vol. 52, No. 9Exhausting repetitive piano tasks lead to local forearm manifestation of muscle fatigue and negatively affect musical parameters14 April 2021 | Scientific Reports, Vol. 11, No. 1Assessment of the Adaptive Force of Elbow Extensors in Healthy Subjects Quantified by a Novel Pneumatically Driven Measurement System with Considerations of Its Quality Criteria21 May 2021 | Diagnostics, Vol. 11, No. 6Investigating the feasibility of combining EEG and EMG for controlling a hybrid human computer interface in patients with spinal cord injuryRole of the cortex in visuomotor control of arm stabilityDylan B. Snyder, Scott A. Beardsley, and Brian D. Schmit14 November 2019 | Journal of Neurophysiology, Vol. 122, No. 5Muscular Pre-activation Can Boost the Maximal Explosive Eccentric Adaptive Force23 July 2019 | Frontiers in Physiology, Vol. 10Functional Evaluation of the ElbowAge differences in dynamic fatigability and variability of arm and leg muscles: Associations with physical functionExperimental Gerontology, Vol. 87Only women report increase in pain threshold following fatiguing contractions of the upper extremity23 May 2016 | European Journal of Applied Physiology, Vol. 116, No. 7Increased antagonist muscle activity in cervical SCI patients suggests altered reciprocal inhibition during elbow contractionsClinical Neurophysiology, Vol. 127, No. 1Effects of Eccentric Strength Training on Different Maximal Strength and Speed-Strength Parameters of the Lower ExtremityJournal of Strength and Conditioning Research, Vol. 29, No. 7The influence of muscle length on one-joint shoulder internal and external rotator muscle strength30 December 2013 | Physiotherapy Theory and Practice, Vol. 30, No. 4Motor-related cortical activity after cervical spinal cord injury: Multifaceted EEG analysis of isometric elbow flexion contractionsBrain Research, Vol. 1533Does the force level modulate the cortical activity during isometric contractions after a cervical spinal cord injury?Clinical Neurophysiology, Vol. 124, No. 5Neuromuscular responses to different resistance loading protocols using pneumatic and weight stack devicesJournal of Electromyography and Kinesiology, Vol. 23, No. 1Muscle Activation of the Elbow Flexor and Extensor Muscles During Self-Resistance ExercisesJournal of Strength and Conditioning Research, Vol. 26, No. 9Skeletal Muscle Physiology and Its Application to Occupational Ergonomics9 May 2012Isometric torque–angle relationships of the elbow flexors and extensors in the transverse planeJournal of Electromyography and Kinesiology, Vol. 20, No. 5Functional Evaluation of the ElbowMassage Reduces Pain Perception and Hyperalgesia in Experimental Muscle Pain: A Randomized, Controlled TrialThe Journal of Pain, Vol. 9, No. 8Other Individual Amino Acids4 December 2009Maximal force during eccentric and isometric actions at different elbow angles17 January 2006 | European Journal of Applied Physiology, Vol. 96, No. 6Amino Acid Mixture Improves Training Efficiency in AthletesThe Journal of Nutrition, Vol. 136, No. 2Effects of resistance training and protein supplementation on bone turnover in young adult women17 August 2005 | Nutrition &amp; Metabolism, Vol. 2, No. 1Firing rates of motor units during strong dynamic contractions1 January 2005 | Muscle &amp; Nerve, Vol. 32, No. 3Motor unit firing rates during isometric voluntary contractions performed at different muscle lengthsCanadian Journal of Physiology and Pharmacology, Vol. 82, No. 8-9Axial neck rotation strength in neutral and prerotated posturesClinical Biomechanics, Vol. 18, No. 6Effect of a Selected Amino Acid Mixture on the Recovery from Muscle Fatigue during and after Eccentric Contraction Exercise Training22 May 2014 | Bioscience, Biotechnology, and Biochemistry, Vol. 67, No. 2Normalized force, activation, and coactivation in the arm muscles of young and old menC. S. Klein, C. L. Rice, and G. D. Marsh 1 September 2001 | Journal of Applied Physiology, Vol. 91, No. 3Eccentric exercise-induced injuries to contractile and cytoskeletal muscle fibre components9 October 2008 | Acta Physiologica Scandinavica, Vol. 171, No. 3Effects of external loading on power output in a squat jump on a force platform: A comp</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2254595003</t>
+          <t>https://openalex.org/W2300529734</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/jappl.1967.22.3.595</t>
+          <t>https://doi.org/10.2307/1539746</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Luschei &amp; Mehaffey (1967)</t>
+          <t>Runnström &amp; Markman (1966)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Small animal anesthesia with halothane</t>
+          <t>GENE DEPENDENCY OF VEGETALIZATION IN SEA URCHIN EMBRYOS TREATED WITH LITHIUM</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ARTICLESSmall animal anesthesia with halothaneE. S. Luschei, and J. J. MehaffeyE. S. Luschei, and J. J. MehaffeyPublished Online:01 Mar 1967https://doi.org/10.1152/jappl.1967.22.3.595MoreSectionsPDF (579 KB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInEmailWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformationCited ByProduction of systemic hyperthermia in the ratEuropean Journal of Cancer and Clinical Oncology, Vol. 20, No. 8Cardiovascular responses of fetal guinea pig to norepinephrineJournal of Pharmacological Methods, Vol. 4, No. 4Can halothane anaesthesia have any aversive effects on the rat?Physiology &amp; Behavior, Vol. 22, No. 1A head-holder for inhalation anesthesia or resuscitation of ratsPharmacology Biochemistry and Behavior, Vol. 2, No. 1Electrical responses of the pigeon eye to changes in wavelength of the stimulating lightVision Research, Vol. 12, No. 5Photopic spectral sensitivity determined electroretinographically for the pigeon eyeVision Research, Vol. 12, No. 3The refractive state of the pigeon eyeVision Research, Vol. 11, No. 9Flavor preference: Effects of ingestion-contingent intravenous saline or glucosePhysiology &amp; Behavior, Vol. 6, No. 4A system for halothane anesthesia in experimental surgeryPhysiology &amp; Behavior, Vol. 4, No. 3 More from this issue &gt; Volume 22Issue 3March 1967Pages 595-597 Copyright &amp; PermissionsCopyright © 1967 the American Physiological Societyhttps://doi.org/10.1152/jappl.1967.22.3.595PubMed6020249History Published online 1 March 1967 Published in print 1 March 1967 Metrics</t>
+          <t>1. Embryos of Paracentrotus lividus were raised in sea water (C0); in sea water with 12 µg/ml. actinomycin D (Cact); in sea water with 0.033 M lithium (Li0) and in sea water with both 0.033 M lithium and 12 µg./ml. actinomycin D (Liact). The embryos were transferred into the media at the 8-cell stage and exposed to these for 5.5 hours; thereafter they were returned to normal sea water. The embryos or larvae were fixed after different intervals of time as detailed in Table I. Living specimens were also observed. The lithium concentration and time of exposure used gave a weak but definite vegetalization in a high percentage of larvae (Table I, D, Li0). The effect of lithium either involved merely a reduction of the animal-oral region (oral lobe) or was manifested also as an enlargement of the archenteron, in particular of its more animal (posterior) region. Accessory archentera or ectodermic bulges were often found in the border region between ecto-and entoderm. The differentiation seems here to be in a "fluctuating" state.2. Previous results of Runnström, Ranzi and Lallier indicate that the primary effect of lithium increases inter- and intramolecular bondings in certain cytoplasmic components. The animalizing agents are assumed to be particularly sensitive to these changes which may block their diffusion. In this way, the normal animal-vegetal balance is disturbed in favor of the vegetalizing agents which are less affected by the structural changes.3. The vegetalizing agents may directly or indirectly induce the activation of genes concerned with the vegetal anabolic pathways. When the action of these agents is enhanced in the state of unbalance caused by lithium, the predominance of the vegetal anabolic pathways extends in animal direction. If, however, the transcriptions of genes are blocked by actinomycin D this extension of the region of vegetal pathways is inhibited (for a diagrammatic representation of lithium action on one side and the combined action of lithium and actinomycin D on the other, see Figure 13, Li0 and Liact). The blocking effect of actinomycin D does not depend on a direct reaction with the vegetalizing agents. as follows from data presented by Giudice and Hörstadius (1965). The inference is that gene activation is a link in the vegetalization following exposure to lithium.4. Exposure to actinomycin D alone (Fig. 13, Cact) causes a tendency to animalization which is a secondary effect of retarded gastrulation. The development of the embryos becomes more balanced after exposure to the combined action than after that to actinomycin alone. A weak lithium effect balances the slight tendency to animalization which follows upon treatment with actinomycin D. Even after combined treatment, however, a certain inhibition prevails, manifested particularly in subnormal outgrowth of skeleton rods and arms.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1994787014</t>
+          <t>https://openalex.org/W2300832093</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2118/1770-ms</t>
+          <t>https://doi.org/10.1152/ajplegacy.1966.211.2.403</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Willingham &amp; McCaleb (1967)</t>
+          <t>Misher &amp; Fp (1966)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>The Influence of Geologic Hetrogeneties on Secondary Recovery From the Permian Phosphoria Reservoir Cottonwood Creek, Wyoming</t>
+          <t>Electrical stimulation of hypothalamus and gastric secretion in the albino rat</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>This paper was prepared for the SPE Rocky Mountain Regional Meeting to be held in Casper, Wyo., May 22–23, 1967. Permission to copy is restricted to an abstract of not more than 300 words. Illustrations may not be copies. The abstract should contain conspicuous acknowledgement of where and by whom the paper is presented. Publication elsewhere after publication in the JOURNAL OF PETROLEUM TECHNOLOGY or the SOCIETY OF PETROLEUM ENGINEERS JOURNAL is usually granted upon request to the Editor of the appropriate journal provided agreement to give proper credit is made. Discussion of this paper is invited. Three copies of any discussion should be sent to the Society of Petroleum Engineers office. Such discussion may be presented at the above meeting and, with the paper, may be considered for publication in one of the two SPE magazines. Abstract Cottonwood Creek field is on the east side of the Big Horn Basin in northwestern Wyoming. It is on a west-southwest dipping monoclinal surface, with about 5,500 ft of structural relief through the productive interval. This field is an excellent example of a stratigraphic trap resulting from an updip facies change. Throughout Phosphoria deposition the boundary between the carbonate facies and red shale-anhydrite facies fluctuated along a north-south zone in the eastern part of the Big Horn Basin. Cottonwood Creek field is in the zone where the two facies intertongue. The stratigraphic trap for hydrocarbons is the impervious strata of the red bed sequence where it grades into the carbonate facies. Within the productive area outlined by Cottonwood Creek field, upper Phosphoria shoaling and bioclastic thickening occurred together with a concomitant porosity increase within what generally is a fine-grained dolomite facies. The producing interval contains oolites, lithoclasts, pellets and residual fossil bioclasts. Vugs are numerous; some appear to be fossil molds. Cottonwood Creek field was discovered in 1953 and has produced more than 23 million bbl of oil from 14,200 productive acres. Field development was essentially complete by 1958. During June, 1958, an upstructure gas-injection program was begun to maintain reservoir pressure and increase ultimate oil recovery. Gas injection resulted in rapid movement of gas to producing wells and, in many wells, oil production rates declined. An upstructure water-injection program was begun in 1959 and was expanded to midstructure during 1962. In many places injected water channeled rapidly to producing wells and resulted in decreased oil production. To account for reservoir performance, all available geological, engineering and production data were reviewed. These indicated that reservoir performance is dependent on both the primary [matrix] rock characteristics and a superimposed fracture system. The fracture system was the primary cause of poor injection performance. The geologic concept of the reservoir was found to correlate-well with field performance and resulted in a rational explanation of the poor secondary recovery performance. A variety of methods were used to determine areal geological variations in the reservoir.</t>
+          <t>ARTICLESElectrical stimulation of hypothalamus and gastric secretion in the albino ratA Misher, and FP BrooksA Misher, and FP BrooksPublished Online:01 Aug 1966https://doi.org/10.1152/ajplegacy.1966.211.2.403MoreSectionsPDF (383 KB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByGastric Secretions27 November 2015Participation of NMDA receptors in the lateral hypothalamus in gastric erosion induced by cold-water restraintPhysiology &amp; Behavior, Vol. 140Role of brain orexin in the pathophysiology of functional gastrointestinal disorders28 March 2011 | Journal of Gastroenterology and Hepatology, Vol. 26Role of the Ventromedial Hypothalamic Orexin-1 Receptors in Regulation of Gastric Acid Secretion in Conscious RatsJournal of Neuroendocrinology, Vol. 21, No. 3Role of orexin in central regulation of gastrointestinal functions20 September 2008 | Journal of Gastroenterology, Vol. 43, No. 9Changes in single-unit activity in the ventromedial hypothalamic nucleus of goats during feedingAnimal Science Journal, Vol. 77, No. 6The rise, fall, and resurrection of the ventromedial hypothalamus in the regulation of feeding behavior and body weightPhysiology &amp; Behavior, Vol. 87, No. 2Lateral hypothalamus modulates gut-sensitive neurons in the dorsal vagal complexBrain Research, Vol. 980, No. 1Changes in single unit activity in the lateral hypothalamic areaof goats during feeding1Journal of Animal Science, Vol. 81, No. 2AdipositasOrexins (hypocretins): novel hypothalamic peptides with divergent functionsBiochemistry and Cell Biology, Vol. 78, No. 3Gastric mucosal erosion produced by NMDA microinfusions in the lateral hypothalamus: effect of selective knife cutsBehavioural Brain Research, Vol. 102, No. 1-2Stimulation of Gastric Acid Secretion by Centrally Administered Orexin-A in Conscious RatsBiochemical and Biophysical Research Communications, Vol. 254, No. 3Role of mucosal microcirculation in gastric lesions induced by lateral hypothalamic lesions in ratsJournal of Gastroenterology and Hepatology, Vol. 10, No. 4Neuroendocrine Control of Gastric Acid SecretionHypothalamic stimulation induces vagally mediated hypocalcemia in the ratBrain Research Bulletin, Vol. 33, No. 1Effects of GABA and l-glutamate on the gastric acid secretion and gastric defensive mechanisms in rat lateral hypothalamusJournal of the Autonomic Nervous System, Vol. 44, No. 2-3Gastric mucosal erosions induced by lateral hypothalamic damage: neuronal and dopaminergic mechanismsBrain Research, Vol. 605, No. 1Putative role of endogenous insulin in cysteamine-induced hypersecretion of gastric acid in ratsEuropean Journal of Pharmacology, Vol. 202, No. 2Ventromedial hypothalamic obesity: A reexamination of the irritative hypothesisNeuroscience &amp; Biobehavioral Reviews, Vol. 15, No. 3Localization of central prostaglandin E2 antisecretory effectsGastroenterology, Vol. 100, No. 2Electrical stimulation of the medial amygdala facilitates gastric acid secretion in conscious ratsBrain Research, Vol. 524, No. 2The Role of the Hypothalamus and Dorsal Vagal Complex in Gastrointestinal Function and PathophysiologyAnnals of the New York Academy of Sciences, Vol. 597, No. 1 NeurobiologyBrain corticotropin-releasing factor acts as inhibitor of stress-induced gastric erosion in ratsLife Sciences, Vol. 47, No. 11Direct Evidence for Central Action of PCPGABA to Stimulate Gastric Acid Secretion by Intracisternal InjectionJapanese Journal of Pharmacology, Vol. 54, No. 1Inhibition of Gastric Acid Secretion1 January 2011Effects of stimulation of the hypothalamic area on pancreatic exocrine secretion in dogsGastroenterology, Vol. 97, No. 6Activation by Systemic GABA of Vagal Efferent Transmission in the Rat: Correlation to Its Acid Secretagogue ActionJapanese Journal of Pharmacology, Vol. 50, No. 3Dual Effects on Gastric Acid Secretion of Electrical Stimulation of Anterior Parts of the Rat HypothalamusJapanese Journal of Pharmacology, Vol. 49, No. 1Bombesin microinfusion into the paraventricular nucleus suppresses gastric acid secretion in the ratBrain Research, Vol. 422, No. 1Central nervous system actions of β-endorphin on gastric acid secretionBrain Research, Vol. 413, No. 1Effects of restraint and water-immersion stress and insulin on gastric acid secretion in ratsPhysiology &amp; Behavior, Vol. 40, No. 3Feeding and diurnal related activity of lateral hypothalamic neurons in freely behaving ratsBrain Research, Vol. 373, No. 1-2Visual responses related to food discrimination in monkey lateral hypothalamus during operant feeding behaviorBrain Research, Vol. 374, No. 2Amygdaloid lesions attenuate neurogenic gastric mucosal erosions but do not alter gastric secretory changes induced by intracisternal bombesinBrain Research Bulletin, Vol. 16, No. 1Cerebroventricular bombesin inhibits gastric acid secretion in dogsGastroenterology, Vol.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2007756225</t>
+          <t>https://openalex.org/W2313150384</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1139/v67-456</t>
+          <t>https://doi.org/10.4157/grj.39.84</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Scowen &amp; Leja (1967)</t>
+          <t>Nakajima (1966)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Spectrophotometric studies on surfactants. II. Infrared study of adsorption from solutions of single and mixed surfactants, on copper substrates</t>
+          <t>THE MANAGEMENT OF THE “DUG-DOWN PADDY FIELDS” AND THE CULTIVATION OF DRY FIELDS ON THE KASHIMA COASTAL SAND DUNE, IBARAKI PREFECTURE</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Adsorption studies were carried out from solutions of alkyl dithiocarbormtes (xanthates) or alkyl carboxylates and from mixtures of these anionic species with cationic alkyl trimethyl ammonium bromides (C n TAB). The substrates consisted of polished copper plates in three states of oxidation, i.e. either with a thick oxide coating left after polishing, a thin oxide residue left after acid etching, or an adsorbed layer of oxygen formed on vacuum deposition of copper film.The infrared reflectance spectra of the copper plates have indicated that the nature of the adsorbed species is not limited to a single constituent. In adsorption of lauric acid, either cupric laurate, laurate ion, or a mixture of the two species can be detected in the spectra of the adsorbed coatings. The degree of hydroxylation of copper surface and the degree of ionization of the adsorbate appear to be governed by the pH at the copper/liquid interface and not by the pH in the bulk of solution; in turn, the interfacial pH is determined by the amount of copper oxide present initially at the solid surface and undergoing dissolution during treatment with the solution of adsorbate.Adsorption from mixtures of sodium laurate and C n TAB was found to depend on the relative chain lengths; C 12 TAB yielded a precipitate containing laurate ion and lauric acid, together with C 12 TA ion, and resulted in slowing the adsorption (as cupric laurate); on the other hand, C 18 TAB kept laurate ions in mixed micelles which completely prevented adsorption of either component on copper substrates.In solutions of alkyl xanthates, cuprous xanthate was the main product of adsorption, with dixanthogen coadsorbing mainly when short chain xanthates (i.e. ethyl) were used. With mixed solutions, no coadsorption of C n TAB was detected, but the rate of xanthate adsorption was increased severalfold; in addition, complexed xanthate−C n TAB species were capable of adsorbing under conditions when uncomplexed xanthate ion did not adsorb (i.e. when free oxygen and oxide layers were excluded from the system).</t>
+          <t>There are a lot of “dug-down paddy fields” on the coastal sand dune in the southern part of the Kashima Peninsula. They are scattered in the region with pine trees aroud them. They constitute a peculiar landscape, which is well known to geographers. In the earliest days, farmers dug deep in the sand about one meter to develop pool-shaped dug-down paddy fields. In those days dug-down paddy fields were man-aged without irrigation and farmers often suffered severely from drought. They dug deeper repeatedly so that they could reach the underground water level. To-day, we can see such dug-down paddy fields which are two meters below the level of the surface of the neighbouring sand dune. In 1932, centrifugal pumps driven by kerosene engine were introduced to employ free ground water instead of digging further downward. This plan of paddy farming, however, proved rather ineffective on account of the limited availability of these machines, which in those days were operated on a cooperative basis bacause of their expensiveness. After the end of World War II, the price of such farming machines became lower in comparision with the producer's price of rice. Nowadays, every farming household can afford them, so that the potentials of this type of paddy farming have been realized. They can now enjoy stable managment of farming. The combination of a centrifugal pump and a kerosene engine has recently been imported into vegetable growing, resulting in the transformation from extensive cultivation to intensive one, as shown by the fact that the hitherto prevailing potato growing has been rapidly replaced by the forcing culture of more profitable vegetables, e. g., water-melon and spanish paprika. The present writer analyzed the processes of stabilization of paddy agriculture through the introduction of centrifugal pump and kerosene engine and of the transformation of vegetable growing. To-day the form of land utilization in the region is facing a drastic change as the regional development plan to set up “Kashima Industrial Area” has been put into practice.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2058677367</t>
+          <t>https://openalex.org/W2330150563</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s002081830001314x</t>
+          <t>https://doi.org/10.1093/jee/59.6.1374</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Matthews (1967)</t>
+          <t>Ebeling et al. (1966)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>The Suez Canal Dispute: A Case Study in Peaceful Settlement</t>
+          <t>Influence of Repellency on the Efficacy of Blatticides. I. Learned Modification of Behavior of the German Cockroach1</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>If the United Nations system is to outlaw the unilateral use of force, except in cases of self-defense, it is clear that some provision must be made for the peaceful settlement of disputes and for peaceful change. In the past, peacekeeping operations have often succeeded in restoring a fragile peace. Yet collective actionall too frequently has been limited to a restoration of the status quo ante . Indeed, states have usuallyfailed to accept any collective responsibility to deal with the grievances that initially led to the outbreak of hostilities. If peace is to be maintained over any extended period of time, peacekeeping operations must not, asAmbassador Arthur J. Goldberg recently warned, “be a sofa to provide a comfortable respite from efforts atpeaceful settlement” but instead should “be a springboard for accelerated efforts to eliminate the root causes of conflict.”</t>
+          <t>Devices were developed for determining the behavior of the German cockroach, Blattella germanica (L.), when it is given the ‘choice’ of entering or avoiding areas that would normally be attractive, such as dark voids, but which have been contaminated by residues of liquid insecticides or by deposits of insecticide dusts, dust diluents, or other powders. Using such devices, repellency was found to be the most important factor affecting the insecticidal efficiency of blatticides. When using ‘choice boxes’ or other similar devices, it is important that observations be made only when the cockroaches are not in a condition of stress, otherwise the ratings given to potential blatticides may not be in accord with what is found to be their comparative value under conditions of normal behavior. The German cockroach was able to learn to avoid the repellent types of insecticide deposits applied in dark areas, thereby resisting its strong impulse to enter such areas. The period required to learn and the effectiveness of the learning process were indicated by the time-mortality curves, which were characteristically hyperbolic rather than sigmoid. The effectiveness and duration of the modified behavior pattern were increased by the ease with which the insects could habituate themselves to a light (and insecticide-free) environment. The complete insecticide-avoidance behavior pattern involved associative learning augmented and extended by a more elementary type of learning known as ‘habituation.’ Boric acid powder possessed so little repellency that German cockroaches repeatedly entered dusted areas until they succumbed to its relatively feeble contact toxic action. In both the ‘choice boxes’ and ‘wall-void devices,’ a given number of cockroaches were exterminated more rapidly with boric acid powder than with deposits of various currently used toxicants or dust desiccants, which were far more insecticidal than it, when the insects were confined continuously upon the deposits. The addition of flour or powdered sugar to boric acid, as possible attractants, was of no value; both were more repellent than boric acid to German cockroaches. In addition, sugar decreases ‘pick-up’ by the cockroaches. It becomes increasingly detrimental with passing time. An important characteristic of a boric acid deposit is that it is readily picked up by insects after it has become damp and subsequently dry. (This characteristic is not possessed by borax and many other powders.) In addition, the deposit left by an aqueous solution of boric acid is insecticidal.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2330980341</t>
+          <t>https://openalex.org/W2331112667</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2514/6.1967-336</t>
+          <t>https://doi.org/10.5254/1.3544852</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Nichols &amp; Sichel (1967)</t>
+          <t>Mason (1966)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Thermal and ablative lag induced by a periodic heat input</t>
+          <t>Thermal Expansion and Viscoelasticity of Rubber in Relation to Crosslinking and Molecular Packing</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>7 Wiese, W. L., Smith, M. W., and Glennon, B. M., Transition Probabilities, Vol. I. Hydrogen Though Neon, Rept. NSRDS-NBS4, May 1966, National Bureau of Standards. 8 Wilson, K. H. and Greif, R., Transport in Atomic Plasmas, Journal of Quantitative Spectroscopy &amp; Transfer, Vol. 8, 1968, pp 1061-1086. 9 Armstrong, B. H., Apparent Positions of Photoelectric Edges and the Merging of Spectrum Lines, Journal of Quantitative Spectroscopy and Transfer, Vol. 4,1964, pp. 207-214. 10 Biberman, L. M. et al., Heating in Hypersonic Flow, Cosmic Research, Vol. 2, No. 3, 1964, pp. 376-387. 11 Alien, R. A., Radiation Graphs: Spectrally Integrated Fluxes Including Line Contributions and Self Absorption, AVCO Research Rept. 230, Sept. 1965, AVCO Everett Research Lab., Everett, Mass. 12 Hunt, B. L. and Sibulkin, M., Radiative Transfer in a Gas of Uniform Properties in Local Thermodynamic Equilibrium, Part I, II, and III, Rept. Nonr 562(35)/18, Dec. 1966, Brown University, Providence, R. I. 13 Page, W. A., private communication, Jan. 1968. 14 Hoshizaki, H. et al., Radiant Energy Transfer In Air, CR-585, Sept. 1966, NASA, Washington, D. C. 15 Wood, A. D. and Andrews, J. C., Fast-response Total Thermal Radiation Detectors, IEEE Transactions on Aerospace and Electrical Systems, Vol. AES-3, No. 2, March 1967, pp. 356-367. 16 Samson, J. A. R., Techniques of Vacuum Ultraviolet Spectroscopy, Wiley, New York, 1967, Chap. 8. 17 Gruszczynski, J. S. and Warren, W. R., Jr., Study of Equilibrium Air Total Radiation, AIAA Journal, Vol. 5, No. 3, March 1967, pp. 517-525. 18 Nerem, R. M., Stagnation Point Heat Transfer in High Enthalpy Gas Flows, Part II: Shock Layer Emission During Hypervelocity Reentry, FDL-TDR-64-41, Pt. II, March 1964, Air Force Systems Command, Wright-Patterson Air Force Base, Ohio. 19 Thomas, G. M. and Menard, W. A., Measurements of the Continuum and Atomic Line Radiation from High-Temperature Air, AIAA Journal, Vol. 5, No. 12, Dec. 1967, pp. 2214-2223. 20 Thomas, G. M., private communication, April 1968. 21 Page, W. A. et al., Radiative Transport in Inviscid Nonadiabatic Stagnation-Region Shock Layers, Paper 68-784, June 1968, AIAA. 22 Russell, L. D. and Beam, B. H., Thermodielectric Radiometer, Paper 68-403, April 1968, AIAA.</t>
+          <t>Abstract Effects of crosslinking on specific volume, thermal expansion coefficient, glass transition temperature (Tg) and viscoelasticity of rubber have been studied. Materials were prepared by heating purified natural rubber with varying amounts of cumyl peroxide. This procedure formed networks by intermolecular carbon-to-carbon bonding, and an approximately sixty-fold range of crosslink density was obtained. Crosslink density could be estimated with reasonable confidence up to about 1020/g. At this level the effects observed were, approximately, a one per cent decrease in specific volume; 23 per cent and 6 per cent decreases in the thermal expansion coefficients respectively below and above Tg; 5° C increase in Tg; and a displacement of the viscoelastic response by +5° C. These changes are accounted for in terms of the reduction in free volume consequent on crosslinking. There was also a qualitative change in behavior, the thermal expansion and viscoelastic transitional regions widening as crosslinking increased. The thermal expansion behavior is explained in terms of a linear increase in the variance of monomeric free volume with crosslinking up to 1020/g. At higher densities crosslinks are so close that their packing effects interact and the nature of the phenomenon changes.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1982352786</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/j.1476-5381.1967.tb01975.x</t>
+          <t>https://openalex.org/W2412006624</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Graham &amp; Katib (1967)</t>
+          <t>Garusi &amp; Noto (1966)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ADRENOLYTIC AND SYMPATHOLYTIC PROPERTIES OF 2‐HALOGENOALKYLAMINES IN THE VAS DEFERENS OF THE GUINEA‐PIG</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>British Journal of Pharmacology and ChemotherapyVolume 31, Issue 1 p. 42-55 Free Access ADRENOLYTIC AND SYMPATHOLYTIC PROPERTIES OF 2-HALOGENOALKYLAMINES IN THE VAS DEFERENS OF THE GUINEA-PIG J. D. P. GRAHAM, J. D. P. GRAHAM Department of Pharmacology, The Welsh National School of Medicine, CardiffSearch for more papers by this authorH. AL KATIB, H. AL KATIB Department of Pharmacology, The Welsh National School of Medicine, CardiffSearch for more papers by this author J. D. P. GRAHAM, J. D. P. GRAHAM Department of Pharmacology, The Welsh National School of Medicine, CardiffSearch for more papers by this authorH. AL KATIB, H. AL KATIB Department of Pharmacology, The Welsh National School of Medicine, CardiffSearch for more papers by this author First published: September 1967 https://doi.org/10.1111/j.1476-5381.1967.tb01975.xCitations: 8AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL References Benelli, G., Della Bella, D. &amp; Gandini, A. (1964). Angiotensin and peripheral sympathetic nerve activity. Br. J. Pharmac. Chemother., 22, 211– 219. Bentley, G. A. (1966). The effect of local anaesthetic and anti-adrenaline drugs on the response of sympathetically innervated smooth muscle preparations to electrical stimulation at different frequencies Br. J. Pharmac. Chemother., 27, 64– 80. Birmingham, A. T. &amp; Wilson, A. B. (1963). Preganglionic and post ganglionic stimulation of the guinea. pig isolated vas deferens preparation. Br. J. Pharmac. Chemother., 21, 569– 580. Birmingham, A. T. (1966). The potentiation by anticholinesterase drugs of the responses of the guinea-pig isolated vas deferens to alternate preganglionic and post-ganglionic stimulation. Br. J. Pharmac. Chemother., 27, 145– 156. Boyd, H., Chang, V. &amp; Rand, M. J. (1960). The anticholinesterase activity of some antiadrenaline agents. Br. J. Pharmac. Chemother., 15, 525– 531. Bülbring, E. &amp; Wajda, I. (1945). Biological comparison of local anaesthetics. J. Pharmac. exp. Ther., 85, 78– 84. Clegg, P. C., Hall, W. J. &amp; Pickles, V. R. (1966). The action of ketonic prostaglandins on the guinea-pig myometrium. J. Physiol., Lond., 183, 123– 144. Davies, B. N., Horton, E. W. &amp; Withrington, P. G. (1967). The occurrence of prostaglandin E2 in splenic venous blood of the dog following splenic nerve stimulation. J. Physiol., Lond., 188, 38P– 39P. Farrant, J., Harvey, Judith A. &amp; Pennefather, J. N. (1964). The influence of phenoxybenzamine on the storage of noradrenaline in rat and cat tissues. Br. J. Pharmac. Chemother., 22, 104– 112. Ferreira, S. H. &amp; Vane, J. R. (1967). The disappearance of prostaglandins from the circulation. Br. J. Pharmac. Chemother., 30, 1. Graham, J. D. P. (1962). The 2-halogenoalkylamines, in Progress in Medicinal Chemistry, vol. 2, pp. 132– 171. Butterworth, London. Graham, J. D. P. &amp; James, G. W. L. (1961). The pharmacology of a series of substituted 2-halogenoalkyiamines. J. med. pharm. Chem., 3, 489– 504. Graham, J. D. P. &amp; Al Katib, H. (1966a). The action of trypsin on blockade by 2-halogenoalkylamines. Speculation on the nature of the alpha receptor for catecholamine. Br. J. Pharmac. Chemother., 28, 1– 14. Graham, J. D. P. &amp; Al Katib, H. (1966b). The effect of 2-halogenoalkylamines on the biological activity of some peptides. Br. J. Pharmac. Chemother., 27, 377– 386. Hertting, G. &amp; Suko, J. (1966). Influence of angiotensin, vasopressin or changes in flow rate on vasoconstriction, changes in volume and (3H)-noradrenaline release following post-ganglionic sympathetic nerve stimulation in the isolated cat spleen. Br. J. Pharmac. Chemother., 26, 686– 696. Hestrin, S. (1949). The reaction of acetylcholine and other carboxylic acid derivitives with hydroxylamine, and its analytical application. J. biol. Chem., 180, 249– 261. Huković, S. (1961). Responses of the isolated sympathetic nerve-ductus deferens preparation of the guinea-pig. Br. J. Pharmac. Chemother., 16, 188– 194. Jensen-Holm, J., Lausen, H. H., Milthers, K. &amp; Moller, K. O. (1959). Determination of the cholinesterase activity in blood and organs by automatic titration. With some observations on serious errors of the method and remarks on the photometric determination. Acta pharmac. tox., 15, 384– 394. Krtvoy, W. &amp; Kroeger, D. (1964). The preservation of bradykinin by phenothiazines in vitro. Br. J. Pharmac. Chemother., 22, 329– 341. Lever, J. D., Graham, J. D. P., Irvine, G. &amp; Chick, Wendy J. (1965). The vesiculated axons in relation to arteriolar smooth muscle in the pancreas. A fine structural and quantitative study. J. Anat., 99, 299– 313. Lever, J. D., Graham, J. D. P. &amp; Spriggs</t>
+          <t>[Changes and processes of a non-malignant nature of the ileo-cecal tract].</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2124031029</t>
+          <t>https://openalex.org/W2412149016</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1152/jn.1966.29.2.240</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Fothergill &amp; Child (1967)</t>
+          <t>Spencer et al. (1966)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[Some data on physiology of butane-oxidizing bacteria].</t>
+          <t>Alterations in responsiveness of ascending and reflex pathways activated by iterated cutaneous afferent volleys.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Summary: Nutritional experiments were carried out dealing with: (1) the utilization of sulphur compounds; (2) the utilization of phosphorus compounds; (3) the action of different mineral salts and their interaction. The results showed that Phytophthora erythroseptica grew well at 28° and pH 6.6 incubated for 20 days; P. parasitica grew well at 28° and pH 6.6 for 17 days; and P. infestans at 20° and pH 4.5 for 16 days. In the adjusted controlled medium pH changes were generally within one pH unit. The best carbon and nitrogen sources are stated. The only satisfactory sulphur sources for P. infestans were sodium sulphate and sodium thiosulphate. These compounds were also among the best S sources for P. erythroseptica and P. parasitica, but a number of other compounds also were utilized equally well, e.g. sodium metabisulphite, sodium sulphite, μ-cysteine, sodium sulphide, sodium dithionite and methionine. For all organisms the best phosphorus sources were sodium dihydrogen orthophosphate, sodium metaphosphate and lecithin. Rate of utilization of the phosphorus was an important factor in mycelial yield. Factorial experiments were carried out in which P. erythroseptica and P. parasitica were incubated at 28° for 17 days. Statistical analysis of the results showed that under the given conditions optimal growth measured as mg. dry wt. was obtained in liquid media containing glucose, 25 g./l.; DL-asparagine, 4.0 g./l.; FeSO4.7H2O, 0.001 g./l.; thiamine, 0.8 mg./l.; ZnSO4.7H2O, 1 p.p.m.; H2MoO4, CuSO4. 5H2O, 0.02 p.p.m.; with varying amounts of K2HPO
-4, MgSO4.7H2O and CaSO4.2H2O for the different species specified. There was a balance between all combinations of K2HPO4, MgSO4.7H2O and CaSO4.2H2O for P. parasitica but not for P. erythroseptica, but there were significant interactions between the salts taken two at a time for both these fungi. There was interaction for all three salts together for both species. Phytophthora infestans and P. parasitica are more exacting in their nutritional requirements than P. erythroseptica.</t>
+          <t>Alterations in responsiveness of ascending and reflex pathways activated by iterated cutaneous afferent volleys.W A Spencer, R F Thompson, and D R Neilson JrW A Spencer, R F Thompson, and D R Neilson JrPublished Online:01 Mar 1966https://doi.org/10.1152/jn.1966.29.2.240MoreSectionsPDF (2 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByTemporal Summation of C-Fiber Afferent Inputs: Competition Between Facilitatory and Inhibitory Effects on C-Fiber Reflex in the RatManuela Gozariu, Dominique Bragard, Jean-Claude Willer, and Daniel Le Bars1 December 1997 | Journal of Neurophysiology, Vol. 78, No. 6Toward a neuropsychopharmacology of habituation: A vertical integrationMathematical Modelling, Vol. 7, No. 5-8: Cholinergic and monoaminergic substrates of startle habituationLife Sciences, Vol. 34, No. 22Classical conditioning of the flexion reflex in spinal cat: Features of the reflex circuitryNeuroscience Letters, Vol. 39, No. 2Habituation of the nictitating membrane reflex response in the intact frogPhysiology &amp; Behavior, Vol. 22, No. 6Long-term and short-term plasticity in the CA1, CA3, and dentate regions of the rat hippocampal sliceBrain Research, Vol. 110, No. 3The relation between monosynaptic spinal reflex amplitudes and some EEG alpha activity parametersElectroencephalography and Clinical Neurophysiology, Vol. 40, No. 3Sensitization and habituation of the plantar cushion reflex in catsBrain Research, Vol. 103, No. 2Neural processes in habituation and sensitization in model systemsProgress in Neurobiology, Vol. 4Habituation and sensitization of the flexor withdrawal reflexBrain Research, Vol. 43, No. 1Habituation of skin conductance responses and flexor withdrawal activity mediated by the functionally transected human spinal cordBrain Research, Vol. 42, No. 2Modification of unit discharges in the medial geniculate nucleus by click-shock pairingExperimental Neurology, Vol. 36, No. 1Effects of occlusion of the thoracic aorta on habituation of the flexor withdrawal reflex in the ratExperimental Neurology, Vol. 35, No. 1Maintenance of habituation by infrequent stimulationPhysiology &amp; Behavior, Vol. 8, No. 4Long-lasting habituation in spinal frogsBrain Research, Vol. 33, No. 2Excitability of cutaneous afferent terminals during habituation and sensitization in acute spinal catBrain Research, Vol. 18, No. 2The startle and orienting reactions in man. A study of their characteristics and habituationBrain Research, Vol. 18, No. 1Progressive changes in auditory response patterns to repeated tone during normal wakefulness and paralysisBrain Research, Vol. 16, No. 1Habituation and sensitization of spinal interneuron activity in acute spinal catBrain Research, Vol. 14, No. 2Effects of stimulus frequency and intensity on habituation and sensitization in acute spinal catPhysiology &amp; Behavior, Vol. 4, No. 3The effect of bladder distension on habituation of the flexor withdrawal reflex in the decerebrate spinal catBrain Research, Vol. 8, No. 1Habituation of the flexor reflex in spinal rats, and in rats with frontal cortex lesions followed by spinal transectionBrain Research, Vol. 6, No. 4 More from this issue &gt; Volume 29Issue 2March 1966Pages 240-52 https://doi.org/10.1152/jn.1966.29.2.240PubMed5927460History Published online 1 March 1966 Published in print 1 March 1966 Metrics</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1902500947</t>
+          <t>https://openalex.org/W2463987557</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1148/88.5.899</t>
+          <t>https://doi.org/10.1152/ajplegacy.1966.211.6.1309</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Hardy &amp; Lehrer (1967)</t>
+          <t>Clancy &amp; Eb (1966)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Desmoplastic Fibroma vs. Desmoid Tumor of Bone</t>
+          <t>In vivo CO-2 buffer curves of skeletal and cardiac muscle</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Nichols (10) first called attention to the occurrence of desmoid tumors in extra-abdominal sites (9). With some extra-abdominal desmoids, invasion of contiguous bone has been described (2, 8, 13, 15). In 1958, Jaffe delineated “desmo-plastic fibroma” as a rare primary bone tumor usually found in young adults (7). He did not establish a clear histological distinction between the entity he had thus defined and the soft-tissue extra-abdominal desmoid. There have been only 13 cases (Table I) added to the literature since Jaffe's report (3–6, 11–16). Each of the two tumors presented in this communication shows a soft-tissue mass with an accompanying bony lesion. The first would be considered a desmoplastic fibroma belonging with the group in Table I by the pathologic criteria of some authorities (4, 16), but a periosteal desmoid by others (12). The second represents a soft-tissue desmoid invading bone secondarily. In addition to their radiodiag-nostic interest, these cases will illustrate the problems presented in categorizing desmoid tumors of bone. Case Reports Case I: H. H. was admitted to Charity Hospital at the age of thirteen years after a two-week history of swelling and tenderness of the distal right forearm. He denied trauma. Radiographs showed a volar soft-tissue mass and a radiolucent defect with sclerotic margins in the distal radius (Fig. 1). At biopsy on October 1958 firm unencapsulated tissue was seen to extend from the medulla of the radius through the defect in the cortex across the interosseous membrane to the ulnar periosteum. The tissue appeared benign histologically (Fig. 2), although there was extensive invasion of skeletal muscle. During a two-stage excision the radial artery was ligated. The second stage was completed in June 1959. The patient was readmitted in March 1963 after evidence of recurrence. A considerable portion of the forearm was now involved. Brachial arteriography, performed to rule out malignant transformation of the tumor, showed soft-tissue masses displacing the ulnar artery and other vessels, but there was no arterial invasion or ncovascularity. At surgery, the tumor extended to an area 21/2 inches below the elbow; the ulnar artery could be dissected free, but the ulnar nerve could not. It was felt that there was no further possibility of conserving useful function, and the forearm was amputated below the elbow. The patient showed no evidence of recurrence when last seen in June 1966. Case II: G. B. K., a 14-year-old Negro girl, was admitted for a mass “the size of a small bean bag” on the right upper thigh. It was first noted three years earlier after a painful episode following rope-skipping, and she had experienced little difficulty in the interim. On physical examination, there was limitation of abduction of the thigh. A nontender mass, fixed to underlying adductor muscles but not to the skin, was palpable. After roentgenograms were obtained (Fig. 3), to be described below, the patient was sent to surgery.</t>
+          <t>ARTICLESIn vivo CO-2 buffer curves of skeletal and cardiac muscleRL Clancy, and Brown EB JrRL Clancy, and Brown EB JrPublished Online:01 Dec 1966https://doi.org/10.1152/ajplegacy.1966.211.6.1309MoreSectionsPDF (866 KB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByImplant-forming polymeric 19F MRI-tracer with tunable dissolutionJournal of Controlled Release, Vol. 327Acidosis and Contractility of Heart Muscle30 May 2008Mechanisms of myocardial depression after bolus injection of sodium bicarbonateJournal of Critical Care, Vol. 9, No. 4Does NaHCO3 exacerbate myocardial acidosis?Journal of Cardiothoracic and Vascular Anesthesia, Vol. 7, No. 3The roles of intracellular buffers and bone mineral in the regulation of acid-base balance in mammalsComparative Biochemistry and Physiology Part A: Physiology, Vol. 102, No. 3Myocardial acidosis associated with CO2 production during cardiac arrest and resuscitation.Circulation, Vol. 80, No. 3In vitro buffering capacity of cardiac and skeletal muscle tissue in normotensive and hypertensive rats. Assessment using PCO2 equilibration of homogenatesInternational Journal of Cardiology, Vol. 23, No. 1Skeletal muscle metabolism during exercise under ischemic conditions in congestive heart failure. Evidence for abnormalities unrelated to blood flow.Circulation, Vol. 78, No. 2The effects of short-term hypertensive left ventricular hypertrophy on intracellular pH and intracellular electrolytes in ratsInternational Journal of Cardiology, Vol. 18, No. 2Intracellular pH regulation during prolonged hypoxia in ratsRespiration Physiology, Vol. 65, No. 3The Effect of Creatine Analogue Substitution on the Post Tetanic Response of Fast MusclePost-tetanic responses in creatine-depleted rat edl muscleMuscle &amp; Nerve, Vol. 8, No. 9Effects of proton release from adenine nucleotide degradation during ischemic necrosis of myocardium in vitroBiochemical Medicine, Vol. 29, No. 3Buffer capacity of the myocardium after swimming trainingFactors influencing the origin and cycling of hydrogen ions in cardiac surgeryA comparison of carbon dioxide titration curves of arterial mixed venous and coronary sinus bloodRespiration Physiology, Vol. 40, No. 2The role of intracellular buffers in acid-base disturbances: Mathematical modellingRespiration Physiology, Vol. 39, No. 1Intramyocardial pH as an index of myocardial metabolism during cardiac surgeryThe Journal of Thoracic and Cardiovascular Surgery, Vol. 78, No. 3Bicarbonate measurements in rat liver, brain, heart, and skeletal muscleAnalytical Biochemistry, Vol. 95, No. 1The association between K+ and H+ distribution in skeletal muscle: Implication to linked transportJournal of Theoretical Biology, Vol. 72, No. 4The effect of dibutyryl cyclic AMP and glucagon on the myocardial cell pHRespiration Physiology, Vol. 32, No. 2The intracellular pH and the buffer capacity of the heartBasic Research in Cardiology, Vol. 72, No. 2-3The intracellular pH and the buffer capacity of the heartIntracellular buffering of heart and skeletal muscles during the onset of hypercapniaRespiration Physiology, Vol. 28, No. 1Microelectrode measurement of the intracellular pH of mammalian heart cells1 July 1976 | Nature, Vol. 262, No. 5565Changes in skeletal muscle cell pH during graded changes in PCO2Respiration Physiology, Vol. 26, No. 2Intracellular and extracellular acid-base changes in hemorrhagic shockRespiration Physiology, Vol. 26, No. 2Cardiac and skeletal muscle acid-base composition during metabolic acidosis in dogsRespiration Physiology, Vol. 26, No. 1Comparative aspects of buffering capacity in muscleRespiration Physiology, Vol. 25, No. 3Acid-Base Changes and Excitation-Contraction Coupling in Rabbit Myocardium. I. Effects on Isometric Tension Development at Different Contraction FrequenciesActa Physiologica Scandinavica, Vol. 93, No. 3Intracellular pH in unanesthetized dogs during pantingRespiration Physiology, Vol. 23, No. 1Intracellular bicarbonate in single skeletal muscle fibersPfl�gers Archiv European Journal of Physiology, Vol. 349, No. 4Intracellular adjustments of skeletal muscle, heart, and brain to prolonged hypercapniaRespiration Physiology, Vol. 19, No. 2Mechanisms of cardiac muscle adjustment to hypercapniaRespiration Physiology, Vol. 19, No. 2The effect of increased metabolic rate and denervation on CO2 storage in muscleRespiration Physiology, Vol. 18, No. 3Intracellular pH and buffer curves of cardiac muscle in rats as affected by temperatureRespiration Physiology, Vol. 18, No. 2Intracellular pH and CO2 combining curve of hypertrophic cardiac muscle in ratsRespiration Physiology, Vol. 18, No. 2Pufferung und Verteilung von Bicarbonat in Erythrocytensuspensionen mit verschiedenen ZellkonzentrationenPfl�gers Archiv European Journal of Physiology, Vol. 343, No. 3Myocardial Potassium Balance and Metabolic Ac</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2069013828</t>
+          <t>https://openalex.org/W2486392581</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2118/1499-pa</t>
+          <t>https://doi.org/10.1007/978-1-349-00444-7_22</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Eilerts &amp; Sumner (1967)</t>
+          <t>Thurley (1966)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Integration of Partial Differential Equations for Multicomponent, Two-Phase Transient Radial Flow</t>
+          <t>Changing Technology and The Supervisor</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Abstract A partial differential equation was developed and programed to compute the cumulation and flow of the liquid phase of a gas-condensate fluid. It was found that such cumulation near the wellbore may attain saturations permitting liquid flow within periods of the order of 1 day. The radius at which this saturation obtains advances toward the external reservoir boundary with continued recovery, although it may move only 2 to 5 percent of that distance during the productive life of the well. This relatively high saturation can cause a serious diminution in delivery capacity. The pressure differential required for flow of gas through a formation with such saturation may be as much as three times greater than the corresponding differential in a formation where saturation is less than 2 percent. Because of the radial geometry, total reservoir pressure differential required for flow with a zone of relatively high liquid saturation about the well was indicated to be two to three times greater than without the saturation. Introduction A computing program developed by the authors to integrate the partial differential equation for transient radial flow of gas-condensate fluids required a prevalued function, (1) related to cumulation of condensate in pores of the reservoir as pressure declines. Methods were available for relating mobility to saturation, saturation to liquid-vapor volume ratio, liquid-vapor volume ratio to pressure and, hence, mobility to pressure to obtain W(PD). However, certain assumptions had to be made in advance of program execution concerning movement of the liquid phase and change in radial distribution of liquid saturation as recovery progressed. Because reservoir fluid mobility and related pressure gradients are markedly dependent on liquid saturation, it was desirable to eliminate the necessity for these assumptions and in this respect improve the reliability of a result obtained by integration. Experimental research was begun to determine the relationship of variables that control the reservoir flow of low liquid-vapor ratio fluids. With the porous medium partly saturated, permeability to a two-phase flowing fluid could not be measured because the viscosity was unknown. Viscosity could not be measured without knowing permeability of the liquid-containing medium; but mobility, the ratio of permeability to viscosity, was measurable. This property, and liquid-vapor volume ratio of the flowing phases, have values determined by nature of the fluid and porous medium and, in addition, were found to be pressure, velocity and saturation dependent. A program developed by Kniazeff and Naville for computing multicomponent, two-phase flow used polynomials to represent saturation dependence of permeabilities for gas and for liquid phases, and an effluent viscosity constant under reservoir conditions. The authors developed a program based on a partial differential equation of similar mass balance origin but designed to represent distribution of an unlimited number of components between gas and liquid phases utilizing the experimental information available as to variable dependence. Attention was given to liquid-vapor volume ratio of the flowing phases, a property which is essential as a liquid saturation boundary condition. A program for computing implicitly saturation increase at uniform intervals along the drainage radius was combined with an existing program for calculating pressures, and the two were used alternately in an iterative solution for both saturations and pressures. The function W(PD) needed for calculating pressures was replaced by the ratio of mobility to compressibility factor. SPEJ P. 125ˆ</t>
+          <t>Several writers have suggested that the introduction of automation or technically complex production systems (utilizing advance programming of machine operations and feed-back mechanisms for automatic self-control and self-regulation, will drastically change the roles of foremen. The more extreme predict the elimination of the need for production supervisors altogether. Two relatively moderate examples of such predictions can be given here: While the exact position varies widely, it is usually true to say that automation reduces the number of workers supervised by a given foreman, so that this side of his function diminishes in importance. But a more fundamental change stems from the nature of the work being supervised. The worker need no longer exert continuous physical effort to maintain output; instead he monitors a continuous process and, in doing so, seems to acquire a sense of responsibility towards the plant itself and an attitude of mind quite different from that of the semi-skilled worker in mass-production work. He is largely self-supervising, but there is a good deal of indirect supervision as he is in close touch with management, reporting the plant’s behaviour and so on. So the need for direct supervision of his work is very much reduced.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2029407822</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0022-3476(67)80426-8</t>
+          <t>https://openalex.org/W2738518217</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Schmidt et al. (1967)</t>
+          <t>Mayersak (1966)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Experimental pyelonephritis and bacteriuria, pyuria, and renal injury</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>agents. However, this relationship has not yet been demonstrated. Drugs which have been successfully used are diiodohydroxyquin, iodochlorohydroxyquin, and chloroquine. Each of these compounds is a halogenated quinoline with an antiparasitic action. The relatively poor absorption of diiodohydroxyquin suggests a local action on the intestinal mucosa. The generalized nature of the diseas% manifested by growth failure and epidermal lesions, suggests the absence of some essential metabolic compound. This absence could result from a primary transport defect or from malabsorption secondary to the toxic effect of some metabolite on a transport system. These possibilities led us to think of a defect in essential fatty acid transport; the blood level of fatty acids, however, apparently exclude such an explanation. Hopefully, a more detailed knowledge of the metabolism of halogenated quinoline compounds in humans may lead to an explanation of this disease.</t>
+          <t>PREDICTION OF THE PHASE SHIFT IN THE LOW FREQUENCY MOTION RESPONSE OF VESSELS TO IRREGULAR SEAS</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2042103668</t>
+          <t>https://openalex.org/W2742969318</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/cjce.5450450512</t>
+          <t>https://doi.org/10.2113/gssgfbull.s7-viii.5.685</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Methot &amp; Cholette (1967)</t>
+          <t>Valeton (1966)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Adaptation of the two‐derivative method of optimisation in cases of non‐convergence</t>
+          <t>Sur la genese des gisements de bauxite du sud-est de la France</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Abstract Problems of optimization are often solved readily by means of the Two‐Derivative Method but suitable adaptation is required at times to bring about convergence, as is sometimes the case in the optimization of stage processes. The nature of the corrective action can be suggested by the physical limitations of the particular problem investigated or by the peculiarities of the function to be optimized. Different adaptation techniques are examplified by various problems: minimum energy requirements for IV compressors in series; optimum solvent distribution between N extractors in series when cross flow takes place, whether the equilibrium relationship is represented by a straight line or by a curve; optimum number of stages in counter‐current extraction, without the need for the construction of a special graph with two families of superposed contour lines.</t>
+          <t>Abstract The bauxites of southern France--in particular those of upper Var--result from the alteration of lateritic soils formed at the expense of various rocks from crystalline and crystalline-phyllitic massifs (notably the Maures-Esterel of the Brignoles region). The resulting detrital grains are of varied granulometric and mineralogic composition; they have been transported into vast basins formed on surfaces of Jurassic and basal Cretaceous limestone karst into which they were deposited. Various hydrostatic levels in different basins have caused, during the course of diagenesis, modifications in structure and chemical and mineralogic composition (gibbsite, boehmite, and diaspore facies of the bauxites). The intensity of development is related to erosion that has acted mainly in a vertical direction; it has been controlled by subterranean karst drainage. Post-diagenetic effects, such as the mobilization of iron and the formation of terra rossa, have caused the formation of polygenetic soils.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4236242747</t>
+          <t>https://openalex.org/W2753951623</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1061/jupdaj.0000025</t>
+          <t>https://doi.org/10.1242/jeb.44.1.195</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Derteano (1967)</t>
+          <t>Rd (1966)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Urban Crisis</t>
+          <t>The Physiology of A Lepidopteran Muscle Receptor</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>It is at least as necessary to study the cultural, social structures, and forces of our times as the urban forms. The urban crisis goes deeper than the outer shell visible to all. An evolving society that has yet to take a definite structure can not take a settled form. A lack of harmony emphasizes both our urban forms and our society. A shifting structure and a shifting individual do not make for balance, and changing forms only reveal the malady. In our present concern for rebuilding or renewing our cities little thought is paid to the human individual; our mechanistic age is doing its best to surround him in artificial environments and adjust him to them. Will this succeed, or are we to witness a return to more natural and healthy surroundings? The suburbs are seen as playing a fundamental role in future developments, with core-cities functioning as centers of government, entertainment and cultural activities and only limited commercial activities.</t>
+          <t>ABSTRACT Stimulation of the pupal receptor muscle via its nerve resulted in an increased sensory discharge frequency from the MRO. The extent of this excitation was similar in haemolymph and in pupal saline. Stimulation of an MRO whose connexions with the C.N.s. were intact resulted in a transient reflex inhibition of the tonic discharge in the RM of the stimulated receptor. Cessation of sensory stimulation resulted in a transient elevation of RM tone in the stimulated receptor. These changes would tend to protect the sense organ during rapid stretching and would also ‘take up the slack’ when it was released. A slight crossed intrasegmental RM reflex is described which would normally reinforce the ipsilateral reflex. No RM reflexes were found in adjacent segments. These results are discussed in relation to the nature of the deformation occurring in the sensory dendrites, and in relation to the function of RM systems generally. I am very grateful to my supervisor, Prof. G. M. Hughes for his guidance during the course of this work and to the D.S.I.R. for financial support in the form of a Research Studentship.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3155363973</t>
+          <t>https://openalex.org/W293509461</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5382/mono.03.06</t>
+          <t>https://doi.org/10.21236/ad0628803</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Hoagland (1967)</t>
+          <t>Anderson et al. (1966)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interpretations Relating to the Genesis of East Tennessee Zinc Deposits</t>
+          <t>INVESTIGATION OF EQUATION OF STATE OF POROUS EARTH MEDIA</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Proponents of syngenetic theory base their interpretation largely on widespread uniform mineralization within a restricted stratigraphic interval and a consistent relationship of mineralization to sedimentary features. Proponents of epigenetic theory base their interpretation on mineralization of post-depositional structures, changes in extent and grade of ore, open space filling, district-wide lack of close control by sedimentary features, and relation of ore to tectonic structures. These and other criteria are evaluated in an attempt to define diagnostic criteria.On the basis of the criteria defined the major lead-zinc deposits of Mid-continent United States must be considered as epigenetic.Features of the Southeast Missouri lead district are listed. The deposits are epigenetic. The metals are believed to have been derived from nearby sedimentary basins and carried out of basins onto shelf areas in a concentrated brine. Movement of solutions was controlled by basement topography and deposition of metals occurred when solutions entered the Bonneterre formation on the flanks of and over buried knobs.Objective.—The problem of origin of stratiform ore bodies cannot be resolved until we define, and agree upon, what constitutes diagnostic evidence for each type of deposit. This paper is an attempt to review the nature of geologic evidence; to define those features that must be regarded as unique and necessary criteria in classifying any deposit or district; and to apply the criteria to a major district, the Southeast Missouri lead deposits.Theories of Origin.—The major elements of theories on origin of stratiform ore bodies are summarized in Table 1. A deposit is Syngcnetic if formed by processes similar to and simultaneously with the enclosing rock; epigenetic if introduced into a pre-existing rock (3). A diagenetic origin implies deposition of metals with the host sediments but with recrystallization, rearrangement, and limited migration.The search for an acceptable theory of origin must be separated into its two component parts: (1) definition of whether the deposit has syngenetic, diagenetic, or epigenetic features and. (2) history of mineralization to explain source, transport, and deposition of metals. A statement of preferred hypothesis is meaningless until the first is answered and accounts for all geologic facts. The answer must be based solely on observed megascopic and microscopic features and on geochemical and isotopic data; it should not be biased by lack of knowledge to answer all phases of the second. In evaluating the evidence to determine type of deposit one cannot be concerned</t>
+          <t>Abstract : Earlier experimental work has been extended to evaluate the effect of moisture on the Hugoniot of playa. For engineering applications the Hugoniot of moist playa can be predicted with sufficient accuracy from the Hugoniot of dry playa and water and the assumption of pressure equilibrium. Isentropic release data were obtained for moist and dry playa. The steep release curve (in the P-V plane) from high pressure implies an irreversible phase change. Some low pressure data in the elastic-plastic region are presented. A theoretical discussion of various forms of the Mie-Gruneisen equation and the physical basis of asymptotic statistical models is presented. Shock stability is reviewed. Phase transitions in which delta V 0 are classified according to the signs of the slopes of the coexistence curves. Relative slopes of Hugoniots and isentropes in the mixed phase region are calculated. The results of the theoretical discussion are applied to transitions in bismuth, iron, and quartz. Agreement of values of dP/dT deduced from shock data and measured directly are good for bismuth and poor for quartz and iron. Calculations of spherical shock propagation in a hypothetical medium that undergoes a phase change are presented. The calculations show qualitatively some types of pulse shapes that may be expected in a transforming medium. It is concluded that the proper treatment of phase changes is an outstanding problem in predicting equations of state for earth materials.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2332367695</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5026/jgeography.76.5_217</t>
+          <t>https://openalex.org/W332238502</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Kobayashi (1967)</t>
+          <t>Meiling &amp; Stary (1966)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>The Cambrian Palaeogeograhy of Eastern Asia, I</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>The Cambrian system of the Hwangho basin including North China, South Manchuria and North Korea is classified into 3 series and 9 stages and their lithofacies and faunas are briefly described. It is emphasized that the Kushan fauna indicates the final divergence and specialization of the Middle Cambrian or Fuchouan fauna. The Kushan stage is correlated to the passage beds between the Paradoxidian to the Olenidian series approximately from the Laevigata zone to the pisiformis zone. At present 36-37 fossil zones can be distinguished in the system at the maximum. Assuming the time-length of the Cambrian period to be 75 to 80 million years, the zone-time of the province is about 2 million years at the shortest.In the Cambrian period the Koreo-Chinese heterogen to the north of the Tsinling-Huaiyang axis was divided into several zones on the east side and into a few blocks on the west side. These zones were equatorially elongated and the positive and negative ones disposed alternately from north to south. The western blocks were subrectangular and similar in size. The palaeogeographic changes were complicated by differential movements among these tectonic elements. Broadly speaking, however, the transgression and regression of the period were consisted of the Fuchouan grand cycle which was preceded by the Mantoan fluctuation and succeeded by the Chaumitian fluctuation. The Fuchouan cycle attained the inundation phase in the Changhian or most probably in the Taitzuan age.</t>
+          <t>On the Influence of Pairing Correlations on E1 Transitions in Odd Deformed Nuclei in the Region of the Rare Earths; UEBER DEN EINFLUSS VON PAARKORRELATIONEN AUF E1-UEBERGAENGE IN UNGERADEN DEFORMIERTEN KERNEN IM GEBIET DER SELTENEN ERDEN</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2043660952</t>
+          <t>https://openalex.org/W4237265739</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1159/000305069</t>
+          <t>https://doi.org/10.1016/0005-7967(66)90063-5</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Beskid et al. (1967)</t>
+          <t>Wetzel et al. (1966)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Benign Epithelioma of the Iris</t>
+          <t>Outpatient treatment of autistic behavior</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Research Articles| March 25 2010 Benign Epithelioma of the Iris Subject Area: Ophthalmology M. Beskid; M. Beskid From the Department of Pathology of the Praski Hospital in Warsaw, Poland (Head Prof. Janina Dą;browska) Search for other works by this author on: This Site PubMed Google Scholar J. Zaremba; J. Zaremba From the Department of Pathology of the Praski Hospital in Warsaw, Poland (Head Prof. Janina Dą;browska) Search for other works by this author on: This Site PubMed Google Scholar Renata Maryniak Renata Maryniak From the Department of Pathology of the Praski Hospital in Warsaw, Poland (Head Prof. Janina Dą;browska) Search for other works by this author on: This Site PubMed Google Scholar Ophthalmologica (1967) 153 (4): 286–290. https://doi.org/10.1159/000305069 Article history Published Online: March 25 2010 Content Tools Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Peer Review Share Icon Share Facebook Twitter LinkedIn Email Tools Icon Tools Get Permissions Cite Icon Cite Search Site Citation M. Beskid, J. Zaremba, Renata Maryniak; Benign Epithelioma of the Iris. Ophthalmologica 1 April 1967; 153 (4): 286–290. https://doi.org/10.1159/000305069 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentAll JournalsOphthalmologica Search Advanced Search Article PDF first page preview Close Modal 1967Copyright / Drug Dosage / DisclaimerCopyright: All rights reserved. No part of this publication may be translated into other languages, reproduced or utilized in any form or by any means, electronic or mechanical, including photocopying, recording, microcopying, or by any information storage and retrieval system, without permission in writing from the publisher.Drug Dosage: The authors and the publisher have exerted every effort to ensure that drug selection and dosage set forth in this text are in accord with current recommendations and practice at the time of publication. However, in view of ongoing research, changes in government regulations, and the constant flow of information relating to drug therapy and drug reactions, the reader is urged to check the package insert for each drug for any changes in indications and dosage and for added warnings and precautions. This is particularly important when the recommended agent is a new and/or infrequently employed drug.Disclaimer: The statements, opinions and data contained in this publication are solely those of the individual authors and contributors and not of the publishers and the editor(s). The appearance of advertisements or/and product references in the publication is not a warranty, endorsement, or approval of the products or services advertised or of their effectiveness, quality or safety. The publisher and the editor(s) disclaim responsibility for any injury to persons or property resulting from any ideas, methods, instructions or products referred to in the content or advertisements. You do not currently have access to this content.</t>
+          <t>This study demonstrates the use of behavioral principles in the outpatient treatment of a case of childhood autism. Significant changes in the behavior of the child occurred following a 3-month period of treatment during which he was seen for 45 min, twice a week. The technique relied upon the active involvement and cooperation of parents and other significant individuals in the child's environment. Several implications for change in the traditional concept of child psychotherapy are discussed.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2157184804</t>
+          <t>https://openalex.org/W4294702133</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1749-6632.1967.tb33999.x</t>
+          <t>https://doi.org/10.1016/s0029-6465(22)03330-8</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Bouck &amp; Galston (1967)</t>
+          <t>TEAGUE (1966)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>CELL‐WALL DEPOSITION AND THE DISTRIBUTION OF CYTOPLASMIC ELEMENTS AFTER TREATMENT OF PEA INTERNODES WITH THE AUXIN ANALOG 2,3,5‐TRIIODOBENZOIC ACID*</t>
+          <t>Implementing Changes in the Traditional Institutional Environment of the Mentally Retarded</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annals of the New York Academy of SciencesVolume 144, Issue 1 p. 34-48 CELL-WALL DEPOSITION AND THE DISTRIBUTION OF CYTOPLASMIC ELEMENTS AFTER TREATMENT OF PEA INTERNODES WITH THE AUXIN ANALOG 2,3,5-TRIIODOBENZOIC ACID* G. B. Bouck, G. B. Bouck Department of Biology, Yale University, New Haven, Conn.Search for more papers by this authorA. W. Galston, A. W. Galston Department of Biology, Yale University, New Haven, Conn.Search for more papers by this author G. B. Bouck, G. B. Bouck Department of Biology, Yale University, New Haven, Conn.Search for more papers by this authorA. W. Galston, A. W. Galston Department of Biology, Yale University, New Haven, Conn.Search for more papers by this author First published: August 1967 https://doi.org/10.1111/j.1749-6632.1967.tb33999.xCitations: 7 * Supported by grants from the National Science Foundation and the National Institutes of Health. AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat References Aijdus, L. J. &amp; J. K. Bakhush. 1961. On the adaptation of pea roots to auxins and auxin homologues. In 4th International Conf. on Plant Growth Regulation. Iowa State Univ. Press. Ames . Bayley, S. T. &amp; G. Setterfield. 1957. The influence of mannitol and auxin on growth of cell walls in Avena coleoptiles. Ann. Bot. (London) 21: 633. Ben-Hayyim, G. &amp; I. Ohad. 1965. Synthesis of cellulose by Acetobacter xylinum. VIII. On the formation and orientation of bacterial cellulose fibrils in the presence of acidic polysaccharides. J. Cell Biol. 25: 191. Bouck, G. B. 1965. Fine structure and organelle associations in brown algae. J. Cell Biol. 26: 523. Bouck, G. B. &amp; J. Cronshaw. 1965. The fine structure of differentiating sieve tube elements. J. Cell Biol. 25: 79. Christiansen, G. S. &amp; K. V. Thimann. 1950. The metabolism of stem tissue during growth and its inhiibtion. I. Carbohydrates. Arch. Biochem. 26: 230. Colvin, J. R., S. T. Bayley &amp; M. Beer. 1957. The growth of cellulose microfibrils from Acetobacter xylinum. Biochem. Biophys. Acta 23: 652. Cronshaw, J. &amp; G. B. Bouck. 1965. The fine structure of differentiating xylem elements. J. Cell Biol. 24: 415. Currier, H. B. &amp; S. Strugger. 1956. Aniline blue and fluorescence microscopy of callose in bulb scales of Allium cepa L. Protoplasma 45: 552. Dostal, R. 1963. Use of 2,3,5-triiodobenzoic acid in studies on the growth correlation differences between epigeous and hypogeous seedlings (Linum and Pisum). Biol. Plant. 5: 68. Esau, K., V. I. Cheadle &amp; E. B. Risley. 1962. Development of sieve plate pores. Bot. Gaz. 123: 233. Frei, E. &amp; R. D. Preston. 1961. Cell wall organization and wall growth in the filamentous green algae Cladophora and Chaetomorpha. Proc. Roy. Soc. B 154: 70. Frey-Wyssling, A. 1962. Interpretation of the ultratexture in growing plant cell walls. In The Interpretation of Ultrastructure. R. J. C. Harris, Ed. Academic Press. New York . Galston, A. W. 1947. The effect of 2,3,5-triiodobenzoic acid on the growth and flowering of soybeans. Amer. J. Bot. 34: 356. Galston, A. W. 1957. “ Biochemistry” In F. W. Went. Experimental Control of Plant Growth. Chronica Botanica. Waltham , Mass . Galston, A. W. &amp; L. Y. Dalberg. 1954. The adaptive formation and physiological significance of indoleacetic acid oxidase. Amer. J. Bot. 41: 373. Galston, A. W. &amp; R. Kaur. 1961. Comparative studies on the growth and light sensitivity of green and etiolated pea stem sections. In Light and Life. W. D. McElroy and B. Glass, Eds. Johns Hopkins Univ. Press. Baltimore , Md. Gantt, E. &amp; S. F. Conti. 1965. The ultrastructure of Porphyridium cruentum. J. Cell Biol. 26: 365. Gorter, C. J. 1949. Action of 2,3,5-triiodobenzoic acid on growth of root hairs. Nature 164: 800. Green, P. B. 1963. On mechanisms of elongation. In Cytodifferentiation and Macromolecular Synthesis. M. Locke. ed. Academic Press. New York . Hestrin, S. &amp; M. Schramm. 1954. Synthesis of cellulose by Acetobacter xylinum. 2. Preparation of freeze-dried cells capable of polymerizing glucose to cellulose. Biochem. J. 58: 345. Johansen, D. A. 1940. Plant Microtechnique. McGraw-Hill Co., Inc. New York . Keitt, G. W. &amp; F. Skoog. 1959. Effect of some substituted benzoic acids and related compounds on the distribution of callus growth in tobacco stem explants. Plant Physiol. 34: 117. Kuse, G. 1953. Effect of 2,3,5-triiodobenzoic acid on the growth of lateral bud and on tropism of petiole. Mems. Coll. Sci., Univ. Kyoto. Series B. 20: 207. Ledbetter, M. C. &amp; K. R. Porter. 1963. A “microtubule” in plant cell fine structure. J. Cell Biol. 19: </t>
+          <t>Historically, institutions for the mentally retarded have been viewed as providing custodial care exclusively. Through recently implemented research, changes have occurred in personnel who are responsible for the development and care of the retarded in institutions. The most noteworthy changes are in attitudes toward maximizing the potential of the retarded child. An intensive inservice training project was carried out through the direction of the author. The objectives of the program included gaining further knowledge of normal growth and development and the opportunity to apply these principles to meet the unique learning needs of the mentally retarded children as assessed by institutional personnel. Through the application of modern learning theory, techniques were implemented whereby residents acquired new skills varying from development of self-help skills, acquiring new communication skills, and developing a more extensive repertoire of social behaviors. The most profitable learning experiences to enhance developmental functioning of the children were judged to be those resulting from the implementation of play sessions. By modifying the staffing pattern of personnel, these sessions became an integral part of the project. With the addition of more personnel and the inclusion of three males on the staff, it became possible to provide not only relationship with males on a one-to-one basis, but models for the father role who could elicit more imitative responses from the children. A unique aspect of this approach was that staff members became more cognizant of the significance of play as a means by which the children acquired socializing skills. By promoting a specialized structured environment which provided a means by which the children’s individual learning needs were met, it was felt that the main objectives of the project were accomplished. A remarkable change in attitudes of personnel toward the institutionalized retardates was produced as a result of successful application of programing methodology, developed from the basic principles of operant learning theory whereby behavior is either weakened or strengthened by the appropriate administration of a positive or negative reinforcer.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1499011264</t>
+          <t>https://openalex.org/W4301106394</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3133/ofr6787</t>
+          <t>https://doi.org/10.1016/s0011-8532(22)03286-4</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Ege et al. (1967)</t>
+          <t>Sarnat (1966)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Preliminary report on the geology, geophysics and hydrology of USBM/AEC Colorado core hole No. 2, Piceance Creek Basin, Rio Blanco County, Colorado</t>
+          <t>Developmental Facial Abnormalities and the Temporomandibular Joint</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Approximately 1,400 feet of continuous core was taken.between800-2,214 feet in depth from USBM/AEC Colorado core hole No. 2* The drill site is located in the .Picean.ce Creek basin, Rio Blanco County, Colorado* From ground surface the drill hole penetrated 1,120 feet of the Evacuation Creek Member and 10094 feet of oil shale in the Parachute Creek Member of the Green River Formation* Oil shale yielding more than 20 gallons.perton occurs between 1,260-2,214 feet in depth* A gas explosion near the bottom of the hole resulted in abandonment of the exploratory hole which was still in oil shale* The top of the nahcolite zone is at 1,693 feet.Below this depth the core contains common to abundant amounts of sodium bicarbonate salt intermixed with oil shale 0 .The core is divided into seven structural zones that reflect changes in joint intensity, core loss and broken core due to natural causes* The zone of poor core recovery is in the interval between ls 300-1,450 feet.Results of preliminary geophysical log analyses indicate that oil yields determined by Fischer assay compare favorably with yields determined by geophysical log analyses.There is strong evidence that analyses of complete core data from Colorado core holes No. 1 and No.. 2 reveal a reliable relationship between geophysical log response and oil yield.The quality of the logs is poor in the rich shale section and the possibility of repeating the logging program should be considered* Observations during drilling, coring, and hydrologic testing of USBM/AEC Colorado core hole No. 2 reveal that the Parachute Creek Member of the Green River Formation is the principal aquifer and the water in the Parachute Creek Member is under artesian pressure.The upper part of the aquifer has a higher hydrostatic head than, and is hydro logically separated from,, the lower part of the aquifer.The transmissionity of the aquifer is about 3500 gpd per foot* The maximum water yield of the core hole during testing was about 500 gpnu Chemical analyses of water samples indicate that the content of dissolved solids is low, the principal ions being sodium and bicarbonate.Although the hole was originally cored' to a depth of 2,214 feet, the present depth is about 2,100 feet.This report presents a preliminary evaluation of dore examination, geophysical log interpretation and Ipiydrological' tests from the USBM/AEC Colorado core hole No. 2. The cooperation of the U.S. Bureau of (fines is gratefully acknowledged.</t>
+          <t>The mandibular condyle, an integral part of the temporomandibular joint, contains an important endochrondral epiphyseal-like growth site. Prenatal or postnatal and local or systemic conditions, which either stimulate or depress the activity of this zone, may cause over- or underdevelopment of the mandible and related structures. The degree of the subsequent deformity will depend not only on the type, intensity, extent, and chronology of the noxious agent, but also on the particular susceptibility and growth activity of the site. In addition, factors influencing apposition and resorption of bone further modify the growth pattern of the temporomandibular joint and face. Although some facial abnormalities reflect primarily alterations in growth of the mandibular condyle, there are others in which changes in the condyle are secondary and only part of a larger involvement of the ear, the face, and sometimes other parts of the body. Much has been learned about the etiology of facial and other abnormalities in the experimental animal. As yet, considerably less is known about the causes of developmental abnormalities in man. It is important to remember, moreover, that what applies to lower animals does not necessarily apply to humans. Within the last decade conditions which were believed to be on a hereditary basis are now known to be the result of changes in the fetal environment. Teratology, an exciting, fascinating, and rapidly developing field of study, has much to offer. Another interesting factor to consider is the effect of our external environment, such as variations in gravity, on the size and shape of our temporomandibular joints, jaws, face, and body. On Earth, gravity is considered normal or 1G. What skeletal and other changes will occur in environments of hypogravity (Moon, 0.18G) or hypergravity (Jupiter 2.65G)? As yet, relatively little is known.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2026318030</t>
+          <t>https://openalex.org/W4301317407</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1139/f67-046</t>
+          <t>https://doi.org/10.1016/s0016-5085(66)80005-7</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Boyd et al. (1967)</t>
+          <t>Roberts &amp; Plaa (1966)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Quality of Pacific Coast Dogfish During Frozen Storage</t>
+          <t>The Effect of Bile Duct Ligation, Bile Duct Cannulation, and Hypothermia on α-Naphthylisothiocyanate-Induced Hyperbilirubinemia and Cholestasis in Rats</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Pacific coast dogfish (Squalus suckleyi) were skinned, frozen, glazed, and stored at −5, −10, −20, and −30 C to determine the extent of oxidative rancidity, colour change, protein denaturation, and lipid hydrolysis during storage. Belly flaps from dogfish carcasses were tested under similar conditions. Discoloration of the red outer muscle of carcasses was the initial significant change in quality. Initial odour and flavour changes in defrosted carcasses were detected after 22 and 70 days storage at −10 and −20 C respectively; no significant changes were evident in carcasses after 180 days storage at −30 C. Slight fading of the pink colour of belly flaps was observed after storage for 50 days at −20 C and for 160 days at −30 C. A slight acidic type flavour was detected in belly flaps after 99 days storage at −20 C.There was a slight relationship between the extent of protein denaturation and lipid hydrolysis in dogfish muscle during frozen storage.</t>
+          <t>The ability of a-naphthylisothiocyanate (ANIT) to induce in the rat an organ response resembling that seen in human biliary cirrhosis has been well documented and has prompted its use in numerous investigations. 1 -3 The cirrhotic response, however, is preceded by an acute lesion characterized by hyperbilirubinemia and cholestasis.This hepatotoxic effect can occur following a single oral dose of ANIT.4The etiology of the biochemical changes and cholestasis resulting from ANIT administration is as yet unknown, although a number of theories have been proposed. 1-5 Most observers have failed to find morphological evidence of an anatomical obstruction of the bile passages, and this has led some investigators to designate the eventual cirrhosis as being free of biliary obstruction. 6Others have suggested that an obstruction of the biliary pathways is involved in the pathological picture of ANIT administration. 1 , 2, 5 Previous workers have studied various biochemical parameters following ANIT treatment, in addition to the morphological examination of the liver.In a comparative study Phillips and Steiner 7 have shown that there seem to be, species differences in the various ANIT responses.These authors seem to have ruled out hemolysis as a primary cause of hyperbilirubinemia.Moran et al. 8 have also attempted, by administer-</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2094044202</t>
+          <t>https://openalex.org/W573207</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2118/1743-pa</t>
+          <t>https://doi.org/10.1152/ajplegacy.1966.211.5.1192</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Spragins (1967)</t>
+          <t>Lange et al. (1966)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Mining at Athabasca - A New Approach to Oil Production</t>
+          <t>Effect of stretch on the isolated cat sinoatrial node</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Abstract The first large-scale commercial extraction plant in the Athabasca tar sands region of Canada begins operating in late 1967. The start of this plant hails the beginning of the use of mining technology in the production of crude oil on this continent. This article reports on two basically different mining approaches that could be used in a commercial tar sands, plant, and details economics and types of equipment to be used. Introduction Geological studies, including results from approximately 2,000 test holes, outlined the deposit and established the reserves in the Athabasca region.' The total in-place reserve of bitumen is calculated to be approximately 625 billion bbl. Of this amount, it is estimated that about 45 percent can be recovered by known techniques and transformed into a marketable synthetic crude oil. Hence, proved reserves in the tar sands total about 285 billion bbl of recoverable synthetic crude oil. Compare these reserves with two other major sources of oil in North America: conventional oil and potentially producible Colorado oil shales. Proved reserves of conventional oil are currently placed at 49 billion bbl. Total in-place reserves of shale oil are estimated at over 2 trillion bbl; but, on the basis of current technology, only 80 billion reserves of tar sand oil are more than twice the combined total of conventional oil and shale oil proved reserves. Description of Ore Body Though extremely variable in nature, good quality ore body in the Athabasca tar sands covers about 10,000 sq miles. The average thickness is 150 ft and the ore body reaches a maximum thickness of about 400 ft. The deposit is covered by overburden that varies in depth from a few feet to as much as 2,000 ft. Oil saturation varies from trace amounts to as much as 18 percent by weight. In a so-called good, average, potentially commercial area, the average saturation ranges from 10 to 15 weight percent. On this basis, at an average thickness of 150 ft, 1 sq mile of tar sand contains over 100 million bbl of bitumen in place - the equivalent of a major oil field. The extent of the overburden thickness determines how the bitumen might be recovered from the ore body. As a result, the main Athabasca oil deposit (Fig. 1) is generally divided into two principal areas: one where oil is recoverable by mining methods and the other where oil is considered recoverable only by in situ methods. Proved reserves of recoverable synthetic crude oil in these two areas are estimated at approximately 85 billion and 200 billion bbl, respectively. Division of the two areas has been roughly determined by the amount of overburden as related to the thickness of corresponding tar sand beds. However, this relationship is continually changing to allow for greater recoveries in the mineable area as operational techniques are improved. JPT P. 1337ˆ</t>
+          <t>ARTICLESEffect of stretch on the isolated cat sinoatrial nodeG Lange, HH Lu, A Chang, and CM BrooksG Lange, HH Lu, A Chang, and CM BrooksPublished Online:01 Nov 1966https://doi.org/10.1152/ajplegacy.1966.211.5.1192MoreSectionsPDF (1 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformation Cited ByThe Bainbridge effect: stretching our understanding of cardiac pacemaking for more than a century27 September 2022 | The Journal of Physiology, Vol. 600, No. 20Drivers of Sinoatrial Node Automaticity in Zebrafish: Comparison With Mechanisms of Mammalian Pacemaker Function28 February 2022 | Frontiers in Physiology, Vol. 13What keeps us ticking? Sinoatrial node mechano-sensitivity: the grandfather clock of cardiac rhythm15 September 2021 | Biophysical Reviews, Vol. 13, No. 5Electrophysiological and Molecular Mechanisms of Sinoatrial Node Mechanosensitivity9 August 2021 | Frontiers in Cardiovascular Medicine, Vol. 8Fibroblast-Specific Proteo-Transcriptomes Reveal Distinct Fibrotic Signatures of Human Sinoatrial Node in Non-Failing and Failing Hearts20 April 2021 | Circulation, Vol. 8Cardiac Mechano-Electric Coupling: Acute Effects of Mechanical Stimulation on Heart Rate and RhythmT. Alexander Quinn and Peter Kohl9 October 2020 | Physiological Reviews, Vol. 101, No. 1Sinoatrial Node Structure, Mechanics, Electrophysiology and the Chronotropic Response to Stretch in Rabbit and Mouse22 July 2020 | Frontiers in Physiology, Vol. 11May the Force Not Be With You During Culture: Eliminating Mechano-Associated Feedback During Culture Preserves Cultured Atrial and Pacemaker Cell Functions20 March 2020 | Frontiers in Physiology, Vol. 11Dynamics of beating cardiac tissue under slow periodic drives3 January 2020 | Physical Review E, Vol. 101, No. 1Heart Failure Differentially Modulates Natural (Sinoatrial Node) and Ectopic (Pulmonary Veins) Pacemakers: Mechanism and Therapeutic Implication for Atrial Fibrillation30 June 2019 | International Journal of Molecular Sciences, Vol. 20, No. 13Intrinsic regulation of sinoatrial node function and the zebrafish as a model of stretch effects on pacemakingProgress in Biophysics and Molecular Biology, Vol. 130Fibrosis: a structural modulator of sinoatrial node physiology and dysfunction12 February 2015 | Frontiers in Physiology, Vol. 6The Ventriculophasic Response: Relationship to Sinus Arrhythmia and the Duration of Interposed QRS Complexes20 January 2013 | Annals of Noninvasive Electrocardiology, Vol. 18, No. 4Mechano-sensitivity of cardiac pacemaker function: Pathophysiological relevance, experimental implications, and conceptual integration with other mechanisms of rhythmicityProgress in Biophysics and Molecular Biology, Vol. 110, No. 2-3Tertiapin-Q removes a mechanosensitive component of muscarinic control of the sinoatrial pacemaker in the rat24 May 2010 | Clinical and Experimental Pharmacology and Physiology, Vol. 37, No. 9Heart Rate Turbulence to Guide Treatment for Prevention of Sudden DeathJournal of Cardiovascular Pharmacology, Vol. 55, No. 6Structural and Functional Evidence for Discrete Exit Pathways That Connect the Canine Sinoatrial Node and AtriaCirculation Research, Vol. 104, No. 7Heart Rate Turbulence: Standards of Measurement, Physiological Interpretation, and Clinical UseJournal of the American College of Cardiology, Vol. 52, No. 17Effect of heavy exercise on spectral baroreflex sensitivity, heart rate, and blood pressure variability in well-trained humansFrançois Cottin, Claire Médigue, and Yves Papelier1 September 2008 | American Journal of Physiology-Heart and Circulatory Physiology, Vol. 295, No. 3Persistent alterations in heart rate variability, baroreflex sensitivity, and anxiety-like behaviors during development of heart failure in the ratMarcus Henze, Davin Hart, Allen Samarel, John Barakat, Laurie Eckert, and Karie Scrogin1 July 2008 | American Journal of Physiology-Heart and Circulatory Physiology, Vol. 295, No. 1Postganglionic nerve stimulation induces temporal inhibition of excitability in rabbit sinoatrial nodeVadim V. Fedorov, William J. Hucker, Halina Dobrzynski, Leonid V. Rosenshtraukh, and Igor R. Efimov1 August 2006 | American Journal of Physiology-Heart and Circulatory Physiology, Vol. 291, No. 2Paradoxical respiratory sinus arrhythmia in the anesthetized ratAutonomic Neuroscience, Vol. 118, No. 1-2Influences of breathing patterns on respiratory sinus arrhythmia in humans during exerciseGrégory Blain, Olivier Meste, and Stéphane Bermon1 February 2005 | American Journal of Physiology-Heart and Circulatory Physiology, Vol. 288, No. 2Interaction of the autonomic nervous system with intrinsic cardiac rate regulation in the guinea-pig, Cavia porcellusComparative Biochemistry and Physiology Part A: Molecular &amp; Integrative Physiology, Vol. 130, No. 4Mechanisms of respiratory sinus arrhythmia in patients with mild heart f</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2606805662</t>
+          <t>https://openalex.org/W71373392</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2151/jmsj1965.45.5_422</t>
+          <t>https://doi.org/10.3133/pp396</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Hirota (1967)</t>
+          <t>Ross (1966)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>The Vertical Structure of the Stratospheric Sudden Warming</t>
+          <t>Stratigraphy of some Paleozoic formations in the Independence quadrangle, Inyo County, California</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>The vertical structure of the stratospheric temperature field and its time variations were analyzed throughout the period of the sudden warming phenomenon by use of the daily synoptic weather maps published by Free University of Berlin.The sudden warming in January 1963, which was observed over southeastern Canada, was the chief study with further analyses of the sudden warmings of January 1958 and March 1965.The vertical cross sections of temperature and its time variations were shown along the western semi-circle at 50°N in the five levels from 300mb up to 10mb.It is found from these analyses that the vertical trough line is strongly tilted westward above the 50mb level with increasing height, where isotherms are nearly parallel to the tilted trough line, and this disturbance, as a whole, moves westward (or northwestward) when the warming reaches its maximum. As the result of the westward movement of the tilted axis, the vertical time-section at one station shows that the warming first occurred in the upper level and moved downward.On the contrary, vertical cross sections of the time change of temperature show that the warming appears first at the 100mb or 50mb level and then it propagates upward with a phase speed of about 10mb/day. The upward propagation of the warming is also verified by the vertical cross sections along longitude 50°W from the North pole to 20°N.Thus the sudden warming phenomenon is considered to consist of two stages, i, e., the intensification stage in which the disturbance propagates upward from lower to the upper stratosphere, and the migratory stage in which it moves westward in connection with the breakdown of the polar vortex.These features of the warming phenomenon are common at least to these three cases.</t>
+          <t>In the Mazourka Canyon area of the Independence quadrangle in the Inyo Mountains of California, a well-exposed conformable sequence of Upper Mississippian, Pennsylvanian, and Permian beds overlies an erosional surface cut on a conformable sequence of Cambrian, Ordovician, Silurian, and Devonian (?) rocks.The rocks from the Bonanza King Dolomite (Middle and Upper Cambrian) through the Rest Spring Shale (Upper Mississippian) are particularly well-exposed, easily accessible, and only moderately deformed and contact metamorphosed; and they reveal significant lithologic variations along strike.The sequence of Cambrian, Ordovician, Silurian, and Devonian (?) rocks lying beneath the unconformity comprises about 10,000 feet of mostly thin-bedded fine-to medium-grained clastic rocks, dolomite, and limestone.Much of the carbonate material also is clastic.These rocks probably belong to a transitional assemblage between the siliceous eugeosynclinal assemblage and the carbonate miogeosynclinal assemblage of the Great Basin.Both geographically and lithologically, though, the rocks are nearer the carbonate assemblage.The Upper Mississippian clastic beds that overlie the unconformity are probably part of the overlap assemblage of the Great Basin.These beds, about 3,000 feet thick, are dominantly shale and siltstone, although the lower several hundred feet is mostly sandstone and conglomerate containing abundant chert fragments.Along the strike from the dominantly carbonate terrane southeast of the quadrangle to the northern part of the Independence quadrangle, major lithologic changes occur, particularly in the Ordovician and Silurian rocks.In the Mazourka Canyon area, for example, the interval occupied by the Eureka Quartzite over much of the western part of the Great Basin is made up of interbedded quartzite, dolomite, limestone, shale, and siltstone; and the Ely Springs Dolomite grades northwestward from cherty dolomite to dominantly massive black chert.The most striking change occurs in the Silurian rocks; dolomite, which is widespread southeast of the Mazourka Canyon area, grades northwestward in a few miles into coral-rich bioclastic and argillaceous limestone, which in turn grades northward into graptolite-&lt;bearing shale and limestone.The Mississippian and younger rocks of the overlap assemblage in the Independence quadrangle also have a higher percentage of clastic material than do equivalent rocks to the southeast.'-&gt; "'-' ' " X*-"'*" '' ' *i-' r** * * " ".;**&amp; ;. 1^,-,y ~.y*&lt;»'j!' *#;-\Vw."&lt; ' -'.**/ .;-" ».'"*SR^« -' ' x STRATIGRAPHY OF PALEOZOIC FORMATIONS, INDEPENDENCE QUADRANGLE, CALIFORNIABlack chert in thin regular layers or nodular beds as much as 4 inches thick is also present in the formation, but much of what was thought in the field to be chert proved, on microscopic examination, to be siltstone or calcareous siltstone.Thin-bedded dolomite in different shades of gray is locally common near the top of the formation.At the type section, dolomite is somewhat more abundant than at most exposures.The alternation of gray limestone and brown-, orange-, and reddish-weathering siltstone is repeated several times in the stratigraphic column in the Independence area.The fairly regular interbedding of the two rock types, as shown in figure 3, distinguishes the Lead Gulch Formation from the formations in which these two rock types are irregularly interbedded.The Al Rose Formation (Lower Ordovician) is the unit most likely to be confused with the Lead Gulch.In most outcrops, however, the Al Rose has irregular bedding and a predominance of silty material.The limestone fraction commonly occurs in less resistant lenses that weather back to form distinctive "eyes," which are rare in Lead Gulch outcrops.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1981319948</t>
+          <t>https://openalex.org/W9493895</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0013-4686(67)80089-6</t>
+          <t>https://doi.org/10.3133/pp543e</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Schmid (1967)</t>
+          <t>Ferrians (1966)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Hydrogen overvoltage on gold</t>
+          <t>Effects of the earthquake of March 27, 1964, in the Copper River Basin area, Alaska</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>The hydrogen reaction was investigated on H2-annealed Au in HClO4 solutions, with and without NaClO4 to 1 M, pH 0·1, 0·9 and 2·0, and in 1 M H2SO4. From open-circuit decay and from anodic and cathodic galvanostatic transients, the coverage with adsorbed oxidizable material between −0.3 and +0·4 V, and of reducible species between +0·4 and 0·0 V (he) is &lt; 5 per cent of a mono-layer. This is supported by single-pulse differential capacitance measurements. Capacity peaks at 0·3–0·4 V indicate ClO4− adsorption. These peaks are absent in 1 M H2SO4 and replaced by a maximum at +0·65 V, possibly due to HSO4− adsorption. Cathodic Tafel slopes on first polarization are b = 0·11 ± 0·01 V, dropping to b = 0·05 V on subsequent polarizations. Exchange currents are 30 μA/cm2 at pH 0·1 on fresh electrodes, increasing to as much as 3 mA/cm2 after polarization to + 1·3 V. Anodic currents are reaction controlled; the maximum limiting currents are 900-9 μA/cm2, decreasing with increasing pH. Reaction control is caused by ClO4− or HSO4− adsorption. It is suggested that the influence of pH is indirect and caused by the shift in equilibrium potential, 0·06 V/pH, to values more negative to the zero point of charge of Au. This should lead to stronger adsorption of H2O dipoles accompanied by increased reaction control. The data are consistent with a rate-controlling discharge step followed by a recombination reaction initially, and a discharge step followed by an increasingly rate-controlling recombination reaction on subsequent polarizations. Le dégagement d'hydrogène sur Au recuit en atmosphère d'hydrogène est étudié dans des solutions de HClO4, avec et sans NaClO4 1 M, de pH 0·1, 0,9, 2,0, et dans H2SO4 1 M. On trouve que le depôt de matière oxydable adsorbé entre −0,3 et +0,4 V, et réductible entre +0,4 et 0,0 V, contre une électrode H2 dans la même solution, est &lt; 5 pour cent d'une couche simple, par mesure de la variation de la tension quand le circuit est ouvert et quand un courant constant anodique ou cathodique est maintenu. Ces résultats sont confirmés par mesure de la capacité différentielle. La courbe de capacité montre des pics entre 0,3 et 0,4 V, qui indiquent que ClO4− est adsorbé. Ces pics n'apparaissent pas avec H2SO4 1 M et sont remplacés à +0,65 V par un maximum qui peut être attribué à l'adsorption de HSO4−. Les pentes des courbes de Tafel de la cathode décroissent de b = 0,11 ± 0,11 V à la première polarisation, jusqu'à b = 0,05 lors de polarisations ultérieures. Les courants d'échange, avec des électrodes neuves, sont de 30 μA/cm2 à pH 0,1 et croissent jusqu'à une valeur de 3 mA/cm2 après polarisation à 1,3 V. Les courants anodiques sont contrôlés par une réaction chimique: les courants—limite maximum diminuent de 900 à 9 μA/cm2 quand le pH augmente. Le contrôle par réaction chimique est dû à l'adsorption de HSO4− et ClO4−. On suppose que l'influence du pH est indirecte et est causée par le déplacement du potentiel d'équilibre de 0,06 pH, vers des valeurs plus négatives par rapport au point de charge nulle de Au. Ceci devrait conduire à une augmentation en adsorption de dipôles H2O, et donc à une plus grande dépendance de la réaction chimique. Les résultats sont compatibles, tout d'abord avec une étape régulatrice correspondant à une décharge suivie d'une réaction de recombinaison; pour les polarisations ultérieures, avec une étape de décharge suivie d'une étape de re combinaison de plus en plus régulatrice. Die Wasserstoffreaktion wurde untersucht an in H2 ausgeglühtem Au in HClO4 Lösungen, mit und ohne NaClO4 Zusatz zu 1 M, pH 0,1, 0,9 and 2,0, und in 1 M H2SO4. Der Spannungsabfall bei Stromunterbrechung und bei konstantem anodischen bzw. kathodischen Strom zeigt, dass die Bedeckung mit oxydierbarer Substanz zwischen −0,3 und +0,4 V, und mit reduzierbarer Materie zwischen +0,4 und 0,0 V gegen eine H2 Elektrode in der gleichen Lösung weniger als 5 Prozent einer monoatomaren Schicht ausmacht. Dies wird durch Messung der differentiellen Doppelschichtkapazität bestätigt. Kapazitätsmaxima bei 0,3–0,4 V werden der ClO4− Adsorption, ein Maximum bei + 0,65 V in 1 M H2SO4 der HSO4− Adsorption zugeschrieben. Kathodische Tafel Neigungen an frischen Elektroden sind b = 0, 11 ± 0,01 V. Die Neigung wird kleiner an gebrauchten Elektroden, mit b = 0·05 V als kleinstem gemessenen Wert. Der Austauschstrom an frischen Elektroden in pH 0,1 ist 30 μA/cm2, nach Polarisation zu + 1,3 V bis zu 3 mA/Cm2. Anodische Ströme sind zum grössten Teil reaktionsbedingt; die Grenzströme sind 900-9 μA/cm2 und nehmen ab mit zunehmendem pH. Die Reaktionshemmung ist durch ClO4− oder HSO4− Adsorption erklärt. Der Einfluss des pH Wertes ist vermutlich durch die Verschiebung des Gleichgewichts-potentials um 0,06 V/pH zu, gegen den Ladungsnullpunkt gemessenen, negativeren Werten verursacht.. Dadurch sollte eine stärkere Adsorption von H2O Dipolen und damit eine zunehmende Reaktionshemmung hervorgerufen werden. Die Messergebnisse zeigen, dass ein Volm</t>
+          <t>The Copper River Basin area is in south-central Alaska and covers 17,800 square miles. It includes most of the Copper River Basin and parts of the surrounding Alaska Range and the Talkeetna, Chugach, and Wrangell Mountains. On March 27, 1964, shortly after 5:36 p.m. Alaska standard time, a great earthquake having a Richter magnitude of about 8.5 struck south-central Alaska. Computations by the U.S. Coast and Geodetic Survey place the epicenter of the main shock at lat 61.1° N. and long 147.7° W., and the hypocenter, or actual point of origin, from 20 to 50 kilometers below the surface. The epicenter is near the western shore of Unakwik Inlet in northern Prince William Sound; it is 30 miles from the closest point within the area of study and 180 miles from the farthest point. Releveling data obtained in 1964 after the earthquake indicates that broad areas of south-central Alaska were warped by uplift and subsidence. The configuration of these areas generally parallels the trend of the major tectonic elements of the region. Presumably a large part of this change took place during and immediately after the 1964 earthquake. The water level in several wells in the area lowered appreciably, and the water in many became turbid; generally, however, within a few days after the earthquake the water level returned to normal and the suspended sediment settled out. Newspaper reports that the Copper River was completely dammed and Tazlina Lake drained proved erroneous. The ice on most lakes was cracked, especially around the margins of the lakes where floating ice broke free from the ice frozen to the shore. Ice on Tazlina, Klutina, and Tonsina Lakes was intensely fractured by waves generated by sublacustrine landslides off the fronts of deltas. These waves stranded large blocks of ice above water level along the shores. River ice was generally cracked in the southern half of the area and was locally cracked in the northern half. In the area of study, the majority of the ground cracks occurred within a radius of 100 miles from the epicenter of the earthquake. Ground cracks formed in flood plains of rivers, in deltas, and along the toes of alluvial fans. They also occurred locally in low terraces adjacent to flood plains, in highway and other fill material, along the margins of lakes, along the faces of steep slopes of river bluffs and hillsides, and in areas cleared of vegetation for several years. The ground cracks were restricted to areas underlain by unconsolidated deposits where one or more of the following conditions existed: (1) permafrost was absent or deep lying, (2) the ground-water table was near the surface, (3) bedrock was relatively deep lying, and (4) slopes were steep. Because the earthquake occurred in March, seasonal frost was present throughout the area. Despite the diversity of local conditions, the origin of most of the ground cracks can be explained by the following mechanisms: (1) lateral extension, caused by materials moving toward an unconfined face such as a lakeshore, river bluff, hillside, or terrace escarpment; (2) horizontal compaction, caused by repeated alternate compression and dilation (in the horizontal direction) of materials in flat-lying areas where there are no unconfined faces; (3) differential vertical compaction, caused by the shaking of materials that vary laterally in thickness or character; and (4) combinations of the above. Snowslides, avalanches, and rockslides were restricted to the mountainous areas surrounding the Copper River Basin. They were especially numerous in the Chugach Mountains which are closest to the epicenter of the earthquake. The large amount of snow and rock debris that has cascaded onto the icefield and glaciers of these mountains, and, probably even more important, the overall disturbance to the ice field will affect the regimen of the glaciers. Most of the damage to manmade structures occurred in the southern half of the area, and, primarily because of the sparsity of population and manmade structures, property damage was not great and no lives were lost.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1986992354</t>
+          <t>https://openalex.org/W1505617534</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0014-3057(67)90062-6</t>
+          <t>https://doi.org/10.1016/0040-4020(76)85154-x</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Anderson et al. (1967)</t>
+          <t>Abou-Assali et al. (1976)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Copolymerization with Ziegler-Natta catalysts—III. Rates of copolymerization for several olefin pairs</t>
+          <t>Etude de la reactivite des coumarines—II</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Dilatometry was used to measure the rates of copolymerizations of styrene with hex-1-ene, hept-1-ene, 4-methylpent-1-ene and 4-methylhex-1-ene, in the catalyst system, AlEt3-αTiCl3 in toluene. The copolymerizations were found to be first order with respect to TiCl3 and independent of Al/Ti ratio. Increased temperature produced a rapid increase in rate; variation of monomer feed, over the whole range, resulted in a gradual change from one homopolymerization rate to the other. The nature of the α-TiCl3 sample was found to have considerable effect on the rate of copolymerization. The order of reactivity, both from rate measurements and reactivity ratios, implies that, for the polymerization of α-olefins by heterogeneous Ziegler-Natta catalysts, steric effects outweigh electronic consideration. On a utilisé la méthode dilatométrique pour mesurer les vitesses de copolymérisation du styrène avec l'hexène-1, l'heptène-1, le méthyl-4-pentène-1 et le méthyl-4-hexène-1 avec le système catalytique Al Et3-aTiCl3 dans le toluène. Ces réactions étaient de ler ordre par rapport à TiCl3 et leurs vitesses étaient indépendantes du rapport Al/Ti. Une élévation de la température produisait une importante augmentation de la vitesse. En faisant varier la composition du mélange des monomères on a observé que la vitesse de la réaction variait graduellement entre les valeurs obtenues pour les homopolymérisations de chacun des monomères. La nature de l'échantillon de TiCl3 avait une influence notable sur la vitesse de copolymérisation. L'ordre des réactivités obtenu à la fois d'après les vitesses et les rapports de réactivités implique que les effets stériques sont prépondérants par rapports aux facteurs électroniques pour déterminer les réactivités dans la polymérisation des α-oléfines amorcée par des catalyseurs Ziegler-Natta hétérogènes. Per misurare le velocità di copolimerizzazione dello stirene con esene-1, eptene-1, 4-metilpentene-1 e 4-metilesene-1 col sistema catalitico AlEt3-αTiCl3 in toluolo, è stata usata la dilatometria. Si è visto che la copolimerizzazione è del I ordine rispetto alαTiCl3 ed è indipendente dal rapporto Al/Ti. Un aumento di temperatura produce un rapido aumento della velocità; una variazione della concentrazione, in tutto il campo, corrisponde ad un passaggio graduale da une velocità di omopolimerizzazione all'altra. È stato trovato che la natura del campione di α-TiCl3 ha notevoli effetti sulla velocità di copolimerizzazione. L'ordine di reattività, ricavato sia dalle misure di cinetica che dai rapporti di reattività, implica che, per la polimerizzazione di α-olefine con catalizzatori eterogenei Ziegler-Natta, gli effetti sterici predominano su considerazioni elettroniche. Die Geschwindigkeiten der Copolymerisation von Styrol mit Hex-1-en, Hept-1-en, 4-Methylpent-1-en und 4-Methylhex-1-en mit dem Katalysatorsystem AlEt3—α TiCl3 in Toluol wurden dilatometrisch gemessen. Es erwies sich, daβ die Copolymerisation nach der ersten Ordung in Bezug auf TiCl3 und unabhängig vom Al/Ti Verhältnis verlaufen. Mit steigender Temperatur nimmt die Geschwindigkeit rasch zu. Eine Variation der Monomerzugabe über den gesamten Bereich bewirkte einen kontinǔierlichen Übergang von einer Homopolymerisationsgeschwindigkeit zur andern. Es wurde gefunden, daβ die Art der α-TiCl3 Probe einen beträchtlichen Einfluβ auf die Geschwindigkeit der Copolymerisation hat. Die Reihenfolge der Reaktivität, sowohl aus Geschwindigkeitsmessungen als aus den Reaktivitätsverhältnissen abgeleitet, lässt darauf schlieβen, daβ bei der Polymerisation von α-Olefinen durch heterogene Ziegler-Natta Katalysatoren, sterische Effekte gegenüber elektronischen Einflüssen überwiegen.</t>
+          <t>A partir des paramètres caractérisant la nucléophilie des réactifs de Grignard engagés avec la coumarine, on peut prévoir par le calcul des énergies de délocalisation électronique des états de transition, les variations de régiosélectivité des coumarines substituées, en fonction de la nature et de la position des substituants portés par la coumarine. Using the nucleophilicity parameters of Grignard reagents calculation of the electronic delocalization energies permits prediction of the variation of regioselectivity of substituted coumarins towards Grignard reagents.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2089793716</t>
+          <t>https://openalex.org/W1506573811</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1439-0450.1967.tb00045.x</t>
+          <t>https://doi.org/10.1063/1.30385</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Straub et al. (1967)</t>
+          <t>Gorodetsky et al. (1976)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Tagesperiodische Schwankungen des weißen Blutbildes und der Serumproteine bei normalen und an Leukose erkrankten Rindern</t>
+          <t>Study of the spin-orientation type phase transition in SmCrO3</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Zusammenfassung Tägliche Blutproben von 8 Rindern wurden 6 Wochen lang unter konstanten Versuchsbedingungen analysiert. Bei 5 Rindern waren die Leukozytenwerte nach dem Göttinger Leukoseschlüssel “normal”, bei 3 Tieren krankhaft erhöht. Es wurde jeweils das weiße Blutbild untersucht und die Serumproteinzusammensetzung mittels quantitativer Agarelektrophorese ermittelt. Die Resultate sind in Tabellen und Abbildungen dargestellt. Die täglichen Schwankungen der Proteinzusammensetzung scheinen weniger vom Grad der Leukoseerkrankung, sondern wahrscheinlich mehr von Zyklus, Trächtigkeit und Geburt beeinflußt zu werden. Die täglichen Leukozytenwerte ließen deutlich 2 Schwankungskomponenten erkennen, eine langfristige, “glatte” Auf‐ und Abwärtsbewegung sowie eine darübergelagerte, völlig unregelmäßige Schwankung von Tag zu Tag. Mit Hilfe statistischer Überlegungen konnte gezeigt werden, daß — zumindest bei Tieren mit höchstens 15 000 Leukozyten pro mm 3 Blut — der größte Teil der täglichen Schwankungen auf methodisch bedingte Fehler zufälliger Art zurückgeführt werden muß. Das bedeutet, daß nur die langfristige Komponente ein annäherndes Bild von der tatsächlichen Leukozytenkonzentration und ihrer zeitlichen Änderung vermittelt. Bei Tieren mit 30–60 000 Leukozyten pro mm 3 war eine solche Erklärung der täglichen Schwankung nicht möglich; es ist daher nicht auszuschließen, daß in diesen Fällen der Leukozytengehalt des Blutes erheblichen — und zwar weitgehend regellosen — Schwankungen von Tag zu Tag unterworfen ist. Diese Deutung wird durch die Beobachtung gestützt, daß die langfristige Bewegung der Leukozytenkonzentration (bei normalen weiblichen Tieren) vermutlich mit gynäkologischen Daten in einem Zusammenhang steht, dessen Natur in dem relativ kurzen Beobachtungszeitraum allerdings nicht festgestellt werden konnte. Es spricht jedoch dafür, daß eine ähnliche Art der Bewegung bei den männlichen Tieren fehlte. Summary Diurnal changes in the white cell and serum protein picture in normal cattle and cattle with leucosis Daily blood samples from 8 cattle kept under constant environmental conditions for six weeks were examined. In 5 of the animals the leucocyte values assessed by the Göttinger leucosis yardstick were “normal” and in the other 3 they were abnormally raised. At the same time the leucocyte blood picture was examined and serum proteins analysed by quantitative agar electrophoresis. The results are given in tables and figures. The daily protein changes appear to be less influenced by the degree of leucosis than probably by the oestrous cycle, pregnancy and parturition. The daily leucocyte values showed two clear varying components, one of them a long‐term rise and fall and the other a short‐lasting and entirely irregular variation from day to day. Statistical studies show that, at least in animals with not more than 15,000 leucocytes per mm 3 , the greater part of the daily variations was attributable to errors associated with the method. This means that only the long‐term variable component gives a satisfactory representation of the real leucocyte level and its changes with time. In animals with 30,000 to 60,000 leucocytes per mm 3 this explanation of the daily variations was not tenable; it therefore cannot be excluded that in these cases the large irregular day to day variations are not a real response. This interpretation is supported by the observation that the long‐term leucocyte changes (in normal females) was probably associated with gynaecological events, the nature of which could not be determined during the short period of observation. In support of this view, similar changes were absent in males. Résumé Variations périodiques journalières de la formule leucocytaire et des protéines sériques de boeufs normaux et atteints de leucose On analyse chaque jour, pendant 6 semaines, des échantillons de sang de 8 boeufs, en maintenant des conditions d'expérience constantes. D'après le système‐clef de Göttinger, les valeurs leucocytaires s'avéraient normales chez 5 boeufs. Elles avaient subi une hausse anormale chez 3 animaux. On examine la formule leucocytaire et l'on détermine la composition des protéines sériques au moyen de l'électrophorèse quantitative sur gélose. Les résultats sont présentés sous forme de tableaux et d'illustrations. Les variations journalières de la composition des protéines semblent être influencées par le cycle, la gestation et la mise‐bas, plutôt que par le degré de gravité de la leucose. Les valeurs leucocytaires journalières révèlent nettement deux composantes de variation, l'une à long terme, avec des augmentations et diminutions régulières, et l'autre, superposée, avec des variations au jour le jour, très irrégulières. On démontre à l'aide d'un raisonnement statistique que la plus grande partie des variations journalières — du moins chez les animaux avec au plus 15 000 leucocytes par mm 3 de sang — sont dues aux erreurs accidentelles provenant de l'application de la méthode. C</t>
+          <t>The spin orientation type phase transition in SmCrO3 at T?34°K has been studied by means of bulk magnetization, sound wave propagation and specific heat measurements. The high and low temperature phases belong to Γ4(Cr:GxFz) and Γ2(Cr:GzFx) respectively. We find a reorientation region of ∠1°K with the beginning and the end points corresponding to second order phase transitions. Though common in the orthoferrites, this is the first clear evidence of a continuous spin reorientation in a RCrO3 compound. The continuous nature of the reorientation process is evident from peaks in the a and c axis susceptibilities and the softening of the elastic constant C55 at both ends of the transition region due to a resonant magnetoelastic coupling. From the anomaly in the specific heat, the entropy associated with the spin reorientation is found to be ΔE/R=0.21±0.01°K.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2934422630</t>
+          <t>https://openalex.org/W1535642366</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0041-624x(67)90110-2</t>
+          <t>https://doi.org/10.1016/s0021-9258(17)33004-1</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sinclair (1967)</t>
+          <t>Tyhach et al. (1976)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Considerations for establishing ultrasonic test acceptance standards</t>
+          <t>Metabolic fate of 3,4-dihydroxybutyl-1-phosphonate in Escherichia coli.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Rupestrian grasslands comprise a mosaic of plant communities that dominate high elevations formation associated with quartzite soil in Eastern Brazil. This study evaluated changes in floristic composition, structure, diversity, and life forms spectra along an altitudinal gradient in the rupestrian grasslands in south-eastern Espinhaço Mountains Range. Sampling was conducted in seven sites at 100-m elevation intervals (800–1400 m). Thirteen 100-m2 plots were established at each elevation; within each plot all woody individuals and rosettes with a diameter at soil height ≥ 1 cm were sampled. Differences in vegetation structure, diversity, species composition, frequency and richness of each life forms were analyzed in relation to soil attributes and elevation. In total, 9672 individuals belonging to 278 species were sampled across the altitudinal gradient. Plant height, species richness, diversity and evenness, frequency and richness of phanerophytes and chamaephytes decreased with elevation. The β diversity represented 92.7% of the total diversity and species turnover is numerically the primary mechanism that determines the β diversity. Most species with higher importance value also had the highest indicator values. Spatial factors, spatially structured environment and the environment explained 34% of the variation in species distribution. Floristic composition differed across elevations, and soil pH, solution equilibrium P, base saturation, hydrogen + aluminum, organic matter, and K were related to species distribution. The results showed marked changes in the rupestrian grasslands along the altitudinal gradient and indicated that soil is an important driver of community change.</t>
+          <t>3,4-Dihydroxy[3-(3)H]butyl-1-phosphonate, and analogue of glycerol 3-phosphate, is incorporated into a very polar lipid material by cultures of Escherichia coli strain 8 and in vitro by CDP-diglyceride:sn-glycerol-3-phosphate phosphatidyltransferase. These labeled lipids have been fractionated by column chromatography on DEAE-cellulose, revealing that only one labeled compound is formed in vitro, while four are synthesized in vivo. The main component of the material formed by intact cells has been shown to be identical with that produced enzymatically. This species has been identified as the phosphonic acid analogue of phosphatidylglycerophosphate [(1,2-diacyl)-sn-glyceryl-D-4'-phosphoryloxy-3'-hydroxybutyl-1'-phosphonate]. Hydrolysis of this novel lipid with phospholipase C resulted in the production of diglyceride and a water-soluble derivative of 3,4-dihydroxybutyl-1-phosphonate and inorganic phosphate in a molar ratio of 1.03/1. Enzymatic analysis of the phosphonate liberated in this manner showed it to be the D enantiomer, thereby confirming the proposed structure of the lipid analogue. The analogue of phosphatidylglycerophosphate did not turn over and appeared to have no precursor-product relationship to the other labeled lipids derived from 3,4-dihydroxy[3-(3)H]butyl-1-phosphonate in vivo. Analysis of the other three labeled products revealed the tritium to be present on glycerol 3-phosphate and not intact phosphonate, indicating some metabolic degradation of the latter. Examination of cell components other than lipids revealed little incorporation of label, while a significant amount of tritium was found to be present in a distillable form, 3H2O. Experiments with mutants of E. coli lacking the known glycerol-3-phosphate dehydrogenases indicated that these enzymes are not responsible for the removal of tritium from from 3,4-dihydroxy[3-(3)H]butyl-1-phosphonate in vivo. Indirect evidence suggests that the inhibition of cell growth by this analogue is not due to its catabolic products.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://openalex.org/W641753507</t>
+          <t>https://openalex.org/W1560435741</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/bf02769795</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Ferrari (1967)</t>
+          <t>Grayson (1976)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>THE BEHAVIOR OF ASPHALT PAVEMENTS UNDER VARIABLE REPEATED LOADS</t>
+          <t>Instructional technology: On diversity in education</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>THE MOST MODERN METHOD OF ASPHALT PAVEMENT CONSTRUCTION CONSISTS IN MAKING THE CARPET, BINDER, AND BASE COURSE WITH ASPHALT MIXTURE, SO THAT THESE THREE LAYERS WORK ALTOGETHER AS A UNIQUE PLATE RESTING ON THE SUBBASE, WHICH LATTER IS USUALLY MADE OF COMPACTED GRANULAR MATERIAL. IT IS ACKNOWLEDGED THAT THESE BITUMINOUS PAVEMENTS, EVEN IF CORRECTLY BUILT ON A WELL COMPACTED SUBGRADE, START TO CRACK IN A PECULIAR MANNER (CHICKEN WIRE) AFTER HAVING BEEN SUBMITTED FOR SOME TIME TO HEAVY TRAFFIC. RECENTLY THIS CRACKING HAS BEEN ATTRIBUTED TO FATIGUE FAILURE AND TAKEN INTO CONSIDERATION IN THE DESIGN OF THE PAVEMENTS BY INCREASING EMPIRICALLY THE THICKNESS IN RELATION TO THE AMOUNT OF TRAFFIC, THE TRUE NATURE OF FATIGUE FAILURE PHENOMENON NOT YET BEING KNOWN. IN ORDER TO FIND OUT ABOUT THIS KIND OF FAILURE, THE AUTHOR PERFORMED SOME TESTS ON SAMPLES MADE OF BITUMINOUS CONCRETE. EACH SAMPLE, IN THE FORM OF A SMALL PRISMATIC BEAM, HAS UNDERGONE REPEATED BENDING MOMENTS OF OPPOSITE SENSE. IT HAS BEEN OBSERVED THAT THE INCREASE OR CURVATURE DUE TO EACH CYCLE WAS DECREASING WITH THE REPETITION OF APPLICATIONS OF THE BENDING MOMENTS HAVING THE SAME VERSE, AND INSTEAD THERE WAS A SHARP GROWTH OF INCREASE OF CURVATURE WHEN THE VERSE OF THE BENDING MOMENT WAS CHANGED. FROM THESE RESULTS THE AUTHOR ASSUMES THAT EACH APPLICATION OF THE BENDING MOMENT LEAVES RESIDUAL STRESSES, WHICH AFFECT THE BEHAVIOR OF THE MATERIAL UNDER OTHER CHARGES. THEREFORE IT IS THE AUTHORS OPINION THAT THE PRESENT THEORY OF THE ELASTO-VISCOUS BODIES IS NOT APPLICABLE TO THE DESIGN OF THE FLEXIBLE PAVEMENTS, SINCE SUCH THEORY IGNORES THE RESIDUAL STRESSES. ACTUALLY THE FATIGUE FAILURE OCCURS WHEN THE TOTAL AMOUNT OF INTERNAL STRESSES, PARTLY DUE TO THE CONTINUALLY INCREASING RESIDUAL STRESSES, AND PARTLY CAUSED BY THE EXTERNAL CHARGE, PRODUCES THE CRACK OF THE MATERIAL. A DEEP STUDY OF THE RESIDUAL STRESSES IN THE BITUMINOUS MIXTURES IS, THEREFORE, TO BE CONSIDERED A PRELIMINARY AS WELL AS NECESSARY STEP TOWARD THE REALISTIC APPROACH TO THE DESIGN OF FLEXIBLE PAVEMENTS. (AUTHOR)</t>
+          <t>There is a growing desire and movement in this country to apply technology to the major problems of society, including those of education.1 Yet, as noted in the Technology Assessment Act of 1972, As technology continues to change and expand rapidly, its applications are . . . increasingly extensive, pervasive, and critical in their impact, beneficial and adverse, on the natural and social environment. The use of technology can, in particular, clash with our need for diversity, a concept fundamental to the practice of freedom and democracy. If people are to exercise their democratic rights, they must have opportunities to make choices among meaningful alternatives. Diversity is especially necessary in education, because education shapes values and, thus, has a major effect on one's future choices. While technology has often had the long-term effect of expanding the number of available options, in the initial stages of its application the need for large capital investment often leads to a centralization of control and a reduction of diversity. Thus, while technology can make educational opportunities more widely available for more people, it also can result in fewer choices.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1970776172</t>
+          <t>https://openalex.org/W1564743723</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1745-6584.1967.tb03662.x</t>
+          <t>https://doi.org/10.1016/s0021-9258(17)33589-5</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Norris (1967)</t>
+          <t>Dunaway &amp; Segal (1976)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Effects on Ground-Water Quality and Induced Infiltration of Wastes Disposed into the Hocking River at Lancaster, Ohioa</t>
+          <t>Purification and physiological role of a peptide stabilizing factor of rat liver phosphofructokinase.</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Abstract Watercourse aquifer systems in many areas are adversely affected by wastes disposed into surface‐water sources, resulting in either reduced streambed permeability, infiltration of wastes into the aquifer, or both. These conditions are illustrated at Lancaster, Ohio, where low streambed permeability in the vicinity of the municipal well field, resulting from the discharge of wastes to the Hocking River, seriously retards the infiltration of surface water and lessens the available yield of the wells. The wastes consist of brine and iron‐laden effluent from the municipal treatment plant, discharged within the area of influence of the pumped wells to a stream already carrying much organic waste and other debris. Upstream from the discharge sewer, muck and organic debris have accumulated thickly on the streambed, while downstream from the sewer the streambed sediments have become tightly cemented by iron and other constituents in the waste water. There is evidence that, despite reduced streambed permeability, wastes have entered the aquifer and have materially contributed to declines in well efficiency and to recurring problems of well maintenance. Conditions such as those illustrated at Lancaster occur also at Dayton and are not uncommon elsewhere in Ohio. Indirect contamination of aquifers and adverse physical and chemical alteration of streambed sediments, resulting from surface‐water waste disposal, may in many places pose a threat to the ground‐water supply. This fact should not be overlooked in determining water‐quality standards to be established under the Water Quality Act of 1965.</t>
+          <t>A substance has been purified to apparent homogeneity from rat liver which, as previously reported (Dunaway, G. A., Jr., and Segal, H. L. (1974) Biochem. Biophys. Res. Commun. 56, 689-696), specifically stabilizes the major liver isozyme of phosphofructokinase (PFK-L2) against thermal inactivation and whose level in vivo changes in parallel with and in precedence to that of the enzyme. Molecular weight determinations gave values around 3,500. Evidence for the peptide nature of the factor includes its correspondence with ninhydrin-positive material on gel filtration and paper electrophoresis and its susceptibility to pronase. Electrophoretic behavior indicated at least one free amino group and several carboxyl groups. Amino acid analysis of the peptide yielded only glutamate, glycine, and half-cystine, in equimolar amounts. However, neither GSH nor GSSG have PFK-L2-stabilizing activity. No free sulfhydryl groups were present. Chemical analysis for tryptophan was also negative. The ultraviolet spectrum confirmed the absence of aromatic amino acids. The spectrum exhibited a characteristic peptide peak at 190 nm with no absorbance beyond 240 nm. The factor is unstable to storage in the cold except in the presence of glucose or dithiothreitol. Sucrose, fructose, and GSH were ineffective in this regard. It was slowly denatured by heat or reduced pH even in the presence of glucose. The factor was induced in fasted animals specifically by glucose, of the nutrients tested, and in diabetic animals by insulin. Induction by both glucose and insulin was blocked by cycloheximide and actinomycin. The time course of the glucose induction was the more rapid of the two with a marked overshoot to 3 times normal levels at 12 hours. Increased levels of the factor preceded the increased levels of PFK-L2 brought about by glucose or insulin administration. Native PFK-L2 was inactivated by lysosomal extracts, and this inactivation was strongly inhibited by the peptide factor. These results are in accord with the proposal that the peptide plays a role in regulating PFK-L2 turnover in vivo. The factor also activated the phosphofructokinase-catalyzed reaction by promoting fructose-6-P binding. This effect is analogous to that of AMP on the kinetics of the reaction; however, the factor effect was additive to that of AMP, and the factor did not reverse inhibition by excess ATP as does AMP. We postulate that the stabilizing factor affects an equilibrium between PFK-L2 conformers in favor of one more resistant to lysosomal and thermal inactivation and with greater affinity for fructose-6-P.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1997214969</t>
+          <t>https://openalex.org/W1565575002</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0531-5565(67)90030-7</t>
+          <t>https://doi.org/10.1016/s0021-9258(17)33928-5</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Bartoš (1967)</t>
+          <t>Nowak (1976)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Changes in swelling and solubility of tendon fibres collagen (rats of different age) stored in different temperatures in vitro</t>
+          <t>Conformational changes required for pyruvate kinase activity as modulated by monovalent cations.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Collagen of tendon fibres taken from male rat tails of different ages and stored dry in vitro is subject to physicochemical changes, like these which are characteristic of collagen ageing in vivo. Changes are found both in swelling and in solubility. Within 17 weeks of storing tendon fibre collagen changes into the insoluble state and its swelling is minimal. The rate of ageing in vitro depends on the temperature of surroundings. Tendon fibres stored in our experiment at −8°C show comparatively small changes as compared with the fresh ones. The most rapid change is found in collagen of fibres stored at 20°C (room temperature). The interpretation of these changes in the structural stability of collagen ageing in vitro is discussed. In vitro, le collagène fibres tendineuses prélevées sur les queues des rats-mâles subit des changements physicaux et chimiques pareil à ceux qui sont typiques pour le collagène vieillissant in vivo: ce sont son aptitude de se renfler et sa solubilité qui se changent. Pendant la conservation durant 17 semaines, le collagène des fibres tendineuses devient insoluble; son aptitude de se renfler elle-même est aussi minime. La vitesse de ce processus de vieillisment in vitro dépend de la température de milieu. Dans nos expériences, les changements des fibres tendineuses sous la température de −8°C ne différaient pas relativement beaucoup de ceux des fibres fraîches. C'est le collagène des fibres conservées dans le milieu de la température du laboratoire +20°C qui se change le plus vite. L'auteur discute l'interprétation de ces changements de la stabilité structurale du collagène vieillissant in vitro. Das in-vitro-Sehnenfaserkollagen vom Schwanz unterschiedlich alter Rattenmännchen erfährt physikalisch-chemische Änderungen, die für das Kollagen im Laufe der Alterung in vivo charakteristisch sind. Es ändert sich nämlich die Quellfähigkeit sowie die Löslichkeit des Kollagens. Während einer 17 Wochen dauernden Lagerung übergeht das Sehnenfaserkollagen in einen unlöslichen Zustand und auch seine Quellfähigkeit ist minimal. Die Geschwindigkeit des Alterungsprozesses in vitro ist von der Umgebungstemperatur abhängig. Gegenüber den frischen Sehnenfasern weisen die in unserem Versuch bei einer Temperatur von −8°C gelagerten Muskelfasern verhältnismäßig geringe Änderungen auf; am raschesten ändert sich das Kollagen der unter 20°C (Raumtemperatur) gelagerten Sehnenfasern. Verf. diskutiert die Erklärung dieser Änderungen der strukturellen Stabilität des in vitro alternden Kollagens. Кoллaгeн cyчo/qzйльныч вoлoкoн и/qz чвocтa кpыc-caмцoв pa/qzлйчнoгo вo/qzpacтa пoдвepгaeтcя in vitro тaкйм фй/qzйкo-чймйчecкйм й/qzмeнeнйям, кqtopыe чapaктepны для кoллaгeнa б пpoцecce cтapeнйя in vitro: мeняQuтcя eгo cпocoбнocть к нaбyчaнйю, тaк й eгo pacтвopимocтя; я тeчeнйe 17-нeдeльнoгo чpaнeнйя кoллaгeн cyoчo/qzйлныч вoлoкoн пepeчoдйт в нepacтвopймoe cocтoянйe, й eгo нqбyчaeмocть тaк/qze cтaнoвйтcя минимaльнoй. Cкopocть пoцecca cтapeния in vitro /qzaвиcит oт тeмпepaтypы cpeды. B нaщич oпытaч cyчo/qzильныe бoлoкнa, чpaнивщиecя нpи −8°C, oбнapy/qzибaли cpaвнитeльнo нeбoльщиe и/qzмeнeния пo cpaвнeнию co cвe/qzими вoлoкнaми. Haибoлee быcтpo мeняeтcя кoллaгeн вoлoкoн, чpaнимыч пoи кoмнaтнoй тeмпepaтype (20°C). Oбcy/qzдaeтcя интepпpeтaция /qzтич и/qzмeнeий в ycтoйчивocти cтpyктypы кoллaгeнa, cтapeющeгo in vitro.</t>
+          <t>The interaction of a series of alkylamines with muscle pyruvate kinase was investigated by kinetic and physical studies in order to understand the mechanisms by which certain monovalent cations can activate the enzyme and to define several of the important conformational changes necessary for catalytic activity. Monomethylammonium ion interacts with pyruvate kinase to activate the enzyme. Dimethyland trimethylammonium ions do not activate, but are competitive inhibitors against activating cations. Tetramethylammonium ion neither activates nor inhibits pyruvate kinase activity. When the enzyme is in the presence of monomethylammonium ion or dimethylammonium ion, a conformational change is observed by ultraviolet difference spectroscopy. This conformational change is similar to that observed with other activating cations and appears to be a necessary but no sufficient conformational change in the formation of an active complex. The interaction of the substrate phosphoenolpyruvate with the pyruvate kinase-Mn2+ complex in the presence of these cations was studied by water proton relaxation rate measurements. The affinity of the enzyme-Mn2+ complex for phosphoenolpyruvate is decreased by a factor of 5 in the presence of any of the alkylamines compared to the affinity measured in the presence of K+ or NH4+. No change in the Km of phosphoenolpyruvate is observed however when it is measured in the presence of monomethylammonium ion, suggesting that the decrease in affinity for the substrate is not the reason for lack of enzymic activity. The conformation of the ternary enzyme-Mn2+-phosphoenolpyruvate complex about the bound Mn2+, as reflected by the enhancement values (epsilont) measured, differs depending upon the nature of the monovalent cation. The epsilon t values measured in the presence of the alkylamines are larger (epsilont - 5.7 +/- 0.2) than those measured in the presence of K+ or NH4+ (epsilont = 1.9 +/- 0.1).</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4205934299</t>
+          <t>https://openalex.org/W1569445790</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4102/abc.v9i2.1604</t>
+          <t>https://doi.org/10.1128/jvi.18.2.401-410.1976</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Obermeyer (1967)</t>
+          <t>Fan &amp; Mueller‐Lantzsch (1976)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>LILIACEAE</t>
+          <t>RNA metabolism of murine leukemia virus. III. Identification and quantitation of endogenous virus-specific mRNA in the uninfected BALB/c cell line JLS-V9</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Bothalia: African Biodiveristy &amp; Conservation is published by AOSIS for the South African National Biodiversity Institute (SANBI) and aims to disseminate knowledge, information and innovative approaches that promote and enhanve the wise use and management of biodiversity in order to sustain the systems and species that support and benefit the people of Africa. The journal was previously publishd as Bothalia, and had served the South African botanical community since 1921. However the expande mandate of SANBI necessitated a broader scope for the journal, and in 2017, the subtitle, African Biodiversity &amp; Conservation was added to reflect this change.</t>
+          <t>mRNA containing type C endogenous virus-specific sequences was indentified in JLS-V9 cells (an uninfected BALB/c-derived cell line) by annealing extracted RNA with 3H-labeled virus-specific DNA. The criterion for virus-specific RNA being mRNA was that it co-sedimented with polyribosomes in a sucrose gradient and that it changed to lower sedimentation value if polyribosomes were disagregated prior to centrifugation. It was not possible to identify virus-specific mRNA in unfractionated cytoplasm from JLS-V9 cells since large amounts of virus-specific ribonucleoprotein which was not mRNA had sedimentation values similar to polyribosomes and obscured the analysis. Virus-specific mRNA could be readily identified in polyribosomes which had been purified through a step gradient of 1 and 2 M sucrose, and consisted of two species with sedimentation values of 38S and 27S. The amount of virus-specific RNA in different JLS-V9 cell fractions was quantitated in comparison to cell fractions obtained from M-MuLV clone no. 1 cells (a line of NIH 3T3 cells producing Moloney murine leukemia virus). Approximately 40% of the total virus-specific mRNA was recovered in the purified polyribosomes in M-MuLV no. 1 cells. The amount of virus-specific RNA on polyribosomes appeared to be quite similar for JLS-V9 cells and M-MuLV clone no.1 cells .In contrast, the level of virus-specific protein in JLS-V9 cells (as monitored by radioimmunoassay of the internal structural protein p30) was less than 2% the level in the M-MuLV clone no. 1 cells.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2036303065</t>
+          <t>https://openalex.org/W1578962751</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0012-8252(67)90169-9</t>
+          <t>https://doi.org/10.1016/s0021-9673(00)89745-9</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Manten (1967)</t>
+          <t>Bonilla &amp; Rammel (1976)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>The 1967 production of geological books</t>
+          <t>Comparative biochemistry and pharmacology of salivary gland secretions</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>The brachypterous carabid beetle Carabus auratus was chosen as an indicator organism for analysing the relationship between landscape composition and population genetic structure (AFLP) in an agricultural region. We selected eight landscape sections with different landscape composition. The landscapes were analysed in 7 radii ranging from 500 to 2000 m (step size: 250 m). It is shown that the population as a whole exhibits a moderate genetic differentiation with geographically restricted genetic exchange. Genetic diversity of local populations is high. It is positively associated with increasing numbers of migrants estimated from the molecular data. This indicates that even widespread species with a presumed low dispersal capacity may exhibit high levels of genetic exchange at larger spatial scales. The availability of grassland within the landscape sections enhanced genetic diversity of local populations at larger spatial scales and explained over 50% of the observed genetic diversity. Thus, the unexpectedly high genetic exchange of C. auratus critically depends on the availability of suitable landscape features. Our results emphasise the need to take into account the adverse effects of ongoing changes in landscape composition on the genetic diversity even of widespread species when aiming at conserving genetic and functional diversity in agricultural landscapes.Die brachyptere Laufkäferart Carabus auratus diente als Indikatororganismus für die Analyse des Einflusses der Landschaftszusammensetzung auf die genetische Struktur von Populationen (AFLP). Es wurden acht Landschaftsausschnitte mit unterschiedlicher Landnutzungszusammensetzung ausgewählt. Jeder Landschaftsausschnitt wurde in sieben verschiedenen Radien analysiert (500 bis 2000 m, Schrittgröße: 250 m). Unsere Ergebnisse zeigen, dass die Population insgesamt eine moderate genetische Differenzierung aufweist, die mit zunehmender geographischer Distanz zunimmt. Die genetische Diversität lokaler Populationen ist hoch und positiv mit der berechneten Anzahl migrierender Individuen korreliert. Dies zeigt, dass auch weit verbreitete und scheinbar wenig mobile Arten einen hohen Genaustausch auf Landschaftsebene haben können. Die Verfügbarkeit von Grünland im Landschaftsausschnitt erhöhte die genetische Diversität der lokalen Population und erklärte über 50% der beobachteten genetischen Diversität. Der unerwartet hohe Genaustausch von C. auratus hängt also entscheidend von der Verfügbarkeit geeigneter Landschaftskomponenten ab. Konzepte zum Erhalt der genetischen und funktionellen Diversität in Agrarlandschaften sollten also auch den Einfluss des Nutzungswandels auf weit verbreitete Arten berücksichtigen.</t>
+          <t>A protein has been isolated from the venom of the western diamondback rattlesnake (Crotalus atrox) which induces acute myocardial depression when administered to experimental animals. Purification was achieved by gel filtration on Sephadex G-100, DEAE- and CM-cellulose ion-exchange chromatography, ultra-filtration, and adsorption chromatography on hydroxyapatite. Amino acid analysis of the highly purified protein indicated N-terminal isoleucine and C-terminal tyrosine residues, and the absence of free sulfhydryl groups. Rabbits were immunized against the myocardial depressor protein (MDP) and a highly specific antiserum prepared which made it possible to study other snake venoms for the presence or absence of MDP. All of the North American Crotalid species of snakes contain MDP in varying degrees of concentration, but none of the Asiatic snake venoms tested reacted with the antiserum to the myocardial depressor protein. Intravenous administration of MDP to experimental animals (dogs, cats) produces an immediate and profound decrease in the cardiac output, the left ventricular systolic and mean pressures, the velocity of shortening of the contractile element, the systemic arterial pressure and an elevation in the left ventricular end-diastolic and pulmonary wedge pressures. These hemodynamic changes indicate that MDP administration induces an acute myocardial failure which is does dependent. The potential use of this protein for the reproducible causation of left ventricular failure, obviating the need for the more commonly used surgical ligation of the coronary arteries, warrants a full investigation into its structure, active site and its mechanism of action on the myocardial cell.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2009093722</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/j.1749-6632.1967.tb50266.x</t>
+          <t>https://openalex.org/W1582547010</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Parr (1967)</t>
+          <t>Owen (1976)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>INFORMATION ON THOROTRAST DOSIMETRY SUPPLIED BY THE RADIOCHEMICAL ANALYSIS OF TISSUE SPECIMENS</t>
+          <t>Factors affecting the distribution of geese in the British Isles</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Annals of the New York Academy of SciencesVolume 145, Issue 3 p. 644-653 INFORMATION ON THOROTRAST DOSIMETRY SUPPLIED BY THE RADIOCHEMICAL ANALYSIS OF TISSUE SPECIMENS Robert M. Parr, Robert M. Parr International Atomic Energy Agency, Vienna, AustriaSearch for more papers by this author Robert M. Parr, Robert M. Parr International Atomic Energy Agency, Vienna, AustriaSearch for more papers by this author First published: December 1967 https://doi.org/10.1111/j.1749-6632.1967.tb50266.xCitations: 3AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL References 1 Cohn, S. H., E. A. Gusmano &amp; J. S. Robertson. 1967. Calculation of radiation dose. from thorotrast using whole-body gamma-ray spectral data. This monograph. 2 May, H. A., L. D. Marinelli &amp; J. B. Corcoran. 1967. In-vivo counting of thorium dioxide patients: special techniques and preliminary results. This monograph. 3 Hursh, J. B. 1967. Loss of thorium daughter by thorium dioxide patients. This monograph. 4 Dudley, R. A. 1967. A survey of radiation dosimetry in thorium dioxide cases. This monograph. 5 Rotblat, J. &amp; G. B. Ward. 1956. Analysis of the radioactive content of tissues by α-track autoradiography. Phys. Med. Biol. 1(1): 57– 70. 6 Kaul, A. 1964. Gamma-spectrometric and histo-autoradiographic investigations of the distribution and excretion of thorium and its daughters in thorotrast patients. I.A.E.A. Symposium on the Assessment of Radioactive Body Burdens in Man 2: 445– 469. 7 Parr, R. M. 1965. Unscrambling of gamma-ray spectra in the study of thorium metabolism. I.A.E.A. Symposium on Radioisotope Sample Measurement Techniques in Medicine and Biology: 79– 91. 8 Oberhausen, E., H. Muth &amp; R. Grillmaier. 1964. Measurements and clinical findings on thorotrast deposits in the kidney. I.A.E.A. Symposium on the Assessment of Radioactive Body Burdens in Man 2: 491– 502. 9 Hursh, J. B., L. T. Steadman, W. B. Looney &amp; M. Colodzin. 1957. The excretion of thorium and thorium daughters after thorotrast administration. Acta Radiol. 47: 481– 498. 10 Rundo, J. 1957. The determination of the distribution of internally deposited thorium by means of studies with a realistic phantom. Acta Radiol. 47: 65– 77. 11 Parr, R. M., et al. Paper in preparation. 12 Rankin, J. G., M. R. Playoust &amp; R. W. Beal. 1961. Significance of alterations in extraction and distribution of colloidal chromic phosphate in patients with liver disease. J. Lab. Clin. Med. 58(6): 920– 926. 13 Rotblat, J. &amp; G. B. Ward. 1953. Tissue dosage from thorotrast in the body. Nature 172(4382): 769– 770. 14 Kaul, A. 1965. Ph.D. Thesis, Frankfurt am Main. 15 Marinelli, L. D. &amp; H. F. Lucas. 1962. Translocation of thorium daughters to bone. Some Aspects of Internal Irradiation: 499– 515. Pergamon Press. 16 Hursh, J. B. 1965. Body content of thorium 232 daughters after thorotrast injection. Brit. J. Radiol. 38: 776– 784. 17 Grillmaier, R. 1964. Ph.D. Thesis, Hamburg/Saar. 18 Reynolds, J. C., P. F. Gustafson &amp; L. D. Marinelli. 1957. Retention and elimination of radium isotopes produced by the decay of thorium parents within the body: calculations and comparison with experimental findings. Argonne National Laboratory Report, ANL-5689: 1– 43. 19 Recommendations of the International Commission on Radiological Protection, ICRP publication 2. 1959. Pergamon Press. 20 Tange, J. D., N. J. Hayward &amp; D. A. Bremner. 1965. Renal lesions in experimental plumbism and their clinical implications. Austral. Ann. Med. 14: 49– 56. 21 Gryboski, J. D. &amp; S. P. Gotoff. 1961. Bismuth nephrotoxicity: report of a case. New Eng. J. Med. 265(26): 1289– 1291. 22 Schroeder, H. A., J. J. Balassa &amp; W. H. Vinton. 1965. Chromium, cadmium and lead in rats: effects on life span, tumors and tissue levels. J. Nutr. 86(1): 51– 66. 23 Muth, H. &amp; R. Grillmaier. 1965. Doses from thoron and primary thorotrast deposits in the lungs. I.A.E.A. panel meeting on dosimetry and toxicity of thorotrast. Vienna . 24 Durbin, P. W. 1960. Metabolic characteristics within a chemical family. Health Phys. 2: 225– 238. 25 Parr, R. M. 1965. The radioactivity of thorotrast and its in vitro distribution between the various physical phases. I.A.E.A. panel meeting of dosimetry and toxicity of thorotrast. Vienna . 26 Bensted, J. P. M. 1967. Experimental studies in mice on the late effects of radioactive and nonradioactive contrast media. This monograph. Citing Literature Volume145, Issue3Distribution, Retnetion, and Late Effects of Thorium DioxideDecember 1967Pages 644-653 ReferencesRelatedInformation</t>
+          <t>From examination of historical evidence and deduction from the present distribution and habits of British geese, an attempt is made to picture their distribution before deforestation A flow diagram is presented which indicates the relationships between the various factors affecting distribution. The major factors are the traditional diet of the species and the availability of habitat and foods. Independent variations in the condition and geographical position of the breeding grounds are important for some species. There seems no likelihood of imminent distributional shifts, but continuing increase in inland arable feeding in all British geese may result in competition between species if attachments to traditional areas break down. Conservation should strive to maintain populations on traditional habitats, as well as protecting the largest possible number of individuals.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1996015140</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1306/5d25b805-16c1-11d7-8645000102c1865d</t>
+          <t>https://openalex.org/W1593389081</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Beall (1967)</t>
+          <t>Webb &amp; Dodd (1976)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Sedimentary Processes Operative Along Western Louisiana Shoreline: ABSTRACT</t>
+          <t>Vegetation establishment and shoreline stabilization : Galveston Bay, Texas</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>The western Louisiana shoreline represents the complex interaction of low-energy wave turbulence along a broad, shallow shelf, a small tidal range, and a varying of very fine sand and mud. These are in turn modified by shoreline orientation and complex offshore bathymetry, proximity to brackish estuary tidal efflux, and varying nearshore salinity. Three dominant types of strand-line sedimentation have been chosen as typical of the modern shoreline in the study area. Mud flats, both tidal and subaqueous, form one type. Another dominant type of strand-line deposit is described as a sand-rich, normal beach. Facies relations of the normal beach are similar to the shoreface sequence described for the tidal mud-flat setting. Intermediate between mud flats and normal beaches is a transitional type of strand line consisting of thin swash-zone and breaker-bar deposits resting on eroded, earlier-formed mud-flat and marsh sediments. Mud-flat progradation is initiated by establishment of a shallow-water breaker-bar system, providing a protected site for subaqueous deposition of mud. As sedimentation raises the level of the mud flat to an intertidal level, sand-rich breaker-bars of low amplitude slowly migrate shoreward across the flat. The flat ultimately becomes intertidal. Thin washover-fan sands associated with this setting constitute one form of strand-line ridge found in the Recent chenier plain. Shoreface sedimentation in the normal beach differs from that of the mud flat in having fewer but considerably larger breaker-bars and a rapid shoreward transition into swash-zone, berm, and thick washover-fan sands. The pronounced increase in thickness of washover-fan sands in the normal setting provides a second distinct type of strand-line ridge or chenier. The intermediate nature of the transitional beach setting is emphasized as a temporal, highly dynamic phase in strand-line development. Although apparently retrogradational, it nevertheless represents a dominantly progradational strand line which builds seaward at an intermediate rate compared with quickly prograding mud flats and relatively slowly prograding normal, sand-rich beaches. A classification of progradational shoreline types based on energy of coastal versus sediment supply (e.g. Bernard, 1965) can be used to typify rates of progradation in the study area. Energy of coastal processes include (1) deep-water wave period, (2) orientation of shoreline with respect to prevailing wave front, (3) width of inner shelf, and (4) tidal range. Sediment includes (1) fresh-water efflux and salinity variation, (2) suspended mud supply, and (3) sand supply. End_of_Article - Last_Page 454------------</t>
+          <t>Abstract : Adaptation of species for shoreline stabilization, use of wave-stilling devices, and effects of fertilizers were studies along the north shore of East Bay in Texas. Water salinity varied throughout the study with rainfall and evaporation but never exceeded 18,500 parts per million. Soil texture was classified as a loam or clay-loam. Soil pH, salinity, and cation concentrations fluctuated with bay water salinity, rainfall, evaporation, and location in relation to tidal zones. Giant reed and gulf cordgrass were best adapted for dry areas. Smooth cordgrass was the species best adapted in areas exposed to tidal action. The survival and growth of this species appeared essential in stabilizing the eroding upper Texas coast bay shoreline. Wave-stilling devices of hay bales were not able to withstand high-wave energy. Tires on cables attached to posts lost their effectiveness as they sank into the mud. Nevertheless, smooth cordgrass survival was significantly greater behind these devices. Mechanical planting behind a tractor was accomplished at low tides. Nitrogen and phosphorus fertilizers did not significantly improve survival or reproduction in transplanted areas, but were significant in natural smooth cordgrass stands for reproduction and herbage production. (Author)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2621193725</t>
+          <t>https://openalex.org/W1617336596</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0079-6603(08)60073-2</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Turner (1967)</t>
+          <t>Datta &amp; Niyogi (1976)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Ecological problems of cattle ranching in Combretum savanna woodland in Uganda</t>
+          <t>Biochemistry and Physiology of Bacteriol Ribonucleases</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>An investigation of the Bunyoro Ranching Scheme, undertaken between 1960 and 1962, has provided a preliminary study of the ecological problems involved in ranch management of moist savanna woodland areas of Uganda. A 100 square mile cattle ranch was established in 1956 by Agricultural Enterprises Ltd., a subsidiary of the Uganda Development Corporation. Its inauguration followed two years after the apparent eradication of tsetse from the area and aimed at developing a relatively unpopulated and unproductive region. By 1960 game had been drastically reduced in the interests of tsetse fly control and the number of cattle increased from a few to approximately 4,500. Despite many problems the area now supports a more permanent and dense population of cattle than at any time earlier in the century, and probably more than in earlier centuries when it formed part of the ranchlands of the royal herds of the Mukama of Bunyoro. The overall picture in recent years is one of change from the widespread, varied and less intensive grazing and trampling of game to the more local, intensive and uniform effect of the domestic animal. This has had an immediate impact on the soil and vegetation, the practical implications of which will be discussed.</t>
+          <t>This chapter presents the information presently available regarding the various ribonucleases elaborated by bacteria. The chapter focuses mainly to a single species, Escherichia coli, simply because most systematic studies have been carried out on this organism. The increasing number of enzymes whose functions are either to process or degrade polyribonucleotide chains poses a challenge to biochemists and molecular biologists in this area. Most of the knowledge on the mechanism of action of the enzymes comes from studies that involve the isolation of a particular enzyme and studies of its action with specific substrates in vitro, with subsequent extrapolation of these results to in vivo conditions. While progress is being made at an accelerated pace, the answers to many questions of the actual in vivo mechanisms still remain unclear. Recently, through the use of both genetic and biochemical approaches, and in vitro processing systems, rapid progress has been made in elucidating individual steps involved in RNA maturation in a wide variety of systems.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2160634904</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1306/5d25c09d-16c1-11d7-8645000102c1865d</t>
+          <t>https://openalex.org/W1881523902</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Yeats et al. (1967)</t>
+          <t>Poag &amp; Valentine (1976)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>K-Ar Mineral Age of Ash Bed in Pico Formation, Ventura Basin, California: ABSTRACT</t>
+          <t>Biostratigraphy and Ecostratigraphy of the Pleistocene Basin Texas-Louisiana Continental Shelf</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>A widespread volcanic ash layer, 1-4 inches thick, in the Pliocene Pico Formation (Wheelerian microfaunal stage) has been dated radiometrically. Twenty-five-pound samples of ash were taken from each of two localities. Each sample yielded about 4 grams of sanidine and 1 gram of biotite. These minerals are unaltered and show euhedral grain boundaries; some sanidine crystals have rims of glass. The glass matrix, comprising 95 per cent of the sample, is isotropic and apparently unaltered. Radiometric ages follow. Table All ages were run at Shell Development Company except the biotite from Ventura River, which was run by John Obradovitch, United States Geological Survey, Denver, Colorado. The mineral ages are consistent within the range 8.4-9.7 m.y. The glass ages are discordant, apparently because of argon leakage; the glass is therefore useless in radiometric dating despite its unaltered appearance. The upper part of the Pico is divided into two molluscan zones, a lower warm-water zone, and an upper zone containing a molluscan assemblage resembling that living today in Pacific Northwest waters. The temperature shift from warm to cold previously was correlated with the onset of Pleistocene glaciation and, because beds containing the cold-water mollusks are folded, the age of folding (Coast Range orogeny) traditionally has been considered to be intra-Pleistocene. R. F. Meade has shown that the base of the cold-water molluscan zone is just below the ash bed near South Mountain; it is possible that the molluscan shift is not caused by glaciation but by a pre-Pleistocene change in oceanic current patterns accompanying a general late Tertiary cooling. The new radiometric age and the invalidation by Durham, Jahns, and Savage (1954) of mammalian evidence for a Pleistocene age of folding suggest that both the molluscan temperature shift and Coast Range orogeny occurred in Pliocene time. End_of_Article - Last_Page 486------------</t>
+          <t>ABSTRACT The major basin for Pleistocene marine sediments of the northern Gulf Coast lies beneath the outer edge of the present Texas-Louisiana Continental Shelf. The depocenter contains more than 4,000 m (&gt;13,000 ft) of alternating sand and shale deposits. Wells drilled in the depocenter penetrate at least seven major cyles of transgressive-regressive strata, which are related to eustatic changes in sea level. Nineteen new biostratigraphic and ecostratigraphic foraminiferal zones provide closely spaced correlations in facies that range from coastal-plain sands to continental slope shales. These correlations show that wells along the margin of the basin contain erosional unconformities that formed during regressions. Planktic foraminifers and calcareous nannofossils define the transition between Pliocene and Pleistocene sediments and allow correlation with the Pleistocene stratotype in Italy and with paleomagnetically dated deep-sea cores. Detailed analyses and illustrations are provided for foraminifera and calcareous nannofossils observed in the Phillips Continental Offshore Stratigraphic Test (COST) No. 1 well, drilled in November, 1974, off Brownsville, Texas.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4241571975</t>
+          <t>https://openalex.org/W1964326155</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0022-1694(67)80021-0</t>
+          <t>https://doi.org/10.1098/rstb.1976.0076</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>NA (1967)</t>
+          <t>Hutchinson (1976)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>James J. Geraghty: 7800 Years of water supply underground</t>
+          <t>India: local and introduced crops</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>A diatom-based reconstruction of surface-water paleoclimatic and paleoceanographic changes in Ameralik Fjord, southwest Greenland, is presented for the Holocene interval 8800 to 3600 cal yrs B.P. A minor episode of cold surface-water conditions is found at ca. 8000–7800 cal yrs B.P. This may be due to the local conditions in the fjord and linked to the culmination of a strong melt-water outflow rather than reflecting the widespread North Atlantic (8.2 ka) cooling event. Warming of surface-water condition from 7800 to 7100 cal yrs B.P., probably corresponding to the early and warmest part of the Holocene Thermal Maximum (HTM) in this region, is reflected in the diatom assemblages and supported by other proxies. The West Greenland Current (WGC) influences the fjord strongly during this interval, indicating enhanced advection of Atlantic water-masses derived from the Irminger Current (IC). A major sedimentary change with a hiatus between 6800 and 4400 cal yrs B.P. prevents a reconstruction of mid-Holocene paleoceanograpy. The final and less prominent part of the HTM is found after 4400 cal yrs B.P. Previous studies from the same site have shown this final stage of the HTM to end at 3200 cal yrs B.P. with the onset of the ‘Neoglaciation’. Our study provides further evidence that the marine sedimentary record from West Greenland fjords yields paleoenvironmental information reflecting a significant link between local and large scale North Atlantic oceanographic and climatic changes.</t>
+          <t>The oldest agriculture so far demonstrated archaeologically in India is that of the Harappan civilization, beginning in approximately 2500 B.C.; the Harappans had an advanced farming technology and a range of crops. The earliest archaeological records are of species of west Asian origin, found in northwest India and Pakistan; locally domesticated species followed and cereal crops of African origin occurred remarkably early. Southeast Asian crops leave no archaeological evidence, but there are biological indications of substantial antiquity in India; crops of American origin are recent acquisitions. Indian crops provide material for a study of the rate of genetic change under domestication. Native species, long domesticated and in contact with their wild relatives, are compared with domesticates introduced from outside, and separated from their parent species at different points in time. Seed propagated species are compared with vegetatively propagated crops and, among the latter, evolutionary change is demonstrated in spite of greatly restricted sexual reproduction.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1745263205</t>
+          <t>https://openalex.org/W1968590126</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/j.1751-1097.1976.tb06816.x</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Anderson (1967)</t>
+          <t>Rupert &amp; To (1976)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Gravity, Deformation and the Earth's Crust, as Studied by Centrifuged Models [Book Review]</t>
+          <t>SUBSTRATE DEPENDENCE OF THE ACTION SPECTRUM FOR PHOTOENZYMATIC REPAIR OF DNA</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>This is a delightful and timely little_x000D_
-book that cannot help stimulating a_x000D_
-wide range of earth scientists. The_x000D_
-author, who is a leader in the field_x000D_
-of model simulation of tectonic phenomena,_x000D_
-uses a large-capacity centrifuge_x000D_
-to duplicate in a scale model the_x000D_
-effects of gravity in the earth. By_x000D_
-spinning up appropriately scaled models_x000D_
-which consist initially of flat-lying_x000D_
-but unstably stratified layers, he is able_x000D_
-to study the evolution of salt domes,_x000D_
-batholiths, the rise of magma, and the_x000D_
-sinking of heavy masses. In the process,_x000D_
-he generates many secondary effects_x000D_
-such as buckling, rifting, overthrusting,_x000D_
-rim synclines, doming, transform_x000D_
-faulting, and many more that are_x000D_
-remarkably similar to geologic phenomena._x000D_
-The blow recently dealt to vertical_x000D_
-tectonics by ocean floor spreading_x000D_
-could tend to make one forget the important_x000D_
-role of gravity and buoyancy_x000D_
-in worldwide tectonics. Ramberg stresses_x000D_
-the importance of heterogeneous_x000D_
-convection, where melting or other_x000D_
-phase changes, rather than thermal expansion,_x000D_
-provide the buoyancy necessary_x000D_
-to initiate the motion. The reviewer_x000D_
-agrees with Ramberg that the density_x000D_
-reduction caused by partial melting in_x000D_
-the low-velocity zone of the upper mantle_x000D_
-has profound tectonic implications.</t>
+          <t>Abstract— The absolute action spectrum has been determined for photoenzymatic splitting of cyclobutadipyrimidines (“pyrimidine dimers”) from natural DNA, and from the synthetic polydeoxyribonucleotides poly(dA)·poly(dT) (forming only cyclobutadithymine) and poly(dG)·poly(dC) (forming only cyclobutadicytosine). These action spectra differ strikingly from each other, even when using the same enzyme preparations. On the other hand, the action spectrum for splitting cyclobutadithymine in natural DNA containing “dimers” of only this one type closely resembles the action spectrum for splitting the total mixture of “dimer” types in natural DNA, and is entirely different from the spectrum for splitting of the same photoproduct from poly(dA)·poly(dT). These results mean that the action spectrum is not simply the absorption spectrum of a chromophore carried by the photoreactivating enzyme, nor is it solely determined by the nature of the substrate photoproduct. It is at least partly determined by the over‐all polynueleotide structure (viz. exact helical dimensions, pattern of neighboring bases to the “dimers,” or both), affecting a ground state interaction between the enzyme and substrate in the enzyme‐substrate complex.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1522962489</t>
+          <t>https://openalex.org/W1969188718</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1104/pp.58.5.631</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Crooker et al. (1967)</t>
+          <t>Rhodes &amp; Matsuda (1976)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>FATIGUE CRACK PROPAGATION AND FRACTURE STUDIES OF A PRESSURE VESSEL STEEL TEMPER EMBRITTLED TO SIMULATE IRRADIATION DAMAGE.</t>
+          <t>Water Stress, Rapid Polyribosome Reductions and Growth</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Abstract : Fatigue crack propagation tests were conducted using plate bend specimens machined from shell material of the PM-2A half-scale model pressure vessel. The material is a Cr-Mo-V rotor steel, temper embrittled to represent the irradiated shell of the PM-2A reactor vessel. The fatigue tests were conducted in a room-air environment at 80 F, which is 160 F below the NDT (nil-ductility transition) temperature for this steel. Fatigue crack growth rates were correlated with total strain range, and were found to be similar to fatigue crack growth rates in other structural steels which possess comparable yield strength levels. Fracture occurred in the plate bend specimens of the test material during fatigue cycling. This represents a significant departure from the behavior of previously studied structural steels, and is attributed to the very high NDT temperature of the test material. An analysis of the fractures using an approximate solution for the stress-intensity factor, K, gave good agreement with previous plane strain fracture toughness measurements on the test material. (Author)</t>
+          <t>Measurements of the water status of various plant tissues exposed to differing levels of salts for 1 hour were made using the recently developed Campbell J-14 press (Logan, Utah). Values obtained with the press were found to correlate well with estimates of relative water content, and experiments with 3-day-old pumpkin seedlings showed that detectable changes in press values of cotyledon tissues could be obtained within 5 minutes following salt- or desiccation-induced stress.Polyribosome levels were measured in tissues from various plant species following short duration water stress. A small reduction in polyribosome percentage was obtained in cotyledons of 3-day-old pumpkin seedlings which were exposed to an osmotic potential (NaCl) of -4 bar for 10 minutes, but more pronounced changes were found after 30 minutes of stress. Shoot tissues of peas, barley, wheat, and safflower following 20- or 30-minute salt- or desiccation-induced stress yielded extracts with reduced polyribosome levels; however, 30 minutes of exposure of cotton and pumpkin seedlings to -6 bars did not result in altered polyribosome percentage of extracts from roots. Studies using shoot tissues from pumpkins and peas showed that polyribosome percentages and growth rates of both plants were reduced in proportion to loss of tissue water. These plants differed in their sensitivity to stress in that polyribosome content and growth rate reductions were both nearly twice as severe per unit of water loss in peas as in pumpkins. These data along with those obtained by others suggest that growth rate reductions may be directly proportional to reductions in polyribosome levels during water stress.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2140820206</t>
+          <t>https://openalex.org/W1971900652</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/icb/16.3.469</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Hillefors (1967)</t>
+          <t>Rebhun (1976)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>DIE WURMZEITLICHEN EISBEWEGUNGEN UND DER VERLAUF DER DEGLAZIATION IM KATTEGAT UND IM SUDOSTLICHEN SKAGERRAK</t>
+          <t>Calcium, Sulfhydryls and the Mitotic Apparatus</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>In the investigated area an older icestream has come from the E. N. E., the Sweden-ice, and a younger from the N. N. W., the Kattegat-ice that has oscillated over the utmost parts of the Swedish West-Coast as the Sweden-ice melted away from the coast. The Kattegat-ice pushed probably forward as a tongue in the Deep Channel (»Djupa Rannan«) outside and parallel to the Swedish coast-line, where the water level in the Late-glacial times was about 60-80 m higher than nowadays. Judging from all facts the Kattegat-ice has been caused by a successive transition of the drainage of the inlandice. As the ice grew thinner, the ice-masses in the depressions were more vigorous relative to the ice-masses on the heights, which receded to the E. N. E. Thus, the oscillation may not indicate any deterio­ ration of the climate.</t>
+          <t>The in vivo mitotic apparatus (MA) of clam, worm and sea urchin eggs may be augmented or dispersed by application of specific antimitotic agents. Glycols, which are antimitotic at concentrations of 1–3% in sea water, cause a rapid massive increase in MA volume and retardation as seen in the polarizing microscope. Caffeine and dinitrophenol (DNP) cause a rapid disappearance of the MA by shrinkage. Glycol effects can be balanced by DNP or caffeine if the agents are applied at the proper time and concentration although normal cleavage does not ensue. Analysis of DNP and caffeine shrinkage suggests that they act indirectly by causing release of calcium from intracellular stores, calcium causing inactivation of polymerizable tubulin. DNP could cause release of calcium either from mitochondria (if egg mitochondria have a calcium uptake system) or by causing a decrease in ATP levels which would inactivate calcium uptake systems such as the Petzelt Ca+2 ATP-ase or Kinoshita Ca+2 uptake vesicles. Caffeine, while an inhibitor of the phosphodiesterase for cyclic AMP does not cause inhibition of the MA through the cyclic nucleotide. It is found that caffeine (and other methyl xanthines) cause an inhibition of glutathione reductase activity in treated eggs. It is postulated that the calcium ATP-ases in the egg may be controlled by reversible oxidation and reduction of their sulfhydryls thus regulating calcium concentration in the cytosol. The possible modes of action of this system are discussed.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2000402901</t>
+          <t>https://openalex.org/W1973423716</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00380768.1967.10431974</t>
+          <t>https://doi.org/10.1111/j.1439-0418.1976.tb04247.x</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Tan &amp; H. (1967)</t>
+          <t>Siewniak (1976)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>On the taxonomic value of soil fabric formation in red tropical soils</t>
+          <t>Zur Morphologie und Bionomie der Kiefernborkenschildlaus, Matsucoccus pini (Green) (Hom., Coccoidea: Margarodidae)1</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Abstract The micropedological approach to the study of soils has made considerable progress recently. It provides a basis for investigation of the processes of soil formation (10, 12, 1, 3, 4, 2). From micromorphological studies KUBIENA (11) came to the conclusion that soil formation probably started with the formation of a “braunlehm” (brownloam) fabric. Depending on climatic differences, characteristic changes might take place in the braunlehm fabric, which led to the development of different kind of soils. According to this hypothesis tropical soils should also be considered as transformation products of the braunlehm. Crystallization of iron oxide as goethite and haematite microcrystals in the braunlehm fabric would lead to “rotlehm” , redloam) or non-lateritic red earth formation, whereas formation of coarse crystal aggregates of goethite and haematite was considered characteristic of laterization processes.</t>
+          <t>Abstract Studies on the morphology and bionomy of the Pine Bark Scale, Matsucoccus pini (Green) (Hom., Coccoidea: Margarodidae ) Matsucoccus pini , which is reported from the German Democratic Republic, Poland and Czechoslovakia, lives in fissures of the bark on pines of at least 15 years of age. It has two complete generations. It shall be decided an full bionomical description. It is getting to fix the bisexuality of the species and also toxonomical descript of the males. Predators are of minor importance in controlling the coccid, parasites are unknown. The immature stages are parenchymbibitors. Their feeding causes brown spots in the phloem centres of an internal “isolation of the periderm”. This and other morphological alterations influence the physiological processes negatively. Therefore the author suggests, that M. pini is a common causal agent of the dying of pines. Mass attacks of the scale make at first the lower parts, later the whole three unsuitable for further development of Matsucoccus : The pine attains a “secondary coccidophobia”.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://openalex.org/W566903402</t>
+          <t>https://openalex.org/W1976448768</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0009-2614(76)80698-7</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Kondner &amp; Ho (1967)</t>
+          <t>Colson (1976)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ENERGY STORAGE AND DISSIPATION OF A NONLINEAR SOIL USING TRANSFORM TECHNIQUES OF VISCOELASTICITY</t>
+          <t>Non-BornOppenheimer coupling of phonons to the S0⇌S1 transition in crystalline benzene</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ENERGY-STORAGE AND ENERGY-DISSIPATION PROPERTIES OF A COHESIVE SOIL ARE DETERMINED FROM CREEP RESPONSE DATA USING THE ONE-SIDED FOURIER TRANSFORM AND ARE EXPRESSED IN TERMS OF THE COMPLEX COMPLIANCE AND LOSS TANGENT OF VISCOELASTICITY. THE SOIL RESPONSE IS NONLINEAR. AN APPROXIMATE METHOD OF EVALUATING THE TRANSFORMS WITH DIGITAL COMPUTER TECHNIQUE IS USED. COMPARISON OF STATIC AND DYNAMIC RESPONSE IS PRESENTED THROUGH THE TRANSFORMATION FROM THE TIME DOMAIN TO THE FREQUENCY DOMAIN. AT EACH APPLIED STRESS LEVEL, LARGE-AND SMALL-TIME PLATEAU REGIONS ARE CONNECTED WITH A TRANSITION REGION SHOWING AN INCREASE IN COMPLEX COMPLIANCE WITH DECREASE IN FREQUENCY. COMPLEX COMPLIANCE INCREASES WITH INCREASED STRESS LEVEL FOR CONSTANT FREQUENCY OR TIME. THE LOSS TANGENT VERSUS LOG OF TIME RELATION IS A SINGLE-PEAK, NONSYMMETRIC, BELLSHAPED DISTRIBUTION WHICH DECAYS FASTER AT HIGHER FREQUENCY. EXPERIMENTALISTS SEEKING MATHEMATICAL MODELS FOR REPRESENTING SOIL PROPERTIES WILL FIND PAPER OF GREAT INTEREST. /AMR/</t>
+          <t>The nature of weak electronphonon coupling in molecular crystals is discussed briefly. Experimental techniques are suggested for differentiating between linear, quadratic and vibronic HerzbergTeller or non-BornOppenheimer coupling mechanisms. The coupling of phonons to the benzene S0⇌S1 transition is examined in light of recently reported experimental results. It is found that non-BornOppenheimer vibronic coupling plays an important role in determining the intensity and structure of the observed phonon sidebands.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2620687263</t>
+          <t>https://openalex.org/W1977128100</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0380-1330(76)72283-4</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Gough (1967)</t>
+          <t>Dell (1976)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>On the German locative: a study in symbols.</t>
+          <t>Sediment Distribution and Bottom Topography of Southeastern Lake Superior</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>The internal structure of the locative predicate-complement form-class in German is described within the framework of a generative grammar consisting of a phrase-structure (PS) component, a semantic (S) component, and a transformation (T) component. The S-component is interposed between the PS-component and the T-component. The PScomponent generates the deep internal structure of the locative form-class as a function of the metaelement irgendwo, assigning hierarchical relationships and groupings in the process. The S-component translates the irgendwo-quantified syntactic patterns of the P-marker into their corresponding semantic denotational patterns, resulting in an S-marker, and then returns the derivation to its P-marker at the level of the locative class symbols. The T-component then operates on this level, if necessary, to obtain the derived P-marker and thus the surface grammar. The metaelement irgendwo proves to be more than a syntactic filter assigning locative structure. It proves to be a semantic filter that reveals the indexical symbolic nature of the locative adverbs and their symbolic relationships to each other as well as to the locative prepositional phrase.</t>
+          <t>Sediment distribution in the complex region of troughs and shoals in southeastern Lake Superior was studied by means of echo sounding, coring and surface sediment sampling. The primary factor governing sediment type is water depth with sediment source, water movement, trough morphology and lake history superimposed upon it. Thick accumulations of fine-grained sediment are confined to the trough bottoms whereas coarser sediments occur on the sides and crests. In the southern part of the region subaqueous erosion of red tills leads to the deposition of brown sandy sediments whereas farther offshore dark gray fine-grained sediments show the influence of eroding varved clays. Current action along the south shore and along the trough bottoms produces sediment sorting even in deep water. On slopes greater than one op two degrees, fine-grained postglacial sediment is very thin or absent and lag deposits overlie glacial sediments. Evidence of ice scour indicates that modifications to sediment distribution may have occurred during the low level Houghton stage about 8000 B.P. Stratigraphic evidence suggests that the most probable origin of the complex bottom topography is erosion by moving ice.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://openalex.org/W638681650</t>
+          <t>https://openalex.org/W1979843293</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0001-6160(76)90047-x</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Laguros (1967)</t>
+          <t>Donaldson &amp; Rawlings (1976)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>THE PRESENT AND FUTURE OF SOIL STABILIZATION</t>
+          <t>The constitutional defect structure of the intermetallic compound NiGa</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>RECOGNIZED SOIL STABILIZATION TREATMENTS DISCUSSED ARE: MECHANICAL, CHEMICAL, AND ELECTROTHERMAL. STABILITY IS DEFINED IN TERMS OF COHESION AND EFFECTIVE OR INTERPARTICLE FRICTION. THE PROCESS OF STABILIZATION HAS AS ITS SCOPE THE MODIFICATION OF THESE PARAMETERS. IN MECHANICAL STABILIZATION, FINE-GRAINED SOILS ARE COMBINED TO IMPART THE DESIRABLE PROPERTIES TO THE RESULTING SOIL MASS. CHEMICAL STABILIZATION REFERS TO THE ADDITION OF HYDRATED LIME, PORTLAND CEMENT, BITUMINOUS MATERIALS, AND CHEMICALS CONTAINING LARGE ORGANIC MOLECULES. IN ELECTROTHERMAL SOLIDIFICATION, DIRECT ELECTRIC CURRENT IS USED TO DRAIN FINE-GRAINED SOILS WHICH OTHERWISE CANNOT BE DRAINED OR HIGH TEMPERATURES ARE USED TO CHANGE THE NATURE OF FINE-GRAINED SOILS. THE ROLE THAT MAY BE PLAYED BY POLYMERS IS DISCUSSED. ALL CLAYEY SOILS DO NOT RESPOND EQUALLY WELL TO A SPECIFIC STABILIZATION TREATMENT. DIFFERENCES IN MINERALOGICAL COMPOSITION, SURFACE CHARACTERISTICS, ENVIRONMENTAL EFFECTS SUCH AS PH, ABSORBED ELEMENTS, MICRON-CLAY CONTENTS WHICH DEFY GRAVITATIONAL LAW, INFLUENCE DIFFERENT STABILIZATION RESULTS. ALL SOILS DEPICTED ARE CLAY, BUT THEY DIFFER IN THEIR ACTIVITY, CATION EXCHANGE CAPACITY, AND IN PLACE PH VALUE. CONSEQUENTLY, THEIR RESPONSE TO STABILIZATION TREATMENT IS VERY DIFFERENT.</t>
+          <t>Experimental density and lattice parameter measurements have been made on the B2 compound NiGa, covering the composition range 47.2–54.6 at.% Ni. Theoretical densities were calculated for several types of constitutional defect model based on the experimentally determined lattice parameter values. A comparison of the compositional dependence of the theoretical density with the experimentally observed trend showed that the constitutional defect structure of NiGa was best represented by a model which consisted of nickel anti-structure atoms NiGa and nickel vacancies □Ni. The model predicts that these defects are present simultaneously in varying fractions in all alloy compositions throughout the phase field of the compound and that no abrupt changeover in defect type occurs at the stoichiometric composition. The compositional dependence of a theoretical lattice parameter, calculated from the defect model, was found to be in good agreement with the experimental observations, showing the proposed defect model to be self-consistent. On a effectué des mesures expérimentales de la densité et du paramètre cristallin du composé NiGa de structure B2. pour les compositions comprises entre 47,2 et 54,6 at.% Ni. On a calculé les densités théoriques pour différents modèles de défauts constitutionnels en utilisant les valeurs du paramètre cristallin déterminées expérimentalement. La comparaison des variations en fonction de la composition de la densité théorique et de la tendance expérimentale montre que la structure des défauts constitutionnels du NiGa se représente le mieux par un modèle d'atomes de nickel antistructure NiGa et de lacunes de nickel □Ni. Le modèle prévoit que ces 2 types de défauts sont présents simultanément dans des proportions variables pour toutes les compositions d'alliages de la zone monophasée du composé, et qu'il n'y a pas de changement abrupt dans la nature des défauts au passage de la composition stoechiométrique. La variation d'un paramètre cristallin théorique en fonction de la composition, calculée à l'aide du modèle des défauts constitutionnels, est en bon accord avec les observations expérimentales, ce qui montre que le modèle de défauts proposé est autocohérent. Dichte und Gitterparameter wurden an der B2 Legierung NiGa im Zusammensetzungsintervall zwischen 47,2 und 54,6 At.-% Ni gemessen. Aufbauend auf den gemessenen Werten des Gitterparameters wurden theoretische Dichten berechnet für verschiedene Modelle konstitutioneller Defekte. Die theoretische Dichte in Abhängigkeit von der Zusammensetzung zeigte beim Vergleich mit dem experimentell beobachteten Verlauf, daß die konstitutionelle Defekstruktur am besten mit einem Modell beschrieben werden konnte, welches aus Nickel-Antistrukturatomen NiGa und Nickel-Leerstellen □Ni bestand. Das Modell sagt aus, daß diese Defekte in unterschiedlichen Bruchteilen bei allen Legierungszusammensetzungen, auch im Phasengebiet der Legierung, gleichzeitig vorkommen und daß keine plötzliche Änderung im Defekttyp bei der stöchiometrischen Zusammensetzung auftritt Die aus dem Defektmodell berechnete Abhängigkeit der theoretischen Gitterparameter von der Zusammensetzung steht in guter Übereinstimmung mit den Beobachtungen; somit ist das vorgeschlagene Defektmodell selbstkonsistent.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://openalex.org/W760434452</t>
+          <t>https://openalex.org/W1987276270</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1061/jupdaj.0000053</t>
+          <t>https://doi.org/10.1016/0014-5793(76)80660-6</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Wood (1967)</t>
+          <t>Stefanini et al. (1976)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Waterfront Renewal in Metropolitan Areas</t>
+          <t>Iron binding to apoferritin: A fluorescence spectroscopy study</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Cities in the United States frequently turn their backs to the water. Many of our urban waterfronts are blighted because of age and conditions unique to their location, such as vulnerability to flooding or surface water pollution. A range of actions, from simple clean-up to full scale clearance and relocation, can be used to fight waterfront deterioration. Metropolitan and basin-wide approaches are needed because frequently an individual city cannot control what happens upstream or on the other side of a river. Federal urban renewal programs help to reduce the local cost. In a metropolitan waterfront renewal program the engineer must determine the condition of all shore line and the costs of repairing or replacing it. New uses can be found for old waterfront structures. Altering the amount of shore line; providing open space and access; reducing flood and storm damage; and renewing for navigational, waterfront industrial and recreational uses are also discussed.</t>
+          <t>Iron is stored in animal tissues in the ferric state as the micellar core of ferritin; however it appears that a prerequisite for both iron uptake and mobilization is its reduction to the ferrous state [l] . The currently accepted models of iron incorporation into apoferritin assume binding as Fe’+ and a subsequent oxidation catalysed by the protein [2]. While the catalytic action of apoferritin is well documented, no information is available regarding the metal binding step. Fluorescence spectroscopy seemed a very useful tool to investigate this aspect of the problem. In fact binding of the ferrous salt to the protein can be inferred from the quenching of the intrinsic fluorescence of apoferritin. During the course of the study information was also obtained on the structure of apoferritin and its isolated subunits with respect to the nature of the environment of the fluorescent residues.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2312915831</t>
+          <t>https://openalex.org/W1995861578</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2753/sor1061-015406010266</t>
+          <t>https://doi.org/10.1080/00288233.1976.10426761</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Todorskii &amp; Arbatov (1967)</t>
+          <t>Forbes (1976)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>A Study of Social Changes in a Rural Raion</t>
+          <t>Cobalt, copper, and zinc in yellow-hrown pumice soils under grazed, permanent pastures</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>The great changes that have taken place in the economy of Ves'egonsk Raion over 47 years are difficult to depict with figures alone. Whereas earlier there was practically no industry in this raion, it now produces industrial goods to the value of more than 314 rubles per capita per year. Sown area per capita has increased by a factor of 5 since 1916 (from 0.3 to 1.5 hectares), and since 1924 by a factor of almost 4. The sown area in flax has increased several-fold, and the yield by a factor of 1.5-2. One could also cite many other statistics showing the economic achievements of the raion under study. However, the main result consists in the fact that, in the course of 47 years, the character of the raion's economy itself has changed. Before the Revolution (and in the first years of Soviet power), Ves'egonsk Uyezd was a typical district of subsistence and semi-subsistence farming. The uyezd produced almost no commercial goods and gave nothing to the country. It also received little from other districts — some printed cotton cloth and kerosene, the simplest agricultural tools, salt, and a few other commodities, all of them in such tiny quantities that until 1918 the question of building a railroad or improving the waterways did not even seriously arise. In practical terms they were unnecessary: the peasants in any case did not have the money to buy imported goods; they ate what their own scant farms produced, and supplied the deficiency of clothing and footwear with homespun fabrics and the rope putees called chun'ia. The sole "social function" of the Ves'egonsk countryside over the course of many centuries was essentially the maintenance of the landowners (who numbered about 700 here), to whom more than half of the arable land belonged.</t>
+          <t>Abstract The 0–7.5 cm depth of soil from 29 pastures on yellow-brown pumice soils contains more H+/H2O2- and EDTA/NH4Cl-extractable Co, Cu, and Zn than the corresponding 7.5–15 cm depth. The differences in H+/H2O2-extractable quantities between the two depths ranges from. 0.1 to 2.3 ppm Co, 0.1 to 2.2 ppm Cu, and 0.5 to 9.8 ppm Zn. H+/H2O2 is known to dissolve orgamc matter, any manganese oXides, and some Al and Fe in these soils and the above increments in extractable Co, Cu, and Zn are shown to be consistent with their accumulation from fertiliser additions and plant and faecal deposition. Fertiliser addition is the major contnbutor to changes in soil Co, and Cu in plant and faecal residues is the major contributor to changes in soil Cu. For Zn, both factors make significant contributions. Laboratory experiments support the conclusion that these elements derived from fertiliser, accumulate in the surface 7.5 cm of soil. At a solution concentration of 10−5 M the percentages of divalent Co, Cu, and Zn, sorbed from 0.01M NaNO3 are greater than 90% at pH 5 to 6, which 18 the normal field pH range. The similarity of the sorption reactions of hydrolysable divalent cations is examined for Co and Cd, where the amounts sorbed at pH 3.7 are highly correlated (r = 0.97*** for 0–7.5 cm and 0.94*** for 7.5–15 cm samples) . The amounts sorbed appear to depend on the organic matter content of the soil as well as the pH, but the influence of manganese oxides is probably small.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2005183777</t>
+          <t>https://openalex.org/W1999353793</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0013-7952(67)90007-5</t>
+          <t>https://doi.org/10.1088/0022-3719/9/13/006</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Stone (1967)</t>
+          <t>Lines &amp; Eibschütz (1976)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Essays in geomorphology</t>
+          <t>Temperature dependence of the low-spin-high-spin Fe&lt;sup&gt;2+&lt;/sup&gt;energy gap in 1T-Fe&lt;sub&gt;x&lt;/sub&gt;Ta&lt;sub&gt;1-x&lt;/sub&gt;S&lt;sub&gt;2&lt;/sub&gt;</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>The morphometry of chutes (couloirs), rock funnels, and open cirques are related to the structure of dissected rock masses in the Kananaskis region of the Canadian Rocky Mountains. Data for ten morphometric variables were derived from digital elevation models of 56 open rock basins. The basins were classified structurally according to the relative orientations of bedding planes and the rock slopes. A hypothesis of no differences in morphometry among structural classes is rejected from the results of nonparametric analysis of variance and paired comparisons of rank scores. Basins on dip and overdip slopes have a distinct size, and those on anaclinal slopes have a distinct width and shape. Variation in morphometry from low compactness and area/relief (chutes) to high compactness and low area/relief (funnels) to high compactness and area/relief (open cirques) corresponds to a change in dominant structure from orthoclinal to dip-overdip to underdip to anaclinal. The dip of bedding planes relative to the slope of rockwalls controls the mode of initial displacement of joint blocks and, thereby, the spatial distribution of the retreat of rockwalls. The angle between the rock slope and the strike of dipping strata determines whether beds of differing stability form chutes and buttresses (orthoclinal slopes), or extend across rockwalls (cataclinal and anaclinal slopes) and retreat at similar rates to form funnels and open cirques. The optimal structure for large compact rock basins is anaclinal, and the least favourable is cataclinal dip-overdip slopes. Topoclimate and other geologic structures may account for variance in morphometry not explained by differences among structural classes.</t>
+          <t>Questions concerning the detailed nature of the proposed low-spin-high-spin Fe2+ transition in 1T-FexTa1-xS2 are resolved by a quantitative interpretation of the Mossbauer and magnetic susceptibility evidence. It is established that the low-spin-high-spin energy gap Eg is temperature-dependent and that this temperature dependence can be quantitatively understood in terms of a lattice vibrational modulation of crystal-field and Hund's rule energies.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4238068135</t>
+          <t>https://openalex.org/W2003017274</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1001/jama.200.11.977</t>
+          <t>https://doi.org/10.1016/0003-9861(76)90085-0</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Rubin (1967)</t>
+          <t>Petty &amp; Dutton (1976)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Current cancer concepts. Comment: the basis for selection of hormonal addition or subtraction</t>
+          <t>Properties of the flash-induced proton binding encountered in membranes of Rhodopseudomonas sphaeroides: A functional pK on the ubisemiquinone?</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>The stimulus for progressive proliferation in human breast cancer depends on the hormonal secretions which influence normal mammary growth. The alteration of the hormonal milieu is known to modify the proliferation pattern of tumor cells for varying periods of time. The difficulty is that 50% of all breast cancers are primarily hormone-independent and nonresponsive to hormone therapy, while an increasing proportion of hormone-dependent tumors develop secondary independence during their course.&lt;sup&gt;30&lt;/sup&gt;The availability of modalities for varying the hormonal environment are many and the clinician managing the patient with disseminated cancer generally follows a scheme in which he sequentially selects the addition or subtraction of hormones. Let us examine the rationale for selection and study the physiologic vs the pragmatic factors influencing our choice. The primary axiom is alteration of the existent hormone state. The choice of ablative procedures in the premenopausal woman is logical in that hormone deprivation, specifically</t>
+          <t>1. Further evidence for an intimate coupling of light-activated electron transfer to the uptake of externally located protons by Rhodopseudomonas sphaeroides chromatophores is demonstrated. The extent of external proton uptake is proportional to the state of reduction of the reaction center PP+ at the time of each flash in a train of single-turnover flashes. This is satisfied under a variety of conditions of redox potential, inhibition and added ionophore. 2. More specifically, in the presence of antimycin A, which confines electron transfer to the primary acceptor, ubiquinone, cytochrome b50 part of the cycle, the stoichiometry of electrons delivered from P to the primary acceptor and hence to ubiquinone is 1.0 ±0.1 H+e− on a single-turnover basis. The stoichiometry holds also on a multiple single-turnover basis. Since each electron transfer system is turned over once, and one electron is delivered to each primary acceptor, we postulate that the product of reduction is ubisemiquinone. 3. The rate of protonation of what we tentatively regard as ubisemiquinone is 150 μs at pH 7.0; the evidence presented indicates that there is no kinetic impediment for the protonation of the reduced ubiquinone (UQ). 4. The pK of the ubisemiquinone varies with the state of reduction of cytochrome c2 before flash activation and hence with the presence (or lifetime) of P+ after the flash. The apparent pK is at pH 8.5 at potentials such that cytochrome c2 can rapidly rereduce P+ following flash activation and at pH 7.5 when cytochrome c2 is chemically oxidized. This effect is interpreted as a charge interaction between the P+ and the solUQ·−UQ·H couple. Thus the presence of a long-lived P+ in the reaction center stabilizes the UQ·− species adjacent to the reaction center and lowers the apparent pK. Although the thermodynamic properties of the protonation reaction are altered, the rate of protonation is not affected by the presence of P+ after a flash. This and other evidence discussed suggest that after a flash the electron on the primary acceptor moves on to secondary acceptors irrespective of the state of reduction of PP+.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2109340042</t>
+          <t>https://openalex.org/W2004115844</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0022-4898(67)90151-6</t>
+          <t>https://doi.org/10.1002/pen.760160704</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>NA (1967)</t>
+          <t>Sourour &amp; Kamal (1976)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>By aerosled—winter and summer</t>
+          <t>A new apparatus to measure the thermal conductivity and diffusivity of thermoplastic and thermosetting polymers</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Abstract : In order to reduce resistance while in motion, the redan is attached to the bilge. Because of design characteristics, this amphibious aerosled is usable the year round. During winter it can skid across snow or ice, cross areas of open icy water brushwood areas. In summer it can navigate through water only 7 cm deep or across dry grassland at the rate of approximately 100 m. During spring and fall, it can navigate through thin, breaking ice. The cockpit for a crew of two and freight space is in the center section. The front section has additional freight space. An aviation type motor, M-11 FR, with slot airscrew is installed behind the cockpit. The amphibious aerosled is so designed that changing the motor from an M-11 FR to an AT-14R is easily accomplished. This is effected very simply by changing only the frame, hood and airscrew. (Author)</t>
+          <t>Abstract A new apparatus has been constructed to measure the thermal conductivity and the thermal diffusivity of reactive and nonreactive liquids and solids. The method used consists in suddenly subjecting the test specimen to a thermal flux and measuring the velocity of the heat wave across the sample. Maintaining the heat flux leads to a steady thermal gradient across the sample from which the thermal conductivity can be determined. The test duration is short relative to durations employed by existing conventional techniques and thus causes only a small thermal disturbance to the sample of the order of 1 to 2°C. Thermal properties of liquids and solids, including thermoplastics and a typical epoxy resin during cure with different equivalents of an aromatic diamine hardener have been measured near room temperature. Experimental data compare favorably with literature values for similar systems. Variations in thermal conductivity and diffusivity during cure have been obtained through a series of individual discrete measurements to cover the whole isothermal cure history. The results have been analyzed and discussed with respect to the cure characteristics of the resin and the nature of the physicochemical changes the material undergoes during cure.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2044899744</t>
+          <t>https://openalex.org/W2004261642</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/110578</t>
+          <t>https://doi.org/10.1016/0039-6028(76)90087-x</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Marcus (1967)</t>
+          <t>Agarwala &amp; Fort (1976)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Formation of Planets by Accretion of Planetesimals; Some Statistical Problems.</t>
+          <t>Nature of the stable oxide layer formed on an aluminum surface by work function measurements</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>We consider some consequences of the hypothesis that planets are formed by the accretion or accumulation of roughly lunar-sized planetesimals. Stochastic coalescence theory predicts that the frequency distribution of masses of the planetesimals is approximately an inverse power law with index a, 0 ~a&amp;lt; 1 (usually a = 31) The average mass of the planetary nucleus (largest planetesimal) is 0.60 the mass of the final planet, and the average mass of the largest planetesimal colliding with the nucleus (the second largest planetesimal) is about 0.20 planetary masses. Some other facts about the distribution of relative sizes of the largest planetesimals are also derived. The distribution of change in rotational angular momentum components as a result of the accumulation of planetesimals with random masses, velocities and directions is also derived. This distribution is used to show that the discrepency between our estimate of the relative mass of the second largest planetesimal and Safronov's estimate (10-~ to 10-2 planetary masses) is due to the relatively high collision speeds his model requires.</t>
+          <t>The interaction of oxygen with clean aluminum results in formation of a stable oxide layer on the surface of the metal. This stable layer has a lower work function than that of clean aluminum. The nature of this stable layer is studied by measurement of work function changes. Heating of the stable layer, formed at room temperature and low oxygen pressures' (~10−8 torr), in ultra-high vacuum resulted in a further decrease in the work function. The extent of this additional decrease was a function of temperature and the changes in work function caused by heating were irreversible in nature. At high oxygen pressures (pO2 &gt; 10−2 torr) the effect of growth of incorporated oxide on the net limiting work function change appears to be small and the reversible changes in the work function are mainly a result of the variation in the amount of surface oxide. At 250°C, the contribution of incorporated oxide to net limiting work function change was dependent on oxygen pressure when it was formed at low oxygen pressures (P &lt; 10−7 torr). However, when the incorporated oxide was formed at oxygen pressures above 10−7 torr, its contribution to the limiting work function change and, perhaps, the structure of the incorporated oxide itself were nearly independent of oxygen pressure. The difference in limiting work function change at various oxygen pressures was mainly because of the difference in the limiting amounts of surface oxide. Similar behavior is expected at room temperature.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2327634181</t>
+          <t>https://openalex.org/W2004324946</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00022470.1967.10469055</t>
+          <t>https://doi.org/10.1080/08920757609361716</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Cohen (1967)</t>
+          <t>Bowden (1976)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interstate Compacts—An Evaluation</t>
+          <t>Legal battles on the California coast: A review of the rules</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>This paper discusses the development of interstate compacts and legal and constitutional principles which are applicable thereto for the purpose of evaluating compacts as an effective legal mechanism for joint action on an interstate basis to control air pollution. It suggests there is no inherent reason why, presupposing fundamental agreements as to the basic policy to be served by the compacting states, an effective compact cannot be concluded. The paper also discusses the various criticisms that have been leveled against interstate compacts and some of the pitfalls now existing in interstate compacts in the field of water pollution. The discussion mentions certain caveats to be considered in drafting effective compacts to control air pollution. The compact mechanism does not possess inherent infirmities which preclude its effective use in the field of air pollution control, but whatever infirmities may exist are traceable to underlying factors of an essentially nonlegal nature.</t>
+          <t>Abstract Notions of private property have both legal and political importance. In California, as elsewhere in the United States, these ideas are changing. The rate and direction of this evolution is not different on the coast. But the intense heat generated by competing coastal interests does tend to illuminate these issues more clearly on the coast. The full range of these issues has been raised in California, where an historic attempt is now being made to plan and manage the use of coastal resources. In January 1976 the California Legislature will be presented with a coastal plan which promises to inflame the passions of traditional property rights advocates and environmental zealots alike. Much of the rhetoric surrounding this political struggle is already being couched in legal terms. In an effort to delineate a few of the genuine legal issues raised in this planning process, this article summarizes the law of California which is relevant in defining the permitted scope of public regulatory power over private land use.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://openalex.org/W267719334</t>
+          <t>https://openalex.org/W2007487626</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3109/10731197609118654</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Rieley (1967)</t>
+          <t>Courtney et al. (1976)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>The ecology of Carex flacca Schreb. and Carex panicea L.</t>
+          <t>Polymer Structure and Blood Compatibility Evaluation-Application of an Acrylonitrile Copolymer</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>The effect of pH, calcium and potassium on the performance of Carex flacca and C. panicea is investigated using tillers growing in solution culture. Performance is determined changes in fresh weight, dry weight, leaf length and the uptake of mineral nutrients into the plants. Possible age response is taken into consideration by using tillers of two different initial sizes and seeds, as starting material, No differential response due to initial age of the plant parts is detected, pH affects the final fresh and dry weights but not the relative concentrations of the elements present in the plant leaves, Above a certain external calcium concentration (about 50 p.p.m.) uptake of calcium by the plants greatly increases. Performance of both species increases with increase in external calcium concentration until the influx concentration is reached, and then it decreases, The germination and potassium variation experiments show that both species are very efficient in removing potassium from the culture solutions and maintaining a high internal concentration of this element, These observations could have important implications in natural plant communities. There is evidence to suggest that Carex flacca and C. panicea exhibit different responses to calcium and pH which could lead to different ecological tolerances. In a parallel study, the role of calcium and potassium in the nutrient dynamics of the two species is investigated over the two-year growing period. With progressive ageing, percentage potassium content decreases; total potassium increases over the first year, but falls sharply after flowering; both percentage and total calcium content increase steadily over the life span, but tend to decrease after fruiting, Analysis of different plant organs reveals considerable variation in the concentrations of calcium and potassium between adjacent parts of the same plant. There is evidence to suggest that calcium and potassium re-cycle in different ways. Potassium is probably being supplied to the next generation of tillers from the parent plant, either by absorption from the substrate, or by translocation from dying leaves, Calcium, on the other hand, has to be absorbed by the tillers themselves when they have established their own root system</t>
+          <t>An acrylonitrile-dimethylaminoethyl methacrylate copolymer has been synthesised by a straightforward procedure. The cationic nature of the copolymer permits ready attachment of heparin and reaction of the copolymer with ethylene oxide gas allows a controlled alteration in chemical structure. These features of the copolymer are discussed with respect to the influence of polymer properties on blood compatibility as exemplified by blood platelet retention.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://openalex.org/W42825096</t>
+          <t>https://openalex.org/W2009373818</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0022-1694(76)90019-6</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Martin (1967)</t>
+          <t>Trainer &amp; Heath (1976)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Application and design of oilfield stabilization basins</t>
+          <t>Bicarbonate content of groundwater in carbonate rock in eastern North America</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>This discussion of stabilization basins for treating the water to be used in a waterflood operation considers such design criteria as filtration system, pit lining, plant output requirements, special water treating, hydrogen sulfide removal, pit volume, butt joint floor lining, catwalks, and coagulants. Design of any floodwater conditioning systems should begin with a good knowledge of the water supply. Treatment requirements of the available water should fix the design of the treatment system. The starting point for determining these requirements is a reliable chemical analysis. In addition, consideration should be given to the possibility and nature of changes in the water over the life of the project. Historical experience in the area and pilot- flood information may serve as guides in evaluating water quality requirements.</t>
+          <t>In carbonate-rock terrane the most effective solution occurs where soil and vegetative cover facilitate biogenic production and storage of CO2 in the soil until part of it is carried downward in percolating water. Bicarbonate data for groundwater in eastern North America are examined in the light of these conditions, of the CO2 content of soil gas, and of the timing of groundwater recharge relative to seasonal changes in soil temperature. There appears to be no well-marked relation between latitude and bicarbonate content of groundwater in this region. Interplay of all the factors listed above, and of lithology and soil types, is evidently such that under optimum conditions the amount of solution of carbonate rock is roughly comparable, per unit of groundwater recharge, over the region from Ohio to Florida (and, perhaps, to Puerto Rico and Yucatan). Relatively low HCO3 concentrations observed in much of the southern United States are attributed to low production and storage of CO2 in sandy soil that is poor in organic matter. On the other hand, concentrations observed in Ontario, New York and Michigan are markedly higher than is to be expected from interrelations of the factors considered. These high values, apparently anomalous, are attributed in part to solution of granular glacial drift derived largely from carbonate rock.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1548737626</t>
+          <t>https://openalex.org/W2010250185</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1085/jgp.67.6.661</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Da-Riva et al. (1967)</t>
+          <t>Miller &amp; Dacheux (1976)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>DIFFUSION FLAMES AND SUPERSONIC COMBUSTION.</t>
+          <t>Synaptic organization and ionic basis of on and off channels in mudpuppy retina. II. Chloride-dependent ganglion cell mechanisms.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Abstract : The method of matched asymptotic expansions has been used for the analysis of the H2-Air reaction in the temperature and pressure range of interest to Supersonic Combustion. The use of the method is advantageous because of the large differences in the rate constants of the elementary reactions appearing in the reaction mechanism. The ratios between the rate constants are used as the small or large parameter in the perturbation method. Several stages are found in the course of the reaction and at each stage only a small number of the elementary reactions play an important role. Different expansions are used for each stage, and they are matched according to the rules of the method of matched asymptotic expansion of Kaplun, Lagerstron, etc. For the zeroth order approximation, at each stage, the reaction mechanism is very often drastically simplified. This occurs because some of the elementary reactions are 'frozen' while others are at equilibrium; some species are not changing at a given stage, while others take a quasi-steady state value. Very often an overall reaction rate may be used for the zeroth order approximation at each stage. The method of matched asymptotic expansions allows to determine how the appropriate overall reaction rate changes with the succesive stages of the reaction and with the initial stoichiometry of the mixture. (Author)</t>
+          <t>Extracellular ganglion cell recordings in the perfused mudpuppy eyecup show that a chloride-free (c-f) perfusate abolishes the center and surround excitation of on-center cells, the surround excitation of off-center cells, and the on discharge of on-off cells. These changes in ganglion cell receptive field organization are anticipated in view of the effects of a c-f environment on the neurons which are presynaptic to the ganglion cells. However, chloride-dependent inhibitory postsynaptic (IPS) responses have been observed in on-off ganglion cells. These inhibitory postsynaptic potentials (IPSP's) are preceeded by (ESPS's) exitatory postsynaptic potentials and are apparently mediated by amacrine cells. The light-activated hyperpolarization of off cells is not the result of a chloride-dependent IPSP and probably results from disfacilitation.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://openalex.org/W335927102</t>
+          <t>https://openalex.org/W2012151057</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21236/ad0820341</t>
+          <t>https://doi.org/10.1016/0028-3908(76)90118-0</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Costlow (1967)</t>
+          <t>Delgado et al. (1976)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>MARINE SCIENCES IN TURKEY</t>
+          <t>Effects of diazepam related to social hierarchy in rhesus monkeys</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Abstract : The review considers the staff, general research programs, and research facilities in the two major Turkish institutions associated with the marine sciences, the Hydrobiological Research Institute and the Department of Navigation and Hydrography of the Navy, and the changes which have occurred since 1963.</t>
+          <t>Individual and social variability are factors which should be taken into consideration in the evaluation of psychoactive drugs. As a model, we investigated the effects of oral administration of diazepam in doses of 0.1, 0.3, 1.0, 3.0 and 10.0 mg/kg in rhesus monkeys, testing each animal under each dose in the same environment. The only variable was the social situation, as the animals were tested while alone and when paired with a dominant or submissive partner. Mobility was recorded by telemetry. Behaviour was recorded every 5 sec for eight 15 min sessions. Results were as follows. Mobility was similar in single and paired animals, and also in dominant and submissive monkeys. Mobility was therefore independent of the social situation lor controls. Taking of pellets delivered automatically every 30 sec decreased significantly in the following order: alone, dominant, submissive. Some behavioural categories were modified significantly depending on the social situation. Administration of 0.1–0.3 mg/kg diazepam did not produce changes in single or dominant animals, but had significant effects on the behavioural profiles of submissive monkeys. Administration of 3.0–10.0 mg/kg diazepam produced diminution of body mobility in the three situations, being more prominent in the submissive monkeys. Pellet intake also diminished. In the dominant animals, no changes appeared in locomotion, drinking, picking, or grooming. Administration of 01 mg/kg diazepam decreased aggressive acts by 50%. The natural order of dominance was not reversed even after the administration of the highest doses. Administration of diazepam to the submissive animal decreased aggressive behaviour of the dominant animal, perhaps reflecting the diminished challenge to its authority. It is concluded that submissive animals show an extreme sensitivity to diazepam, and that individual hierarchy is an important element in the behavioural effects of diazepam. Our experimental procedure should be useful for future testing of psychopharmacological agents, especially those which could improve the social adaptability of mental patients.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2427869896</t>
+          <t>https://openalex.org/W2014116872</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0079-6786(67)90001-5</t>
+          <t>https://doi.org/10.1002/bip.1976.360151109</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>NA (1967)</t>
+          <t>Branca et al. (1976)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Editorial Advisory Committee</t>
+          <t>Specificity in the interaction between poly(&lt;scp&gt;L&lt;/scp&gt;‐glutamate) and iron (III) complex ions in aqueous solution</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Since 1970, Revista Médica de Chile applies the peer review system as a main step in the selection and improvement of the manuscripts to be published. Over 150 experts participate in this process annually, reviewing up to 5 manuscripts per year. The final decision with regards to to the acceptability of a manuscript remains a responsibility of the Editor. The reviewers are selected by the Editor and his Associates among clinical investigators, prominent subspecialits and basic scientists, according to the nature of the manuscript. Most of them work in Chile. Their names are published and their confidential work is acknowledged in a special chronicle published in the Revista once a year. A small number of these reviewers appears in every issue of the journal identified as Members of its Editorial Advisory Committee. They have been selected by the Editors among those reviewers who deal with a greater number of manuscripts and also those experienced specialists whose opinion is requested when an exceptional conflict of opinions is raised by the authors and their reviewers. After 5 to 10 years of a highly praised collaboration, the previous Committee has been changed and new names were included, starting in this issue of Revista Médica de Chile.</t>
+          <t>Abstract The binding process between sodium poly( L ‐glutamate) and trans ‐2,2′,2″,2‴‐tetrapyridyl‐Fe(III) complex ions in aqueous solution at pH around 7 has been studied by means of equilibrium dialysis and optical measurements. The binding isotherm indicates the occurrence of a cooperative process, whereby bound molecules facilitate the association of additional molecules. According to circular dichroism (CD) data, this effect is coupled with that which sees a conformational change in the charged polypeptide upon progessive binding of complex counterions. All these features are discussed in the light of the structural characteristics of the interacting species. A stereochemical model of the association “complex” is proposed.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1581309179</t>
+          <t>https://openalex.org/W2014214717</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/j.1095-8649.1976.tb03957.x</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Miller et al. (1967)</t>
+          <t>Anderson et al. (1976)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>CRUSTAL STUDIES. CONTINUATION OF BASIC RESEARCH IN CRUSTAL STUDIES</t>
+          <t>The hepato-renal syndrome in cultured turbot (Scophthalmus maximus L.)</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Abstract : The final report of work performed under the Crustal Studies Contract AF 49(638)-1588 is divided into two main areas: theoretical dispersion calculations and experimental measurements of the fundamental Rayleigh wave at the Large Aperture Seismic Array (LASA) in Montana, and a study of teleseismic signals using analog model data. Two earthquakes recorded on the long-period seismometers at LASA, were used for dispersion analysis. Epicenters of these two events were located off the northern California coast and in the Greenland Sea. Good agreement in the dispersion estimates was obtained using three recording stations. The significance of the results, which covered a frequency band of 0.025 through 0.0625 cps, lies in the fact that this frequency band is, theoretically, where the greatest dispersion occurs. The results obtained agree qualitatively with previously known results. An analog model having a crustal layer with an abrupt thickness change (3 to 5 cm) was used for studies of surface-wave scattering from surface irregularities and a lateral inhomogeneity. The analysis of surface-wave scattering was a continuation of work previously done. The model also was used for a study of teleseismic signals by placing the source crystal on the bottom of the model. For an upcoming-plane P wave, reverberation effects, the lateral inhomogeneity (including the expected focusing of energy into the thick end by the dipping segment of the crustal layer), and P- and S-wave conversions at the crustal layer interface caused a complex interference pattern that was observed on the surface recordings.</t>
+          <t>The histopathology of biliary hyperplasia and renal calcinosis, associated with infections of two parasites, Myxidium incurvatum and Rhabdospora thelohani , is described in turbot, Scophthalmus maximus (L.), from Scottish marine fish farms and wild populations. Liver and kidney lesions were divided into four, and parasite infections into five grades of severity. A few of the fish examined were not parasitized, but every one showed some evidence of pathological change, even the apparently normal individuals from all populations. Although there is a positive association between the parasitic and pathological data, parasitism is not considered to be the principal cause of either the hepatic or renal lesion; the evidence suggests rather a secondary opportunist role for the parasites. The general severity of the condition in captive stocks suggests that the cause may lie in the fundamentals of present techniques of turbot husbandry, but no specific agent has been identified. A case is put forward for considering Rhabdospora to be a parasite rather than a specialized host cell.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2077779389</t>
+          <t>https://openalex.org/W2017096096</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1121/1.2144085</t>
+          <t>https://doi.org/10.1016/0014-4835(76)90232-3</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Haslett (1967)</t>
+          <t>R &amp; Pirie (1976)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>An Underwater Acoustic “Television” System</t>
+          <t>Naphthalene cataract in pigmented and albino rabbits</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>It may not be widely known that, over the period 1949–1954, an experimental model of a closed-circuit underwater acoustic “television” system for use in muddy water, was developed in the United Kingdom under an Admiralty contract. The object to be viewed was irradiated with ultrasonic waves and a real acoustic image of the object was formed by a concave mirror. A special converter tube, rather similar to a television camera, transformed the image to a television picture. Two programs of work were pursued side by side: (a) the development of the image converter tube and electronic circuits, and (b) the design of the mirror assembly. Subsequently, the whole system was subjected to detailed investigation in a water tank and at sea, to determine the resolution, the maximum range obtainable and the appearances of a number of objects having simple shapes.</t>
+          <t>Reducing household air pollution and protecting eye health are essential to achieve the Sustainable Development Goals (SDGs). There is contradictory evidence about the association between cooking fuels and cataract among adults aged 50 years and older. WHO Study on global AGEing and adult health (SAGE) was conducted in six low- and middle-income countries (LMICs). We used propensity-score method (inverse probability of weighting) and logistic regression to examine the association between cooking fuels and self-reported cataract. Odds ratio (OR) estimates and 95% confidence intervals (CIs) were calculated. Overall, use of unclean fuels was associated with an adjusted OR of cataract of 1.42 (95%CIs, 1.29–1.56). In subgroup analysis, unclean cooking fuels increased 1.71 (95%CI, 1.46–2.01) and 1.53 (95%CI, 1.30–1.79) times the risk of cataract in India and China, respectively, whereas no association was found in other countries. In gender-stratified analyses, unclean fuel use was associated with a 1.27 (95%CI, 1.13–1.44) times risk for males and 1.67 (95%CI, 1.44–1.94) times risk for females. Higher cataract risk attributed to unclean fuels was observed among those aged over 60 (1.45; 95%CI, 1.28–1.64) than people aged under 60 (1.39; 95%CI, 1.20–1.62). OR was higher in rural area (1.74; 95%CI, 1.51–2.00) than urban area (1.24; 95%CI, 1.09–1.41). Our results indicate that unclean fuels may be associated with self-reported cataract, but it varied among different LMICs. Higher risk was found in females, people older than 60 years old and those who live in rural areas. The result of this study provides useful information to support transition to clean household energy and eye health promotion in LMICs. Greater efforts should be taken to protect vulnerable populations.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1859536218</t>
+          <t>https://openalex.org/W2020104606</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/003754977602600501</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Tsien (1967)</t>
+          <t>Cooper (1976)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Distribution of rugose corals in the Middle and Upper Devonian (Frasnian) reef complex of Belgium</t>
+          <t>Ecosystem models and environmental policy</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Abstract Early in Couvinian time, a notable change took place in the sedimentary regime of southern Belgium. Reefs developed for the first time and they, together with argillaceous limestones and shales, continued to develop periodically until Frasnian time. Rugose corals are abundant in this Couvinian-Frasnian sequence and occur both in the argillaceous limestones and shales. It has been found that the distribution of the corals is controlled by the sedimentary facies, and that external and internal characters of the corals such as shape, form of the calyx, septa, septal cones and dissepiments, were strongly influenced by environmental conditions. In the light of these findings, several described species have been interpreted merely as varieties. In considering the stratigraphical ranges of the corals, it is to be noted that the first appearances of many species in the Belgian sequence is not to be correlated with their first appearance in time but rather with the initial establishment of suitable environmental conditions in the region in which they were found.</t>
+          <t>The use of models for guiding environmental policy should be distinguished from their use in imple menting management policies already decided upon. Ecosystem models are of potentially great value for guiding and informing incremental decisions regard ing environmental policy. They are unlikely to be used as a basis for comprehensive restructuring of programs. Their greatest use may lie in identifying points of leverage, where incremental policy changes will have the greatest long-term beneficial impact. For this reason, provision for formal sensitivity analysis is essential in models used to guide envi ronmental policy. Ecological models are more likely to influence policy decisions if they incorporate features which should be a part of any good model but which are often skimped: adequate documentation, reasonableness of prediction, explanation of limits and probable range of error, flexibility to deal with unanticipated problems, and effective presenta tion and display.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2967168841</t>
+          <t>https://openalex.org/W2020975488</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0032-3950(76)90338-5</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Ross (1967)</t>
+          <t>Korovina et al. (1976)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Studies on the peripheral and central pharmacological activity of a series of synthetic nitrogenous steroids</t>
+          <t>Effect of the reaction medium on the kinetics and mechanism of the cationic polymerization and copolymerization of cyclic ethers</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>A study has been made of the phamacological properties of 26 nitrogenous steroids, with particular reference to their effects on the central nervous system. The results are discussed in toms of possible correlations between chemical structure and biological activity. Twenty-three of the compounds under investigation were androstanes or pregnanes bearing a substituted amino group in the 2beta- or 3alpha- position. Two of the remaining compounds carried an amino substituent at either the 6alpha- position (compound Al8), or at the 17beta- position (compound A25) whilst the material designated compound A7 was in fact an equilibrium mixture of 2alpha-morpholino-5alpha-androstane-3,17-dione and 2beta-morpholino-5alpha-androstane-3,17-dione. The compounds were investigated in mice for general anaesthetic and anti-Parkinsonian activity and also for their ability to induce loss of the righting reflex and to antagonize electrically- and chemically-induced seizures. In addition, the effects of the compounds on blood pressure and on neuromuscular and ganglionic transmission in the anaesthetized cat were investigated as were their effects on a polysynaptic preparation of the spinalized cat. Three of the coupounds (A12, A17 and A24) on intravenous administration to nice, induced loss of the righting reflex and this effect was attributed to the possession of interneuronal blocking activity by these conpounds. With respect to anticonvulsant activity, none of the compounds gave protection against electrically- induced seizures without the simultaneous presence of side effects such as excitation, sedation and/or loss of the righting reflex while, apart from one example (compound A24), no compound was active against leptazol-induced seizures. From these results it has been concluded that anticonvulsant activity is not a specific property of the compounds under investigation. None of the compounds investigated produced a degree of anaesthesia sufficient for surgery nor did they antagonize the tremors induced by tremorine, the latter result suggesting the absence of anti-Parkinsonian activity. It was observed that anticonvulsant activity and ability to induce loss of the righting reflex appeared to be associated more with conpounds which have the nitrogenous radical in the 2beta- position than with conpounds which have the nitrogen function in the 3alpha- position and that the presence of additional nuclear substituents appeared to diminish the power to induce loss of the righting reflex. A total of ton 2beta- and 3alpha-monoquaternary armonium steroids of the androstane and pregnano types, as well as a single bisquaternary annoniun androstane have been investigated for neuromuscular blocking activity. The results are again discussed in terms of possible structure-action relationships. The evaluation of the muscle relaxant activity of the compounds studied was carried out employing conventional techniques with the oat and the hen gastrocnemius muscle- sciatic nerve preparations, the rat phrenic nerve-diaphragm preparation and the frog rectus abdominis muscle preparation. Toxicity tests on nice were also conducted as were studies of the effects of the compounds on autonomic ganglia in the cat and the guinea pig and on respiratory musculature in the cat and the rabbit. Applying the accepted criteria for the qualitative differentiation of depolarizing and non-depolarising activity, all eleven compounds were shown to display typical non-depolarizing activity. In both the cat and the hen, the time of onset of maxim.um paralysis and the duration of block was significantly less than, those for tubocurarine. In all species examined, with the exception of the frog, the activity of the ten monoquaternary ammonium steroids as muscle relaxants proved very low and all were considerably less potent than tubocurarine. The most active compound (B1) was only 1/16th as active on the cat as tuboourarine on a molar basis. Differences in potency between the various monoquaternary ammoniun steroids have been interpreted as arising from variations in the nitrogen substituents rather than from alterations in hydrophilic to lipophilic balance. The one bisquaternary steroid under examination (compound B11) showed potency comparable to or greater than that of tubocurarine in all species, except the mouse. Consideration of the activity of this compound in terms of the activities of other steroidal bisquaternary ammonium salts already reported in the literature has been taken to indicate the relative unimportance of a fixed interonium distance in determining neuromuscular blocking activity. In contrast to the situation pertaining with the monoquaternary compounds which would seem to be without possible therapeutic application, the short-acting potent non-depolarizing properties of the bisquaternary ammonium compound, coupled with its apparent freedom from undesirable side effects, suggest that serious consideration of clinical trials for this compound is i</t>
+          <t>The effect of the reaction medium on the kinetics and mechanism of cationic polymerization and copolymerization of cyclic ethers is considered. It is shown that a change in the conditions of solvation of reaction sites by the components of the system, leading to a substantial effect on the characteristics of the course of the process, may be achieved not only by a change in the nature of the solvent, but also by the introduction into the reaction mixture of small additions of substances that preferentially solvate the cation or anion or both the oppositely charged ends of the active site that exists as a cyclic zwitter ion pair.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2324882438</t>
+          <t>https://openalex.org/W2026883790</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1270/jsbbs1951.17.297</t>
+          <t>https://doi.org/10.1016/0305-0483(76)90009-8</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Iwasaki &amp; Hosoda (1967)</t>
+          <t>Baligh (1976)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>STUDIES ON BOLTING IN Brassica. : II. Relationship between structural change of the shoot apex and bolting in compound genome varieties.</t>
+          <t>Organization structure and cooperative market relations</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>The growth habit and the structure of shoot apices were studied in several compound genome varieties of Brassica species. It was found that their growth habits were distinctly inheri ted from mono-genome varieties, and also seems that the morphological change of the shoot apex were related to the bolting.</t>
+          <t>A linear model is used as the vehicle for analyzing some of the interactions between an organization's cooperative market relations (product forms) and its structure (decomposition and coordination). Normative implications for organizational choice, and a set of conclusions concerning the nature of organizational change and growth for practical use are developed. The concept of product form as a description of cooperative market relations is the basis for relating the activities of the firm to its market environment. The decision on product form is viewed as a decision on the resource usage vector, and hence as a decision on the nature of the linear programming model formulated. The decision on the decomposition of this linear model and on the solution procedure are viewed as decisions on organization structure. They are viewed as decisions on the partitioning of the organization's decision variables into divisions and on the mechanisms used to coordinate these divisions.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4255837597</t>
+          <t>https://openalex.org/W2028515215</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/qkh.1967.0023</t>
+          <t>https://doi.org/10.1016/0022-1694(76)90104-9</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Cadbury (1967)</t>
+          <t>André &amp; Molinari (1976)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Briefer Notices</t>
+          <t>Mises au point sur les différents facteurs physico-chimiques influant sur la mesure de concentration de traceurs fluorescents et leurs conséquences pratiques en hydrologie</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>BRIEFER NOTICES By Henry J. Cadbury J. Floyd Moore of Guilford College has prepared in association with colleges in the Piedmont area a 32-page lithoprint brochure in a limited edition, entitled Sources of Quaker History in North Carolina. It includes some pictures and a map and a review of Quaker history in the state, but mainly a full listing of Quaker records in the various depositories. This will be invaluable for future historians. One fruit of the current research of Phillips Moulton is a paper published in Church History, XXXV (1966), 399-410, on "John Woolman's Approach to Social Action as Exemplified in Relation to Slavery." Without drawing the obvious inference for current social issues he gives evidence from Woolman's Journal using the Whittier text as reprinted by T. S. Kepler. In a series of installments, "Marriage Records of the Friends Purchase Street Meeting House, Harrison, Westchester County, New York" have appeared in Pioneer Heritance, II (1964-1965), 34-37, 47-19, 56-59, and III (1965-1966), 67-68, 77-79, 84, 88. "The Greenwich [New Jersey] Friends Meeting" is the subject of an article by Loren D. Flood in the Vineland Historical Magazine, XLIII (1964), 466-467, continued in XLIV (1965), 517-519, with a brief list of "Quaker Burials in Greenwich, N. J." Caroline Robbins has contributed an extended and well-documented account of a friend of William Penn and John Locke, who shared, with some differences, their concern for freedom of conscience in religion. It is entitled "Absolute Liberty, the Life and Thought 120 Briefer Notices121 of William Popple, 1638-1708," and is published in the William and Mary Quarterly, 3rd ser., XXIV (1967), 190-223. It contributes context and comparison for future studies of William Penn's life and thought. This side of Popple is more important than the other sides of his life: nephew to Andrew Marvell, wine merchant at Bordeaux, and secretary to the Board of Trade and Plantations. The Heritage of Vermilion County, Illinois, Spring issue, 1965, pp. 14-15, contains an illustrated article on "The School that Friends Built: Vermilion Academy 1874-1932," by Louise Mills. Vermilion Grove was settled by Friends from Tennessee about 1821. The Academy had a useful history. Until 1967 its building was used as a public grade school but has now been purchased by the local Friends Church for a community center. * * * Elsie Park Gowan, in the Alberta Historical Review, Vol. 5, No. 3, (Summer, 1967), deals with "A Quaker in Buckskin," viz., Mary Schaffer, a pioneer explorer whose story is linked with Jasper Park. This is an account of the explorations of Mary Sharpies of West Chester, Pa., who discovered Maligne Lake. Her last years were spent at Banff, where she is buried. * * * A Month with Isaac Penington, an anthology of daily readings, was compiled from his letters by Beatrice Saxon Snell, and published by Friends Home Service Committee, 1966. The thirty-one brief selections are not all dated, nor located from earlier collections. On the same page for each is given reference to a Bible passage and a brief quotation from some other source. * * * On September 18, 1966, the 250th anniversary of the completion of the Woodbury, New Jersey, Friends Meetinghouse was observed. A history of the meeting, which was established in 1683, of its later meetinghouse, and of Friends schools was written by Jane Henry Boedker and, with a picture of the meetinghouse and old school building taken at the bicentennial in 1915, was printed in the Bulletin of the Gloucester County Historical Society, X (1966), 21, 22, 24. 122Quaker History 100 Years Up the River is the title of a seventy-six-page pamphlet giving the story of the Up River Friends Meeting, Belvidere, Perquimans County, North Carolina, from 1866 to 1966 (Southern Publishers, Inc., Greensboro, N. C, 1966). It was written by Carlton W. Rountree, of the anniversary committee. There is a surprising amount of information available on schools, ministers, meetinghouses, visiting Friends, etc. Until 1915 this was part of Piney Woods Monthly Meeting. It is now a good-sized and active Friends Meeting. The Gospel and the Churches by Wilhelm Niesei, Philadelphia, Westminster Press, 1962, 384 pages...</t>
+          <t>Abstract The use of xanthenic dyes in hydrology can, in certain circumstances, lead to alteration in the quantitative interpretation of the experimental results due to failure to recognize the physico-chemical phenomena which affect the measurement of fluorescence, namely, the nature of the solvent, pH, temperature and the presence of mineral salts. In this paper we recall the essentials of these mechanisms and illustrate the consequences. In succession, some particular circumstances of the use of fluorescent xanthenic tracers (in environments with strong ionic activity, in the presence of sodium iodide, and in the presence of deactivating saline ions) are examined as well as the precautions which users must observe to maintain the quality of the measurements and to prevent photodegradation or absorption processes. Attention is drawn to the difficulties of interpreting the measurements of concentration of the fluorescent-tracer elutant collected on activated carbon (“fluotransducers”) and a method of measurement, by selective extinction, is proposed for two fluorescent tracers present simultaneously in the same environment.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4253610011</t>
+          <t>https://openalex.org/W2029243744</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0042-207x(67)92726-1</t>
+          <t>https://doi.org/10.1103/physrevb.14.4342</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>NA (1967)</t>
+          <t>Frandsen &amp; Gordon (1976)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>194. Errors in measuring the pressure of contaminating gases in a formable ignitron due to perturbations affecting the vacuum system linking the ignitron to the measuring system</t>
+          <t>Effect of finite&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:mi&gt;ω&lt;/mml:mi&gt;&lt;mml:mi&gt;τ&lt;/mml:mi&gt;&lt;/mml:math&gt;on cyclotron-wave propagation in metals in the long-wavelength limit</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>There is some evidence that the nature and progression of disease in low-tension glaucoma may be distinct from other open-angle glaucomas. The authors assessed visual field change by retrospective case review of all patients treated for low-tension glaucoma by the Glaucoma Service, Wills Eye Hospital, for at least 5 years. Sixty-two glaucomatous eyes of 36 patients were identified. All eyes were treated medically and 40 (65%) underwent at least one surgical procedure. Twenty-eight eyes (47%) had initial field loss confined to a single hemi-field and in the remainder both hemi·fields were involved. Thirty of 57 eyes (53%) showed progression at 3 years and 38 (62%) of 57 had progressed by 5 years. A dense scotoma extending from the nasal periphery toward fixation was the most common visual field defect. The rate of field change in this population is significantly greater than in a cohort of primary open-angle glaucoma patients also seen at Wills Eye Hospital, but who had elevated intraocular pressures. Patterns of field loss and rate of progression in this lowtension glaucoma population suggest that the natural history of low-tension glaucoma differs from high-tension open-angle glaucoma.</t>
+          <t>Exact calculations of cyclotron-wave dispersion curves have been carried out for a degenerate free-electron metal including finite relaxation time effects. The calculated dispersion curves are shown to differ substantially from the experimental dispersion curves in the long-wavelength limit. The nature of this disagreement is discussed in some detail and it is pointed out that finite relaxation time effects could lead to significant changes in the experimentally determined Fermi-liquid parameters {${A}_{i}$} for $i\ensuremath{\ge}2$.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4254814195</t>
+          <t>https://openalex.org/W2029279084</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0042-207x(67)92727-3</t>
+          <t>https://doi.org/10.1016/0006-2952(76)90154-4</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>NA (1967)</t>
+          <t>Merits (1976)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>195. Electron-beam treatment of materials</t>
+          <t>Formation and metabolism of [14C]dopamine 3-O-sulfate in dog, rat and guinea pig</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>There is some evidence that the nature and progression of disease in low-tension glaucoma may be distinct from other open-angle glaucomas. The authors assessed visual field change by retrospective case review of all patients treated for low-tension glaucoma by the Glaucoma Service, Wills Eye Hospital, for at least 5 years. Sixty-two glaucomatous eyes of 36 patients were identified. All eyes were treated medically and 40 (65%) underwent at least one surgical procedure. Twenty-eight eyes (47%) had initial field loss confined to a single hemi-field and in the remainder both hemi·fields were involved. Thirty of 57 eyes (53%) showed progression at 3 years and 38 (62%) of 57 had progressed by 5 years. A dense scotoma extending from the nasal periphery toward fixation was the most common visual field defect. The rate of field change in this population is significantly greater than in a cohort of primary open-angle glaucoma patients also seen at Wills Eye Hospital, but who had elevated intraocular pressures. Patterns of field loss and rate of progression in this lowtension glaucoma population suggest that the natural history of low-tension glaucoma differs from high-tension open-angle glaucoma.</t>
+          <t>Oral administration of [14C]dopamine to dogs resulted in urinary excretion of predominantly [14C]dopamine 3-O-sulfate, while after intravenous administration the labeled drug was metabolized largely by O-methylation and deamination pathways. Experiments in vitro pinpointed the small intestinal wall of the dog as the site of dopamine sulfate conjugate formation. The small intestines of rat and guinea pig lack this sulfating ability. When trace amounts of [14C]dopamine 3-O-sulfate were administered to dog, rat and guinea pig, the compound turned out not to be metabolically inert. In the guinea pig, [14C]dopamine 3-O-sulfate was almost completely desulfated and metabolized according to the pattern characteristic to orally administered dopamine in this animal species. In rat, about 40 per cent of the administered [14C]dopamine 3-O-sulfate (19.1 μg/kg) was excreted in urine unchanged, whereas a smaller dose (7.4 μg/kg) was totally metabolized according to the pattern characteristic to rat. In dog urine, more than 80 per cent of the radioactive dose (2.5 μg/kg) emerged in urine as unchanged [14C]dopamine 3-O-sulfate, the normal metabolism end product of dopamine in dog.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2315341948</t>
+          <t>https://openalex.org/W2031418270</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/2229365</t>
+          <t>https://doi.org/10.1086/154725</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Robinson et al. (1967)</t>
+          <t>Mansfield &amp; Malin (1976)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>The Process of Planning: A Study of India's Five-year Plans 1950-64.</t>
+          <t>Some astrophysical effects of the time variation of all masses</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Journal Article A. H. Hanson. The Process of Planning: A Study of India's Five-year Plans 1950-64.; G. Rosen. Democracy and Economic Change in India; S. Chandrasekhar. American Aid and India's Economic Development Get access The Process of Planning: A Study of India's Five-year Plans 1950-64. By A. H. Hanson. (London: Oxford University Press, 1966. Pp. xiii + 560. 105s.)Democracy and Economic Change in India. By G. Rosen. (Berkeley, California: University of California Press (London: Cambridge University Press), 1966. Pp. xviii + 326. 54s.)American Aid and India's Economic Development. By S. Chandrasekhar. (New York: Frederick A. Praeger (London: Pall Mall Press), 1966. Pp. x + 243. 37s. 6d.) Austin Robinson Austin Robinson Sidney Sussex College, Cambridge. Search for other works by this author on: Oxford Academic Google Scholar The Economic Journal, Volume 77, Issue 305, 1 March 1967, Pages 130–133, https://doi.org/10.2307/2229365 Published: 01 March 1967</t>
+          <t>view Abstract Citations (11) References (34) Co-Reads Similar Papers Volume Content Graphics Metrics Export Citation NASA/ADS Some astrophysical effects of the time variation of all masses. Mansfield, V. N. ; Malin, S. Abstract Homogeneous and isotropic cosmological models in which rest mass is not conserved on the cosmological scale are used to test the hypothesis of continuous mass variation according to the group-theoretical approach. The concept of mass variation in curved spacetime is analyzed, and the behavior of the mass-varying models is compared with that of standard cosmological models. The theory of mass variation is then examined in terms of five dimensionless ratios formed from eight fundamental quantities in order to investigate its astrophysical consequences. The variation of the gravitational coupling constant as a function of observed redshift is derived, and an evolutionary correction to the deceleration parameter for Dirac's theory of a varying gravitational constant, Dirac's theories involving additive and multiplicative creation, and the Hoyle-Narlikar theory is obtained by estimating the evolution of giant elliptical galaxies in the case where all particle masses or the gravitational constant vary with time. It is shown that mass-varying cosmology is quite compatible with evidence for the big bang, that only Dirac's theory involving multiplicative creation leads to a corrected deceleration parameter consistent with the required value, and that the Hoyle-Narlikar theory yields a negative value of the deceleration parameter. Publication: The Astrophysical Journal Pub Date: October 1976 DOI: 10.1086/154725 Bibcode: 1976ApJ...209..335M Keywords: Astrophysics; Big Bang Cosmology; Group Theory; Particle Mass; Relativistic Effects; Black Body Radiation; Brightness Temperature; Conservation Laws; Dimensionless Numbers; Dirac Equation; Galactic Evolution; Mass Distribution; Red Shift; Stellar Evolution; Astrophysics full text sources ADS |</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1938561720</t>
+          <t>https://openalex.org/W2031460600</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/4592949</t>
+          <t>https://doi.org/10.1177/105960117600100205</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Rentos &amp; Baier (1967)</t>
+          <t>Nadler (1976)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Industrial Hygiene Problems within Research Laboratories</t>
+          <t>The Use of Feedback for Organizational Change: Promises and Pitfalls</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRADITIONALLY, industrial hygiene has been associated with the evaluation and control of environmental stresses within manufacturing industries. Industrial hygienists always have recognized a need to understand better the complex nature of industrial operations. Manufacturing processes are studied individually, contaminants are isolated, the degree of hazard is measured, and unnecessary or hazardous exposures are controlled. Although this pattern has not changed, the demand for greater industrial productivity and space exploration has opened new avenues of concern. Today, the industrial hygienist faces new%z problems such as exposure of people to noise, microwaves, laser and maser radiations, and to propellants and chemicals used to eliminate plant fungi from the nose cones of space-exploration vehicles. The search for specialized technical knowledge is, as never before, a necessary and continuing process. Research installations afford fertile grounds for study which can provide a better understanding of the future industrial health problems in their formative stages. Because of the availability of industrial and Federal grants, research laboratories have rm-ushroomed so that they seriously challenge many manufacturing industries in terms of total persons employed. The recent growth of such laboratories within Pennsylvania has been dramatic. A conservative estimate shows that, within a period of 5 years (1958-63), the number of installations conducting research increased by nearly onefourth. There is every indication that this trend will continue.</t>
+          <t>The research literature on survey feedback as a tool for organizational intervention is reviewed. Specifically, three different areas of research are examined, including early work in the development of survey feedback, research on the results of feed back interventions, and research on the process of using survey feedback. The re search to date provides inconsistent support for the idea that survey feedback alone will bring about organizational change. The work to date also indicates that the process of collecting, analyzing, and using data for feedback is important as a de terminant of the nature and extent of feedback effects. Problems with existing re search and practice are identified, and suggestions for future directions for both research and use of data for interventions are given.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1530885304</t>
+          <t>https://openalex.org/W2035659091</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0037-7856(67)90004-2</t>
+          <t>https://doi.org/10.1016/s0022-5193(76)80051-3</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Williams &amp; Wirths (1967)</t>
+          <t>Williamson &amp; Charlesworth (1976)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Apragmatism among youth</t>
+          <t>The effect of age of founder on the probability of survival of a colony</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>An intensive study is underway of “apragmatisme” as found among thirty-nine French youths. The characteristics of the study group are: (1) Between the ages of 18 to 28 (with a couple of exceptions in the 30's). (2) No gross organic impairment. (3) Not mentally defective. (4) No long history of major mental illness, such as schizophrenia, prior to their current problems. (5) Hospitalized at least once, either at the Institut Marcel Rivière or at the Hospital “L'Eau Vive” at Soisy-sur-Seine. Typically, these patients did fairly well in their life career up to a point in time when they encountered some major crisis or obstacle, usually a failure (such as at the baccalaureate). Then they moved into a “do nothing” syndrome, or “apragmatisme”. From a sociological point of view they represent an extreme case of failure to make the transition from adolescence to adulthood. They show a marked apparent fatigue in that they seem unable to mobilize any pragmatic system of action. The case records were carefully studied, then all members of the treatment team who had dealt with the patient or his family were interviewed. It is hoped to do followup studies at intervals of about eight months. One such followup should be available by the time of the Congress. The material is currently being analyzed. One distinct impression has already emerged that, without exception, there is serious family disorganization in the background. Une étude intensive est en cours concernant l'“apragmatisme” découvert chez 39 jeunes français. Les caractéristiques du groupe étudié sont: (1) Agés de 18 à 28 ans (exception faite d'un couple âgé d'une trentaine d'années). (2) Pas d'affaiblissement organique. (3) Pas de défectuosités mentales. (4) Pas de longue histoire de maladie mentale grave telle que schizophrénie, avant leurs problémes actuels. (5) Hôspitalisés au moins une fois soit à l'Institut Marcel Rivière soit à l'hôspital ‘L'Eau Vive’ à Soisy-sur-Seine. De façon typique, ces patients ont assez bien réussie dans leur carrière individuelle jusqu'à un certain point de leur vie où ils se sont trouvés devant une crise importante ou un obstacle, habituellement un échec (par exemple le Baccalauréat). Ils se sont ensuite placés dans un syndrome ‘rien faire’ ou ‘apragmatisme’. Du point de vue sociologique ils représentent un cas extrême d'échec à faire la transition de l'adolescence à l'âge adulte. Ils révèlent une fatigue apparente marquée en ce sens qu'ils semblent incapables de mobiliser un système pragmatique d'action. Les dossiers de chaque cas ont été attentivement étudiés, ensuite tous les membres de l'équipe traîtante qui était en rapport avec le patient ou sa famille ont été interviewvés. Il est à est à espèrer que des études des suites seront effectuées à intervalles d'environ huit mois. Une de ses études de suites sera prête lors du Congrès. Le matériel est présentement analysé. L'impression distincte qui en a émergé est que, sans exception, il se trouve une désorganisation familiale à l'arrière plan. Está realizándose un estudio intensivo del ‘apragmatismo’ encontrado en 39 jóvenes franceses. Las características del grupo bajo estudio son: (1) Entre 18 y 28 años de edad (con dos excepciones, ambas entre los 30 años). (2) No sufren de gran detrioro orgánico. (3) No son defectuosos mentales. (4) No hay una larga historia de enfermedades mentales principales, tales como esquizofrenia, con anterioridad a sus problemas actuales. (5) Han estado hospitalizados por lo menos una vez, ya sea en el Institut Marcel Riviere o en el Hospital ‘L'Eau Vive’ de Soisy-sur-Seine. Típicamente, estos pacientes hicieron bastante bien en sus carreras hasta que se enfrentaron con una crisis u obstáculo importante, generalmente un fracaso (como, por ejemplo, en el Bachillerato). A partir de entonces cayeron en un síndrome de ‘no hacer nada’ o ‘apragmatismo’. Desde el punto de vista sociológico representan un caso extremo de fallo en Ilevar a cabo la transición de adolescente a adulto. Muestran una marcada fatiga aparente, pareciendo incapaces de movilizar cualquier sistema pragmático de acción. Se estudiaron detenidamente los hisoriales de cada caso y luego fueron entrevistados todos los miembros del equipo de tratamiento que se habían ocupado del paciente o de su familia. Se espera proseguir los estudios a intervalos de unos ocho meses, y uno de dichos estudios debería estar listo para cuando se celebre el Congreso. Actualmente se está analizando el material. Se nota ya una clara impresión de que, sin excepción, hay en el fondo una seria desorganización de la familia. Es ist eine intensive Studie über bei 39 französischen jungen Männern vorgefundenen ‘Apragmatismus’ im Gange. Die charakteristischen Merkmale dieser Studiengruppe sind: (1) Die Altersgruppe zwischen 18 und 28 Jahren (mit ein bis zwei Ausnahmen in den dreissiger Jahren). (2) Keinerlei ernstliche organische Schäden. (3) Nicht schwachsinnig. (4) Keine langwierige Krankengeschichte in Bezug auf schwe</t>
+          <t>In Chapter Four of The Theory of Island Biogeography, MacArthur &amp; Wilson (1967) considered briefly the problem of the relationship between the probability of survival of a newly-established colony and the age of its founder. Their discussion assumed that the age at which a propagule was most likely to establish a successful colony was the age at which reproductive value (Fisher, 1930) was at a maximum, and they suggested that “we would expect evolution to favor dispersal at the age of maximum reproductive value”. They also stated that “the exact advantage accruing to the colonist with the maximum reproductive value is not yet clear and can stand as a challenge to mathematicians”. In this paper we present some sufficient conditions and explain techniques that can be used to obtain the answer to the question “How old should the founder be if it is desired to maximize the survival probability for the colony?”. In section 4 we discuss briefly the notion of reproductive value and point out that it can be the wrong thing to examine if we are looking for an answer to the above question. In section 4 we present an argument in support of the position that evolution might not favor dispersal at the age of maximum survival probability. The model studied here is the full stochastic version of Leslie's (1945) model, which also appears in the literature under the name “age classification multitype branching process” (Pollard, 1966; Doubleday, 1973). The model is thus strictly accurate only for asexually-reproducing species. For sexual species, our results may give a general indication of the way in which survival probability changes with age of founder, provided one can assume that colonization is by male-female pairs or by fertilized females. (In these cases, age-specific fecundities are taken to refer to the production of daughters by females.) The survival probabilities computed by the present techniques will, however, over-estimate the true values for a sexual species, since they do not allow for the extinction of males. Since in many practical situations it is not survival probabilities that are needed but only comparisons, we have tried to present results which enable one to make the desired comparisons without ever actually knowing the values of the various survival probabilities. However, for the data in the tables of this paper we have computed numerical values for survival probabilities for all the age classes in order to help the reader appreciate just where our propositions and techniques might be useful as well as where numerical work probably cannot be avoided. Proofs for the three propositions and the lemma are found in the Appendix.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://openalex.org/W51558642</t>
+          <t>https://openalex.org/W2037767555</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-08-012127-7.50029-7</t>
+          <t>https://doi.org/10.1063/1.322332</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Dawson et al. (1967)</t>
+          <t>Newman &amp; DeTemple (1976)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Thermal radiative properties of carbon dioxide cryodeposits</t>
+          <t>Electron-beam-controlled N2 infrared laser</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>While traversing space, a vehicle represents an infinitesimally small object enclosed within a black body at an estimated temperature of 4°K. In comparing this natural environment to present day space simulation chambers, some very significant differences are observed. These differences in natural and simulated environments tend to alter the thermal radiative interchange between the test vehicle and the chamber. For example, the surrounding walls of the chamber are at an approximate temperature of 77°K, not 4°K, and these walls are not perfect absorbers. Also, the 77°K chamber walls act as cryopumps and their reflectance properties change as a function of cryodeposit build-up. Therefore, to approach true simulation, one must have a knowledge of how each of these factors alters the thermal radiative interchange. This paper presents experimental data on the total and spectral reflectance of carbon dioxide cryodeposits and the angular distribution of the reflected light. These data are reported as a function of deposit thickness, angle of incidence of the light beam, rate of formation of the deposit and steady state pressure level within the system. The effects of changes in reflection of the surfaces on heat balance calculations and environment simulation are discussed. The experimental systems, a 12 inch integrating sphere and a 30 inch distribution sphere, employed in these measurements are explained in detail. Ein Raumfahrzeug stellt auf seiner Bahn im Raum ein infinitesimal kleines Objekt dar, das sich in einem schwarzstrahlenden Hohlraum bewegt, der eine Temperatur von 4°K hat. Vergleicht man diese natürlichen Verhältnisse mit denen in heute konstruierten Raumsimulationskammern, so findet man ganz beträchtliche Unterschiede. Diese betreffen vor allem den thermischen Strahlungsaustausch zwischen Prüfkörper und Kammer. So z. B. sind die Kammerwände gewöhnlich auf einer Temperatur von ca. 77°K und nicht auf 4°K, und die Wände sind keine idealen Absorber. Die auf 77°K gehaltenen Kammerwände wirken ferner als Kryopumpen, und die reflektierenden Eigenschaften der Wände ändern sich mit der Schichtdicke des an den Wänden sich aufbauenden Kondensates. Um daher eine angenähert der Wirklichkeit entsprechende Simulation zu erreichen, muss festgestellt werden, wie derartige Faktoren den Strahlungsaustausch beeinflussen. Das Referat bringt experimentelle Daten über das totale und spektrale Reflexionsvermögen von CO2 als Kryokondensat, sowie über die Winkelverteilung des reflektierten Lichtes. Diese Daten werden in Abhängigkeit von folgenden Parametern gebracht: Schichtdicke des Kondensates, Einfallswinkel des Lichtstrahles, Aufbaugeschwindigkeit des Kondensates und Druck im System. Es wird darauf eingegangen, in welcher Weise die änderung der Reflexionseigenschaften der Oberfläche die Berechnungen der Energiebilanz und damit die Simulation als solche beeinflusst. Die bei diesen Messungen verwendeten experimentellen Anordnungen werden im einzelnen erklärt. Un vaisseau spatial lancé dans l'espace est équivalent à un objet infiniment petit enfermé dans un corps noir à une température évaluée à 4°K. Si l'on compare ces conditions de milieu réel avec celles des chambres de simulation spatiale actuelles, on constate quelques différences extrêmement importantes. Ces différences entre le milieu réel et le milieu simulé ont tendance à altérer les échanges entre le vaisseau expérimental et la chambre. Les parois constituant la chambre, par exemple, ne sont pas à 4°K mais à 77°K et ces parois ne sont pas des absorbants parfaits. De plus, les parois de la chambre étant à 77°K jouent le rôle de pompes cryostatiques et leur pouvoir réfléchissant varie en fonction du dépôt cryostatique formé. Par conséquent, pour obtenir une simulation véritable il faut savoir de quelle manière chacun de ces facteurs agit sur l'échange de rayonnement thermique. Ce rapport présente des résultats expérimentaux sur le pouvoir réfléchissant total et spectral des dépôts cryostatiques de gaz carbonique et sur la distribution angulaire de la lumière réfléchie. Ces résultats seront donnés en fonction de l'épaisseur du dépôt, de l'angle d'incidence du faisceau lumineux, de la vitesse de formation du dépôt et du niveau de pression à l'état de repos à l'intérieur du système. Les conséquences des variations du pouvoir réfléchissant des surfaces sur les calculs d'équilibre thermique et sur la simulation du milieu sont également discutés. Les systèmes expérimentaux, une sphère à intégration de 12 in. et une sphère d'étude de la distribution de 30 in., utilisés pour ces expériences seront décrits en détail.</t>
+          <t>Laser action in N2 on the first positive system (B3Πg→A3E+u) has been obtained in an electron-beam-controlled discharge. Pressures of up 200 Torr (limited by the sustainer voltage available) were used resulting in a maximum output of 30-kW 2-mJ pulses at an efficiency of 0.01%. The addition of a small amount (∼1 Torr) of SF6 resulted in a doubling of the output power and energy.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2065870718</t>
+          <t>https://openalex.org/W2042447338</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1159/000302784</t>
+          <t>https://doi.org/10.1677/joe.0.0700081</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Friedberg (1967)</t>
+          <t>Henderson et al. (1976)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Diskussionsbeitrag über die Nomenklatur der Spätgestosen</t>
+          <t>ENDOCRINE AND ENVIRONMENTAL INFLUENCES UPON PLASMA CORTISOL CONCENTRATIONS AND PLASMA RENIN ACTIVITY OF THE EEL, ANGUILLA ANGUILLA L.</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Discussions| March 23 2010 Diskussionsbeitrag über die Nomenklatur der Spätgestosen Subject Area: Further Areas , Women's and Children's Health V. Friedberg V. Friedberg Mainz Search for other works by this author on: This Site PubMed Google Scholar Gynaecologia (1967) 164 (6): 329–335. https://doi.org/10.1159/000302784 Article history Published Online: March 23 2010 Content Tools Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Peer Review Share Icon Share Facebook Twitter LinkedIn Email Tools Icon Tools Get Permissions Cite Icon Cite Search Site Citation V. Friedberg; Diskussionsbeitrag über die Nomenklatur der Spätgestosen. Gynaecologia 1 June 1967; 164 (6): 329–335. https://doi.org/10.1159/000302784 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentAll JournalsGynecologic and Obstetric Investigation Search Advanced Search This content is only available via PDF. 1967Copyright / Drug Dosage / DisclaimerCopyright: All rights reserved. No part of this publication may be translated into other languages, reproduced or utilized in any form or by any means, electronic or mechanical, including photocopying, recording, microcopying, or by any information storage and retrieval system, without permission in writing from the publisher.Drug Dosage: The authors and the publisher have exerted every effort to ensure that drug selection and dosage set forth in this text are in accord with current recommendations and practice at the time of publication. However, in view of ongoing research, changes in government regulations, and the constant flow of information relating to drug therapy and drug reactions, the reader is urged to check the package insert for each drug for any changes in indications and dosage and for added warnings and precautions. This is particularly important when the recommended agent is a new and/or infrequently employed drug.Disclaimer: The statements, opinions and data contained in this publication are solely those of the individual authors and contributors and not of the publishers and the editor(s). The appearance of advertisements or/and product references in the publication is not a warranty, endorsement, or approval of the products or services advertised or of their effectiveness, quality or safety. The publisher and the editor(s) disclaim responsibility for any injury to persons or property resulting from any ideas, methods, instructions or products referred to in the content or advertisements. Article PDF first page preview Close Modal You do not currently have access to this content.</t>
+          <t>The plasma concentrations of cortisol, sodium, potassium and calcium and plasma osmolarity were determined in freshwater silver eels, after intravascular injections of eel renin preparations, mammalian ACTH, mammalian angiotensin II and eel muscle extracts. Arterial blood specimens were taken before and after injection of test substances. Partially purified eel and rat renal renins gave prolonged pressor responses in intact and hypophysectomized eels and in the nephrectomized rat anaesthetized with sodium pentobarbitone. Angiotensin, but not ACTH, produced obvious pressor responses in intact and hypophysectomized eels and in eels without their corpuscles of Stannius. Hypophysectomized eels 4-8 days after operation had reduced plasma cortisol concentrations. No change in cortisol occurred in eels after removal of the corpuscles of Stannius. Eel renin preparations and ACTH gave increased concentrations of plasma cortisol 30 min after injection into hypophysectomized and intact eels. In general, the length of the renin-generated pressor response and the increased cortisol concentration were concomitant occurrences. Angiotensin injected into eels with corpuscles of Stannius removed and into hypophysectomized eels also increased cortisol levels. Control muscle extracts produced no significant changes. There were no acute changes in plasma electrolyte concentrations after the injections. Plasma renin activity measured indirectly by bioassay of angiotensin generated in vitro was more than twice as great in eels adapted to seawater than in eels in fresh water. Plasma renin activity gradually fell when eels were transferred from seawater to fresh water, and increased when the reverse transfer was carried out.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4298848451</t>
+          <t>https://openalex.org/W2042479451</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1159/000302868</t>
+          <t>https://doi.org/10.1016/0306-4530(76)90010-x</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Keller (1967)</t>
+          <t>Money &amp; Annecillo (1976)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Hormonausscheidungen unter und nach Behandlung mit Lyndiol 2.5</t>
+          <t>IQ Change following change of domicile in the syndrome of reversible hyposomatotropinism (psychosocial dwarfism): Pilot investigation</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Research Articles| March 23 2010 Hormonausscheidungen unter und nach Behandlung mit Lyndiol 2.5 Subject Area: Further Areas , Women's and Children's Health M. Keller M. Keller Aus dem Laboratorium der Universitäts-Frauenklinik Basel (Dir.: Prof. Dr. Th. Koller; Laborleiter: Dr. M. Keller) Search for other works by this author on: This Site PubMed Google Scholar Gynaecologia (1967) 163 (4): 187–198. https://doi.org/10.1159/000302868 Article history Published Online: March 23 2010 Content Tools Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Peer Review Share Icon Share Facebook Twitter LinkedIn Email Tools Icon Tools Get Permissions Cite Icon Cite Search Site Citation M. Keller; Hormonausscheidungen unter und nach Behandlung mit Lyndiol 2.5. Gynaecologia 1 April 1967; 163 (4): 187–198. https://doi.org/10.1159/000302868 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentAll JournalsGynecologic and Obstetric Investigation Search Advanced Search Article PDF first page preview Close Modal 1967Copyright / Drug Dosage / DisclaimerCopyright: All rights reserved. No part of this publication may be translated into other languages, reproduced or utilized in any form or by any means, electronic or mechanical, including photocopying, recording, microcopying, or by any information storage and retrieval system, without permission in writing from the publisher.Drug Dosage: The authors and the publisher have exerted every effort to ensure that drug selection and dosage set forth in this text are in accord with current recommendations and practice at the time of publication. However, in view of ongoing research, changes in government regulations, and the constant flow of information relating to drug therapy and drug reactions, the reader is urged to check the package insert for each drug for any changes in indications and dosage and for added warnings and precautions. This is particularly important when the recommended agent is a new and/or infrequently employed drug.Disclaimer: The statements, opinions and data contained in this publication are solely those of the individual authors and contributors and not of the publishers and the editor(s). The appearance of advertisements or/and product references in the publication is not a warranty, endorsement, or approval of the products or services advertised or of their effectiveness, quality or safety. The publisher and the editor(s) disclaim responsibility for any injury to persons or property resulting from any ideas, methods, instructions or products referred to in the content or advertisements. You do not currently have access to this content.</t>
+          <t>IQ change in association with change of environment occurred in a sample of 34 patients with a diagnosis of abuse dwarfism. Low and persistent impairment of IQ was associated with abuse. By contrast, IQ elevation was associated with rescue. Multiple regression analysis revealed that duration of rescue was the primary variable associated with IQ elevation; age and IQ level at rescue were secondary. IQ elevation was gradual and progressive over the years, as rescue was maintained. In abuse, the mean IQ was 66 (range, 36–101), and after rescue it was 90 (range 48–133). The greatest magnitude of change, from IQ 36 to 120, was in a girl between the ages of 3 yr 8 months and 13 yr 11 months.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2094234764</t>
+          <t>https://openalex.org/W2044612390</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1203/00006450-196705000-00093</t>
+          <t>https://doi.org/10.1353/pbm.1976.0045</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Daily et al. (1967)</t>
+          <t>Koch (1976)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>86 The Prevention of Prolonged Apnea as a Complication of Prematurity</t>
+          <t>How Bacteria Face Depression, Recession, and Derepression</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Hypoxia secondary to apnea has been suggested as one cause of neurological abnormalities in surviving premature infants. If hypoxia is, in part, responsible for brain damage, prevention by a simple and reliable means would be important. Using an impedance plethysmograph incorporating an alarm system the respiratory patterns of 15 normal premature infants and 7 infants recovering from the respiratory distress syndrome (RDS) weighing 862–2552 gm have been continuously monitred for 5–16 days. In 7 infants we obtained simultaneous ECG tracings. The duration of apneic periods &gt;30 s, ECG changes, and arterial blood gases were measured and the appearance of the infant and the nature of the stimulus required to re-initiate respiration was recorded. A total of 217 apneic periods of &gt; 30 s were observed in the 22 infants. 6 infants (3 with healing RDS) had &gt; 10 apneic episodes. Apneic periods began at end expiration and were rare in infants weighing &gt; 1750 g. More frequent apneic periods at higher incubator temperatures were sometimes noted. When simultaneous ECG tracings were obtained marked cardiac slowing was noted within 10–15 s of the onset of apnea. Bradycardia (&lt; 100) ensued within 20–30 s. Prolonged apnea (&gt; 30 s) was associated with suggestive evidence of hypoxia (loss of muscle tone, cyanosis and mottling) whereas apnea of &lt; 20 s duration was not. This study suggests apnea is more frequent than previously noted and is poorly tolerated after 20 s. Utilizing an apnea alarm, hypoxia with resultant brain damage may be prevented. (SPR)</t>
+          <t>HOW BACTERIA FACE DEPRESSION, RECESSION, AND DEREPRESSION* ARTHUR L. KOCm —Eh bien, mon cher Pangloss, lui dit Candide, quand vous avez été pendu, dissequé, roué de coups, &amp;f que vous avez ramé aux galères, avez-vous toujourpensé que tout allait le mieux du monde:—Je suis toujours de mon premier sentiment, répondit Pangloss; car enfinje suis Philosophe, il ne me convientpas de me dédire; Leibnitz ne pouvantpas avoir tort, &amp; l'harmonie préétablie, {étant) d'ailleurs la plus belle chose due monde, aussi bien que le plein £sf la matière subtile. [Voltaire] I'd like today to tell you how some bacteria get along in a world where conditions keep changing. I hope I have something to say to people attending this lecture representing widely differing disciplines. One of the things that Argonne does very well is to bring together a variety of different approaches and make it possible for people of different backgrounds to work together. I will need to bring together a diverse collection of facts and concepts. To start, let's imagine that the subject matter to be discussed is that pile of stuff shown in figure la. I need to introduce the talk in several very different ways. I would like to start over on the right, and run and see if I can get to the top; and then I want to start over again, from the left, and then from the front with another running start. I must do this because the theme brings a variety of threads together. *1975 AUA-Argonne Distinguished Award Lecture, given at Argonne National Laboratory, Argonne, Illinois, May 20, 1975. Supported by the U.S. Energy Research and Development Administration. The experimental work to probe this metaphysic was done only in part by myself; much was carried by resourceful students and colleagues working on Clouds Seven and Eight. They provided exacting, competent molecular biology and microbial physiology to serve as a foundation for this speculation. I owe a deep debt to Tom Alton, Jerry Blumberg, Penelope Clark, Bob Coffman, Carol Deppe, Dick Ecker, Ellie Ehrenfeld, Pauline Koyoma, Kamal Nath, Tom Norris, and Elio Schaechter. I wish to thank Marsha Rosenthal for help in purifying the spoken word into the written word, and Sara Bechtold for repeatedly purifying my handwriting and spelling. The experimental work was supported over the years by both the NSF and the NIH, most recently under grants BMS-72-01852 A03 and AI-09337-05, respectively. These agencies, the University of Florida, Indiana University, and Argonne made the opportunities to pursue this problem . tProfessor of microbiology, Indiana University, Bloomington, Indiana 47401. 44 I Arthur L. Koch · How Bacteria Face Depression a Fig. 1—Development of Argument: a, Introduction, b, Initial success, c, Deeper meaning . The first introduction: Biologists have come to believe that they are sisters in science to the chemists and the physicists. We generally think of biology as a science similar to chemistry or physics, but I think that you will agree that with more careful consideration this is completely wrong. Biology is a historical subject, as we have studied only the way life evolved on one particular planet. Biologists are certainly as badly off as the historian; biologists are as badly off as the astrophysicist. None of these academicians is doing science, but all but the historian are pretending to do so. All three may use scientific principles or facts to understand the limits and constraints on the particular examples or process under scrutiny. All are, in fact, working out particular happenstances in a Perspectives in Biology and Medicine · Autumn 1976 | 45 particular single or closely related series of instances. This is not to deny that these subjects are interesting and important and can be useful. Biology is not science for another reason, that is, living organisms are essentially machines. An organism faces all of the problems of any machine built to serve a purpose; it even has the extra complications attendant to multiple-purpose machines. On this basis, students of these machines are not scientists; they are engineers. They are trying to figure out how the cogs and wheels and other parts work as mechanisms in the biological machine. This need...</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4301027580</t>
+          <t>https://openalex.org/W2047679432</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1159/000302753</t>
+          <t>https://doi.org/10.1378/chest.69.1.23</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Ledermair &amp; Vinazzer (1967)</t>
+          <t>Weinberg (1976)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Zur Therapie schwerster Menorrhagien bei Morbus Glanzmann-Naegeli</t>
+          <t>Natural History Six Years after Acute Myocardial Infarction</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Research Articles| March 23 2010 Zur Therapie schwerster Menorrhagien bei Morbus Glanzmann-Naegeli Subject Area: Further Areas , Women's and Children's Health O. Ledermair; O. Ledermair Aus der gynäkologischen Abteilung des Krankenhauses der Barmherzigen Schwestern in Linz (Leiter: Prim. Dr. O. Ledermair) und dem Blutgerinnungslaboratorium Dr. Vinazzer in Linz (Leiter: Dr. H. Vinazzer) Search for other works by this author on: This Site PubMed Google Scholar H. Vinazzer H. Vinazzer Aus der gynäkologischen Abteilung des Krankenhauses der Barmherzigen Schwestern in Linz (Leiter: Prim. Dr. O. Ledermair) und dem Blutgerinnungslaboratorium Dr. Vinazzer in Linz (Leiter: Dr. H. Vinazzer) Search for other works by this author on: This Site PubMed Google Scholar Gynaecologia (1967) 164 (2): 109–113. https://doi.org/10.1159/000302753 Article history Published Online: March 23 2010 Content Tools Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Peer Review Share Icon Share Facebook Twitter LinkedIn Email Tools Icon Tools Get Permissions Cite Icon Cite Search Site Citation O. Ledermair, H. Vinazzer; Zur Therapie schwerster Menorrhagien bei Morbus Glanzmann-Naegeli. Gynaecologia 1 February 1967; 164 (2): 109–113. https://doi.org/10.1159/000302753 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentAll JournalsGynecologic and Obstetric Investigation Search Advanced Search Article PDF first page preview Close Modal This content is only available via PDF. 1967Copyright / Drug Dosage / DisclaimerCopyright: All rights reserved. No part of this publication may be translated into other languages, reproduced or utilized in any form or by any means, electronic or mechanical, including photocopying, recording, microcopying, or by any information storage and retrieval system, without permission in writing from the publisher.Drug Dosage: The authors and the publisher have exerted every effort to ensure that drug selection and dosage set forth in this text are in accord with current recommendations and practice at the time of publication. However, in view of ongoing research, changes in government regulations, and the constant flow of information relating to drug therapy and drug reactions, the reader is urged to check the package insert for each drug for any changes in indications and dosage and for added warnings and precautions. This is particularly important when the recommended agent is a new and/or infrequently employed drug.Disclaimer: The statements, opinions and data contained in this publication are solely those of the individual authors and contributors and not of the publishers and the editor(s). The appearance of advertisements or/and product references in the publication is not a warranty, endorsement, or approval of the products or services advertised or of their effectiveness, quality or safety. The publisher and the editor(s) disclaim responsibility for any injury to persons or property resulting from any ideas, methods, instructions or products referred to in the content or advertisements. You do not currently have access to this content.</t>
+          <t>One hundred fifty-four survivors of acute myocardial infarction were observed for six years. Patients with anterior lesions had increased mortality in the acute phase of infarction, a trend not sustained during the long-term follow-up period. Recurrent myocardial infarction and intraventricular conduction disturbances were associated with relatively high short-term and long-term mortality. Four groups were defined. The high-risk group had congestive heart failure, major bundle-branch block, previous myocardial infarction, ventricular tachyarrhythmias, or second- or third-degree atrioventricular block. The low-risk group had none of these stigmata. Each category was divided into those under and over the age of 60. Only patients in the low-risk group, over 60 years of age, (24 percent) had a six-year survival comparable to the standard actuarial projections. Thus, 74 percent of the survivors of the acute phase of infarction had a six-year mortality far in excess of the general population. Some were particularly vulnerable during the first year. These findings may warrant reappraisal of the indications for diagnostic and surgical approaches to managing patients after myocardial infarction. One hundred fifty-four survivors of acute myocardial infarction were observed for six years. Patients with anterior lesions had increased mortality in the acute phase of infarction, a trend not sustained during the long-term follow-up period. Recurrent myocardial infarction and intraventricular conduction disturbances were associated with relatively high short-term and long-term mortality. Four groups were defined. The high-risk group had congestive heart failure, major bundle-branch block, previous myocardial infarction, ventricular tachyarrhythmias, or second- or third-degree atrioventricular block. The low-risk group had none of these stigmata. Each category was divided into those under and over the age of 60. Only patients in the low-risk group, over 60 years of age, (24 percent) had a six-year survival comparable to the standard actuarial projections. Thus, 74 percent of the survivors of the acute phase of infarction had a six-year mortality far in excess of the general population. Some were particularly vulnerable during the first year. These findings may warrant reappraisal of the indications for diagnostic and surgical approaches to managing patients after myocardial infarction. CorrectionsCHESTVol. 70Issue 2PreviewRe article, “Natural History Six Years after Acute Myocardial Infarction: Is There a Low-risk Group?” by Sylvan Lee Weinberg (Chest 69:23–28, 1976) following is complete, corrected reference 3: Weinberg SL, Col J: The changing coronary care unit. In Russek H, Lohman B (eds): Changing Concepts in Cardiovascular Disease (vol 19). Baltimore, Williams and Wilkins, 1972, pp 204–214 Full-Text PDF</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2051737608</t>
+          <t>https://openalex.org/W2050443883</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7326/0003-4819-66-6-1291</t>
+          <t>https://doi.org/10.1115/1.3448292</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Konttinen (1967)</t>
+          <t>Kiser et al. (1976)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SERUM LACTATE DEHYDROGENASE AND PULMONARY EMBOLISM</t>
+          <t>Measurements of Velocity Wave Forms in the Dog Aorta</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Letters and Comments1 June 1967SERUM LACTATE DEHYDROGENASE AND PULMONARY EMBOLISMAARNE KONTTINEN, M.D.AARNE KONTTINEN, M.D.Search for more papers by this authorAuthor, Article, and Disclosure Informationhttps://doi.org/10.7326/0003-4819-66-6-1291 SectionsAboutPDF ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinkedInRedditEmail ExcerptTo the Editor: The article of Drs. Amador and Potchen (1) concerning the elevation of serum lactate dehydrogenase (LDH) activity in pulmonary embolism in the December issue of the ANNALS is worth some comments.The authors of the article have observed an elevated serum LDH activity in 40 of 41 patients with pulmonary embolism. They refer also to some other investigations where a clear-cut augmentation of serum LDH activity has been reported in pulmonary damage. However, they omit a large bulk of studies in which the increase of serum LDH activity has been inconsistent.On the other hand, the authors...References1. AMADORPOTCHEN EEJ: Serum lactic dehydrogenase activity and radioactive lung scanning in the diagnosis of pulmonary embolism. Ann. Intern. Med. 65: 1247, 1966. LinkGoogle Scholar2. PYÖRÄLÄGORDINKONTTINENTELIVUO KRAL: Serum enzymes after cardiac surgery. Acta Med. Scand. 174: 361, 1963. CrossrefMedlineGoogle Scholar3. HALONENKONTTINEN PIA: Effect of physical exercise on some enzymes in the serum. Nature (London) 193: 942, 1962. CrossrefMedlineGoogle Scholar4. KONTTINENRAJASALMIPALOHEIMO AMJ: Serum enzyme activities in endotoxin shock. Amer. J. Physiol. 207: 385, 1964. CrossrefMedlineGoogle Scholar5. RICHMANDELMANGROB SMAJD: Alterations in indices of liver function in congestive heart failure with particular reference to serum enzymes. Amer. J. Med. 30: 211, 1961. CrossrefMedlineGoogle Scholar6. WESTGELBPILZZIMMERMAN MDCGHJ: Serum enzymes in disease. VII. Significance of abnormal serum enzyme levels in cardiac failure. Amer. J. Med. Sci. 241: 350, 1961. CrossrefMedlineGoogle Scholar7. ZIMMERMANWEINSTEIN HJHG: Lactic dehydrogenase activity in human serum. J. Lab. Clin. Med. 48: 607, 1956. MedlineGoogle Scholar8. NEILANDS JB: Methods in Enzymology I. Academic Press Inc., Publishers, New York, 1955, p. 449. CrossrefGoogle Scholar9. WRÓBLEWSKILADUE FJS: Lactic dehydrogenase activity in blood. Proc. Soc. Exp. Biol. Med. 90: 210, 1955. CrossrefMedlineGoogle Scholar10. KONTTINENPYÖRÄLÄ AT: Serum enzyme activity in late pregnancy, at delivery, and during puerperium. Scand. J. Clin. Lab. Invest. 15: 429, 1963. CrossrefMedlineGoogle Scholar11. SCHONELLCROMPTONFORSHALLWHITBY MEGKJMLG: Failure to differentiate pulmonary infarction from pneumonia by biochemical tests. Brit. Med. J. 1: 1146, 1966. CrossrefMedlineGoogle Scholar12. KONTTINENLINDY AS: Denaturation of lactic dehydrogenase isozymes and its clinical application. Nature (London) 208: 782, 1965. CrossrefMedlineGoogle Scholar13. LINDYKONTTINEN SA: Reduced nicotinamide-adenine dinucleotide and pyruvate in urea-denaturation of lactic dehydrogenase isozymes. Nature (London) 209: 79, 1966. CrossrefMedlineGoogle Scholar14. KONTTINENLINDY AS: Assay of cardiac lactate dehydrogenase isoenzymes by means of urea. Acta Med. Scand. In press. Google Scholar15. LINDYKONTTINEN SA: Urea-stable lactate dehydrogenase as an index of cardiac isoenzymes. Amer. J. Cardiol. In press. Google Scholar16. Leading Article: Pulmonary infarction. Brit. Med. J. 1: 1129, 1966. CrossrefMedlineGoogle Scholar1. HAYNIEHENDRICKSCHREIBER TPCKMH: Diagnosis of pulmonary embolism and infarction by photoscanning. J. Nucl. Med. 6: 613, 1965. MedlineGoogle Scholar2. SMITHDAMMINDEXTER GTGJL: Postmortem arteriographic studies of the human lung in pulmonary embolization. JAMA 188: 143, 1964. CrossrefMedlineGoogle Scholar3. SASAHARASTEINSIMONLITTMAN AAMMD: Pulmonary angiography in the diagnosis of thromboembolic disease. New Eng. J. Med. 270: 1075, 1964. CrossrefMedlineGoogle Scholar4. ZATUCHNIGREEN JJV: Use and value of lung scan in recognition of pulmonary embolism. Amer. J. Med. Sci. 252: 134, 1967. Google Scholar5. MOSERTISIRHODESLANDISMIALE KMGMPGGAA: Correlation of lung photoscans with pulmonary angiography in pulmonary embolism. Amer. J. Cardiol. 18: 810, 1966. CrossrefMedlineGoogle Scholar6. AMADORDORFMANWACKER ELEWE: Serum lactic dehydrogenase activity: an analytical assessment of current assays. Clin. Chem. 9: 391, 1963. CrossrefGoogle Scholar7. AMADORREINSTEINBENOTTI EHN: Precision and accuracy of lactic dehydrogenase assays. Amer. J. Clin. Path. 44: 62, 1965. CrossrefGoogle Scholar8. HENRYCHIAMORIGOLUBBERKMAN RJNOJS: Revised spectrophotometric methods for the determination of glutamic-oxalacetic transaminase, glutamic-pyruvic transaminase, and lactic acid dehydrogenase. Amer. J. Clin. Path. 34: 381, 1960. CrossrefMedlineGoogle Scholar9. BOHNNISSEN LNI: Maelksyredehydrogenase isoenzymmønster i serum ved hjerte- og leversygdrome. Nord. Med. 77: 106, 1967. MedlineGoogle Scholar10. SCHONELLCROMPTONFORSHALLWHITBY MEGKJMLG: Failu</t>
+          <t>Hot film needle and catheter probes were used to measure the velocity waves in the dog aorta between the aortic valve and the iliac bifurcation. The forms of the waves were found to be of two types, those in which there was a reverse flow, following systole, everywhere along the centerline of the aorta and those for which there was no flow reversal in the regions below the diaphragm. Energy spectra were measured before and after the administration of a cardiac stimulant. Except for a shift to higher frequencies, no significant change in the form of the spectra was observed. Characteristic times developed for the mean flow and the decay of a fully developed turbulence suggest that it is difficult to sustain small scale turbulence which might be initiated during peak systole.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4238469419</t>
+          <t>https://openalex.org/W2051330561</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00223346708572119</t>
+          <t>https://doi.org/10.2134/agronj1976.00021962006800060014x</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Davidson et al. (1967)</t>
+          <t>Koli &amp; Morrill (1976)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Book reviews</t>
+          <t>Influence of Nitrogen, Narrow Rows, and Plant Population on Cotton Yield and Growth&lt;sup&gt;1&lt;/sup&gt;</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Road belong Cargo. A study of the Cargo Movement in the Southern Madang District, New Guinea. By Peter Lawrence. Parkville and Manchester, Melbourne University Press and Manchester University Press, 1964. xviii, 291 pp. 50s.* Induced Political Change in the Pacific: A Symposium. Edited by Roland W. Force. Bishop Museum Press, 1965. ix, 103 pp. $US3.50. Search for New Guinea's Boundaries: From Torres Strait to the Pacific. By Paul W. Van Der Veur. Canberra, Australian National University Press, 1966. xii, 176 pp., seven plates. $A6–30. Documents and Correspondence on New Guinea's Boundaries. Compiled by Paul W. Van Der VEUR. Canberra, Australian National University Press, 1966. x, 212 pp. $A3.90. Readings in Australian and Pacific Anthropology. Edited by Ian Hogbin and L. R. Hiatt. Melbourne, Melbourne University Press, 1966. 179 pp. $A2.80. Oral Tradition: A Study in Historical Methodology. By Jan Vansina (translated by H. M. Wright). London, Routledge &amp; Kegan Paul, 1965. xiv, 204 pp., appendix, bibliog., index. 30s. Australian Dictionary of Biography. Edited by Douglas pike. Volume I: 1788–1850, A‐H. Melbourne, Melbourne University Press; London and New York, Cambridge University Press, 1966. xx, 578 pp. $A12.00. Pacific Basin Biogeography. A Symposium. Edited by J. Linsley Gressit. Honolulu, Bishop Museum Press, 1963. 561 pp. [$US12.52]. Pacific Port Towns and Cities: a symposium. Edited by Alexander Spoehr. Honolulu, Bishop Museum Press, 1963. vii, 89 pp. $US3.50. New England and the South Seas. By Ernest S. Dodge. Cambridge, Massachusetts, Harvard University Press, 1965. xv, 216 pp., illus., endpaper maps, bibliog. $A6.70. The Voice of the Whaleman. With an account of the Nicholson Whaling Collection. By Stuart C. Sherman. Providence, Rhode Island, Providence Public Library, 1965. 219 pp., illus., bibliog. $US 10.00.</t>
+          <t>Abstract Narrow row planting of cotton ( Gossypium hirsutum L.) has the potential for improving yield and production efficiency. Fertilizer needs and other production technology for narrow row cotton have received little attention, especially the nitrogen (N) requirement. The objective of this study was to ascertain if N fertilizer, narrow row, and high population, has any effect on growth and yield of dryland cotton. The relationship between petiole NO − 3 ‐N at various stages of development and yields was also investigated. Row spacing (25, 51, and 76‐cm), plant populations (123,550 and 173,000 plants/ha), and N rate (0, 45, and 90 kg/ha) variables were placed in a factorial arrangement of a randomized, complete block design with four replications. Low N treatments (45 kg/ha) produced no significant change in yield, but higher N rates reduced yield significantly. The 25 and 51‐cm row spacings produced significantly higher yield than 76‐cm rows. The range of plant populations used did not materially affect yield, but there was a significant N‐population interaction. Narrow rows reduced plant height. NO − 3 ‐N levels in petioles increased with increased N rate, being highest at the square stage of plant growth and decreasing sharply at the flower and boll stages. There was no significant correlation between petiole NO − 3 ‐N and yield. Narrow row cotton can result in higher yield and is especially of interest where the length of growing season is not optimum.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1981477160</t>
+          <t>https://openalex.org/W2059804870</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1073/pnas.75.5.2258</t>
+          <t>https://doi.org/10.1016/0022-1902(76)80201-1</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Albon &amp; Sturtevant (1978)</t>
+          <t>Reed (1976)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Nature of the gel to liquid crystal transition of synthetic phosphatidylcholines.</t>
+          <t>Oxidative-addition reactions of nitronium tetrafluoroborate with unsaturated transition metal complexes</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>High sensitivity differential scanning calorimetry is employed in the study of the gel to liquid crystal phase transition of a highly purified sample of dipalmitoylphosphatidylcholine in multilamellar bilayer suspension. It is concluded from the calorimetric data that the purity of the sample is better than 99.94 mol % and that the transition closely approximates an isothermal first-order transition.</t>
+          <t>Abstract The oxidative-addition reaction of nitronium tetrafluoroborate to unsaturated species such as Ru(O), Rh(I), Ir(I), Pt(O) has been used to prepare nitrosyl and nitro complexes of these transition metals. In the case of Ru(O), a nitro-nitrosyl complex is also found. The use of nitronium ion, NO2+ to introduce the nitrosyl group into coordination complexes is novel. The reaction of NO2+ with coordinatively unsaturated species appears to be analogous with that of NO+. The preparation and some chemical and physical properties of the complexes are discussed.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2067775041</t>
+          <t>https://openalex.org/W2061168144</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/ac50036a031</t>
+          <t>https://doi.org/10.1029/ja081i010p01700</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Kingston et al. (1978)</t>
+          <t>Marubashi &amp; Grebowsky (1976)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Separation of eight transition elements from alkali and alkaline earth elements in estuarine and seawater with chelating resin and their determination by graphite furnace atomic absorption spectrometry</t>
+          <t>A model study of diurnal behavior of the ionosphere and the protonosphere coupling</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ADVERTISEMENT RETURN TO ISSUEPREVArticleNEXTSeparation of eight transition elements from alkali and alkaline earth elements in estuarine and seawater with chelating resin and their determination by graphite furnace atomic absorption spectrometryH. M. Kingston, I. L. Barnes, T. J. Brady, T. C. Rains, and M. A. ChampCite this: Anal. Chem. 1978, 50, 14, 2064–2070Publication Date (Print):December 1, 1978Publication History Published online1 May 2002Published inissue 1 December 1978https://doi.org/10.1021/ac50036a031RIGHTS &amp; PERMISSIONSArticle Views834Altmetric-Citations268LEARN ABOUT THESE METRICSArticle Views are the COUNTER-compliant sum of full text article downloads since November 2008 (both PDF and HTML) across all institutions and individuals. These metrics are regularly updated to reflect usage leading up to the last few days.Citations are the number of other articles citing this article, calculated by Crossref and updated daily. Find more information about Crossref citation counts.The Altmetric Attention Score is a quantitative measure of the attention that a research article has received online. Clicking on the donut icon will load a page at altmetric.com with additional details about the score and the social media presence for the given article. Find more information on the Altmetric Attention Score and how the score is calculated. Share Add toView InAdd Full Text with ReferenceAdd Description ExportRISCitationCitation and abstractCitation and referencesMore Options Share onFacebookTwitterWechatLinked InReddit PDF (842 KB) Get e-Alerts Get e-Alerts</t>
+          <t>Journal of Geophysical Research (1896-1977)Volume 81, Issue 10 p. 1700-1706 Particles and Fields—Ionosphere A model study of diurnal behavior of the ionosphere and the protonosphere coupling K. Marubashi, K. MarubashiSearch for more papers by this authorJ. M. Grebowsky, J. M. GrebowskySearch for more papers by this author K. Marubashi, K. MarubashiSearch for more papers by this authorJ. M. Grebowsky, J. M. GrebowskySearch for more papers by this author First published: 1 April 1976 https://doi.org/10.1029/JA081i010p01700Citations: 25AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat Abstract A new method to study dynamic behavior of the ionosphere-protonosphere coupling within the plasmasphere is developed and used to calculate ion distributions above 500 km using observed electron densities at 500 km. The method is based on the relation between the total magnetic flux tube content of H+ above some reference height (e.g., 3000 km) and the H+ flux at that height, which is uniquely determined by the coupled momentum and continuity equations for the quasi-steady state. The O+ profile is perturbed from diffusive equilibrium only by ion drag with H+. The time dependency is taken into account by applying self-consistent boundary conditions which are obtained from the solution of the time-dependent equation for the tube content of H+. Calculations are carried out for two models. The first model deals with the ion dynamics in a tube of force which rotates with the earth. In the second model, effects of the cross-L plasma drifts are considered. Both models produce diurnal variations of H+ and O+ densities near 1000 km similar to observational results. While the corotating model yields upward flow of H+ in the daytime and downward flow in the nighttime, the inclusion of the cross-L plasma motion gives rise to significant changes in the tube content and alters the diurnal variation of the H+ flux as well as the direction of flow in the evening sector. Although this effect is not very significant in the inner portion of the plasmasphere, the cross-L motion of plasma will play a more important role in the outer portion of the plasmasphere. References Banks, P. M., J. R. Doupnik, Thermal proton flow in the plasmasphere: The morning sector, Planet. Space Sci., 22, 79–94, 1974. Banks, P. M., T. E. Holzer, Features of plasma transport in the upper atmosphere, J. Geophys. Res., 74, 6304–6316, 1969. Banks, P. M., G. Kockarts, Aeronomy, part B, Academic, New York, 1973. Banks, P. M., A. F. Nagy, W. I. Axford, Dynamical behavior of thermal protons in the mid-latitude ionosphere and magnetosphere, Planet. Space Sci., 19, 1053–1067, 1971. Banks, P. M., R. W. Schunk, W. J. Raitt, Temperature and density of thermal proton flows, J. Geophys. Res., 79, 4691–4702, 1974. Bauer, S. J., Physics of Planetary Ionosphere, Physics and Chemistry in Space, 6 J. G. Roederer, chap. 5, Springer, New York, 1973. Brace, L. H., R. F. Theis, The behavior of the plasmasphere at mid-latitudes: Isis 1 Langmuir probe measurements, J. Geophys. Res., 79, 1871–1884, 1974. Braginskii, S. L., Transport processes in a plasma, translated from Russian, Reviews of Plasma Physics, 1 M. A. Leontovich, 205–311, Consultants Bureau, New York, 1965. Brinton, H. C., H. G. Mayr, Thermospheric hydrogen: Absolute densities and temporal variations deduced from in situ measurements, J. Geophys. Res., 76, 6198–6201, 1971. Brinton, H. C., R. A. Pickett, H. A. Taylor Jr., Diurnal and seasonal variations of atmospheric ion composition; Correlation with solar zenith angle, J. Geophys. Res., 74, 4064–4073, 1969. Chen, A. J., J. M. Grebowsky, K. Marubashi, Diurnal variation of thermal plasma in the plasmasphere, Planet. Space Sci., 1976. Evans, J. V., Observation of F region vertical velocities at Millstone Hill, 1, Evidence for drifts due to expansion, contraction, and winds, Radio Sci., 6, 609–629, 1971. Hanson, W. B., I. B. Ortenburger, The coupling between the protonosphere and the normal F region, J. Geophys. Res., 66, 1425–1435, 1961. Hruska, A., S. Matsushita, Particle density in the plasmasphere during quiet periods, Planet. Space Sci., 19, 651–657, 1971. Marubashi, K., Escape of the polar-ionospheric plasma into the magnetospheric tail, Rep. Ionos. Res. Space Res. Jap., 24, 332–346, 1970. Mayr, H. G., E. G. Fontheim, L. H. Brace, H. C. Brinton, H. A. Taylor Jr., A theoretical model of the ionosphere dynamics wiih interhemispheric coupling, J. Atmos. Terr. Phys., 34, 1659–1680, 1972. Miller, N., The day side mid-latit</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2084765737</t>
+          <t>https://openalex.org/W2061719322</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1139/e78-001</t>
+          <t>https://doi.org/10.1016/0302-3524(76)90003-7</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Roberts &amp; Reardon (1978)</t>
+          <t>Caston (1976)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Alteration and ore-forming processes at Mattagami Lake Mine, Quebec</t>
+          <t>A wind-driven near-bottom current in the Southern North Sea</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>The altered rocks of the Mattagami Lake Mine, a stratabound, volcanogenic, massive sulphide deposit, were examined using whole rock analyses and electron microprobe studies of the constituent minerals. The significant chemical and mineralogical transformations involved in the progressive alteration of the footwall, vitroclastic tuff of rhyodacitic composition, are: (1) the removal of alkalies (sodium followed by potassium), and the addition of magnesium and iron during initial chloritization; (2) substantial removal of silica by the solution of quartz, to produce a chlorite-rich rock, and (3) gradual removal of aluminum and the transformation of chlorite (Mg 2.5 Fe 2.5 Al 2 Si3O 10 (OH) 8 ) to talc (MG 2.5 FE 0.5 Si 4 O 10 (OH) 2 to produce units of talc–actinolite schist. The reaction: 3 chlorite + 10H 2 S (g) + 2.5 O 2 + 11,H 4 SiO 4 + 5Mg 2+ = 5talc + 5pyrite + [Formula: see text] + 19H 2 O + 16H + (log K, 25 °C = +145; log K, 100 °C = +102; log K, 250 °C = +68.2) is favoured by high temperature and Mg 2+ activity, and low activity of aluminum.The alteration pipe zone immediately beneath the orebody is assumed to have been the discharge site of a thermally induced, convective flow system. The upper part of the system would have been characterized by the movement of seawater, of comparatively short residence time in the rocks, to areas of discharge. Under conditions of high permeability and high water flux in these zones, bulk seawater composition of comparatively high magnesium and low aluminum concentrations would ultimately control the composition of the volcanic material by the formation of alteration products in equilibrium with it, rather than the volcanic material significantly affecting the seawater chemistry. This would ensure the early development of magnesian chlorite in the vitric tuff. The transformation chlorite to talc took place at discharge sites, the locations of highest surface temperatures, under hydrologic conditions such that the flux rate was sufficiently high to remove the comparatively immobile aluminum.The massive sulphide units were emplaced in association with the development of talc. Layered pyrite–sphalerite, overlying and extending beyond talc units are chemical sediments.</t>
+          <t>Simultaneous recordings of wind and near-bottom current velocity and direction were made over the period 8 November–16 December 1967 from two production platforms situated in the south-western North Sea. The current measurements were made 4·6 m above sea bed in a total water depth of 34·7 m LAT. Throughout the greater part of the period the recorded current velocities agreed closely with predicted values calculated on the basis of a correlation with tidal range data. Over a 125-hour period however the south-going currents were very much stronger and the north-going streams considerably less than anticipated. This corresponded with a period of high wind speeds which touched 25·7 m s−1 (50 kts) and exceeded 18 m s−1 (35 kts) for 68 hours, and which blew sub-parallel to the direction of flow of the southerly-flowing current. The increase in velocity of the near-bottom southerly-going current averaged 23 cm s−1, exceptionally 36 cm s−1, and is equivalent to a figure of between 1·4 and 2% of the wind speed. It is suggested that these anomalously high values may be related to a shift in the axes of current streams flowing between sand banks adjacent to the platform from which the current measurements were made.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2022405211</t>
+          <t>https://openalex.org/W2062547564</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/bs.3830230410</t>
+          <t>https://doi.org/10.1111/j.1755-618x.1976.tb00756.x</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Woodcock (1978)</t>
+          <t>Tepperman (1976)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Landscapes of change: Catastrophe theory and biological processes</t>
+          <t>A simulation of social mobility in industrial societies*</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Elementary catastrophe theory provides a method for the qualitative description of systems with associated potential energy functions. It can serve at least as an illustrative metaphor for the local description of biological development. It replaces earlier theories of development that utilized paths on an ad hoc epigenetic landscape, for example, with one that generates trajectories on a well-defined hypersurface, the catastrophe manifold. While the elementary theory does provide a much richer mathematical language than the earlier geometric theories, it suffers from several drawbacks, outlined in this paper, which prevent it from being a conclusive theory for biological development.</t>
+          <t>Canadian Review of Sociology/Revue canadienne de sociologieVolume 13, Issue 1 p. 26-42 A simulation of social mobility in industrial societies* Lorne Tepperman, Lorne Tepperman University of TorontoSearch for more papers by this author Lorne Tepperman, Lorne Tepperman University of TorontoSearch for more papers by this author First published: February 1976 https://doi.org/10.1111/j.1755-618X.1976.tb00756.xCitations: 3 † *I am grateful for support provided by a Humanities and Social Sciences Grant from the Office of Research Administration, University of Toronto; and to my colleague Jeff Reitz for his comments and criticisms. AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES Black, C. E. 1966. The Dynamics of Modernization New York : Harper and Row. Blau, Peter M., and Otis Dudley Duncan 1967. The American Occupational Structure New York : Wiley. Dofny, Jacques, and Muriel Garon-Audy 1969 Mobilites professionelles au Quebec Sociologie et Societes 1(November): 277–301. Duncan, O. D. 1966 Methodological issues in the analysis of social mobility.’ Pp. 51–97 in Neil J. Smelser and Seymour Martin Lipset, (eds.) Social Structure and Mobility in Economic Development Chicago : Aldine. Girod, Roger 1971. Mobilite Sociale Geneva : Droz. D. V. Glass(ed.) 1954. Social Mobility in Britain London : Rout-ledge and Kegan Paul. Goode, William J. 1966 Family and mobility.’ Pp. 582–601 in Reinhard Bendix and Seymour Martin Lipset, (eds.) Class, Status and Power. Second Edition New York : Free Press. de Jocas, Yves, and Guy Rocher 1968 Inter-generation occupational mobility in the province of Quebec’ Pp. 711–23 in Bernard Blishen et al, (eds.) Canadian Society Third Edition Toronto : Macmil-lan of Canada. Kalbach, Warren E., and Wayne Mc Vey 1971. The Demographic Bases of Canadian Society Toronto : McGraw-Hill Ryerson. Kirk, Dudley 1971 A new demographic transition.’ Pp. 123–47 in National Academy of Sciences, Rapid Population Growth: Consequences and Policy Implications, Volume 11. Baltimore : Johns Hopkins Press. Kuznets, Simon 1966. Modern Economic Growth New Haven : Yale University Press. Levine, Joel 1972 A two-parameter model of interaction in father-son status mobility. Behavioral Science 17(September): 455–65. Lipset, Seymour Martin, and Reinhard Bendix 1959. Social Mobility in Industrial Society Berkeley : University of California Press. Lipset, Seymour Martin, and Hans Zetterberg 1956 A theory of social mobility. Transactions of the Third World Congress of Sociology 2: 155–77. Meadows, Donella, and Dennis Meadows et al. 1972. The limits to Growth New York : Universe Books. Miller, S. M. 1960 Comparative social mobility: a trend report and bibliography. Current Sociology 9: 1–89. Mosteller, Frederick 1968 Association and estimation in contingency tables. Journal of the American Statistical Association 63(March): 1–28. Taeuber, Karl E., and Alma F. Taeuber 1965. Negroes in Cities Chicago : Aldine. Tumin, Melvin M., with Arnold Feldman 1971. Social Class and Social Change in Puerto Rico Indianapolis : Bobbs Merrill. Citing Literature Volume13, Issue1February 1976Pages 26-42 ReferencesRelatedInformation</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2180043963</t>
+          <t>https://openalex.org/W2068129705</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1146/annurev.es.09.110178.002025</t>
+          <t>https://doi.org/10.1029/jb081i029p05305</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Johannes (1978)</t>
+          <t>Rosendahl (1976)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Traditional Marine Conservation Methods in Oceania and Their Demise</t>
+          <t>Evolution of oceanic crust: 2. Constraints, implications, and inferences</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Understanding a conservation system means understanding not only nature of what is being conserved, but also viewpoint of conserver. Knowledge of this second element is essential if we are to comprehend a system of resource management employed by a people whose perception of their environment differs from our own. Watt (83) has said that a prudent civilization should take seriously ideas of other civilizations about resource use. Over short term, he states, the ideas of civilization A might appear vastly superior to those of civilization B. But over long term it could turn out that apparently 'primitive' practices of civilization B were based on millenia of trial and error and incorporated deep wisdom that was unintelligible to civilization A.'' The following is an account of rise and decline of a millenia-old system of controlled exploitation of marine resources that incorporates a wisdom Westerners are only now beginning to appreciate after having brought about its widespread decay. The inhabitants of Oceania [defined here as islands of Polynesia (excluding New Zealand), Melanesia (excluding New Guinea), and Micronesia] traditionally obtained bulk of their protein from sea. They often had no alternative. Population densities commonly reached several hundred people per square mile and sometimes climbed to more than one thousand per square mile. On some islands land (often consisting of calcareous soil with little humus) barely supplied their vegetable needs. Terrestrial food supplies were not only limited, but also precarious. On many islands typhoons, droughts, and tsunamis periodically destroyed them. Warm, hu-</t>
+          <t>In part 1 (Rosendahl et al., 1976) of this study it was found that a wedge-shaped low-velocity zone underlies the axial block of the East Pacific Rise. This low-velocity zone, which occurs within the oceanic crust, is thought to represent a magma reservoir containing approximately 30% melt by volume. One consequence of this interpretation is that isostatic uplift alone can produce the axial block morphology observed along much of the East Pacific Rise crest. Based upon mantle intercept time anomalies, it appears that the axial block of the Reykjanes Ridge also could be a morphologic expression of an underlying magma reservoir. Because the Mid-Atlantic Ridge axial valley is about an order of magnitude larger than the probable width of any underlying crustal zone of partial melt, the morphology there could not be generated by volumetric changes (e.g., via magma withdrawal) in a shallow magma chamber. Another consequence of the magma reservoir interpretation is that it leads to new inferences on the constitution of ocean crust. In particular, it is suggested that crust generated at spreading systems with axial block morphology may show both chemical and stratigraphic differences from crust generated at axial valley spreading systems.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1484962065</t>
+          <t>https://openalex.org/W2069122473</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/15287397609529406</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Nimmer (1978)</t>
+          <t>Burnett et al. (1976)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>The nature of system change : reform impact in the criminal courts</t>
+          <t>Teratology and percutaneous toxicity studies on hair dyes</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Twelve hair dye formulations were tested for systemic toxicity by topical application twice weekly for 13 wk to groups of 12 New Zealand white rabbits and for teratologic effects following applications to groups of 20 pregnant Charles River CD rats on days 1, 4, 7, 10, 13, 16, and 19 of gestation. The three semipermanent formulations were applied as is, and the nine oxidation dyes were mixed 1:1 with 6% hydrogen peroxide just prior to application, as in normal use. The formulations induced a broad spectrum of dyes and dye intermediates used or considered useful in oxidative and semipermanent hair color products. In the teratology study no biologically significant soft tissue or skeletal changes were noted. Similarly, the mean numbers of corpora lutea, implantation sites, live fetuses, and resorptions per pregnancy, as well as numbers of litters with resporptions, were not significantly affected by the dye treatment. In the percutaneous toxicity study there was no evidence of compound-induced systemic effects. Microscopic examination of 25 tissues from each animal gave no indication of histomorphologic evidence of toxicity. No dye discoloration of urine was seen at any time during the test or at necropsy. Some of the dye groups showed epidermal hyperplasia, which was probably a reflection of slight irritation due to the frequency of application of the oxidation formulations.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2023121724</t>
+          <t>https://openalex.org/W2069564653</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/649653</t>
+          <t>https://doi.org/10.1086/154074</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Potter (1978)</t>
+          <t>Burlaga &amp; Barouch (1976)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Significance and Origin of Big Rivers</t>
+          <t>Interplanetary stream magnetism - Kinematic effects</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Ancient big river systems can be identified by a combination of facies mapping, paleocurrent study, analysis of unconformities, and the careful reconstruction of the tectonic history of a region. Ancient or modern, the location of big river systems on cratons largely follows structural lows such as deep-seated rifts, aulacogens, and geofracture systems; on a continent-wide scale many big rivers debouch on trailing continental margins and into marginal seas, where they tend to be localized by deep geofracture systems intersecting the coastline. Big river systems have their greatest longevity on cratons where some have persisted as long as one sixteenth of earth history. A major factor in any river system is the marine history of its drainage basin, a history that in turn is dependent upon the region's tectonic history.</t>
+          <t>view Abstract Citations (34) References (20) Co-Reads Similar Papers Volume Content Graphics Metrics Export Citation NASA/ADS Interplanetary stream magnetism: kinematic effects. Burlaga, L. F. ; Barouch, E. Abstract The particle density and the magnetic-field intensity and direction are calculated for volume elements of the solar wind as a function of the initial magnetic-field direction and the initial speed gradient. It is assumed that the velocity is constant and radial. These assumptions are approximately valid between about 0.1 and 1.0 AU for many streams. Time profiles of the particle density, field intensity, and velocity are calculated for corotating streams, neglecting effects of pressure gradients. The compression and rarefaction of the magnetic field depend sensitively on the initial field direction. By averaging over a typical stream, it is found that the average radial field intensity is inversely proportional to the square of the heliocentric distance, whereas the average intensity in the direction of the planets' motion does not vary in a simple way, consistent with deep space observations. Changes of field direction may be very large, depending on the initial angle; but when the initial angle at 0.1 AU is such that the base of the field line corotates with the sun, the spiral angle is the preferred direction at 1 AU. The theory is also applicable to nonstationary flows. Publication: The Astrophysical Journal Pub Date: January 1976 DOI: 10.1086/154074 Bibcode: 1976ApJ...203..257B Keywords: Interplanetary Magnetic Fields; Kinetic Theory; Solar Wind; Astronomical Maps; Astronomical Models; Density Distribution; Dynamic Models; Magnetic Flux; Magnetic Measurement; Velocity Distribution; Astrophysics full text sources ADS |</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2060153114</t>
+          <t>https://openalex.org/W2070417489</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0033-0620(78)90025-7</t>
+          <t>https://doi.org/10.1016/0034-5687(76)90084-0</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Case et al. (1978)</t>
+          <t>Reeves &amp; Малан (1976)</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Clinical experience with blockade of the renin-angiotensin-aldosterone system by an oral converting-enzyme inhibitor (SQ 14,225, captopril) in hypertensive patients</t>
+          <t>Model studies of intracellular acid-base temperature responses in ectotherms</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Nineteen patents with treatment-resistant essential (13) or renovascular (6) hypertension were treated with an orally active inhibitor of angiotensin-converting enzyme, D-2-methyl-3-mercaptopropanoyl-L-proline (captopril), for periods up to 6 mo. The compound alone produced moderate to marked sustained reductions in blood pressure, often to normal levels. One patient who had a low renin level exhibited no significant response. In four patients with a partial response, addition of a diuretic produced satisfactory blood pressure control. No serious side-effects were noted. A syndrome of rash and fever was observed in two patients, which resolved following reduction of the dose or withdrawal of drug. The mechanism of action remains to be fully elucidated, but the data indicate that a major action involves suppression of the reninangiotensin-aldosterone system. Thus, the degree of blood pressure reduction was correlated (1) with the level of pretreatment plasma renin activity, (2) with the induced suppression of urinary aldosterone excretion, and (3) with the consequent changes in potassium balance and serum potassium. Sustained coverting-enzyme blockade produced natriuresis in a majority of patients on a normal sodium intake, a factor that may contribute to the blood pressure response. The evidence suggests that at the doses currently used the induced blockade of angiotensin II formation is incomplete, since during therapy aldosterone appears to remain responseive to physiologic changes in renin activity, although at a lower level. Indeed, reactive increases in renin secretion may, in some patients, diminish the antihypertensive action of the drug. These results with an oral agent over a longer time closely resemble the acute effects of the intravenous nonapeptide inhibitor. The effects of these two agents in turn are in many respects similar to those obtained with other agents that block the renin system, namely saralasin and beta-adrenergic blockers. Accordingly, from a conceptual standpoint, these new findings provide another dimension in the growing body of evidence, idicating a significant in involvement of the renin-angiotensin-aldosterone system in most hypertensive patients. This in turn provides the basis for a new approach to therapy based on the identification and containment of the renin factor by specific pharmacologic agents.</t>
+          <t>Measurements of intracellular pH (pHi) in air-breathing ectotherms have only been made in the steady state; these pHi indicate that protein charge state, measured as alpha imidazole (alphaIM), the fractional dissociation of protein histidine imidazole groups, is preserved when ectotherm tissues change temperature in vivo, with related changes in pHi and PCO2. In partial answer to the question of how such tissues are able to avoid disrupting transients to functions sensitive to protein charge states, model studies were carried out to assess the passive intracellular buffer system response to a combined change in body temperature and CO2 partial pressure as occurs in vivo in these species. The cell compartment was modeled as a closed volume of ternary buffer solution, containing protein imidazole (50 mM/1); phosphate (15 mM/1) and CO2-bicarbonate buffer components, permeable only to CO2 and permitted no change in buffer base. Excursions from a steady-state non-equilibrium pHi were computed to a step-change in temperature/PCO2. Computations for frog (Rana catesbeiana) striated muscle show that the calculated pHi response on the basis of estimated composition and concentration of cell buffer components, moves along the curve describing the steady-state temperature relationship. No transient away from steady-state alphaIM and carbon dioxide content need be postulated. Applications to turtle (Pseudemys scripta) striated muscle are also explored. These calculations show that ectotherm cells may be capable of responding without appreciable time for adaptation to intracellular acid-base state changes incurred by sudden alteration of body temperature in vivo, given the observed adjustments of blood PCO2 with temperature.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2332323756</t>
+          <t>https://openalex.org/W2073681172</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/3790</t>
+          <t>https://doi.org/10.1063/1.322950</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Taylor et al. (1978)</t>
+          <t>Pepper (1976)</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>The Density-Dependence of Spatial Behaviour and the Rarity of Randomness</t>
+          <t>Effect of adsorbed films on friction of Al2O3-metal systems</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>1. Spatial distribution was analysed in 156 sets of field data comprising more than 200,000 sample units in 3840 samples from 102 species. _x000D_
-2. Taylor's model, proposing that spatial variance is proportional to a fractional power of mean population density, provided an appropriate description of 147 sets of data. _x000D_
-3. Iwao's mean crowding model provided a rather less adequate alternative but with marked limitations._x000D_
-4. The negative binomial with a common k was not satisfactory. _x000D_
-5. Two data sets only were judged random at all population densities._x000D_
-6. In all other sets of samples, only at or near the lowest densities was disposition indistinguishable from random and the range of spacing between individuals progressively and disproportionately changed as mean density increased._x000D_
-7. Spatial disposition is thus density-dependent and we deduce that spatial behaviour is also density-dependent as required by Taylor and Taylor's delta-model for intrinsic population contril by movement._x000D_
-8. The sepcies examined range from Protista through annelids, molluscs, crustaceans, arachnids, insects, echinoderms, fish, birds and quadrupeds to men and orchids._x000D_
-9. The sampling scales range from ciliates on the surface of a flat-worm to the human population of the United States of America and include temporally stable and unstable populations._x000D_
-10. The sampling methods range from quadrat counts, through trap, net and grab samples to volumetric samples and complete censuses.</t>
+          <t>The kinetic friction of polycrystalline Al2O3 sliding on Cu, Ni, and Fe in ultrahigh vacuum was studied as a function of the surface chemistry of the metal. Clean metal surfaces were exposed to O2, Cl2, C2H4, and C2H3Cl, and the change in friction due to the adsorbed species was observed. Auger electron spectroscopy assessed the elemental composition of the metal surface. It was found that the systems exposed to Cl2 exhibited low friction, interpreted as the van der Waals force between the Al2O3 and metal chloride. The generation of metal oxide by oxygen exposures resulted in an increase in friction, interpreted as due to strong interfacial bonds established by reaction of metal oxide with Al2O3 to form the complex oxide (spinel). The only effect of C2H4 was to increase the friction of the Fe system, but C2H3Cl exposures decreases friction in both Ni and Fe systems, indicating the dominance of the chlorine over the ethylene complex on the surface.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3005282144</t>
+          <t>https://openalex.org/W2084016286</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/ja00475a058</t>
+          <t>https://doi.org/10.1016/0038-1098(76)91489-7</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Horn &amp; Negishi (1978)</t>
+          <t>Kelly &amp; Bullett (1976)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Selective carbon-carbon bond formation via transition metal catalysts. 8. Controlled carbometalation. Reaction of acetylenes with organoalane-zirconocene dichloride complexes as a route to stereo- and regio-defined trisubstituted olefins</t>
+          <t>Calculation of the electronic structure of crystalline and amorphous arsenic</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ADVERTISEMENT RETURN TO ISSUEPREVArticleNEXTSelective carbon-carbon bond formation via transition metal catalysts. 8. Controlled carbometalation. Reaction of acetylenes with organoalane-zirconocene dichloride complexes as a route to stereo- and regio-defined trisubstituted olefinsDavid E. Van Horn and Eiichi NegishiCite this: J. Am. Chem. Soc. 1978, 100, 7, 2252–2254Publication Date (Print):March 1, 1978Publication History Published online1 May 2002Published inissue 1 March 1978https://doi.org/10.1021/ja00475a058RIGHTS &amp; PERMISSIONSArticle Views2593Altmetric-Citations232LEARN ABOUT THESE METRICSArticle Views are the COUNTER-compliant sum of full text article downloads since November 2008 (both PDF and HTML) across all institutions and individuals. These metrics are regularly updated to reflect usage leading up to the last few days.Citations are the number of other articles citing this article, calculated by Crossref and updated daily. Find more information about Crossref citation counts.The Altmetric Attention Score is a quantitative measure of the attention that a research article has received online. Clicking on the donut icon will load a page at altmetric.com with additional details about the score and the social media presence for the given article. Find more information on the Altmetric Attention Score and how the score is calculated. Share Add toView InAdd Full Text with ReferenceAdd Description ExportRISCitationCitation and abstractCitation and referencesMore Options Share onFacebookTwitterWechatLinked InReddit PDF (416 KB) Get e-Alerts Get e-Alerts</t>
+          <t>Qualitative differences between crystalline and amorphous arsenic in spectroscopic data are reproduced in chemical pseudopotential calculations of, and a local environment approach to, the density of states of arsenic in the A7 structure and in a three-fold coordinated random network. The changes can be interpreted as a removal of the long interlayer bonds in the crystal, giving a local two-dimensional character to the amorphous density of states.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2072757091</t>
+          <t>https://openalex.org/W2084845764</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/1854894</t>
+          <t>https://doi.org/10.1103/physrevlett.36.1269</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Kousser et al. (1978)</t>
+          <t>Ford et al. (1976)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>The Transformation of Southern Politics: Social Change and Political Consequence since 1945</t>
+          <t>Lifetime Effects of Positronium in Powders</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Stressing the relevance of The Transformation of Southern Politics as a background for understanding the South into the next century, Jack Bass and Walter De Vries write that the themes of change in southern politics still involve the rise of the Republican Party, black political development and the Democratic response to it - and the interaction of these forces with social and economic issues. The Transformation of Southern Politics examines the post-World War II political evolution of the eleven southern states and traces the effects of such influences as Brown v. Board of Education, the Civil Rights Act of 1964, the Voting Rights Act of 1965, urban migration, the growth of the Republican Party, and the rise of African Americans in the political landscape. In the preface to the Brown Thrasher edition, Bass and De Vries offer an overview of the region's current political climate, including an analysis of the 1994 mid-term elections. They also provide excerpts from their interview with Bill Clinton during his first campaign for political office.</t>
+          <t>A recently reported precision lifetime measurement of orthopositronium in ultrafine Si${\mathrm{O}}_{2}$ powders gives a decay rate, extrapolated to zero powder density, which is 2% below the theoretical free-space rate. In this Comment the influence of the powder environment is discussed, including effects of surface bound states, collisional interactions with the powder grains, and Stark shifts of the decay rate. The conclusion is that none of these effects can explain the observed discrepancy in decay rate.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1973978619</t>
+          <t>https://openalex.org/W2086297723</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1747-5457.1978.tb00599.x</t>
+          <t>https://doi.org/10.1016/0009-2614(76)80180-7</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Setudehnia (1978)</t>
+          <t>Saxena (1976)</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>&lt;b&gt;THE MESOZOIC SEQUENCE IN SOUTH‐WEST IRAN AND ADJACENT AREAS&lt;/b&gt;</t>
+          <t>Trends in atomic spin-orbit splittings and chemical shifts of the K-absorption edges</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>New outcrop and subsurface data from SW Iran have permitted a review of the stratigraphy of the area to the SW of the Zagros Crush Zone and a comparison with neighbouing areas. The Triassic sequence consists mainly of an evaporite and dolomite sequence in the coastal areas of the Persian Gulf which is the extension of the evaporite basin of Saudi Arabia and Iraq. Towards the high Zagros in the northeast, the evaporites are replaced by dolomites. Two unconformities are found at the base and top of the Triassic. The Jurassic in Fars and eastern Khuzestan consists of an argillaceous interval representing early Liassic time, overlain by a thick development of neritic carbonates of early to late Jurassic age. An evaporite unit developed in the upper Jurassic is present in coastal/subcoastal areas of Fars and eastern Khuzestan and is the north‐eastwards extension of Hith Anhydrite of Saudi Arabia. The end of the Jurassic was marked by uplift and erosion, giving rise to an unconformity over a large area. In western Khuzestan and Lurestan, the Lower Jurassic is a sequence of alternating evaporites and dolomites. The Middle Jurassic is represented by deeper water bituminous shales and argillaceous limestones of the Sargelu Formation, which is cut by a regional unconformity in this area. The Upper Jurassic is represented by the evaporites of the Gotnia Formation which is terminated by the possible Upper Jurassic unconformity. The Jurassic sequence of this area can be correlated well with that of eastern Iraq. In the high Zagros area to the south of the Crush Zone, the Jurassic consists of a thick development of shelf carbonates with no evaporites. The Cretaceous System in SW Iran is divided into Lower (Neocomian‐Aptian), Middle (Albian‐Turonian) and Upper (Coniacian‐Maastrichtian). The Lower Cretaceous is mainly made up of two shelf carbonate unit separated by shales in Fars and eastern Khuzestan. Towards Lurestan, the carbonates pass into deeper water black shales and limestones with radiolaria. The top of the Lower Cretaceous is marked by a regional unconformity in Fars and the Persian Gulf area. The Middle Cretaceous began with a transgression forming the shales and limestones of the Kazhdumi Formation which was followed by a shallowing of the sea and the deposition of Cenomanian and Turonian shelf carbonates over the entire area of Fars and Khuzestan. The Lurestan basin retreated northwards and northwestwards and covered only central Lurestan during Albian‐ Turonian time, with the deposition of dark grey to black shales and pelagic limestones of the Garau and the Oligostegina bearing limestones of the Sarvak Formation. At least two pronounced regional unconformities have been recognized, between the Cenomanian and Turonian and between the Turonian and Coniacian. The Upper Cretaceous is represented by limestones at the base and a transgressive shale unit at the top, which is terminated by a regional unconformity at the Cretaceous/Tertiary boundary. Isopach and lithofacies maps of various units and correlations of outcrop and subsurface sections indicate several important unconformities and facies changes in SW Iran during the course of the Mesozoic. The general stratigraphy of the region shows similarities to the Mesozoic sequence of Iraq and Saudi Arabia, with a gradual facies change from carbonates to sandstone towards Saudi Arabia. This change is most evident in the Upper Triassic and in the Barremian‐Cenomanian. The Upper Cretaceous sequence of SW Iran changes from mainly argillaceous sediments of deeper marine environment into carbonates of shallow water origin towards Saudi Arabia. The correlation of the Mesozoic sequence of SW Iran with those to the northeast of the Zagros Crush Zone indicates a rather abrupt change from the Upper Triassic onwards.</t>
+          <t>Proposed new interpretation in terms of atomic spin-orbit splittings of the constituent atoms satisfactorily explains both the nature and the magnitude of chemical shifts of the K-absorption edges.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2317325507</t>
+          <t>https://openalex.org/W2087578296</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/1936631</t>
+          <t>https://doi.org/10.1016/s0006-3061(00)82018-9</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Caswell &amp; Werner (1978)</t>
+          <t>Cohen &amp; Guilmette (1976)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Transient Behavior and Life History Analysis of Teasel (Dipsacus Sylvestris Huds.)</t>
+          <t>Biological effects of the enhanced excretion of zinc after calcium diethylenetriaminepentaacetate chelation therapy</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>A transient behavior analysis of the population dynamics of an herbaceous plant species (teasel, Dipsacus sylvestris Huds.) was developed to contrast with the long—term limiting response analysis of an earlier study. Following the arrival of a cohort of seeds at a site, there is typically an immediate increase in the rate of growth of rosette cover and the rate of seed production, followed by a decline several years later. This decline, caused by shifts in the stage structure of the population, may be critical in determining success or failure of a colonization episode. Simple calculations of the rate at which a population of Dipsacus might expand in space show that density effects on numbers of adult plants will become important in 15—20 yr. This conclusion supports the use of transient analysis in addition to the standard limiting behavior analysis, which assumes a constant environment over long time intervals. The reproductive value of Dipsacus increases exponentially from one stage to the next, and as a power function of accumulated biomass. A hint of a sigmoid response of reproductive value to biomass suggests that the transition from the vegetative rosette to the flowering stage may have evolved in response to the rate of accumulation of reproductive value as plant biomass increases. The response of Dipsacus to a variety of hypothetical changes in life history parameters was examined. A general method of calculating the sensitivity of population growth rate (lamda)_m was developed; when applied to the teasel model it showed that (lamda)_m is most sensitive to changes in the growth and reproduction of early stages. Delayed seed germination is not important to long—term population growth; the complete elimination of delayed germination from the model caused no more than a 4% decrease in (lamda)_m. It may be much more important in terms of transient behavior; elimination of delayed germination depressed the initial decline in rosette cover by up to 72%. If this decline delays the colonization process, the most important populational effect of delayed germination would be an increase in the probability that an attempted colonization will be successful. We also examined the optimality of the current biennial life history of Dipsacus, relative to both annual and perennial alternatives. The shift to an annual strategy is rendered suboptimal by the low probability of germination and survival of seeds relative to the probability of survival of rosettes, and by the high growth potential of rosettes. This growth potential increases the energy available for seed production by an order of magnitude over the hypothetical annual strategy, greatly increasing the reproductive value of the biennial flowering plants. The switch to a perennial habit is suboptimal because of the cost, in annual reproductive output, of maintaining a perennial flowering plant. This effect is greatest in rapidly growing populations. There seem to be no important differences between the transient and the limiting behavior analyses of life history optimality. Our direct, rather than inferred, demonstration of the optimality of teasel's life history supports the development of current theory based on optimality assumptions</t>
+          <t>An enhanced, uncompensated excretion of zinc may be responsible for unwanted side-effects that could develop after prolonged chelation therapy with calcium diethylenetriaminepentaacetate (Ca-DTPA). As a preliminary means of defining "potential toxicity" within this hypothesis, the "normal" concentration range of Zn++ excreted in the urine of three adult female baboons was measured on a daily basis; changes in urinary Zn++ excretion were then quantitated as a function of the injection time and dose of the chelating agent Na3(Ca-DTPA) originally administered to enhance the excretion of 241Am from the body. In addition, the inhibitory action of the chelator compound on the activity of a specific metalloenzyme system, erythrocytic aminolevulinic acid dehydratase (ALAD), which requires Zn++ as a co-factor, has been determined as a measure of a specific biological effect. It was found that whenever the concentration of Zn++ in urine was above 2 mug/ml (or greater than approximately four times the "normal" urinary excretion level), the activity of ALAD dropped below 250 nmol PBG/ml RBC/hr or approximately one-half the mean "normal" activity value for this primate species.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2916464036</t>
+          <t>https://openalex.org/W2089270407</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/466909</t>
+          <t>https://doi.org/10.1080/15421407608083217</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Landes (1978)</t>
+          <t>Park &amp; Labes (1976)</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>An Economic Study of U. S. Aircraft Hijacking, 1961-1976</t>
+          <t>Reaction Kinetics Determined by Pitch Changes in Liquid Crystals</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessAn Economic Study of U. S. Aircraft Hijacking, 1961-1976William M. LandesWilliam M. Landes Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMoreDetailsFiguresReferencesCited by The Journal of Law and Economics Volume 21, Number 1Apr., 1978 Sponsored by The University of Chicago Booth School of Business and The University of Chicago Law School Article DOIhttps://doi.org/10.1086/466909 Views: 33Total views on this site Citations: 210Citations are reported from Crossref Copyright 1978 The University of Chicago Law SchoolPDF download Crossref reports the following articles citing this article:Komlan Ametowoyo Adeve Is terrorism a spoilsport for the sustainability of economic development?: evidence from the economic community of West African states, International Journal of Social Economics 50, no.77 (Feb 2023): 956–968.https://doi.org/10.1108/IJSE-08-2022-0565Daniel Meierrieks, Laura Renner Islamist terrorism and the status of women, European Journal of Political Economy 78 (Jun 2023): 102364.https://doi.org/10.1016/j.ejpoleco.2023.102364Khusrav Gaibulloev, Todd Sandler Common myths of terrorism, Journal of Economic Surveys 37, no.22 (Feb 2022): 271–301.https://doi.org/10.1111/joes.12494Shikha Basnet Silwal The Economics of Looting and Destruction of Cultural Heritage Sites and Objects, Defence and Peace Economics 34, no.22 (Dec 2021): 214–227.https://doi.org/10.1080/10242694.2021.2007638Marcos Sanso-Navarro, Fernando Sanz Gracia, María Vera-Cabello Terrorism Determinants, Model Uncertainty and Space in Colombia, Defence and Peace Economics 34, no.11 (Feb 2021): 92–111.https://doi.org/10.1080/10242694.2021.1880721Subhayu Bandyopadhyay, Todd Sandler Politically influenced counterterrorism policy and welfare efficiency, European Journal of Political Economy 76 (Jan 2023): 102250.https://doi.org/10.1016/j.ejpoleco.2022.102250Karl Sörenson Prospects of Deterrence: Deterrence Theory, Representation and Evidence, Defence and Peace Economics 9 (Dec 2022): 1–15.https://doi.org/10.1080/10242694.2022.2152956Nayab Nasir Need for Character Development Program Based on Islamic Doctrines as a Counter-Terrorism Approach at HEIs of Pakistan, Religion &amp; Education 49, no.44 (Oct 2022): 412–431.https://doi.org/10.1080/15507394.2022.2139995Marc Helbling, Daniel Meierrieks Terrorism and Migration: An Overview, British Journal of Political Science 52, no.22 (Dec 2020): 977–996.https://doi.org/10.1017/S0007123420000587John Braithwaite Macrocriminology and Freedom, (Feb 2022).https://doi.org/10.22459/MF.2021Wukki Kim, Todd Sandler Duration and competing-risks determinants of terrorist hostage-taking incidents, European Journal of Political Economy 70 (Dec 2021): 102036.https://doi.org/10.1016/j.ejpoleco.2021.102036Kazeem Bello Ajide, Olorunfemi Yasiru Alimi DOES DISPARITY IN INCOME AND CONSUMPTION EVER INCITE TERRORISM IN AFRICA?, World Affairs 184, no.33 (Aug 2021): 339–380.https://doi.org/10.1177/00438200211035126Daniel Meierrieks, Friedrich Schneider Terrorism and international economic policy, European Journal of Political Economy 69 (Sep 2021): 102011.https://doi.org/10.1016/j.ejpoleco.2021.102011Noel McGuirk A Framework to Measure/Assess the Utility of Profiling as a Counterterrorism Tool, Policing: A Journal of Policy and Practice 15, no.22 (Sep 2019): 848–858.https://doi.org/10.1093/police/paz056Daniel Auer, Daniel Meierrieks Merchants of death: Arms imports and terrorism, European Economic Review 137 (Aug 2021): 103813.https://doi.org/10.1016/j.euroecorev.2021.103813Subhayu Bandyopadhyay, Todd Sandler Counterterrorism policy: Spillovers, regime solidity, and corner solutions, Journal of Economic Behavior &amp; Organization 188 (Aug 2021): 811–827.https://doi.org/10.1016/j.jebo.2021.05.031Sissel H. Jore Ontological and epistemological challenges of measuring the effectiveness of urban counterterrorism measures, Security Journal 34, no.22 (Nov 2019): 231–246.https://doi.org/10.1057/s41284-019-00221-6Kazeem B. Ajide, Olorunfemi Y. Alimi Income inequality, human capital and terrorism in Africa: Beyond exploratory analytics, International Economics 165 (May 2021): 218–240.https://doi.org/10.1016/j.inteco.2021.01.003Melike E Bildirici Terrorism, environmental pollution, foreign direct investment (FDI), energy consumption, and economic growth: Evidences from China, India, Israel, and Turkey, Energy &amp; Environment 32, no.11 (Apr 2020): 75–95.https://doi.org/10.1177/0958305X20919409Hamid Mohtadi, Bryan S. Weber CATASTROPHE AND RATIONAL POLICY: CASE OF NATIONAL SECURITY, Economic Inquiry 59, no.11 (Jul 2020): 140–161.https://doi.org/10.1111/ecin.12925Friedrich Schneider Terrorism, (Jun 2021): 1–9.https://doi.org/10.1007/978-1-4614-7883-6_554-2Wukki Kim, Justin George, Todd Sandler Introducing Transnational Terrorist Hostage Event (TTHE) Data Set, 1978 to 2018, Journal of Conflic</t>
+          <t>Abstract A rapid, convenient method of continounsly following the kinetics of a reaction conducted in a liquid crsytalline phase is described. Conceptually any reaction consuming, producing or changing the concentration of a chiral species produces a shift in the wavelenth of maxium reflection of a cholesteric solvent, and the reaction consequence can be direclty seen by an observer when this wavelength is in the visible region. Examples are presented involving the formation of a schiff base from an aldehyde and an amine, and for amine exchange reactions of schiff bases, both conducted in a “red” cholesteric solvent. The technique may afford and approach to cumulative thermal dosimetry.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2104290801</t>
+          <t>https://openalex.org/W2090366559</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1144/gsjgs.135.1.0069</t>
+          <t>https://doi.org/10.1016/0011-2240(76)90114-0</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Hancock &amp; Taylor (1978)</t>
+          <t>Small &amp; Ide (1976)</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Clay mineral diagenesis and oil migration in the Middle Jurassic Brent Sand Formation</t>
+          <t>Failure to detect nephrotoxicity of chronically administered dimethyl sulfoxide (DMSO) in rats</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Authigenic clay minerals, in an almost complete sequence of oil-saturated Brent Sand from an oilfield in the Viking Graben in the northern North Sea, show a transition from kaolinite in the upper part into illite in the basal part of the reservoir; replacement textures indicate that the illite has replaced kaolinite. After early kaolinite formation, it is suggested that illite diagenesis took place synchronously with oil migration, and that the progressive extension of oil saturation down through the reservoir terminated diagenetic processes. Early diagenetic stages are thus 9frozen9 and preserved in the upper part of the reservoir.</t>
+          <t>Male and female rats received daily intraperitoneal injections of dimethyl sulfoxide (DMSO; 2 or 4 g/kg) or saline for 28 days. At the end of that time, the ability of the animals' kidneys to transport p-aminohippurate (PAH) and N-methylnicotinamide (NMN) was tested in an in vitro system. Both doses of DMSO used produced measurable toxicity of a general nature: There was some mortality, and growth of the animals was retarded. However, DMSO had no detectable nephrotoxic action. Terminal serum urea and creatinine concentrations were normal in all treatment groups, and there was no effect of DMSO on the uptake of PAH or NMN by renal cortical slices. The data suggest that DMSO does not have an important specific toxic effect on the kidneys in this species.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1965469518</t>
+          <t>https://openalex.org/W2094913519</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jez.1402060202</t>
+          <t>https://doi.org/10.1016/s0003-3472(76)80070-x</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Nijhout (1978)</t>
+          <t>Wiley (1976)</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Wing pattern formation in Lepidoptera: A model</t>
+          <t>Communication and spatial relationships in a colony of common grackles</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Abstract A formal model is presented that demonstrates how the color patterns of the wings of butterflies and moths can be analysed in terms of current concepts of pattern formation. A review of pertinent literature on this little‐known developmental system is provided. Crucial to the understanding of color pattern formation in lepidopteran wings is the realization that the wing pattern is a mosaic. The pattern in each wing cell (i.e., the area bordered by wing veins) is determined independently from the pattern in other cells. Within a cell, pigments are deposited in a definite relation to a central focus. A focus always lies on the cell midline and is often visible as a small pigmented dot. In the simplest condition the color pattern is laid down around a focus as a system of perfect concentric circles (eyespots). More often these circles are considerably distorted and have an axis of bilateral symmetry that parallels the wing veins. The nature and extent of these distortions from circularity account, to a large degree, for the species‐specific character of the wing pattern. The determination of such patterns is most readily explained if it is assumed that a focus represents the reference point with respect to which positional information (for pigment deposition) is specified. Circular patterns are thus obtained if all points equidistant from a focus undergo identical differentiation. Deviations from circularity of the pattern around a focus indicate that either the specification or interpretation of positional information is not the same in all areas around a focus. This phenomenon is most conveniently described as an “interpretation landscape”: a gradient system whose value at any point in a morphogenetic field is a measure of how positional information is to be interpreted at that location. Examples are provided of how species‐specific wing patterns can be generated by modest alterations in the shape of the interpretation landscape. As a rule the field of a focus is limited by the margins of the wing cell in which it is centered except in cases where no focus is present in an adjacent cell. Under those circumstances one focus can determine the pattern in several adjoining wing cells.</t>
+          <t>Most communication among common grackles Quiscalus quiscula occurs at distances of less than a few metres in the noisy environment of a breeding colony. This report examines both the adaptations of communication to these conditions and the effects of communication in regulating individuals' spatial relationships. For each of six vocalizations and five action patterns studied in one colony, I consider variation in the form of the display, the circumstances associated with its use, and the responses it elicits. Each individual, male or female, has one characteristic, stereotyped song pattern that would facilitate individual recognition between mates. Variation in the components of vocalizations and action patterns is of two kinds: unidimensional, with either covarying or nested components, or multidimensional, with independently varying components, alternatives that have different implications for communication. The wide-spectrum sounds made by common grackles offer advantages in close-range communication in colonies, because the ease of locating such signals would minimize the cocktail-party effect, although they would have disadvantages in long-range communication. Most vocalizations of common grackles lack associations with specific responses or external contexts, a situation that should often characterize short-range communication between acquainted individuals. The responses to vocalizations vary with context, especially the initial spatial relationships and identities of the interactors.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2171243182</t>
+          <t>https://openalex.org/W2095079798</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0022-2836(78)90285-1</t>
+          <t>https://doi.org/10.1353/frc.1976.0022</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Calldine (1978)</t>
+          <t>Walton (1976)</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Change of waveform in bacterial flagella: The role of mechanics at the molecular level</t>
+          <t>St. Anselm and the Logical Syntax of Agency</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>The flagella of Salmonella and other bacteria are constructed from molecules of the protein flagellin in a way which permits relatively easy transition between members of a family of distinct stable left and right-handed helical waveforms. Changes of waveform, particularly between “normal” (left-handed) and “curly” (right-handed) play an important role in the switch from smooth swimming to tumbling in chemotaxis. This paper establishes some mechanical properties of model flagella built from bi-stable subunits, which in turn clarifies the mechanics of the changes of waveform which occur, in a viscous fluid environment, at various points in the swimming cycle. Available data on the joining of different helical waveforms in a single filament, supplemented by information on the way in which helical filaments flatten down in preparation for electron microscopy, are well-fitted by the mechanical behaviour of an assembly of mechanical subunits having some simple distinctive design features. The same arrangement makes possible an explanation for the formation of flagellar-like but straight polymers from Salmonella flagellin in the presence of high concentrations of NaCl.</t>
+          <t>ST. ANSELM AND THE LOGICAL SYNTAX OF AGENCY In a fascinating fragment, Lambeth Manuscript 50,1 St. Anselm of Canterbury has bequeathed to us the foundations of a logical syntax of agency utilizing the strikingly modern-seeming device of treating agency as a statement operator. This approach, whereby the syntax of agency becomes similar to that of the negation operator in classical sentence logic, is currently a subject of considerable interest because of recent developments in action theory,2 modal logic3 and generative semantics.4 One might reasonably expect that there might be little coherent historical precedent for the syntactical problems thereby generated. It is therefore something of a surprise, a welcome and interesting one, to find this approach explicitly suggested by St. Anselm, and to discover that he had studied in detail paradigm cases that are of a definite interest in their own right in the analysis of the syntax of agency locutions. The Anselmian approach , as I shall call it, proposes that attributions of agency, such as 'x kills y' can be analyzed out into an expression referring to an agent, a state of affairs, and an operation of "bringing about" such as 'x brings it about that y is dead'. In this paper I will undertake 1 The contents of this manuscript were first described and printed in F. S. Schmitt, Ein neues unvollendetes Werk des Ll. Anselm von Canterbury, Beiträge zur Geschichte der Philosophie und Theologie des Mittelalters, 3 (1936). The manuscript is reprinted in F. S. Schmitt and R. W. Southern, Memorials of St. Anselm (London: Oxford University Press, 1969), pp. 333-354. A very helpful commentary and partial translation is to be found in Desmond Paul Henry, The Logic of St. Anselm (Oxford: Oxford University Press, 1967), § 4. A more detailed analysis, also very helpful, is D. P. Henry, "Saint Anselm on the Varities of 'Doing,' " Theoria, 19 (1953), 178-183. 8 A good general source of material here is Myles Brand (ed.), The Nature of Human Action (Glenview, Illinois: Scott Foresman, 1970). 8 See G. H. von Wright, An Essay in Deontic Logic and the General Theory of Action (Amsterdam, North-Holland, 1968). 4 See John Kimball (ed.), Syntax and Semantics, Vol. 1 (New York and London: Seminar Press, 1972). St. Anselm and the Logical Syntax of Agency299 the triple objective of outlining and commenting on the essentials of some recent developments of this type in the logic of agency, exegetically presenting some of the most interesting and germane arguments of St. Anselm from Lambeth 5g, and third, showing how these two perspectives interesect, to their mutual enrichment of understanding. A deeper awareness of the power, elegance and relevance of St. Anselm's thoughts on agency will, I hope, eventually enable us to gain a better appreciation of the beauty and force of his theological solutions to the problems of omnipotence, evil, and the free will defense. In the sequel, however, I will largely confine discussion to the minutiae of the logic of agency, except for a few cursory general remarks in conclusion. i. The Anselmian Approach St. Anselm begins with various syntactical remarks indicating that 'to do' can take as a value a wide range broadly verbal state of affairs. ...nemo reprehendit, si interroganti 'quid facit?', respondetur quia 'est in ecclesia,' aut 'vivit sicut bonus vir,' aut 'potest super totam civitatem in qua habitat,' aut 'magnam debet pecuniam,' aut 'nominatur super omnes vicinos suos,' aut 'vocatur ante omnes alios ubicumque sit.'5 We could translate Anselm's thesis that all verbs are instances of doing into a more modern idiom by equating it with the suggestion that 'doing' can be thought of as an operator relativized to individuals over states of affairs.6 Accordingly, 'Socrates drops the cup' is rendered as asserting that Socrates brings about a state of affairs whereby the cup falls.7 We have an individual, a (Socrates), who 5 Memorials, pp. 342 f. 6 I will not try to define 'state of affairs,' but refer the reader to G. H. von Wright, "The Logic of Action — A Sketch," TAe Logic of Decision and Action (Pittsburgh; University of Pittsburgh Press, 1966), pp. 121 f. 7 Donald Davidson, in...</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2007215673</t>
+          <t>https://openalex.org/W2118015665</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00220387808421699</t>
+          <t>https://doi.org/10.1111/j.1699-0463.1976.tb00145.x</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>O’Donnell (1978)</t>
+          <t>Angervall et al. (1976)</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>State and alliances in Argentina, 1956–1976</t>
+          <t>SPINDLE CELL LIPOMA</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>In this paper an analysis of the relationships between the pattern of economic development and the nature of class interests in Argentina shows that changes in the balance of power follow closely the cycles of economic activity, of foreign trade and of inflation and deflation. An account of the insecure alliances between political forces, of their uncertain ideological orientations and of the low relative autonomy of the state is then combined with that analysis in an overall interpretation of Argentine politics from the emergence of Perón to the present.</t>
+          <t>A clinical, light- and electronmicroscopic study of 14 patients with spindle cell lipoma is presented. Spindle cell lipoma is considered to be a distinctive lipomatous tumour histologically characterized by a mixture of fat cells and fibroblast-like spindle cells, ultrastructurally similar to fibroblasts, in a matrix with varying amounts of collagen and mucosubstances. The tumours showed a predominance for elderly men and all but one were situated in the posterior neck, shoulder region or upper back. The tumours varied between 1 and 9 cm, with a median value of 5 cm, in the widest diameter and were entirely or almost entirely situated in the subcutaneous tissue. A follow-up study of 11 patients, observed for 1-25 years, confirmed that the clinical course is benign. The differential diagnosis is discussed and it is emphasized that spindle cell lipoma is easily misinterpreted as sarcoma. Three tumours showed a pronounced nuclear polymorphism without mitotic activity, thought to be regressive in nature. The cellular change in these three tumours are presumed to be analogous with those in so called ancient neurilemmoma and therefore the name ancient spindle cell lipoma is proposed for the polymorphic spindle cell lipomas.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2163946974</t>
+          <t>https://openalex.org/W2119315716</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1751-1097.1978.tb07037.x</t>
+          <t>https://doi.org/10.1029/jb081i005p00849</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Borg et al. (1978)</t>
+          <t>Steeples &amp; Iyer (1976)</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>CYTOTOXIC REACTIONS OF FREE RADICAL SPECIES OF OXYGEN*</t>
+          <t>Low-velocity zone under long valley as determined from teleseismic events</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Abstract— We report on autooxidation reactions related to selective cell killing in vivo and present oxygen uptake and EPR data on the molecular nature of these changes, with a note on a reaction used to test for singlet oxygen. Selective obliteration by 6‐hydroxydopamine, 6‐aminodopamine and their congeners of beta‐adrenergic cell receptors and of adrenergic and dopaminergic neurons in vivo and in vitro have been reported recently. These effects devolve from autoxidation of the compounds in situ after appropriate biological concentration, but it is unclear whether cytotoxicity is mediated by the reactive oxygen species themselves or by nucleophilic reactions of the product quinones. Because of the possibility of harnessing these reactions for a generalized “chemical surgery” if the former mechanism is operative, and because many other oxidative damage reactions involving unsaturated lipids of biomembranes seem to share similar autoxidative initiating and chain‐carrying steps, we have studied the autoxidation of ascorbate and other reductants catalyzed by polyhydroxy quinols related to 6‐hydroxydopamine. We find that superoxide anion mediation may or may not be important, depending on redox potentials and reaction kinetics of particular compounds. To the extent that the cellular toxicity of these compounds is oxidative in nature, it is facilitated by—and may depend upon—hydroxyl radical production due to Fenton‐type reactions. Likely Fenton reactants in vivo are hydrogen peroxide produced from the quinol‐catalyzed autoxidations and non‐heme iron reduced cyclically by superoxide anions from the same autoxidations. Studies using flow systems adapted for EPR at 35 GHz have provided support for some of the reaction mechanisms proposed. In nonaqueous solvents eerie oxidation produced transient free radicals from hydrophobic diphenyl and isobenzo furans, which are often cited as “specific” probes for singlet oxygen detection in biochemistry.</t>
+          <t>A temporary seismograph station network was used to estimate teleseismic P wave residuals in the vicinity of Long Valley geothermal area, California.Relative P wave delays of 0.3 s persist at stations in the west central part of the Long Valley caldera after regional and near-surface effects have been removed.Ray tracing indicates that low-velocity material exists beneath the caldera at depths greater than 7 km and less than 40 kin, probably less than 25 kin.The velocity contrast with normal crust must be at least 5% to satisfy the data and is probably in the range 10-15%.We believe that the low velocity indicates anomalously hot rock at depth and that relative teleseismic P residuals may be useful for investigation of sources of geothermal energy. P wave arrival time residuals at temporary seismograph residualRAt for the ith station is calculated by subtraction: networks centered on the Long Valley caldera, California.The method allowod the exploration of the crustal velocity structure to a depth of about 40 km in the caldera.The recording of distant earthquakes is a commonly used method of extracting velocity information about the crust and upper mantle.For example, such studies have been made using the large aperture seismic array (Lasa) in Montana [Iyer and Healy, 1972; Chinnery and Toksoz, 1967], the Tonto Forest Seismic Observatory in Arizona [Niazi and Anderson, 1965], and the U.S. Geological Survey (USGS) seismic network in Yellowstone [lyer et al., 1974; lyer, 1975].The investigation at Yellowstone is the first such study in a known geothermal area, and indeed the Yellowstone network was installed for the purpose of investigating passive seismic techniques in such areas.Relative teleseismic P delays at Yellowstone were interpreted in terms of an anomalous hot zone extending downward to at least 250km depth (possibly to 400 km), well into the upper mantle.Press and Biehler [1964] used correlations between P wave delays and gravity anomalies to infer higher than normal temperatures in the lower crust beneath the Sierra Nevada batholith.An alternate interpretation of their data may be possible in view of later work involving azimuthal variation in teleseismic P residuals.Bolt and Nuttli [1966] and Nuttli and Bolt [1969] investigated relative teleseismic P residuals in northern California.They found azimuthal variations of up to 2.4 s between Shasta and Berkeley for relative residuals, smal.ler effects being observed at other stations.They suggested that the azimuthal effects were due to changes in depth and/or thickness of the low-velocity layer in the upper mantle.Koizumi et al. [1973] interpreted early teleseismic arrivals at some stations in Nevada as being due to a dipping lithospheric plate in the upper mantle (i.e., a fossil subduction zone).Regional effects such as these are not present at Long Valley (as will be discussed later).The following information is needed to calculate relative teleseismic P residuals: (1) hypocenter location and origin time To of the earthquake and (2) location and arrival time TAt at</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2063254692</t>
+          <t>https://openalex.org/W2122162106</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1095-8649.1978.tb03450.x</t>
+          <t>https://doi.org/10.1093/icb/16.3.315</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Woo et al. (1978)</t>
+          <t>Huebner &amp; Anderson (1976)</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Changes in body composition associated with smoltification and premature transfer to seawater in Coho salmon (&lt;i&gt;Oncorhynchus kisutch&lt;/i&gt;) and King salmon (&lt;i&gt;O. tschawytscha&lt;/i&gt;)</t>
+          <t>Comparative Spiralian Oogenesis—Structural Aspects: An Overview</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Serum protein, glucose and fat levels were determined for Coho salmon parrs, freshwater smolts, seawater smolts, seawater stunts and freshwater desmolts. Liver and muscle glycogen, fat, protein and water concentrations were also calculated. Serum protein, glucose and fat levels were significantly lower in the freshwater smolts than in the parrs. Furthermore, both liver and muscle total fat levels were markedly decreased in the smolts, suggesting that smoltification is associated with increased catabolism. Smolts that failed to reach seawater by late summer reverted to a parr‐like appearance and also regained the biochemical characteristics of parrs (high body fat and glycogen). Premature transfer of Coho presmolts into seawater caused impaired growth (stunting). Stunted Coho had higher muscle protein levels than normal smolts and parrs. Tissue water levels were not significantly different between stunts and normal seawater smolts, suggesting that the stunting phenomenon may not be caused primarily by osmoregulatory failure but may be due to shifts in metabolic patterns. In contrast to the pronounced changes seen in Coho salmon, transfer of King salmon to sea water did not result in increased catabolism of body reserves or in the production of stunts.</t>
+          <t>Considerable variety exists in ovarian structure and cellular interaction in spiralians. During their development the eggs of Dwpatra cuprea, are associated with nurse cells; there are no follicle cells in this species. The nurse cells have prominent nuclei and connect to oocytes via cytoplasmic bridges through which ribosomes, mitochondria and other inclusions pass. More commonly, follicle cells surround a portion of, or entire, oocytes in many species of spiralians. Usually, as in Ilyanassa, they have a well developed compliment of organelles. The structure and distribution of organelles within follicle cells implies that they are functionally active, but precisely in what manner during oogenesis is poorly understood. Other cell types, such as Leydig and interstitial cells also seem to play a role in oogenesis. Within the oocyte, a host of components including yolk, lipid, mitochondria, ribosomes, membranous cisternae, cortical granules, etc. are accumulated. Autosynthetic yolk formation is prevalent among spiralians. Surface differentiation includes microvillar development. This may be uniform in some eggs or restricted to certain regions (e.g., the animal hemisphere) in other oocytes. Oocyte-follicle cell interactions change during oogenesis. The topographical association of the oocyte with other ovarian cells influences subsequent animal-vegetal polarity and other ooplasmic differences. Examples of ooplasmic localizations are discussed. Conventional EM has revealed no unusual cortical structure in many oocytes although occasionally microtubules and microfilaments are present.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2053909789</t>
+          <t>https://openalex.org/W2123435368</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0022-3093(78)90006-6</t>
+          <t>https://doi.org/10.1139/t76-015</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Rouse et al. (1978)</t>
+          <t>Fellenius &amp; Samson (1976)</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Mixed alkali glass spectra and structure</t>
+          <t>Testing of drivability of concrete piles and disturbance to sensitive clay</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>The far infrared and Raman spectra of several series of mixed alkali metaphosphate glasses have been investigated as a function of the mole fraction x of the network-modifying ionic oxides in xM2O(1−x)M2′O · P2O5. The frequencies of the cation-motion bands in the far infrared spectra, which correspond to cationsite vibrations, do not shift with x, indicating that the vibrationally significant local geometry and forces associated with a particular cation are unaffected by the introduction of the second cation into the glass structure. Each Raman-active band due to vibrations of the metaphosphate network occurs at a different frequency for each pure glass (x = 0 or 1), but for mixed alkali glasses only one band occurs for each type of mode and it varies linearly with x. This indicates that the cations in these mixed alkali glasses are homogeneously distributed, there is no significant molecular-level domain formation and the phosphate chains are associated with an averaged cation environment whose effect on the chain modes varies with x. A simple vibrational model is presented which shows that the cation-dependent shifts are due to small changes in network bond angles and variation of the cationsite forces.</t>
+          <t>The results reported are of an investigation of a group of thirteen 12 in. (30 cm) diameter precast concrete piles driven through 60 ft (18 m) of sensitive marine clay followed by 10 ft (3 m) of silt and sand and 13 ft (4 m) of very dense silt to end bearing in glacial till. The purpose of the test is to study the drivability of the piles through very dense soil and to measure the disturbance caused to the sensitive clay by the driving of displacement piles. Following a literature review, the paper presents the soil conditions at the site and the testing program. The test results are discussed and experience gained from the follow-up of the driving of 520 piles at the site is presented.Visual observations during pile driving, and analysis of driving records, show that a high pile quality is necessary at the site. The large driving resistance encountered in the very dense silt (150 to 300 blows/ft) would prevent low quality piles from reaching the competent glacial till and developing the needed bearing capacity.Pile loading tests showed the piles to have an ultimate bearing capacity exceeding 450 tons (4.0 MN). It was established that the shaft resistance in the clay during test loading was between 100 and 125% of the undrained shear strength of the clay as measured by field vane testing. In comparison, an uplift test to failure showed that the uplift shaft resistance along the pile in the clay was only 60% of the undrained shear strength of the clay.The pile driving developed large pore pressures in the clay which exceeded the effective overburden stresses. The excess pore pressures dissipated over a period of slightly more than 3 months. Vane testing within the pile group immediately after driving showed that a shear strength reduction of about 15% was caused by the piles. At a distance of 2 ft (0.6 m) outside the pile group, no strength reduction was found. The reduction within the group was gradually regained during the dissipation of the induced pore pressures. Laboratory testing on clay samples obtained within the pile group 75 days after pile driving showed a smaller value of the preconsolidation pressure of the clay, but no change in the compression indices.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1997920164</t>
+          <t>https://openalex.org/W2123805584</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/466921</t>
+          <t>https://doi.org/10.1063/1.433580</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Jarrell (1978)</t>
+          <t>Cooke &amp; Alexander (1976)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>The Demand for State Regulation of the Electric Utility Industry</t>
+          <t>Thermoluminescence and electron spin resonance studies of &lt;i&gt;x&lt;/i&gt;-irradiated L-alanine:Cr3+ single crystals</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessThe Demand for State Regulation of the Electric Utility IndustryGregg A. JarrellGregg A. Jarrell Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by The Journal of Law and Economics Volume 21, Number 2Oct., 1978 Sponsored by The University of Chicago Booth School of Business and The University of Chicago Law School Article DOIhttps://doi.org/10.1086/466921 Views: 31Total views on this site Citations: 79Citations are reported from Crossref Copyright 1978 The University of Chicago Law SchoolPDF download Crossref reports the following articles citing this article:Thomas W. Hazlett Free speech and the challenge of efficiency, Telecommunications Policy 46, no.99 (Oct 2022): 102409.https://doi.org/10.1016/j.telpol.2022.102409Saleem Hussain Zaidi Sustainable Electricity Generation, (Aug 2021): 1–28.https://doi.org/10.1007/978-3-030-73379-7_1Randall G. Holcombe Transitional gains and rent extraction, Public Choice 181, no.1-21-2 (Sep 2018): 127–139.https://doi.org/10.1007/s11127-018-0614-5Tin Cheuk Leung, Kwok Ping Ping, Kevin K. Tsui What can deregulators deregulate? The case of electricity, Journal of Regulatory Economics 56, no.11 (Aug 2019): 1–32.https://doi.org/10.1007/s11149-019-09386-9Stephanie M. Noble, Kang Bok Lee, Russell Zaretzki, Chad Autry Coupon clipping by impoverished consumers: Linking demographics, basket size, and coupon redemption rates, International Journal of Research in Marketing 34, no.22 (Jun 2017): 553–571.https://doi.org/10.1016/j.ijresmar.2016.08.010Carl T. Kitchens, Taylor Jaworski Ownership and the price of residential electricity: Evidence from the United States, 1935–1940, Explorations in Economic History 64 (Apr 2017): 53–61.https://doi.org/10.1016/j.eeh.2016.05.002Randall G. Holcombe Political incentives for rent creation, Constitutional Political Economy 28, no.11 (Oct 2016): 62–78.https://doi.org/10.1007/s10602-016-9228-4Vincent Pál Regulatory Contracts and the Scope for Local Decision-Making with Respect to Energy Distribution Networks, (Oct 2016): 165–182.https://doi.org/10.1057/978-1-137-58828-9_9Dennis L. Weisman What Do Regulators Value?, The B.E. Journal of Economic Analysis &amp; Policy 16, no.44 (Oct 2016).https://doi.org/10.1515/bejeap-2016-0106C.K. Woo, Y.S. Cheng, A. Law, J. Zarnikau, S.T. Ho, H.Y. Leung Consumer support for a public utilities commission in Hong Kong, Energy Policy 76 (Jan 2015): 87–97.https://doi.org/10.1016/j.enpol.2014.11.011Steve Cicala When Does Regulation Distort Costs? Lessons from Fuel Procurement in US Electricity Generation, American Economic Review 105, no.11 (Jan 2015): 411–444.https://doi.org/10.1257/aer.20131377Tamer Çetin, Kadir Yasin Eryigit The economic effects of government regulation: Evidence from the New York taxicab market, Transport Policy 25 (Jan 2013): 169–177.https://doi.org/10.1016/j.tranpol.2012.11.011Steve Cicala When Does Regulation Distort Costs? Lessons from Fuel Procurement in U.S. Electricity Generation, SSRN Electronic Journal (Jan 2013).https://doi.org/10.2139/ssrn.2336558Thomas P. Lyon, Nathan Wilson Capture or contract? The early years of electric utility regulation, Journal of Regulatory Economics 42, no.33 (Jul 2012): 225–241.https://doi.org/10.1007/s11149-012-9200-9Chalita Srinuan Private costs of delayed privatization of TOT Public Company Limited, info 13, no.11 (Jan 2011): 74–91.https://doi.org/10.1108/14636691111101892Mehmet Ugur Liberalisation in a World of Second Best: Evidence on European Network Industries, SSRN Electronic Journal (Jan 2009).https://doi.org/10.2139/ssrn.2097817JOHN L. NEUFELD Corruption, Quasi-Rents, and the Regulation of Electric Utilities, The Journal of Economic History 68, no.44 (Dec 2008): 1059–1097.https://doi.org/10.1017/S0022050708000818Robert J. Michaels Electricity Market Monitoring and the Economics of Regulation, Review of Industrial Organization 32, no.3-43-4 (Jul 2008): 197–216.https://doi.org/10.1007/s11151-008-9172-1Paul L. Joskow Chapter 16 Regulation of Natural Monopoly, (Jan 2007): 1227–1348.https://doi.org/10.1016/S1574-0730(07)02016-6Robert J. Michaels Electricity Market Monitoring and the Economics of Regulation, SSRN Electronic Journal (Jan 2007).https://doi.org/10.2139/ssrn.964308CHRISTOPHER R. KNITTEL THE ADOPTION OF STATE ELECTRICITY REGULATION: THE ROLE OF INTEREST GROUPS*, Journal of Industrial Economics 54, no.22 (Jun 2006): 201–222.https://doi.org/10.1111/j.1467-6451.2006.00280.xA.H. Barnett, Keith A. Reutter, Henry Thompson The first step in restructuring the US electric industry, Energy Economics 27, no.22 (Mar 2005): 225–235.https://doi.org/10.1016/j.eneco.2004.10.001Paul L. Joskow Incentive Regulation in Theory and Practice: Electricity Distribution and Transmission Networks, SSRN Electronic Journal (Jan 2005).https://doi.org/10.2139/ssrn.848325Lynne Kiesling The No</t>
+          <t>Single crystals of x-irradiated L-alanine:Cr3+ have been studied between 90 and 300 K by electron spin resonance (ESR) and thermoluminescence (TL) techniques. Ultraviolet (uv) photobleaching of the Cr3+ electron traps and L-alanine radical centers was also investigated. The results demonstrate that the x-ray generated radical centers can be destroyed by uv-induced electron transport activity, and this destruction follows first order kinetics. Also, the transformation of the primary neutral radical species to a secondary radical in L-alanine was found not to be induced by intermolecular electron transport. The TL glow was determined to proceed by first-order kinetics at a temperature of 160 K with an activation energy of 0.3 eV and a frequency factor of 1.0×108 s−1. It is suggested that the TL glow may arise from both the decay of the primary cation radical species in L-alanine and the bleaching of the Cr3+ electron traps, and that the Cr3+ impurity acts to enhance the free radical thermoluminescence.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2139357843</t>
+          <t>https://openalex.org/W2129042307</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1130/0016-7606(1978)89&lt;83:sotkra&gt;2.0.co;2</t>
+          <t>https://doi.org/10.1002/pol.1976.170140412</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DeLong et al. (1978)</t>
+          <t>Takagishi et al. (1976)</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Subduction of the Kula Ridge at the Aleutian Trench</t>
+          <t>Interaction of poly(vinylpyrrolidone) with methyl orange and its homologs in aqueous solution over the temperature range 60–90°c</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>A simple model of the probable topographic and thermal consequences of subducting an oceanic spreading center at an island arc predicts three geologic effects: shoaling and subaerial emergence of the crest of the arc; decrease or cessation of subduction-related magmatism; and regional low-grade thermal metamorphism (..delta..T approximately equal to 100 to 300/sup 0/C) of the arc rocks. All three of these phenomena are recorded in the geology of the Aleutian Islands, and the following sequence of events is indicated: (1) diminution of magmatism on approach of the Kula Ridge in middle Eocene times (approximately equal to 45 m.y. ago), marked by a conformable transition from volcanic-rich to volcanic-poor early-series rocks; (2) shoaling and emergence of the crest of the Aleutian arc in late Eocene to Oligocene time, marked by a deep- to shallow-marine transition in sedimentation and then an arc-wide unconformity above the early series and its probable ''submarine equivalent,'' the now-dissected Aleutian crestal platform; (3) subduction of the Kula Ridge and greenschist metamorphism of the early-series rocks at about 30 to 35 m.y. ago, inferred from K-Ar ages; (4) subsidence of the arc down the south flank of the Kula Ridge in middle Oligocene to Miocene time, as themore » Pacific plate was subducted; and (5) abrupt resumption of arc magmatism 15 m.y. ago. This history of events is consistent with the timing of plate motions in the North Pacific and suggests that there has been essentially continuous underthrusting at the Aleutian Trench since at least 45 to 50 m.y. ago, with subduction of 900 to 1,000 km of ocean floor since 30 to 35 m.y. ago.« less</t>
+          <t>Abstract The binding of methyl orange, ethyl orange, propyl orange, and butyl orange by poly(vinylpyrrolidone) has been examined by a technique of equilibrium dialysis over a high temperature range (60–90°C). The first binding constants and the thermodynamic parameters in the course of the binding were evaluated. The results obtained at these temperatures were compared to those at lower ones (5–35°C) described previously in order to estimate the contribution of hydrophobic bonds to the binding. It was found that at the 60–90°C range complex formation between the dye and the macromolecule is associated with an exothermic enthalpy change and a positive entropy change. The enthalpy and entropy changes of the binding are of the order of −4.5 kcal/mole and 6 eu, respectively, for each dye measured. Thus the binding is mainly enthalpy‐controlled. Furthermore the effect of the alkyl chain length of the dye on both the Δ H ° and Δ S ° values is not pronounced. Also temperature dependences of the Δ H ° and Δ S ° terms were not observed. All these observations in the higher temperature range can be explained as a result of the disruption of water structure in the binding environment and hence a decrease in hydrophobic bond formation between the dye and the polymer.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1995600490</t>
+          <t>https://openalex.org/W2135755296</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0092-8674(78)90257-x</t>
+          <t>https://doi.org/10.1002/jss.400050307</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Borst &amp; Grivell (1978)</t>
+          <t>Ranney &amp; Pincus (1976)</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>The mitochondrial genome of yeast</t>
+          <t>Suppression of stimulating cell activity by microtubule-disrupting alkaloids</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>mtDNA is the simplest DNA in nature which carries genes for the three classes of RNA-rRNAs, tRNAs, and mRNAs. In yeast, this genetic system has a number of unusual features that may even be of interest to molecular biologists who do not particularly care about mitochondrial biogenesis: -The gene for the large rRNA is split and the intervening sequence varies in different strains. There is suggestive evidence that the structural genes for cytochrome b and subunit I of cytochrome oxidase are split as well. -The mtDNA has a low G + C content (16%) and about half of it consists of sections with a G + C content of &lt;5%. -The mtDNAs of related yeast strains show hypervariability in sequence although gene order is conserved. -The yeast mitochondrial translation system is unusual in several respects: mitochondrial mRNAs are not properly translated in any nonmitochondrial system; the genes for the two major rRNAs are far apart on the DNA; secondary modification of rRNAs is marginal; no authentic 5s RNA has been found; and the system may operate with less than 32 tRNAs, the minimum number required according to the “wobble” hypothesis. -Transmission of genetic markers in one region of the mitochondrial genome shows polarity, and this has been correlated with the presence/absence of a 1000 base pair (bp) insertion. -Yeast mtDNA mutants have been isolated in which the resistance of mitochondrial ribosomes to erythromycin or chloramphenicol is probably due to an alteration in the nucleotide sequence of one of the rRNAs. -Yeast mtDNA frequently suffers massive deletions that remove 20-99.9% of its sequence; in the resulting ppetite mutants, the remaining mtDNA segment amplifies by tandem duplication. The reiterated nonfunctional petite mtDNA is faithfully replicated and retained at the same cellular concentration as wild-type mtDNA, irrespective of the size of the DNA segment retained. This review concentrates on some of these unusual features and on the possible use of the genetic system of yeast mitochondria as a model for studies in gene organization, expression, recombinaReview</t>
+          <t>Abstract Microtubule‐disrupting alkaloids and protein fixatives were used to investigate the nature of an active process that must occur within stimulator cells in order for them to intiate a unidirectional mixed lymphocyte response (MLR). Brief treatment of the stimulator cells (SC) with glutaraldehyde (0.15%), formalin (0.6%), or lanthanum chloride (10 −3 M) abolished their capacity to activate responder cells (RC). Pre‐treatment of SC with the microtubule‐disrupting alkaloids, colchicine (c) (10 −4 to 10 −6 ) or clochicine + vincristine (c+v) (10 −4 to 10 −6 M) also abrogated their stimulating capacity. This capacity was not restored by the addition of supernates from untreated cultures, thereby excluding the possibility that the alkaloids acted by decreasing the release of soluble stimulatory factors from SC. The introduction of alkaloid‐inactivated, mitomycin‐treated RC as drug carriers did not affect the mitogenic response of untreated RC to concanavalin A. This excluded a significant leakage of alkaloids from the treated SC and uptake by RC during culture. Lumicolchicine produced no decrease in the stimulating capacity of SC. This suggested that the suppression induced by low concentrations of colchicine resulted from its specific disruption of microtubules. None of the above treatements quantitatively reduced the antigenicity of SC, as evaluated by humoral and cell‐mediated lysis of the treated cells. Also, these treatements produced no significant changes in the specific binding of concanavalin A by SC. These indicate there is a functional interaction of microtubular structures with cell surface antigens that appears to regulate either the capacity of SC to associate with RC, or the ability of SC to form and stabilize stimulatory antigenic configurations on the cell surface.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1987189637</t>
+          <t>https://openalex.org/W2138622765</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/359545.359566</t>
+          <t>https://doi.org/10.2514/3.7098</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Baker (1978)</t>
+          <t>Wu (1976)</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Shallow binding in Lisp 1.5</t>
+          <t>Missile stability using finite elements - An unconstrained variational approach</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Shallow binding is a scheme which allows the value of a variable to be accessed in a bounded amount of computation. An elegant model for shallow binding in Lisp 1.5 is presented in which context-switching is an environment tree transformation called rerooting. Rerooting is completely general and reversible, and is optional in the sense that a Lisp 1.5 interpreter will operate correctly whether or not rerooting is invoked on every context change. Since rerooting leaves assoc [ v, a ] invariant, for all variables v and all environments a , the programmer can have access to a rerooting primitive, shallow[], which gives him dynamic control over whether accesses are shallow or deep, and which affects only the speed of execution of a program, not its semantics. In addition, multiple processes can be active in the same environment structure, so long as rerooting is an indivisible operation. Finally, the concept of rerooting is shown to combine the concept of shallow binding in Lisp with Dijkstra's display for Algol and hence is a general model for shallow binding.</t>
+          <t>The stability behavior of a flexible missile idealized as a free-free beam is studied using the finite-element technique. The structure is assumed to be under a constant thrust which, in turn, is subjected to a directional control device. A concentrated mass is included to model a piece of heavy machinery. The solution formulation - finite element in conjunction with unconstrained variational principles -is shown here to be general, simple to use, and effective to overcome the difficulties arising from nonconservative forces, concentrated mass, and feedback control features. As a basis of this approach, an unconstrained variational statement and the associated adjoint problems are introduced. Numerical results from this study reveal that 1) for a free-free beam under a constant thrust, there exists a nonzero mode which seems to have escaped previous investigators; 2) since this newly realized mode is the lowest nonzero mode and is divergent in nature, a missile structure is unstable without feedback control; and 3) depending on the amount and location of a concentrated mass, it can improve the stability behavior of a missile.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1994224306</t>
+          <t>https://openalex.org/W2139847837</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1029/jb083ib07p03441</t>
+          <t>https://doi.org/10.1145/1013610.807296</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Cisowski &amp; Fuller (1978)</t>
+          <t>Pooch (1976)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>The effect of shock on the magnetism of terrestrial rocks</t>
+          <t>A dynamic clustering strategy in a demand paging environment</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Experimental projectile impacts into solid intrusive rocks confirm that shock pressures on the order of tens of kilobars are sufficient to affect the natural remanent magnetism (NRM) of terrestrial materials. The principal effect is to demagnetize the preexisting remanence. A secondary effect is the acquisition of an additional component of remanence whose direction is related to the ambient field direction at the time of impact. Although longer and more intense shock pulses may affect the higher‐coercivity fractions, the low‐coercivity fraction is the most susceptible to magnetic resetting by shock. Thus igneous rocks with abundant low‐coercivity carriers (low remanent coercive force, H RC ) are more disposed toward magnetic recording of low‐pressure shock events. Evidence is presented that these low‐H RC rocks are also apparently capable of recording the remanent field of a magnetized projectile at the time of impact. Analysis of the NRM of samples from a road cut in the Palisades Sill, New Jersey, demonstrated that the explosions associated with road cutting are sufficient to reset partially the magnetization in the direction of the present field. This result illustrates possible hazards in the interpretation of paleomagnetism for such samples. The variability of remanence in the Deccan basalts from the Lonar Crater, India, can be explained in terms of their observed differing response to shock, as a function of H RC . However, the lack of oriented samples precludes a conclusive test that the secondary component observed in nature is a shock remanent magnetization. The magnetism of Lonar microbreccias seems to be related to the temperatures they reached during the impact event. Despite widespread remagnetization of the Kaibab formation since the impact event, certain oriented dolomite samples from Meteor Crater, Arizona, retain evidence of partial magnetic resetting at the time of the crater‐forming event, which may well be a shock remanence. The Coconino sandstone from Meteor Crater shows changes in remanence and hysteresis properties with increasing degrees of shock metamorphism. An important application of the effects of shock upon magnetization lies in the interpretation of lunar magnetism, since all lunar samples were collected from an impact‐generated regolith. The ‘hard’ NRM curves of many mare basalts may in part be due to preferential shock demagnetization of ‘soft’ NRM. In the soil breccias the observed NRM is likely to be directly associated with the lithification process. The mechanism of shock‐associated magnetization is not well understood. In the low‐shock range of a few kilobars it appears to be similar to static‐stress‐related magnetization. In extreme shock of hundreds of kilobars the transient and residual temperatures are high enough so that the acquired remanence is transitional to thermoremanent magnetization.</t>
+          <t>An algorithm is presented which dynamically clusters pages of a problem program based on its past program behavior (i.e. reference string patterns) in a demand paged virtual memory environment. The objective of this algorithm is to minimize the number of page faults during execution, while at the same time use memory page frames efficiently. Dynamic clusters of time and reference related pages are built during a program's execution time. Whenever a page fault for the i-th page occurs in this time evolving environment, the pages of the cluster associated with the i-th page is compared to the pages currently in real (physical) memory. Thus during this current page fault, the demanded page, and any associated clustered pages not currently in physical memory are placed into memory. Page frames holding pages not in the current cluster are returned to the memory management system. Thus the physical amount of memory allocated to a processing program is dependent upon the size of the associated cluster at that time . Simulation results of program behavior operating under this dynamic clustering strategy indicates that significant improvements in page faults and in the space time product may be achieved. The algorithm requires fewer real page frames per executed instruction than most currently implemented algorithms that utilize a fixed number of page frames per problem programs (i.e. fixed allocated partition or region). The algorithm, MLMM (Modified Locality Matrix Model), an extension of work by Hedges and Pooch [12] is used to determine inherent program locality to predict independent dynamic program behavior, separating instruction from data references. Furthermore, strength coefficients between weakly or loosely coupled clusters are used to refine the cluster population, identify cluster transitions, as well as indicate the behavior of the cluster formations.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2146061974</t>
+          <t>https://openalex.org/W2142323261</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/1866158</t>
+          <t>https://doi.org/10.2307/1941058</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Pike (1978)</t>
+          <t>McClure &amp; Price (1976)</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>The United States and the Andean Republics: Peru, Bolivia, and Ecuador</t>
+          <t>Ecotope Characteristics of Coexisting Erythroneura Leafhoppers (Homoptera; Cicadellidae) on Sycamore</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>1. Perspectives of Cultural Contrasts Individualism and Rising Expectations Patronalism-Clientelism, Corporativism, and Andean Cultural Patterns Patronalist-Clientelist Corporativism and the Image of the Limited Good The Nature of Government 2. The Social Matrix of the Andean Past Indians, the Hacienda, and the Frontier Experience in the Colonial Era Race Relations and Corporativism Education, Letters, and the Patronalist-Clientelist, Corporative Society Merchants and Landowners The Ideological Background to the Andean Independence Movement 3. Prelude to Chaos: The Implications of Independence Religion and the Implications of Independence Liberalism, Conservativism, and the Corporativism Issue Economic Collapse and the Blow to Liberalism Andean Krausists as Early Critics of Liberal Modernization Andean Regionalism The Racial Issue and the Implications of Independence 4. The Nineteenth-Century Quest for Stability and Progress Peru: Independence and the Age of Caudillos The Age of Castilla and of Guano Herrera versus Vigil Economic and Political Disintegration, 1868-1879 Bolivia: The Attainment of Independence The Rule of Sucre, Santa Cruz, and Ballivian, 1826-1847 Tata Belzu, the Precursor of Andean Populism, 1848-1855 Civilian and Military Rule, 1857-1879 Ecuador: Independence from Spain and Gran Colombia The Age of Flores, Rocafuerte, and Urbina, 1830-1860 The Age of Garcia Moreno and the Aftermath, 1861-1883 5. Rivalry, Diplomacy, War, and Reconstruction in the Nineteenth Century Intervention and Balance-of-Power Politics to the 1870s The War of the Pacific Reconstruction in Bolivia and Peru Ecuador, 1883-1895 6. The Apogee of Liberalism and the Rise of U.S. Influence, 1900-1920 Liberalism and the Indians Liberalism and the Church Progress and the Rise of a New Plutocracy The Penetration of U.S. Capital: Peru Bolivia Ecuador The Social Problem Surfaces Disillusionment with Liberalism 7. Andean Political Establishments and Transition, the 1920s Andean Political Establishments Respond to New Challenges: Leguia and the Political Establishment in Peru Saavedra and Siles and the Political Establishment in Bolivia Civilians, the Military, and the Political Establishment in Ecuador Intensification of U.S. Economic Penetration The Rise of U.S. Diplomatic Influence 8. Aspiring Elites and Transition Catholicism and Transition Marxism-Leninism and Transition Marxian Indianism and Revolutionary Transition The APRA and Its Formulas for Transition Prophets of Transition and U.S. Relations 9. Experiments with Reformism: The Depression and Wartime Years Populism in Peru and Ecuador, 1930-1934 The Chaco War and the Aftermath in Bolivia, 1930-1946 Weathering the Storm in Peru and Ecuador, 1934-1945 10. Revolution in Bolivia, Muddling Through in Peru and Ecuador, 1945-1960 Respectable Indianism in Andean America The Bolivian Social Revolution: The Revolution and the Indian or Campesino The Revolution and the Urban and Mining Sectors The Revolution and the United States The Old Order in Peru The Established Order and the Political Kaleidoscope in Ecuador 11. The Alliance for Progress and Andean Transitions, 1961-1968 Bolivia and the Attempt to Impose Order, 1960-1968 The Political Scene in Ecuador The Political Scene in Peru Breakdown of the Old Order: The Agrarian Sector Breakdown of the Old Order: The Urban Sector The United States and the Breakdown of the Old Order External Dependency Theories The Military and Its Perceived Role of Nation-Building 12. A New Era Emerges, 1968-1976 The View from Andean America Peru's New Corporativism and the Quest for Controlled Development Ecuador and the Transition to Military Corporativism Bolivia: Shifting Patterns of Military Rule The Catholic Church and the New Corporativism The Uncertain Prospects of Andean Corporativism 13. Epilogue: On Life and Culture in Postmodern Times Notes Index</t>
+          <t>Eight species of leafhoppers (Homoptera: Cicadellidae) of the genus Erythroneura (maculata group) breed on the American sycamore, Platanus occidentalis L. Several occur sympatrically in many areas throughout the range of their host plant even though they have been shown to compete severely for the last 9 weeks of the season in Illinois. The species are E. arta Beamer, E. bella McAtee, E. hymettana Knull, E. ingrata Beamer, E. lawsoni Robinson, E. morgani (DeLong), E. torella Robinson, and E. Usitata Beamer. Five of these are sibling species. Ecotope characteristics (niche and habitat) were examined to determine the factors which permit coexistence in this leafhopper guild on sycamore. The five niche or intracommunity factors examined were temporal utilization, distribution within the canopy, occurrence on leaves of various sizes and ages, and location of feeding sites on the leaf. There were insufficient differences between species for all five niche parameters to explain coexistence in the guild by niche segregation. Three habitat or intercommunity parameters were examined: occurrence on trees alone a moisture gradient, latitudinal distribution with respect to that of sycamore, and distribution within a given geographical locality. There were sufficient differences in the latter two parameters to explain coexistence by habitat segregation. The peak proportional abundances of seven of the eight species occurred in different latitudinal zones and the degree to which the distribution of each species was overlapped by those of all the other Erythroneura ranged from only 0.10 to 0.63 (° = 0.42). Data indicate that species whose ranges over—lapped substantially have apparently evolved differences in their manner of resource utilization, thus reducing competition through character displacement or through a shift in the adaptive mode of the population. There was a tendency for each species to become more unevenly distributed locally from its distributional center; this further reduced geographical overlap between species. Overall proportional similarities (PS), calculated for latitudinal and local distributions were low (PS range from 0.00 to 0.44; ° = 0.17 where PS_(max) = 1.0 and PS_(min) = 0.0). We infer that habitat segregation in the guild permits coexistence. Additional mechanisms which may permit coexistence are discussed.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2042233740</t>
+          <t>https://openalex.org/W2165122089</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1098/rstb.1978.0010</t>
+          <t>https://doi.org/10.1099/00207713-26-1-38</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Hulet (1978)</t>
+          <t>Wayne &amp; Diaz (1976)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Structure and functional development of the eel leptocephalus Ariosoma balearicum (De La Roche, 1809)</t>
+          <t>Immunoprecipitation Studies of Mycobacterial Catalase</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Eels, elopids, notacanths and other elopomorph fishes spawn in the ocean and the hatchlings spend their larval life as pelagic, planktonic organisms. The larvae are known as leptocephali and their transparent, leaf-like body characteristically bears little resemblance to the respective adult form. Planktonic life in the ocean may last for years before the leptocephalus undergoes a morphological transformation and takes on a recognizable fish-like appearance. A prolonged larval life suggests a delay in structural and functional development and this premise was the basis for the present study. Before this work on morphology, chemical analysis of the whole leptocephalous body indicated an internal salinity and osmolality far and above the known values for marine teleost fishes. For that reason, particular attention was given to the structural maturation of the gills, gut and kidney, all of which are intimately concerned with osmoregulation. The leptocephalus of the bandtooth conger Ariosoma balearicum was chosen for morphological studies because of its abundance in the tropical western Atlantic and because the Bathymyrinae, which includes , is a reasonably generalized subfamily of congrid eels. The congrids are primitive and representative of the basic eel plan and, as such, are accorded a rather ancestral position. In order to grasp the fundamental organization of a leptocephalus it was soon discovered that all parts of the body needed to be examined. One by one, a long list of structural peculiarities came to light, each of which seemed to have a direct relation to the functional adaptation of the leptocephalus for a prolonged oceanic existence. The section describing the chondrocranium is particularly detailed and permits comparison with an examination of the leptocephalous skull in Anguilla performed by Norman some fifty years ago. The advantages of current methods for processing tissue and the electron microscope are evident in the micrographs of cell surfaces and intracellular organelles. Gill function in the premetamorphic leptocephalus is limited by structure to a mandibular hemibranch. The four gill arches are present, but the vasculature is undeveloped and gill filaments are absent. The gastrointestinal tract is always devoid of food material and some sections of the intestine do not have a discernible lumen. The size, shape and appearance of the teeth seem unrelated to the source of nutrition. All kidney tubules are aglomerular. In summary, the leptocephalus demonstrates many features of structural and functional immaturity and, until transformed by metamorphosis, appears to be an obligatory inhabitant of the open ocean.</t>
+          <t>Serological techniques have been used to detect small changes in amino acid sequences of specific proteins in closely related biological systems. These changes are believed to reflect evolutionary divergence. In the present study, the differences in binding capacities of catalases from different mycobacteria for a reference antiserum were measured very specifically by assaying the unbound functional enzyme after exposure to antibody. Catalase derived from Mycobacterium tuberculosis has been used to immunize rabbits. The antibody so produced precipitated the enzyme but did not inactivate it. This antibody also precipitated catalase from sonic lysates of other mycobacterial species. The binding capacity of catalase derived from a number of heterologous species for the M. tuberculosis antibody was always lower than that of homologous enzyme. Some species produced catalase that failed to react at all with the reference serum. In other cases, there was evidence of at least two serologically unrelated catalases in a single strain. There was also a limited correlation between rate of inactivation of catalase by heat and the relative antibody-binding capacity of the enzyme. The serological study of catalases offers promise of providing a useful tool for clarifying evolutionary relationships among mycobacterial species.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2123003771</t>
+          <t>https://openalex.org/W2170759177</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1115/1.3453905</t>
+          <t>https://doi.org/10.2307/3679071</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Dyer &amp; Stewart (1978)</t>
+          <t>Brown (1976)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Detection of Rolling Element Bearing Damage by Statistical Vibration Analysis</t>
+          <t>Imperial Facade: Some Constraints Upon and Contradictions in the British Position in India, 1919–35</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>A new method is presented for predicting rolling element bearing condition from measurements of bearing housing vibration. This method is based on a statistical parameter Kurtosis, that remains constant for an undamaged bearing irrespective of load and speed, yet changes with damage. The extent of damage can be assessed from the distribution of this statistical parameter in selected frequency ranges. An assessment of bearing condition can thus be made with minimum recourse to historical information. Most other damage detection techniques rely heavily on the trend analysis of data and so this new method may prove to be a significant advance in bearing fault detection technology, at least when viewed within the original objective to provide a simple and cheap technique. As with most other simple detection techniques, the precise nature of the fault cannot be defined and for such information it is necessary to use the more sophisticated diagnostic methods.</t>
+          <t>THE Raj still has a peculiar fascination for the British public, judging by the stream of popular books, radio and television programmes whose constant themes are the panoply of empire and the life-style of imperial rulers. Among English-speaking historians, however, approaches to Britain's Indian empire have changed markedly in the last twenty years. By the 1950s ‘Imperial history’ was a thing of the past. Gone was its admiring concentration on the men who ruled India and their measures as a way of understanding political change in the subcontinent. Attention shifted to indigenous initiatives and growth points. At first the emphasis was on India's western educated as organizers and spokesmen of a new kind of overtly nationalist politics. In the late 1960s the focus altered to whole localities within the subcontinent as it became clear that the western educated were not elites divorced from local, more traditional societies, but were still subject to its pressures, influenced by its perceptions and involved in its webs of patronage and alliance. In such an environment apparently nationalist politics were shot through with conflicts and contraditions: they were only one aspect of diverse manoeuvres for influence in society and the state structure. In the present decade the wheel has almost come full circle. Imperial overlords again receive attention: not now as architects and guardians, but as elements essential in the analysis of the changing style and content of Indian politics to the extent to which they created the framework of political life, defined its categories, means and ends.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2065179920</t>
+          <t>https://openalex.org/W2175120729</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://doi.org/10.13031/2013.35370</t>
+          <t>https://doi.org/10.1175/1520-0485(1976)006&lt;0345:voitwp&gt;2.0.co;2</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Fangmeier &amp; Ramsey (1978)</t>
+          <t>Weisberg &amp; Sturges (1976)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Intake Characteristics of Irrigation Furrows</t>
+          <t>Velocity Observations in the West Passage of Narragansett Bay: A Partially Mixed Estuary</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>ABSTRACT EARTH linings are frequently used in reservoirs, canals, and other earth structures to control liquid movement for the purposes of pollution control, water conservation, and structural stability. Clays or chemicals are often added to linings to reduce the hydraulic con-ductivity of the native soil, however, both additives sometimes decrease in effectiveness with time. Under ordinary conditions, gravel is nearly inert and does not change properties with time. The hydraulic con-ductivity of permeable soil was substantially reduced by adding gravel that was at least 15 times larger than the particle size of the soil. The amount of clay required to control seepage was reduced by half by the addi-tion of graved.</t>
+          <t>Narragansett Bay is a weakly stratified estuary comprised of three connecting passages of varying depths. The vertical distribution of horizontal velocity was observed in the West Passage using moored current meters. The instantaneous motion was characterized by semi-diurnal tidal currents of amplitude 25–60 cm s−1. These currents exhibited a phase advance with depth (total water depth=12.8 m) ranging with lunar phase from 0–3 h. The net current time series obtained by filtering out motions at tidal and higher frequencies were found to be an order of magnitude less than the instantaneous motion and well correlated to the prevailing 2–10 m s−1 winds. For periodicities of 2–3 days, the coherence between the longitudinal components of wind and net near surface current was as high as 0.8 with the current lagging the wind by about 3 h. The mean near surface speed, obtained by averaging over one month, was 1.2±1.6 cm s−1. The large error bounds were a result of the large variability of the net current time series (and not a result of inadequate sampling). A measure of this variability due to day-to-day changes in weather is given by the root mean square deviation of the net current time series or 2.6 cm s−1. The net transport of water through the West Passage was observed to be seaward or landward over the entire water column for several days duration, with typical wind induced transport fluctuations of &amp;plusmn m2 s−1. Hence, a net communication of water exists between the East and West Passages with water flowing either way in response to the wind. Wind is concluded to be the dominant mechanism driving the net circulation in the West Passage of Narragansett Bay. This is in contrast with the classical views of gravitationally convected net estuarine circulation.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2019938129</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0039-6028(78)90328-x</t>
+          <t>https://openalex.org/W2264771031</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Lo et al. (1978)</t>
+          <t>Solomon (1976)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Electron spectroscopy studies of the chemisorption of O2, H2 and H2O on the TiO2(100) surfaces with varied stoichiometry: Evidence for the photogeneration of Ti+3 and for its importance in chemisorption</t>
+          <t>Geophysical constraints on radial and lateral temperature variations in the upper mantle</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Deposition of a monolayer of titanium on the TiO2(100)-( 1 × 3) single crystal surface produces an oxygen deficient surface which has the same chemical composition, electronic structure and chemical reactivity as the Ar ion sputtered TiO2(100) surface. From correlations with studies of oxidation of the Ti(0001) single crystal surface, we provide firm evidence for the existence of Ti+3 species on the clean oxygen deficient TiO2 surface. The chemisorption of O2, H2 and H2O has been studied by ultraviolet photoemission spectroscopy (UPS), electron energy loss spectroscopy (ELS), Auger electron spectroscopy (AES), low-energy electron diffraction (LEED) and thermal desorption on the stoichiometric and Ti+3-rich TiO2(100) surfaces. The presence of surface Ti+3 species causes distinct differences in the nature of chemical bonding between the adsorbed molecule and the substrate surface. From the combination of these studies, we conclude that water is adsorbed associatively on the stoichiometric TiO2(100)−( 1 × 3) surface while it tends to dissociate into surface hydroxyl groups on the Ti+3 rich surface. UPS and ELS show that while adsorption of H2O changes the Ti+3 to a different oxidation state, illumination by band gap energy photons can regenerate Ti+3 species by the reaction Ti+4 + e− → Ti+3. An attempt has been made to correlate these results on well characterized surfaces with studies using TiO2 as a photoanode in the photo-electrochemical cell.</t>
+          <t>Temperatures in the upper mantle may be inferred from measurements of physical properties which are strongly dependent on temperature and by identification of seismic discontinuities with phase transitions of measurable equilibrium boundaries. Temperature at the top of the low-velocity zone, equated with the onset of incipient melting, is generally 1100/sup 0/ +- 100/sup 0/C from a wide variety of evidence. The extensive melting detectable beneath mid-ocean ridges implies temperatures above 1250/sup 0/C in the shallow asthenosphere under spreading centers. Below a thermal boundary layer at the top of the asthenosphere, associated with convection on a scale secondary to plate motions, geotherms in the asthenosphere follow nearly adiabatic gradients and intersect the olivine-spinel transition at a temperature of 1300/sup 0/ +- 150/sup 0/C. The olivine--spinel transition is elevated about 100 km in subducted oceanic lithosphere, implying a 1000/sup 0/C temperature contrast between slab and normal mantle at 250 km depth. Systematic thermal differences between stable ocean basins and continental shields are necessary but are not likely to extend deeper than 200 km. Lateral temperature variations of perhaps 200/sup 0/C do persist deeper than 200 km and are probably associated with convective flow in the asthenosphere.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2016131667</t>
+          <t>https://openalex.org/W2274643959</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1467-8543.1978.tb00262.x</t>
+          <t>https://doi.org/10.1016/b978-0-408-70719-0.50031-0</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Hyman (1978)</t>
+          <t>Wagner (1976)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>PLURALISM, PROCEDURAL CONSENSUS AND COLLECTIVE BARGAINING</t>
+          <t>THE NATURE OF PHOTOPERIODIC TIME MEASUREMENT: ENERGY TRANSDUCTION AND PHYTOCHROME ACTION IN SEEDLINGS OF CHENOPODIUM RUBRUM</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>British Journal of Industrial RelationsVolume 16, Issue 1 p. 16-40 PLURALISM, PROCEDURAL CONSENSUS AND COLLECTIVE BARGAINING Richard Hyman, Richard Hyman Senior Lecturer in Industrial Relations, University of WarwickSearch for more papers by this author Richard Hyman, Richard Hyman Senior Lecturer in Industrial Relations, University of WarwickSearch for more papers by this author First published: March 1978 https://doi.org/10.1111/j.1467-8543.1978.tb00262.xCitations: 39AboutPDF ToolsExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat REFERENCES 1 S. H. Hodgson, Letter to William James, 18 May 1909, quoted in R. B. Perry, The Thought and Character of William James, Vol. I, Little Brown, 1935, p. 651 (emphasis in original). 2 The interrelationship is discussed in R. Hyman and R. H. Fryer, ’ Trade Unions: Sociology and Political Economy‘ in J. McKinlay, Processing People, Holt, Rinehart and Winston, 1975. 3 H. A. Clegg, ’Pluralism in Industrial Relations‘, British Journal of Industrial Relations, Vol. 13, 1975. 4 C. B. Macpherson, The Political Theory of Possessive Individualism, O. U. P., 1962, p. 4. 5 B. Crick, ’The Strange Death of the American Theory of Consensus‘, Political Quarterly, Vol. 43, 1972, p. 57. 6 William James, A Pluralistic Universe, Longmans, 1909. 7 D. Nicholls, Three Varieties of Pluralism, Macmillan, 1974. 8 K. Martin, Harold Laski, Cape, 1969, p. 65. 9 O. Gierke, Political Theories of the Middle Age (trans. F. W. Maitland), C. U. P., 1900. 10 L. Duguit, Law in the Modern State (trans. J. and H. Laski), Allen and Unwin, 1921. 11 H. Laski, The Foundations of Sovereignty, Allen and Unwin, 1921, p. 169. 12 Pluralistic Universe, p. 321. 13 Foundations of Sovereignty, p. 169. 14 Note on L. Duguit’, Harvard Law Review, Vol. 31, 1917, p. 191. 15 E. Durkheim, The Division of Labour in Society (Preface to 1902 edn.), Macmillan, 1933, p. 28. 16 The most notable among the authors of the latter was of course G. D. H. Cole As a Guild Socialist his theories were often imprecise, shifting and idiosyncratic; as Nicholls comments (p. 12), ‘We find in his writings a significant departure from the pluralist position on the question of sovereignty…Cole's position changed rapidly from year to year, and from book to book, and it is difficult to give a coherent account of his political theory at this period.’ While Cole was later to exert a considerable influence on the academic study of industrial relations in Britain, he had by then discarded many of the radical elements in his original pluralism. For analysis of the pluralism of the Guild Socialist movement see S. T. Glass, The Responsible Society, Longman, 1966; 17 L. P. Carpenter, G. D. H. Cole., C. U. P., 1973. 17 Note on L. Duguit’, p. 273. 18 Three Varieties, Ch. 3. 19 J. Schumpeter, Capitalism, Socialism and Democracy, Allen and Unwin, 1943. 20 J. Schumpeter, p. 269. He subsequently specifies the criterion of democracy as ‘free competition among would-be leaders for the vote of the electorate’ (p. 285). 21 Schumpeter makes little attempt to document the ‘classical’ theory which he attacks; it has been argued that the theory as he presents it is largely a myth ( C. Pateman, Participation and Democratic Theory, C. U. P., 1970). 22 See in particular R. A. Dahl, Preface to Democratic Theory, University of Chicago Press, 1956. 23 Three Varieties, p. 25. 24 Preface, p. 137. 25 An interesting indication of the diversity of pluralist approaches is that while cross-cutting and overlapping economic, political, religious and cultural groups are a vital element in the American political theory of pluralism, the anthropological model of the ‘plural society’ developed by J. S. Furnivall involves the coincidence of such group divisions and hence a rigid social segmentation. ‘A plural society … is characteristic of the modern tropics. One finds there a society in which two or more groups live side by side but separately within the same political unit… Each group holds by its own religion, its own culture and its own ideas and ways of life; the members of each group mix only in the market-place’ (‘Some Problems of Tropical Economy’ in R. Hinden, Fabian Colonial Essays, Allen and Unwin, 1945, pp. 167–8). 26 R. Dahrendorf, Class and Class Conflict in Industrial Society, Routledge and Kegan Paul, 1959, p. 317. Since political theories of pluralism are not directly related to the main theme of this paper, no attempt at a critique is offered here. But see for example C. Wright Mills, The Power Elite, O. U. P., 1959, Ch. 11; 28 G. W. Domhoff and H. B.</t>
+          <t>This chapter describes the nature of photoperiodic time measurement: energy transduction and phytochrome action in seedlings of Chenopodium rubrum. While analyzing the energy metabolism of synchronized and photosynthetically active seedlings of Chenopodium rubrum with respect to rhythmic changes in adenine and pyridine nucleotides, it was found that the pool sizes of all nucleotides changed rhythmically. The calculation of the energy charge and of the ratio nicotinamide adenine dinucleotide phosphate (NADPH/NADP) revealed a circadian rhythm in continuous darkness and in continuous light. Even in dark-grown seedlings that had not been subjected to cyclic environmental conditions, there is a circadian rhythm in energy charge with two sub-peaks per circadian period. Adenylate energy charge and reduction charge might be coupling agents in the control of growth and differentiation under photoperiodic and photomorphogenic conditions. There is a striking similarity between recent kinetic models of the high-irradiance response (HIR) of photomorphogenesis and the kinetic and structural representation of redox shuttles integrated in energy-transducing biomembranes as components of vectorial metabolism. Therefore, it might be possible that the molecular basis for the HIR models is to be found in a membrane-organized shuttle system, which could be modulated by phytochrome photoconversion.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2052325354</t>
+          <t>https://openalex.org/W2292942301</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/2060520</t>
+          <t>https://doi.org/10.1016/0005-1098(76)90027-3</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Hogan (1978)</t>
+          <t>Sidi (1976)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>The effects of demographic factors, family background, and early job achievement on age at marriage</t>
+          <t>Feedback synthesis with plant ignorance, nonminimum-phase, and time-domain tolerances</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Abstract National data for ever-married men aged 20 to 65 in March 1973 are utilized to estimate least squares and log-linear structural equation models of age at marriage. We demonstrate that most characteristics of family background (including both the family structure and its socioeconomic standing) are irrelevant in their effect on age at marriage. Intercohort trends are not explicable with reference to the changing socioeconomic, ethnic, or nativity compositions of the cohorts. Regional differences in age at marriage have persisted over the years in only slightly diminished form and cannot be explained by reference to the nativity, ethnic, or socioeconomic compositions of the regions. Early job status relates only weakly to age at marriage. Only those activities that are time-consuming or otherwise disruptive of the smooth operation of normal life-cycle processes during the transition from adolescence to adulthood (such as college attendance and service in the military) seriously affect the age at which a man marries.</t>
+          <t>This paper presents a design procedure for single-loop feedback systems in which the plant is nonminimum-phase, with ignorance in its parameters. The feedback system is to be designed such that the time response to a deterministic input lies within specified boundaries. Subject to the above, the design should be such as to minimize the effect of sensor noise at the input to the plant. The time domain tolerances are translated into equivalent frequency response tolerances. The latter lead to bounds on the loop-transmission L(jw), in the form of continuous curves on the Nichols chart. However due to the nonminimum-phase nature of the plant, it may happen that no L(jw) can be found so that the design specifications of the problem are achieved, unless they are changed accordingly.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2997686296</t>
+          <t>https://openalex.org/W2312757003</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2331/suisan.42.277</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Chen (1978)</t>
+          <t>義晴 &amp; 昌一 (1976)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Phase transitions in gauge coupled systems</t>
+          <t>Dynamics of the Saury Population in the Pacific Ocean off Northern Japan-I</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>1) The dynamics of the saury population which occurs in the Pacific Ocean off northern Japan in autumn was studied by analysing the catch and effort statistics of the saury lift net fishery and length composition data of the catch. 2) Taking into consideration such population conditions as the different patterns of the dynamics among size categories, yearly change of body length, growth within the fishing season, and appearance and disappearance of the offshore fishing ground, the abundance index was calculated in terms of number by size category and fishing ground. 3) It was verified that the abundance index of the large sized fish in number by fishing ground was more steadily and rapidly decreasing than that of other size categories, but the tendency was quite variable by year. 4) Regression of the total coefficient of decrease of the available population on the effective overall fishing intensity was examined, but no positive correlation was found except in the large sized fish. The values of q and M were also estimated from the abundance index in number for every 10-day period, but unrealistic nagative values were often obtained for each size category. 5) Emigration and immigration of the fish shoals were considered to affect seriously the abundance index in number by size category and fishing ground, and the total coefficient of decrease; therefore, a new model on the dynamics incorporating the shift of fishing ground and oceanographic information must be developed in the future analysis.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1967367240</t>
+          <t>https://openalex.org/W2313368127</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/1954539</t>
+          <t>https://doi.org/10.2307/3574478</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Hanrieder (1978)</t>
+          <t>Ito &amp; Kobayashi (1976)</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Dissolving International Politics: Reflections on the Nation-State</t>
+          <t>Induction of Lethal and Genetic Damage by Vacuum-Ultraviolet (163 nm) Irradiation of Aqueous Suspensions of Yeast Cells</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>The diminishing salience of territorial issues, the restraints imposed by the nuclear balance, the shift away from the primacy of military-strategic elements of power to the primacy of economic elements, the day-to-day realities of economic interdependence, and changes in the nature of the nation-state have produced a new international order which resembles in important ways the domestic political systems prevalent in the industrialized noncommunist part of the world. This leads to the “domestication” of international politics. At the same time competitive nationalism, the vitality of the nation-state, differing perceptions of the proper role of government in the economy, and other considerations allow not much more than a tenuous coordination of foreign policies even among similar nation-states, making it unlikely that the European Economic Community and the Atlantic alliance will proceed beyond existing structures toward tighter integration.</t>
+          <t>Yeast cells suspended in distilled water were irradiated with monochromatic 163 nm photons by immersing a specially designed discharge tube into the suspension. This was thought to be a useful means of investigating in vivo effects of radiation-induced water radicals on well cells in the complete absence of ionic species, since 163 nm photons can dissociate water only via excitation. These experiments showed that the water radicals (excluding e/sub aq//sup -/) exerted both lethal and genetic (gene-conversion) effects quite potently, and the characteristic protection against these effects was observable when 2-mercaptoethanol or, in particular, p-aminobenzoic acid, a specific scavenger for OH radicals, was added to the medium prior to irradiation. Nearly complete protection from both lethal and genetic effects was observed in some cases with p-aminobenzoic acid. These results establish unequivocally that the OH radical, and not the hydrogen atom (H radical), possesses the damaging potency in the cell. Comparisons with ..gamma..-ray experiments revealed several differences between 163 nm photons and ..gamma.. rays in the protective actions of radical scavengers, which may be attributable to reactive species other than OH radicals produced by the ..gamma.. rays.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2015042736</t>
+          <t>https://openalex.org/W2314400727</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/283284</t>
+          <t>https://doi.org/10.5254/1.3534995</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Rohwer (1978)</t>
+          <t>Cesca et al. (1976)</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Parent Cannibalism of Offspring and Egg Raiding as a Courtship Strategy</t>
+          <t>Copolymerization of Isobutene and Isoprene at “High” Temperature with Syncatalyst Systems Based on Aluminum Organic Compounds</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>In fish, and possibly other groups, egg-guarding males may benefit from the consumption of some of their own genetic offspring by remaining in good condition for subsequent brood cycles. This parasitism of the female's great cytoplasmic commitment to reproduction generates conflicts of interest which provide an evolutionary explanation of several previously enigmatic behavioral patterns. The fundamental conflict obtains from females trying to minimize their egg loss by laying for males that will receive multiple clutches; this means males without eggs are handicapped in courtship. Egg raiding in sticklebacks, wherein eggs are stolen and deposited in the thief's nest, is interpreted as a courtship strategy, partly deceptive and partly honest, designed to convince the female that loss of her eggs to the fasting male will be minimal. The canopied nests of sticklebacks may conceal the absence of eggs and make courtship fanning serve to deceptively entice females to proceed with courtship, because fanning normally indicates that the male has eggs. The shift from the courtship to the parental phase by guardian males occurs because females should refuse to lay for males with perceptibly advanced eggs yet will benefit from eating such eggs. Finally, differences among species in the relative importance of filial cannibalism and heterocannibalism may explain patterns of sexual size dimorphism in fish with parental care. Where heterocannibalism is more important, females should prefer larger males as better brood defenders; thus, epigamic and agonistic sexual selection are reinforcing. But where filial cannibalism is more important, females should prefer small males because they need to consume fewer eggs for their own maintenance; thus, intramale selection for larger body size is countered by female choice of small males.</t>
+          <t>Abstract New catalyst systems based on alkylaluminum derivatives and halogen or interhalogen compounds were found highly efficient in the synthesis of high-molecular-weight IIR at temperatures above − 50°C. The reaction mechanism was studied in detail for the system Et2AlCl + Cl2. The reactions occurring between chlorine, isobutene, Et2AlCl, and the solvent (CH3Cl) were elucidated and studied under various experimental conditions (e.g. presence or absence of light, simultaneous presence of the copolymerization system components, temperature, type of halogen, use of model compound of isobutene). It was concluded that halogenium ions, i.e. Cl+, Br+, or I+, are the initiating species. Kinetic and conductometric investigations showed that scarcely dissociated ion pairs, e.g. Cl+[Et2AlCl2]−, were formed in the absence of monomer; but in the presence of isobutene, a noticeable increase of the electrical conductivity and rapid polymerization occurred. The maximum polymerization rate was first order with respect to the concentrations of monomer, Cl2, and Et2AlCl. In the homopolymerization of isobutene, transfer to monomer and termination reactions were negligible. The MW of IIR was found to be mainly dependent on the concentrations of the catalyst components, on isoprene concentration, and on temperature. The reactivity ratio of isobutene with isoprene was found to be r1=2.5±0.5 at −35°C, while the activation energies relative to MW were −5.8 ± 0.4, kcal/mol for polyisobutene, and −5.7 ± 0.7 and − 4.3 ± 0.5 kcal/mol for IIR containing, respectively, 1.3 and 1.9 mol% of isoprene. The evaluation of some physicochemical and technological properties of typical IIR produced with the system Et2AlCl + Cl2, indicated that isoprene is randomly distributed along the chains and that the MWD is monomodal, while the glass transition temperature, tensile properties, mechanical-dynamic spectra, and kinetics of vulcanization are very similar to those of commercial IIR. Very preliminary data, referring to several classes of new catalyst systems yielding IIR having good properties, were also obtained. The syncatalyst systems here described can work in a homogeneous phase consisting of an aliphatic hydrocarbon besides methyl chloride, still giving IIR with high MW. Therefore, a completely homogeneous process can be envisioned for the synthesis of IIR at −50°C thus avoiding a great part of the fouling problems of the slurry process. The economic advantage of using “high” temperatures of polymerization is briefly discussed in terms of energy savings.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2020659719</t>
+          <t>https://openalex.org/W2325483878</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0016-7037(78)90250-8</t>
+          <t>https://doi.org/10.1248/cpb.24.736</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Roedder (1978)</t>
+          <t>Ban et al. (1976)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Silicate liquid immiscibility in magmas and in the system K2O-FeO-AI2O3-SiO2: an example of serendipity</t>
+          <t>The synthesis of 3-spirooxindole derivatives. VIII. Total syntheses of (.+-.)-formosanine, (.+-.)-isoformosanine, (.+-.)-mitraphylline and (.+-.)-isomitraphylline.</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>The concept of silicate liquid immiscibility was invoked early in the history of petrology to explain certain pairs of compositionally divergent rocks, but. as a result of papers by Greig (Am. J. Sci.13, 1–44, 133–154) and Bowen (The Evolution of the Igneous Rocks), it fell into disfavor for many years. The discovery of immiscibility in geologically reasonable temperature ranges and compositions in experimental work on the system K2O-FeO-Al2O3-SiO2, and of evidence for immiscibility in a variety of lunar and terrestrial rocks, has reinstated the process. Phase equilibria in the high-silica corner of the tetrahedron representing the system K2O- FeO-Al2O3-SiO2 are presented, in the form of constant FeO sections through the tetrahedron, at 10% increments. Those sections, showing the tentative relationships of the primary phase volumes, are based on 5631 quenching runs on 519 compositions, made in metallic iron containers in pure nitrogen. Thirteen crystalline compounds are involved, of which at least six show two or more crystal modifica-tions. Two separate phase volumes, in each of which two immiscible liquids, one iron-rich and the other iron-poor, are present at the liquidus. One of these volumes is entirely within the quaternary system, astride the 1:1 K2O:Al2O3 plane. No quaternary compounds as such have been found, but evidence does point toward at least partial quaternary solid solution, with rapidly lowering liquidus temperatures, from K2O·Al2O3· 2SiO2 (‘potash nepheline’, kalsilite. kaliophilite) to the isostructural compound K2O·FeO·3SiO2, and from K2O·Al2O3·4SiO2 (leucite) to the isostructural compound K2O·FeO·5SiO2, Both of these series apparently involve substitution, in tetrahedral coordination. of a ferrous iron and a silicon ion for two aluminum ions. Some of the ‘impurities’ found in analyses of the natural phases may reflect these substitutions. As a result of the geometry of the immiscibility volume located entirely within the quaternary system, compositions near it show a number of phase changes and large amounts of crystallization with small temperature changes, generally in the range 1100–1150 C. Similar low-temperature, high-alkali immiscibility was discovered in a few exploratory runs in the equivalent systems with Rb or Cs substituting for K. But not in those with Li or Na. A review of the compositions and general behavior of systems involving immiscibility, both stable and metastable, and of the evidence for natural immiscibility. indicates that it may be a much more common feature than generally thought. Several examples of natural immiscibility are detailed; most yield a felsic. alkali-aluminosilicate melt and a mafic melt. from a wide variety of generally basaltic parental magmas, both under- and over saturated. Unfortunately, the best line of evidence for immiscibility in terrestrial rocks, a sharply defined meniscus between two compositionally disparate glasses, is by its very nature self-destructing, since it is effectively eliminated by either crystallization or gravitative separation and coalescence into separate magmas. Verification of operation of the exosolutionor ‘splitting’ process on a large scale will probably require careful study of isotopic and trace element partitioning in both laboratory and field.</t>
+          <t>The total synthesis of the entitled four alkaloids, which were oxindole alkaloids of Uncaria species and Mitragyna species, has been completed through several steps starting from the condensation of 2-hydroxytryptamine hydrochloride (IV) with 3, 3-dimethoxy-propionaldehyde (V). The condensation product (XV) was submitted to the Michael addition with methyl vinyl ketone, followed by acid treatment to give the α, β-unsaturated ketones (XIVa, b) as two stereoisomers. The isomer (XIVb) was condensed with methyl malonate to yield the ester (XXb), which was hydrogenated with Adams' catalyst to XXIb. The compound (XXIb) was treated with dil. sulfuric acid to give the lactones (XXIIa, b) as two spiro-iso-mers, the isomer (XXIIa) of which in turn, was heated with the aminal ester, then stirred with 5% MeOH-HCl, refluxed with aq. dioxane and heated with PPA to afford (±)-for-mosanine (IIIa) and (±)-isoformosanine (IIIb). Similarly, the lactone (XXVa) which was obtained from (XXb) by reduction with NaBH4 and hydrolysis with acid, gave (±)-mitraphylline (IIa) and (±)-isomitraphylline (IIb).</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2070116957</t>
+          <t>https://openalex.org/W2329225211</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1530/jrf.0.0520167</t>
+          <t>https://doi.org/10.2307/1562785</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Katz et al. (1978)</t>
+          <t>Quay (1976)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Movement characteristics and power output of guinea-pig and hamster spermatozoa in relation to activation</t>
+          <t>Impression Tonometry of Chelonian Eggs (Reptilia, Testudines), a Guide to Internal Pressure and Membrane Phenomena</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Spermatozoa were collected from the cauda epididymidis of golden hamsters and guinea-pigs, and the acrosome reaction was induced in vitro.Movement characteristics of the spermatozoa were assessed with high-speed cinemicrography.Before the initiation of the acrosome reaction (preactivated spermatozoa), sperm movement in both species was characterized by progressive swimming by regular flagellar waves of moderate amplitude and relatively high frequency.After the acrosome reaction (activated spermatozoa), sperm movement in both species was not progressive, and was characterized by whiplash-like flagellar undulations of significantly (P &lt; 0\m=.\05)higher amplitude and lower frequency.Calculation of the hydrodynamic power out- put by a new theory indicated that no significant change occurred after activation.</t>
+          <t>The weighted SchiOtz tonometer, an instrument used in ophthalmology for estimation of intraocular pressure through measurement of ocular tension, was used in studies on internal pressure and shell-membrane characteristics of freshwater turtle eggs of five species. The descriptive value of graphic profiles of egg tension portrayed by tonometry was demonstrated. Correlated tonometric and manometric studies on the same eggs provided a means of giving pressure values to tonometer readings, and of differentiating structural and pressure factors in tonometer measurement of egg tension. Impression tonometry is suggested as a technique for both field and laboratory monitoring of physical changes in reptilian eggs.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2052308793</t>
+          <t>https://openalex.org/W2330114287</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1207/s15327906mbr1302_1</t>
+          <t>https://doi.org/10.1080/00268977600102221</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Baltes et al. (1978)</t>
+          <t>Dang‐Nhu et al. (1976)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Multivariate Antecedents Of Structural Change In Development: A Simulation Of Cumulative Environmental Patterns</t>
+          <t>Analyse de la bande ν&lt;sub&gt;4&lt;/sub&gt;de&lt;sup&gt;13&lt;/sup&gt;CH&lt;sub&gt;4&lt;/sub&gt;entre 1213 et 1369 cm&lt;sup&gt;-1&lt;/sup&gt;</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Multivariate research has provided a conceptual and operational frame-work for the study of structural changes in behavior by focusing on the nature of changes in correlation and factor pattern matrices (e.g., theories of factor integration and differentiation). The purpose of the present simulation is to demonstrate how multivariate structural change and transitions can be construed to reflect multivariate environmental input patterns. These environmental input patterns show interindividual differences, accumulate with ontogeny, and exhibit varying degrees of continuity (environmental continuation, independence, inversion) during development. The simulation uses eight dependent variables as a behavioral universe, 30 subjects as a sample, two types of differential environmental input patterns (general environmental differences, behavior-specific environmental differences), and two developmental stages with multiple phases each. A linear and additive growth model is adopted to simulate the effect of environmental patterns on the rate of onto-genetic development and to generate developmental curves for each of the eight behaviors and each of the 30 subjects. Subsequently, both within- and between-stage comparisons of correlational and factor analytic outcome patterns are performed. The analyses result in the simulation of environmentally produced structural transformations in development (behavior-structure integration and behavior-structure differentiation) and their representation as various prototypic outcomes of factor invariance and change. A concluding argument is presented for a multivariate experimental and developmental approach to the study of behavioral transitions conceptualized as cumulative organism-environment interchanges.</t>
+          <t>Abstract A partir des spectres d'absorption du méthane naturel (1,1 pour cent de 13CH4) enregistrés sur un spectromètre à grilles avec un parcours de 10 m, une pression de 10 torr et une résolution de 0,060 cm-1, nous avons pu mesurer, avec une précision de pointé allant jusqu'à 0,004 cm-1, 130 raies rotationnelles (correspondant à 150 transitions) de la bande ν4 de la variété isotopique 13CH4. Ces données ont permis de déterminer pour la première fois un jeu de treize constantes contribuant de façon significative à l'énergie jusqu'au quatrième ordre dans l'état vibrationnel v 4=1. Pour les 150 transitions introduites dans le calcul, l'écart quadratique moyen est 0,020 cm-1 et le plus grand écart n'excède pas 0,057 cm-1. Les nombres d'ondes calculés sont donnés pour 233 transitions de la bande ν4 de 13CH4 allant de P 12 à R 13. Absorption spectra of natural methane containing 1·1 per cent of the isotopic species 13CH4 have been recorded on a ‘grille spectrometer’ with a path length of 10 m, a gas pressure of 10 torr; the resolution was 0·06 cm-1. 130 rotational lines (corresponding to 150 transitions) of the ν4 band of 13CH4 have been measured with a precision up to 0·004 cm-1. For the first time a set of 13 constants, which contribute significantly to the energy up to the 4th order in the vibrational state v 4=1, have been determined. For the 150 transitions involved in the calculation, the overall standard deviation is 0·020 cm-1 and the largest residual does not exceed 0·057 cm-1. Finally, the calculated wavenumbers of 233 transitions covering the ν4 band of 13CH4 from P 12 to R 13 are listed. Additional informationNotes on contributorsM. Delplanque Une partie de ce travail a été réalisée à l'O.N.E.R.A. avec l'aide de la Commission des Communautés Européennes (contrat no. 057-74-1 ENV.F.).</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2015148491</t>
+          <t>https://openalex.org/W2333283364</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/0305-4608/8/5/021</t>
+          <t>https://doi.org/10.9753/icce.v15.81</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Buschow &amp; Kraan (1978)</t>
+          <t>Silvester (1976)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Magnetic ordering in ternary rare earth iron aluminium compounds (RFe&lt;sub&gt;4&lt;/sub&gt;Al&lt;sub&gt;8&lt;/sub&gt;)</t>
+          <t>HEADLAND DEFENSE OF COASTS</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>The magnetic properties of the tetragonal ternary compounds RFe4Al8(R=La, Ce, Pr, Nd, Sm, Gd, Tb, Dy, Ho, Er, Tm, Yb, Lu, Y and Th) were investigated. An analysis of the data is given in terms of a molecular field model involving three magnetic sublattices: the R sublattice and two antiparallel-coupled Fe sublattices. It was found that in RFe4Al8 the iron moments are coupled antiparallel to the rare earth spin moments. Estimates are given of the molecular field constants associated with the R-Fe interaction and the Fe intrasublattice interaction. Most of these compounds were also investigated by 57Fe Mossbauer spectroscopy. Values are given for the effective hyperfine fields and the isomer shifts. This technique also made possible an accurate determination of the magnetic ordering temperatures, which were difficult to detect by magnetic measurements, even though the Fe moment is about 0.7 mu B/Fe in the magnetically ordered state. The magnetic ordering temperatures range from 140 to 200K. The effective moment of the Fe atom in the paramagnetic regime is about 3.8 mu B/Fe. The magnetic properties of GdMn4Al8 and YMn4Al8 were also determined.</t>
+          <t>Crenulate shaped bays are ubiquitous and constitute the largest proportion of coastline length. The characteristics of stable bays (i.e., no littoral drift) are known, so that realistic encroachment limits can be defined. Allowances for long term changes in direction of persistent swell and annual attack from multidirectional storm waves may have to be made. The exposure of a rock outcrop during an erosive sequence will create a new fixed point on the coast and hence a new bayed system. An existing non-stable bay can be prevented from indenting to its equilibrium shape by the construction of one or more fixed points around its periphery. Research should be conducted to minimise the cost of headlands which might start off as offshore breakwaters, even mobile units.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2121407817</t>
+          <t>https://openalex.org/W2339891957</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/aja.1001520403</t>
+          <t>https://doi.org/10.1042/cs0500223</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Laitman et al. (1978)</t>
+          <t>Thompson &amp; Dickinson (1976)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Developmental change in a basicranial line and its relationship to the upper respiratory system in living primates</t>
+          <t>The Relation between the Excretion of Sodium and Water and the Perfusion Pressure in the Isolated, Blood-Perfused, Rabbit Kidney, with Special Reference to Changes Occurring in Clip-Hypertension</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Abstract This study investigated the relationship between alterations in a basicranial line and changes in the upper respiratory system of selected non‐human primates and of man. This was done through multivariate analysis of craniometric measurements which describe midline exocranial flexion, and compares the analytical results with previous postmortem findings on upper respiratory structure and function. Craniometric analysis has shown that the skulls of the non‐human primate species studied and those of newborn human infants are relatively non‐flexed exocranially between the posterior border of the hard palate and foramen magnum. This finding corresponds to the relatively high position of their upper respiratory structures. In this group the tongue lies entirely within the oral cavity, and the epiglottis is found intranarial. After approximately the second year, humans exhibit marked exocranial flexion between the hard palate and foramen magnum. These basicranial changes coincide with concomitant changes occurring in the positional relationships of the upper respiratory system. After the second year the tongue and larynx have descended considerably into the neck, greatly altering their functional relationships. There thus appears to be a relationship between the exocranial orientation of the basicranium and the positioning of upper respiratory structures. There also appears to be a direct structural, and possible functional, relationship between (1) the position of the larynx, (2) the orientation of the pharyngeal constrictor muscles, and (3) the orientation of the basiocciput.</t>
+          <t>1. The sodium and water excretion rates of rabbit kidneys were studied when isolated and perfused at known pressure with blood from another normal anaesthetized rabbit. Studies at several different perfusion pressures confirmed that a small rise in perfusion pressure caused a large rise in sodium excretion and that the potential sodium-excreting ability of the isolated kidney was high. The curve obtained could be closely fitted by a quadratic equation which allowed an estimate to be made of the blood pressure below which no urine is formed, i.e. the 'theoretical perfusion pressure threshold'. For normal kidneys this was 55-4 mmHg. 2. A group of rabbits had a silver clip applied to the left renal artery and, 3-6 weeks later, the eight most hypertensive animals were selected to provide their kidneys for perfusion. Both kidneys were perfused simultaneously. The clip on the left renal artery was removed immediately before perfusion and the cannula placed distal to the stenosis in the post-stenotic dilatation. The function curves of these kidneys were compared with the curves obtained from normal kidneys. 3. The untouched kidney contralateral to the clip was found to require a significantly higher perfusion pressure (71-7 mmHg) for it to achieve a given sodium excretion rate and, surprisingly, the clipped kidney showed a similar functional change (76-4 mmHg). In other words the positions of both function curves were shifted though their slopes were not much changed. 4. Both kidneys in single-clip-hypertension appear to adapt or reset their sodium excretory behaviour. The resetting in the untouched kidney allows hypertension to be sustained without undue sodium loss. Aldosterone probably contributes little to the resetting. We infer, indirectly, that the normal kidney may, to a significant extent, restrain sodium excretion by virtue of its sympathetic innervation. We also opine that the kidney cannot be assigned fixed intrinsic functional properties on which a renal sodium-handling theory of long-term blood pressure regulation can be firmly based.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2152635307</t>
+          <t>https://openalex.org/W2415585502</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1146/annurev.pc.29.100178.001441</t>
+          <t>https://doi.org/10.1080/00365521.1976.12097095</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Madix &amp; Benziger (1978)</t>
+          <t>Strunz et al. (1976)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Kinetic Processes on Metal Single-Crystal Surfaces</t>
+          <t>Gastroduodenal Motor Response to Natural Motilin and Synthetic Position 13-Substituted Motilin Analogues: A Comparative In Vitro Study</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Chemical interactions between gas molecules and solid surfaces manifest themselves as crucial considerations in such diverse areas as wall effects in fusion reactors, heterogeneous catalysis (including electrocatalysis), corrosion, and molecular cos­ mology. In each of these fields the resolution of important questions rests on a more fundamental understanding of molecular transformations that occur at solid surfaces. Each process in question is characterizcd by thc sequence of molecular events (a) adsorption, (b) surface reaction, and (c) desorption (except when the reac­ tion product is nonvolatile). The purpose of this article is to review the recent work that utilizes single-crystal surfaces to understand these elementary processes, in­ cluding the effects of surface structure and composition. Excellent review articles are available concerning adsorption-desorption and surface reaction phenomena (82, 106, 108, 118, 141) and the interested reader should consult these for further information. In addition to these kinetic events, the current knowledge of the nature of the adsorbed state is also briefly reviewed. Surface oxidation processes which involve the surface as a final reaction product are not discussed.</t>
+          <t>Motor effects of graded concentrations of pure natural porcine motilin (13-Met-M) and synthetic motilin analogues - the methionine in position 13 substituted with either norleucine (13-Nle-M) or leucine (13-Leu-M) - on the rabbit, guinea-pig, rat, and human gastrointestinal smooth muscle were examined in vitro. Congruent species specificity of the motor activity of the motilins under study could be demonstrated in that muscle strips from rabbit and man were highly sensitive, whereas guinea-pig and rat preparations proved refractory to the polypeptides. In rabbit duodenal muscle and fundic muscle of the human stomach, graded concentrations of 13-Met-M, 13-Nle-M, and 13-Leu-M, respectively, produced graded increases in the contractile responses. The concentration-response curves were superimposable. Calculated maximal contractile responses (CMR's) and polypeptide doses for one-half maximal responses (D50 values) were not significantly different between the three motilins. Moreover, pharmacological analysis revealed that the motor effects of 13-Met-M, 13-Nle-M, and 13-Leu-M are uniformly not mediated via nervous pathways: neither blockage of axonal conduction by tetrodotoxin nor anticholinergic action by atropine exerted any detectable influence. Viewing the data presented, one may conclude that in man and rabbit, 1) natural porcine motilin and its synthetic position 13-substituted analogues, 13-Nle-M and 13-Leu-M, are of equal efficacy for gastroduodenal motor activity, and 2) position 13 of the amino acid sequence of motilin (22-residue chain) is not pertinent to the active site of the molecule.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1966143297</t>
+          <t>https://openalex.org/W2415861771</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0048-9697(78)90003-7</t>
+          <t>https://doi.org/10.1177/030631277600600107</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Draggan &amp; Giddings (1978)</t>
+          <t>Allen (1976)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Testing toxic substances for protection of the environment</t>
+          <t>Essay Review : Genetics, Eugenics and Society: Internalists and Externalists in Contemporary History of Science</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>The Toxic Substances Control Act requires pre-production testing of chemicals for potential hazards to human and environmental health. Effective control of chemicals requires evaluations of chemical hazard that go beyond determinations of toxicity to humans to include the effects, transport, and fate of chemicals in the environment. Formulation of meaningful hazard evaluations depends on integrating information from tests of chemical effects, transport, and fate or by developing testing tools that integrate these factors during experimentation. Chemical effects may be acute or chronic and they may be observed in individual organisms, populations of organisms, or in total ecosystems. Chemical transport through the environment depends on physico-chemical characteristics of the chemical and the medium (soil, water, or air) as well as environmental factors and biotic processes. The ultimate fate of chemicals (persistence, transformation, or degradation) is determined by numerous physical and biological processes occurring in the environment, and must be acknowledged to effectively determine the hazard. Many techniques are available for the separate and routine evaluation of the effects, transport and fate of environmental contaminants. However, separate identification of the importance and magnitude of each of these factors limits their utility in assessments of chemical hazard. The microcosm (model ecosystem) method integrates many of these tests in replicable experimental units, and may provide substantial information on chemical hazard in ecosystem context.</t>
+          <t>In certain circles of the history of science, two distinct traditions, apparently as immiscible as oil and water, have long co-exi,ted. One, which for the sake of argument can be called the 'internalist' tradition,' is a form of intellectual history. It is concerned with the growth of particular scientific, often technical, ideas; with how certain ideas in a field of science arose, were influenced by or, in turn, influenced ideas in other fields of science (or occasionally philosophy). The other tradition again for simplicity, called the 'externalist' is in the nature of social, political and economic history. It is more concerned with the interaction between society and particular scientific ideas, or the practice of science as a social phenomenon; it is less concerned with fine points in the development of the scientific ideas themselves. Externalists attempt to understand the factors which caused the development of a particular set of scientific ideas, and which in turn were affected by the science itself. Of course, most good history of science contains both internalist and externalist elements. But until very recently there have been few examples of a genuine integration. The field of the history of genetics now offers the prospect of such an integration. The history of biology in general, and genetics in particular, has grown rapidly in the past decade. Beginning with the publication of L. C. Dunn's A Short History of Genetics (New York: McGraw-Hill, 1965) and A. H. Sturtevant's A History of Genetics (New York: Harper &amp; Row, 1965) genetics emerged as an important new field in the history of modern biological science. In the intervening years the work of E. A. Carlson, William Coleman, Frederick Churchill, Mark Adams, Robert Olby, Ruth Cowan and many others (including the present author) have attempted to elucidate various aspects of the history of genetics in the period since the 1880s.2 Virtually all of these workers have focused attention on the 'internal' development of specific, often technical ideas in the field of heredity: from pre-Mendelian theories through the rediscovery of Mendel and the chromosome theory to molecular genetics. Only a few works have appeared during this period which attempt in any way to relate the development of genetic</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2016298418</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1139/b78-334</t>
+          <t>https://openalex.org/W2418925478</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Wiltens et al. (1978)</t>
+          <t>Ca (1976)</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Chlorophyll fluorescence induction: an indicator of photosynthetic activity in marine algae undergoing desiccation</t>
+          <t>Ultrastructural comparison of the midgut epithelia of fleas with different feeding behavior patterns (Xenopsylla cheopis, Echidnophaga gallinacea, Tunga penetrans, Siphonaptera, Pulicidae).</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Algae of higher intertidal regions tend to be tolerant of extended periods of desiccation, while many lower tidal or subtidal species do not withstand even mild water loss. (Tidal regions can be characterized as high (regularly immersed at high tide and exposed at low tide), low (emergence only during minus tides (lower than mean low tide)), or subtidal (never exposed at low tide and extending to the maximum depth at which net photosynthesis can occur).) The ecological necessity for tolerance in frequently emerged species is obvious, but the physiological basis of it is not well understood. Changes of photosynthetic partial reactions upon desiccation and rehydration of tolerant and sensitive algae were studied by measurements of chlorophyll fluorescence induction kinetics (Kautsky effect). With progressive decrease in water content the gradual disappearance of the characteristic fluorescence transients was observed in both tolerant and sensitive species. The water content ranges where typical changes occurred were species dependent. Rehydration in tolerant plants resulted in rapid recovery from severe desiccation; there was no such recovery in sensitive plants when water content was decreased below a critical value. Analysis of the fluorescence changes upon desiccation and rehydration suggests: (1) electron transport between photosystem II and photosystem I, as well as H 2 O splitting are the partial reactions sensitive to desiccation; (2) in the resistant Porphyra sanjuanensis, intersystem electron transport is blocked at around 25% water content; (3) further desiccation leads to loss of water-splitting activity and eventually to the complete loss of variable fluorescence photosystem II reaction centers; and (4) on rehydration intersystem electron transport begins almost immediately while recovery of H 2 O splitting requires several minutes.</t>
+          <t>This morphological study describes the ultrastructure of the midgut of three flea species, including temporary parasitic fleas (both sexes of Xenopsylla cheopis, males and immature females of Echidnophaga gallinacea and Tunga penetrans) and stationary parasitic fleas (mature females of E. gallinacea and T. penetrans). (1) Three cell types (a,b,c) constitute the midgut epithelium, each appearing in a characteristic and constant frequency along the whole midgut, a) The functional digestive cells form the main part of the epithelium as one layer of cylindric cells. Nuclear volume and nucleus/cytoplasm ratio have been estimated (with morphometric methods) to be the same in both sexes of E. gallinacea and T. penetrans. b) Some single regenerative cells or nests, containing 5-10 cells per section plane, lay at the base of the epithelium (2-3 cells or nests per cross section of a midgut). c) Secretory cells are characterized by their opaque cytoplasm which contains electron-dense vesicles. They have few microvilli and no basal labyrinth and are placed between digestive cells only as single cells (1-2 per cross section of a midgut). (2) After the first bloodmeal some ultrastructural changes occur in the midgut of all fleas. These changes are interpreted as a structural reflection of metabolic processes such as secretion of digestive enzymes, resorption, storage and transport of digested nutrients, and synthesis of digestive enzymes. (3) More conspicious changes occur in the midgut of the stationary parasitic and maturing females of E. gallinacea and T. penetrans. The nuclear volumes of the digestive cells reach the two-fold and eight-fold value, respectively. The nucleus/cytoplasm ratio decreases by half. The corresponding cytoplasmic growth of each cell is reflected in an enlargement of the whole midgut. The digestive cells form long apical cell extensions. The nucleus, basal labyrinth, rer, and golgi complex all change their morphology, and this can be interpreted as the result of a higher level of metabolic activity than during the first bloodmeal. (4) The midgut of the oviparous female of T. penetrans undergoes a process of compensatory hypertrophy which consists in the cellular hypertrophy of each digestive cell and in an extensive proliferation of the regenerative cells. A unique structure, called 'nuclear halo' appears within the process of cellular hypertrophy. This structure consists of a layer of 70-100 A thick filaments along the periphery of the nucleus. The nuclear halo contains few ribosomes and is screened from the cytoplasm by an rer cisterna. The filaments may contain RNA molecules which are on their way to the cytoplasm. It has been demonstrated that the structure of the midgut epithelium is influenced by the nutritive and parasitic behavior of the flea. The stationary and oviparous E. gallinacea and T. penetrans reveal an extensive and irreversible change of their midgut epithelium.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2312380952</t>
+          <t>https://openalex.org/W2442377384</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/3676</t>
+          <t>https://doi.org/10.1016/s0015-0282(16)42263-6</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Herrera (1978)</t>
+          <t>Reyes et al. (1976)</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Ecological Correlates of Residence and Non-Residence in a Mediterranean Passerine Bird Community</t>
+          <t>Participation of Membrane Sulfhydryl Groups in the Epididymal Maturation of Human and Rabbit Spermatozoa</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Estacion Biol6gica de Donana, Sevilla-12, Spain SUMMARY (1) A southern Spanish passerine bird community was studied throughout a year, collecting information on species composition and abundance, as well as foraging behaviour and feeding site utilization of component species. In this paper, comparisons of behavioural, morphological and feeding site niche characteristics between resident and non-resident species are made. (2) For all species, within-species foraging diversity is significantly greater for non-resident than for resident species, indicating that individual resident species have a narrower repertoire of foraging tactics than non-resident ones. On a seasonal basis, between-species foraging diversity for non-residents is higher than that for residents during spring and early summer, but it falls well below the figures for resident species in winter. (3) Resident species are morphologically more diversified and less densely packed in the morphological space than non-resident ones. Resident species tend to show a wider range of bill length, and to be long-billed, with respect to non-residents. (4) Resident species exhibited feeding site niche shifts in response to its own population density, higher densities promoting wider niches as theoretically expected. Non-residents did not show comparable shifts, although some degree of response to density was noted. (5) A canonical correlation analysis was able to show that resident and non-resident species adjust themselves to the changing environment in different ways. Whereas residents do it by means of changes in density, niche breadth and between-species foraging diversity, non-residents species achieve the same end by means of changes in morphological specialization, behavioural specialization and diversity of foraging tactics, all of which take place through seasonal replacements of species. (6) The seasonal organization of the study community is discussed in relation to other temperate and non-temperate communities. It is proposed that the observed great dominance of residents with respect to number of individuals may be associated with a relatively low degree of seasonality in food supply to birds. The reliability and predominating abundance throughout the annual cycle of the food types exploited by residents, are likely to explain the maintenance of the high behavioural and morphological specialization by individual resident species. The wide spacing on the morphological space among these species may be related to the regular occurrence of periodic phases of food</t>
+          <t>Changes in the concentration of—SH groups on the human and rabbit spermatozoal membrane and during epididymal maturation were studied by means of a new fluorescent probe, carboxyphenylmaleimide (CPhM), which reacts specifically with —SH groups. Binding of CPhM did not modify oxygen uptake, motility, or viability of the sperm cells used, but produced a characteristic increase in fluorescence. By analysis of this increase it was possible to calculate the presence of 35 ± 4.2 and 55 ± 8 nmoles of exposed —SH groups/108 rabbit and human ejaculated spermatozoa, respectively. Caput epididymal cells bound significantly more CPhM than did cauda epididymal cells or ejaculated spermatozoa (155 ± 22, 78 ± 11, and 35 ± 4.2 nmoles/108 cells, respectively, in rabbit cells; and 184, 110 ± 18, and 55 ± 8 nmoles/108 cells, respectively, in humans cells). In addition to the differences in number of exposed —SH groups observed between human and rabbit sperm cells, the behavior of these membrane-reactive groups when ethylenediaminetet-raacetate and/or zinc were added to the incubation media indicates that the participation of membrane—SH groups in sperm physiology is species-specific.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2321403233</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2307/2712320</t>
+          <t>https://openalex.org/W282412272</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Bercovitch (1978)</t>
+          <t>Collins (1976)</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>The Typology of America's Mission</t>
+          <t>Coal deposits of the Carbondale, Grand Hogback, and Southern Danforth Hills coal fields, Eastern Piceance Basin, Colorado</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>THE PURITANS INVENTED THE SACRED HISTORY OF NEW ENGLAND; THE eighteenth-century clergy established the concept of America's mission. In this essay I want to suggest the nature of that development, with special emphasis on the role of the Edwardsean revivals. I use the word suggest to stress the limits of my subject. My perspective is a very partial one: partial in its view of Edwards, of Puritanism, of the Great Awakening, and above all, of the social and ideological factors that carried the colonies from revival to revolution. I try to indicate something of the larger picture in the course of my analysis, but mainly I focus on questions of rhetoric. My assumption is that (after due allowance is made for all the complexities involved) American culture may be said to have grown in a more or less coherent way toward a modern free enterprise economy, that that growth finds expression in the quasi-figural outlook we have come to associate with manifest destiny and the dream, and therefore that to describe that outlook is (by implication at least) to illuminate some of the controversial connections between Puritan, Yankee, and Revolutionary America. The connections have been controversial for many reasons. In the interests of clarity, I center my discussion on the rhetoric of millennialism, and specifically Edwardsean post-millennialism: first, in its relation to New England Puritanism; and second, in its relation to what has recently been termed civil millennialism. In both cases, historians have emphasized a radical shift in approach. Without denying the fact of change, I hope to demonstrate the ways in which the persistence of language and vision constitutes an underlying unity of design. I need hardly add that to demonstrate is not the same as to endorse.</t>
+          <t>Coals of the eastern Piceance Basin occur in the Upper Cretaceous Iles and Williams Fork Formations that make up the Mesaverde Group, which outcrops along the Grand Hogback and related structures in Gunnison, Pitkin, Garfield, and Rio Blanco Co., Colorado. The Grand Hogback monocline dominates the area structurally and forms the eastern-southeastern boundary of the Piceance Basin. Other major folds include the Sulphur Creek syncline and the Coal Basin anticline. Faulting is minor except in the southern part of the area. Only the lithogenetically equivalent Trout Creek and Rollins Sandstones, the top members of the Iles Formation, were correlated with certainty throughout the study area, although tentative coal zone and associated basal sandstone correlations were made. The Iles and Williams Fork were deposited by a southeastward-prograding delta-deltaic plain complex. Intertonguing of marine and nonmarine deposits was caused on a local basis by compaction, shifting centers of deposition, variations in sediment supply, and possibly by growth faulting, and regionally by hinge-line faulting. Coal deposits in the Carbondale, Grand Hogback, and southern Danforth Hills coal fields range in rank from high volatile C bituminous to anthracite, and possibly graphite. Analyses of these coals by various techniques indicates that forest-swamp deposition in amore » subtropical to warm-temperate climate led to initial peat formation. Burial to depths of 11,700 ft or less produced coals as they are found today north of Four Mile Creek. South of Four Mile Creek, the coals were subjected to abnormally high geothermal gradients, the result of heat from the intrusions of the Elk and West Elk Mountains. The coking quality of the coals, while secondarily dependent upon the amount of woody material present in the original swamp and on certain other swamp conditions such as water chemistry and current velocity, is primarily a function of rank.« less</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1981628744</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0006-8993(78)91098-3</t>
+          <t>https://openalex.org/W29560957</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Harris et al. (1978)</t>
+          <t>Dykstra (1976)</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Habituation-like decrements in transmission along the normal and lesion-induced temporodentate pathways in the rat</t>
+          <t>Production rates and costs for yarding by cable, balloon, and helicopter compared for clearcuttings and partial cuttings</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Deafferentation of the dentate gyrus by unilateral entorhinal cortex lesion or unilateral perforant pathway transection is a classical model to study the response of the central nervous system (CNS) to denervation. This model has been extensively characterized in the rat to clarify mechanisms underlying denervation-induced gliosis, transneuronal degeneration of denervated neurons, and collateral sprouting of surviving axons. As a result, candidate molecules have been identified which could regulate these changes, but a causal link between these molecules and the postlesional changes has not yet been demonstrated. To this end, mutant mice are currently studied by many groups. A tacit assumption is that data from the rat can be generalized to the mouse, and fundamental species differences in hippocampal architecture and the fiber systems involved in sprouting are often ignored. In this review, we will (1) provide an overview of some of the basics and technical aspects of the entorhinal denervation model, (2) identify anatomical species differences between rats and mice and will point out their relevance for the axonal reorganization process, (3) describe glial and local inflammatory changes, (4) consider transneuronal changes of denervated dentate neurons and the potential role of reactive glia in this context, and (5) summarize the differences in the reorganization of the dentate gyrus between the two species. Finally, we will discuss the use of the entorhinal denervation model in mutant mice.</t>
+          <t>This report supplements Research Bulletin 18 (1975) of the Forest Research Laboratory,_x000D_
+School of Forestry, Oregon State University. Bulletin 18 summarized analyses of data for the_x000D_
+first field season of the Pansy Basin Study. This Bulletin extends those analyses to the second,_x000D_
+and final, field season._x000D_
+Time-study observations during the second field season were made of three yarding_x000D_
+systems: running skyline, balloon haulback, and heavy-lift helicopter. The running skyline was_x000D_
+observed in a partial cutting, the balloon in a clearcutting, and the helicopter in both_x000D_
+clearcuttings and partial cuttings. All of the cutting units were designed to reduce damage to_x000D_
+the appearance of the landscape._x000D_
+Results of the analyses suggest that productive yarding time is a function of yarding_x000D_
+distance, volume per turn and per log, chordslope, and numbers of logs or chokers per turn._x000D_
+For the running skyline and the balloon, lateral yarding distance was also an important_x000D_
+determinant of productive yarding time. In addition, the number of men in the rigging crew_x000D_
+was found to be a statistically significant predictor for the running skyline, as was tagline_x000D_
+length for the balloon._x000D_
+For the running skyline system, the data in this study support the hypothesis that yarding_x000D_
+production rates are significantly influenced by silvicultural treatment. For the helicopter,_x000D_
+however, no significant difference appeared in yarding rates between the clearcutting and_x000D_
+partial cutting treatments._x000D_
+The effect of cutting unit design on yarding efficiency for cable systems cannot be_x000D_
+generalized, although it did not appear to be significant for the cutting units in the Pansy Basin_x000D_
+Study. Certainly, cutting units can be designed for which unit shape is an important_x000D_
+determinant of cable yarding productivity. Shape of cutting unit would not be expected to_x000D_
+influence helicopter yarding productivity, however.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2050585588</t>
+          <t>https://openalex.org/W3166296707</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1365-246x.1978.tb04755.x</t>
+          <t>https://doi.org/10.34194/rapggu.v73.7430</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Agnew &amp; Farrell (1978)</t>
+          <t>Heling (1976)</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Self-consistent equilibrium ocean tides</t>
+          <t>Mineralogy of recent pelitic sediments from the Fiskenæsset region, southern West Greenland</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>We compute the static response of the world ocean to an external zonal gravitational potential. The computation includes the effects of the self-attraction of the ocean, and the yielding of the Earth caused both by the external potential and the change in ocean load. We compare the computed tide with measurements of the fortnightly and monthly ocean tides. The short-wavelength departures from equilibrium found by Wunsch are still present. An average of observations at Pacific islands shows that the fortnightly tide departs significantly from equilibrium but the monthly may not. We have also calculated the effects of our computed tide on measurements of tidal gravity and tidal fluctuations in the length of day. Existing tidal gravity data are too imprecise to enable us to determine whether or not the spatial average of the ocean tides departs from equilibrium. The length of day data suggest that the monthly tide is farther from equilibrium than the fortnightly. We have not been able to resolve the apparent discrepancy between the length of day and ocean tide data.</t>
+          <t>Recent muds were sampled during the summer of 1973 from different fjords and lakes in the Fiskenæsset region of southern west Greenland. The samples were analysed for their mineralogical composition in order to study sorting effects and possibie mineral alteration by transport action under subarctic climatic conditions. In an investigation of the composition of sands from the Fiskenæsset region Kalsbeek et al. (1974) revealed a close correspondence between the mineralogical composition of the coarser clastic components and that of the bedrock. Such relationships occur when chemical weathering of the sediment material is negligibie due to low temperatures and in connection with fast transport (high relief) and corresponding high sedimentation rates. All these influencing factors are active in southern west Greenland. Sampling was undertaken in Buksefjorden, Sermilik, Grædefjord, Fiskenæsfjorden, Bjørnesund and at the margin of Frederikshåbs Isblink. Further bottom samples were taken from the lakes marked in fig. 45. A total of 121 samples were recovered from depths ranging from Oto 275 m using grab sampling devices. Almost the entire sediment material under consideration has been produced by glacial abrasion and only a negligibie proportion by soil formation processes. Both bed load and suspension load are brought by melt water streams from beneath the glaciers. The melt waters run into glaciaIly eroded lakes, where most of the coarse sediment material and some of the clay fraction is trapped. Most of the clay fraction remains in suspension, however, and is transported downstream to sea level. Considerable amounts of clay in suspension are carried far into the fjords.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2060687945</t>
+          <t>https://openalex.org/W4231703230</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0040-4020(78)89052-8</t>
+          <t>https://doi.org/10.1016/0306-4573(76)90031-5</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Taskinen &amp; Pentikäinen (1978)</t>
+          <t>Terrant (1976)</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>13C NMR study of the structures of some acyclic and cyclic ketene acetals</t>
+          <t>Letter to the editor</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>A 13C NMR study of the spatial structures of some acyclic and cyclic ketene acetals (for example, ketene dimethyl acetal and 2-methylene-1,3-dioxolane) has been carried out. The conclusions obtained are based on observation of the effect of structural changes on the 13C NMR chemical shift of the β carbon on the ketene moity. Since the extent of p-π conjugation and hence the 13C chemical shift of this carbon depend on the spatial orientation of the alkoxy groups about the O-C(sp2) bonds, the shift concerned may be used as a measure of the planarity of the system. The most stable retamers of ketene dimethyl acetal are s-cis,s-cis (planar) and s-cis,gauche (slightly nonplanar), in the order of decreasing stability. For ketene dialkyl acetals, the relative stability of the planar s-cis,s-cis form decreases with increasing bulkiness of the alkyl groups, but at least for primary and secondary alkyl groups, the s-cis,s-cis rotamer appears to be the most favored species. The conformations of 5- to 8-membered cyclic ketene acetals are discussed and compared with those of the corresponding cyclic vinyl ethers and hydrocarbons.</t>
+          <t>The explosive changes at the global level from the last century, either of an economic nature or at the information level have created the proper field for mass-media to develop, the emergence of internet and implicitly the massive changes at the level of the society or the individual.The involvements of the individuals in the modifications that take place imply a change in the traditional education and the shift to a permanent education which can integrate the formal, informal and nonformal education.Mass-media (media of mass communication) represents the totality of mass information (radio, television, press, internet etc.).Even though mass media had information as a principal function, and especially as the society got more computerized, significant changes in the behavioral manifestations have appeared in the individual experiences regarding the gain of knowledge, the same influences of mass-media refused by some can be accepted with ease by others.If the consumer has the control upon the information, the overwhelming impact of media does not affect him/her in a negative way.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://openalex.org/W39750824</t>
+          <t>https://openalex.org/W4237950065</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-94-009-9951-0_14</t>
+          <t>https://doi.org/10.1016/0368-1874(76)85075-7</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>White &amp; Werger (1978)</t>
+          <t>Fujinaga (1976)</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>The Guineo-Congolian transition to southern Africa</t>
+          <t>Electrochemical studies of sulfonates in non-aqueous solvents Part II. Polarographic reductions of some alkaline earth and transition metal ions with sulfonate supporting electrolyte in N,N-dimethylformamide and acetonitrile</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>The floras of the Guineo-Congolian and Zambezian Regions,* except for a few cosmopolites, pluri-regional linking species and chorological and ecological transgressors, are almost mutually exclusive so far as the greater part of their areas is concerned. There is, however, a transition zone between them (White 1976a, in press, A) up to 500 km wide, where an impoverished Guineo-Congolian flora and an even more impoverished Zambezian flora interdigate or occur in mosaic, and, locally, intermingle. The precise distribution of végétation dominated by these floras is determined by local edaphic and climatic factors. Most of the Zaire part of this Congo-Zambezia transition zone is included in the Guineo-Congolian Region by Duvigneaud (1952), who, nevertheless, admits its transitional nature. Certain authors, e.g. Devred (1957) and Liben (1958), attempt to define a precise boundary between the Guineo-Congolian and Zambezian Regions. The general needs of biogeography, however, are equally well served if transitional zones are clearly recognized as such.</t>
+          <t>The effect of p-toluenesulfonate and trifluoromethanesulfonate supporting electrolytes on the polarographic reduction of some alkaline earth and transition metal ions in N,N-dimethylformamide and acetonitrile has been investigated. Trifluoromethanesulfonate behaved similarly to perchlorate in dimethylformamide, while the half-wave potentials in p-toluenesulfonate supporting electrolyte shift to more negative potentials than those in perchlorate. in acetonitrile, the half-wave potentials shift to more negative potentials in trifluoromethanesulfonate than in perchlorate. The effect of the supporting electrolyte on the shift of the half-wave potential can be explained as the ion-pair formation between the divalent cation to be reduced and the supporting electrolyte anion.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1983029561</t>
+          <t>https://openalex.org/W4244634973</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/bf02189494</t>
+          <t>https://doi.org/10.3189/s0022143000031671</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Anger (1978)</t>
+          <t>Miller (1976)</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Development of a subtidal epifaunal community at the island of Helgoland</t>
+          <t>Thermo-Physical Characteristics of Glaciers — Toward a Rational Classification</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Epifaunal community development on plexiglas panels submerged in Helgoland Harbour (North Sea) was observed over one year. The course of colonization is described, and some data are presented on autecology, reporduction, and growth rate of particular species. About three months after initial settlement, conditions of coexistence in a mixed barnacle-ascidian community began to change increasingly due to heavy competition for space. The colonial speciesBotryllus schlosseri proved to be potentially dominant. Shortly before it attained monopolization by replacing barnacles (mainlyElminius modestus), a major physical disturbance eliminated the fast growing ascidian. The roles of physical factors, of biological interactions, and of historical events in community development are discussed in context with succession theory and other concepts evolved more recently. It is concluded that succession-like processes can occur in subtidal fouling communities, but there the existence of a globally stable climax is unlikely. Generally the concept of multistable points seems to be better applicable to marine ecosystems than that of succession in the classical sense. There is considerable need for further natural history observations and experiments as an empirical basis for current theory and modelling.</t>
+          <t>Abstract Forty years ago, Ahlmann considered the thermo-physical character of ice masses as a basis for differentiating glaciers into two broad geophysical groups: (1) polar and (2) temperate . About the same time, Lagally sub-divided glaciers into corresponding thermodynamic categories: (1) kalt and (2) warmen . By this it was understood that the temperature of a polar, or “cold”, glacier was perennially sub-freezing throughout, except for a shallow surface zone which might be warmed for a few centimeters each year by seasonal atmospheric variations. Conversely, in a temperate, or “warm”, glacier, the temperature below a recurring winter chill layer was consistently at the pressure melting point. As these terms are thermodynamic in connotation, glaciers of the polar type may exist at relatively low altitudes if their elevations are sufficiently great. Temperate glaciers may be found even above the Arctic Circle at elevations low enough that chilling conditions are not induced by the lapse rate. In these distinctions, it is implied that regardless of geographical location a glacier’s mean internal temperature represents an identifiable characteristic which can be shown critically to affect the mass and liquid balance of ice masses and significantly to relate climatic influences to glacier regimes. The importance of these implications, and the fact that they are based on a gross, sometimes changing, and always difficult to measure, thermo-physical characteristic, makes some explicit terminology desirable. To some extent Ahlmann addressed this problem by introducing a subordinate classification, sub-polar glaciers. In these, the penetration of seasonal warmth involved only a shallow surface layer at 0°C, but still to a depth substantially greater than the superficial warming experienced in summer on polar glaciers. Lagally also recognized an intermediate type which he called “transitional”, characterized by a relatively deep penetration of 0°C englacial conditions during the summer. These pioneering efforts reflect Ahlmann’s experience with glaciers in the high Arctic and Lagally’s with the Alpine glaciers of southern Europe. Although some confusion has resulted from alternate application of these different terms, both definitions can be useful. Further to refine the classification, a modified terminology is suggested by the writer. This involves introducing a fourth category, substituting the term sub-temperate for Lagally's “transitional” type on the basis that it is etymologically more consistent with the Ahlmann terminology which has remained most commonly in use. Thus, two distinct transitional categories are identified. These categories, sub-polar and sub-temperate, typify ice sheets during changes from fully polar to fully temperate englacial conditions—a situation pertaining during the waning and waxing stages of deglaciation and reglaciation, A review of the literature reveals further problems. Flint and others have considered geophysically temperate glaciers as most typical of the inland glaciation which covered much of Europe, northern North America and Siberia during the expanded phases of the Pleistocene, whereas others including Ahlmann have suggested that the massive continental glaciers of the Pleistocene were geophysically polar. Thus, the latter advocates consider that present-day Antarctic and Greenland ice sheets represent conditions comparable to those which pertained in the Laurentide and Cordilleran ice sheets. New insights have developed, however, through deep drilling and englacial temperature measurements carried out in a number of different geographical locations in recent years. Such research has shown that each of the geophysical categories can pertain in a glacier system if there is sufficient range of latitude, area and elevation for the requisite climatological factors to pertain. Because of the foregoing considerations, it is probable that polar, sub-polar, sub-temperate and temperate thermal conditions coexisted in different parts of continental glaciers during the Pleistocene maxima. At times of greatest extension, the ice sheet’s peripheries could have been thermo-physically polar and sub-polar, as on the margins of today’s Greenland icc sheet. But in their most regressive phases, the lower latitude margins were more than likely temperate, with only high interior sectors remaining “cold”. Such combined conditions characterize a fifth thermo-physical category, which in the geophysical sense may be termed polythermal . To some extent all glaciers are poly thermal, except in the final wasting temperate phase when they are fully isothermal. To elucidate the characteristics of each of these five categories and to identify prototypes with suggested thermal parameters, selected held studies on existing glaciers are discussed and thermal measurements and characteristics illustrated. From the sampled data, arbitrary englacial temperature limits are suggested: for the main body of po</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1995097890</t>
+          <t>https://openalex.org/W4246744773</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0271-7123(78)90017-2</t>
+          <t>https://doi.org/10.2136/sssaj1976.03615995004000050025x</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Blaxter (1978)</t>
+          <t>Doran &amp; Alexander (1976)</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Diagnosis as category and process: The case of alcoholism</t>
+          <t>Microbial Formation of Volatile Selenium Compounds in Soil</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Concepts of health and sickness change continually. A notable change during the last century or so has been the inclusion within the idea of “sickness” of behavioural, environmental and social problems, and an attempt to return—within a vastly more complex scientific context—to older concepts of “the patient, not the disease”, or “man in equilibrium with his environment” as things that medicine should properly be concerned with. One example of such a “new” diagnosis is the disease of alcoholism. An examination of the way in which doctors use this particular category led to a consideration of the nature of that activity known as medical diagnosis. How are such social diagnoses fitted into doctors' normal classificatory practice or systems? And can this tell us anything about the adaptive processes of medicine in general'? The conclusion reached is that the diagnostic activity is essentially a prescriptive one, and that even though a condition may have been clearly accepted into the medical gallery, doctors may be reluctant to use it as a classification if it is one for which no clear medical prescription exists.</t>
+          <t>Abstract Selenium was volatilized from soils amended with elemental Se, selenite, selenate, trimethylselenonium chloride, selenomethionine, and selenocystine and incubated in air or anaerobically. The processes were wholly or largely the result of microbial action. The conversion of selenite and selenate to volatile products was enhanced if soil was amended with organic materials. Indigenous soil Se was also volatilized in the presence of supplemental organic matter. The products were identified by combined gas chromatography‐mass spectrometry. Dimethyl selenide was generated from all Se compounds tested when amended soils were incubated in the presence of air. Under anaerobic conditions, dimethyl selenide was produced from the three organic Se compounds and selenate, and a product tentatively identified as hydrogen selenide (H 2 Se) was evolved from soil receiving elemental Se, selenite, selenate, or selenocystine. Dimethyl diselenide was also formed from selenomethionine in soil incubated in air or anaerobically.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2406002377</t>
+          <t>https://openalex.org/W56261581</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1152/jn.1978.41.4.910</t>
+          <t>https://doi.org/10.1016/b978-0-408-70705-3.50009-3</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Robinson et al. (1978)</t>
+          <t>Hughes (1976)</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Parietal association cortex in the primate: sensory mechanisms and behavioral modulations</t>
+          <t>MEMBRANE GLYCOPROTEINS AS ANTIGENS</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>ArticlesParietal association cortex in the primate: sensory mechanisms and behavioral modulationsD. L. Robinson, M. E. Goldberg, and G. B. StantonD. L. Robinson, M. E. Goldberg, and G. B. StantonPublished Online:01 Jul 1978https://doi.org/10.1152/jn.1978.41.4.910MoreSectionsPDF (4 MB)Download PDF ToolsExport citationAdd to favoritesGet permissionsTrack citations ShareShare onFacebookTwitterLinkedInEmailWeChat Previous Back to Top Next Download PDF FiguresReferencesRelatedInformationCited ByAttention23 March 2018An Integrative Framework for Sensory, Motor, and Cognitive Functions of the Posterior Parietal CortexNeuron, Vol. 97, No. 6Transition of target-location signaling in activity of macaque lateral intraparietal neurons during delayed-response visual searchSatoshi Nishida, Tomohiro Tanaka, and Tadashi Ogawa15 September 2014 | Journal of Neurophysiology, Vol. 112, No. 6Sensorimotor Locus of the Buildup Activity in Monkey Lateral Intraparietal Area NeuronsJoonkoo Park, and Jun Zhang1 May 2010 | Journal of Neurophysiology, Vol. 103, No. 5Reply to Balan and GottliebJeremiah Y. Cohen, Richard P. Heitz, Geoffrey F. Woodman, and Jeffrey D. Schall1 August 2009 | Journal of Neurophysiology, Vol. 102, No. 2Comparison of Shape Encoding in Primate Dorsal and Ventral Visual PathwaysSidney R. Lehky, and Anne B. Sereno1 January 2007 | Journal of Neurophysiology, Vol. 97, No. 1Neural Correlates of Attention and Distractibility in the Lateral Intraparietal AreaJames W. Bisley, and Michael E. Goldberg1 March 2006 | Journal of Neurophysiology, Vol. 95, No. 3Attention and Memory-Related Responses of Neurons in the Lateral Intraparietal Area During Spatial and Shape-Delayed Match-to-Sample TasksAnne B. Sereno, and Silvia C. Amador1 February 2006 | Journal of Neurophysiology, Vol. 95, No. 2Active Vision in Parietal and Extrastriate Cortex29 June 2016 | The Neuroscientist, Vol. 11, No. 5Topographic Organization for Delayed Saccades in Human Posterior Parietal CortexDenis Schluppeck, Paul Glimcher, and David J. Heeger1 August 2005 | Journal of Neurophysiology, Vol. 94, No. 2Effects of background color on detecting spot stimuli in the upper and lower visual fieldsBrain and Cognition, Vol. 55, No. 3Primate Antisaccade. II. Supplementary Eye Field Neuronal Activity Predicts Correct PerformanceNelly Amador, Madeleine Schlag-Rey, and John Schlag1 April 2004 | Journal of Neurophysiology, Vol. 91, No. 4Visuomotor Origins of Covert Spatial AttentionNeuron, Vol. 40, No. 4Nonspatial Saccade-Specific Activation in area LIP of Monkey Parietal CortexA. R. Dickinson, J. L. Calton, and L. H. Snyder1 October 2003 | Journal of Neurophysiology, Vol. 90, No. 4Visual Tracking Neurons in Primate Area MST Are Activated by Smooth-Pursuit Eye Movements of an “Imaginary” TargetUwe J. Ilg, and Peter Thier1 September 2003 | Journal of Neurophysiology, Vol. 90, No. 3Visual attention: the where, what, how and why of saliencyCurrent Opinion in Neurobiology, Vol. 13, No. 4Human brain regions required for the dividing and switching of attention between two features of a single objectCognitive Brain Research, Vol. 17, No. 1Visual Processing in the Primate Brain15 April 2003Auditory deprivation affects processing of motion, but not colorCognitive Brain Research, Vol. 14, No. 3Direct Comparison of Neural Systems Mediating Conscious and Unconscious Skill LearningDaniel B. Willingham, Joanna Salidis, and John D.E. Gabrieli1 September 2002 | Journal of Neurophysiology, Vol. 88, No. 3Enhanced Tactile Performance at the Destination of an Upcoming SaccadeCurrent Biology, Vol. 12, No. 16Non-spatial, motor-specific activation in posterior parietal cortex20 May 2002 | Nature Neuroscience, Vol. 5, No. 6Effects of Optic Flow in Motor Cortex and Area 7aH. Merchant, A. Battaglia-Mayer, and A. P. Georgopoulos1 October 2001 | Journal of Neurophysiology, Vol. 86, No. 4Eye Movements Modulate Visual Receptive Fields of V4 NeuronsNeuron, Vol. 29, No. 3Effect of Attentive Fixation in Macaque Thalamus and CortexD. B. Bender, and M. Youakim1 January 2001 | Journal of Neurophysiology, Vol. 85, No. 1Visual attention: Insights from brain imaging1 November 2000 | Nature Reviews Neuroscience, Vol. 1, No. 2Visual, Saccade-Related, and Cognitive Activation of Single Neurons in Monkey Extrastriate Area V3AKae Nakamura, and Carol L. Colby1 August 2000 | Journal of Neurophysiology, Vol. 84, No. 2Increased Activity in Human Visual Cortex during Directed Attention in the Absence of Visual StimulationNeuron, Vol. 22, No. 4Responses of Neurons in Inferior Temporal Cortex During Memory-Guided Visual SearchLeonardo Chelazzi, John Duncan, Earl K. Miller, and Robert Desimone1 December 1998 | Journal of Neurophysiology, Vol. 80, No. 6A Common Network of Functional Areas for Attention and Eye MovementsNeuron, Vol. 21, No. 4Model of Cortical-Basal Ganglionic Processing: Encoding the Serial Order of Sensory EventsDavid G. Beiser, and James C. Houk1 June 1998 | Journal of Neurophysiology, Vol. 79, No. 6Cha</t>
+          <t>This chapter discusses the role of membrane glycoproteins as antigens. The nature of the antigens present on cell surfaces is uncertain, although it is agreed that a large part of the ABH determinants expressed at the surface of erythrocytes are part of membrane glycolipids. The availability of isoantibodies that are specific for the A or B determinant and are assumed accurately to define particular heterosaccharide sequences, allows a general survey to be made of the distribution of these carbohydrate units on cells of different types. In general, H, A or B substances are found on the surface of epithelial and endothelial cells, as well as mucus-secreting apparatus and various organs of secretion. Whenever the instability of the A and B determinants is observed in long-term cultures, the underlying structure of the H determinant appears to be stable. The inability of cells in long-term cultures to complete the synthesis of complex carbohydrate chains is correlated with the transformation of these cells into lines with unlimited growth potential.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1969172713</t>
+          <t>https://openalex.org/W68877025</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1175/1520-0469(1978)035&lt;1974:ansoss&gt;2.0.co;2</t>
+          <t>https://doi.org/10.1016/b978-0-12-762950-6.50008-4</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Wilhelmson &amp; Klemp (1978)</t>
+          <t>McMillan (1976)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>A Numerical Study of Storm Splitting that Leads to Long-Lived Storms</t>
+          <t>The Pomme de Terre Study Locality: Its Setting</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>We have used a three-dimensional cloud model to investigate the splitting of an initially isolated storm in a one-directional east-west shear. The simulated evolution of storm splitting in some cases follows all four stages suggested by Achtemeier (1969) after analysis of radar data, including the development of two self-sustaining storm. One of these storms moves to the right of the mean wind vector and the other to the left. In the right-moving storm the updraft rotates cyclonically and the downdraft anticyclonically, forming a vortex pair, as depicted in the schematic model of Fankhauser (1971). The vortex pair structure is also similar to that observed with Doppler radar and analyzed by Ray (1976). The downdraft-induced gust front interacts with the low-level environmental wind to produce the convergence necessary to sustain the storm. This convergence extends to the south and west of the storm, and if enough low-level moisture is available a flanking line develops. The distribution of rainwater within the updraft suggests the existence of an over-hang and book typically observed in severe storms. To understand when splitting might occur the strength and distribution of the vertical wind shear were varied. The various simulations suggest that strong shear at and just above cloud base is important for the splitting process to be successful. For splitting to occur the low-level inflow from the cast in our simulations must be sufficiently strong to inhibit the propagation of the gust front toward the cast. If the gust front (or wind shift line) can propagate away from the storm toward the cast, the region of low-level convergence moves away from the storm and initial splitting in the lower updraft cannot he sustained. Further, without the precipitation-induced downdraft and associated low-level outflow splitting does not occur.</t>
+          <t>This chapter discusses the settings of Pomme de Terre. The lower Pomme de Terre River drainage constitutes a part of the western border of the Ozark Highland where this dissected plateau merges with Missouri's unglaciated prairie region. This is approximately 95 km north of Springfield, Missouri and 150 km southeast of Kansas City. This river is an affluent of the Osage River, which in turn is one of the larger tributaries of the lower Missouri River. Locally, the area studied is about half the distance between the communities of Warsaw, on the north, and Wheatland, to the south. The latter is famous in the anthropological literature as Plainville, U.S.A. The lower Pomme de Terre River forms a sinuous border between what has variously been called the Salem Plateau or Central Plateau on the east and the Springfield Plain to the west. The former is moderately dissected with steep relief along its deeply incised streams. Between basins on the Salem surface, there are numerous small plateaus. The least dissected region of the Ozarks is the Springfield Plain. Most physiographers delineate the Springfield Plain as a physiographic region distinguishable from the residual Cherokee Plains of eastern Kansas, Oklahoma, and extreme western Missouri.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1994332014</t>
+          <t>https://openalex.org/W69078860</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0014-4827(78)90185-4</t>
+          <t>https://doi.org/10.1007/978-1-4684-3270-1_6</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Bertheussen &amp; Seljelid (1978)</t>
+          <t>Chen et al. (1976)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Echinoid phagocytes in vitro</t>
+          <t>The Iron-Sulfur Centers and the Function of Hydrogenase from Clostridium Pasteurianum</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>A method is described for obtaining pure monolayers of phagocytes from the sea urchin Strongylocentrotus droebachiensis in vitro. The coelomic fluid contains four types of cells. About 67% of the cells are phagocytes, the rest is comprised of the red and white morula cells and the vibratile cells. The different cell types could be separated by centrifugation on a discontinuous gradient of sodium metrizoate. Release of granula from the vibratile cells was found to be responsible for rapid and extensive clotting of the coelomic fluid immediately after its removal from the animal. Clotting was prevented by adding a mixture of 50 mM mercaptoethanol, 3 mM caffeine and 2 mM TAME (p-tosyl-l-arginine methyl ester) to the coelomic fluid. The phagocytes were isolated from other cell types by their attachment to glass, and were grown at 10 °C in a simple peptone-sea water medium. The phagocytes are very motile cells and spread rapidly on glass, accompanied by a complete change of their morphology to flattened cells with peripheral ruffling. After few hours in vitro the cells fuse to form monolayer-syncytia, and later still cell clusters and free floating balls of cells are formed. During a culture period of 10 days there was no change in the DNA content per culture, while a small increase in protein was found.</t>
+          <t>Hydrogenase from C. pasteurianum is an iron-sulfur protein containing at least two tetrameric iron-sulfur centers. Information on the structure of the remaining iron atoms must await future investigation. Although the EPR spectra of dithionite-reduced hydrogenase and eight-iron Fd showed some similarity, the CD spectra clearly indicated a difference. The tetrameric iron-sulfur centers of hydrogenase were shown to undergo redox changes when hydrogenase was oxidized or reduced. However, no evidence is now available to support a role for the tetrameric Fe-S centers, responsible for the EPR spectrum A, as the primary site for H2 binding and activation. Because we have found that the [Fe4S4(SR)4]-containing ferredoxins do not have hydrogenase activity, it is conceivable that the additional iron atoms and/or certain amino acid residues of hydrogenase also contribute to the unique catalytic properties of this enzyme. Chemical synthesis of Fe-S clusters with different peptide environments and with hydrogenase function would lead to the identification of these functional groups. X-ray diffraction studies on hydrogenase will certainly complement the other approaches. Knowledge of the structure of the active site of hydrogenase will certainly accelerate research into: (1) the synthesis of a stable catalyst to replace hydrogenase in systems designed to produce H2 by coupling this catalyst to a photoreducing system; and (2) the elucidation of the active sites of more complicated iron-sulfur enzymes such as nitrogenase.</t>
         </is>
       </c>
     </row>
